--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="103">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -250,9 +250,15 @@
     <t>Hradec Králové</t>
   </si>
   <si>
+    <t>Teplice</t>
+  </si>
+  <si>
     <t>Pardubice</t>
   </si>
   <si>
+    <t>Slavia Praha</t>
+  </si>
+  <si>
     <t>Mladá Boleslav</t>
   </si>
   <si>
@@ -268,12 +274,6 @@
     <t>Slovan Liberec</t>
   </si>
   <si>
-    <t>Slavia Praha</t>
-  </si>
-  <si>
-    <t>Teplice</t>
-  </si>
-  <si>
     <t>['45+4', '59']</t>
   </si>
   <si>
@@ -295,6 +295,15 @@
     <t>['90+5']</t>
   </si>
   <si>
+    <t>['66']</t>
+  </si>
+  <si>
+    <t>['60']</t>
+  </si>
+  <si>
+    <t>['2', '9', '66', '83']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -308,6 +317,12 @@
   </si>
   <si>
     <t>['26', '34', '87']</t>
+  </si>
+  <si>
+    <t>['47', '61', '90+1', '90+5']</t>
+  </si>
+  <si>
+    <t>['15']</t>
   </si>
 </sst>
 </file>
@@ -669,7 +684,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP9"/>
+  <dimension ref="A1:BP13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -904,7 +919,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -928,7 +943,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q2">
         <v>1.53</v>
@@ -1110,7 +1125,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1316,7 +1331,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1340,7 +1355,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -1522,7 +1537,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1546,7 +1561,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -1728,7 +1743,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1752,7 +1767,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -1830,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ6">
         <v>3</v>
@@ -1934,7 +1949,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1958,7 +1973,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2140,7 +2155,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2346,7 +2361,7 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2527,6 +2542,830 @@
       </c>
       <c r="BP9">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:68">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>7468095</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45500.39583333334</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>93</v>
+      </c>
+      <c r="P10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q10">
+        <v>3.9</v>
+      </c>
+      <c r="R10">
+        <v>2.05</v>
+      </c>
+      <c r="S10">
+        <v>2.6</v>
+      </c>
+      <c r="T10">
+        <v>1.41</v>
+      </c>
+      <c r="U10">
+        <v>2.78</v>
+      </c>
+      <c r="V10">
+        <v>2.8</v>
+      </c>
+      <c r="W10">
+        <v>1.38</v>
+      </c>
+      <c r="X10">
+        <v>6.5</v>
+      </c>
+      <c r="Y10">
+        <v>1.07</v>
+      </c>
+      <c r="Z10">
+        <v>3.44</v>
+      </c>
+      <c r="AA10">
+        <v>3.42</v>
+      </c>
+      <c r="AB10">
+        <v>2.07</v>
+      </c>
+      <c r="AC10">
+        <v>1.02</v>
+      </c>
+      <c r="AD10">
+        <v>9.5</v>
+      </c>
+      <c r="AE10">
+        <v>1.29</v>
+      </c>
+      <c r="AF10">
+        <v>2.3</v>
+      </c>
+      <c r="AG10">
+        <v>1.91</v>
+      </c>
+      <c r="AH10">
+        <v>1.88</v>
+      </c>
+      <c r="AI10">
+        <v>1.65</v>
+      </c>
+      <c r="AJ10">
+        <v>2.1</v>
+      </c>
+      <c r="AK10">
+        <v>1.67</v>
+      </c>
+      <c r="AL10">
+        <v>1.3</v>
+      </c>
+      <c r="AM10">
+        <v>1.38</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>1.5</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0.98</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0.98</v>
+      </c>
+      <c r="AU10">
+        <v>3</v>
+      </c>
+      <c r="AV10">
+        <v>5</v>
+      </c>
+      <c r="AW10">
+        <v>2</v>
+      </c>
+      <c r="AX10">
+        <v>9</v>
+      </c>
+      <c r="AY10">
+        <v>5</v>
+      </c>
+      <c r="AZ10">
+        <v>14</v>
+      </c>
+      <c r="BA10">
+        <v>2</v>
+      </c>
+      <c r="BB10">
+        <v>9</v>
+      </c>
+      <c r="BC10">
+        <v>11</v>
+      </c>
+      <c r="BD10">
+        <v>2.22</v>
+      </c>
+      <c r="BE10">
+        <v>6.45</v>
+      </c>
+      <c r="BF10">
+        <v>2</v>
+      </c>
+      <c r="BG10">
+        <v>1.29</v>
+      </c>
+      <c r="BH10">
+        <v>3.4</v>
+      </c>
+      <c r="BI10">
+        <v>1.48</v>
+      </c>
+      <c r="BJ10">
+        <v>2.5</v>
+      </c>
+      <c r="BK10">
+        <v>1.77</v>
+      </c>
+      <c r="BL10">
+        <v>2.01</v>
+      </c>
+      <c r="BM10">
+        <v>2.22</v>
+      </c>
+      <c r="BN10">
+        <v>1.64</v>
+      </c>
+      <c r="BO10">
+        <v>2.8</v>
+      </c>
+      <c r="BP10">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:68">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>7468090</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45500.5</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="N11">
+        <v>5</v>
+      </c>
+      <c r="O11" t="s">
+        <v>94</v>
+      </c>
+      <c r="P11" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q11">
+        <v>6.5</v>
+      </c>
+      <c r="R11">
+        <v>2.5</v>
+      </c>
+      <c r="S11">
+        <v>1.91</v>
+      </c>
+      <c r="T11">
+        <v>1.3</v>
+      </c>
+      <c r="U11">
+        <v>3.4</v>
+      </c>
+      <c r="V11">
+        <v>2.38</v>
+      </c>
+      <c r="W11">
+        <v>1.53</v>
+      </c>
+      <c r="X11">
+        <v>6</v>
+      </c>
+      <c r="Y11">
+        <v>1.13</v>
+      </c>
+      <c r="Z11">
+        <v>6</v>
+      </c>
+      <c r="AA11">
+        <v>4.5</v>
+      </c>
+      <c r="AB11">
+        <v>1.47</v>
+      </c>
+      <c r="AC11">
+        <v>1.03</v>
+      </c>
+      <c r="AD11">
+        <v>17</v>
+      </c>
+      <c r="AE11">
+        <v>1.21</v>
+      </c>
+      <c r="AF11">
+        <v>4.43</v>
+      </c>
+      <c r="AG11">
+        <v>1.61</v>
+      </c>
+      <c r="AH11">
+        <v>2.15</v>
+      </c>
+      <c r="AI11">
+        <v>1.91</v>
+      </c>
+      <c r="AJ11">
+        <v>1.91</v>
+      </c>
+      <c r="AK11">
+        <v>2.75</v>
+      </c>
+      <c r="AL11">
+        <v>1.19</v>
+      </c>
+      <c r="AM11">
+        <v>1.13</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>3</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>4</v>
+      </c>
+      <c r="AV11">
+        <v>8</v>
+      </c>
+      <c r="AW11">
+        <v>3</v>
+      </c>
+      <c r="AX11">
+        <v>8</v>
+      </c>
+      <c r="AY11">
+        <v>7</v>
+      </c>
+      <c r="AZ11">
+        <v>16</v>
+      </c>
+      <c r="BA11">
+        <v>5</v>
+      </c>
+      <c r="BB11">
+        <v>4</v>
+      </c>
+      <c r="BC11">
+        <v>9</v>
+      </c>
+      <c r="BD11">
+        <v>3.69</v>
+      </c>
+      <c r="BE11">
+        <v>9.5</v>
+      </c>
+      <c r="BF11">
+        <v>1.37</v>
+      </c>
+      <c r="BG11">
+        <v>1.25</v>
+      </c>
+      <c r="BH11">
+        <v>3.6</v>
+      </c>
+      <c r="BI11">
+        <v>1.34</v>
+      </c>
+      <c r="BJ11">
+        <v>2.88</v>
+      </c>
+      <c r="BK11">
+        <v>1.61</v>
+      </c>
+      <c r="BL11">
+        <v>2.12</v>
+      </c>
+      <c r="BM11">
+        <v>1.91</v>
+      </c>
+      <c r="BN11">
+        <v>1.8</v>
+      </c>
+      <c r="BO11">
+        <v>2.64</v>
+      </c>
+      <c r="BP11">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:68">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>7468092</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45500.5</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12" t="s">
+        <v>88</v>
+      </c>
+      <c r="P12" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q12">
+        <v>2.85</v>
+      </c>
+      <c r="R12">
+        <v>2.24</v>
+      </c>
+      <c r="S12">
+        <v>3.78</v>
+      </c>
+      <c r="T12">
+        <v>1.37</v>
+      </c>
+      <c r="U12">
+        <v>3.05</v>
+      </c>
+      <c r="V12">
+        <v>2.87</v>
+      </c>
+      <c r="W12">
+        <v>1.41</v>
+      </c>
+      <c r="X12">
+        <v>6.5</v>
+      </c>
+      <c r="Y12">
+        <v>1.08</v>
+      </c>
+      <c r="Z12">
+        <v>2.2</v>
+      </c>
+      <c r="AA12">
+        <v>3.4</v>
+      </c>
+      <c r="AB12">
+        <v>3</v>
+      </c>
+      <c r="AC12">
+        <v>1.06</v>
+      </c>
+      <c r="AD12">
+        <v>11.25</v>
+      </c>
+      <c r="AE12">
+        <v>1.31</v>
+      </c>
+      <c r="AF12">
+        <v>3.52</v>
+      </c>
+      <c r="AG12">
+        <v>1.9</v>
+      </c>
+      <c r="AH12">
+        <v>1.95</v>
+      </c>
+      <c r="AI12">
+        <v>1.72</v>
+      </c>
+      <c r="AJ12">
+        <v>2</v>
+      </c>
+      <c r="AK12">
+        <v>1.38</v>
+      </c>
+      <c r="AL12">
+        <v>1.32</v>
+      </c>
+      <c r="AM12">
+        <v>1.62</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>3</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>3</v>
+      </c>
+      <c r="AV12">
+        <v>10</v>
+      </c>
+      <c r="AW12">
+        <v>5</v>
+      </c>
+      <c r="AX12">
+        <v>9</v>
+      </c>
+      <c r="AY12">
+        <v>8</v>
+      </c>
+      <c r="AZ12">
+        <v>19</v>
+      </c>
+      <c r="BA12">
+        <v>4</v>
+      </c>
+      <c r="BB12">
+        <v>3</v>
+      </c>
+      <c r="BC12">
+        <v>7</v>
+      </c>
+      <c r="BD12">
+        <v>1.95</v>
+      </c>
+      <c r="BE12">
+        <v>8.5</v>
+      </c>
+      <c r="BF12">
+        <v>2.1</v>
+      </c>
+      <c r="BG12">
+        <v>1.18</v>
+      </c>
+      <c r="BH12">
+        <v>4.33</v>
+      </c>
+      <c r="BI12">
+        <v>1.28</v>
+      </c>
+      <c r="BJ12">
+        <v>3.2</v>
+      </c>
+      <c r="BK12">
+        <v>1.51</v>
+      </c>
+      <c r="BL12">
+        <v>2.32</v>
+      </c>
+      <c r="BM12">
+        <v>1.85</v>
+      </c>
+      <c r="BN12">
+        <v>1.85</v>
+      </c>
+      <c r="BO12">
+        <v>2.38</v>
+      </c>
+      <c r="BP12">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:68">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>7468089</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45500.625</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>4</v>
+      </c>
+      <c r="O13" t="s">
+        <v>95</v>
+      </c>
+      <c r="P13" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q13">
+        <v>1.4</v>
+      </c>
+      <c r="R13">
+        <v>3.62</v>
+      </c>
+      <c r="S13">
+        <v>12.17</v>
+      </c>
+      <c r="T13">
+        <v>1.17</v>
+      </c>
+      <c r="U13">
+        <v>4.6</v>
+      </c>
+      <c r="V13">
+        <v>1.88</v>
+      </c>
+      <c r="W13">
+        <v>1.91</v>
+      </c>
+      <c r="X13">
+        <v>3.72</v>
+      </c>
+      <c r="Y13">
+        <v>1.25</v>
+      </c>
+      <c r="Z13">
+        <v>1.13</v>
+      </c>
+      <c r="AA13">
+        <v>9</v>
+      </c>
+      <c r="AB13">
+        <v>16</v>
+      </c>
+      <c r="AC13">
+        <v>1.01</v>
+      </c>
+      <c r="AD13">
+        <v>36</v>
+      </c>
+      <c r="AE13">
+        <v>1.08</v>
+      </c>
+      <c r="AF13">
+        <v>6.5</v>
+      </c>
+      <c r="AG13">
+        <v>1.3</v>
+      </c>
+      <c r="AH13">
+        <v>3.2</v>
+      </c>
+      <c r="AI13">
+        <v>2</v>
+      </c>
+      <c r="AJ13">
+        <v>1.77</v>
+      </c>
+      <c r="AK13">
+        <v>1.01</v>
+      </c>
+      <c r="AL13">
+        <v>1.05</v>
+      </c>
+      <c r="AM13">
+        <v>5.85</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>3</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>9</v>
+      </c>
+      <c r="AV13">
+        <v>2</v>
+      </c>
+      <c r="AW13">
+        <v>9</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>18</v>
+      </c>
+      <c r="AZ13">
+        <v>2</v>
+      </c>
+      <c r="BA13">
+        <v>10</v>
+      </c>
+      <c r="BB13">
+        <v>4</v>
+      </c>
+      <c r="BC13">
+        <v>14</v>
+      </c>
+      <c r="BD13">
+        <v>1.06</v>
+      </c>
+      <c r="BE13">
+        <v>15</v>
+      </c>
+      <c r="BF13">
+        <v>11.1</v>
+      </c>
+      <c r="BG13">
+        <v>1.11</v>
+      </c>
+      <c r="BH13">
+        <v>5.9</v>
+      </c>
+      <c r="BI13">
+        <v>1.2</v>
+      </c>
+      <c r="BJ13">
+        <v>4.3</v>
+      </c>
+      <c r="BK13">
+        <v>1.36</v>
+      </c>
+      <c r="BL13">
+        <v>2.79</v>
+      </c>
+      <c r="BM13">
+        <v>1.8</v>
+      </c>
+      <c r="BN13">
+        <v>1.91</v>
+      </c>
+      <c r="BO13">
+        <v>2.02</v>
+      </c>
+      <c r="BP13">
+        <v>1.71</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="108">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -259,21 +259,21 @@
     <t>Slavia Praha</t>
   </si>
   <si>
+    <t>Slovan Liberec</t>
+  </si>
+  <si>
+    <t>Baník Ostrava</t>
+  </si>
+  <si>
     <t>Mladá Boleslav</t>
   </si>
   <si>
+    <t>Viktoria Plzeň</t>
+  </si>
+  <si>
     <t>Sigma Olomouc</t>
   </si>
   <si>
-    <t>Baník Ostrava</t>
-  </si>
-  <si>
-    <t>Viktoria Plzeň</t>
-  </si>
-  <si>
-    <t>Slovan Liberec</t>
-  </si>
-  <si>
     <t>['45+4', '59']</t>
   </si>
   <si>
@@ -304,6 +304,18 @@
     <t>['2', '9', '66', '83']</t>
   </si>
   <si>
+    <t>['37']</t>
+  </si>
+  <si>
+    <t>['53']</t>
+  </si>
+  <si>
+    <t>['10', '45+1', '46']</t>
+  </si>
+  <si>
+    <t>['56']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -323,6 +335,9 @@
   </si>
   <si>
     <t>['15']</t>
+  </si>
+  <si>
+    <t>['62']</t>
   </si>
 </sst>
 </file>
@@ -684,7 +699,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP13"/>
+  <dimension ref="A1:BP17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -943,7 +958,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Q2">
         <v>1.53</v>
@@ -1125,7 +1140,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1331,7 +1346,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1355,7 +1370,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -1436,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="AQ4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1537,7 +1552,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1561,7 +1576,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -1767,7 +1782,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -1949,7 +1964,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1973,7 +1988,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2797,7 +2812,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3003,7 +3018,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="Q12">
         <v>2.85</v>
@@ -3366,6 +3381,830 @@
       </c>
       <c r="BP13">
         <v>1.71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:68">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>7468088</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45501.39583333334</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14" t="s">
+        <v>96</v>
+      </c>
+      <c r="P14" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q14">
+        <v>2.45</v>
+      </c>
+      <c r="R14">
+        <v>2.15</v>
+      </c>
+      <c r="S14">
+        <v>4</v>
+      </c>
+      <c r="T14">
+        <v>1.33</v>
+      </c>
+      <c r="U14">
+        <v>3.25</v>
+      </c>
+      <c r="V14">
+        <v>2.5</v>
+      </c>
+      <c r="W14">
+        <v>1.5</v>
+      </c>
+      <c r="X14">
+        <v>6</v>
+      </c>
+      <c r="Y14">
+        <v>1.11</v>
+      </c>
+      <c r="Z14">
+        <v>1.72</v>
+      </c>
+      <c r="AA14">
+        <v>3.55</v>
+      </c>
+      <c r="AB14">
+        <v>4.6</v>
+      </c>
+      <c r="AC14">
+        <v>1.01</v>
+      </c>
+      <c r="AD14">
+        <v>9.4</v>
+      </c>
+      <c r="AE14">
+        <v>1.25</v>
+      </c>
+      <c r="AF14">
+        <v>3.42</v>
+      </c>
+      <c r="AG14">
+        <v>1.8</v>
+      </c>
+      <c r="AH14">
+        <v>1.96</v>
+      </c>
+      <c r="AI14">
+        <v>1.73</v>
+      </c>
+      <c r="AJ14">
+        <v>2</v>
+      </c>
+      <c r="AK14">
+        <v>1.3</v>
+      </c>
+      <c r="AL14">
+        <v>1.32</v>
+      </c>
+      <c r="AM14">
+        <v>1.78</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>3</v>
+      </c>
+      <c r="AP14">
+        <v>1</v>
+      </c>
+      <c r="AQ14">
+        <v>2</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>2.08</v>
+      </c>
+      <c r="AT14">
+        <v>2.08</v>
+      </c>
+      <c r="AU14">
+        <v>5</v>
+      </c>
+      <c r="AV14">
+        <v>3</v>
+      </c>
+      <c r="AW14">
+        <v>4</v>
+      </c>
+      <c r="AX14">
+        <v>1</v>
+      </c>
+      <c r="AY14">
+        <v>9</v>
+      </c>
+      <c r="AZ14">
+        <v>4</v>
+      </c>
+      <c r="BA14">
+        <v>7</v>
+      </c>
+      <c r="BB14">
+        <v>3</v>
+      </c>
+      <c r="BC14">
+        <v>10</v>
+      </c>
+      <c r="BD14">
+        <v>1.34</v>
+      </c>
+      <c r="BE14">
+        <v>9.5</v>
+      </c>
+      <c r="BF14">
+        <v>3.86</v>
+      </c>
+      <c r="BG14">
+        <v>1.13</v>
+      </c>
+      <c r="BH14">
+        <v>5</v>
+      </c>
+      <c r="BI14">
+        <v>1.23</v>
+      </c>
+      <c r="BJ14">
+        <v>3.56</v>
+      </c>
+      <c r="BK14">
+        <v>1.42</v>
+      </c>
+      <c r="BL14">
+        <v>2.57</v>
+      </c>
+      <c r="BM14">
+        <v>1.9</v>
+      </c>
+      <c r="BN14">
+        <v>1.9</v>
+      </c>
+      <c r="BO14">
+        <v>2.15</v>
+      </c>
+      <c r="BP14">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:68">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>7468094</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45501.5</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15" t="s">
+        <v>97</v>
+      </c>
+      <c r="P15" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q15">
+        <v>2.21</v>
+      </c>
+      <c r="R15">
+        <v>2.35</v>
+      </c>
+      <c r="S15">
+        <v>4.4</v>
+      </c>
+      <c r="T15">
+        <v>1.28</v>
+      </c>
+      <c r="U15">
+        <v>3.4</v>
+      </c>
+      <c r="V15">
+        <v>2.3</v>
+      </c>
+      <c r="W15">
+        <v>1.55</v>
+      </c>
+      <c r="X15">
+        <v>5</v>
+      </c>
+      <c r="Y15">
+        <v>1.14</v>
+      </c>
+      <c r="Z15">
+        <v>1.53</v>
+      </c>
+      <c r="AA15">
+        <v>4.2</v>
+      </c>
+      <c r="AB15">
+        <v>5.25</v>
+      </c>
+      <c r="AC15">
+        <v>1.03</v>
+      </c>
+      <c r="AD15">
+        <v>17.75</v>
+      </c>
+      <c r="AE15">
+        <v>1.16</v>
+      </c>
+      <c r="AF15">
+        <v>4.35</v>
+      </c>
+      <c r="AG15">
+        <v>1.53</v>
+      </c>
+      <c r="AH15">
+        <v>2.35</v>
+      </c>
+      <c r="AI15">
+        <v>1.58</v>
+      </c>
+      <c r="AJ15">
+        <v>2.2</v>
+      </c>
+      <c r="AK15">
+        <v>1.23</v>
+      </c>
+      <c r="AL15">
+        <v>1.25</v>
+      </c>
+      <c r="AM15">
+        <v>2.05</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>3</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>5</v>
+      </c>
+      <c r="AV15">
+        <v>2</v>
+      </c>
+      <c r="AW15">
+        <v>3</v>
+      </c>
+      <c r="AX15">
+        <v>2</v>
+      </c>
+      <c r="AY15">
+        <v>8</v>
+      </c>
+      <c r="AZ15">
+        <v>4</v>
+      </c>
+      <c r="BA15">
+        <v>3</v>
+      </c>
+      <c r="BB15">
+        <v>3</v>
+      </c>
+      <c r="BC15">
+        <v>6</v>
+      </c>
+      <c r="BD15">
+        <v>1.55</v>
+      </c>
+      <c r="BE15">
+        <v>8.5</v>
+      </c>
+      <c r="BF15">
+        <v>2.81</v>
+      </c>
+      <c r="BG15">
+        <v>1.18</v>
+      </c>
+      <c r="BH15">
+        <v>4.33</v>
+      </c>
+      <c r="BI15">
+        <v>1.26</v>
+      </c>
+      <c r="BJ15">
+        <v>3.34</v>
+      </c>
+      <c r="BK15">
+        <v>1.48</v>
+      </c>
+      <c r="BL15">
+        <v>2.4</v>
+      </c>
+      <c r="BM15">
+        <v>1.85</v>
+      </c>
+      <c r="BN15">
+        <v>1.95</v>
+      </c>
+      <c r="BO15">
+        <v>2.3</v>
+      </c>
+      <c r="BP15">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:68">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>7468091</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45501.5</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+      <c r="O16" t="s">
+        <v>98</v>
+      </c>
+      <c r="P16" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q16">
+        <v>2.48</v>
+      </c>
+      <c r="R16">
+        <v>2.26</v>
+      </c>
+      <c r="S16">
+        <v>3.86</v>
+      </c>
+      <c r="T16">
+        <v>1.32</v>
+      </c>
+      <c r="U16">
+        <v>3.2</v>
+      </c>
+      <c r="V16">
+        <v>2.4</v>
+      </c>
+      <c r="W16">
+        <v>1.5</v>
+      </c>
+      <c r="X16">
+        <v>5.25</v>
+      </c>
+      <c r="Y16">
+        <v>1.12</v>
+      </c>
+      <c r="Z16">
+        <v>1.95</v>
+      </c>
+      <c r="AA16">
+        <v>3.6</v>
+      </c>
+      <c r="AB16">
+        <v>3.4</v>
+      </c>
+      <c r="AC16">
+        <v>1.04</v>
+      </c>
+      <c r="AD16">
+        <v>15.5</v>
+      </c>
+      <c r="AE16">
+        <v>1.21</v>
+      </c>
+      <c r="AF16">
+        <v>4.43</v>
+      </c>
+      <c r="AG16">
+        <v>1.62</v>
+      </c>
+      <c r="AH16">
+        <v>2.15</v>
+      </c>
+      <c r="AI16">
+        <v>1.58</v>
+      </c>
+      <c r="AJ16">
+        <v>2.25</v>
+      </c>
+      <c r="AK16">
+        <v>1.29</v>
+      </c>
+      <c r="AL16">
+        <v>1.26</v>
+      </c>
+      <c r="AM16">
+        <v>1.78</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>3</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>7</v>
+      </c>
+      <c r="AV16">
+        <v>4</v>
+      </c>
+      <c r="AW16">
+        <v>7</v>
+      </c>
+      <c r="AX16">
+        <v>5</v>
+      </c>
+      <c r="AY16">
+        <v>14</v>
+      </c>
+      <c r="AZ16">
+        <v>9</v>
+      </c>
+      <c r="BA16">
+        <v>4</v>
+      </c>
+      <c r="BB16">
+        <v>10</v>
+      </c>
+      <c r="BC16">
+        <v>14</v>
+      </c>
+      <c r="BD16">
+        <v>1.59</v>
+      </c>
+      <c r="BE16">
+        <v>8.5</v>
+      </c>
+      <c r="BF16">
+        <v>2.78</v>
+      </c>
+      <c r="BG16">
+        <v>1.2</v>
+      </c>
+      <c r="BH16">
+        <v>4</v>
+      </c>
+      <c r="BI16">
+        <v>1.28</v>
+      </c>
+      <c r="BJ16">
+        <v>3.2</v>
+      </c>
+      <c r="BK16">
+        <v>1.57</v>
+      </c>
+      <c r="BL16">
+        <v>2.36</v>
+      </c>
+      <c r="BM16">
+        <v>1.95</v>
+      </c>
+      <c r="BN16">
+        <v>1.85</v>
+      </c>
+      <c r="BO16">
+        <v>2.43</v>
+      </c>
+      <c r="BP16">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:68">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>7468093</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45501.625</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17" t="s">
+        <v>99</v>
+      </c>
+      <c r="P17" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q17">
+        <v>1.95</v>
+      </c>
+      <c r="R17">
+        <v>2.5</v>
+      </c>
+      <c r="S17">
+        <v>6.5</v>
+      </c>
+      <c r="T17">
+        <v>1.3</v>
+      </c>
+      <c r="U17">
+        <v>3.4</v>
+      </c>
+      <c r="V17">
+        <v>2.5</v>
+      </c>
+      <c r="W17">
+        <v>1.5</v>
+      </c>
+      <c r="X17">
+        <v>6</v>
+      </c>
+      <c r="Y17">
+        <v>1.13</v>
+      </c>
+      <c r="Z17">
+        <v>1.36</v>
+      </c>
+      <c r="AA17">
+        <v>4.75</v>
+      </c>
+      <c r="AB17">
+        <v>6.75</v>
+      </c>
+      <c r="AC17">
+        <v>1.03</v>
+      </c>
+      <c r="AD17">
+        <v>17</v>
+      </c>
+      <c r="AE17">
+        <v>1.21</v>
+      </c>
+      <c r="AF17">
+        <v>4.48</v>
+      </c>
+      <c r="AG17">
+        <v>1.6</v>
+      </c>
+      <c r="AH17">
+        <v>2.2</v>
+      </c>
+      <c r="AI17">
+        <v>1.8</v>
+      </c>
+      <c r="AJ17">
+        <v>1.95</v>
+      </c>
+      <c r="AK17">
+        <v>1.13</v>
+      </c>
+      <c r="AL17">
+        <v>1.2</v>
+      </c>
+      <c r="AM17">
+        <v>2.7</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>3</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>8</v>
+      </c>
+      <c r="AV17">
+        <v>2</v>
+      </c>
+      <c r="AW17">
+        <v>2</v>
+      </c>
+      <c r="AX17">
+        <v>2</v>
+      </c>
+      <c r="AY17">
+        <v>10</v>
+      </c>
+      <c r="AZ17">
+        <v>4</v>
+      </c>
+      <c r="BA17">
+        <v>6</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17">
+        <v>6</v>
+      </c>
+      <c r="BD17">
+        <v>1.51</v>
+      </c>
+      <c r="BE17">
+        <v>9</v>
+      </c>
+      <c r="BF17">
+        <v>3.14</v>
+      </c>
+      <c r="BG17">
+        <v>1.15</v>
+      </c>
+      <c r="BH17">
+        <v>4.75</v>
+      </c>
+      <c r="BI17">
+        <v>1.24</v>
+      </c>
+      <c r="BJ17">
+        <v>3.48</v>
+      </c>
+      <c r="BK17">
+        <v>1.44</v>
+      </c>
+      <c r="BL17">
+        <v>2.51</v>
+      </c>
+      <c r="BM17">
+        <v>1.95</v>
+      </c>
+      <c r="BN17">
+        <v>1.77</v>
+      </c>
+      <c r="BO17">
+        <v>2.21</v>
+      </c>
+      <c r="BP17">
+        <v>1.56</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -3523,22 +3523,22 @@
         <v>2.08</v>
       </c>
       <c r="AU14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX14">
         <v>1</v>
       </c>
       <c r="AY14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA14">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -4159,13 +4159,13 @@
         <v>4</v>
       </c>
       <c r="BA17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD17">
         <v>1.51</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="110">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -316,6 +316,9 @@
     <t>['56']</t>
   </si>
   <si>
+    <t>['38', '81']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -338,6 +341,9 @@
   </si>
   <si>
     <t>['62']</t>
+  </si>
+  <si>
+    <t>['39']</t>
   </si>
 </sst>
 </file>
@@ -699,7 +705,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP17"/>
+  <dimension ref="A1:BP19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -958,7 +964,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q2">
         <v>1.53</v>
@@ -1370,7 +1376,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -1576,7 +1582,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -1782,7 +1788,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -1988,7 +1994,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2275,7 +2281,7 @@
         <v>1</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2812,7 +2818,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3018,7 +3024,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q12">
         <v>2.85</v>
@@ -3430,7 +3436,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -3508,7 +3514,7 @@
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ14">
         <v>2</v>
@@ -4205,6 +4211,418 @@
       </c>
       <c r="BP17">
         <v>1.56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:68">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>7468096</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45506.52083333334</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18" t="s">
+        <v>88</v>
+      </c>
+      <c r="P18" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q18">
+        <v>5.4</v>
+      </c>
+      <c r="R18">
+        <v>2.39</v>
+      </c>
+      <c r="S18">
+        <v>1.99</v>
+      </c>
+      <c r="T18">
+        <v>1.29</v>
+      </c>
+      <c r="U18">
+        <v>3.3</v>
+      </c>
+      <c r="V18">
+        <v>2.38</v>
+      </c>
+      <c r="W18">
+        <v>1.53</v>
+      </c>
+      <c r="X18">
+        <v>5.25</v>
+      </c>
+      <c r="Y18">
+        <v>1.12</v>
+      </c>
+      <c r="Z18">
+        <v>5.5</v>
+      </c>
+      <c r="AA18">
+        <v>4.2</v>
+      </c>
+      <c r="AB18">
+        <v>1.5</v>
+      </c>
+      <c r="AC18">
+        <v>1.01</v>
+      </c>
+      <c r="AD18">
+        <v>12</v>
+      </c>
+      <c r="AE18">
+        <v>1.18</v>
+      </c>
+      <c r="AF18">
+        <v>4.33</v>
+      </c>
+      <c r="AG18">
+        <v>1.61</v>
+      </c>
+      <c r="AH18">
+        <v>2.23</v>
+      </c>
+      <c r="AI18">
+        <v>1.73</v>
+      </c>
+      <c r="AJ18">
+        <v>1.99</v>
+      </c>
+      <c r="AK18">
+        <v>2.46</v>
+      </c>
+      <c r="AL18">
+        <v>1.19</v>
+      </c>
+      <c r="AM18">
+        <v>1.12</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
+        <v>1</v>
+      </c>
+      <c r="AP18">
+        <v>0.5</v>
+      </c>
+      <c r="AQ18">
+        <v>2</v>
+      </c>
+      <c r="AR18">
+        <v>1.26</v>
+      </c>
+      <c r="AS18">
+        <v>1.65</v>
+      </c>
+      <c r="AT18">
+        <v>2.91</v>
+      </c>
+      <c r="AU18">
+        <v>4</v>
+      </c>
+      <c r="AV18">
+        <v>3</v>
+      </c>
+      <c r="AW18">
+        <v>6</v>
+      </c>
+      <c r="AX18">
+        <v>3</v>
+      </c>
+      <c r="AY18">
+        <v>10</v>
+      </c>
+      <c r="AZ18">
+        <v>6</v>
+      </c>
+      <c r="BA18">
+        <v>5</v>
+      </c>
+      <c r="BB18">
+        <v>6</v>
+      </c>
+      <c r="BC18">
+        <v>11</v>
+      </c>
+      <c r="BD18">
+        <v>3.56</v>
+      </c>
+      <c r="BE18">
+        <v>9.5</v>
+      </c>
+      <c r="BF18">
+        <v>1.41</v>
+      </c>
+      <c r="BG18">
+        <v>1.16</v>
+      </c>
+      <c r="BH18">
+        <v>4.7</v>
+      </c>
+      <c r="BI18">
+        <v>1.28</v>
+      </c>
+      <c r="BJ18">
+        <v>3.2</v>
+      </c>
+      <c r="BK18">
+        <v>1.51</v>
+      </c>
+      <c r="BL18">
+        <v>2.32</v>
+      </c>
+      <c r="BM18">
+        <v>2.05</v>
+      </c>
+      <c r="BN18">
+        <v>1.7</v>
+      </c>
+      <c r="BO18">
+        <v>2.38</v>
+      </c>
+      <c r="BP18">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:68">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>7468098</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45506.625</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" t="s">
+        <v>74</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
+      </c>
+      <c r="O19" t="s">
+        <v>100</v>
+      </c>
+      <c r="P19" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q19">
+        <v>1.4</v>
+      </c>
+      <c r="R19">
+        <v>3.35</v>
+      </c>
+      <c r="S19">
+        <v>9.5</v>
+      </c>
+      <c r="T19">
+        <v>1.19</v>
+      </c>
+      <c r="U19">
+        <v>4.5</v>
+      </c>
+      <c r="V19">
+        <v>1.93</v>
+      </c>
+      <c r="W19">
+        <v>1.82</v>
+      </c>
+      <c r="X19">
+        <v>3.6</v>
+      </c>
+      <c r="Y19">
+        <v>1.3</v>
+      </c>
+      <c r="Z19">
+        <v>1.06</v>
+      </c>
+      <c r="AA19">
+        <v>9</v>
+      </c>
+      <c r="AB19">
+        <v>21</v>
+      </c>
+      <c r="AC19">
+        <v>1.01</v>
+      </c>
+      <c r="AD19">
+        <v>39</v>
+      </c>
+      <c r="AE19">
+        <v>1.06</v>
+      </c>
+      <c r="AF19">
+        <v>7.75</v>
+      </c>
+      <c r="AG19">
+        <v>1.26</v>
+      </c>
+      <c r="AH19">
+        <v>3.29</v>
+      </c>
+      <c r="AI19">
+        <v>2.15</v>
+      </c>
+      <c r="AJ19">
+        <v>1.57</v>
+      </c>
+      <c r="AK19">
+        <v>1.03</v>
+      </c>
+      <c r="AL19">
+        <v>1.06</v>
+      </c>
+      <c r="AM19">
+        <v>6.75</v>
+      </c>
+      <c r="AN19">
+        <v>3</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>3</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>1.9</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>1.9</v>
+      </c>
+      <c r="AU19">
+        <v>9</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>7</v>
+      </c>
+      <c r="AX19">
+        <v>5</v>
+      </c>
+      <c r="AY19">
+        <v>16</v>
+      </c>
+      <c r="AZ19">
+        <v>5</v>
+      </c>
+      <c r="BA19">
+        <v>4</v>
+      </c>
+      <c r="BB19">
+        <v>1</v>
+      </c>
+      <c r="BC19">
+        <v>5</v>
+      </c>
+      <c r="BD19">
+        <v>1.04</v>
+      </c>
+      <c r="BE19">
+        <v>18</v>
+      </c>
+      <c r="BF19">
+        <v>13.4</v>
+      </c>
+      <c r="BG19">
+        <v>1.18</v>
+      </c>
+      <c r="BH19">
+        <v>4.5</v>
+      </c>
+      <c r="BI19">
+        <v>1.35</v>
+      </c>
+      <c r="BJ19">
+        <v>3</v>
+      </c>
+      <c r="BK19">
+        <v>1.57</v>
+      </c>
+      <c r="BL19">
+        <v>2.33</v>
+      </c>
+      <c r="BM19">
+        <v>1.98</v>
+      </c>
+      <c r="BN19">
+        <v>1.81</v>
+      </c>
+      <c r="BO19">
+        <v>2.55</v>
+      </c>
+      <c r="BP19">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="116">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -319,6 +319,15 @@
     <t>['38', '81']</t>
   </si>
   <si>
+    <t>['11', '53']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
+    <t>['7', '51']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -344,6 +353,15 @@
   </si>
   <si>
     <t>['39']</t>
+  </si>
+  <si>
+    <t>['14']</t>
+  </si>
+  <si>
+    <t>['10', '18', '23']</t>
+  </si>
+  <si>
+    <t>['1']</t>
   </si>
 </sst>
 </file>
@@ -705,7 +723,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP19"/>
+  <dimension ref="A1:BP24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -964,7 +982,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q2">
         <v>1.53</v>
@@ -1045,7 +1063,7 @@
         <v>3</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1248,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
         <v>0</v>
@@ -1376,7 +1394,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -1582,7 +1600,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -1788,7 +1806,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -1869,7 +1887,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -1994,7 +2012,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2693,7 +2711,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR10">
         <v>0.98</v>
@@ -2818,7 +2836,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3024,7 +3042,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q12">
         <v>2.85</v>
@@ -3436,7 +3454,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4260,7 +4278,7 @@
         <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q18">
         <v>5.4</v>
@@ -4353,19 +4371,19 @@
         <v>2.91</v>
       </c>
       <c r="AU18">
+        <v>5</v>
+      </c>
+      <c r="AV18">
         <v>4</v>
-      </c>
-      <c r="AV18">
-        <v>3</v>
       </c>
       <c r="AW18">
         <v>6</v>
       </c>
       <c r="AX18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ18">
         <v>6</v>
@@ -4559,19 +4577,19 @@
         <v>1.9</v>
       </c>
       <c r="AU19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY19">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ19">
         <v>5</v>
@@ -4623,6 +4641,1036 @@
       </c>
       <c r="BP19">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:68">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7468100</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45507.39583333334</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20" t="s">
+        <v>88</v>
+      </c>
+      <c r="P20" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q20">
+        <v>2.58</v>
+      </c>
+      <c r="R20">
+        <v>2.28</v>
+      </c>
+      <c r="S20">
+        <v>4.25</v>
+      </c>
+      <c r="T20">
+        <v>1.36</v>
+      </c>
+      <c r="U20">
+        <v>2.9</v>
+      </c>
+      <c r="V20">
+        <v>2.62</v>
+      </c>
+      <c r="W20">
+        <v>1.42</v>
+      </c>
+      <c r="X20">
+        <v>6</v>
+      </c>
+      <c r="Y20">
+        <v>1.09</v>
+      </c>
+      <c r="Z20">
+        <v>1.99</v>
+      </c>
+      <c r="AA20">
+        <v>3.56</v>
+      </c>
+      <c r="AB20">
+        <v>3.55</v>
+      </c>
+      <c r="AC20">
+        <v>1.02</v>
+      </c>
+      <c r="AD20">
+        <v>10</v>
+      </c>
+      <c r="AE20">
+        <v>1.29</v>
+      </c>
+      <c r="AF20">
+        <v>3.4</v>
+      </c>
+      <c r="AG20">
+        <v>1.8</v>
+      </c>
+      <c r="AH20">
+        <v>1.9</v>
+      </c>
+      <c r="AI20">
+        <v>1.7</v>
+      </c>
+      <c r="AJ20">
+        <v>2.05</v>
+      </c>
+      <c r="AK20">
+        <v>1.27</v>
+      </c>
+      <c r="AL20">
+        <v>1.27</v>
+      </c>
+      <c r="AM20">
+        <v>1.8</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>1</v>
+      </c>
+      <c r="AQ20">
+        <v>0.5</v>
+      </c>
+      <c r="AR20">
+        <v>1</v>
+      </c>
+      <c r="AS20">
+        <v>1.88</v>
+      </c>
+      <c r="AT20">
+        <v>2.88</v>
+      </c>
+      <c r="AU20">
+        <v>4</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>4</v>
+      </c>
+      <c r="AX20">
+        <v>6</v>
+      </c>
+      <c r="AY20">
+        <v>8</v>
+      </c>
+      <c r="AZ20">
+        <v>6</v>
+      </c>
+      <c r="BA20">
+        <v>6</v>
+      </c>
+      <c r="BB20">
+        <v>4</v>
+      </c>
+      <c r="BC20">
+        <v>10</v>
+      </c>
+      <c r="BD20">
+        <v>1.75</v>
+      </c>
+      <c r="BE20">
+        <v>8</v>
+      </c>
+      <c r="BF20">
+        <v>2.42</v>
+      </c>
+      <c r="BG20">
+        <v>1.24</v>
+      </c>
+      <c r="BH20">
+        <v>3.48</v>
+      </c>
+      <c r="BI20">
+        <v>1.45</v>
+      </c>
+      <c r="BJ20">
+        <v>2.48</v>
+      </c>
+      <c r="BK20">
+        <v>1.85</v>
+      </c>
+      <c r="BL20">
+        <v>1.95</v>
+      </c>
+      <c r="BM20">
+        <v>2</v>
+      </c>
+      <c r="BN20">
+        <v>1.8</v>
+      </c>
+      <c r="BO20">
+        <v>3.08</v>
+      </c>
+      <c r="BP20">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:68">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>7468099</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45507.5</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>71</v>
+      </c>
+      <c r="H21" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21" t="s">
+        <v>88</v>
+      </c>
+      <c r="P21" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q21">
+        <v>4.75</v>
+      </c>
+      <c r="R21">
+        <v>2.3</v>
+      </c>
+      <c r="S21">
+        <v>2.25</v>
+      </c>
+      <c r="T21">
+        <v>1.33</v>
+      </c>
+      <c r="U21">
+        <v>3.25</v>
+      </c>
+      <c r="V21">
+        <v>2.63</v>
+      </c>
+      <c r="W21">
+        <v>1.44</v>
+      </c>
+      <c r="X21">
+        <v>6.5</v>
+      </c>
+      <c r="Y21">
+        <v>1.11</v>
+      </c>
+      <c r="Z21">
+        <v>4.5</v>
+      </c>
+      <c r="AA21">
+        <v>3.8</v>
+      </c>
+      <c r="AB21">
+        <v>1.67</v>
+      </c>
+      <c r="AC21">
+        <v>1.01</v>
+      </c>
+      <c r="AD21">
+        <v>10.5</v>
+      </c>
+      <c r="AE21">
+        <v>1.2</v>
+      </c>
+      <c r="AF21">
+        <v>3.9</v>
+      </c>
+      <c r="AG21">
+        <v>1.7</v>
+      </c>
+      <c r="AH21">
+        <v>1.95</v>
+      </c>
+      <c r="AI21">
+        <v>1.7</v>
+      </c>
+      <c r="AJ21">
+        <v>2.05</v>
+      </c>
+      <c r="AK21">
+        <v>2.1</v>
+      </c>
+      <c r="AL21">
+        <v>1.2</v>
+      </c>
+      <c r="AM21">
+        <v>1.17</v>
+      </c>
+      <c r="AN21">
+        <v>3</v>
+      </c>
+      <c r="AO21">
+        <v>3</v>
+      </c>
+      <c r="AP21">
+        <v>2</v>
+      </c>
+      <c r="AQ21">
+        <v>2</v>
+      </c>
+      <c r="AR21">
+        <v>1.81</v>
+      </c>
+      <c r="AS21">
+        <v>1.43</v>
+      </c>
+      <c r="AT21">
+        <v>3.24</v>
+      </c>
+      <c r="AU21">
+        <v>8</v>
+      </c>
+      <c r="AV21">
+        <v>5</v>
+      </c>
+      <c r="AW21">
+        <v>4</v>
+      </c>
+      <c r="AX21">
+        <v>6</v>
+      </c>
+      <c r="AY21">
+        <v>12</v>
+      </c>
+      <c r="AZ21">
+        <v>11</v>
+      </c>
+      <c r="BA21">
+        <v>8</v>
+      </c>
+      <c r="BB21">
+        <v>5</v>
+      </c>
+      <c r="BC21">
+        <v>13</v>
+      </c>
+      <c r="BD21">
+        <v>2.62</v>
+      </c>
+      <c r="BE21">
+        <v>8.5</v>
+      </c>
+      <c r="BF21">
+        <v>1.69</v>
+      </c>
+      <c r="BG21">
+        <v>1.18</v>
+      </c>
+      <c r="BH21">
+        <v>4.5</v>
+      </c>
+      <c r="BI21">
+        <v>1.35</v>
+      </c>
+      <c r="BJ21">
+        <v>2.84</v>
+      </c>
+      <c r="BK21">
+        <v>1.62</v>
+      </c>
+      <c r="BL21">
+        <v>2.11</v>
+      </c>
+      <c r="BM21">
+        <v>1.95</v>
+      </c>
+      <c r="BN21">
+        <v>1.77</v>
+      </c>
+      <c r="BO21">
+        <v>2.64</v>
+      </c>
+      <c r="BP21">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:68">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>7468097</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45507.625</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>3</v>
+      </c>
+      <c r="O22" t="s">
+        <v>101</v>
+      </c>
+      <c r="P22" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q22">
+        <v>2.64</v>
+      </c>
+      <c r="R22">
+        <v>2.09</v>
+      </c>
+      <c r="S22">
+        <v>4.05</v>
+      </c>
+      <c r="T22">
+        <v>1.41</v>
+      </c>
+      <c r="U22">
+        <v>2.78</v>
+      </c>
+      <c r="V22">
+        <v>2.9</v>
+      </c>
+      <c r="W22">
+        <v>1.38</v>
+      </c>
+      <c r="X22">
+        <v>7.4</v>
+      </c>
+      <c r="Y22">
+        <v>1.07</v>
+      </c>
+      <c r="Z22">
+        <v>2.05</v>
+      </c>
+      <c r="AA22">
+        <v>3.3</v>
+      </c>
+      <c r="AB22">
+        <v>3.4</v>
+      </c>
+      <c r="AC22">
+        <v>1.02</v>
+      </c>
+      <c r="AD22">
+        <v>8.6</v>
+      </c>
+      <c r="AE22">
+        <v>1.29</v>
+      </c>
+      <c r="AF22">
+        <v>3.14</v>
+      </c>
+      <c r="AG22">
+        <v>1.91</v>
+      </c>
+      <c r="AH22">
+        <v>1.73</v>
+      </c>
+      <c r="AI22">
+        <v>1.79</v>
+      </c>
+      <c r="AJ22">
+        <v>1.92</v>
+      </c>
+      <c r="AK22">
+        <v>1.29</v>
+      </c>
+      <c r="AL22">
+        <v>1.3</v>
+      </c>
+      <c r="AM22">
+        <v>1.71</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>3</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>1.21</v>
+      </c>
+      <c r="AT22">
+        <v>1.21</v>
+      </c>
+      <c r="AU22">
+        <v>3</v>
+      </c>
+      <c r="AV22">
+        <v>4</v>
+      </c>
+      <c r="AW22">
+        <v>5</v>
+      </c>
+      <c r="AX22">
+        <v>5</v>
+      </c>
+      <c r="AY22">
+        <v>8</v>
+      </c>
+      <c r="AZ22">
+        <v>9</v>
+      </c>
+      <c r="BA22">
+        <v>6</v>
+      </c>
+      <c r="BB22">
+        <v>9</v>
+      </c>
+      <c r="BC22">
+        <v>15</v>
+      </c>
+      <c r="BD22">
+        <v>1.91</v>
+      </c>
+      <c r="BE22">
+        <v>8.5</v>
+      </c>
+      <c r="BF22">
+        <v>2.2</v>
+      </c>
+      <c r="BG22">
+        <v>1.16</v>
+      </c>
+      <c r="BH22">
+        <v>4.8</v>
+      </c>
+      <c r="BI22">
+        <v>1.28</v>
+      </c>
+      <c r="BJ22">
+        <v>3.2</v>
+      </c>
+      <c r="BK22">
+        <v>1.5</v>
+      </c>
+      <c r="BL22">
+        <v>2.35</v>
+      </c>
+      <c r="BM22">
+        <v>1.95</v>
+      </c>
+      <c r="BN22">
+        <v>1.85</v>
+      </c>
+      <c r="BO22">
+        <v>2.38</v>
+      </c>
+      <c r="BP22">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:68">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>7468103</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45508.39583333334</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" t="s">
+        <v>79</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3</v>
+      </c>
+      <c r="N23">
+        <v>4</v>
+      </c>
+      <c r="O23" t="s">
+        <v>102</v>
+      </c>
+      <c r="P23" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q23">
+        <v>2.6</v>
+      </c>
+      <c r="R23">
+        <v>2.25</v>
+      </c>
+      <c r="S23">
+        <v>4</v>
+      </c>
+      <c r="T23">
+        <v>1.35</v>
+      </c>
+      <c r="U23">
+        <v>3.04</v>
+      </c>
+      <c r="V23">
+        <v>2.63</v>
+      </c>
+      <c r="W23">
+        <v>1.45</v>
+      </c>
+      <c r="X23">
+        <v>6.4</v>
+      </c>
+      <c r="Y23">
+        <v>1.1</v>
+      </c>
+      <c r="Z23">
+        <v>1.95</v>
+      </c>
+      <c r="AA23">
+        <v>3.55</v>
+      </c>
+      <c r="AB23">
+        <v>3.55</v>
+      </c>
+      <c r="AC23">
+        <v>1.01</v>
+      </c>
+      <c r="AD23">
+        <v>10</v>
+      </c>
+      <c r="AE23">
+        <v>1.22</v>
+      </c>
+      <c r="AF23">
+        <v>3.65</v>
+      </c>
+      <c r="AG23">
+        <v>1.71</v>
+      </c>
+      <c r="AH23">
+        <v>2.07</v>
+      </c>
+      <c r="AI23">
+        <v>1.7</v>
+      </c>
+      <c r="AJ23">
+        <v>2.05</v>
+      </c>
+      <c r="AK23">
+        <v>1.27</v>
+      </c>
+      <c r="AL23">
+        <v>1.27</v>
+      </c>
+      <c r="AM23">
+        <v>1.8</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>1.5</v>
+      </c>
+      <c r="AR23">
+        <v>1.33</v>
+      </c>
+      <c r="AS23">
+        <v>1.03</v>
+      </c>
+      <c r="AT23">
+        <v>2.36</v>
+      </c>
+      <c r="AU23">
+        <v>3</v>
+      </c>
+      <c r="AV23">
+        <v>2</v>
+      </c>
+      <c r="AW23">
+        <v>1</v>
+      </c>
+      <c r="AX23">
+        <v>5</v>
+      </c>
+      <c r="AY23">
+        <v>4</v>
+      </c>
+      <c r="AZ23">
+        <v>7</v>
+      </c>
+      <c r="BA23">
+        <v>11</v>
+      </c>
+      <c r="BB23">
+        <v>1</v>
+      </c>
+      <c r="BC23">
+        <v>12</v>
+      </c>
+      <c r="BD23">
+        <v>1.55</v>
+      </c>
+      <c r="BE23">
+        <v>9</v>
+      </c>
+      <c r="BF23">
+        <v>2.9</v>
+      </c>
+      <c r="BG23">
+        <v>1.11</v>
+      </c>
+      <c r="BH23">
+        <v>5.9</v>
+      </c>
+      <c r="BI23">
+        <v>1.24</v>
+      </c>
+      <c r="BJ23">
+        <v>3.85</v>
+      </c>
+      <c r="BK23">
+        <v>1.36</v>
+      </c>
+      <c r="BL23">
+        <v>2.79</v>
+      </c>
+      <c r="BM23">
+        <v>1.77</v>
+      </c>
+      <c r="BN23">
+        <v>1.95</v>
+      </c>
+      <c r="BO23">
+        <v>2.04</v>
+      </c>
+      <c r="BP23">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:68">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>7468101</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45508.5</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" t="s">
+        <v>83</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>3</v>
+      </c>
+      <c r="O24" t="s">
+        <v>103</v>
+      </c>
+      <c r="P24" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q24">
+        <v>2.75</v>
+      </c>
+      <c r="R24">
+        <v>2.2</v>
+      </c>
+      <c r="S24">
+        <v>4</v>
+      </c>
+      <c r="T24">
+        <v>1.4</v>
+      </c>
+      <c r="U24">
+        <v>2.75</v>
+      </c>
+      <c r="V24">
+        <v>2.75</v>
+      </c>
+      <c r="W24">
+        <v>1.4</v>
+      </c>
+      <c r="X24">
+        <v>8</v>
+      </c>
+      <c r="Y24">
+        <v>1.08</v>
+      </c>
+      <c r="Z24">
+        <v>2.05</v>
+      </c>
+      <c r="AA24">
+        <v>3.48</v>
+      </c>
+      <c r="AB24">
+        <v>3.41</v>
+      </c>
+      <c r="AC24">
+        <v>1.01</v>
+      </c>
+      <c r="AD24">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE24">
+        <v>1.28</v>
+      </c>
+      <c r="AF24">
+        <v>3.5</v>
+      </c>
+      <c r="AG24">
+        <v>1.85</v>
+      </c>
+      <c r="AH24">
+        <v>1.93</v>
+      </c>
+      <c r="AI24">
+        <v>1.75</v>
+      </c>
+      <c r="AJ24">
+        <v>2</v>
+      </c>
+      <c r="AK24">
+        <v>1.28</v>
+      </c>
+      <c r="AL24">
+        <v>1.25</v>
+      </c>
+      <c r="AM24">
+        <v>1.78</v>
+      </c>
+      <c r="AN24">
+        <v>3</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>3</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>1.19</v>
+      </c>
+      <c r="AS24">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT24">
+        <v>2.13</v>
+      </c>
+      <c r="AU24">
+        <v>2</v>
+      </c>
+      <c r="AV24">
+        <v>9</v>
+      </c>
+      <c r="AW24">
+        <v>2</v>
+      </c>
+      <c r="AX24">
+        <v>8</v>
+      </c>
+      <c r="AY24">
+        <v>4</v>
+      </c>
+      <c r="AZ24">
+        <v>17</v>
+      </c>
+      <c r="BA24">
+        <v>4</v>
+      </c>
+      <c r="BB24">
+        <v>8</v>
+      </c>
+      <c r="BC24">
+        <v>12</v>
+      </c>
+      <c r="BD24">
+        <v>1.59</v>
+      </c>
+      <c r="BE24">
+        <v>8.5</v>
+      </c>
+      <c r="BF24">
+        <v>2.78</v>
+      </c>
+      <c r="BG24">
+        <v>1.13</v>
+      </c>
+      <c r="BH24">
+        <v>5.5</v>
+      </c>
+      <c r="BI24">
+        <v>1.23</v>
+      </c>
+      <c r="BJ24">
+        <v>3.56</v>
+      </c>
+      <c r="BK24">
+        <v>1.43</v>
+      </c>
+      <c r="BL24">
+        <v>2.54</v>
+      </c>
+      <c r="BM24">
+        <v>1.82</v>
+      </c>
+      <c r="BN24">
+        <v>1.98</v>
+      </c>
+      <c r="BO24">
+        <v>2.17</v>
+      </c>
+      <c r="BP24">
+        <v>1.58</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -4371,19 +4371,19 @@
         <v>2.91</v>
       </c>
       <c r="AU18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW18">
         <v>6</v>
       </c>
       <c r="AX18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY18">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ18">
         <v>6</v>
@@ -4577,19 +4577,19 @@
         <v>1.9</v>
       </c>
       <c r="AU19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AW19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY19">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ19">
         <v>5</v>
@@ -4789,13 +4789,13 @@
         <v>0</v>
       </c>
       <c r="AW20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX20">
         <v>6</v>
       </c>
       <c r="AY20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ20">
         <v>6</v>
@@ -4989,22 +4989,22 @@
         <v>3.24</v>
       </c>
       <c r="AU21">
+        <v>5</v>
+      </c>
+      <c r="AV21">
+        <v>3</v>
+      </c>
+      <c r="AW21">
+        <v>3</v>
+      </c>
+      <c r="AX21">
+        <v>4</v>
+      </c>
+      <c r="AY21">
         <v>8</v>
       </c>
-      <c r="AV21">
-        <v>5</v>
-      </c>
-      <c r="AW21">
-        <v>4</v>
-      </c>
-      <c r="AX21">
-        <v>6</v>
-      </c>
-      <c r="AY21">
-        <v>12</v>
-      </c>
       <c r="AZ21">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BA21">
         <v>8</v>
@@ -5195,22 +5195,22 @@
         <v>1.21</v>
       </c>
       <c r="AU22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX22">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY22">
         <v>8</v>
       </c>
       <c r="AZ22">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA22">
         <v>6</v>
@@ -5401,22 +5401,22 @@
         <v>2.36</v>
       </c>
       <c r="AU23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY23">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AZ23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA23">
         <v>11</v>
@@ -5607,22 +5607,22 @@
         <v>2.13</v>
       </c>
       <c r="AU24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX24">
         <v>8</v>
       </c>
       <c r="AY24">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AZ24">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA24">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="122">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -328,6 +328,15 @@
     <t>['7', '51']</t>
   </si>
   <si>
+    <t>['17', '90+4']</t>
+  </si>
+  <si>
+    <t>['40']</t>
+  </si>
+  <si>
+    <t>['7', '88']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -362,6 +371,15 @@
   </si>
   <si>
     <t>['1']</t>
+  </si>
+  <si>
+    <t>['45', '89']</t>
+  </si>
+  <si>
+    <t>['46']</t>
+  </si>
+  <si>
+    <t>['45+4', '62']</t>
   </si>
 </sst>
 </file>
@@ -723,7 +741,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP24"/>
+  <dimension ref="A1:BP28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -982,7 +1000,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q2">
         <v>1.53</v>
@@ -1394,7 +1412,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -1475,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="AQ4">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1600,7 +1618,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -1678,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ5">
         <v>0</v>
@@ -1806,7 +1824,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -1884,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
         <v>2</v>
@@ -2012,7 +2030,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2093,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="AQ7">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2708,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
         <v>0.5</v>
@@ -2836,7 +2854,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -2914,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11">
         <v>3</v>
@@ -3042,7 +3060,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q12">
         <v>2.85</v>
@@ -3454,7 +3472,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -3535,7 +3553,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ14">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3741,7 +3759,7 @@
         <v>3</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4278,7 +4296,7 @@
         <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q18">
         <v>5.4</v>
@@ -5102,7 +5120,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q22">
         <v>2.64</v>
@@ -5308,7 +5326,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q23">
         <v>2.6</v>
@@ -5514,7 +5532,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5671,6 +5689,830 @@
       </c>
       <c r="BP24">
         <v>1.58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:68">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>7468110</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45514.39583333334</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" t="s">
+        <v>71</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="N25">
+        <v>2</v>
+      </c>
+      <c r="O25" t="s">
+        <v>88</v>
+      </c>
+      <c r="P25" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q25">
+        <v>1.06</v>
+      </c>
+      <c r="R25">
+        <v>1.2</v>
+      </c>
+      <c r="S25">
+        <v>1.06</v>
+      </c>
+      <c r="T25">
+        <v>1.36</v>
+      </c>
+      <c r="U25">
+        <v>3.1</v>
+      </c>
+      <c r="V25">
+        <v>2.8</v>
+      </c>
+      <c r="W25">
+        <v>1.42</v>
+      </c>
+      <c r="X25">
+        <v>6.9</v>
+      </c>
+      <c r="Y25">
+        <v>1.08</v>
+      </c>
+      <c r="Z25">
+        <v>3.3</v>
+      </c>
+      <c r="AA25">
+        <v>3.5</v>
+      </c>
+      <c r="AB25">
+        <v>1.95</v>
+      </c>
+      <c r="AC25">
+        <v>1.02</v>
+      </c>
+      <c r="AD25">
+        <v>3.45</v>
+      </c>
+      <c r="AE25">
+        <v>1.28</v>
+      </c>
+      <c r="AF25">
+        <v>3.4</v>
+      </c>
+      <c r="AG25">
+        <v>1.8</v>
+      </c>
+      <c r="AH25">
+        <v>1.91</v>
+      </c>
+      <c r="AI25">
+        <v>1.8</v>
+      </c>
+      <c r="AJ25">
+        <v>1.95</v>
+      </c>
+      <c r="AK25">
+        <v>1.9</v>
+      </c>
+      <c r="AL25">
+        <v>1.31</v>
+      </c>
+      <c r="AM25">
+        <v>1.29</v>
+      </c>
+      <c r="AN25">
+        <v>1.5</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>1</v>
+      </c>
+      <c r="AQ25">
+        <v>1.5</v>
+      </c>
+      <c r="AR25">
+        <v>0.93</v>
+      </c>
+      <c r="AS25">
+        <v>0.95</v>
+      </c>
+      <c r="AT25">
+        <v>1.88</v>
+      </c>
+      <c r="AU25">
+        <v>3</v>
+      </c>
+      <c r="AV25">
+        <v>6</v>
+      </c>
+      <c r="AW25">
+        <v>4</v>
+      </c>
+      <c r="AX25">
+        <v>4</v>
+      </c>
+      <c r="AY25">
+        <v>7</v>
+      </c>
+      <c r="AZ25">
+        <v>10</v>
+      </c>
+      <c r="BA25">
+        <v>4</v>
+      </c>
+      <c r="BB25">
+        <v>6</v>
+      </c>
+      <c r="BC25">
+        <v>10</v>
+      </c>
+      <c r="BD25">
+        <v>2.7</v>
+      </c>
+      <c r="BE25">
+        <v>6.65</v>
+      </c>
+      <c r="BF25">
+        <v>1.71</v>
+      </c>
+      <c r="BG25">
+        <v>0</v>
+      </c>
+      <c r="BH25">
+        <v>0</v>
+      </c>
+      <c r="BI25">
+        <v>1.34</v>
+      </c>
+      <c r="BJ25">
+        <v>2.88</v>
+      </c>
+      <c r="BK25">
+        <v>1.61</v>
+      </c>
+      <c r="BL25">
+        <v>2.12</v>
+      </c>
+      <c r="BM25">
+        <v>2.03</v>
+      </c>
+      <c r="BN25">
+        <v>1.7</v>
+      </c>
+      <c r="BO25">
+        <v>2.64</v>
+      </c>
+      <c r="BP25">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:68">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>7468105</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45514.5</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" t="s">
+        <v>81</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>3</v>
+      </c>
+      <c r="O26" t="s">
+        <v>104</v>
+      </c>
+      <c r="P26" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q26">
+        <v>3.2</v>
+      </c>
+      <c r="R26">
+        <v>2.05</v>
+      </c>
+      <c r="S26">
+        <v>3.25</v>
+      </c>
+      <c r="T26">
+        <v>1.41</v>
+      </c>
+      <c r="U26">
+        <v>2.7</v>
+      </c>
+      <c r="V26">
+        <v>2.85</v>
+      </c>
+      <c r="W26">
+        <v>1.37</v>
+      </c>
+      <c r="X26">
+        <v>6.95</v>
+      </c>
+      <c r="Y26">
+        <v>1.07</v>
+      </c>
+      <c r="Z26">
+        <v>2.63</v>
+      </c>
+      <c r="AA26">
+        <v>3.25</v>
+      </c>
+      <c r="AB26">
+        <v>2.65</v>
+      </c>
+      <c r="AC26">
+        <v>1.02</v>
+      </c>
+      <c r="AD26">
+        <v>8.9</v>
+      </c>
+      <c r="AE26">
+        <v>1.3</v>
+      </c>
+      <c r="AF26">
+        <v>3.3</v>
+      </c>
+      <c r="AG26">
+        <v>1.95</v>
+      </c>
+      <c r="AH26">
+        <v>1.84</v>
+      </c>
+      <c r="AI26">
+        <v>1.72</v>
+      </c>
+      <c r="AJ26">
+        <v>2.05</v>
+      </c>
+      <c r="AK26">
+        <v>1.47</v>
+      </c>
+      <c r="AL26">
+        <v>1.28</v>
+      </c>
+      <c r="AM26">
+        <v>1.47</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>3</v>
+      </c>
+      <c r="AP26">
+        <v>1.5</v>
+      </c>
+      <c r="AQ26">
+        <v>1.5</v>
+      </c>
+      <c r="AR26">
+        <v>1.06</v>
+      </c>
+      <c r="AS26">
+        <v>1.97</v>
+      </c>
+      <c r="AT26">
+        <v>3.03</v>
+      </c>
+      <c r="AU26">
+        <v>6</v>
+      </c>
+      <c r="AV26">
+        <v>4</v>
+      </c>
+      <c r="AW26">
+        <v>9</v>
+      </c>
+      <c r="AX26">
+        <v>8</v>
+      </c>
+      <c r="AY26">
+        <v>15</v>
+      </c>
+      <c r="AZ26">
+        <v>12</v>
+      </c>
+      <c r="BA26">
+        <v>5</v>
+      </c>
+      <c r="BB26">
+        <v>4</v>
+      </c>
+      <c r="BC26">
+        <v>9</v>
+      </c>
+      <c r="BD26">
+        <v>1.97</v>
+      </c>
+      <c r="BE26">
+        <v>6.6</v>
+      </c>
+      <c r="BF26">
+        <v>2.24</v>
+      </c>
+      <c r="BG26">
+        <v>0</v>
+      </c>
+      <c r="BH26">
+        <v>0</v>
+      </c>
+      <c r="BI26">
+        <v>1.28</v>
+      </c>
+      <c r="BJ26">
+        <v>3.18</v>
+      </c>
+      <c r="BK26">
+        <v>1.55</v>
+      </c>
+      <c r="BL26">
+        <v>2.38</v>
+      </c>
+      <c r="BM26">
+        <v>1.91</v>
+      </c>
+      <c r="BN26">
+        <v>1.89</v>
+      </c>
+      <c r="BO26">
+        <v>2.38</v>
+      </c>
+      <c r="BP26">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:68">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>7468111</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45514.5</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27" t="s">
+        <v>70</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
+      <c r="O27" t="s">
+        <v>105</v>
+      </c>
+      <c r="P27" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q27">
+        <v>6.23</v>
+      </c>
+      <c r="R27">
+        <v>2.58</v>
+      </c>
+      <c r="S27">
+        <v>1.93</v>
+      </c>
+      <c r="T27">
+        <v>1.3</v>
+      </c>
+      <c r="U27">
+        <v>3.44</v>
+      </c>
+      <c r="V27">
+        <v>2.35</v>
+      </c>
+      <c r="W27">
+        <v>1.52</v>
+      </c>
+      <c r="X27">
+        <v>5</v>
+      </c>
+      <c r="Y27">
+        <v>1.13</v>
+      </c>
+      <c r="Z27">
+        <v>6.29</v>
+      </c>
+      <c r="AA27">
+        <v>4.55</v>
+      </c>
+      <c r="AB27">
+        <v>1.43</v>
+      </c>
+      <c r="AC27">
+        <v>1.03</v>
+      </c>
+      <c r="AD27">
+        <v>19.25</v>
+      </c>
+      <c r="AE27">
+        <v>1.2</v>
+      </c>
+      <c r="AF27">
+        <v>4.67</v>
+      </c>
+      <c r="AG27">
+        <v>1.55</v>
+      </c>
+      <c r="AH27">
+        <v>2.2</v>
+      </c>
+      <c r="AI27">
+        <v>1.75</v>
+      </c>
+      <c r="AJ27">
+        <v>2</v>
+      </c>
+      <c r="AK27">
+        <v>2.68</v>
+      </c>
+      <c r="AL27">
+        <v>1.18</v>
+      </c>
+      <c r="AM27">
+        <v>1.1</v>
+      </c>
+      <c r="AN27">
+        <v>3</v>
+      </c>
+      <c r="AO27">
+        <v>3</v>
+      </c>
+      <c r="AP27">
+        <v>1.5</v>
+      </c>
+      <c r="AQ27">
+        <v>3</v>
+      </c>
+      <c r="AR27">
+        <v>1.73</v>
+      </c>
+      <c r="AS27">
+        <v>2.02</v>
+      </c>
+      <c r="AT27">
+        <v>3.75</v>
+      </c>
+      <c r="AU27">
+        <v>6</v>
+      </c>
+      <c r="AV27">
+        <v>7</v>
+      </c>
+      <c r="AW27">
+        <v>1</v>
+      </c>
+      <c r="AX27">
+        <v>8</v>
+      </c>
+      <c r="AY27">
+        <v>7</v>
+      </c>
+      <c r="AZ27">
+        <v>15</v>
+      </c>
+      <c r="BA27">
+        <v>2</v>
+      </c>
+      <c r="BB27">
+        <v>8</v>
+      </c>
+      <c r="BC27">
+        <v>10</v>
+      </c>
+      <c r="BD27">
+        <v>3.64</v>
+      </c>
+      <c r="BE27">
+        <v>7.2</v>
+      </c>
+      <c r="BF27">
+        <v>1.44</v>
+      </c>
+      <c r="BG27">
+        <v>1.18</v>
+      </c>
+      <c r="BH27">
+        <v>4.05</v>
+      </c>
+      <c r="BI27">
+        <v>1.36</v>
+      </c>
+      <c r="BJ27">
+        <v>2.78</v>
+      </c>
+      <c r="BK27">
+        <v>1.71</v>
+      </c>
+      <c r="BL27">
+        <v>2.11</v>
+      </c>
+      <c r="BM27">
+        <v>2</v>
+      </c>
+      <c r="BN27">
+        <v>1.8</v>
+      </c>
+      <c r="BO27">
+        <v>2.75</v>
+      </c>
+      <c r="BP27">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:68">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>7468104</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45514.625</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" t="s">
+        <v>85</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>2</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>2</v>
+      </c>
+      <c r="O28" t="s">
+        <v>106</v>
+      </c>
+      <c r="P28" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q28">
+        <v>1.49</v>
+      </c>
+      <c r="R28">
+        <v>3.04</v>
+      </c>
+      <c r="S28">
+        <v>9.5</v>
+      </c>
+      <c r="T28">
+        <v>1.21</v>
+      </c>
+      <c r="U28">
+        <v>4.15</v>
+      </c>
+      <c r="V28">
+        <v>2.01</v>
+      </c>
+      <c r="W28">
+        <v>1.75</v>
+      </c>
+      <c r="X28">
+        <v>4.15</v>
+      </c>
+      <c r="Y28">
+        <v>1.21</v>
+      </c>
+      <c r="Z28">
+        <v>1.14</v>
+      </c>
+      <c r="AA28">
+        <v>7.89</v>
+      </c>
+      <c r="AB28">
+        <v>13.04</v>
+      </c>
+      <c r="AC28">
+        <v>1.01</v>
+      </c>
+      <c r="AD28">
+        <v>31</v>
+      </c>
+      <c r="AE28">
+        <v>1.08</v>
+      </c>
+      <c r="AF28">
+        <v>5.9</v>
+      </c>
+      <c r="AG28">
+        <v>1.36</v>
+      </c>
+      <c r="AH28">
+        <v>3.1</v>
+      </c>
+      <c r="AI28">
+        <v>1.99</v>
+      </c>
+      <c r="AJ28">
+        <v>1.73</v>
+      </c>
+      <c r="AK28">
+        <v>1.01</v>
+      </c>
+      <c r="AL28">
+        <v>1.04</v>
+      </c>
+      <c r="AM28">
+        <v>4.33</v>
+      </c>
+      <c r="AN28">
+        <v>3</v>
+      </c>
+      <c r="AO28">
+        <v>2</v>
+      </c>
+      <c r="AP28">
+        <v>3</v>
+      </c>
+      <c r="AQ28">
+        <v>1.33</v>
+      </c>
+      <c r="AR28">
+        <v>2.4</v>
+      </c>
+      <c r="AS28">
+        <v>1.48</v>
+      </c>
+      <c r="AT28">
+        <v>3.88</v>
+      </c>
+      <c r="AU28">
+        <v>9</v>
+      </c>
+      <c r="AV28">
+        <v>0</v>
+      </c>
+      <c r="AW28">
+        <v>7</v>
+      </c>
+      <c r="AX28">
+        <v>4</v>
+      </c>
+      <c r="AY28">
+        <v>16</v>
+      </c>
+      <c r="AZ28">
+        <v>4</v>
+      </c>
+      <c r="BA28">
+        <v>7</v>
+      </c>
+      <c r="BB28">
+        <v>2</v>
+      </c>
+      <c r="BC28">
+        <v>9</v>
+      </c>
+      <c r="BD28">
+        <v>1.08</v>
+      </c>
+      <c r="BE28">
+        <v>19</v>
+      </c>
+      <c r="BF28">
+        <v>7</v>
+      </c>
+      <c r="BG28">
+        <v>0</v>
+      </c>
+      <c r="BH28">
+        <v>0</v>
+      </c>
+      <c r="BI28">
+        <v>0</v>
+      </c>
+      <c r="BJ28">
+        <v>0</v>
+      </c>
+      <c r="BK28">
+        <v>1.35</v>
+      </c>
+      <c r="BL28">
+        <v>2.84</v>
+      </c>
+      <c r="BM28">
+        <v>1.8</v>
+      </c>
+      <c r="BN28">
+        <v>2</v>
+      </c>
+      <c r="BO28">
+        <v>2.01</v>
+      </c>
+      <c r="BP28">
+        <v>1.78</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="125">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -335,6 +335,15 @@
   </si>
   <si>
     <t>['7', '88']</t>
+  </si>
+  <si>
+    <t>['90']</t>
+  </si>
+  <si>
+    <t>['17', '48', '64', '79']</t>
+  </si>
+  <si>
+    <t>['23', '30', '58', '63', '87']</t>
   </si>
   <si>
     <t>['25']</t>
@@ -741,7 +750,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP28"/>
+  <dimension ref="A1:BP32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1000,7 +1009,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q2">
         <v>1.53</v>
@@ -1412,7 +1421,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -1618,7 +1627,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -1824,7 +1833,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2030,7 +2039,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2854,7 +2863,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3060,7 +3069,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q12">
         <v>2.85</v>
@@ -3141,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="AQ12">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3472,7 +3481,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -3965,7 +3974,7 @@
         <v>3</v>
       </c>
       <c r="AQ16">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4296,7 +4305,7 @@
         <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q18">
         <v>5.4</v>
@@ -5120,7 +5129,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q22">
         <v>2.64</v>
@@ -5326,7 +5335,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q23">
         <v>2.6</v>
@@ -5532,7 +5541,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5738,7 +5747,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q25">
         <v>1.06</v>
@@ -5944,7 +5953,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q26">
         <v>3.2</v>
@@ -6150,7 +6159,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q27">
         <v>6.23</v>
@@ -6513,6 +6522,830 @@
       </c>
       <c r="BP28">
         <v>1.78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:68">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>7468107</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45515.39583333334</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>79</v>
+      </c>
+      <c r="H29" t="s">
+        <v>76</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29" t="s">
+        <v>88</v>
+      </c>
+      <c r="P29" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q29">
+        <v>3.6</v>
+      </c>
+      <c r="R29">
+        <v>2.1</v>
+      </c>
+      <c r="S29">
+        <v>3.1</v>
+      </c>
+      <c r="T29">
+        <v>1.44</v>
+      </c>
+      <c r="U29">
+        <v>2.63</v>
+      </c>
+      <c r="V29">
+        <v>3</v>
+      </c>
+      <c r="W29">
+        <v>1.36</v>
+      </c>
+      <c r="X29">
+        <v>9</v>
+      </c>
+      <c r="Y29">
+        <v>1.07</v>
+      </c>
+      <c r="Z29">
+        <v>2.9</v>
+      </c>
+      <c r="AA29">
+        <v>3.35</v>
+      </c>
+      <c r="AB29">
+        <v>2.35</v>
+      </c>
+      <c r="AC29">
+        <v>1.03</v>
+      </c>
+      <c r="AD29">
+        <v>8.1</v>
+      </c>
+      <c r="AE29">
+        <v>1.32</v>
+      </c>
+      <c r="AF29">
+        <v>2.98</v>
+      </c>
+      <c r="AG29">
+        <v>2.12</v>
+      </c>
+      <c r="AH29">
+        <v>1.73</v>
+      </c>
+      <c r="AI29">
+        <v>1.8</v>
+      </c>
+      <c r="AJ29">
+        <v>1.95</v>
+      </c>
+      <c r="AK29">
+        <v>1.55</v>
+      </c>
+      <c r="AL29">
+        <v>1.3</v>
+      </c>
+      <c r="AM29">
+        <v>1.36</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <v>1.5</v>
+      </c>
+      <c r="AR29">
+        <v>1.22</v>
+      </c>
+      <c r="AS29">
+        <v>1.5</v>
+      </c>
+      <c r="AT29">
+        <v>2.72</v>
+      </c>
+      <c r="AU29">
+        <v>4</v>
+      </c>
+      <c r="AV29">
+        <v>3</v>
+      </c>
+      <c r="AW29">
+        <v>2</v>
+      </c>
+      <c r="AX29">
+        <v>2</v>
+      </c>
+      <c r="AY29">
+        <v>6</v>
+      </c>
+      <c r="AZ29">
+        <v>5</v>
+      </c>
+      <c r="BA29">
+        <v>2</v>
+      </c>
+      <c r="BB29">
+        <v>3</v>
+      </c>
+      <c r="BC29">
+        <v>5</v>
+      </c>
+      <c r="BD29">
+        <v>2.1</v>
+      </c>
+      <c r="BE29">
+        <v>8.5</v>
+      </c>
+      <c r="BF29">
+        <v>1.91</v>
+      </c>
+      <c r="BG29">
+        <v>1.17</v>
+      </c>
+      <c r="BH29">
+        <v>4.6</v>
+      </c>
+      <c r="BI29">
+        <v>1.34</v>
+      </c>
+      <c r="BJ29">
+        <v>3.1</v>
+      </c>
+      <c r="BK29">
+        <v>1.55</v>
+      </c>
+      <c r="BL29">
+        <v>2.41</v>
+      </c>
+      <c r="BM29">
+        <v>1.9</v>
+      </c>
+      <c r="BN29">
+        <v>1.9</v>
+      </c>
+      <c r="BO29">
+        <v>2.35</v>
+      </c>
+      <c r="BP29">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:68">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>7468109</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45515.5</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>82</v>
+      </c>
+      <c r="H30" t="s">
+        <v>77</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30" t="s">
+        <v>107</v>
+      </c>
+      <c r="P30" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q30">
+        <v>2.2</v>
+      </c>
+      <c r="R30">
+        <v>2.3</v>
+      </c>
+      <c r="S30">
+        <v>5</v>
+      </c>
+      <c r="T30">
+        <v>1.33</v>
+      </c>
+      <c r="U30">
+        <v>3.25</v>
+      </c>
+      <c r="V30">
+        <v>2.63</v>
+      </c>
+      <c r="W30">
+        <v>1.44</v>
+      </c>
+      <c r="X30">
+        <v>6.5</v>
+      </c>
+      <c r="Y30">
+        <v>1.11</v>
+      </c>
+      <c r="Z30">
+        <v>1.84</v>
+      </c>
+      <c r="AA30">
+        <v>3.57</v>
+      </c>
+      <c r="AB30">
+        <v>4.25</v>
+      </c>
+      <c r="AC30">
+        <v>1.01</v>
+      </c>
+      <c r="AD30">
+        <v>10</v>
+      </c>
+      <c r="AE30">
+        <v>1.22</v>
+      </c>
+      <c r="AF30">
+        <v>3.64</v>
+      </c>
+      <c r="AG30">
+        <v>1.75</v>
+      </c>
+      <c r="AH30">
+        <v>1.96</v>
+      </c>
+      <c r="AI30">
+        <v>1.75</v>
+      </c>
+      <c r="AJ30">
+        <v>2</v>
+      </c>
+      <c r="AK30">
+        <v>1.15</v>
+      </c>
+      <c r="AL30">
+        <v>1.25</v>
+      </c>
+      <c r="AM30">
+        <v>2.2</v>
+      </c>
+      <c r="AN30">
+        <v>3</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <v>3</v>
+      </c>
+      <c r="AQ30">
+        <v>0</v>
+      </c>
+      <c r="AR30">
+        <v>1.24</v>
+      </c>
+      <c r="AS30">
+        <v>0.71</v>
+      </c>
+      <c r="AT30">
+        <v>1.95</v>
+      </c>
+      <c r="AU30">
+        <v>6</v>
+      </c>
+      <c r="AV30">
+        <v>3</v>
+      </c>
+      <c r="AW30">
+        <v>17</v>
+      </c>
+      <c r="AX30">
+        <v>0</v>
+      </c>
+      <c r="AY30">
+        <v>23</v>
+      </c>
+      <c r="AZ30">
+        <v>3</v>
+      </c>
+      <c r="BA30">
+        <v>13</v>
+      </c>
+      <c r="BB30">
+        <v>0</v>
+      </c>
+      <c r="BC30">
+        <v>13</v>
+      </c>
+      <c r="BD30">
+        <v>1.42</v>
+      </c>
+      <c r="BE30">
+        <v>7.5</v>
+      </c>
+      <c r="BF30">
+        <v>3.74</v>
+      </c>
+      <c r="BG30">
+        <v>1.15</v>
+      </c>
+      <c r="BH30">
+        <v>5</v>
+      </c>
+      <c r="BI30">
+        <v>1.26</v>
+      </c>
+      <c r="BJ30">
+        <v>3.34</v>
+      </c>
+      <c r="BK30">
+        <v>1.51</v>
+      </c>
+      <c r="BL30">
+        <v>2.49</v>
+      </c>
+      <c r="BM30">
+        <v>1.8</v>
+      </c>
+      <c r="BN30">
+        <v>2</v>
+      </c>
+      <c r="BO30">
+        <v>2.29</v>
+      </c>
+      <c r="BP30">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:68">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>7468106</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45515.5</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>83</v>
+      </c>
+      <c r="H31" t="s">
+        <v>72</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>4</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>4</v>
+      </c>
+      <c r="O31" t="s">
+        <v>108</v>
+      </c>
+      <c r="P31" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q31">
+        <v>2.1</v>
+      </c>
+      <c r="R31">
+        <v>2.4</v>
+      </c>
+      <c r="S31">
+        <v>5.5</v>
+      </c>
+      <c r="T31">
+        <v>1.3</v>
+      </c>
+      <c r="U31">
+        <v>3.4</v>
+      </c>
+      <c r="V31">
+        <v>2.5</v>
+      </c>
+      <c r="W31">
+        <v>1.5</v>
+      </c>
+      <c r="X31">
+        <v>6</v>
+      </c>
+      <c r="Y31">
+        <v>1.13</v>
+      </c>
+      <c r="Z31">
+        <v>1.51</v>
+      </c>
+      <c r="AA31">
+        <v>3.8</v>
+      </c>
+      <c r="AB31">
+        <v>7.6</v>
+      </c>
+      <c r="AC31">
+        <v>1.02</v>
+      </c>
+      <c r="AD31">
+        <v>10</v>
+      </c>
+      <c r="AE31">
+        <v>1.19</v>
+      </c>
+      <c r="AF31">
+        <v>3.96</v>
+      </c>
+      <c r="AG31">
+        <v>1.62</v>
+      </c>
+      <c r="AH31">
+        <v>2.16</v>
+      </c>
+      <c r="AI31">
+        <v>1.75</v>
+      </c>
+      <c r="AJ31">
+        <v>2</v>
+      </c>
+      <c r="AK31">
+        <v>1.12</v>
+      </c>
+      <c r="AL31">
+        <v>1.22</v>
+      </c>
+      <c r="AM31">
+        <v>2.38</v>
+      </c>
+      <c r="AN31">
+        <v>3</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
+        <v>3</v>
+      </c>
+      <c r="AQ31">
+        <v>0</v>
+      </c>
+      <c r="AR31">
+        <v>1.76</v>
+      </c>
+      <c r="AS31">
+        <v>0.5</v>
+      </c>
+      <c r="AT31">
+        <v>2.26</v>
+      </c>
+      <c r="AU31">
+        <v>7</v>
+      </c>
+      <c r="AV31">
+        <v>3</v>
+      </c>
+      <c r="AW31">
+        <v>4</v>
+      </c>
+      <c r="AX31">
+        <v>5</v>
+      </c>
+      <c r="AY31">
+        <v>11</v>
+      </c>
+      <c r="AZ31">
+        <v>8</v>
+      </c>
+      <c r="BA31">
+        <v>2</v>
+      </c>
+      <c r="BB31">
+        <v>4</v>
+      </c>
+      <c r="BC31">
+        <v>6</v>
+      </c>
+      <c r="BD31">
+        <v>1.38</v>
+      </c>
+      <c r="BE31">
+        <v>8</v>
+      </c>
+      <c r="BF31">
+        <v>3.92</v>
+      </c>
+      <c r="BG31">
+        <v>1.09</v>
+      </c>
+      <c r="BH31">
+        <v>6.5</v>
+      </c>
+      <c r="BI31">
+        <v>1.2</v>
+      </c>
+      <c r="BJ31">
+        <v>4.3</v>
+      </c>
+      <c r="BK31">
+        <v>1.31</v>
+      </c>
+      <c r="BL31">
+        <v>3.04</v>
+      </c>
+      <c r="BM31">
+        <v>1.57</v>
+      </c>
+      <c r="BN31">
+        <v>2.32</v>
+      </c>
+      <c r="BO31">
+        <v>1.94</v>
+      </c>
+      <c r="BP31">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:68">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>7468108</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45515.625</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>84</v>
+      </c>
+      <c r="H32" t="s">
+        <v>75</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>5</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>5</v>
+      </c>
+      <c r="O32" t="s">
+        <v>109</v>
+      </c>
+      <c r="P32" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q32">
+        <v>1.8</v>
+      </c>
+      <c r="R32">
+        <v>2.6</v>
+      </c>
+      <c r="S32">
+        <v>7</v>
+      </c>
+      <c r="T32">
+        <v>1.29</v>
+      </c>
+      <c r="U32">
+        <v>3.5</v>
+      </c>
+      <c r="V32">
+        <v>2.25</v>
+      </c>
+      <c r="W32">
+        <v>1.57</v>
+      </c>
+      <c r="X32">
+        <v>5.5</v>
+      </c>
+      <c r="Y32">
+        <v>1.14</v>
+      </c>
+      <c r="Z32">
+        <v>1.31</v>
+      </c>
+      <c r="AA32">
+        <v>5.45</v>
+      </c>
+      <c r="AB32">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AC32">
+        <v>1.02</v>
+      </c>
+      <c r="AD32">
+        <v>10</v>
+      </c>
+      <c r="AE32">
+        <v>1.14</v>
+      </c>
+      <c r="AF32">
+        <v>4.6</v>
+      </c>
+      <c r="AG32">
+        <v>1.57</v>
+      </c>
+      <c r="AH32">
+        <v>2.25</v>
+      </c>
+      <c r="AI32">
+        <v>1.91</v>
+      </c>
+      <c r="AJ32">
+        <v>1.91</v>
+      </c>
+      <c r="AK32">
+        <v>1.06</v>
+      </c>
+      <c r="AL32">
+        <v>1.17</v>
+      </c>
+      <c r="AM32">
+        <v>3.1</v>
+      </c>
+      <c r="AN32">
+        <v>3</v>
+      </c>
+      <c r="AO32">
+        <v>3</v>
+      </c>
+      <c r="AP32">
+        <v>3</v>
+      </c>
+      <c r="AQ32">
+        <v>1.5</v>
+      </c>
+      <c r="AR32">
+        <v>1.64</v>
+      </c>
+      <c r="AS32">
+        <v>2.37</v>
+      </c>
+      <c r="AT32">
+        <v>4.01</v>
+      </c>
+      <c r="AU32">
+        <v>8</v>
+      </c>
+      <c r="AV32">
+        <v>3</v>
+      </c>
+      <c r="AW32">
+        <v>8</v>
+      </c>
+      <c r="AX32">
+        <v>6</v>
+      </c>
+      <c r="AY32">
+        <v>16</v>
+      </c>
+      <c r="AZ32">
+        <v>9</v>
+      </c>
+      <c r="BA32">
+        <v>7</v>
+      </c>
+      <c r="BB32">
+        <v>4</v>
+      </c>
+      <c r="BC32">
+        <v>11</v>
+      </c>
+      <c r="BD32">
+        <v>1.18</v>
+      </c>
+      <c r="BE32">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF32">
+        <v>6.5</v>
+      </c>
+      <c r="BG32">
+        <v>1.16</v>
+      </c>
+      <c r="BH32">
+        <v>4.8</v>
+      </c>
+      <c r="BI32">
+        <v>1.29</v>
+      </c>
+      <c r="BJ32">
+        <v>3.14</v>
+      </c>
+      <c r="BK32">
+        <v>1.53</v>
+      </c>
+      <c r="BL32">
+        <v>2.42</v>
+      </c>
+      <c r="BM32">
+        <v>1.9</v>
+      </c>
+      <c r="BN32">
+        <v>1.9</v>
+      </c>
+      <c r="BO32">
+        <v>2.39</v>
+      </c>
+      <c r="BP32">
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -6682,13 +6682,13 @@
         <v>5</v>
       </c>
       <c r="BA29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB29">
         <v>3</v>
       </c>
       <c r="BC29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD29">
         <v>2.1</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -262,12 +262,12 @@
     <t>Slovan Liberec</t>
   </si>
   <si>
+    <t>Mladá Boleslav</t>
+  </si>
+  <si>
     <t>Baník Ostrava</t>
   </si>
   <si>
-    <t>Mladá Boleslav</t>
-  </si>
-  <si>
     <t>Viktoria Plzeň</t>
   </si>
   <si>
@@ -307,12 +307,12 @@
     <t>['37']</t>
   </si>
   <si>
+    <t>['10', '45+1', '46']</t>
+  </si>
+  <si>
     <t>['53']</t>
   </si>
   <si>
-    <t>['10', '45+1', '46']</t>
-  </si>
-  <si>
     <t>['56']</t>
   </si>
   <si>
@@ -328,12 +328,12 @@
     <t>['7', '51']</t>
   </si>
   <si>
+    <t>['40']</t>
+  </si>
+  <si>
     <t>['17', '90+4']</t>
   </si>
   <si>
-    <t>['40']</t>
-  </si>
-  <si>
     <t>['7', '88']</t>
   </si>
   <si>
@@ -385,10 +385,10 @@
     <t>['45', '89']</t>
   </si>
   <si>
+    <t>['45+4', '62']</t>
+  </si>
+  <si>
     <t>['46']</t>
-  </si>
-  <si>
-    <t>['45+4', '62']</t>
   </si>
 </sst>
 </file>
@@ -1191,7 +1191,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1603,7 +1603,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -3645,7 +3645,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>7468094</v>
+        <v>7468091</v>
       </c>
       <c r="C15" t="s">
         <v>68</v>
@@ -3663,25 +3663,25 @@
         <v>82</v>
       </c>
       <c r="H15" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O15" t="s">
         <v>97</v>
@@ -3690,73 +3690,73 @@
         <v>88</v>
       </c>
       <c r="Q15">
-        <v>2.21</v>
+        <v>2.48</v>
       </c>
       <c r="R15">
-        <v>2.35</v>
+        <v>2.26</v>
       </c>
       <c r="S15">
-        <v>4.4</v>
+        <v>3.86</v>
       </c>
       <c r="T15">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="U15">
+        <v>3.2</v>
+      </c>
+      <c r="V15">
+        <v>2.4</v>
+      </c>
+      <c r="W15">
+        <v>1.5</v>
+      </c>
+      <c r="X15">
+        <v>5.25</v>
+      </c>
+      <c r="Y15">
+        <v>1.12</v>
+      </c>
+      <c r="Z15">
+        <v>1.95</v>
+      </c>
+      <c r="AA15">
+        <v>3.6</v>
+      </c>
+      <c r="AB15">
         <v>3.4</v>
       </c>
-      <c r="V15">
-        <v>2.3</v>
-      </c>
-      <c r="W15">
-        <v>1.55</v>
-      </c>
-      <c r="X15">
-        <v>5</v>
-      </c>
-      <c r="Y15">
-        <v>1.14</v>
-      </c>
-      <c r="Z15">
-        <v>1.53</v>
-      </c>
-      <c r="AA15">
-        <v>4.2</v>
-      </c>
-      <c r="AB15">
-        <v>5.25</v>
-      </c>
       <c r="AC15">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AD15">
-        <v>17.75</v>
+        <v>15.5</v>
       </c>
       <c r="AE15">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="AF15">
-        <v>4.35</v>
+        <v>4.43</v>
       </c>
       <c r="AG15">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="AH15">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="AI15">
         <v>1.58</v>
       </c>
       <c r="AJ15">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AK15">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="AL15">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="AM15">
-        <v>2.05</v>
+        <v>1.78</v>
       </c>
       <c r="AN15">
         <v>0</v>
@@ -3780,70 +3780,70 @@
         <v>0</v>
       </c>
       <c r="AU15">
+        <v>7</v>
+      </c>
+      <c r="AV15">
+        <v>4</v>
+      </c>
+      <c r="AW15">
+        <v>7</v>
+      </c>
+      <c r="AX15">
         <v>5</v>
       </c>
-      <c r="AV15">
-        <v>2</v>
-      </c>
-      <c r="AW15">
-        <v>3</v>
-      </c>
-      <c r="AX15">
-        <v>2</v>
-      </c>
       <c r="AY15">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AZ15">
+        <v>9</v>
+      </c>
+      <c r="BA15">
         <v>4</v>
       </c>
-      <c r="BA15">
-        <v>3</v>
-      </c>
       <c r="BB15">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BC15">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="BD15">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="BE15">
         <v>8.5</v>
       </c>
       <c r="BF15">
-        <v>2.81</v>
+        <v>2.78</v>
       </c>
       <c r="BG15">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="BH15">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="BI15">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="BJ15">
-        <v>3.34</v>
+        <v>3.2</v>
       </c>
       <c r="BK15">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="BL15">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="BM15">
+        <v>1.95</v>
+      </c>
+      <c r="BN15">
         <v>1.85</v>
       </c>
-      <c r="BN15">
-        <v>1.95</v>
-      </c>
       <c r="BO15">
-        <v>2.3</v>
+        <v>2.43</v>
       </c>
       <c r="BP15">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="16" spans="1:68">
@@ -3851,7 +3851,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>7468091</v>
+        <v>7468094</v>
       </c>
       <c r="C16" t="s">
         <v>68</v>
@@ -3869,25 +3869,25 @@
         <v>83</v>
       </c>
       <c r="H16" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O16" t="s">
         <v>98</v>
@@ -3896,73 +3896,73 @@
         <v>88</v>
       </c>
       <c r="Q16">
-        <v>2.48</v>
+        <v>2.21</v>
       </c>
       <c r="R16">
-        <v>2.26</v>
+        <v>2.35</v>
       </c>
       <c r="S16">
-        <v>3.86</v>
+        <v>4.4</v>
       </c>
       <c r="T16">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="U16">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="V16">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="W16">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="X16">
+        <v>5</v>
+      </c>
+      <c r="Y16">
+        <v>1.14</v>
+      </c>
+      <c r="Z16">
+        <v>1.53</v>
+      </c>
+      <c r="AA16">
+        <v>4.2</v>
+      </c>
+      <c r="AB16">
         <v>5.25</v>
       </c>
-      <c r="Y16">
-        <v>1.12</v>
-      </c>
-      <c r="Z16">
-        <v>1.95</v>
-      </c>
-      <c r="AA16">
-        <v>3.6</v>
-      </c>
-      <c r="AB16">
-        <v>3.4</v>
-      </c>
       <c r="AC16">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AD16">
-        <v>15.5</v>
+        <v>17.75</v>
       </c>
       <c r="AE16">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AF16">
-        <v>4.43</v>
+        <v>4.35</v>
       </c>
       <c r="AG16">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="AH16">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="AI16">
         <v>1.58</v>
       </c>
       <c r="AJ16">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AK16">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AL16">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AM16">
-        <v>1.78</v>
+        <v>2.05</v>
       </c>
       <c r="AN16">
         <v>0</v>
@@ -3986,70 +3986,70 @@
         <v>0</v>
       </c>
       <c r="AU16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV16">
+        <v>2</v>
+      </c>
+      <c r="AW16">
+        <v>3</v>
+      </c>
+      <c r="AX16">
+        <v>2</v>
+      </c>
+      <c r="AY16">
+        <v>8</v>
+      </c>
+      <c r="AZ16">
         <v>4</v>
       </c>
-      <c r="AW16">
-        <v>7</v>
-      </c>
-      <c r="AX16">
-        <v>5</v>
-      </c>
-      <c r="AY16">
-        <v>14</v>
-      </c>
-      <c r="AZ16">
-        <v>9</v>
-      </c>
       <c r="BA16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB16">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="BC16">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="BD16">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="BE16">
         <v>8.5</v>
       </c>
       <c r="BF16">
-        <v>2.78</v>
+        <v>2.81</v>
       </c>
       <c r="BG16">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="BH16">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="BI16">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="BJ16">
-        <v>3.2</v>
+        <v>3.34</v>
       </c>
       <c r="BK16">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="BL16">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="BM16">
+        <v>1.85</v>
+      </c>
+      <c r="BN16">
         <v>1.95</v>
       </c>
-      <c r="BN16">
-        <v>1.85</v>
-      </c>
       <c r="BO16">
-        <v>2.43</v>
+        <v>2.3</v>
       </c>
       <c r="BP16">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="17" spans="1:68">
@@ -5517,7 +5517,7 @@
         <v>77</v>
       </c>
       <c r="H24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -5911,7 +5911,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>7468105</v>
+        <v>7468111</v>
       </c>
       <c r="C26" t="s">
         <v>68</v>
@@ -5926,25 +5926,25 @@
         <v>4</v>
       </c>
       <c r="G26" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H26" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N26">
         <v>3</v>
@@ -5956,76 +5956,76 @@
         <v>123</v>
       </c>
       <c r="Q26">
-        <v>3.2</v>
+        <v>6.23</v>
       </c>
       <c r="R26">
-        <v>2.05</v>
+        <v>2.58</v>
       </c>
       <c r="S26">
-        <v>3.25</v>
+        <v>1.93</v>
       </c>
       <c r="T26">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="U26">
-        <v>2.7</v>
+        <v>3.44</v>
       </c>
       <c r="V26">
-        <v>2.85</v>
+        <v>2.35</v>
       </c>
       <c r="W26">
-        <v>1.37</v>
+        <v>1.52</v>
       </c>
       <c r="X26">
-        <v>6.95</v>
+        <v>5</v>
       </c>
       <c r="Y26">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="Z26">
-        <v>2.63</v>
+        <v>6.29</v>
       </c>
       <c r="AA26">
-        <v>3.25</v>
+        <v>4.55</v>
       </c>
       <c r="AB26">
-        <v>2.65</v>
+        <v>1.43</v>
       </c>
       <c r="AC26">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AD26">
-        <v>8.9</v>
+        <v>19.25</v>
       </c>
       <c r="AE26">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AF26">
-        <v>3.3</v>
+        <v>4.67</v>
       </c>
       <c r="AG26">
-        <v>1.95</v>
+        <v>1.55</v>
       </c>
       <c r="AH26">
-        <v>1.84</v>
+        <v>2.2</v>
       </c>
       <c r="AI26">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="AJ26">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AK26">
-        <v>1.47</v>
+        <v>2.68</v>
       </c>
       <c r="AL26">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="AM26">
-        <v>1.47</v>
+        <v>1.1</v>
       </c>
       <c r="AN26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO26">
         <v>3</v>
@@ -6034,82 +6034,82 @@
         <v>1.5</v>
       </c>
       <c r="AQ26">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AR26">
-        <v>1.06</v>
+        <v>1.73</v>
       </c>
       <c r="AS26">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="AT26">
-        <v>3.03</v>
+        <v>3.75</v>
       </c>
       <c r="AU26">
         <v>6</v>
       </c>
       <c r="AV26">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW26">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AX26">
         <v>8</v>
       </c>
       <c r="AY26">
+        <v>7</v>
+      </c>
+      <c r="AZ26">
         <v>15</v>
       </c>
-      <c r="AZ26">
-        <v>12</v>
-      </c>
       <c r="BA26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BB26">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BC26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD26">
-        <v>1.97</v>
+        <v>3.64</v>
       </c>
       <c r="BE26">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="BF26">
-        <v>2.24</v>
+        <v>1.44</v>
       </c>
       <c r="BG26">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="BH26">
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="BI26">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="BJ26">
-        <v>3.18</v>
+        <v>2.78</v>
       </c>
       <c r="BK26">
-        <v>1.55</v>
+        <v>1.71</v>
       </c>
       <c r="BL26">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="BM26">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="BN26">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="BO26">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="BP26">
-        <v>1.55</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="27" spans="1:68">
@@ -6117,7 +6117,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>7468111</v>
+        <v>7468105</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -6132,25 +6132,25 @@
         <v>4</v>
       </c>
       <c r="G27" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N27">
         <v>3</v>
@@ -6162,76 +6162,76 @@
         <v>124</v>
       </c>
       <c r="Q27">
-        <v>6.23</v>
+        <v>3.2</v>
       </c>
       <c r="R27">
-        <v>2.58</v>
+        <v>2.05</v>
       </c>
       <c r="S27">
-        <v>1.93</v>
+        <v>3.25</v>
       </c>
       <c r="T27">
+        <v>1.41</v>
+      </c>
+      <c r="U27">
+        <v>2.7</v>
+      </c>
+      <c r="V27">
+        <v>2.85</v>
+      </c>
+      <c r="W27">
+        <v>1.37</v>
+      </c>
+      <c r="X27">
+        <v>6.95</v>
+      </c>
+      <c r="Y27">
+        <v>1.07</v>
+      </c>
+      <c r="Z27">
+        <v>2.63</v>
+      </c>
+      <c r="AA27">
+        <v>3.25</v>
+      </c>
+      <c r="AB27">
+        <v>2.65</v>
+      </c>
+      <c r="AC27">
+        <v>1.02</v>
+      </c>
+      <c r="AD27">
+        <v>8.9</v>
+      </c>
+      <c r="AE27">
         <v>1.3</v>
       </c>
-      <c r="U27">
-        <v>3.44</v>
-      </c>
-      <c r="V27">
-        <v>2.35</v>
-      </c>
-      <c r="W27">
-        <v>1.52</v>
-      </c>
-      <c r="X27">
-        <v>5</v>
-      </c>
-      <c r="Y27">
-        <v>1.13</v>
-      </c>
-      <c r="Z27">
-        <v>6.29</v>
-      </c>
-      <c r="AA27">
-        <v>4.55</v>
-      </c>
-      <c r="AB27">
-        <v>1.43</v>
-      </c>
-      <c r="AC27">
-        <v>1.03</v>
-      </c>
-      <c r="AD27">
-        <v>19.25</v>
-      </c>
-      <c r="AE27">
-        <v>1.2</v>
-      </c>
       <c r="AF27">
-        <v>4.67</v>
+        <v>3.3</v>
       </c>
       <c r="AG27">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="AH27">
-        <v>2.2</v>
+        <v>1.84</v>
       </c>
       <c r="AI27">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="AJ27">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AK27">
-        <v>2.68</v>
+        <v>1.47</v>
       </c>
       <c r="AL27">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AM27">
-        <v>1.1</v>
+        <v>1.47</v>
       </c>
       <c r="AN27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO27">
         <v>3</v>
@@ -6240,82 +6240,82 @@
         <v>1.5</v>
       </c>
       <c r="AQ27">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR27">
-        <v>1.73</v>
+        <v>1.06</v>
       </c>
       <c r="AS27">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="AT27">
-        <v>3.75</v>
+        <v>3.03</v>
       </c>
       <c r="AU27">
         <v>6</v>
       </c>
       <c r="AV27">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW27">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AX27">
         <v>8</v>
       </c>
       <c r="AY27">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AZ27">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA27">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BB27">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BC27">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD27">
-        <v>3.64</v>
+        <v>1.97</v>
       </c>
       <c r="BE27">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="BF27">
-        <v>1.44</v>
+        <v>2.24</v>
       </c>
       <c r="BG27">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="BH27">
-        <v>4.05</v>
+        <v>0</v>
       </c>
       <c r="BI27">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="BJ27">
-        <v>2.78</v>
+        <v>3.18</v>
       </c>
       <c r="BK27">
-        <v>1.71</v>
+        <v>1.55</v>
       </c>
       <c r="BL27">
-        <v>2.11</v>
+        <v>2.38</v>
       </c>
       <c r="BM27">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="BN27">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="BO27">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="BP27">
-        <v>1.37</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="28" spans="1:68">
@@ -6750,7 +6750,7 @@
         <v>4</v>
       </c>
       <c r="G30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H30" t="s">
         <v>77</v>
@@ -6956,7 +6956,7 @@
         <v>4</v>
       </c>
       <c r="G31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H31" t="s">
         <v>72</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="132">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -346,6 +346,18 @@
     <t>['23', '30', '58', '63', '87']</t>
   </si>
   <si>
+    <t>['45+1']</t>
+  </si>
+  <si>
+    <t>['81', '86']</t>
+  </si>
+  <si>
+    <t>['9']</t>
+  </si>
+  <si>
+    <t>['88']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -389,6 +401,15 @@
   </si>
   <si>
     <t>['46']</t>
+  </si>
+  <si>
+    <t>['57']</t>
+  </si>
+  <si>
+    <t>['1', '38']</t>
+  </si>
+  <si>
+    <t>['38', '68']</t>
   </si>
 </sst>
 </file>
@@ -750,7 +771,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP32"/>
+  <dimension ref="A1:BP36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1009,7 +1030,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Q2">
         <v>1.53</v>
@@ -1293,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ3">
         <v>0</v>
@@ -1421,7 +1442,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -1627,7 +1648,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -1833,7 +1854,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2039,7 +2060,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2738,7 +2759,7 @@
         <v>1</v>
       </c>
       <c r="AQ10">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR10">
         <v>0.98</v>
@@ -2863,7 +2884,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3069,7 +3090,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Q12">
         <v>2.85</v>
@@ -3481,7 +3502,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4305,7 +4326,7 @@
         <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="Q18">
         <v>5.4</v>
@@ -4798,7 +4819,7 @@
         <v>1</v>
       </c>
       <c r="AQ20">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR20">
         <v>1</v>
@@ -5001,7 +5022,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ21">
         <v>2</v>
@@ -5129,7 +5150,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q22">
         <v>2.64</v>
@@ -5335,7 +5356,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q23">
         <v>2.6</v>
@@ -5541,7 +5562,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5747,7 +5768,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q25">
         <v>1.06</v>
@@ -5953,7 +5974,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q26">
         <v>6.23</v>
@@ -6159,7 +6180,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -7346,6 +7367,830 @@
       </c>
       <c r="BP32">
         <v>1.55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:68">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>7468117</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45521.39583333334</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+      <c r="G33" t="s">
+        <v>77</v>
+      </c>
+      <c r="H33" t="s">
+        <v>74</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33" t="s">
+        <v>110</v>
+      </c>
+      <c r="P33" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q33">
+        <v>2.2</v>
+      </c>
+      <c r="R33">
+        <v>2.25</v>
+      </c>
+      <c r="S33">
+        <v>6</v>
+      </c>
+      <c r="T33">
+        <v>1.4</v>
+      </c>
+      <c r="U33">
+        <v>2.75</v>
+      </c>
+      <c r="V33">
+        <v>2.75</v>
+      </c>
+      <c r="W33">
+        <v>1.4</v>
+      </c>
+      <c r="X33">
+        <v>8</v>
+      </c>
+      <c r="Y33">
+        <v>1.08</v>
+      </c>
+      <c r="Z33">
+        <v>1.57</v>
+      </c>
+      <c r="AA33">
+        <v>3.8</v>
+      </c>
+      <c r="AB33">
+        <v>6</v>
+      </c>
+      <c r="AC33">
+        <v>1.01</v>
+      </c>
+      <c r="AD33">
+        <v>9.4</v>
+      </c>
+      <c r="AE33">
+        <v>1.26</v>
+      </c>
+      <c r="AF33">
+        <v>3.34</v>
+      </c>
+      <c r="AG33">
+        <v>1.88</v>
+      </c>
+      <c r="AH33">
+        <v>1.98</v>
+      </c>
+      <c r="AI33">
+        <v>1.95</v>
+      </c>
+      <c r="AJ33">
+        <v>1.8</v>
+      </c>
+      <c r="AK33">
+        <v>1.09</v>
+      </c>
+      <c r="AL33">
+        <v>1.2</v>
+      </c>
+      <c r="AM33">
+        <v>2.35</v>
+      </c>
+      <c r="AN33">
+        <v>3</v>
+      </c>
+      <c r="AO33">
+        <v>0</v>
+      </c>
+      <c r="AP33">
+        <v>3</v>
+      </c>
+      <c r="AQ33">
+        <v>0</v>
+      </c>
+      <c r="AR33">
+        <v>1.08</v>
+      </c>
+      <c r="AS33">
+        <v>0.61</v>
+      </c>
+      <c r="AT33">
+        <v>1.69</v>
+      </c>
+      <c r="AU33">
+        <v>6</v>
+      </c>
+      <c r="AV33">
+        <v>3</v>
+      </c>
+      <c r="AW33">
+        <v>3</v>
+      </c>
+      <c r="AX33">
+        <v>5</v>
+      </c>
+      <c r="AY33">
+        <v>9</v>
+      </c>
+      <c r="AZ33">
+        <v>8</v>
+      </c>
+      <c r="BA33">
+        <v>6</v>
+      </c>
+      <c r="BB33">
+        <v>8</v>
+      </c>
+      <c r="BC33">
+        <v>14</v>
+      </c>
+      <c r="BD33">
+        <v>1.39</v>
+      </c>
+      <c r="BE33">
+        <v>9.6</v>
+      </c>
+      <c r="BF33">
+        <v>3.55</v>
+      </c>
+      <c r="BG33">
+        <v>1.19</v>
+      </c>
+      <c r="BH33">
+        <v>4.3</v>
+      </c>
+      <c r="BI33">
+        <v>1.33</v>
+      </c>
+      <c r="BJ33">
+        <v>2.91</v>
+      </c>
+      <c r="BK33">
+        <v>1.6</v>
+      </c>
+      <c r="BL33">
+        <v>2.14</v>
+      </c>
+      <c r="BM33">
+        <v>2.02</v>
+      </c>
+      <c r="BN33">
+        <v>1.71</v>
+      </c>
+      <c r="BO33">
+        <v>2.6</v>
+      </c>
+      <c r="BP33">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:68">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>7468114</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45521.5</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+      <c r="G34" t="s">
+        <v>80</v>
+      </c>
+      <c r="H34" t="s">
+        <v>78</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>3</v>
+      </c>
+      <c r="O34" t="s">
+        <v>111</v>
+      </c>
+      <c r="P34" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q34">
+        <v>1.45</v>
+      </c>
+      <c r="R34">
+        <v>3.29</v>
+      </c>
+      <c r="S34">
+        <v>12.05</v>
+      </c>
+      <c r="T34">
+        <v>1.22</v>
+      </c>
+      <c r="U34">
+        <v>4</v>
+      </c>
+      <c r="V34">
+        <v>2.08</v>
+      </c>
+      <c r="W34">
+        <v>1.72</v>
+      </c>
+      <c r="X34">
+        <v>4</v>
+      </c>
+      <c r="Y34">
+        <v>1.2</v>
+      </c>
+      <c r="Z34">
+        <v>1.13</v>
+      </c>
+      <c r="AA34">
+        <v>7.5</v>
+      </c>
+      <c r="AB34">
+        <v>12</v>
+      </c>
+      <c r="AC34">
+        <v>1.02</v>
+      </c>
+      <c r="AD34">
+        <v>31</v>
+      </c>
+      <c r="AE34">
+        <v>1.11</v>
+      </c>
+      <c r="AF34">
+        <v>5.5</v>
+      </c>
+      <c r="AG34">
+        <v>1.45</v>
+      </c>
+      <c r="AH34">
+        <v>2.55</v>
+      </c>
+      <c r="AI34">
+        <v>2.16</v>
+      </c>
+      <c r="AJ34">
+        <v>1.66</v>
+      </c>
+      <c r="AK34">
+        <v>1.01</v>
+      </c>
+      <c r="AL34">
+        <v>1.08</v>
+      </c>
+      <c r="AM34">
+        <v>5.5</v>
+      </c>
+      <c r="AN34">
+        <v>3</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>3</v>
+      </c>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <v>2.27</v>
+      </c>
+      <c r="AS34">
+        <v>1.39</v>
+      </c>
+      <c r="AT34">
+        <v>3.66</v>
+      </c>
+      <c r="AU34">
+        <v>7</v>
+      </c>
+      <c r="AV34">
+        <v>3</v>
+      </c>
+      <c r="AW34">
+        <v>16</v>
+      </c>
+      <c r="AX34">
+        <v>5</v>
+      </c>
+      <c r="AY34">
+        <v>23</v>
+      </c>
+      <c r="AZ34">
+        <v>8</v>
+      </c>
+      <c r="BA34">
+        <v>8</v>
+      </c>
+      <c r="BB34">
+        <v>1</v>
+      </c>
+      <c r="BC34">
+        <v>9</v>
+      </c>
+      <c r="BD34">
+        <v>1.08</v>
+      </c>
+      <c r="BE34">
+        <v>13</v>
+      </c>
+      <c r="BF34">
+        <v>9.5</v>
+      </c>
+      <c r="BG34">
+        <v>1.13</v>
+      </c>
+      <c r="BH34">
+        <v>5.5</v>
+      </c>
+      <c r="BI34">
+        <v>1.31</v>
+      </c>
+      <c r="BJ34">
+        <v>3.04</v>
+      </c>
+      <c r="BK34">
+        <v>1.55</v>
+      </c>
+      <c r="BL34">
+        <v>2.23</v>
+      </c>
+      <c r="BM34">
+        <v>1.98</v>
+      </c>
+      <c r="BN34">
+        <v>1.82</v>
+      </c>
+      <c r="BO34">
+        <v>2.42</v>
+      </c>
+      <c r="BP34">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:68">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>7468118</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45521.5</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35" t="s">
+        <v>75</v>
+      </c>
+      <c r="H35" t="s">
+        <v>73</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>2</v>
+      </c>
+      <c r="N35">
+        <v>3</v>
+      </c>
+      <c r="O35" t="s">
+        <v>112</v>
+      </c>
+      <c r="P35" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q35">
+        <v>2.84</v>
+      </c>
+      <c r="R35">
+        <v>2.25</v>
+      </c>
+      <c r="S35">
+        <v>3.78</v>
+      </c>
+      <c r="T35">
+        <v>1.37</v>
+      </c>
+      <c r="U35">
+        <v>3.06</v>
+      </c>
+      <c r="V35">
+        <v>2.85</v>
+      </c>
+      <c r="W35">
+        <v>1.42</v>
+      </c>
+      <c r="X35">
+        <v>7</v>
+      </c>
+      <c r="Y35">
+        <v>1.08</v>
+      </c>
+      <c r="Z35">
+        <v>2.25</v>
+      </c>
+      <c r="AA35">
+        <v>3.1</v>
+      </c>
+      <c r="AB35">
+        <v>2.8</v>
+      </c>
+      <c r="AC35">
+        <v>1.01</v>
+      </c>
+      <c r="AD35">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE35">
+        <v>1.26</v>
+      </c>
+      <c r="AF35">
+        <v>3.34</v>
+      </c>
+      <c r="AG35">
+        <v>1.85</v>
+      </c>
+      <c r="AH35">
+        <v>1.8</v>
+      </c>
+      <c r="AI35">
+        <v>1.71</v>
+      </c>
+      <c r="AJ35">
+        <v>2.02</v>
+      </c>
+      <c r="AK35">
+        <v>1.38</v>
+      </c>
+      <c r="AL35">
+        <v>1.33</v>
+      </c>
+      <c r="AM35">
+        <v>1.62</v>
+      </c>
+      <c r="AN35">
+        <v>0</v>
+      </c>
+      <c r="AO35">
+        <v>0.5</v>
+      </c>
+      <c r="AP35">
+        <v>0</v>
+      </c>
+      <c r="AQ35">
+        <v>1.33</v>
+      </c>
+      <c r="AR35">
+        <v>1.93</v>
+      </c>
+      <c r="AS35">
+        <v>1.32</v>
+      </c>
+      <c r="AT35">
+        <v>3.25</v>
+      </c>
+      <c r="AU35">
+        <v>4</v>
+      </c>
+      <c r="AV35">
+        <v>8</v>
+      </c>
+      <c r="AW35">
+        <v>6</v>
+      </c>
+      <c r="AX35">
+        <v>3</v>
+      </c>
+      <c r="AY35">
+        <v>10</v>
+      </c>
+      <c r="AZ35">
+        <v>11</v>
+      </c>
+      <c r="BA35">
+        <v>8</v>
+      </c>
+      <c r="BB35">
+        <v>6</v>
+      </c>
+      <c r="BC35">
+        <v>14</v>
+      </c>
+      <c r="BD35">
+        <v>1.74</v>
+      </c>
+      <c r="BE35">
+        <v>6.7</v>
+      </c>
+      <c r="BF35">
+        <v>2.62</v>
+      </c>
+      <c r="BG35">
+        <v>1.18</v>
+      </c>
+      <c r="BH35">
+        <v>4.5</v>
+      </c>
+      <c r="BI35">
+        <v>1.3</v>
+      </c>
+      <c r="BJ35">
+        <v>3.08</v>
+      </c>
+      <c r="BK35">
+        <v>1.54</v>
+      </c>
+      <c r="BL35">
+        <v>2.25</v>
+      </c>
+      <c r="BM35">
+        <v>1.98</v>
+      </c>
+      <c r="BN35">
+        <v>1.82</v>
+      </c>
+      <c r="BO35">
+        <v>2.45</v>
+      </c>
+      <c r="BP35">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:68">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>7468115</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45521.625</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>71</v>
+      </c>
+      <c r="H36" t="s">
+        <v>70</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2</v>
+      </c>
+      <c r="N36">
+        <v>3</v>
+      </c>
+      <c r="O36" t="s">
+        <v>113</v>
+      </c>
+      <c r="P36" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q36">
+        <v>5.63</v>
+      </c>
+      <c r="R36">
+        <v>2.49</v>
+      </c>
+      <c r="S36">
+        <v>2.07</v>
+      </c>
+      <c r="T36">
+        <v>1.31</v>
+      </c>
+      <c r="U36">
+        <v>3.28</v>
+      </c>
+      <c r="V36">
+        <v>2.53</v>
+      </c>
+      <c r="W36">
+        <v>1.51</v>
+      </c>
+      <c r="X36">
+        <v>5.8</v>
+      </c>
+      <c r="Y36">
+        <v>1.12</v>
+      </c>
+      <c r="Z36">
+        <v>5.25</v>
+      </c>
+      <c r="AA36">
+        <v>4</v>
+      </c>
+      <c r="AB36">
+        <v>1.44</v>
+      </c>
+      <c r="AC36">
+        <v>1.04</v>
+      </c>
+      <c r="AD36">
+        <v>15.75</v>
+      </c>
+      <c r="AE36">
+        <v>1.18</v>
+      </c>
+      <c r="AF36">
+        <v>4.05</v>
+      </c>
+      <c r="AG36">
+        <v>1.6</v>
+      </c>
+      <c r="AH36">
+        <v>2.1</v>
+      </c>
+      <c r="AI36">
+        <v>1.72</v>
+      </c>
+      <c r="AJ36">
+        <v>2</v>
+      </c>
+      <c r="AK36">
+        <v>2.3</v>
+      </c>
+      <c r="AL36">
+        <v>1.2</v>
+      </c>
+      <c r="AM36">
+        <v>1.15</v>
+      </c>
+      <c r="AN36">
+        <v>2</v>
+      </c>
+      <c r="AO36">
+        <v>3</v>
+      </c>
+      <c r="AP36">
+        <v>1.33</v>
+      </c>
+      <c r="AQ36">
+        <v>3</v>
+      </c>
+      <c r="AR36">
+        <v>1.54</v>
+      </c>
+      <c r="AS36">
+        <v>2.07</v>
+      </c>
+      <c r="AT36">
+        <v>3.61</v>
+      </c>
+      <c r="AU36">
+        <v>5</v>
+      </c>
+      <c r="AV36">
+        <v>8</v>
+      </c>
+      <c r="AW36">
+        <v>7</v>
+      </c>
+      <c r="AX36">
+        <v>8</v>
+      </c>
+      <c r="AY36">
+        <v>12</v>
+      </c>
+      <c r="AZ36">
+        <v>16</v>
+      </c>
+      <c r="BA36">
+        <v>6</v>
+      </c>
+      <c r="BB36">
+        <v>6</v>
+      </c>
+      <c r="BC36">
+        <v>12</v>
+      </c>
+      <c r="BD36">
+        <v>3.07</v>
+      </c>
+      <c r="BE36">
+        <v>8.5</v>
+      </c>
+      <c r="BF36">
+        <v>1.51</v>
+      </c>
+      <c r="BG36">
+        <v>1.22</v>
+      </c>
+      <c r="BH36">
+        <v>4</v>
+      </c>
+      <c r="BI36">
+        <v>1.33</v>
+      </c>
+      <c r="BJ36">
+        <v>2.93</v>
+      </c>
+      <c r="BK36">
+        <v>1.58</v>
+      </c>
+      <c r="BL36">
+        <v>2.17</v>
+      </c>
+      <c r="BM36">
+        <v>1.95</v>
+      </c>
+      <c r="BN36">
+        <v>1.77</v>
+      </c>
+      <c r="BO36">
+        <v>2.57</v>
+      </c>
+      <c r="BP36">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="137">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -358,6 +358,15 @@
     <t>['88']</t>
   </si>
   <si>
+    <t>['21', '45+4', '90+3']</t>
+  </si>
+  <si>
+    <t>['15', '37', '64']</t>
+  </si>
+  <si>
+    <t>['44']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -410,6 +419,12 @@
   </si>
   <si>
     <t>['38', '68']</t>
+  </si>
+  <si>
+    <t>['34', '48']</t>
+  </si>
+  <si>
+    <t>['31', '50', '81']</t>
   </si>
 </sst>
 </file>
@@ -771,7 +786,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP36"/>
+  <dimension ref="A1:BP40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1030,7 +1045,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q2">
         <v>1.53</v>
@@ -1111,7 +1126,7 @@
         <v>3</v>
       </c>
       <c r="AQ2">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1442,7 +1457,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -1648,7 +1663,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -1854,7 +1869,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -1935,7 +1950,7 @@
         <v>1</v>
       </c>
       <c r="AQ6">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2060,7 +2075,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2344,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ8">
         <v>2</v>
@@ -2884,7 +2899,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3090,7 +3105,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q12">
         <v>2.85</v>
@@ -3502,7 +3517,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -3580,7 +3595,7 @@
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ14">
         <v>1.33</v>
@@ -4326,7 +4341,7 @@
         <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q18">
         <v>5.4</v>
@@ -4404,7 +4419,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ18">
         <v>2</v>
@@ -4816,7 +4831,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ20">
         <v>1.33</v>
@@ -5025,7 +5040,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ21">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR21">
         <v>1.81</v>
@@ -5150,7 +5165,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q22">
         <v>2.64</v>
@@ -5356,7 +5371,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q23">
         <v>2.6</v>
@@ -5437,7 +5452,7 @@
         <v>0</v>
       </c>
       <c r="AQ23">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR23">
         <v>1.33</v>
@@ -5562,7 +5577,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5768,7 +5783,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q25">
         <v>1.06</v>
@@ -5974,7 +5989,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q26">
         <v>6.23</v>
@@ -6180,7 +6195,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -7622,7 +7637,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q34">
         <v>1.45</v>
@@ -7828,7 +7843,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q35">
         <v>2.84</v>
@@ -8034,7 +8049,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q36">
         <v>5.63</v>
@@ -8191,6 +8206,830 @@
       </c>
       <c r="BP36">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:68">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>7468112</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45522.39583333334</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>85</v>
+      </c>
+      <c r="H37" t="s">
+        <v>82</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>3</v>
+      </c>
+      <c r="M37">
+        <v>2</v>
+      </c>
+      <c r="N37">
+        <v>5</v>
+      </c>
+      <c r="O37" t="s">
+        <v>114</v>
+      </c>
+      <c r="P37" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q37">
+        <v>2.58</v>
+      </c>
+      <c r="R37">
+        <v>2.21</v>
+      </c>
+      <c r="S37">
+        <v>3.78</v>
+      </c>
+      <c r="T37">
+        <v>1.34</v>
+      </c>
+      <c r="U37">
+        <v>3.1</v>
+      </c>
+      <c r="V37">
+        <v>2.57</v>
+      </c>
+      <c r="W37">
+        <v>1.47</v>
+      </c>
+      <c r="X37">
+        <v>6.15</v>
+      </c>
+      <c r="Y37">
+        <v>1.1</v>
+      </c>
+      <c r="Z37">
+        <v>2.05</v>
+      </c>
+      <c r="AA37">
+        <v>3.3</v>
+      </c>
+      <c r="AB37">
+        <v>3.1</v>
+      </c>
+      <c r="AC37">
+        <v>1.02</v>
+      </c>
+      <c r="AD37">
+        <v>10.5</v>
+      </c>
+      <c r="AE37">
+        <v>1.21</v>
+      </c>
+      <c r="AF37">
+        <v>3.74</v>
+      </c>
+      <c r="AG37">
+        <v>1.72</v>
+      </c>
+      <c r="AH37">
+        <v>2</v>
+      </c>
+      <c r="AI37">
+        <v>1.62</v>
+      </c>
+      <c r="AJ37">
+        <v>2.16</v>
+      </c>
+      <c r="AK37">
+        <v>1.32</v>
+      </c>
+      <c r="AL37">
+        <v>1.27</v>
+      </c>
+      <c r="AM37">
+        <v>1.71</v>
+      </c>
+      <c r="AN37">
+        <v>3</v>
+      </c>
+      <c r="AO37">
+        <v>0</v>
+      </c>
+      <c r="AP37">
+        <v>3</v>
+      </c>
+      <c r="AQ37">
+        <v>0</v>
+      </c>
+      <c r="AR37">
+        <v>1.25</v>
+      </c>
+      <c r="AS37">
+        <v>1.56</v>
+      </c>
+      <c r="AT37">
+        <v>2.81</v>
+      </c>
+      <c r="AU37">
+        <v>5</v>
+      </c>
+      <c r="AV37">
+        <v>3</v>
+      </c>
+      <c r="AW37">
+        <v>10</v>
+      </c>
+      <c r="AX37">
+        <v>6</v>
+      </c>
+      <c r="AY37">
+        <v>15</v>
+      </c>
+      <c r="AZ37">
+        <v>9</v>
+      </c>
+      <c r="BA37">
+        <v>10</v>
+      </c>
+      <c r="BB37">
+        <v>4</v>
+      </c>
+      <c r="BC37">
+        <v>14</v>
+      </c>
+      <c r="BD37">
+        <v>1.91</v>
+      </c>
+      <c r="BE37">
+        <v>8.5</v>
+      </c>
+      <c r="BF37">
+        <v>2.1</v>
+      </c>
+      <c r="BG37">
+        <v>1.12</v>
+      </c>
+      <c r="BH37">
+        <v>5.8</v>
+      </c>
+      <c r="BI37">
+        <v>1.21</v>
+      </c>
+      <c r="BJ37">
+        <v>3.74</v>
+      </c>
+      <c r="BK37">
+        <v>1.39</v>
+      </c>
+      <c r="BL37">
+        <v>2.67</v>
+      </c>
+      <c r="BM37">
+        <v>1.77</v>
+      </c>
+      <c r="BN37">
+        <v>1.95</v>
+      </c>
+      <c r="BO37">
+        <v>2.1</v>
+      </c>
+      <c r="BP37">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:68">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>7468113</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45522.5</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38" t="s">
+        <v>81</v>
+      </c>
+      <c r="H38" t="s">
+        <v>79</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+      <c r="L38">
+        <v>3</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>3</v>
+      </c>
+      <c r="O38" t="s">
+        <v>115</v>
+      </c>
+      <c r="P38" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q38">
+        <v>1.88</v>
+      </c>
+      <c r="R38">
+        <v>2.4</v>
+      </c>
+      <c r="S38">
+        <v>6.5</v>
+      </c>
+      <c r="T38">
+        <v>1.28</v>
+      </c>
+      <c r="U38">
+        <v>3.4</v>
+      </c>
+      <c r="V38">
+        <v>2.35</v>
+      </c>
+      <c r="W38">
+        <v>1.55</v>
+      </c>
+      <c r="X38">
+        <v>5</v>
+      </c>
+      <c r="Y38">
+        <v>1.13</v>
+      </c>
+      <c r="Z38">
+        <v>1.49</v>
+      </c>
+      <c r="AA38">
+        <v>4.11</v>
+      </c>
+      <c r="AB38">
+        <v>5.48</v>
+      </c>
+      <c r="AC38">
+        <v>1.01</v>
+      </c>
+      <c r="AD38">
+        <v>11</v>
+      </c>
+      <c r="AE38">
+        <v>1.18</v>
+      </c>
+      <c r="AF38">
+        <v>4.33</v>
+      </c>
+      <c r="AG38">
+        <v>1.6</v>
+      </c>
+      <c r="AH38">
+        <v>2.1</v>
+      </c>
+      <c r="AI38">
+        <v>1.82</v>
+      </c>
+      <c r="AJ38">
+        <v>1.88</v>
+      </c>
+      <c r="AK38">
+        <v>1.1</v>
+      </c>
+      <c r="AL38">
+        <v>1.18</v>
+      </c>
+      <c r="AM38">
+        <v>2.88</v>
+      </c>
+      <c r="AN38">
+        <v>0.5</v>
+      </c>
+      <c r="AO38">
+        <v>1.5</v>
+      </c>
+      <c r="AP38">
+        <v>1.33</v>
+      </c>
+      <c r="AQ38">
+        <v>1</v>
+      </c>
+      <c r="AR38">
+        <v>1.34</v>
+      </c>
+      <c r="AS38">
+        <v>1</v>
+      </c>
+      <c r="AT38">
+        <v>2.34</v>
+      </c>
+      <c r="AU38">
+        <v>6</v>
+      </c>
+      <c r="AV38">
+        <v>2</v>
+      </c>
+      <c r="AW38">
+        <v>4</v>
+      </c>
+      <c r="AX38">
+        <v>6</v>
+      </c>
+      <c r="AY38">
+        <v>10</v>
+      </c>
+      <c r="AZ38">
+        <v>8</v>
+      </c>
+      <c r="BA38">
+        <v>3</v>
+      </c>
+      <c r="BB38">
+        <v>6</v>
+      </c>
+      <c r="BC38">
+        <v>9</v>
+      </c>
+      <c r="BD38">
+        <v>1.29</v>
+      </c>
+      <c r="BE38">
+        <v>11</v>
+      </c>
+      <c r="BF38">
+        <v>3.9</v>
+      </c>
+      <c r="BG38">
+        <v>1.15</v>
+      </c>
+      <c r="BH38">
+        <v>4.9</v>
+      </c>
+      <c r="BI38">
+        <v>1.27</v>
+      </c>
+      <c r="BJ38">
+        <v>3.28</v>
+      </c>
+      <c r="BK38">
+        <v>1.5</v>
+      </c>
+      <c r="BL38">
+        <v>2.51</v>
+      </c>
+      <c r="BM38">
+        <v>1.95</v>
+      </c>
+      <c r="BN38">
+        <v>1.85</v>
+      </c>
+      <c r="BO38">
+        <v>2.17</v>
+      </c>
+      <c r="BP38">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:68">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>7468119</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45522.5</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39" t="s">
+        <v>72</v>
+      </c>
+      <c r="H39" t="s">
+        <v>84</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>3</v>
+      </c>
+      <c r="N39">
+        <v>3</v>
+      </c>
+      <c r="O39" t="s">
+        <v>88</v>
+      </c>
+      <c r="P39" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q39">
+        <v>4.75</v>
+      </c>
+      <c r="R39">
+        <v>2.5</v>
+      </c>
+      <c r="S39">
+        <v>1.95</v>
+      </c>
+      <c r="T39">
+        <v>1.29</v>
+      </c>
+      <c r="U39">
+        <v>3.5</v>
+      </c>
+      <c r="V39">
+        <v>2.25</v>
+      </c>
+      <c r="W39">
+        <v>1.6</v>
+      </c>
+      <c r="X39">
+        <v>4.75</v>
+      </c>
+      <c r="Y39">
+        <v>1.15</v>
+      </c>
+      <c r="Z39">
+        <v>5.15</v>
+      </c>
+      <c r="AA39">
+        <v>4.18</v>
+      </c>
+      <c r="AB39">
+        <v>1.51</v>
+      </c>
+      <c r="AC39">
+        <v>1.02</v>
+      </c>
+      <c r="AD39">
+        <v>10</v>
+      </c>
+      <c r="AE39">
+        <v>1.14</v>
+      </c>
+      <c r="AF39">
+        <v>4.6</v>
+      </c>
+      <c r="AG39">
+        <v>1.55</v>
+      </c>
+      <c r="AH39">
+        <v>2.3</v>
+      </c>
+      <c r="AI39">
+        <v>1.62</v>
+      </c>
+      <c r="AJ39">
+        <v>2.2</v>
+      </c>
+      <c r="AK39">
+        <v>2.4</v>
+      </c>
+      <c r="AL39">
+        <v>1.2</v>
+      </c>
+      <c r="AM39">
+        <v>1.12</v>
+      </c>
+      <c r="AN39">
+        <v>0</v>
+      </c>
+      <c r="AO39">
+        <v>2</v>
+      </c>
+      <c r="AP39">
+        <v>0</v>
+      </c>
+      <c r="AQ39">
+        <v>2.33</v>
+      </c>
+      <c r="AR39">
+        <v>1.46</v>
+      </c>
+      <c r="AS39">
+        <v>1.25</v>
+      </c>
+      <c r="AT39">
+        <v>2.71</v>
+      </c>
+      <c r="AU39">
+        <v>5</v>
+      </c>
+      <c r="AV39">
+        <v>5</v>
+      </c>
+      <c r="AW39">
+        <v>3</v>
+      </c>
+      <c r="AX39">
+        <v>7</v>
+      </c>
+      <c r="AY39">
+        <v>8</v>
+      </c>
+      <c r="AZ39">
+        <v>12</v>
+      </c>
+      <c r="BA39">
+        <v>8</v>
+      </c>
+      <c r="BB39">
+        <v>10</v>
+      </c>
+      <c r="BC39">
+        <v>18</v>
+      </c>
+      <c r="BD39">
+        <v>3.36</v>
+      </c>
+      <c r="BE39">
+        <v>7.3</v>
+      </c>
+      <c r="BF39">
+        <v>1.49</v>
+      </c>
+      <c r="BG39">
+        <v>1.13</v>
+      </c>
+      <c r="BH39">
+        <v>5.5</v>
+      </c>
+      <c r="BI39">
+        <v>1.23</v>
+      </c>
+      <c r="BJ39">
+        <v>3.56</v>
+      </c>
+      <c r="BK39">
+        <v>1.42</v>
+      </c>
+      <c r="BL39">
+        <v>2.57</v>
+      </c>
+      <c r="BM39">
+        <v>1.8</v>
+      </c>
+      <c r="BN39">
+        <v>2</v>
+      </c>
+      <c r="BO39">
+        <v>2.16</v>
+      </c>
+      <c r="BP39">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:68">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>7468116</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45522.625</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>76</v>
+      </c>
+      <c r="H40" t="s">
+        <v>83</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40" t="s">
+        <v>116</v>
+      </c>
+      <c r="P40" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q40">
+        <v>2.9</v>
+      </c>
+      <c r="R40">
+        <v>2.15</v>
+      </c>
+      <c r="S40">
+        <v>3.2</v>
+      </c>
+      <c r="T40">
+        <v>1.36</v>
+      </c>
+      <c r="U40">
+        <v>3</v>
+      </c>
+      <c r="V40">
+        <v>2.62</v>
+      </c>
+      <c r="W40">
+        <v>1.44</v>
+      </c>
+      <c r="X40">
+        <v>6.5</v>
+      </c>
+      <c r="Y40">
+        <v>1.1</v>
+      </c>
+      <c r="Z40">
+        <v>2.46</v>
+      </c>
+      <c r="AA40">
+        <v>3.14</v>
+      </c>
+      <c r="AB40">
+        <v>2.75</v>
+      </c>
+      <c r="AC40">
+        <v>1.02</v>
+      </c>
+      <c r="AD40">
+        <v>8.6</v>
+      </c>
+      <c r="AE40">
+        <v>1.3</v>
+      </c>
+      <c r="AF40">
+        <v>3.08</v>
+      </c>
+      <c r="AG40">
+        <v>1.86</v>
+      </c>
+      <c r="AH40">
+        <v>1.84</v>
+      </c>
+      <c r="AI40">
+        <v>1.67</v>
+      </c>
+      <c r="AJ40">
+        <v>2.1</v>
+      </c>
+      <c r="AK40">
+        <v>1.44</v>
+      </c>
+      <c r="AL40">
+        <v>1.29</v>
+      </c>
+      <c r="AM40">
+        <v>1.53</v>
+      </c>
+      <c r="AN40">
+        <v>1</v>
+      </c>
+      <c r="AO40">
+        <v>0</v>
+      </c>
+      <c r="AP40">
+        <v>1.67</v>
+      </c>
+      <c r="AQ40">
+        <v>0</v>
+      </c>
+      <c r="AR40">
+        <v>1.19</v>
+      </c>
+      <c r="AS40">
+        <v>1.71</v>
+      </c>
+      <c r="AT40">
+        <v>2.9</v>
+      </c>
+      <c r="AU40">
+        <v>6</v>
+      </c>
+      <c r="AV40">
+        <v>5</v>
+      </c>
+      <c r="AW40">
+        <v>4</v>
+      </c>
+      <c r="AX40">
+        <v>5</v>
+      </c>
+      <c r="AY40">
+        <v>10</v>
+      </c>
+      <c r="AZ40">
+        <v>10</v>
+      </c>
+      <c r="BA40">
+        <v>4</v>
+      </c>
+      <c r="BB40">
+        <v>10</v>
+      </c>
+      <c r="BC40">
+        <v>14</v>
+      </c>
+      <c r="BD40">
+        <v>1.96</v>
+      </c>
+      <c r="BE40">
+        <v>6.55</v>
+      </c>
+      <c r="BF40">
+        <v>2.26</v>
+      </c>
+      <c r="BG40">
+        <v>1.18</v>
+      </c>
+      <c r="BH40">
+        <v>4.5</v>
+      </c>
+      <c r="BI40">
+        <v>1.3</v>
+      </c>
+      <c r="BJ40">
+        <v>3.08</v>
+      </c>
+      <c r="BK40">
+        <v>1.56</v>
+      </c>
+      <c r="BL40">
+        <v>2.35</v>
+      </c>
+      <c r="BM40">
+        <v>1.92</v>
+      </c>
+      <c r="BN40">
+        <v>1.88</v>
+      </c>
+      <c r="BO40">
+        <v>2.41</v>
+      </c>
+      <c r="BP40">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="142">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -367,6 +367,15 @@
     <t>['44']</t>
   </si>
   <si>
+    <t>['14']</t>
+  </si>
+  <si>
+    <t>['20', '79']</t>
+  </si>
+  <si>
+    <t>['47', '80']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -394,9 +403,6 @@
     <t>['39']</t>
   </si>
   <si>
-    <t>['14']</t>
-  </si>
-  <si>
     <t>['10', '18', '23']</t>
   </si>
   <si>
@@ -425,6 +431,15 @@
   </si>
   <si>
     <t>['31', '50', '81']</t>
+  </si>
+  <si>
+    <t>['35', '58']</t>
+  </si>
+  <si>
+    <t>['17', '24']</t>
+  </si>
+  <si>
+    <t>['4', '53', '74']</t>
   </si>
 </sst>
 </file>
@@ -786,7 +801,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP40"/>
+  <dimension ref="A1:BP44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1045,7 +1060,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q2">
         <v>1.53</v>
@@ -1123,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1457,7 +1472,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -1663,7 +1678,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -1741,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
         <v>0</v>
@@ -1869,7 +1884,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2075,7 +2090,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2899,7 +2914,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -2977,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
         <v>3</v>
@@ -3105,7 +3120,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q12">
         <v>2.85</v>
@@ -3183,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3517,7 +3532,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -3804,7 +3819,7 @@
         <v>3</v>
       </c>
       <c r="AQ15">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4010,7 +4025,7 @@
         <v>3</v>
       </c>
       <c r="AQ16">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4341,7 +4356,7 @@
         <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q18">
         <v>5.4</v>
@@ -4625,7 +4640,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ19">
         <v>0</v>
@@ -5165,7 +5180,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="Q22">
         <v>2.64</v>
@@ -5371,7 +5386,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q23">
         <v>2.6</v>
@@ -5577,7 +5592,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5783,7 +5798,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q25">
         <v>1.06</v>
@@ -5864,7 +5879,7 @@
         <v>1</v>
       </c>
       <c r="AQ25">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR25">
         <v>0.93</v>
@@ -5989,7 +6004,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q26">
         <v>6.23</v>
@@ -6067,7 +6082,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ26">
         <v>3</v>
@@ -6195,7 +6210,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6273,7 +6288,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ27">
         <v>1.5</v>
@@ -6685,10 +6700,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ29">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR29">
         <v>1.22</v>
@@ -7306,7 +7321,7 @@
         <v>3</v>
       </c>
       <c r="AQ32">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR32">
         <v>1.64</v>
@@ -7637,7 +7652,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q34">
         <v>1.45</v>
@@ -7843,7 +7858,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q35">
         <v>2.84</v>
@@ -8049,7 +8064,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q36">
         <v>5.63</v>
@@ -8255,7 +8270,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q37">
         <v>2.58</v>
@@ -8667,7 +8682,7 @@
         <v>88</v>
       </c>
       <c r="P39" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q39">
         <v>4.75</v>
@@ -9030,6 +9045,830 @@
       </c>
       <c r="BP40">
         <v>1.53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:68">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>7468126</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45528.39583333334</v>
+      </c>
+      <c r="F41">
+        <v>6</v>
+      </c>
+      <c r="G41" t="s">
+        <v>73</v>
+      </c>
+      <c r="H41" t="s">
+        <v>71</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>2</v>
+      </c>
+      <c r="N41">
+        <v>3</v>
+      </c>
+      <c r="O41" t="s">
+        <v>117</v>
+      </c>
+      <c r="P41" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q41">
+        <v>2.4</v>
+      </c>
+      <c r="R41">
+        <v>2.2</v>
+      </c>
+      <c r="S41">
+        <v>4.33</v>
+      </c>
+      <c r="T41">
+        <v>1.36</v>
+      </c>
+      <c r="U41">
+        <v>2.9</v>
+      </c>
+      <c r="V41">
+        <v>2.62</v>
+      </c>
+      <c r="W41">
+        <v>1.42</v>
+      </c>
+      <c r="X41">
+        <v>6.85</v>
+      </c>
+      <c r="Y41">
+        <v>1.08</v>
+      </c>
+      <c r="Z41">
+        <v>2.2</v>
+      </c>
+      <c r="AA41">
+        <v>3.2</v>
+      </c>
+      <c r="AB41">
+        <v>3.15</v>
+      </c>
+      <c r="AC41">
+        <v>1.01</v>
+      </c>
+      <c r="AD41">
+        <v>9.4</v>
+      </c>
+      <c r="AE41">
+        <v>1.26</v>
+      </c>
+      <c r="AF41">
+        <v>3.34</v>
+      </c>
+      <c r="AG41">
+        <v>1.88</v>
+      </c>
+      <c r="AH41">
+        <v>1.87</v>
+      </c>
+      <c r="AI41">
+        <v>1.7</v>
+      </c>
+      <c r="AJ41">
+        <v>2.03</v>
+      </c>
+      <c r="AK41">
+        <v>1.25</v>
+      </c>
+      <c r="AL41">
+        <v>1.3</v>
+      </c>
+      <c r="AM41">
+        <v>1.88</v>
+      </c>
+      <c r="AN41">
+        <v>1.5</v>
+      </c>
+      <c r="AO41">
+        <v>1.5</v>
+      </c>
+      <c r="AP41">
+        <v>1</v>
+      </c>
+      <c r="AQ41">
+        <v>2</v>
+      </c>
+      <c r="AR41">
+        <v>1.49</v>
+      </c>
+      <c r="AS41">
+        <v>1.21</v>
+      </c>
+      <c r="AT41">
+        <v>2.7</v>
+      </c>
+      <c r="AU41">
+        <v>6</v>
+      </c>
+      <c r="AV41">
+        <v>4</v>
+      </c>
+      <c r="AW41">
+        <v>11</v>
+      </c>
+      <c r="AX41">
+        <v>4</v>
+      </c>
+      <c r="AY41">
+        <v>17</v>
+      </c>
+      <c r="AZ41">
+        <v>8</v>
+      </c>
+      <c r="BA41">
+        <v>5</v>
+      </c>
+      <c r="BB41">
+        <v>3</v>
+      </c>
+      <c r="BC41">
+        <v>8</v>
+      </c>
+      <c r="BD41">
+        <v>1.75</v>
+      </c>
+      <c r="BE41">
+        <v>8</v>
+      </c>
+      <c r="BF41">
+        <v>2.42</v>
+      </c>
+      <c r="BG41">
+        <v>1.18</v>
+      </c>
+      <c r="BH41">
+        <v>4.6</v>
+      </c>
+      <c r="BI41">
+        <v>1.33</v>
+      </c>
+      <c r="BJ41">
+        <v>2.91</v>
+      </c>
+      <c r="BK41">
+        <v>1.59</v>
+      </c>
+      <c r="BL41">
+        <v>2.16</v>
+      </c>
+      <c r="BM41">
+        <v>2.05</v>
+      </c>
+      <c r="BN41">
+        <v>1.7</v>
+      </c>
+      <c r="BO41">
+        <v>2.57</v>
+      </c>
+      <c r="BP41">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:68">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7468127</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45528.5</v>
+      </c>
+      <c r="F42">
+        <v>6</v>
+      </c>
+      <c r="G42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H42" t="s">
+        <v>76</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+      <c r="K42">
+        <v>3</v>
+      </c>
+      <c r="L42">
+        <v>2</v>
+      </c>
+      <c r="M42">
+        <v>2</v>
+      </c>
+      <c r="N42">
+        <v>4</v>
+      </c>
+      <c r="O42" t="s">
+        <v>118</v>
+      </c>
+      <c r="P42" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q42">
+        <v>1.69</v>
+      </c>
+      <c r="R42">
+        <v>2.63</v>
+      </c>
+      <c r="S42">
+        <v>7.5</v>
+      </c>
+      <c r="T42">
+        <v>1.27</v>
+      </c>
+      <c r="U42">
+        <v>3.54</v>
+      </c>
+      <c r="V42">
+        <v>2.27</v>
+      </c>
+      <c r="W42">
+        <v>1.59</v>
+      </c>
+      <c r="X42">
+        <v>5.1</v>
+      </c>
+      <c r="Y42">
+        <v>1.15</v>
+      </c>
+      <c r="Z42">
+        <v>1.27</v>
+      </c>
+      <c r="AA42">
+        <v>5.2</v>
+      </c>
+      <c r="AB42">
+        <v>8</v>
+      </c>
+      <c r="AC42">
+        <v>1.02</v>
+      </c>
+      <c r="AD42">
+        <v>20.5</v>
+      </c>
+      <c r="AE42">
+        <v>1.14</v>
+      </c>
+      <c r="AF42">
+        <v>4.65</v>
+      </c>
+      <c r="AG42">
+        <v>1.56</v>
+      </c>
+      <c r="AH42">
+        <v>2.29</v>
+      </c>
+      <c r="AI42">
+        <v>2</v>
+      </c>
+      <c r="AJ42">
+        <v>1.72</v>
+      </c>
+      <c r="AK42">
+        <v>1.07</v>
+      </c>
+      <c r="AL42">
+        <v>1.14</v>
+      </c>
+      <c r="AM42">
+        <v>3.7</v>
+      </c>
+      <c r="AN42">
+        <v>3</v>
+      </c>
+      <c r="AO42">
+        <v>1.5</v>
+      </c>
+      <c r="AP42">
+        <v>2.33</v>
+      </c>
+      <c r="AQ42">
+        <v>1.33</v>
+      </c>
+      <c r="AR42">
+        <v>2.07</v>
+      </c>
+      <c r="AS42">
+        <v>1.2</v>
+      </c>
+      <c r="AT42">
+        <v>3.27</v>
+      </c>
+      <c r="AU42">
+        <v>8</v>
+      </c>
+      <c r="AV42">
+        <v>5</v>
+      </c>
+      <c r="AW42">
+        <v>5</v>
+      </c>
+      <c r="AX42">
+        <v>2</v>
+      </c>
+      <c r="AY42">
+        <v>13</v>
+      </c>
+      <c r="AZ42">
+        <v>7</v>
+      </c>
+      <c r="BA42">
+        <v>9</v>
+      </c>
+      <c r="BB42">
+        <v>3</v>
+      </c>
+      <c r="BC42">
+        <v>12</v>
+      </c>
+      <c r="BD42">
+        <v>1.19</v>
+      </c>
+      <c r="BE42">
+        <v>11</v>
+      </c>
+      <c r="BF42">
+        <v>5.67</v>
+      </c>
+      <c r="BG42">
+        <v>1.18</v>
+      </c>
+      <c r="BH42">
+        <v>4.5</v>
+      </c>
+      <c r="BI42">
+        <v>1.28</v>
+      </c>
+      <c r="BJ42">
+        <v>3.18</v>
+      </c>
+      <c r="BK42">
+        <v>1.51</v>
+      </c>
+      <c r="BL42">
+        <v>2.32</v>
+      </c>
+      <c r="BM42">
+        <v>1.95</v>
+      </c>
+      <c r="BN42">
+        <v>1.77</v>
+      </c>
+      <c r="BO42">
+        <v>2.38</v>
+      </c>
+      <c r="BP42">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:68">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>7468120</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45528.5</v>
+      </c>
+      <c r="F43">
+        <v>6</v>
+      </c>
+      <c r="G43" t="s">
+        <v>78</v>
+      </c>
+      <c r="H43" t="s">
+        <v>75</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>3</v>
+      </c>
+      <c r="N43">
+        <v>4</v>
+      </c>
+      <c r="O43" t="s">
+        <v>107</v>
+      </c>
+      <c r="P43" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q43">
+        <v>2.61</v>
+      </c>
+      <c r="R43">
+        <v>2.06</v>
+      </c>
+      <c r="S43">
+        <v>4.25</v>
+      </c>
+      <c r="T43">
+        <v>1.42</v>
+      </c>
+      <c r="U43">
+        <v>2.74</v>
+      </c>
+      <c r="V43">
+        <v>2.82</v>
+      </c>
+      <c r="W43">
+        <v>1.4</v>
+      </c>
+      <c r="X43">
+        <v>7.2</v>
+      </c>
+      <c r="Y43">
+        <v>1.08</v>
+      </c>
+      <c r="Z43">
+        <v>2.01</v>
+      </c>
+      <c r="AA43">
+        <v>3.45</v>
+      </c>
+      <c r="AB43">
+        <v>3.2</v>
+      </c>
+      <c r="AC43">
+        <v>1.02</v>
+      </c>
+      <c r="AD43">
+        <v>8.5</v>
+      </c>
+      <c r="AE43">
+        <v>1.28</v>
+      </c>
+      <c r="AF43">
+        <v>3.2</v>
+      </c>
+      <c r="AG43">
+        <v>1.91</v>
+      </c>
+      <c r="AH43">
+        <v>1.91</v>
+      </c>
+      <c r="AI43">
+        <v>1.76</v>
+      </c>
+      <c r="AJ43">
+        <v>1.95</v>
+      </c>
+      <c r="AK43">
+        <v>1.27</v>
+      </c>
+      <c r="AL43">
+        <v>1.3</v>
+      </c>
+      <c r="AM43">
+        <v>1.75</v>
+      </c>
+      <c r="AN43">
+        <v>1.5</v>
+      </c>
+      <c r="AO43">
+        <v>1.5</v>
+      </c>
+      <c r="AP43">
+        <v>1</v>
+      </c>
+      <c r="AQ43">
+        <v>2</v>
+      </c>
+      <c r="AR43">
+        <v>1.41</v>
+      </c>
+      <c r="AS43">
+        <v>1.7</v>
+      </c>
+      <c r="AT43">
+        <v>3.11</v>
+      </c>
+      <c r="AU43">
+        <v>3</v>
+      </c>
+      <c r="AV43">
+        <v>6</v>
+      </c>
+      <c r="AW43">
+        <v>6</v>
+      </c>
+      <c r="AX43">
+        <v>4</v>
+      </c>
+      <c r="AY43">
+        <v>9</v>
+      </c>
+      <c r="AZ43">
+        <v>10</v>
+      </c>
+      <c r="BA43">
+        <v>7</v>
+      </c>
+      <c r="BB43">
+        <v>4</v>
+      </c>
+      <c r="BC43">
+        <v>11</v>
+      </c>
+      <c r="BD43">
+        <v>1.69</v>
+      </c>
+      <c r="BE43">
+        <v>8.5</v>
+      </c>
+      <c r="BF43">
+        <v>2.62</v>
+      </c>
+      <c r="BG43">
+        <v>1.19</v>
+      </c>
+      <c r="BH43">
+        <v>4.4</v>
+      </c>
+      <c r="BI43">
+        <v>1.31</v>
+      </c>
+      <c r="BJ43">
+        <v>3.04</v>
+      </c>
+      <c r="BK43">
+        <v>1.7</v>
+      </c>
+      <c r="BL43">
+        <v>2.05</v>
+      </c>
+      <c r="BM43">
+        <v>1.94</v>
+      </c>
+      <c r="BN43">
+        <v>1.77</v>
+      </c>
+      <c r="BO43">
+        <v>2.48</v>
+      </c>
+      <c r="BP43">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:68">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>7468122</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45528.625</v>
+      </c>
+      <c r="F44">
+        <v>6</v>
+      </c>
+      <c r="G44" t="s">
+        <v>79</v>
+      </c>
+      <c r="H44" t="s">
+        <v>77</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>2</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>3</v>
+      </c>
+      <c r="O44" t="s">
+        <v>119</v>
+      </c>
+      <c r="P44" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q44">
+        <v>4.03</v>
+      </c>
+      <c r="R44">
+        <v>2.11</v>
+      </c>
+      <c r="S44">
+        <v>2.94</v>
+      </c>
+      <c r="T44">
+        <v>1.45</v>
+      </c>
+      <c r="U44">
+        <v>2.72</v>
+      </c>
+      <c r="V44">
+        <v>3.28</v>
+      </c>
+      <c r="W44">
+        <v>1.33</v>
+      </c>
+      <c r="X44">
+        <v>8.4</v>
+      </c>
+      <c r="Y44">
+        <v>1.05</v>
+      </c>
+      <c r="Z44">
+        <v>2.98</v>
+      </c>
+      <c r="AA44">
+        <v>3.25</v>
+      </c>
+      <c r="AB44">
+        <v>2.2</v>
+      </c>
+      <c r="AC44">
+        <v>1.08</v>
+      </c>
+      <c r="AD44">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE44">
+        <v>1.39</v>
+      </c>
+      <c r="AF44">
+        <v>3.02</v>
+      </c>
+      <c r="AG44">
+        <v>1.97</v>
+      </c>
+      <c r="AH44">
+        <v>1.83</v>
+      </c>
+      <c r="AI44">
+        <v>1.89</v>
+      </c>
+      <c r="AJ44">
+        <v>1.81</v>
+      </c>
+      <c r="AK44">
+        <v>1.6</v>
+      </c>
+      <c r="AL44">
+        <v>1.38</v>
+      </c>
+      <c r="AM44">
+        <v>1.35</v>
+      </c>
+      <c r="AN44">
+        <v>0</v>
+      </c>
+      <c r="AO44">
+        <v>0</v>
+      </c>
+      <c r="AP44">
+        <v>1</v>
+      </c>
+      <c r="AQ44">
+        <v>0</v>
+      </c>
+      <c r="AR44">
+        <v>1.16</v>
+      </c>
+      <c r="AS44">
+        <v>0.6</v>
+      </c>
+      <c r="AT44">
+        <v>1.76</v>
+      </c>
+      <c r="AU44">
+        <v>6</v>
+      </c>
+      <c r="AV44">
+        <v>6</v>
+      </c>
+      <c r="AW44">
+        <v>2</v>
+      </c>
+      <c r="AX44">
+        <v>4</v>
+      </c>
+      <c r="AY44">
+        <v>8</v>
+      </c>
+      <c r="AZ44">
+        <v>10</v>
+      </c>
+      <c r="BA44">
+        <v>5</v>
+      </c>
+      <c r="BB44">
+        <v>8</v>
+      </c>
+      <c r="BC44">
+        <v>13</v>
+      </c>
+      <c r="BD44">
+        <v>2.43</v>
+      </c>
+      <c r="BE44">
+        <v>8.5</v>
+      </c>
+      <c r="BF44">
+        <v>1.75</v>
+      </c>
+      <c r="BG44">
+        <v>1.17</v>
+      </c>
+      <c r="BH44">
+        <v>4.6</v>
+      </c>
+      <c r="BI44">
+        <v>1.3</v>
+      </c>
+      <c r="BJ44">
+        <v>3.08</v>
+      </c>
+      <c r="BK44">
+        <v>1.56</v>
+      </c>
+      <c r="BL44">
+        <v>2.35</v>
+      </c>
+      <c r="BM44">
+        <v>1.9</v>
+      </c>
+      <c r="BN44">
+        <v>1.9</v>
+      </c>
+      <c r="BO44">
+        <v>2.4</v>
+      </c>
+      <c r="BP44">
+        <v>1.54</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="144">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -374,6 +374,12 @@
   </si>
   <si>
     <t>['47', '80']</t>
+  </si>
+  <si>
+    <t>['48', '54']</t>
+  </si>
+  <si>
+    <t>['58', '63', '90+2']</t>
   </si>
   <si>
     <t>['25']</t>
@@ -801,7 +807,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP44"/>
+  <dimension ref="A1:BP46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1060,7 +1066,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q2">
         <v>1.53</v>
@@ -1472,7 +1478,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -1678,7 +1684,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -1884,7 +1890,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -1962,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ6">
         <v>2.33</v>
@@ -2090,7 +2096,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2171,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="AQ7">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2786,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ10">
         <v>1.33</v>
@@ -2914,7 +2920,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3120,7 +3126,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q12">
         <v>2.85</v>
@@ -3532,7 +3538,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4356,7 +4362,7 @@
         <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q18">
         <v>5.4</v>
@@ -5386,7 +5392,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q23">
         <v>2.6</v>
@@ -5592,7 +5598,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5798,7 +5804,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q25">
         <v>1.06</v>
@@ -5876,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25">
         <v>2</v>
@@ -6004,7 +6010,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q26">
         <v>6.23</v>
@@ -6210,7 +6216,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6291,7 +6297,7 @@
         <v>1</v>
       </c>
       <c r="AQ27">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>1.06</v>
@@ -7652,7 +7658,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q34">
         <v>1.45</v>
@@ -7858,7 +7864,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q35">
         <v>2.84</v>
@@ -8064,7 +8070,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q36">
         <v>5.63</v>
@@ -8270,7 +8276,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q37">
         <v>2.58</v>
@@ -8682,7 +8688,7 @@
         <v>88</v>
       </c>
       <c r="P39" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q39">
         <v>4.75</v>
@@ -9094,7 +9100,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9205,13 +9211,13 @@
         <v>8</v>
       </c>
       <c r="BA41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB41">
         <v>3</v>
       </c>
       <c r="BC41">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD41">
         <v>1.75</v>
@@ -9300,7 +9306,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q42">
         <v>1.69</v>
@@ -9506,7 +9512,7 @@
         <v>107</v>
       </c>
       <c r="P43" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q43">
         <v>2.61</v>
@@ -9869,6 +9875,418 @@
       </c>
       <c r="BP44">
         <v>1.54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:68">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7468124</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45529.39583333334</v>
+      </c>
+      <c r="F45">
+        <v>6</v>
+      </c>
+      <c r="G45" t="s">
+        <v>83</v>
+      </c>
+      <c r="H45" t="s">
+        <v>81</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>2</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>2</v>
+      </c>
+      <c r="O45" t="s">
+        <v>120</v>
+      </c>
+      <c r="P45" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q45">
+        <v>2.55</v>
+      </c>
+      <c r="R45">
+        <v>2.3</v>
+      </c>
+      <c r="S45">
+        <v>3.8</v>
+      </c>
+      <c r="T45">
+        <v>1.28</v>
+      </c>
+      <c r="U45">
+        <v>3.35</v>
+      </c>
+      <c r="V45">
+        <v>2.55</v>
+      </c>
+      <c r="W45">
+        <v>1.45</v>
+      </c>
+      <c r="X45">
+        <v>5.5</v>
+      </c>
+      <c r="Y45">
+        <v>1.11</v>
+      </c>
+      <c r="Z45">
+        <v>2</v>
+      </c>
+      <c r="AA45">
+        <v>3.3</v>
+      </c>
+      <c r="AB45">
+        <v>3.2</v>
+      </c>
+      <c r="AC45">
+        <v>1.02</v>
+      </c>
+      <c r="AD45">
+        <v>10</v>
+      </c>
+      <c r="AE45">
+        <v>1.22</v>
+      </c>
+      <c r="AF45">
+        <v>3.8</v>
+      </c>
+      <c r="AG45">
+        <v>1.7</v>
+      </c>
+      <c r="AH45">
+        <v>1.95</v>
+      </c>
+      <c r="AI45">
+        <v>1.6</v>
+      </c>
+      <c r="AJ45">
+        <v>2.23</v>
+      </c>
+      <c r="AK45">
+        <v>1.26</v>
+      </c>
+      <c r="AL45">
+        <v>1.26</v>
+      </c>
+      <c r="AM45">
+        <v>1.84</v>
+      </c>
+      <c r="AN45">
+        <v>3</v>
+      </c>
+      <c r="AO45">
+        <v>1.5</v>
+      </c>
+      <c r="AP45">
+        <v>3</v>
+      </c>
+      <c r="AQ45">
+        <v>1</v>
+      </c>
+      <c r="AR45">
+        <v>1.87</v>
+      </c>
+      <c r="AS45">
+        <v>1.68</v>
+      </c>
+      <c r="AT45">
+        <v>3.55</v>
+      </c>
+      <c r="AU45">
+        <v>8</v>
+      </c>
+      <c r="AV45">
+        <v>3</v>
+      </c>
+      <c r="AW45">
+        <v>3</v>
+      </c>
+      <c r="AX45">
+        <v>6</v>
+      </c>
+      <c r="AY45">
+        <v>11</v>
+      </c>
+      <c r="AZ45">
+        <v>9</v>
+      </c>
+      <c r="BA45">
+        <v>9</v>
+      </c>
+      <c r="BB45">
+        <v>10</v>
+      </c>
+      <c r="BC45">
+        <v>19</v>
+      </c>
+      <c r="BD45">
+        <v>1.59</v>
+      </c>
+      <c r="BE45">
+        <v>8.5</v>
+      </c>
+      <c r="BF45">
+        <v>2.78</v>
+      </c>
+      <c r="BG45">
+        <v>1.17</v>
+      </c>
+      <c r="BH45">
+        <v>4.7</v>
+      </c>
+      <c r="BI45">
+        <v>1.29</v>
+      </c>
+      <c r="BJ45">
+        <v>3.14</v>
+      </c>
+      <c r="BK45">
+        <v>1.56</v>
+      </c>
+      <c r="BL45">
+        <v>2.36</v>
+      </c>
+      <c r="BM45">
+        <v>1.85</v>
+      </c>
+      <c r="BN45">
+        <v>1.95</v>
+      </c>
+      <c r="BO45">
+        <v>2.41</v>
+      </c>
+      <c r="BP45">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:68">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7468125</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45529.5</v>
+      </c>
+      <c r="F46">
+        <v>6</v>
+      </c>
+      <c r="G46" t="s">
+        <v>74</v>
+      </c>
+      <c r="H46" t="s">
+        <v>72</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>3</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>3</v>
+      </c>
+      <c r="O46" t="s">
+        <v>121</v>
+      </c>
+      <c r="P46" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q46">
+        <v>2.45</v>
+      </c>
+      <c r="R46">
+        <v>2.2</v>
+      </c>
+      <c r="S46">
+        <v>3.8</v>
+      </c>
+      <c r="T46">
+        <v>1.36</v>
+      </c>
+      <c r="U46">
+        <v>3</v>
+      </c>
+      <c r="V46">
+        <v>2.75</v>
+      </c>
+      <c r="W46">
+        <v>1.4</v>
+      </c>
+      <c r="X46">
+        <v>7</v>
+      </c>
+      <c r="Y46">
+        <v>1.1</v>
+      </c>
+      <c r="Z46">
+        <v>2.1</v>
+      </c>
+      <c r="AA46">
+        <v>3.4</v>
+      </c>
+      <c r="AB46">
+        <v>3.4</v>
+      </c>
+      <c r="AC46">
+        <v>1.05</v>
+      </c>
+      <c r="AD46">
+        <v>8</v>
+      </c>
+      <c r="AE46">
+        <v>1.25</v>
+      </c>
+      <c r="AF46">
+        <v>3.5</v>
+      </c>
+      <c r="AG46">
+        <v>1.8</v>
+      </c>
+      <c r="AH46">
+        <v>1.9</v>
+      </c>
+      <c r="AI46">
+        <v>1.7</v>
+      </c>
+      <c r="AJ46">
+        <v>2.05</v>
+      </c>
+      <c r="AK46">
+        <v>1.25</v>
+      </c>
+      <c r="AL46">
+        <v>1.3</v>
+      </c>
+      <c r="AM46">
+        <v>1.67</v>
+      </c>
+      <c r="AN46">
+        <v>1</v>
+      </c>
+      <c r="AO46">
+        <v>0</v>
+      </c>
+      <c r="AP46">
+        <v>1.5</v>
+      </c>
+      <c r="AQ46">
+        <v>0</v>
+      </c>
+      <c r="AR46">
+        <v>0.97</v>
+      </c>
+      <c r="AS46">
+        <v>0.86</v>
+      </c>
+      <c r="AT46">
+        <v>1.83</v>
+      </c>
+      <c r="AU46">
+        <v>6</v>
+      </c>
+      <c r="AV46">
+        <v>4</v>
+      </c>
+      <c r="AW46">
+        <v>3</v>
+      </c>
+      <c r="AX46">
+        <v>4</v>
+      </c>
+      <c r="AY46">
+        <v>9</v>
+      </c>
+      <c r="AZ46">
+        <v>8</v>
+      </c>
+      <c r="BA46">
+        <v>3</v>
+      </c>
+      <c r="BB46">
+        <v>6</v>
+      </c>
+      <c r="BC46">
+        <v>9</v>
+      </c>
+      <c r="BD46">
+        <v>1.75</v>
+      </c>
+      <c r="BE46">
+        <v>8.5</v>
+      </c>
+      <c r="BF46">
+        <v>2.43</v>
+      </c>
+      <c r="BG46">
+        <v>1.16</v>
+      </c>
+      <c r="BH46">
+        <v>4.8</v>
+      </c>
+      <c r="BI46">
+        <v>1.27</v>
+      </c>
+      <c r="BJ46">
+        <v>3.28</v>
+      </c>
+      <c r="BK46">
+        <v>1.49</v>
+      </c>
+      <c r="BL46">
+        <v>2.38</v>
+      </c>
+      <c r="BM46">
+        <v>1.9</v>
+      </c>
+      <c r="BN46">
+        <v>1.9</v>
+      </c>
+      <c r="BO46">
+        <v>2.34</v>
+      </c>
+      <c r="BP46">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="144">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -807,7 +807,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP46"/>
+  <dimension ref="A1:BP47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1765,7 +1765,7 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -7942,7 +7942,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AQ35">
         <v>1.33</v>
@@ -8975,7 +8975,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ40">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR40">
         <v>1.19</v>
@@ -10286,6 +10286,212 @@
         <v>2.34</v>
       </c>
       <c r="BP46">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:68">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7468102</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45532.54166666666</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+      <c r="G47" t="s">
+        <v>75</v>
+      </c>
+      <c r="H47" t="s">
+        <v>83</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47" t="s">
+        <v>88</v>
+      </c>
+      <c r="P47" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q47">
+        <v>3.75</v>
+      </c>
+      <c r="R47">
+        <v>2.25</v>
+      </c>
+      <c r="S47">
+        <v>2.75</v>
+      </c>
+      <c r="T47">
+        <v>1.33</v>
+      </c>
+      <c r="U47">
+        <v>3.25</v>
+      </c>
+      <c r="V47">
+        <v>2.63</v>
+      </c>
+      <c r="W47">
+        <v>1.44</v>
+      </c>
+      <c r="X47">
+        <v>6.5</v>
+      </c>
+      <c r="Y47">
+        <v>1.11</v>
+      </c>
+      <c r="Z47">
+        <v>3.07</v>
+      </c>
+      <c r="AA47">
+        <v>3.26</v>
+      </c>
+      <c r="AB47">
+        <v>2.37</v>
+      </c>
+      <c r="AC47">
+        <v>1.02</v>
+      </c>
+      <c r="AD47">
+        <v>10</v>
+      </c>
+      <c r="AE47">
+        <v>1.19</v>
+      </c>
+      <c r="AF47">
+        <v>3.92</v>
+      </c>
+      <c r="AG47">
+        <v>1.85</v>
+      </c>
+      <c r="AH47">
+        <v>1.95</v>
+      </c>
+      <c r="AI47">
+        <v>1.62</v>
+      </c>
+      <c r="AJ47">
+        <v>2.2</v>
+      </c>
+      <c r="AK47">
+        <v>1.76</v>
+      </c>
+      <c r="AL47">
+        <v>1.26</v>
+      </c>
+      <c r="AM47">
+        <v>1.3</v>
+      </c>
+      <c r="AN47">
+        <v>0</v>
+      </c>
+      <c r="AO47">
+        <v>0</v>
+      </c>
+      <c r="AP47">
+        <v>0.33</v>
+      </c>
+      <c r="AQ47">
+        <v>0.33</v>
+      </c>
+      <c r="AR47">
+        <v>1.77</v>
+      </c>
+      <c r="AS47">
+        <v>1.63</v>
+      </c>
+      <c r="AT47">
+        <v>3.4</v>
+      </c>
+      <c r="AU47">
+        <v>3</v>
+      </c>
+      <c r="AV47">
+        <v>2</v>
+      </c>
+      <c r="AW47">
+        <v>12</v>
+      </c>
+      <c r="AX47">
+        <v>2</v>
+      </c>
+      <c r="AY47">
+        <v>15</v>
+      </c>
+      <c r="AZ47">
+        <v>4</v>
+      </c>
+      <c r="BA47">
+        <v>12</v>
+      </c>
+      <c r="BB47">
+        <v>2</v>
+      </c>
+      <c r="BC47">
+        <v>14</v>
+      </c>
+      <c r="BD47">
+        <v>2.28</v>
+      </c>
+      <c r="BE47">
+        <v>8.5</v>
+      </c>
+      <c r="BF47">
+        <v>1.82</v>
+      </c>
+      <c r="BG47">
+        <v>0</v>
+      </c>
+      <c r="BH47">
+        <v>0</v>
+      </c>
+      <c r="BI47">
+        <v>1.27</v>
+      </c>
+      <c r="BJ47">
+        <v>3.28</v>
+      </c>
+      <c r="BK47">
+        <v>1.49</v>
+      </c>
+      <c r="BL47">
+        <v>2.38</v>
+      </c>
+      <c r="BM47">
+        <v>1.88</v>
+      </c>
+      <c r="BN47">
+        <v>1.92</v>
+      </c>
+      <c r="BO47">
+        <v>2.34</v>
+      </c>
+      <c r="BP47">
         <v>1.5</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="145">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -446,6 +446,9 @@
   </si>
   <si>
     <t>['4', '53', '74']</t>
+  </si>
+  <si>
+    <t>['8', '45']</t>
   </si>
 </sst>
 </file>
@@ -807,7 +810,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP47"/>
+  <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1556,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AQ4">
         <v>1.33</v>
@@ -2380,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ8">
         <v>2</v>
@@ -2586,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AQ9">
         <v>0</v>
@@ -2795,7 +2798,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ10">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR10">
         <v>0.98</v>
@@ -4031,7 +4034,7 @@
         <v>3</v>
       </c>
       <c r="AQ16">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4852,10 +4855,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ20">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR20">
         <v>1</v>
@@ -5470,7 +5473,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AQ23">
         <v>1</v>
@@ -5676,7 +5679,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AQ24">
         <v>0</v>
@@ -5885,7 +5888,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ25">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR25">
         <v>0.93</v>
@@ -7530,7 +7533,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AQ33">
         <v>0</v>
@@ -7945,7 +7948,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ35">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR35">
         <v>1.93</v>
@@ -8766,7 +8769,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AQ39">
         <v>2.33</v>
@@ -8972,7 +8975,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ40">
         <v>0.33</v>
@@ -9181,7 +9184,7 @@
         <v>1</v>
       </c>
       <c r="AQ41">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR41">
         <v>1.49</v>
@@ -10492,6 +10495,624 @@
         <v>2.34</v>
       </c>
       <c r="BP47">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:68">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7468135</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45535.39583333334</v>
+      </c>
+      <c r="F48">
+        <v>7</v>
+      </c>
+      <c r="G48" t="s">
+        <v>72</v>
+      </c>
+      <c r="H48" t="s">
+        <v>73</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48" t="s">
+        <v>88</v>
+      </c>
+      <c r="P48" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q48">
+        <v>3.38</v>
+      </c>
+      <c r="R48">
+        <v>2.38</v>
+      </c>
+      <c r="S48">
+        <v>2.91</v>
+      </c>
+      <c r="T48">
+        <v>1.3</v>
+      </c>
+      <c r="U48">
+        <v>3.2</v>
+      </c>
+      <c r="V48">
+        <v>2.51</v>
+      </c>
+      <c r="W48">
+        <v>1.52</v>
+      </c>
+      <c r="X48">
+        <v>5.5</v>
+      </c>
+      <c r="Y48">
+        <v>1.11</v>
+      </c>
+      <c r="Z48">
+        <v>2.8</v>
+      </c>
+      <c r="AA48">
+        <v>3.5</v>
+      </c>
+      <c r="AB48">
+        <v>2.3</v>
+      </c>
+      <c r="AC48">
+        <v>1.01</v>
+      </c>
+      <c r="AD48">
+        <v>11</v>
+      </c>
+      <c r="AE48">
+        <v>1.2</v>
+      </c>
+      <c r="AF48">
+        <v>4</v>
+      </c>
+      <c r="AG48">
+        <v>1.68</v>
+      </c>
+      <c r="AH48">
+        <v>2.1</v>
+      </c>
+      <c r="AI48">
+        <v>1.57</v>
+      </c>
+      <c r="AJ48">
+        <v>2.25</v>
+      </c>
+      <c r="AK48">
+        <v>1.6</v>
+      </c>
+      <c r="AL48">
+        <v>1.27</v>
+      </c>
+      <c r="AM48">
+        <v>1.39</v>
+      </c>
+      <c r="AN48">
+        <v>0</v>
+      </c>
+      <c r="AO48">
+        <v>1.33</v>
+      </c>
+      <c r="AP48">
+        <v>0.25</v>
+      </c>
+      <c r="AQ48">
+        <v>1.25</v>
+      </c>
+      <c r="AR48">
+        <v>1.34</v>
+      </c>
+      <c r="AS48">
+        <v>1.42</v>
+      </c>
+      <c r="AT48">
+        <v>2.76</v>
+      </c>
+      <c r="AU48">
+        <v>6</v>
+      </c>
+      <c r="AV48">
+        <v>2</v>
+      </c>
+      <c r="AW48">
+        <v>5</v>
+      </c>
+      <c r="AX48">
+        <v>12</v>
+      </c>
+      <c r="AY48">
+        <v>11</v>
+      </c>
+      <c r="AZ48">
+        <v>14</v>
+      </c>
+      <c r="BA48">
+        <v>6</v>
+      </c>
+      <c r="BB48">
+        <v>10</v>
+      </c>
+      <c r="BC48">
+        <v>16</v>
+      </c>
+      <c r="BD48">
+        <v>1.95</v>
+      </c>
+      <c r="BE48">
+        <v>8.5</v>
+      </c>
+      <c r="BF48">
+        <v>2.1</v>
+      </c>
+      <c r="BG48">
+        <v>0</v>
+      </c>
+      <c r="BH48">
+        <v>0</v>
+      </c>
+      <c r="BI48">
+        <v>1.22</v>
+      </c>
+      <c r="BJ48">
+        <v>3.65</v>
+      </c>
+      <c r="BK48">
+        <v>1.41</v>
+      </c>
+      <c r="BL48">
+        <v>2.6</v>
+      </c>
+      <c r="BM48">
+        <v>1.8</v>
+      </c>
+      <c r="BN48">
+        <v>1.91</v>
+      </c>
+      <c r="BO48">
+        <v>2.17</v>
+      </c>
+      <c r="BP48">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:68">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7468132</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45535.5</v>
+      </c>
+      <c r="F49">
+        <v>7</v>
+      </c>
+      <c r="G49" t="s">
+        <v>76</v>
+      </c>
+      <c r="H49" t="s">
+        <v>71</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49" t="s">
+        <v>88</v>
+      </c>
+      <c r="P49" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q49">
+        <v>2.63</v>
+      </c>
+      <c r="R49">
+        <v>2.06</v>
+      </c>
+      <c r="S49">
+        <v>4.2</v>
+      </c>
+      <c r="T49">
+        <v>1.43</v>
+      </c>
+      <c r="U49">
+        <v>2.7</v>
+      </c>
+      <c r="V49">
+        <v>2.99</v>
+      </c>
+      <c r="W49">
+        <v>1.36</v>
+      </c>
+      <c r="X49">
+        <v>7.8</v>
+      </c>
+      <c r="Y49">
+        <v>1.06</v>
+      </c>
+      <c r="Z49">
+        <v>2.08</v>
+      </c>
+      <c r="AA49">
+        <v>3.4</v>
+      </c>
+      <c r="AB49">
+        <v>3.52</v>
+      </c>
+      <c r="AC49">
+        <v>1.03</v>
+      </c>
+      <c r="AD49">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE49">
+        <v>1.32</v>
+      </c>
+      <c r="AF49">
+        <v>2.98</v>
+      </c>
+      <c r="AG49">
+        <v>2.02</v>
+      </c>
+      <c r="AH49">
+        <v>1.71</v>
+      </c>
+      <c r="AI49">
+        <v>1.84</v>
+      </c>
+      <c r="AJ49">
+        <v>1.86</v>
+      </c>
+      <c r="AK49">
+        <v>1.28</v>
+      </c>
+      <c r="AL49">
+        <v>1.3</v>
+      </c>
+      <c r="AM49">
+        <v>1.73</v>
+      </c>
+      <c r="AN49">
+        <v>1.67</v>
+      </c>
+      <c r="AO49">
+        <v>2</v>
+      </c>
+      <c r="AP49">
+        <v>1.5</v>
+      </c>
+      <c r="AQ49">
+        <v>1.75</v>
+      </c>
+      <c r="AR49">
+        <v>1.24</v>
+      </c>
+      <c r="AS49">
+        <v>1.21</v>
+      </c>
+      <c r="AT49">
+        <v>2.45</v>
+      </c>
+      <c r="AU49">
+        <v>0</v>
+      </c>
+      <c r="AV49">
+        <v>6</v>
+      </c>
+      <c r="AW49">
+        <v>7</v>
+      </c>
+      <c r="AX49">
+        <v>6</v>
+      </c>
+      <c r="AY49">
+        <v>7</v>
+      </c>
+      <c r="AZ49">
+        <v>12</v>
+      </c>
+      <c r="BA49">
+        <v>4</v>
+      </c>
+      <c r="BB49">
+        <v>6</v>
+      </c>
+      <c r="BC49">
+        <v>10</v>
+      </c>
+      <c r="BD49">
+        <v>1.95</v>
+      </c>
+      <c r="BE49">
+        <v>8</v>
+      </c>
+      <c r="BF49">
+        <v>2.1</v>
+      </c>
+      <c r="BG49">
+        <v>0</v>
+      </c>
+      <c r="BH49">
+        <v>0</v>
+      </c>
+      <c r="BI49">
+        <v>1.33</v>
+      </c>
+      <c r="BJ49">
+        <v>2.91</v>
+      </c>
+      <c r="BK49">
+        <v>1.66</v>
+      </c>
+      <c r="BL49">
+        <v>2.17</v>
+      </c>
+      <c r="BM49">
+        <v>2.05</v>
+      </c>
+      <c r="BN49">
+        <v>1.7</v>
+      </c>
+      <c r="BO49">
+        <v>2.6</v>
+      </c>
+      <c r="BP49">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:68">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7468133</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45535.625</v>
+      </c>
+      <c r="F50">
+        <v>7</v>
+      </c>
+      <c r="G50" t="s">
+        <v>77</v>
+      </c>
+      <c r="H50" t="s">
+        <v>70</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>2</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>2</v>
+      </c>
+      <c r="N50">
+        <v>2</v>
+      </c>
+      <c r="O50" t="s">
+        <v>88</v>
+      </c>
+      <c r="P50" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q50">
+        <v>5.1</v>
+      </c>
+      <c r="R50">
+        <v>2.21</v>
+      </c>
+      <c r="S50">
+        <v>2.19</v>
+      </c>
+      <c r="T50">
+        <v>1.37</v>
+      </c>
+      <c r="U50">
+        <v>2.95</v>
+      </c>
+      <c r="V50">
+        <v>2.74</v>
+      </c>
+      <c r="W50">
+        <v>1.42</v>
+      </c>
+      <c r="X50">
+        <v>6.85</v>
+      </c>
+      <c r="Y50">
+        <v>1.08</v>
+      </c>
+      <c r="Z50">
+        <v>5</v>
+      </c>
+      <c r="AA50">
+        <v>3.8</v>
+      </c>
+      <c r="AB50">
+        <v>1.63</v>
+      </c>
+      <c r="AC50">
+        <v>1.01</v>
+      </c>
+      <c r="AD50">
+        <v>9.4</v>
+      </c>
+      <c r="AE50">
+        <v>1.25</v>
+      </c>
+      <c r="AF50">
+        <v>3.42</v>
+      </c>
+      <c r="AG50">
+        <v>1.86</v>
+      </c>
+      <c r="AH50">
+        <v>1.98</v>
+      </c>
+      <c r="AI50">
+        <v>1.85</v>
+      </c>
+      <c r="AJ50">
+        <v>1.85</v>
+      </c>
+      <c r="AK50">
+        <v>2.18</v>
+      </c>
+      <c r="AL50">
+        <v>1.24</v>
+      </c>
+      <c r="AM50">
+        <v>1.15</v>
+      </c>
+      <c r="AN50">
+        <v>3</v>
+      </c>
+      <c r="AO50">
+        <v>3</v>
+      </c>
+      <c r="AP50">
+        <v>2.25</v>
+      </c>
+      <c r="AQ50">
+        <v>3</v>
+      </c>
+      <c r="AR50">
+        <v>1.24</v>
+      </c>
+      <c r="AS50">
+        <v>2.07</v>
+      </c>
+      <c r="AT50">
+        <v>3.31</v>
+      </c>
+      <c r="AU50">
+        <v>3</v>
+      </c>
+      <c r="AV50">
+        <v>5</v>
+      </c>
+      <c r="AW50">
+        <v>8</v>
+      </c>
+      <c r="AX50">
+        <v>3</v>
+      </c>
+      <c r="AY50">
+        <v>11</v>
+      </c>
+      <c r="AZ50">
+        <v>8</v>
+      </c>
+      <c r="BA50">
+        <v>7</v>
+      </c>
+      <c r="BB50">
+        <v>3</v>
+      </c>
+      <c r="BC50">
+        <v>10</v>
+      </c>
+      <c r="BD50">
+        <v>3.06</v>
+      </c>
+      <c r="BE50">
+        <v>9</v>
+      </c>
+      <c r="BF50">
+        <v>1.51</v>
+      </c>
+      <c r="BG50">
+        <v>0</v>
+      </c>
+      <c r="BH50">
+        <v>0</v>
+      </c>
+      <c r="BI50">
+        <v>1.31</v>
+      </c>
+      <c r="BJ50">
+        <v>3.04</v>
+      </c>
+      <c r="BK50">
+        <v>1.61</v>
+      </c>
+      <c r="BL50">
+        <v>2.24</v>
+      </c>
+      <c r="BM50">
+        <v>1.95</v>
+      </c>
+      <c r="BN50">
+        <v>1.85</v>
+      </c>
+      <c r="BO50">
+        <v>2.49</v>
+      </c>
+      <c r="BP50">
         <v>1.5</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="151">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -382,6 +382,15 @@
     <t>['58', '63', '90+2']</t>
   </si>
   <si>
+    <t>['34', '85']</t>
+  </si>
+  <si>
+    <t>['45+5', '49']</t>
+  </si>
+  <si>
+    <t>['20']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -449,6 +458,15 @@
   </si>
   <si>
     <t>['8', '45']</t>
+  </si>
+  <si>
+    <t>['42', '50']</t>
+  </si>
+  <si>
+    <t>['26', '85']</t>
+  </si>
+  <si>
+    <t>['75']</t>
   </si>
 </sst>
 </file>
@@ -810,7 +828,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP50"/>
+  <dimension ref="A1:BP55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1069,7 +1087,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q2">
         <v>1.53</v>
@@ -1150,7 +1168,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1356,7 +1374,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1481,7 +1499,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -1687,7 +1705,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -1768,7 +1786,7 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1893,7 +1911,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -1974,7 +1992,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ6">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2099,7 +2117,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2177,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -2923,7 +2941,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3001,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ11">
         <v>3</v>
@@ -3129,7 +3147,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q12">
         <v>2.85</v>
@@ -3541,7 +3559,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -3619,7 +3637,7 @@
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ14">
         <v>1.33</v>
@@ -4365,7 +4383,7 @@
         <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q18">
         <v>5.4</v>
@@ -4443,7 +4461,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ18">
         <v>2</v>
@@ -4652,7 +4670,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ19">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR19">
         <v>1.9</v>
@@ -5064,7 +5082,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ21">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR21">
         <v>1.81</v>
@@ -5267,7 +5285,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ22">
         <v>0</v>
@@ -5395,7 +5413,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q23">
         <v>2.6</v>
@@ -5476,7 +5494,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ23">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR23">
         <v>1.33</v>
@@ -5601,7 +5619,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5682,7 +5700,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ24">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR24">
         <v>1.19</v>
@@ -5807,7 +5825,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q25">
         <v>1.06</v>
@@ -6013,7 +6031,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q26">
         <v>6.23</v>
@@ -6219,7 +6237,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6297,7 +6315,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -7536,7 +7554,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ33">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR33">
         <v>1.08</v>
@@ -7661,7 +7679,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q34">
         <v>1.45</v>
@@ -7867,7 +7885,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q35">
         <v>2.84</v>
@@ -7945,7 +7963,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ35">
         <v>1.25</v>
@@ -8073,7 +8091,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q36">
         <v>5.63</v>
@@ -8279,7 +8297,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q37">
         <v>2.58</v>
@@ -8357,10 +8375,10 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ37">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR37">
         <v>1.25</v>
@@ -8563,10 +8581,10 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ38">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR38">
         <v>1.34</v>
@@ -8691,7 +8709,7 @@
         <v>88</v>
       </c>
       <c r="P39" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q39">
         <v>4.75</v>
@@ -8772,7 +8790,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ39">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR39">
         <v>1.46</v>
@@ -8978,7 +8996,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ40">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR40">
         <v>1.19</v>
@@ -9103,7 +9121,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9309,7 +9327,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q42">
         <v>1.69</v>
@@ -9515,7 +9533,7 @@
         <v>107</v>
       </c>
       <c r="P43" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q43">
         <v>2.61</v>
@@ -9593,7 +9611,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ43">
         <v>2</v>
@@ -10417,10 +10435,10 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ47">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR47">
         <v>1.77</v>
@@ -10957,7 +10975,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q50">
         <v>5.1</v>
@@ -11114,6 +11132,1036 @@
       </c>
       <c r="BP50">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:68">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>7468129</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45536.39583333334</v>
+      </c>
+      <c r="F51">
+        <v>7</v>
+      </c>
+      <c r="G51" t="s">
+        <v>85</v>
+      </c>
+      <c r="H51" t="s">
+        <v>83</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>2</v>
+      </c>
+      <c r="L51">
+        <v>2</v>
+      </c>
+      <c r="M51">
+        <v>2</v>
+      </c>
+      <c r="N51">
+        <v>4</v>
+      </c>
+      <c r="O51" t="s">
+        <v>122</v>
+      </c>
+      <c r="P51" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q51">
+        <v>3</v>
+      </c>
+      <c r="R51">
+        <v>2.2</v>
+      </c>
+      <c r="S51">
+        <v>3.5</v>
+      </c>
+      <c r="T51">
+        <v>1.36</v>
+      </c>
+      <c r="U51">
+        <v>3</v>
+      </c>
+      <c r="V51">
+        <v>2.75</v>
+      </c>
+      <c r="W51">
+        <v>1.4</v>
+      </c>
+      <c r="X51">
+        <v>7</v>
+      </c>
+      <c r="Y51">
+        <v>1.1</v>
+      </c>
+      <c r="Z51">
+        <v>2.5</v>
+      </c>
+      <c r="AA51">
+        <v>3.3</v>
+      </c>
+      <c r="AB51">
+        <v>2.7</v>
+      </c>
+      <c r="AC51">
+        <v>1.02</v>
+      </c>
+      <c r="AD51">
+        <v>10</v>
+      </c>
+      <c r="AE51">
+        <v>1.2</v>
+      </c>
+      <c r="AF51">
+        <v>4</v>
+      </c>
+      <c r="AG51">
+        <v>1.83</v>
+      </c>
+      <c r="AH51">
+        <v>1.93</v>
+      </c>
+      <c r="AI51">
+        <v>1.67</v>
+      </c>
+      <c r="AJ51">
+        <v>2.1</v>
+      </c>
+      <c r="AK51">
+        <v>1.42</v>
+      </c>
+      <c r="AL51">
+        <v>1.3</v>
+      </c>
+      <c r="AM51">
+        <v>1.52</v>
+      </c>
+      <c r="AN51">
+        <v>3</v>
+      </c>
+      <c r="AO51">
+        <v>0.33</v>
+      </c>
+      <c r="AP51">
+        <v>2.33</v>
+      </c>
+      <c r="AQ51">
+        <v>0.5</v>
+      </c>
+      <c r="AR51">
+        <v>1.61</v>
+      </c>
+      <c r="AS51">
+        <v>1.34</v>
+      </c>
+      <c r="AT51">
+        <v>2.95</v>
+      </c>
+      <c r="AU51">
+        <v>7</v>
+      </c>
+      <c r="AV51">
+        <v>8</v>
+      </c>
+      <c r="AW51">
+        <v>8</v>
+      </c>
+      <c r="AX51">
+        <v>5</v>
+      </c>
+      <c r="AY51">
+        <v>15</v>
+      </c>
+      <c r="AZ51">
+        <v>13</v>
+      </c>
+      <c r="BA51">
+        <v>6</v>
+      </c>
+      <c r="BB51">
+        <v>5</v>
+      </c>
+      <c r="BC51">
+        <v>11</v>
+      </c>
+      <c r="BD51">
+        <v>2.05</v>
+      </c>
+      <c r="BE51">
+        <v>8.5</v>
+      </c>
+      <c r="BF51">
+        <v>2</v>
+      </c>
+      <c r="BG51">
+        <v>1.11</v>
+      </c>
+      <c r="BH51">
+        <v>6</v>
+      </c>
+      <c r="BI51">
+        <v>1.22</v>
+      </c>
+      <c r="BJ51">
+        <v>4</v>
+      </c>
+      <c r="BK51">
+        <v>1.35</v>
+      </c>
+      <c r="BL51">
+        <v>2.84</v>
+      </c>
+      <c r="BM51">
+        <v>1.77</v>
+      </c>
+      <c r="BN51">
+        <v>1.95</v>
+      </c>
+      <c r="BO51">
+        <v>2.04</v>
+      </c>
+      <c r="BP51">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7468134</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45536.39583333334</v>
+      </c>
+      <c r="F52">
+        <v>7</v>
+      </c>
+      <c r="G52" t="s">
+        <v>75</v>
+      </c>
+      <c r="H52" t="s">
+        <v>74</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52" t="s">
+        <v>88</v>
+      </c>
+      <c r="P52" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q52">
+        <v>2.63</v>
+      </c>
+      <c r="R52">
+        <v>2.25</v>
+      </c>
+      <c r="S52">
+        <v>4</v>
+      </c>
+      <c r="T52">
+        <v>1.33</v>
+      </c>
+      <c r="U52">
+        <v>3.25</v>
+      </c>
+      <c r="V52">
+        <v>2.63</v>
+      </c>
+      <c r="W52">
+        <v>1.44</v>
+      </c>
+      <c r="X52">
+        <v>6.5</v>
+      </c>
+      <c r="Y52">
+        <v>1.11</v>
+      </c>
+      <c r="Z52">
+        <v>1.98</v>
+      </c>
+      <c r="AA52">
+        <v>3.5</v>
+      </c>
+      <c r="AB52">
+        <v>3.5</v>
+      </c>
+      <c r="AC52">
+        <v>1.01</v>
+      </c>
+      <c r="AD52">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE52">
+        <v>1.24</v>
+      </c>
+      <c r="AF52">
+        <v>3.48</v>
+      </c>
+      <c r="AG52">
+        <v>1.75</v>
+      </c>
+      <c r="AH52">
+        <v>2.02</v>
+      </c>
+      <c r="AI52">
+        <v>1.67</v>
+      </c>
+      <c r="AJ52">
+        <v>2.1</v>
+      </c>
+      <c r="AK52">
+        <v>1.27</v>
+      </c>
+      <c r="AL52">
+        <v>1.26</v>
+      </c>
+      <c r="AM52">
+        <v>1.82</v>
+      </c>
+      <c r="AN52">
+        <v>0.33</v>
+      </c>
+      <c r="AO52">
+        <v>0</v>
+      </c>
+      <c r="AP52">
+        <v>0.5</v>
+      </c>
+      <c r="AQ52">
+        <v>0.33</v>
+      </c>
+      <c r="AR52">
+        <v>1.76</v>
+      </c>
+      <c r="AS52">
+        <v>0.97</v>
+      </c>
+      <c r="AT52">
+        <v>2.73</v>
+      </c>
+      <c r="AU52">
+        <v>7</v>
+      </c>
+      <c r="AV52">
+        <v>2</v>
+      </c>
+      <c r="AW52">
+        <v>9</v>
+      </c>
+      <c r="AX52">
+        <v>2</v>
+      </c>
+      <c r="AY52">
+        <v>16</v>
+      </c>
+      <c r="AZ52">
+        <v>4</v>
+      </c>
+      <c r="BA52">
+        <v>8</v>
+      </c>
+      <c r="BB52">
+        <v>6</v>
+      </c>
+      <c r="BC52">
+        <v>14</v>
+      </c>
+      <c r="BD52">
+        <v>1.82</v>
+      </c>
+      <c r="BE52">
+        <v>8</v>
+      </c>
+      <c r="BF52">
+        <v>2.39</v>
+      </c>
+      <c r="BG52">
+        <v>1.2</v>
+      </c>
+      <c r="BH52">
+        <v>4.2</v>
+      </c>
+      <c r="BI52">
+        <v>1.38</v>
+      </c>
+      <c r="BJ52">
+        <v>2.9</v>
+      </c>
+      <c r="BK52">
+        <v>1.63</v>
+      </c>
+      <c r="BL52">
+        <v>2.2</v>
+      </c>
+      <c r="BM52">
+        <v>2.02</v>
+      </c>
+      <c r="BN52">
+        <v>1.74</v>
+      </c>
+      <c r="BO52">
+        <v>2.55</v>
+      </c>
+      <c r="BP52">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7468130</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45536.5</v>
+      </c>
+      <c r="F53">
+        <v>7</v>
+      </c>
+      <c r="G53" t="s">
+        <v>80</v>
+      </c>
+      <c r="H53" t="s">
+        <v>79</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>2</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="O53" t="s">
+        <v>123</v>
+      </c>
+      <c r="P53" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q53">
+        <v>1.35</v>
+      </c>
+      <c r="R53">
+        <v>3.4</v>
+      </c>
+      <c r="S53">
+        <v>14</v>
+      </c>
+      <c r="T53">
+        <v>1.17</v>
+      </c>
+      <c r="U53">
+        <v>4.6</v>
+      </c>
+      <c r="V53">
+        <v>1.82</v>
+      </c>
+      <c r="W53">
+        <v>1.88</v>
+      </c>
+      <c r="X53">
+        <v>3.5</v>
+      </c>
+      <c r="Y53">
+        <v>1.25</v>
+      </c>
+      <c r="Z53">
+        <v>1.04</v>
+      </c>
+      <c r="AA53">
+        <v>10</v>
+      </c>
+      <c r="AB53">
+        <v>29</v>
+      </c>
+      <c r="AC53">
+        <v>1.01</v>
+      </c>
+      <c r="AD53">
+        <v>41.5</v>
+      </c>
+      <c r="AE53">
+        <v>1.09</v>
+      </c>
+      <c r="AF53">
+        <v>8.25</v>
+      </c>
+      <c r="AG53">
+        <v>1.28</v>
+      </c>
+      <c r="AH53">
+        <v>3.3</v>
+      </c>
+      <c r="AI53">
+        <v>2.25</v>
+      </c>
+      <c r="AJ53">
+        <v>1.58</v>
+      </c>
+      <c r="AK53">
+        <v>1.02</v>
+      </c>
+      <c r="AL53">
+        <v>1.05</v>
+      </c>
+      <c r="AM53">
+        <v>7.5</v>
+      </c>
+      <c r="AN53">
+        <v>3</v>
+      </c>
+      <c r="AO53">
+        <v>1</v>
+      </c>
+      <c r="AP53">
+        <v>3</v>
+      </c>
+      <c r="AQ53">
+        <v>0.75</v>
+      </c>
+      <c r="AR53">
+        <v>2.35</v>
+      </c>
+      <c r="AS53">
+        <v>0.96</v>
+      </c>
+      <c r="AT53">
+        <v>3.31</v>
+      </c>
+      <c r="AU53">
+        <v>10</v>
+      </c>
+      <c r="AV53">
+        <v>6</v>
+      </c>
+      <c r="AW53">
+        <v>6</v>
+      </c>
+      <c r="AX53">
+        <v>4</v>
+      </c>
+      <c r="AY53">
+        <v>16</v>
+      </c>
+      <c r="AZ53">
+        <v>10</v>
+      </c>
+      <c r="BA53">
+        <v>6</v>
+      </c>
+      <c r="BB53">
+        <v>3</v>
+      </c>
+      <c r="BC53">
+        <v>9</v>
+      </c>
+      <c r="BD53">
+        <v>1.05</v>
+      </c>
+      <c r="BE53">
+        <v>15</v>
+      </c>
+      <c r="BF53">
+        <v>12.4</v>
+      </c>
+      <c r="BG53">
+        <v>1.11</v>
+      </c>
+      <c r="BH53">
+        <v>5.9</v>
+      </c>
+      <c r="BI53">
+        <v>1.23</v>
+      </c>
+      <c r="BJ53">
+        <v>3.9</v>
+      </c>
+      <c r="BK53">
+        <v>1.34</v>
+      </c>
+      <c r="BL53">
+        <v>2.88</v>
+      </c>
+      <c r="BM53">
+        <v>1.9</v>
+      </c>
+      <c r="BN53">
+        <v>1.9</v>
+      </c>
+      <c r="BO53">
+        <v>2.01</v>
+      </c>
+      <c r="BP53">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7468131</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45536.5</v>
+      </c>
+      <c r="F54">
+        <v>7</v>
+      </c>
+      <c r="G54" t="s">
+        <v>78</v>
+      </c>
+      <c r="H54" t="s">
+        <v>82</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>2</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>2</v>
+      </c>
+      <c r="N54">
+        <v>3</v>
+      </c>
+      <c r="O54" t="s">
+        <v>124</v>
+      </c>
+      <c r="P54" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q54">
+        <v>3</v>
+      </c>
+      <c r="R54">
+        <v>2.18</v>
+      </c>
+      <c r="S54">
+        <v>3.3</v>
+      </c>
+      <c r="T54">
+        <v>1.32</v>
+      </c>
+      <c r="U54">
+        <v>3.1</v>
+      </c>
+      <c r="V54">
+        <v>2.75</v>
+      </c>
+      <c r="W54">
+        <v>1.38</v>
+      </c>
+      <c r="X54">
+        <v>6.6</v>
+      </c>
+      <c r="Y54">
+        <v>1.09</v>
+      </c>
+      <c r="Z54">
+        <v>2.3</v>
+      </c>
+      <c r="AA54">
+        <v>3.4</v>
+      </c>
+      <c r="AB54">
+        <v>2.7</v>
+      </c>
+      <c r="AC54">
+        <v>1.01</v>
+      </c>
+      <c r="AD54">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE54">
+        <v>1.24</v>
+      </c>
+      <c r="AF54">
+        <v>3.48</v>
+      </c>
+      <c r="AG54">
+        <v>1.8</v>
+      </c>
+      <c r="AH54">
+        <v>1.9</v>
+      </c>
+      <c r="AI54">
+        <v>1.65</v>
+      </c>
+      <c r="AJ54">
+        <v>2.14</v>
+      </c>
+      <c r="AK54">
+        <v>1.41</v>
+      </c>
+      <c r="AL54">
+        <v>1.28</v>
+      </c>
+      <c r="AM54">
+        <v>1.56</v>
+      </c>
+      <c r="AN54">
+        <v>1</v>
+      </c>
+      <c r="AO54">
+        <v>0</v>
+      </c>
+      <c r="AP54">
+        <v>0.75</v>
+      </c>
+      <c r="AQ54">
+        <v>0.75</v>
+      </c>
+      <c r="AR54">
+        <v>1.4</v>
+      </c>
+      <c r="AS54">
+        <v>1.44</v>
+      </c>
+      <c r="AT54">
+        <v>2.84</v>
+      </c>
+      <c r="AU54">
+        <v>3</v>
+      </c>
+      <c r="AV54">
+        <v>8</v>
+      </c>
+      <c r="AW54">
+        <v>10</v>
+      </c>
+      <c r="AX54">
+        <v>4</v>
+      </c>
+      <c r="AY54">
+        <v>13</v>
+      </c>
+      <c r="AZ54">
+        <v>12</v>
+      </c>
+      <c r="BA54">
+        <v>7</v>
+      </c>
+      <c r="BB54">
+        <v>3</v>
+      </c>
+      <c r="BC54">
+        <v>10</v>
+      </c>
+      <c r="BD54">
+        <v>1.91</v>
+      </c>
+      <c r="BE54">
+        <v>8.5</v>
+      </c>
+      <c r="BF54">
+        <v>2.1</v>
+      </c>
+      <c r="BG54">
+        <v>1.13</v>
+      </c>
+      <c r="BH54">
+        <v>5.3</v>
+      </c>
+      <c r="BI54">
+        <v>1.24</v>
+      </c>
+      <c r="BJ54">
+        <v>3.48</v>
+      </c>
+      <c r="BK54">
+        <v>1.44</v>
+      </c>
+      <c r="BL54">
+        <v>2.5</v>
+      </c>
+      <c r="BM54">
+        <v>1.92</v>
+      </c>
+      <c r="BN54">
+        <v>1.88</v>
+      </c>
+      <c r="BO54">
+        <v>2.2</v>
+      </c>
+      <c r="BP54">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7468128</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45536.625</v>
+      </c>
+      <c r="F55">
+        <v>7</v>
+      </c>
+      <c r="G55" t="s">
+        <v>81</v>
+      </c>
+      <c r="H55" t="s">
+        <v>84</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>2</v>
+      </c>
+      <c r="O55" t="s">
+        <v>93</v>
+      </c>
+      <c r="P55" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q55">
+        <v>3.85</v>
+      </c>
+      <c r="R55">
+        <v>2.23</v>
+      </c>
+      <c r="S55">
+        <v>2.6</v>
+      </c>
+      <c r="T55">
+        <v>1.3</v>
+      </c>
+      <c r="U55">
+        <v>3.2</v>
+      </c>
+      <c r="V55">
+        <v>2.65</v>
+      </c>
+      <c r="W55">
+        <v>1.42</v>
+      </c>
+      <c r="X55">
+        <v>6.4</v>
+      </c>
+      <c r="Y55">
+        <v>1.1</v>
+      </c>
+      <c r="Z55">
+        <v>3.3</v>
+      </c>
+      <c r="AA55">
+        <v>3.4</v>
+      </c>
+      <c r="AB55">
+        <v>2</v>
+      </c>
+      <c r="AC55">
+        <v>1.01</v>
+      </c>
+      <c r="AD55">
+        <v>10.5</v>
+      </c>
+      <c r="AE55">
+        <v>1.2</v>
+      </c>
+      <c r="AF55">
+        <v>3.9</v>
+      </c>
+      <c r="AG55">
+        <v>1.75</v>
+      </c>
+      <c r="AH55">
+        <v>1.95</v>
+      </c>
+      <c r="AI55">
+        <v>1.62</v>
+      </c>
+      <c r="AJ55">
+        <v>2.18</v>
+      </c>
+      <c r="AK55">
+        <v>1.71</v>
+      </c>
+      <c r="AL55">
+        <v>1.27</v>
+      </c>
+      <c r="AM55">
+        <v>1.28</v>
+      </c>
+      <c r="AN55">
+        <v>1.33</v>
+      </c>
+      <c r="AO55">
+        <v>2.33</v>
+      </c>
+      <c r="AP55">
+        <v>1.25</v>
+      </c>
+      <c r="AQ55">
+        <v>2</v>
+      </c>
+      <c r="AR55">
+        <v>1.32</v>
+      </c>
+      <c r="AS55">
+        <v>1.32</v>
+      </c>
+      <c r="AT55">
+        <v>2.64</v>
+      </c>
+      <c r="AU55">
+        <v>7</v>
+      </c>
+      <c r="AV55">
+        <v>7</v>
+      </c>
+      <c r="AW55">
+        <v>5</v>
+      </c>
+      <c r="AX55">
+        <v>2</v>
+      </c>
+      <c r="AY55">
+        <v>12</v>
+      </c>
+      <c r="AZ55">
+        <v>9</v>
+      </c>
+      <c r="BA55">
+        <v>8</v>
+      </c>
+      <c r="BB55">
+        <v>7</v>
+      </c>
+      <c r="BC55">
+        <v>15</v>
+      </c>
+      <c r="BD55">
+        <v>2</v>
+      </c>
+      <c r="BE55">
+        <v>8</v>
+      </c>
+      <c r="BF55">
+        <v>2</v>
+      </c>
+      <c r="BG55">
+        <v>1.15</v>
+      </c>
+      <c r="BH55">
+        <v>5</v>
+      </c>
+      <c r="BI55">
+        <v>1.27</v>
+      </c>
+      <c r="BJ55">
+        <v>3.28</v>
+      </c>
+      <c r="BK55">
+        <v>1.52</v>
+      </c>
+      <c r="BL55">
+        <v>2.45</v>
+      </c>
+      <c r="BM55">
+        <v>1.85</v>
+      </c>
+      <c r="BN55">
+        <v>1.94</v>
+      </c>
+      <c r="BO55">
+        <v>2.3</v>
+      </c>
+      <c r="BP55">
+        <v>1.58</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -12119,10 +12119,10 @@
         <v>8</v>
       </c>
       <c r="BB55">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC55">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD55">
         <v>2</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -262,12 +262,12 @@
     <t>Slovan Liberec</t>
   </si>
   <si>
+    <t>Baník Ostrava</t>
+  </si>
+  <si>
     <t>Mladá Boleslav</t>
   </si>
   <si>
-    <t>Baník Ostrava</t>
-  </si>
-  <si>
     <t>Viktoria Plzeň</t>
   </si>
   <si>
@@ -307,12 +307,12 @@
     <t>['37']</t>
   </si>
   <si>
+    <t>['53']</t>
+  </si>
+  <si>
     <t>['10', '45+1', '46']</t>
   </si>
   <si>
-    <t>['53']</t>
-  </si>
-  <si>
     <t>['56']</t>
   </si>
   <si>
@@ -337,12 +337,12 @@
     <t>['7', '88']</t>
   </si>
   <si>
+    <t>['17', '48', '64', '79']</t>
+  </si>
+  <si>
     <t>['90']</t>
   </si>
   <si>
-    <t>['17', '48', '64', '79']</t>
-  </si>
-  <si>
     <t>['23', '30', '58', '63', '87']</t>
   </si>
   <si>
@@ -451,10 +451,10 @@
     <t>['35', '58']</t>
   </si>
   <si>
+    <t>['4', '53', '74']</t>
+  </si>
+  <si>
     <t>['17', '24']</t>
-  </si>
-  <si>
-    <t>['4', '53', '74']</t>
   </si>
   <si>
     <t>['8', '45']</t>
@@ -1269,7 +1269,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1681,7 +1681,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>7468091</v>
+        <v>7468094</v>
       </c>
       <c r="C15" t="s">
         <v>68</v>
@@ -3741,25 +3741,25 @@
         <v>82</v>
       </c>
       <c r="H15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O15" t="s">
         <v>97</v>
@@ -3768,73 +3768,73 @@
         <v>88</v>
       </c>
       <c r="Q15">
-        <v>2.48</v>
+        <v>2.21</v>
       </c>
       <c r="R15">
-        <v>2.26</v>
+        <v>2.35</v>
       </c>
       <c r="S15">
-        <v>3.86</v>
+        <v>4.4</v>
       </c>
       <c r="T15">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="U15">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="V15">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="W15">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="X15">
+        <v>5</v>
+      </c>
+      <c r="Y15">
+        <v>1.14</v>
+      </c>
+      <c r="Z15">
+        <v>1.53</v>
+      </c>
+      <c r="AA15">
+        <v>4.2</v>
+      </c>
+      <c r="AB15">
         <v>5.25</v>
       </c>
-      <c r="Y15">
-        <v>1.12</v>
-      </c>
-      <c r="Z15">
-        <v>1.95</v>
-      </c>
-      <c r="AA15">
-        <v>3.6</v>
-      </c>
-      <c r="AB15">
-        <v>3.4</v>
-      </c>
       <c r="AC15">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AD15">
-        <v>15.5</v>
+        <v>17.75</v>
       </c>
       <c r="AE15">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AF15">
-        <v>4.43</v>
+        <v>4.35</v>
       </c>
       <c r="AG15">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="AH15">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="AI15">
         <v>1.58</v>
       </c>
       <c r="AJ15">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AK15">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AL15">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AM15">
-        <v>1.78</v>
+        <v>2.05</v>
       </c>
       <c r="AN15">
         <v>0</v>
@@ -3846,7 +3846,7 @@
         <v>3</v>
       </c>
       <c r="AQ15">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -3858,70 +3858,70 @@
         <v>0</v>
       </c>
       <c r="AU15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV15">
+        <v>2</v>
+      </c>
+      <c r="AW15">
+        <v>3</v>
+      </c>
+      <c r="AX15">
+        <v>2</v>
+      </c>
+      <c r="AY15">
+        <v>8</v>
+      </c>
+      <c r="AZ15">
         <v>4</v>
       </c>
-      <c r="AW15">
-        <v>7</v>
-      </c>
-      <c r="AX15">
-        <v>5</v>
-      </c>
-      <c r="AY15">
-        <v>14</v>
-      </c>
-      <c r="AZ15">
-        <v>9</v>
-      </c>
       <c r="BA15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB15">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="BC15">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="BD15">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="BE15">
         <v>8.5</v>
       </c>
       <c r="BF15">
-        <v>2.78</v>
+        <v>2.81</v>
       </c>
       <c r="BG15">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="BH15">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="BI15">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="BJ15">
-        <v>3.2</v>
+        <v>3.34</v>
       </c>
       <c r="BK15">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="BL15">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="BM15">
+        <v>1.85</v>
+      </c>
+      <c r="BN15">
         <v>1.95</v>
       </c>
-      <c r="BN15">
-        <v>1.85</v>
-      </c>
       <c r="BO15">
-        <v>2.43</v>
+        <v>2.3</v>
       </c>
       <c r="BP15">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="16" spans="1:68">
@@ -3929,7 +3929,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>7468094</v>
+        <v>7468091</v>
       </c>
       <c r="C16" t="s">
         <v>68</v>
@@ -3947,25 +3947,25 @@
         <v>83</v>
       </c>
       <c r="H16" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O16" t="s">
         <v>98</v>
@@ -3974,73 +3974,73 @@
         <v>88</v>
       </c>
       <c r="Q16">
-        <v>2.21</v>
+        <v>2.48</v>
       </c>
       <c r="R16">
-        <v>2.35</v>
+        <v>2.26</v>
       </c>
       <c r="S16">
-        <v>4.4</v>
+        <v>3.86</v>
       </c>
       <c r="T16">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="U16">
+        <v>3.2</v>
+      </c>
+      <c r="V16">
+        <v>2.4</v>
+      </c>
+      <c r="W16">
+        <v>1.5</v>
+      </c>
+      <c r="X16">
+        <v>5.25</v>
+      </c>
+      <c r="Y16">
+        <v>1.12</v>
+      </c>
+      <c r="Z16">
+        <v>1.95</v>
+      </c>
+      <c r="AA16">
+        <v>3.6</v>
+      </c>
+      <c r="AB16">
         <v>3.4</v>
       </c>
-      <c r="V16">
-        <v>2.3</v>
-      </c>
-      <c r="W16">
-        <v>1.55</v>
-      </c>
-      <c r="X16">
-        <v>5</v>
-      </c>
-      <c r="Y16">
-        <v>1.14</v>
-      </c>
-      <c r="Z16">
-        <v>1.53</v>
-      </c>
-      <c r="AA16">
-        <v>4.2</v>
-      </c>
-      <c r="AB16">
-        <v>5.25</v>
-      </c>
       <c r="AC16">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AD16">
-        <v>17.75</v>
+        <v>15.5</v>
       </c>
       <c r="AE16">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="AF16">
-        <v>4.35</v>
+        <v>4.43</v>
       </c>
       <c r="AG16">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="AH16">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="AI16">
         <v>1.58</v>
       </c>
       <c r="AJ16">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AK16">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="AL16">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="AM16">
-        <v>2.05</v>
+        <v>1.78</v>
       </c>
       <c r="AN16">
         <v>0</v>
@@ -4052,7 +4052,7 @@
         <v>3</v>
       </c>
       <c r="AQ16">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4064,70 +4064,70 @@
         <v>0</v>
       </c>
       <c r="AU16">
+        <v>7</v>
+      </c>
+      <c r="AV16">
+        <v>4</v>
+      </c>
+      <c r="AW16">
+        <v>7</v>
+      </c>
+      <c r="AX16">
         <v>5</v>
       </c>
-      <c r="AV16">
-        <v>2</v>
-      </c>
-      <c r="AW16">
-        <v>3</v>
-      </c>
-      <c r="AX16">
-        <v>2</v>
-      </c>
       <c r="AY16">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AZ16">
+        <v>9</v>
+      </c>
+      <c r="BA16">
         <v>4</v>
       </c>
-      <c r="BA16">
-        <v>3</v>
-      </c>
       <c r="BB16">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BC16">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="BD16">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="BE16">
         <v>8.5</v>
       </c>
       <c r="BF16">
-        <v>2.81</v>
+        <v>2.78</v>
       </c>
       <c r="BG16">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="BH16">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="BI16">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="BJ16">
-        <v>3.34</v>
+        <v>3.2</v>
       </c>
       <c r="BK16">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="BL16">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="BM16">
+        <v>1.95</v>
+      </c>
+      <c r="BN16">
         <v>1.85</v>
       </c>
-      <c r="BN16">
-        <v>1.95</v>
-      </c>
       <c r="BO16">
-        <v>2.3</v>
+        <v>2.43</v>
       </c>
       <c r="BP16">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="17" spans="1:68">
@@ -5595,7 +5595,7 @@
         <v>77</v>
       </c>
       <c r="H24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -6813,7 +6813,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>7468109</v>
+        <v>7468106</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -6831,25 +6831,25 @@
         <v>83</v>
       </c>
       <c r="H30" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M30">
         <v>0</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O30" t="s">
         <v>107</v>
@@ -6858,58 +6858,58 @@
         <v>88</v>
       </c>
       <c r="Q30">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R30">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S30">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="T30">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U30">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V30">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W30">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X30">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y30">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="Z30">
-        <v>1.84</v>
+        <v>1.51</v>
       </c>
       <c r="AA30">
-        <v>3.57</v>
+        <v>3.8</v>
       </c>
       <c r="AB30">
-        <v>4.25</v>
+        <v>7.6</v>
       </c>
       <c r="AC30">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD30">
         <v>10</v>
       </c>
       <c r="AE30">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AF30">
-        <v>3.64</v>
+        <v>3.96</v>
       </c>
       <c r="AG30">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AH30">
-        <v>1.96</v>
+        <v>2.16</v>
       </c>
       <c r="AI30">
         <v>1.75</v>
@@ -6918,13 +6918,13 @@
         <v>2</v>
       </c>
       <c r="AK30">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="AL30">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AM30">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="AN30">
         <v>3</v>
@@ -6939,79 +6939,79 @@
         <v>0</v>
       </c>
       <c r="AR30">
-        <v>1.24</v>
+        <v>1.76</v>
       </c>
       <c r="AS30">
-        <v>0.71</v>
+        <v>0.5</v>
       </c>
       <c r="AT30">
-        <v>1.95</v>
+        <v>2.26</v>
       </c>
       <c r="AU30">
+        <v>7</v>
+      </c>
+      <c r="AV30">
+        <v>3</v>
+      </c>
+      <c r="AW30">
+        <v>4</v>
+      </c>
+      <c r="AX30">
+        <v>5</v>
+      </c>
+      <c r="AY30">
+        <v>11</v>
+      </c>
+      <c r="AZ30">
+        <v>8</v>
+      </c>
+      <c r="BA30">
+        <v>2</v>
+      </c>
+      <c r="BB30">
+        <v>4</v>
+      </c>
+      <c r="BC30">
         <v>6</v>
       </c>
-      <c r="AV30">
-        <v>3</v>
-      </c>
-      <c r="AW30">
-        <v>17</v>
-      </c>
-      <c r="AX30">
-        <v>0</v>
-      </c>
-      <c r="AY30">
-        <v>23</v>
-      </c>
-      <c r="AZ30">
-        <v>3</v>
-      </c>
-      <c r="BA30">
-        <v>13</v>
-      </c>
-      <c r="BB30">
-        <v>0</v>
-      </c>
-      <c r="BC30">
-        <v>13</v>
-      </c>
       <c r="BD30">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="BE30">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="BF30">
-        <v>3.74</v>
+        <v>3.92</v>
       </c>
       <c r="BG30">
-        <v>1.15</v>
+        <v>1.09</v>
       </c>
       <c r="BH30">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="BI30">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="BJ30">
-        <v>3.34</v>
+        <v>4.3</v>
       </c>
       <c r="BK30">
-        <v>1.51</v>
+        <v>1.31</v>
       </c>
       <c r="BL30">
-        <v>2.49</v>
+        <v>3.04</v>
       </c>
       <c r="BM30">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="BN30">
-        <v>2</v>
+        <v>2.32</v>
       </c>
       <c r="BO30">
-        <v>2.29</v>
+        <v>1.94</v>
       </c>
       <c r="BP30">
-        <v>1.59</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="31" spans="1:68">
@@ -7019,7 +7019,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>7468106</v>
+        <v>7468109</v>
       </c>
       <c r="C31" t="s">
         <v>68</v>
@@ -7037,25 +7037,25 @@
         <v>82</v>
       </c>
       <c r="H31" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
       <c r="N31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O31" t="s">
         <v>108</v>
@@ -7064,58 +7064,58 @@
         <v>88</v>
       </c>
       <c r="Q31">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R31">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="S31">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="T31">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U31">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V31">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W31">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X31">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y31">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="Z31">
-        <v>1.51</v>
+        <v>1.84</v>
       </c>
       <c r="AA31">
-        <v>3.8</v>
+        <v>3.57</v>
       </c>
       <c r="AB31">
-        <v>7.6</v>
+        <v>4.25</v>
       </c>
       <c r="AC31">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD31">
         <v>10</v>
       </c>
       <c r="AE31">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AF31">
-        <v>3.96</v>
+        <v>3.64</v>
       </c>
       <c r="AG31">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="AH31">
-        <v>2.16</v>
+        <v>1.96</v>
       </c>
       <c r="AI31">
         <v>1.75</v>
@@ -7124,13 +7124,13 @@
         <v>2</v>
       </c>
       <c r="AK31">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="AL31">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AM31">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="AN31">
         <v>3</v>
@@ -7145,79 +7145,79 @@
         <v>0</v>
       </c>
       <c r="AR31">
-        <v>1.76</v>
+        <v>1.24</v>
       </c>
       <c r="AS31">
-        <v>0.5</v>
+        <v>0.71</v>
       </c>
       <c r="AT31">
-        <v>2.26</v>
+        <v>1.95</v>
       </c>
       <c r="AU31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV31">
         <v>3</v>
       </c>
       <c r="AW31">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="AX31">
+        <v>0</v>
+      </c>
+      <c r="AY31">
+        <v>23</v>
+      </c>
+      <c r="AZ31">
+        <v>3</v>
+      </c>
+      <c r="BA31">
+        <v>13</v>
+      </c>
+      <c r="BB31">
+        <v>0</v>
+      </c>
+      <c r="BC31">
+        <v>13</v>
+      </c>
+      <c r="BD31">
+        <v>1.42</v>
+      </c>
+      <c r="BE31">
+        <v>7.5</v>
+      </c>
+      <c r="BF31">
+        <v>3.74</v>
+      </c>
+      <c r="BG31">
+        <v>1.15</v>
+      </c>
+      <c r="BH31">
         <v>5</v>
       </c>
-      <c r="AY31">
-        <v>11</v>
-      </c>
-      <c r="AZ31">
-        <v>8</v>
-      </c>
-      <c r="BA31">
-        <v>2</v>
-      </c>
-      <c r="BB31">
-        <v>4</v>
-      </c>
-      <c r="BC31">
-        <v>6</v>
-      </c>
-      <c r="BD31">
-        <v>1.38</v>
-      </c>
-      <c r="BE31">
-        <v>8</v>
-      </c>
-      <c r="BF31">
-        <v>3.92</v>
-      </c>
-      <c r="BG31">
-        <v>1.09</v>
-      </c>
-      <c r="BH31">
-        <v>6.5</v>
-      </c>
       <c r="BI31">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="BJ31">
-        <v>4.3</v>
+        <v>3.34</v>
       </c>
       <c r="BK31">
-        <v>1.31</v>
+        <v>1.51</v>
       </c>
       <c r="BL31">
-        <v>3.04</v>
+        <v>2.49</v>
       </c>
       <c r="BM31">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="BN31">
-        <v>2.32</v>
+        <v>2</v>
       </c>
       <c r="BO31">
-        <v>1.94</v>
+        <v>2.29</v>
       </c>
       <c r="BP31">
-        <v>1.85</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="32" spans="1:68">
@@ -8273,7 +8273,7 @@
         <v>85</v>
       </c>
       <c r="H37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I37">
         <v>2</v>
@@ -8891,7 +8891,7 @@
         <v>76</v>
       </c>
       <c r="H40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -9285,7 +9285,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>7468127</v>
+        <v>7468120</v>
       </c>
       <c r="C42" t="s">
         <v>68</v>
@@ -9300,190 +9300,190 @@
         <v>6</v>
       </c>
       <c r="G42" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N42">
         <v>4</v>
       </c>
       <c r="O42" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="P42" t="s">
         <v>145</v>
       </c>
       <c r="Q42">
-        <v>1.69</v>
+        <v>2.61</v>
       </c>
       <c r="R42">
-        <v>2.63</v>
+        <v>2.06</v>
       </c>
       <c r="S42">
-        <v>7.5</v>
+        <v>4.25</v>
       </c>
       <c r="T42">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="U42">
-        <v>3.54</v>
+        <v>2.74</v>
       </c>
       <c r="V42">
-        <v>2.27</v>
+        <v>2.82</v>
       </c>
       <c r="W42">
-        <v>1.59</v>
+        <v>1.4</v>
       </c>
       <c r="X42">
-        <v>5.1</v>
+        <v>7.2</v>
       </c>
       <c r="Y42">
-        <v>1.15</v>
+        <v>1.08</v>
       </c>
       <c r="Z42">
-        <v>1.27</v>
+        <v>2.01</v>
       </c>
       <c r="AA42">
-        <v>5.2</v>
+        <v>3.45</v>
       </c>
       <c r="AB42">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="AC42">
         <v>1.02</v>
       </c>
       <c r="AD42">
-        <v>20.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE42">
-        <v>1.14</v>
+        <v>1.28</v>
       </c>
       <c r="AF42">
-        <v>4.65</v>
+        <v>3.2</v>
       </c>
       <c r="AG42">
-        <v>1.56</v>
+        <v>1.91</v>
       </c>
       <c r="AH42">
-        <v>2.29</v>
+        <v>1.91</v>
       </c>
       <c r="AI42">
-        <v>2</v>
+        <v>1.76</v>
       </c>
       <c r="AJ42">
-        <v>1.72</v>
+        <v>1.95</v>
       </c>
       <c r="AK42">
-        <v>1.07</v>
+        <v>1.27</v>
       </c>
       <c r="AL42">
-        <v>1.14</v>
+        <v>1.3</v>
       </c>
       <c r="AM42">
-        <v>3.7</v>
+        <v>1.75</v>
       </c>
       <c r="AN42">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO42">
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>2.33</v>
+        <v>0.75</v>
       </c>
       <c r="AQ42">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AR42">
-        <v>2.07</v>
+        <v>1.41</v>
       </c>
       <c r="AS42">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="AT42">
-        <v>3.27</v>
+        <v>3.11</v>
       </c>
       <c r="AU42">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AV42">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW42">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY42">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AZ42">
+        <v>10</v>
+      </c>
+      <c r="BA42">
         <v>7</v>
       </c>
-      <c r="BA42">
-        <v>9</v>
-      </c>
       <c r="BB42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC42">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD42">
+        <v>1.69</v>
+      </c>
+      <c r="BE42">
+        <v>8.5</v>
+      </c>
+      <c r="BF42">
+        <v>2.62</v>
+      </c>
+      <c r="BG42">
         <v>1.19</v>
       </c>
-      <c r="BE42">
-        <v>11</v>
-      </c>
-      <c r="BF42">
-        <v>5.67</v>
-      </c>
-      <c r="BG42">
-        <v>1.18</v>
-      </c>
       <c r="BH42">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="BI42">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="BJ42">
-        <v>3.18</v>
+        <v>3.04</v>
       </c>
       <c r="BK42">
-        <v>1.51</v>
+        <v>1.7</v>
       </c>
       <c r="BL42">
-        <v>2.32</v>
+        <v>2.05</v>
       </c>
       <c r="BM42">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="BN42">
         <v>1.77</v>
       </c>
       <c r="BO42">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="BP42">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="43" spans="1:68">
@@ -9491,7 +9491,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>7468120</v>
+        <v>7468127</v>
       </c>
       <c r="C43" t="s">
         <v>68</v>
@@ -9506,190 +9506,190 @@
         <v>6</v>
       </c>
       <c r="G43" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H43" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N43">
         <v>4</v>
       </c>
       <c r="O43" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="P43" t="s">
         <v>146</v>
       </c>
       <c r="Q43">
-        <v>2.61</v>
+        <v>1.69</v>
       </c>
       <c r="R43">
-        <v>2.06</v>
+        <v>2.63</v>
       </c>
       <c r="S43">
-        <v>4.25</v>
+        <v>7.5</v>
       </c>
       <c r="T43">
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
       <c r="U43">
-        <v>2.74</v>
+        <v>3.54</v>
       </c>
       <c r="V43">
-        <v>2.82</v>
+        <v>2.27</v>
       </c>
       <c r="W43">
-        <v>1.4</v>
+        <v>1.59</v>
       </c>
       <c r="X43">
-        <v>7.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y43">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="Z43">
-        <v>2.01</v>
+        <v>1.27</v>
       </c>
       <c r="AA43">
-        <v>3.45</v>
+        <v>5.2</v>
       </c>
       <c r="AB43">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="AC43">
         <v>1.02</v>
       </c>
       <c r="AD43">
-        <v>8.5</v>
+        <v>20.5</v>
       </c>
       <c r="AE43">
-        <v>1.28</v>
+        <v>1.14</v>
       </c>
       <c r="AF43">
-        <v>3.2</v>
+        <v>4.65</v>
       </c>
       <c r="AG43">
-        <v>1.91</v>
+        <v>1.56</v>
       </c>
       <c r="AH43">
-        <v>1.91</v>
+        <v>2.29</v>
       </c>
       <c r="AI43">
-        <v>1.76</v>
+        <v>2</v>
       </c>
       <c r="AJ43">
-        <v>1.95</v>
+        <v>1.72</v>
       </c>
       <c r="AK43">
-        <v>1.27</v>
+        <v>1.07</v>
       </c>
       <c r="AL43">
-        <v>1.3</v>
+        <v>1.14</v>
       </c>
       <c r="AM43">
-        <v>1.75</v>
+        <v>3.7</v>
       </c>
       <c r="AN43">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO43">
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>0.75</v>
+        <v>2.33</v>
       </c>
       <c r="AQ43">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR43">
-        <v>1.41</v>
+        <v>2.07</v>
       </c>
       <c r="AS43">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="AT43">
-        <v>3.11</v>
+        <v>3.27</v>
       </c>
       <c r="AU43">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AV43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY43">
+        <v>13</v>
+      </c>
+      <c r="AZ43">
+        <v>7</v>
+      </c>
+      <c r="BA43">
         <v>9</v>
       </c>
-      <c r="AZ43">
-        <v>10</v>
-      </c>
-      <c r="BA43">
-        <v>7</v>
-      </c>
       <c r="BB43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC43">
+        <v>12</v>
+      </c>
+      <c r="BD43">
+        <v>1.19</v>
+      </c>
+      <c r="BE43">
         <v>11</v>
       </c>
-      <c r="BD43">
-        <v>1.69</v>
-      </c>
-      <c r="BE43">
-        <v>8.5</v>
-      </c>
       <c r="BF43">
-        <v>2.62</v>
+        <v>5.67</v>
       </c>
       <c r="BG43">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="BH43">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="BI43">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="BJ43">
-        <v>3.04</v>
+        <v>3.18</v>
       </c>
       <c r="BK43">
-        <v>1.7</v>
+        <v>1.51</v>
       </c>
       <c r="BL43">
-        <v>2.05</v>
+        <v>2.32</v>
       </c>
       <c r="BM43">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="BN43">
         <v>1.77</v>
       </c>
       <c r="BO43">
-        <v>2.48</v>
+        <v>2.38</v>
       </c>
       <c r="BP43">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="44" spans="1:68">
@@ -9918,7 +9918,7 @@
         <v>6</v>
       </c>
       <c r="G45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H45" t="s">
         <v>81</v>
@@ -10333,7 +10333,7 @@
         <v>75</v>
       </c>
       <c r="H47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>7468129</v>
+        <v>7468134</v>
       </c>
       <c r="C51" t="s">
         <v>68</v>
@@ -11154,88 +11154,88 @@
         <v>7</v>
       </c>
       <c r="G51" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H51" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51" t="s">
+        <v>88</v>
+      </c>
+      <c r="P51" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q51">
+        <v>2.63</v>
+      </c>
+      <c r="R51">
+        <v>2.25</v>
+      </c>
+      <c r="S51">
         <v>4</v>
       </c>
-      <c r="O51" t="s">
-        <v>122</v>
-      </c>
-      <c r="P51" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q51">
-        <v>3</v>
-      </c>
-      <c r="R51">
-        <v>2.2</v>
-      </c>
-      <c r="S51">
+      <c r="T51">
+        <v>1.33</v>
+      </c>
+      <c r="U51">
+        <v>3.25</v>
+      </c>
+      <c r="V51">
+        <v>2.63</v>
+      </c>
+      <c r="W51">
+        <v>1.44</v>
+      </c>
+      <c r="X51">
+        <v>6.5</v>
+      </c>
+      <c r="Y51">
+        <v>1.11</v>
+      </c>
+      <c r="Z51">
+        <v>1.98</v>
+      </c>
+      <c r="AA51">
         <v>3.5</v>
       </c>
-      <c r="T51">
-        <v>1.36</v>
-      </c>
-      <c r="U51">
-        <v>3</v>
-      </c>
-      <c r="V51">
-        <v>2.75</v>
-      </c>
-      <c r="W51">
-        <v>1.4</v>
-      </c>
-      <c r="X51">
-        <v>7</v>
-      </c>
-      <c r="Y51">
-        <v>1.1</v>
-      </c>
-      <c r="Z51">
-        <v>2.5</v>
-      </c>
-      <c r="AA51">
-        <v>3.3</v>
-      </c>
       <c r="AB51">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="AC51">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD51">
-        <v>10</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AE51">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="AF51">
-        <v>4</v>
+        <v>3.48</v>
       </c>
       <c r="AG51">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AH51">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="AI51">
         <v>1.67</v>
@@ -11244,100 +11244,100 @@
         <v>2.1</v>
       </c>
       <c r="AK51">
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
       <c r="AL51">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="AM51">
-        <v>1.52</v>
+        <v>1.82</v>
       </c>
       <c r="AN51">
-        <v>3</v>
+        <v>0.33</v>
       </c>
       <c r="AO51">
+        <v>0</v>
+      </c>
+      <c r="AP51">
+        <v>0.5</v>
+      </c>
+      <c r="AQ51">
         <v>0.33</v>
       </c>
-      <c r="AP51">
-        <v>2.33</v>
-      </c>
-      <c r="AQ51">
-        <v>0.5</v>
-      </c>
       <c r="AR51">
-        <v>1.61</v>
+        <v>1.76</v>
       </c>
       <c r="AS51">
-        <v>1.34</v>
+        <v>0.97</v>
       </c>
       <c r="AT51">
-        <v>2.95</v>
+        <v>2.73</v>
       </c>
       <c r="AU51">
         <v>7</v>
       </c>
       <c r="AV51">
+        <v>2</v>
+      </c>
+      <c r="AW51">
+        <v>9</v>
+      </c>
+      <c r="AX51">
+        <v>2</v>
+      </c>
+      <c r="AY51">
+        <v>16</v>
+      </c>
+      <c r="AZ51">
+        <v>4</v>
+      </c>
+      <c r="BA51">
         <v>8</v>
       </c>
-      <c r="AW51">
+      <c r="BB51">
+        <v>6</v>
+      </c>
+      <c r="BC51">
+        <v>14</v>
+      </c>
+      <c r="BD51">
+        <v>1.82</v>
+      </c>
+      <c r="BE51">
         <v>8</v>
       </c>
-      <c r="AX51">
-        <v>5</v>
-      </c>
-      <c r="AY51">
-        <v>15</v>
-      </c>
-      <c r="AZ51">
-        <v>13</v>
-      </c>
-      <c r="BA51">
-        <v>6</v>
-      </c>
-      <c r="BB51">
-        <v>5</v>
-      </c>
-      <c r="BC51">
-        <v>11</v>
-      </c>
-      <c r="BD51">
-        <v>2.05</v>
-      </c>
-      <c r="BE51">
-        <v>8.5</v>
-      </c>
       <c r="BF51">
-        <v>2</v>
+        <v>2.39</v>
       </c>
       <c r="BG51">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="BH51">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="BI51">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="BJ51">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="BK51">
-        <v>1.35</v>
+        <v>1.63</v>
       </c>
       <c r="BL51">
-        <v>2.84</v>
+        <v>2.2</v>
       </c>
       <c r="BM51">
-        <v>1.77</v>
+        <v>2.02</v>
       </c>
       <c r="BN51">
-        <v>1.95</v>
+        <v>1.74</v>
       </c>
       <c r="BO51">
-        <v>2.04</v>
+        <v>2.55</v>
       </c>
       <c r="BP51">
-        <v>1.76</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="52" spans="1:68">
@@ -11345,7 +11345,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>7468134</v>
+        <v>7468129</v>
       </c>
       <c r="C52" t="s">
         <v>68</v>
@@ -11360,88 +11360,88 @@
         <v>7</v>
       </c>
       <c r="G52" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H52" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O52" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="Q52">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="R52">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S52">
+        <v>3.5</v>
+      </c>
+      <c r="T52">
+        <v>1.36</v>
+      </c>
+      <c r="U52">
+        <v>3</v>
+      </c>
+      <c r="V52">
+        <v>2.75</v>
+      </c>
+      <c r="W52">
+        <v>1.4</v>
+      </c>
+      <c r="X52">
+        <v>7</v>
+      </c>
+      <c r="Y52">
+        <v>1.1</v>
+      </c>
+      <c r="Z52">
+        <v>2.5</v>
+      </c>
+      <c r="AA52">
+        <v>3.3</v>
+      </c>
+      <c r="AB52">
+        <v>2.7</v>
+      </c>
+      <c r="AC52">
+        <v>1.02</v>
+      </c>
+      <c r="AD52">
+        <v>10</v>
+      </c>
+      <c r="AE52">
+        <v>1.2</v>
+      </c>
+      <c r="AF52">
         <v>4</v>
       </c>
-      <c r="T52">
-        <v>1.33</v>
-      </c>
-      <c r="U52">
-        <v>3.25</v>
-      </c>
-      <c r="V52">
-        <v>2.63</v>
-      </c>
-      <c r="W52">
-        <v>1.44</v>
-      </c>
-      <c r="X52">
-        <v>6.5</v>
-      </c>
-      <c r="Y52">
-        <v>1.11</v>
-      </c>
-      <c r="Z52">
-        <v>1.98</v>
-      </c>
-      <c r="AA52">
-        <v>3.5</v>
-      </c>
-      <c r="AB52">
-        <v>3.5</v>
-      </c>
-      <c r="AC52">
-        <v>1.01</v>
-      </c>
-      <c r="AD52">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AE52">
-        <v>1.24</v>
-      </c>
-      <c r="AF52">
-        <v>3.48</v>
-      </c>
       <c r="AG52">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="AH52">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="AI52">
         <v>1.67</v>
@@ -11450,100 +11450,100 @@
         <v>2.1</v>
       </c>
       <c r="AK52">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AL52">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="AM52">
-        <v>1.82</v>
+        <v>1.52</v>
       </c>
       <c r="AN52">
+        <v>3</v>
+      </c>
+      <c r="AO52">
         <v>0.33</v>
       </c>
-      <c r="AO52">
-        <v>0</v>
-      </c>
       <c r="AP52">
+        <v>2.33</v>
+      </c>
+      <c r="AQ52">
         <v>0.5</v>
       </c>
-      <c r="AQ52">
-        <v>0.33</v>
-      </c>
       <c r="AR52">
-        <v>1.76</v>
+        <v>1.61</v>
       </c>
       <c r="AS52">
-        <v>0.97</v>
+        <v>1.34</v>
       </c>
       <c r="AT52">
-        <v>2.73</v>
+        <v>2.95</v>
       </c>
       <c r="AU52">
         <v>7</v>
       </c>
       <c r="AV52">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AW52">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX52">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY52">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ52">
+        <v>13</v>
+      </c>
+      <c r="BA52">
+        <v>6</v>
+      </c>
+      <c r="BB52">
+        <v>5</v>
+      </c>
+      <c r="BC52">
+        <v>11</v>
+      </c>
+      <c r="BD52">
+        <v>2.05</v>
+      </c>
+      <c r="BE52">
+        <v>8.5</v>
+      </c>
+      <c r="BF52">
+        <v>2</v>
+      </c>
+      <c r="BG52">
+        <v>1.11</v>
+      </c>
+      <c r="BH52">
+        <v>6</v>
+      </c>
+      <c r="BI52">
+        <v>1.22</v>
+      </c>
+      <c r="BJ52">
         <v>4</v>
       </c>
-      <c r="BA52">
-        <v>8</v>
-      </c>
-      <c r="BB52">
-        <v>6</v>
-      </c>
-      <c r="BC52">
-        <v>14</v>
-      </c>
-      <c r="BD52">
-        <v>1.82</v>
-      </c>
-      <c r="BE52">
-        <v>8</v>
-      </c>
-      <c r="BF52">
-        <v>2.39</v>
-      </c>
-      <c r="BG52">
-        <v>1.2</v>
-      </c>
-      <c r="BH52">
-        <v>4.2</v>
-      </c>
-      <c r="BI52">
-        <v>1.38</v>
-      </c>
-      <c r="BJ52">
-        <v>2.9</v>
-      </c>
       <c r="BK52">
-        <v>1.63</v>
+        <v>1.35</v>
       </c>
       <c r="BL52">
-        <v>2.2</v>
+        <v>2.84</v>
       </c>
       <c r="BM52">
-        <v>2.02</v>
+        <v>1.77</v>
       </c>
       <c r="BN52">
-        <v>1.74</v>
+        <v>1.95</v>
       </c>
       <c r="BO52">
-        <v>2.55</v>
+        <v>2.04</v>
       </c>
       <c r="BP52">
-        <v>1.47</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="53" spans="1:68">
@@ -11775,7 +11775,7 @@
         <v>78</v>
       </c>
       <c r="H54" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I54">
         <v>1</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="154">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -391,6 +391,9 @@
     <t>['20']</t>
   </si>
   <si>
+    <t>['42', '55']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -467,6 +470,12 @@
   </si>
   <si>
     <t>['75']</t>
+  </si>
+  <si>
+    <t>['89']</t>
+  </si>
+  <si>
+    <t>['23', '42']</t>
   </si>
 </sst>
 </file>
@@ -828,7 +837,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP55"/>
+  <dimension ref="A1:BP57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1087,7 +1096,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q2">
         <v>1.53</v>
@@ -1499,7 +1508,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -1580,7 +1589,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ4">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1705,7 +1714,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -1911,7 +1920,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2117,7 +2126,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2404,7 +2413,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ8">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2941,7 +2950,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3147,7 +3156,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q12">
         <v>2.85</v>
@@ -3559,7 +3568,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -3640,7 +3649,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ14">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4049,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
         <v>1.33</v>
@@ -4383,7 +4392,7 @@
         <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q18">
         <v>5.4</v>
@@ -4464,7 +4473,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR18">
         <v>1.26</v>
@@ -5413,7 +5422,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q23">
         <v>2.6</v>
@@ -5619,7 +5628,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5825,7 +5834,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q25">
         <v>1.06</v>
@@ -6031,7 +6040,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q26">
         <v>6.23</v>
@@ -6237,7 +6246,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6524,7 +6533,7 @@
         <v>3</v>
       </c>
       <c r="AQ28">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>2.4</v>
@@ -6933,7 +6942,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ30">
         <v>0</v>
@@ -7679,7 +7688,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q34">
         <v>1.45</v>
@@ -7885,7 +7894,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q35">
         <v>2.84</v>
@@ -8091,7 +8100,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q36">
         <v>5.63</v>
@@ -8297,7 +8306,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q37">
         <v>2.58</v>
@@ -8709,7 +8718,7 @@
         <v>88</v>
       </c>
       <c r="P39" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q39">
         <v>4.75</v>
@@ -9121,7 +9130,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9327,7 +9336,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q42">
         <v>2.61</v>
@@ -9533,7 +9542,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q43">
         <v>1.69</v>
@@ -10975,7 +10984,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q50">
         <v>5.1</v>
@@ -11387,7 +11396,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11799,7 +11808,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12005,7 +12014,7 @@
         <v>93</v>
       </c>
       <c r="P55" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q55">
         <v>3.85</v>
@@ -12162,6 +12171,418 @@
       </c>
       <c r="BP55">
         <v>1.58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7468123</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45552.5</v>
+      </c>
+      <c r="F56">
+        <v>6</v>
+      </c>
+      <c r="G56" t="s">
+        <v>84</v>
+      </c>
+      <c r="H56" t="s">
+        <v>85</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>2</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>3</v>
+      </c>
+      <c r="O56" t="s">
+        <v>125</v>
+      </c>
+      <c r="P56" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q56">
+        <v>1.85</v>
+      </c>
+      <c r="R56">
+        <v>2.64</v>
+      </c>
+      <c r="S56">
+        <v>6.79</v>
+      </c>
+      <c r="T56">
+        <v>1.28</v>
+      </c>
+      <c r="U56">
+        <v>3.4</v>
+      </c>
+      <c r="V56">
+        <v>2.42</v>
+      </c>
+      <c r="W56">
+        <v>1.56</v>
+      </c>
+      <c r="X56">
+        <v>5</v>
+      </c>
+      <c r="Y56">
+        <v>1.13</v>
+      </c>
+      <c r="Z56">
+        <v>1.4</v>
+      </c>
+      <c r="AA56">
+        <v>4.5</v>
+      </c>
+      <c r="AB56">
+        <v>6.5</v>
+      </c>
+      <c r="AC56">
+        <v>1.03</v>
+      </c>
+      <c r="AD56">
+        <v>18</v>
+      </c>
+      <c r="AE56">
+        <v>1.2</v>
+      </c>
+      <c r="AF56">
+        <v>4.65</v>
+      </c>
+      <c r="AG56">
+        <v>1.58</v>
+      </c>
+      <c r="AH56">
+        <v>2.2</v>
+      </c>
+      <c r="AI56">
+        <v>1.8</v>
+      </c>
+      <c r="AJ56">
+        <v>1.9</v>
+      </c>
+      <c r="AK56">
+        <v>1.13</v>
+      </c>
+      <c r="AL56">
+        <v>1.19</v>
+      </c>
+      <c r="AM56">
+        <v>2.75</v>
+      </c>
+      <c r="AN56">
+        <v>3</v>
+      </c>
+      <c r="AO56">
+        <v>1.33</v>
+      </c>
+      <c r="AP56">
+        <v>3</v>
+      </c>
+      <c r="AQ56">
+        <v>1</v>
+      </c>
+      <c r="AR56">
+        <v>1.85</v>
+      </c>
+      <c r="AS56">
+        <v>1.22</v>
+      </c>
+      <c r="AT56">
+        <v>3.07</v>
+      </c>
+      <c r="AU56">
+        <v>7</v>
+      </c>
+      <c r="AV56">
+        <v>6</v>
+      </c>
+      <c r="AW56">
+        <v>8</v>
+      </c>
+      <c r="AX56">
+        <v>5</v>
+      </c>
+      <c r="AY56">
+        <v>15</v>
+      </c>
+      <c r="AZ56">
+        <v>11</v>
+      </c>
+      <c r="BA56">
+        <v>6</v>
+      </c>
+      <c r="BB56">
+        <v>6</v>
+      </c>
+      <c r="BC56">
+        <v>12</v>
+      </c>
+      <c r="BD56">
+        <v>1.16</v>
+      </c>
+      <c r="BE56">
+        <v>10.25</v>
+      </c>
+      <c r="BF56">
+        <v>6.85</v>
+      </c>
+      <c r="BG56">
+        <v>1.11</v>
+      </c>
+      <c r="BH56">
+        <v>5.9</v>
+      </c>
+      <c r="BI56">
+        <v>1.23</v>
+      </c>
+      <c r="BJ56">
+        <v>3.9</v>
+      </c>
+      <c r="BK56">
+        <v>1.36</v>
+      </c>
+      <c r="BL56">
+        <v>2.79</v>
+      </c>
+      <c r="BM56">
+        <v>1.67</v>
+      </c>
+      <c r="BN56">
+        <v>2.19</v>
+      </c>
+      <c r="BO56">
+        <v>2.06</v>
+      </c>
+      <c r="BP56">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7468121</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45552.60416666666</v>
+      </c>
+      <c r="F57">
+        <v>6</v>
+      </c>
+      <c r="G57" t="s">
+        <v>83</v>
+      </c>
+      <c r="H57" t="s">
+        <v>80</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>2</v>
+      </c>
+      <c r="K57">
+        <v>2</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>2</v>
+      </c>
+      <c r="N57">
+        <v>2</v>
+      </c>
+      <c r="O57" t="s">
+        <v>88</v>
+      </c>
+      <c r="P57" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q57">
+        <v>5.88</v>
+      </c>
+      <c r="R57">
+        <v>2.56</v>
+      </c>
+      <c r="S57">
+        <v>1.98</v>
+      </c>
+      <c r="T57">
+        <v>1.3</v>
+      </c>
+      <c r="U57">
+        <v>3.3</v>
+      </c>
+      <c r="V57">
+        <v>2.43</v>
+      </c>
+      <c r="W57">
+        <v>1.55</v>
+      </c>
+      <c r="X57">
+        <v>5</v>
+      </c>
+      <c r="Y57">
+        <v>1.13</v>
+      </c>
+      <c r="Z57">
+        <v>5.25</v>
+      </c>
+      <c r="AA57">
+        <v>4.33</v>
+      </c>
+      <c r="AB57">
+        <v>1.48</v>
+      </c>
+      <c r="AC57">
+        <v>1.03</v>
+      </c>
+      <c r="AD57">
+        <v>17.75</v>
+      </c>
+      <c r="AE57">
+        <v>1.2</v>
+      </c>
+      <c r="AF57">
+        <v>4.63</v>
+      </c>
+      <c r="AG57">
+        <v>1.6</v>
+      </c>
+      <c r="AH57">
+        <v>2.2</v>
+      </c>
+      <c r="AI57">
+        <v>1.75</v>
+      </c>
+      <c r="AJ57">
+        <v>1.95</v>
+      </c>
+      <c r="AK57">
+        <v>2.6</v>
+      </c>
+      <c r="AL57">
+        <v>1.2</v>
+      </c>
+      <c r="AM57">
+        <v>1.14</v>
+      </c>
+      <c r="AN57">
+        <v>3</v>
+      </c>
+      <c r="AO57">
+        <v>2</v>
+      </c>
+      <c r="AP57">
+        <v>2</v>
+      </c>
+      <c r="AQ57">
+        <v>2.33</v>
+      </c>
+      <c r="AR57">
+        <v>1.7</v>
+      </c>
+      <c r="AS57">
+        <v>1.36</v>
+      </c>
+      <c r="AT57">
+        <v>3.06</v>
+      </c>
+      <c r="AU57">
+        <v>4</v>
+      </c>
+      <c r="AV57">
+        <v>6</v>
+      </c>
+      <c r="AW57">
+        <v>1</v>
+      </c>
+      <c r="AX57">
+        <v>7</v>
+      </c>
+      <c r="AY57">
+        <v>5</v>
+      </c>
+      <c r="AZ57">
+        <v>13</v>
+      </c>
+      <c r="BA57">
+        <v>4</v>
+      </c>
+      <c r="BB57">
+        <v>6</v>
+      </c>
+      <c r="BC57">
+        <v>10</v>
+      </c>
+      <c r="BD57">
+        <v>5.15</v>
+      </c>
+      <c r="BE57">
+        <v>8.5</v>
+      </c>
+      <c r="BF57">
+        <v>1.26</v>
+      </c>
+      <c r="BG57">
+        <v>1.16</v>
+      </c>
+      <c r="BH57">
+        <v>4.8</v>
+      </c>
+      <c r="BI57">
+        <v>1.27</v>
+      </c>
+      <c r="BJ57">
+        <v>3.28</v>
+      </c>
+      <c r="BK57">
+        <v>1.55</v>
+      </c>
+      <c r="BL57">
+        <v>2.37</v>
+      </c>
+      <c r="BM57">
+        <v>1.9</v>
+      </c>
+      <c r="BN57">
+        <v>1.9</v>
+      </c>
+      <c r="BO57">
+        <v>2.34</v>
+      </c>
+      <c r="BP57">
+        <v>1.56</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="155">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -250,24 +250,24 @@
     <t>Hradec Králové</t>
   </si>
   <si>
+    <t>Pardubice</t>
+  </si>
+  <si>
     <t>Teplice</t>
   </si>
   <si>
-    <t>Pardubice</t>
-  </si>
-  <si>
     <t>Slavia Praha</t>
   </si>
   <si>
     <t>Slovan Liberec</t>
   </si>
   <si>
+    <t>Mladá Boleslav</t>
+  </si>
+  <si>
     <t>Baník Ostrava</t>
   </si>
   <si>
-    <t>Mladá Boleslav</t>
-  </si>
-  <si>
     <t>Viktoria Plzeň</t>
   </si>
   <si>
@@ -307,12 +307,12 @@
     <t>['37']</t>
   </si>
   <si>
+    <t>['10', '45+1', '46']</t>
+  </si>
+  <si>
     <t>['53']</t>
   </si>
   <si>
-    <t>['10', '45+1', '46']</t>
-  </si>
-  <si>
     <t>['56']</t>
   </si>
   <si>
@@ -328,12 +328,12 @@
     <t>['7', '51']</t>
   </si>
   <si>
+    <t>['17', '90+4']</t>
+  </si>
+  <si>
     <t>['40']</t>
   </si>
   <si>
-    <t>['17', '90+4']</t>
-  </si>
-  <si>
     <t>['7', '88']</t>
   </si>
   <si>
@@ -394,6 +394,9 @@
     <t>['42', '55']</t>
   </si>
   <si>
+    <t>['34', '67', '89']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -409,12 +412,12 @@
     <t>['26', '34', '87']</t>
   </si>
   <si>
+    <t>['15']</t>
+  </si>
+  <si>
     <t>['47', '61', '90+1', '90+5']</t>
   </si>
   <si>
-    <t>['15']</t>
-  </si>
-  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -430,10 +433,10 @@
     <t>['45', '89']</t>
   </si>
   <si>
+    <t>['46']</t>
+  </si>
+  <si>
     <t>['45+4', '62']</t>
-  </si>
-  <si>
-    <t>['46']</t>
   </si>
   <si>
     <t>['57']</t>
@@ -837,7 +840,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP57"/>
+  <dimension ref="A1:BP58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1072,7 +1075,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1096,7 +1099,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q2">
         <v>1.53</v>
@@ -1278,7 +1281,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1508,7 +1511,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -1690,7 +1693,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1714,7 +1717,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -1920,7 +1923,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2126,7 +2129,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2514,7 +2517,7 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2616,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ9">
         <v>0</v>
@@ -2908,7 +2911,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>7468090</v>
+        <v>7468092</v>
       </c>
       <c r="C11" t="s">
         <v>68</v>
@@ -2926,187 +2929,187 @@
         <v>78</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>88</v>
+      </c>
+      <c r="P11" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q11">
+        <v>2.85</v>
+      </c>
+      <c r="R11">
+        <v>2.24</v>
+      </c>
+      <c r="S11">
+        <v>3.78</v>
+      </c>
+      <c r="T11">
+        <v>1.37</v>
+      </c>
+      <c r="U11">
+        <v>3.05</v>
+      </c>
+      <c r="V11">
+        <v>2.87</v>
+      </c>
+      <c r="W11">
+        <v>1.41</v>
+      </c>
+      <c r="X11">
+        <v>6.5</v>
+      </c>
+      <c r="Y11">
+        <v>1.08</v>
+      </c>
+      <c r="Z11">
+        <v>2.2</v>
+      </c>
+      <c r="AA11">
+        <v>3.4</v>
+      </c>
+      <c r="AB11">
+        <v>3</v>
+      </c>
+      <c r="AC11">
+        <v>1.06</v>
+      </c>
+      <c r="AD11">
+        <v>11.25</v>
+      </c>
+      <c r="AE11">
+        <v>1.31</v>
+      </c>
+      <c r="AF11">
+        <v>3.52</v>
+      </c>
+      <c r="AG11">
+        <v>1.9</v>
+      </c>
+      <c r="AH11">
+        <v>1.95</v>
+      </c>
+      <c r="AI11">
+        <v>1.72</v>
+      </c>
+      <c r="AJ11">
+        <v>2</v>
+      </c>
+      <c r="AK11">
+        <v>1.38</v>
+      </c>
+      <c r="AL11">
+        <v>1.32</v>
+      </c>
+      <c r="AM11">
+        <v>1.62</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>1</v>
+      </c>
+      <c r="AQ11">
+        <v>2</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>3</v>
+      </c>
+      <c r="AV11">
+        <v>10</v>
+      </c>
+      <c r="AW11">
+        <v>5</v>
+      </c>
+      <c r="AX11">
+        <v>9</v>
+      </c>
+      <c r="AY11">
+        <v>8</v>
+      </c>
+      <c r="AZ11">
+        <v>19</v>
+      </c>
+      <c r="BA11">
         <v>4</v>
       </c>
-      <c r="N11">
-        <v>5</v>
-      </c>
-      <c r="O11" t="s">
-        <v>94</v>
-      </c>
-      <c r="P11" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q11">
-        <v>6.5</v>
-      </c>
-      <c r="R11">
-        <v>2.5</v>
-      </c>
-      <c r="S11">
-        <v>1.91</v>
-      </c>
-      <c r="T11">
-        <v>1.3</v>
-      </c>
-      <c r="U11">
-        <v>3.4</v>
-      </c>
-      <c r="V11">
+      <c r="BB11">
+        <v>3</v>
+      </c>
+      <c r="BC11">
+        <v>7</v>
+      </c>
+      <c r="BD11">
+        <v>1.95</v>
+      </c>
+      <c r="BE11">
+        <v>8.5</v>
+      </c>
+      <c r="BF11">
+        <v>2.1</v>
+      </c>
+      <c r="BG11">
+        <v>1.18</v>
+      </c>
+      <c r="BH11">
+        <v>4.33</v>
+      </c>
+      <c r="BI11">
+        <v>1.28</v>
+      </c>
+      <c r="BJ11">
+        <v>3.2</v>
+      </c>
+      <c r="BK11">
+        <v>1.51</v>
+      </c>
+      <c r="BL11">
+        <v>2.32</v>
+      </c>
+      <c r="BM11">
+        <v>1.85</v>
+      </c>
+      <c r="BN11">
+        <v>1.85</v>
+      </c>
+      <c r="BO11">
         <v>2.38</v>
       </c>
-      <c r="W11">
-        <v>1.53</v>
-      </c>
-      <c r="X11">
-        <v>6</v>
-      </c>
-      <c r="Y11">
-        <v>1.13</v>
-      </c>
-      <c r="Z11">
-        <v>6</v>
-      </c>
-      <c r="AA11">
-        <v>4.5</v>
-      </c>
-      <c r="AB11">
-        <v>1.47</v>
-      </c>
-      <c r="AC11">
-        <v>1.03</v>
-      </c>
-      <c r="AD11">
-        <v>17</v>
-      </c>
-      <c r="AE11">
-        <v>1.21</v>
-      </c>
-      <c r="AF11">
-        <v>4.43</v>
-      </c>
-      <c r="AG11">
-        <v>1.61</v>
-      </c>
-      <c r="AH11">
-        <v>2.15</v>
-      </c>
-      <c r="AI11">
-        <v>1.91</v>
-      </c>
-      <c r="AJ11">
-        <v>1.91</v>
-      </c>
-      <c r="AK11">
-        <v>2.75</v>
-      </c>
-      <c r="AL11">
-        <v>1.19</v>
-      </c>
-      <c r="AM11">
-        <v>1.13</v>
-      </c>
-      <c r="AN11">
-        <v>0</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <v>0.75</v>
-      </c>
-      <c r="AQ11">
-        <v>3</v>
-      </c>
-      <c r="AR11">
-        <v>0</v>
-      </c>
-      <c r="AS11">
-        <v>0</v>
-      </c>
-      <c r="AT11">
-        <v>0</v>
-      </c>
-      <c r="AU11">
-        <v>4</v>
-      </c>
-      <c r="AV11">
-        <v>8</v>
-      </c>
-      <c r="AW11">
-        <v>3</v>
-      </c>
-      <c r="AX11">
-        <v>8</v>
-      </c>
-      <c r="AY11">
-        <v>7</v>
-      </c>
-      <c r="AZ11">
-        <v>16</v>
-      </c>
-      <c r="BA11">
-        <v>5</v>
-      </c>
-      <c r="BB11">
-        <v>4</v>
-      </c>
-      <c r="BC11">
-        <v>9</v>
-      </c>
-      <c r="BD11">
-        <v>3.69</v>
-      </c>
-      <c r="BE11">
-        <v>9.5</v>
-      </c>
-      <c r="BF11">
-        <v>1.37</v>
-      </c>
-      <c r="BG11">
-        <v>1.25</v>
-      </c>
-      <c r="BH11">
-        <v>3.6</v>
-      </c>
-      <c r="BI11">
-        <v>1.34</v>
-      </c>
-      <c r="BJ11">
-        <v>2.88</v>
-      </c>
-      <c r="BK11">
-        <v>1.61</v>
-      </c>
-      <c r="BL11">
-        <v>2.12</v>
-      </c>
-      <c r="BM11">
-        <v>1.91</v>
-      </c>
-      <c r="BN11">
-        <v>1.8</v>
-      </c>
-      <c r="BO11">
-        <v>2.64</v>
-      </c>
       <c r="BP11">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="12" spans="1:68">
@@ -3114,7 +3117,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>7468092</v>
+        <v>7468090</v>
       </c>
       <c r="C12" t="s">
         <v>68</v>
@@ -3132,187 +3135,187 @@
         <v>79</v>
       </c>
       <c r="H12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O12" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q12">
-        <v>2.85</v>
+        <v>6.5</v>
       </c>
       <c r="R12">
-        <v>2.24</v>
+        <v>2.5</v>
       </c>
       <c r="S12">
-        <v>3.78</v>
+        <v>1.91</v>
       </c>
       <c r="T12">
+        <v>1.3</v>
+      </c>
+      <c r="U12">
+        <v>3.4</v>
+      </c>
+      <c r="V12">
+        <v>2.38</v>
+      </c>
+      <c r="W12">
+        <v>1.53</v>
+      </c>
+      <c r="X12">
+        <v>6</v>
+      </c>
+      <c r="Y12">
+        <v>1.13</v>
+      </c>
+      <c r="Z12">
+        <v>6</v>
+      </c>
+      <c r="AA12">
+        <v>4.5</v>
+      </c>
+      <c r="AB12">
+        <v>1.47</v>
+      </c>
+      <c r="AC12">
+        <v>1.03</v>
+      </c>
+      <c r="AD12">
+        <v>17</v>
+      </c>
+      <c r="AE12">
+        <v>1.21</v>
+      </c>
+      <c r="AF12">
+        <v>4.43</v>
+      </c>
+      <c r="AG12">
+        <v>1.61</v>
+      </c>
+      <c r="AH12">
+        <v>2.15</v>
+      </c>
+      <c r="AI12">
+        <v>1.91</v>
+      </c>
+      <c r="AJ12">
+        <v>1.91</v>
+      </c>
+      <c r="AK12">
+        <v>2.75</v>
+      </c>
+      <c r="AL12">
+        <v>1.19</v>
+      </c>
+      <c r="AM12">
+        <v>1.13</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0.75</v>
+      </c>
+      <c r="AQ12">
+        <v>3</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>4</v>
+      </c>
+      <c r="AV12">
+        <v>8</v>
+      </c>
+      <c r="AW12">
+        <v>3</v>
+      </c>
+      <c r="AX12">
+        <v>8</v>
+      </c>
+      <c r="AY12">
+        <v>7</v>
+      </c>
+      <c r="AZ12">
+        <v>16</v>
+      </c>
+      <c r="BA12">
+        <v>5</v>
+      </c>
+      <c r="BB12">
+        <v>4</v>
+      </c>
+      <c r="BC12">
+        <v>9</v>
+      </c>
+      <c r="BD12">
+        <v>3.69</v>
+      </c>
+      <c r="BE12">
+        <v>9.5</v>
+      </c>
+      <c r="BF12">
         <v>1.37</v>
       </c>
-      <c r="U12">
-        <v>3.05</v>
-      </c>
-      <c r="V12">
-        <v>2.87</v>
-      </c>
-      <c r="W12">
-        <v>1.41</v>
-      </c>
-      <c r="X12">
-        <v>6.5</v>
-      </c>
-      <c r="Y12">
-        <v>1.08</v>
-      </c>
-      <c r="Z12">
-        <v>2.2</v>
-      </c>
-      <c r="AA12">
-        <v>3.4</v>
-      </c>
-      <c r="AB12">
-        <v>3</v>
-      </c>
-      <c r="AC12">
-        <v>1.06</v>
-      </c>
-      <c r="AD12">
-        <v>11.25</v>
-      </c>
-      <c r="AE12">
-        <v>1.31</v>
-      </c>
-      <c r="AF12">
-        <v>3.52</v>
-      </c>
-      <c r="AG12">
-        <v>1.9</v>
-      </c>
-      <c r="AH12">
-        <v>1.95</v>
-      </c>
-      <c r="AI12">
-        <v>1.72</v>
-      </c>
-      <c r="AJ12">
-        <v>2</v>
-      </c>
-      <c r="AK12">
-        <v>1.38</v>
-      </c>
-      <c r="AL12">
-        <v>1.32</v>
-      </c>
-      <c r="AM12">
-        <v>1.62</v>
-      </c>
-      <c r="AN12">
-        <v>0</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>1</v>
-      </c>
-      <c r="AQ12">
-        <v>2</v>
-      </c>
-      <c r="AR12">
-        <v>0</v>
-      </c>
-      <c r="AS12">
-        <v>0</v>
-      </c>
-      <c r="AT12">
-        <v>0</v>
-      </c>
-      <c r="AU12">
-        <v>3</v>
-      </c>
-      <c r="AV12">
-        <v>10</v>
-      </c>
-      <c r="AW12">
-        <v>5</v>
-      </c>
-      <c r="AX12">
-        <v>9</v>
-      </c>
-      <c r="AY12">
-        <v>8</v>
-      </c>
-      <c r="AZ12">
-        <v>19</v>
-      </c>
-      <c r="BA12">
-        <v>4</v>
-      </c>
-      <c r="BB12">
-        <v>3</v>
-      </c>
-      <c r="BC12">
-        <v>7</v>
-      </c>
-      <c r="BD12">
-        <v>1.95</v>
-      </c>
-      <c r="BE12">
-        <v>8.5</v>
-      </c>
-      <c r="BF12">
-        <v>2.1</v>
-      </c>
       <c r="BG12">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="BH12">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="BI12">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="BJ12">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="BK12">
-        <v>1.51</v>
+        <v>1.61</v>
       </c>
       <c r="BL12">
-        <v>2.32</v>
+        <v>2.12</v>
       </c>
       <c r="BM12">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="BN12">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="BO12">
-        <v>2.38</v>
+        <v>2.64</v>
       </c>
       <c r="BP12">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="13" spans="1:68">
@@ -3568,7 +3571,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -3732,7 +3735,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>7468094</v>
+        <v>7468091</v>
       </c>
       <c r="C15" t="s">
         <v>68</v>
@@ -3750,25 +3753,25 @@
         <v>82</v>
       </c>
       <c r="H15" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O15" t="s">
         <v>97</v>
@@ -3777,73 +3780,73 @@
         <v>88</v>
       </c>
       <c r="Q15">
-        <v>2.21</v>
+        <v>2.48</v>
       </c>
       <c r="R15">
-        <v>2.35</v>
+        <v>2.26</v>
       </c>
       <c r="S15">
-        <v>4.4</v>
+        <v>3.86</v>
       </c>
       <c r="T15">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="U15">
+        <v>3.2</v>
+      </c>
+      <c r="V15">
+        <v>2.4</v>
+      </c>
+      <c r="W15">
+        <v>1.5</v>
+      </c>
+      <c r="X15">
+        <v>5.25</v>
+      </c>
+      <c r="Y15">
+        <v>1.12</v>
+      </c>
+      <c r="Z15">
+        <v>1.95</v>
+      </c>
+      <c r="AA15">
+        <v>3.6</v>
+      </c>
+      <c r="AB15">
         <v>3.4</v>
       </c>
-      <c r="V15">
-        <v>2.3</v>
-      </c>
-      <c r="W15">
-        <v>1.55</v>
-      </c>
-      <c r="X15">
-        <v>5</v>
-      </c>
-      <c r="Y15">
-        <v>1.14</v>
-      </c>
-      <c r="Z15">
-        <v>1.53</v>
-      </c>
-      <c r="AA15">
-        <v>4.2</v>
-      </c>
-      <c r="AB15">
-        <v>5.25</v>
-      </c>
       <c r="AC15">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AD15">
-        <v>17.75</v>
+        <v>15.5</v>
       </c>
       <c r="AE15">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="AF15">
-        <v>4.35</v>
+        <v>4.43</v>
       </c>
       <c r="AG15">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="AH15">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="AI15">
         <v>1.58</v>
       </c>
       <c r="AJ15">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AK15">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="AL15">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="AM15">
-        <v>2.05</v>
+        <v>1.78</v>
       </c>
       <c r="AN15">
         <v>0</v>
@@ -3852,10 +3855,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ15">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -3867,70 +3870,70 @@
         <v>0</v>
       </c>
       <c r="AU15">
+        <v>7</v>
+      </c>
+      <c r="AV15">
+        <v>4</v>
+      </c>
+      <c r="AW15">
+        <v>7</v>
+      </c>
+      <c r="AX15">
         <v>5</v>
       </c>
-      <c r="AV15">
-        <v>2</v>
-      </c>
-      <c r="AW15">
-        <v>3</v>
-      </c>
-      <c r="AX15">
-        <v>2</v>
-      </c>
       <c r="AY15">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AZ15">
+        <v>9</v>
+      </c>
+      <c r="BA15">
         <v>4</v>
       </c>
-      <c r="BA15">
-        <v>3</v>
-      </c>
       <c r="BB15">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BC15">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="BD15">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="BE15">
         <v>8.5</v>
       </c>
       <c r="BF15">
-        <v>2.81</v>
+        <v>2.78</v>
       </c>
       <c r="BG15">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="BH15">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="BI15">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="BJ15">
-        <v>3.34</v>
+        <v>3.2</v>
       </c>
       <c r="BK15">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="BL15">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="BM15">
+        <v>1.95</v>
+      </c>
+      <c r="BN15">
         <v>1.85</v>
       </c>
-      <c r="BN15">
-        <v>1.95</v>
-      </c>
       <c r="BO15">
-        <v>2.3</v>
+        <v>2.43</v>
       </c>
       <c r="BP15">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="16" spans="1:68">
@@ -3938,7 +3941,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>7468091</v>
+        <v>7468094</v>
       </c>
       <c r="C16" t="s">
         <v>68</v>
@@ -3956,25 +3959,25 @@
         <v>83</v>
       </c>
       <c r="H16" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O16" t="s">
         <v>98</v>
@@ -3983,73 +3986,73 @@
         <v>88</v>
       </c>
       <c r="Q16">
-        <v>2.48</v>
+        <v>2.21</v>
       </c>
       <c r="R16">
-        <v>2.26</v>
+        <v>2.35</v>
       </c>
       <c r="S16">
-        <v>3.86</v>
+        <v>4.4</v>
       </c>
       <c r="T16">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="U16">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="V16">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="W16">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="X16">
+        <v>5</v>
+      </c>
+      <c r="Y16">
+        <v>1.14</v>
+      </c>
+      <c r="Z16">
+        <v>1.53</v>
+      </c>
+      <c r="AA16">
+        <v>4.2</v>
+      </c>
+      <c r="AB16">
         <v>5.25</v>
       </c>
-      <c r="Y16">
-        <v>1.12</v>
-      </c>
-      <c r="Z16">
-        <v>1.95</v>
-      </c>
-      <c r="AA16">
-        <v>3.6</v>
-      </c>
-      <c r="AB16">
-        <v>3.4</v>
-      </c>
       <c r="AC16">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AD16">
-        <v>15.5</v>
+        <v>17.75</v>
       </c>
       <c r="AE16">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AF16">
-        <v>4.43</v>
+        <v>4.35</v>
       </c>
       <c r="AG16">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="AH16">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="AI16">
         <v>1.58</v>
       </c>
       <c r="AJ16">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AK16">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AL16">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AM16">
-        <v>1.78</v>
+        <v>2.05</v>
       </c>
       <c r="AN16">
         <v>0</v>
@@ -4058,10 +4061,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ16">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4073,70 +4076,70 @@
         <v>0</v>
       </c>
       <c r="AU16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV16">
+        <v>2</v>
+      </c>
+      <c r="AW16">
+        <v>3</v>
+      </c>
+      <c r="AX16">
+        <v>2</v>
+      </c>
+      <c r="AY16">
+        <v>8</v>
+      </c>
+      <c r="AZ16">
         <v>4</v>
       </c>
-      <c r="AW16">
-        <v>7</v>
-      </c>
-      <c r="AX16">
-        <v>5</v>
-      </c>
-      <c r="AY16">
-        <v>14</v>
-      </c>
-      <c r="AZ16">
-        <v>9</v>
-      </c>
       <c r="BA16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB16">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="BC16">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="BD16">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="BE16">
         <v>8.5</v>
       </c>
       <c r="BF16">
-        <v>2.78</v>
+        <v>2.81</v>
       </c>
       <c r="BG16">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="BH16">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="BI16">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="BJ16">
-        <v>3.2</v>
+        <v>3.34</v>
       </c>
       <c r="BK16">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="BL16">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="BM16">
+        <v>1.85</v>
+      </c>
+      <c r="BN16">
         <v>1.95</v>
       </c>
-      <c r="BN16">
-        <v>1.85</v>
-      </c>
       <c r="BO16">
-        <v>2.43</v>
+        <v>2.3</v>
       </c>
       <c r="BP16">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="17" spans="1:68">
@@ -4392,7 +4395,7 @@
         <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q18">
         <v>5.4</v>
@@ -5192,7 +5195,7 @@
         <v>85</v>
       </c>
       <c r="H22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -5398,7 +5401,7 @@
         <v>72</v>
       </c>
       <c r="H23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -5422,7 +5425,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q23">
         <v>2.6</v>
@@ -5604,7 +5607,7 @@
         <v>77</v>
       </c>
       <c r="H24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -5628,7 +5631,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5706,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ24">
         <v>0.75</v>
@@ -5834,7 +5837,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q25">
         <v>1.06</v>
@@ -5998,7 +6001,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>7468111</v>
+        <v>7468105</v>
       </c>
       <c r="C26" t="s">
         <v>68</v>
@@ -6013,25 +6016,25 @@
         <v>4</v>
       </c>
       <c r="G26" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N26">
         <v>3</v>
@@ -6040,163 +6043,163 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q26">
-        <v>6.23</v>
+        <v>3.2</v>
       </c>
       <c r="R26">
-        <v>2.58</v>
+        <v>2.05</v>
       </c>
       <c r="S26">
-        <v>1.93</v>
+        <v>3.25</v>
       </c>
       <c r="T26">
+        <v>1.41</v>
+      </c>
+      <c r="U26">
+        <v>2.7</v>
+      </c>
+      <c r="V26">
+        <v>2.85</v>
+      </c>
+      <c r="W26">
+        <v>1.37</v>
+      </c>
+      <c r="X26">
+        <v>6.95</v>
+      </c>
+      <c r="Y26">
+        <v>1.07</v>
+      </c>
+      <c r="Z26">
+        <v>2.63</v>
+      </c>
+      <c r="AA26">
+        <v>3.25</v>
+      </c>
+      <c r="AB26">
+        <v>2.65</v>
+      </c>
+      <c r="AC26">
+        <v>1.02</v>
+      </c>
+      <c r="AD26">
+        <v>8.9</v>
+      </c>
+      <c r="AE26">
         <v>1.3</v>
       </c>
-      <c r="U26">
-        <v>3.44</v>
-      </c>
-      <c r="V26">
-        <v>2.35</v>
-      </c>
-      <c r="W26">
-        <v>1.52</v>
-      </c>
-      <c r="X26">
-        <v>5</v>
-      </c>
-      <c r="Y26">
-        <v>1.13</v>
-      </c>
-      <c r="Z26">
-        <v>6.29</v>
-      </c>
-      <c r="AA26">
-        <v>4.55</v>
-      </c>
-      <c r="AB26">
-        <v>1.43</v>
-      </c>
-      <c r="AC26">
-        <v>1.03</v>
-      </c>
-      <c r="AD26">
-        <v>19.25</v>
-      </c>
-      <c r="AE26">
-        <v>1.2</v>
-      </c>
       <c r="AF26">
-        <v>4.67</v>
+        <v>3.3</v>
       </c>
       <c r="AG26">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="AH26">
-        <v>2.2</v>
+        <v>1.84</v>
       </c>
       <c r="AI26">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="AJ26">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AK26">
-        <v>2.68</v>
+        <v>1.47</v>
       </c>
       <c r="AL26">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AM26">
-        <v>1.1</v>
+        <v>1.47</v>
       </c>
       <c r="AN26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO26">
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR26">
-        <v>1.73</v>
+        <v>1.06</v>
       </c>
       <c r="AS26">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="AT26">
-        <v>3.75</v>
+        <v>3.03</v>
       </c>
       <c r="AU26">
         <v>6</v>
       </c>
       <c r="AV26">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW26">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AX26">
         <v>8</v>
       </c>
       <c r="AY26">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AZ26">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BB26">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BC26">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD26">
-        <v>3.64</v>
+        <v>1.97</v>
       </c>
       <c r="BE26">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="BF26">
-        <v>1.44</v>
+        <v>2.24</v>
       </c>
       <c r="BG26">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="BH26">
-        <v>4.05</v>
+        <v>0</v>
       </c>
       <c r="BI26">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="BJ26">
-        <v>2.78</v>
+        <v>3.18</v>
       </c>
       <c r="BK26">
-        <v>1.71</v>
+        <v>1.55</v>
       </c>
       <c r="BL26">
-        <v>2.11</v>
+        <v>2.38</v>
       </c>
       <c r="BM26">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="BN26">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="BO26">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="BP26">
-        <v>1.37</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="27" spans="1:68">
@@ -6204,7 +6207,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>7468105</v>
+        <v>7468111</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -6219,25 +6222,25 @@
         <v>4</v>
       </c>
       <c r="G27" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H27" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N27">
         <v>3</v>
@@ -6246,163 +6249,163 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q27">
-        <v>3.2</v>
+        <v>6.23</v>
       </c>
       <c r="R27">
-        <v>2.05</v>
+        <v>2.58</v>
       </c>
       <c r="S27">
-        <v>3.25</v>
+        <v>1.93</v>
       </c>
       <c r="T27">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="U27">
-        <v>2.7</v>
+        <v>3.44</v>
       </c>
       <c r="V27">
-        <v>2.85</v>
+        <v>2.35</v>
       </c>
       <c r="W27">
-        <v>1.37</v>
+        <v>1.52</v>
       </c>
       <c r="X27">
-        <v>6.95</v>
+        <v>5</v>
       </c>
       <c r="Y27">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="Z27">
-        <v>2.63</v>
+        <v>6.29</v>
       </c>
       <c r="AA27">
-        <v>3.25</v>
+        <v>4.55</v>
       </c>
       <c r="AB27">
-        <v>2.65</v>
+        <v>1.43</v>
       </c>
       <c r="AC27">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AD27">
-        <v>8.9</v>
+        <v>19.25</v>
       </c>
       <c r="AE27">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AF27">
-        <v>3.3</v>
+        <v>4.67</v>
       </c>
       <c r="AG27">
-        <v>1.95</v>
+        <v>1.55</v>
       </c>
       <c r="AH27">
-        <v>1.84</v>
+        <v>2.2</v>
       </c>
       <c r="AI27">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="AJ27">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AK27">
-        <v>1.47</v>
+        <v>2.68</v>
       </c>
       <c r="AL27">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="AM27">
-        <v>1.47</v>
+        <v>1.1</v>
       </c>
       <c r="AN27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO27">
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR27">
-        <v>1.06</v>
+        <v>1.73</v>
       </c>
       <c r="AS27">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="AT27">
-        <v>3.03</v>
+        <v>3.75</v>
       </c>
       <c r="AU27">
         <v>6</v>
       </c>
       <c r="AV27">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW27">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AX27">
         <v>8</v>
       </c>
       <c r="AY27">
+        <v>7</v>
+      </c>
+      <c r="AZ27">
         <v>15</v>
       </c>
-      <c r="AZ27">
-        <v>12</v>
-      </c>
       <c r="BA27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BB27">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BC27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD27">
-        <v>1.97</v>
+        <v>3.64</v>
       </c>
       <c r="BE27">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="BF27">
-        <v>2.24</v>
+        <v>1.44</v>
       </c>
       <c r="BG27">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="BH27">
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="BI27">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="BJ27">
-        <v>3.18</v>
+        <v>2.78</v>
       </c>
       <c r="BK27">
-        <v>1.55</v>
+        <v>1.71</v>
       </c>
       <c r="BL27">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="BM27">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="BN27">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="BO27">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="BP27">
-        <v>1.55</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="28" spans="1:68">
@@ -6631,7 +6634,7 @@
         <v>4</v>
       </c>
       <c r="G29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s">
         <v>76</v>
@@ -6739,7 +6742,7 @@
         <v>1</v>
       </c>
       <c r="AQ29">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR29">
         <v>1.22</v>
@@ -6837,7 +6840,7 @@
         <v>4</v>
       </c>
       <c r="G30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H30" t="s">
         <v>72</v>
@@ -7043,7 +7046,7 @@
         <v>4</v>
       </c>
       <c r="G31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H31" t="s">
         <v>77</v>
@@ -7560,7 +7563,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ33">
         <v>0.33</v>
@@ -7664,7 +7667,7 @@
         <v>80</v>
       </c>
       <c r="H34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -7688,7 +7691,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q34">
         <v>1.45</v>
@@ -7894,7 +7897,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q35">
         <v>2.84</v>
@@ -8100,7 +8103,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q36">
         <v>5.63</v>
@@ -8282,7 +8285,7 @@
         <v>85</v>
       </c>
       <c r="H37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I37">
         <v>2</v>
@@ -8306,7 +8309,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q37">
         <v>2.58</v>
@@ -8488,7 +8491,7 @@
         <v>81</v>
       </c>
       <c r="H38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I38">
         <v>2</v>
@@ -8718,7 +8721,7 @@
         <v>88</v>
       </c>
       <c r="P39" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q39">
         <v>4.75</v>
@@ -8900,7 +8903,7 @@
         <v>76</v>
       </c>
       <c r="H40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -9130,7 +9133,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9309,7 +9312,7 @@
         <v>6</v>
       </c>
       <c r="G42" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s">
         <v>75</v>
@@ -9336,7 +9339,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q42">
         <v>2.61</v>
@@ -9542,7 +9545,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q43">
         <v>1.69</v>
@@ -9623,7 +9626,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ43">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR43">
         <v>2.07</v>
@@ -9721,7 +9724,7 @@
         <v>6</v>
       </c>
       <c r="G44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H44" t="s">
         <v>77</v>
@@ -9927,7 +9930,7 @@
         <v>6</v>
       </c>
       <c r="G45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H45" t="s">
         <v>81</v>
@@ -10342,7 +10345,7 @@
         <v>75</v>
       </c>
       <c r="H47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -10984,7 +10987,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q50">
         <v>5.1</v>
@@ -11062,7 +11065,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ50">
         <v>3</v>
@@ -11148,7 +11151,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>7468134</v>
+        <v>7468129</v>
       </c>
       <c r="C51" t="s">
         <v>68</v>
@@ -11163,88 +11166,88 @@
         <v>7</v>
       </c>
       <c r="G51" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H51" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N51">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O51" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="Q51">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="R51">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S51">
+        <v>3.5</v>
+      </c>
+      <c r="T51">
+        <v>1.36</v>
+      </c>
+      <c r="U51">
+        <v>3</v>
+      </c>
+      <c r="V51">
+        <v>2.75</v>
+      </c>
+      <c r="W51">
+        <v>1.4</v>
+      </c>
+      <c r="X51">
+        <v>7</v>
+      </c>
+      <c r="Y51">
+        <v>1.1</v>
+      </c>
+      <c r="Z51">
+        <v>2.5</v>
+      </c>
+      <c r="AA51">
+        <v>3.3</v>
+      </c>
+      <c r="AB51">
+        <v>2.7</v>
+      </c>
+      <c r="AC51">
+        <v>1.02</v>
+      </c>
+      <c r="AD51">
+        <v>10</v>
+      </c>
+      <c r="AE51">
+        <v>1.2</v>
+      </c>
+      <c r="AF51">
         <v>4</v>
       </c>
-      <c r="T51">
-        <v>1.33</v>
-      </c>
-      <c r="U51">
-        <v>3.25</v>
-      </c>
-      <c r="V51">
-        <v>2.63</v>
-      </c>
-      <c r="W51">
-        <v>1.44</v>
-      </c>
-      <c r="X51">
-        <v>6.5</v>
-      </c>
-      <c r="Y51">
-        <v>1.11</v>
-      </c>
-      <c r="Z51">
-        <v>1.98</v>
-      </c>
-      <c r="AA51">
-        <v>3.5</v>
-      </c>
-      <c r="AB51">
-        <v>3.5</v>
-      </c>
-      <c r="AC51">
-        <v>1.01</v>
-      </c>
-      <c r="AD51">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AE51">
-        <v>1.24</v>
-      </c>
-      <c r="AF51">
-        <v>3.48</v>
-      </c>
       <c r="AG51">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="AH51">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="AI51">
         <v>1.67</v>
@@ -11253,100 +11256,100 @@
         <v>2.1</v>
       </c>
       <c r="AK51">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AL51">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="AM51">
-        <v>1.82</v>
+        <v>1.52</v>
       </c>
       <c r="AN51">
+        <v>3</v>
+      </c>
+      <c r="AO51">
         <v>0.33</v>
       </c>
-      <c r="AO51">
-        <v>0</v>
-      </c>
       <c r="AP51">
+        <v>2.33</v>
+      </c>
+      <c r="AQ51">
         <v>0.5</v>
       </c>
-      <c r="AQ51">
-        <v>0.33</v>
-      </c>
       <c r="AR51">
-        <v>1.76</v>
+        <v>1.61</v>
       </c>
       <c r="AS51">
-        <v>0.97</v>
+        <v>1.34</v>
       </c>
       <c r="AT51">
-        <v>2.73</v>
+        <v>2.95</v>
       </c>
       <c r="AU51">
         <v>7</v>
       </c>
       <c r="AV51">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AW51">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX51">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY51">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ51">
+        <v>13</v>
+      </c>
+      <c r="BA51">
+        <v>6</v>
+      </c>
+      <c r="BB51">
+        <v>5</v>
+      </c>
+      <c r="BC51">
+        <v>11</v>
+      </c>
+      <c r="BD51">
+        <v>2.05</v>
+      </c>
+      <c r="BE51">
+        <v>8.5</v>
+      </c>
+      <c r="BF51">
+        <v>2</v>
+      </c>
+      <c r="BG51">
+        <v>1.11</v>
+      </c>
+      <c r="BH51">
+        <v>6</v>
+      </c>
+      <c r="BI51">
+        <v>1.22</v>
+      </c>
+      <c r="BJ51">
         <v>4</v>
       </c>
-      <c r="BA51">
-        <v>8</v>
-      </c>
-      <c r="BB51">
-        <v>6</v>
-      </c>
-      <c r="BC51">
-        <v>14</v>
-      </c>
-      <c r="BD51">
-        <v>1.82</v>
-      </c>
-      <c r="BE51">
-        <v>8</v>
-      </c>
-      <c r="BF51">
-        <v>2.39</v>
-      </c>
-      <c r="BG51">
-        <v>1.2</v>
-      </c>
-      <c r="BH51">
-        <v>4.2</v>
-      </c>
-      <c r="BI51">
-        <v>1.38</v>
-      </c>
-      <c r="BJ51">
-        <v>2.9</v>
-      </c>
       <c r="BK51">
-        <v>1.63</v>
+        <v>1.35</v>
       </c>
       <c r="BL51">
-        <v>2.2</v>
+        <v>2.84</v>
       </c>
       <c r="BM51">
-        <v>2.02</v>
+        <v>1.77</v>
       </c>
       <c r="BN51">
-        <v>1.74</v>
+        <v>1.95</v>
       </c>
       <c r="BO51">
-        <v>2.55</v>
+        <v>2.04</v>
       </c>
       <c r="BP51">
-        <v>1.47</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="52" spans="1:68">
@@ -11354,7 +11357,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>7468129</v>
+        <v>7468134</v>
       </c>
       <c r="C52" t="s">
         <v>68</v>
@@ -11369,88 +11372,88 @@
         <v>7</v>
       </c>
       <c r="G52" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H52" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52" t="s">
+        <v>88</v>
+      </c>
+      <c r="P52" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q52">
+        <v>2.63</v>
+      </c>
+      <c r="R52">
+        <v>2.25</v>
+      </c>
+      <c r="S52">
         <v>4</v>
       </c>
-      <c r="O52" t="s">
-        <v>122</v>
-      </c>
-      <c r="P52" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q52">
-        <v>3</v>
-      </c>
-      <c r="R52">
-        <v>2.2</v>
-      </c>
-      <c r="S52">
+      <c r="T52">
+        <v>1.33</v>
+      </c>
+      <c r="U52">
+        <v>3.25</v>
+      </c>
+      <c r="V52">
+        <v>2.63</v>
+      </c>
+      <c r="W52">
+        <v>1.44</v>
+      </c>
+      <c r="X52">
+        <v>6.5</v>
+      </c>
+      <c r="Y52">
+        <v>1.11</v>
+      </c>
+      <c r="Z52">
+        <v>1.98</v>
+      </c>
+      <c r="AA52">
         <v>3.5</v>
       </c>
-      <c r="T52">
-        <v>1.36</v>
-      </c>
-      <c r="U52">
-        <v>3</v>
-      </c>
-      <c r="V52">
-        <v>2.75</v>
-      </c>
-      <c r="W52">
-        <v>1.4</v>
-      </c>
-      <c r="X52">
-        <v>7</v>
-      </c>
-      <c r="Y52">
-        <v>1.1</v>
-      </c>
-      <c r="Z52">
-        <v>2.5</v>
-      </c>
-      <c r="AA52">
-        <v>3.3</v>
-      </c>
       <c r="AB52">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="AC52">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD52">
-        <v>10</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AE52">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="AF52">
-        <v>4</v>
+        <v>3.48</v>
       </c>
       <c r="AG52">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AH52">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="AI52">
         <v>1.67</v>
@@ -11459,100 +11462,100 @@
         <v>2.1</v>
       </c>
       <c r="AK52">
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
       <c r="AL52">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="AM52">
-        <v>1.52</v>
+        <v>1.82</v>
       </c>
       <c r="AN52">
-        <v>3</v>
+        <v>0.33</v>
       </c>
       <c r="AO52">
+        <v>0</v>
+      </c>
+      <c r="AP52">
+        <v>0.5</v>
+      </c>
+      <c r="AQ52">
         <v>0.33</v>
       </c>
-      <c r="AP52">
-        <v>2.33</v>
-      </c>
-      <c r="AQ52">
-        <v>0.5</v>
-      </c>
       <c r="AR52">
-        <v>1.61</v>
+        <v>1.76</v>
       </c>
       <c r="AS52">
-        <v>1.34</v>
+        <v>0.97</v>
       </c>
       <c r="AT52">
-        <v>2.95</v>
+        <v>2.73</v>
       </c>
       <c r="AU52">
         <v>7</v>
       </c>
       <c r="AV52">
+        <v>2</v>
+      </c>
+      <c r="AW52">
+        <v>9</v>
+      </c>
+      <c r="AX52">
+        <v>2</v>
+      </c>
+      <c r="AY52">
+        <v>16</v>
+      </c>
+      <c r="AZ52">
+        <v>4</v>
+      </c>
+      <c r="BA52">
         <v>8</v>
       </c>
-      <c r="AW52">
+      <c r="BB52">
+        <v>6</v>
+      </c>
+      <c r="BC52">
+        <v>14</v>
+      </c>
+      <c r="BD52">
+        <v>1.82</v>
+      </c>
+      <c r="BE52">
         <v>8</v>
       </c>
-      <c r="AX52">
-        <v>5</v>
-      </c>
-      <c r="AY52">
-        <v>15</v>
-      </c>
-      <c r="AZ52">
-        <v>13</v>
-      </c>
-      <c r="BA52">
-        <v>6</v>
-      </c>
-      <c r="BB52">
-        <v>5</v>
-      </c>
-      <c r="BC52">
-        <v>11</v>
-      </c>
-      <c r="BD52">
-        <v>2.05</v>
-      </c>
-      <c r="BE52">
-        <v>8.5</v>
-      </c>
       <c r="BF52">
-        <v>2</v>
+        <v>2.39</v>
       </c>
       <c r="BG52">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="BH52">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="BI52">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="BJ52">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="BK52">
-        <v>1.35</v>
+        <v>1.63</v>
       </c>
       <c r="BL52">
-        <v>2.84</v>
+        <v>2.2</v>
       </c>
       <c r="BM52">
-        <v>1.77</v>
+        <v>2.02</v>
       </c>
       <c r="BN52">
-        <v>1.95</v>
+        <v>1.74</v>
       </c>
       <c r="BO52">
-        <v>2.04</v>
+        <v>2.55</v>
       </c>
       <c r="BP52">
-        <v>1.76</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="53" spans="1:68">
@@ -11578,7 +11581,7 @@
         <v>80</v>
       </c>
       <c r="H53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -11781,10 +11784,10 @@
         <v>7</v>
       </c>
       <c r="G54" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -11808,7 +11811,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12014,7 +12017,7 @@
         <v>93</v>
       </c>
       <c r="P55" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q55">
         <v>3.85</v>
@@ -12220,7 +12223,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q56">
         <v>1.85</v>
@@ -12399,7 +12402,7 @@
         <v>6</v>
       </c>
       <c r="G57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H57" t="s">
         <v>80</v>
@@ -12426,7 +12429,7 @@
         <v>88</v>
       </c>
       <c r="P57" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q57">
         <v>5.88</v>
@@ -12583,6 +12586,212 @@
       </c>
       <c r="BP57">
         <v>1.56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7468149</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45556.35416666666</v>
+      </c>
+      <c r="F58">
+        <v>9</v>
+      </c>
+      <c r="G58" t="s">
+        <v>77</v>
+      </c>
+      <c r="H58" t="s">
+        <v>76</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>3</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>3</v>
+      </c>
+      <c r="O58" t="s">
+        <v>126</v>
+      </c>
+      <c r="P58" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q58">
+        <v>3</v>
+      </c>
+      <c r="R58">
+        <v>1.95</v>
+      </c>
+      <c r="S58">
+        <v>3.75</v>
+      </c>
+      <c r="T58">
+        <v>1.51</v>
+      </c>
+      <c r="U58">
+        <v>2.4</v>
+      </c>
+      <c r="V58">
+        <v>3.25</v>
+      </c>
+      <c r="W58">
+        <v>1.3</v>
+      </c>
+      <c r="X58">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="Y58">
+        <v>1.04</v>
+      </c>
+      <c r="Z58">
+        <v>2.4</v>
+      </c>
+      <c r="AA58">
+        <v>3</v>
+      </c>
+      <c r="AB58">
+        <v>3.1</v>
+      </c>
+      <c r="AC58">
+        <v>1.05</v>
+      </c>
+      <c r="AD58">
+        <v>7.1</v>
+      </c>
+      <c r="AE58">
+        <v>1.42</v>
+      </c>
+      <c r="AF58">
+        <v>2.7</v>
+      </c>
+      <c r="AG58">
+        <v>2.3</v>
+      </c>
+      <c r="AH58">
+        <v>1.53</v>
+      </c>
+      <c r="AI58">
+        <v>1.95</v>
+      </c>
+      <c r="AJ58">
+        <v>1.8</v>
+      </c>
+      <c r="AK58">
+        <v>1.36</v>
+      </c>
+      <c r="AL58">
+        <v>1.28</v>
+      </c>
+      <c r="AM58">
+        <v>1.57</v>
+      </c>
+      <c r="AN58">
+        <v>2.25</v>
+      </c>
+      <c r="AO58">
+        <v>1.33</v>
+      </c>
+      <c r="AP58">
+        <v>2.4</v>
+      </c>
+      <c r="AQ58">
+        <v>1</v>
+      </c>
+      <c r="AR58">
+        <v>1.32</v>
+      </c>
+      <c r="AS58">
+        <v>1.12</v>
+      </c>
+      <c r="AT58">
+        <v>2.44</v>
+      </c>
+      <c r="AU58">
+        <v>2</v>
+      </c>
+      <c r="AV58">
+        <v>2</v>
+      </c>
+      <c r="AW58">
+        <v>1</v>
+      </c>
+      <c r="AX58">
+        <v>1</v>
+      </c>
+      <c r="AY58">
+        <v>3</v>
+      </c>
+      <c r="AZ58">
+        <v>3</v>
+      </c>
+      <c r="BA58">
+        <v>7</v>
+      </c>
+      <c r="BB58">
+        <v>4</v>
+      </c>
+      <c r="BC58">
+        <v>11</v>
+      </c>
+      <c r="BD58">
+        <v>1.69</v>
+      </c>
+      <c r="BE58">
+        <v>8.5</v>
+      </c>
+      <c r="BF58">
+        <v>2.53</v>
+      </c>
+      <c r="BG58">
+        <v>1.15</v>
+      </c>
+      <c r="BH58">
+        <v>4.7</v>
+      </c>
+      <c r="BI58">
+        <v>1.28</v>
+      </c>
+      <c r="BJ58">
+        <v>2.97</v>
+      </c>
+      <c r="BK58">
+        <v>1.52</v>
+      </c>
+      <c r="BL58">
+        <v>2.24</v>
+      </c>
+      <c r="BM58">
+        <v>1.98</v>
+      </c>
+      <c r="BN58">
+        <v>1.82</v>
+      </c>
+      <c r="BO58">
+        <v>2.43</v>
+      </c>
+      <c r="BP58">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="159">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -397,6 +397,15 @@
     <t>['34', '67', '89']</t>
   </si>
   <si>
+    <t>['21']</t>
+  </si>
+  <si>
+    <t>['34', '90+3']</t>
+  </si>
+  <si>
+    <t>['10', '45+1', '45+5']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -479,6 +488,9 @@
   </si>
   <si>
     <t>['23', '42']</t>
+  </si>
+  <si>
+    <t>['37', '52', '65']</t>
   </si>
 </sst>
 </file>
@@ -840,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP58"/>
+  <dimension ref="A1:BP61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1099,7 +1111,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q2">
         <v>1.53</v>
@@ -1511,7 +1523,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -1717,7 +1729,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -1798,7 +1810,7 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1923,7 +1935,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2004,7 +2016,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ6">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2129,7 +2141,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2207,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -2953,7 +2965,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q11">
         <v>2.85</v>
@@ -3159,7 +3171,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3237,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ12">
         <v>3</v>
@@ -3571,7 +3583,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4064,7 +4076,7 @@
         <v>3</v>
       </c>
       <c r="AQ16">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4395,7 +4407,7 @@
         <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q18">
         <v>5.4</v>
@@ -5094,7 +5106,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ21">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR21">
         <v>1.81</v>
@@ -5425,7 +5437,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q23">
         <v>2.6</v>
@@ -5631,7 +5643,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5837,7 +5849,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q25">
         <v>1.06</v>
@@ -5918,7 +5930,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ25">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR25">
         <v>0.93</v>
@@ -6043,7 +6055,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q26">
         <v>3.2</v>
@@ -6121,7 +6133,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -6249,7 +6261,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q27">
         <v>6.23</v>
@@ -7691,7 +7703,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q34">
         <v>1.45</v>
@@ -7897,7 +7909,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q35">
         <v>2.84</v>
@@ -7975,7 +7987,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ35">
         <v>1.25</v>
@@ -8103,7 +8115,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q36">
         <v>5.63</v>
@@ -8309,7 +8321,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q37">
         <v>2.58</v>
@@ -8721,7 +8733,7 @@
         <v>88</v>
       </c>
       <c r="P39" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q39">
         <v>4.75</v>
@@ -8802,7 +8814,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ39">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR39">
         <v>1.46</v>
@@ -9008,7 +9020,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ40">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR40">
         <v>1.19</v>
@@ -9133,7 +9145,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9214,7 +9226,7 @@
         <v>1</v>
       </c>
       <c r="AQ41">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR41">
         <v>1.49</v>
@@ -9339,7 +9351,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q42">
         <v>2.61</v>
@@ -9417,7 +9429,7 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ42">
         <v>2</v>
@@ -9545,7 +9557,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q43">
         <v>1.69</v>
@@ -10447,10 +10459,10 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ47">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR47">
         <v>1.77</v>
@@ -10862,7 +10874,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ49">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR49">
         <v>1.24</v>
@@ -10987,7 +10999,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q50">
         <v>5.1</v>
@@ -11193,7 +11205,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -11274,7 +11286,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ51">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR51">
         <v>1.61</v>
@@ -11477,7 +11489,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ52">
         <v>0.33</v>
@@ -11811,7 +11823,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11889,7 +11901,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ54">
         <v>0.75</v>
@@ -12017,7 +12029,7 @@
         <v>93</v>
       </c>
       <c r="P55" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q55">
         <v>3.85</v>
@@ -12098,7 +12110,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ55">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR55">
         <v>1.32</v>
@@ -12223,7 +12235,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q56">
         <v>1.85</v>
@@ -12429,7 +12441,7 @@
         <v>88</v>
       </c>
       <c r="P57" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q57">
         <v>5.88</v>
@@ -12728,31 +12740,31 @@
         <v>2.44</v>
       </c>
       <c r="AU58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW58">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AX58">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AY58">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AZ58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA58">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB58">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC58">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BD58">
         <v>1.69</v>
@@ -12792,6 +12804,624 @@
       </c>
       <c r="BP58">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7468151</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45556.45833333334</v>
+      </c>
+      <c r="F59">
+        <v>9</v>
+      </c>
+      <c r="G59" t="s">
+        <v>75</v>
+      </c>
+      <c r="H59" t="s">
+        <v>71</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59" t="s">
+        <v>127</v>
+      </c>
+      <c r="P59" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q59">
+        <v>3.2</v>
+      </c>
+      <c r="R59">
+        <v>2.1</v>
+      </c>
+      <c r="S59">
+        <v>3.1</v>
+      </c>
+      <c r="T59">
+        <v>1.36</v>
+      </c>
+      <c r="U59">
+        <v>2.99</v>
+      </c>
+      <c r="V59">
+        <v>2.7</v>
+      </c>
+      <c r="W59">
+        <v>1.43</v>
+      </c>
+      <c r="X59">
+        <v>6.6</v>
+      </c>
+      <c r="Y59">
+        <v>1.09</v>
+      </c>
+      <c r="Z59">
+        <v>2.62</v>
+      </c>
+      <c r="AA59">
+        <v>3.3</v>
+      </c>
+      <c r="AB59">
+        <v>2.62</v>
+      </c>
+      <c r="AC59">
+        <v>1.02</v>
+      </c>
+      <c r="AD59">
+        <v>10</v>
+      </c>
+      <c r="AE59">
+        <v>1.22</v>
+      </c>
+      <c r="AF59">
+        <v>3.8</v>
+      </c>
+      <c r="AG59">
+        <v>2</v>
+      </c>
+      <c r="AH59">
+        <v>1.73</v>
+      </c>
+      <c r="AI59">
+        <v>1.65</v>
+      </c>
+      <c r="AJ59">
+        <v>2.2</v>
+      </c>
+      <c r="AK59">
+        <v>1.47</v>
+      </c>
+      <c r="AL59">
+        <v>1.28</v>
+      </c>
+      <c r="AM59">
+        <v>1.49</v>
+      </c>
+      <c r="AN59">
+        <v>0.5</v>
+      </c>
+      <c r="AO59">
+        <v>1.75</v>
+      </c>
+      <c r="AP59">
+        <v>1</v>
+      </c>
+      <c r="AQ59">
+        <v>1.4</v>
+      </c>
+      <c r="AR59">
+        <v>1.83</v>
+      </c>
+      <c r="AS59">
+        <v>1.29</v>
+      </c>
+      <c r="AT59">
+        <v>3.12</v>
+      </c>
+      <c r="AU59">
+        <v>7</v>
+      </c>
+      <c r="AV59">
+        <v>9</v>
+      </c>
+      <c r="AW59">
+        <v>6</v>
+      </c>
+      <c r="AX59">
+        <v>6</v>
+      </c>
+      <c r="AY59">
+        <v>13</v>
+      </c>
+      <c r="AZ59">
+        <v>15</v>
+      </c>
+      <c r="BA59">
+        <v>4</v>
+      </c>
+      <c r="BB59">
+        <v>6</v>
+      </c>
+      <c r="BC59">
+        <v>10</v>
+      </c>
+      <c r="BD59">
+        <v>1.91</v>
+      </c>
+      <c r="BE59">
+        <v>8</v>
+      </c>
+      <c r="BF59">
+        <v>2.1</v>
+      </c>
+      <c r="BG59">
+        <v>0</v>
+      </c>
+      <c r="BH59">
+        <v>0</v>
+      </c>
+      <c r="BI59">
+        <v>1.28</v>
+      </c>
+      <c r="BJ59">
+        <v>2.97</v>
+      </c>
+      <c r="BK59">
+        <v>1.52</v>
+      </c>
+      <c r="BL59">
+        <v>2.24</v>
+      </c>
+      <c r="BM59">
+        <v>1.98</v>
+      </c>
+      <c r="BN59">
+        <v>1.82</v>
+      </c>
+      <c r="BO59">
+        <v>2.43</v>
+      </c>
+      <c r="BP59">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7468147</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45556.45833333334</v>
+      </c>
+      <c r="F60">
+        <v>9</v>
+      </c>
+      <c r="G60" t="s">
+        <v>79</v>
+      </c>
+      <c r="H60" t="s">
+        <v>83</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+      <c r="L60">
+        <v>2</v>
+      </c>
+      <c r="M60">
+        <v>3</v>
+      </c>
+      <c r="N60">
+        <v>5</v>
+      </c>
+      <c r="O60" t="s">
+        <v>128</v>
+      </c>
+      <c r="P60" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q60">
+        <v>3.86</v>
+      </c>
+      <c r="R60">
+        <v>2.19</v>
+      </c>
+      <c r="S60">
+        <v>2.63</v>
+      </c>
+      <c r="T60">
+        <v>1.35</v>
+      </c>
+      <c r="U60">
+        <v>3.04</v>
+      </c>
+      <c r="V60">
+        <v>2.6</v>
+      </c>
+      <c r="W60">
+        <v>1.46</v>
+      </c>
+      <c r="X60">
+        <v>6.35</v>
+      </c>
+      <c r="Y60">
+        <v>1.1</v>
+      </c>
+      <c r="Z60">
+        <v>3.25</v>
+      </c>
+      <c r="AA60">
+        <v>3.4</v>
+      </c>
+      <c r="AB60">
+        <v>2.15</v>
+      </c>
+      <c r="AC60">
+        <v>1.01</v>
+      </c>
+      <c r="AD60">
+        <v>10</v>
+      </c>
+      <c r="AE60">
+        <v>1.22</v>
+      </c>
+      <c r="AF60">
+        <v>3.65</v>
+      </c>
+      <c r="AG60">
+        <v>1.8</v>
+      </c>
+      <c r="AH60">
+        <v>1.91</v>
+      </c>
+      <c r="AI60">
+        <v>1.63</v>
+      </c>
+      <c r="AJ60">
+        <v>2.18</v>
+      </c>
+      <c r="AK60">
+        <v>1.71</v>
+      </c>
+      <c r="AL60">
+        <v>1.28</v>
+      </c>
+      <c r="AM60">
+        <v>1.32</v>
+      </c>
+      <c r="AN60">
+        <v>0.75</v>
+      </c>
+      <c r="AO60">
+        <v>0.5</v>
+      </c>
+      <c r="AP60">
+        <v>0.6</v>
+      </c>
+      <c r="AQ60">
+        <v>1</v>
+      </c>
+      <c r="AR60">
+        <v>1.44</v>
+      </c>
+      <c r="AS60">
+        <v>1.47</v>
+      </c>
+      <c r="AT60">
+        <v>2.91</v>
+      </c>
+      <c r="AU60">
+        <v>8</v>
+      </c>
+      <c r="AV60">
+        <v>6</v>
+      </c>
+      <c r="AW60">
+        <v>4</v>
+      </c>
+      <c r="AX60">
+        <v>5</v>
+      </c>
+      <c r="AY60">
+        <v>12</v>
+      </c>
+      <c r="AZ60">
+        <v>11</v>
+      </c>
+      <c r="BA60">
+        <v>4</v>
+      </c>
+      <c r="BB60">
+        <v>7</v>
+      </c>
+      <c r="BC60">
+        <v>11</v>
+      </c>
+      <c r="BD60">
+        <v>2.2</v>
+      </c>
+      <c r="BE60">
+        <v>8.5</v>
+      </c>
+      <c r="BF60">
+        <v>1.83</v>
+      </c>
+      <c r="BG60">
+        <v>0</v>
+      </c>
+      <c r="BH60">
+        <v>0</v>
+      </c>
+      <c r="BI60">
+        <v>1.27</v>
+      </c>
+      <c r="BJ60">
+        <v>3.04</v>
+      </c>
+      <c r="BK60">
+        <v>1.51</v>
+      </c>
+      <c r="BL60">
+        <v>2.26</v>
+      </c>
+      <c r="BM60">
+        <v>1.95</v>
+      </c>
+      <c r="BN60">
+        <v>1.85</v>
+      </c>
+      <c r="BO60">
+        <v>2.38</v>
+      </c>
+      <c r="BP60">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7468146</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45556.58333333334</v>
+      </c>
+      <c r="F61">
+        <v>9</v>
+      </c>
+      <c r="G61" t="s">
+        <v>80</v>
+      </c>
+      <c r="H61" t="s">
+        <v>84</v>
+      </c>
+      <c r="I61">
+        <v>3</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>3</v>
+      </c>
+      <c r="L61">
+        <v>3</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>3</v>
+      </c>
+      <c r="O61" t="s">
+        <v>129</v>
+      </c>
+      <c r="P61" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q61">
+        <v>1.91</v>
+      </c>
+      <c r="R61">
+        <v>2.3</v>
+      </c>
+      <c r="S61">
+        <v>5.5</v>
+      </c>
+      <c r="T61">
+        <v>1.31</v>
+      </c>
+      <c r="U61">
+        <v>3.2</v>
+      </c>
+      <c r="V61">
+        <v>2.45</v>
+      </c>
+      <c r="W61">
+        <v>1.49</v>
+      </c>
+      <c r="X61">
+        <v>5.45</v>
+      </c>
+      <c r="Y61">
+        <v>1.12</v>
+      </c>
+      <c r="Z61">
+        <v>1.45</v>
+      </c>
+      <c r="AA61">
+        <v>4.4</v>
+      </c>
+      <c r="AB61">
+        <v>5.95</v>
+      </c>
+      <c r="AC61">
+        <v>1.01</v>
+      </c>
+      <c r="AD61">
+        <v>11</v>
+      </c>
+      <c r="AE61">
+        <v>1.17</v>
+      </c>
+      <c r="AF61">
+        <v>4.5</v>
+      </c>
+      <c r="AG61">
+        <v>1.82</v>
+      </c>
+      <c r="AH61">
+        <v>1.88</v>
+      </c>
+      <c r="AI61">
+        <v>1.75</v>
+      </c>
+      <c r="AJ61">
+        <v>2.05</v>
+      </c>
+      <c r="AK61">
+        <v>1.08</v>
+      </c>
+      <c r="AL61">
+        <v>1.16</v>
+      </c>
+      <c r="AM61">
+        <v>2.55</v>
+      </c>
+      <c r="AN61">
+        <v>3</v>
+      </c>
+      <c r="AO61">
+        <v>2</v>
+      </c>
+      <c r="AP61">
+        <v>3</v>
+      </c>
+      <c r="AQ61">
+        <v>1.6</v>
+      </c>
+      <c r="AR61">
+        <v>2.33</v>
+      </c>
+      <c r="AS61">
+        <v>1.35</v>
+      </c>
+      <c r="AT61">
+        <v>3.68</v>
+      </c>
+      <c r="AU61">
+        <v>12</v>
+      </c>
+      <c r="AV61">
+        <v>4</v>
+      </c>
+      <c r="AW61">
+        <v>7</v>
+      </c>
+      <c r="AX61">
+        <v>3</v>
+      </c>
+      <c r="AY61">
+        <v>19</v>
+      </c>
+      <c r="AZ61">
+        <v>7</v>
+      </c>
+      <c r="BA61">
+        <v>14</v>
+      </c>
+      <c r="BB61">
+        <v>4</v>
+      </c>
+      <c r="BC61">
+        <v>18</v>
+      </c>
+      <c r="BD61">
+        <v>1.19</v>
+      </c>
+      <c r="BE61">
+        <v>11</v>
+      </c>
+      <c r="BF61">
+        <v>5.67</v>
+      </c>
+      <c r="BG61">
+        <v>0</v>
+      </c>
+      <c r="BH61">
+        <v>0</v>
+      </c>
+      <c r="BI61">
+        <v>1.23</v>
+      </c>
+      <c r="BJ61">
+        <v>3.28</v>
+      </c>
+      <c r="BK61">
+        <v>1.48</v>
+      </c>
+      <c r="BL61">
+        <v>2.54</v>
+      </c>
+      <c r="BM61">
+        <v>1.95</v>
+      </c>
+      <c r="BN61">
+        <v>1.85</v>
+      </c>
+      <c r="BO61">
+        <v>2.27</v>
+      </c>
+      <c r="BP61">
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="166">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -406,6 +406,15 @@
     <t>['10', '45+1', '45+5']</t>
   </si>
   <si>
+    <t>['35', '48']</t>
+  </si>
+  <si>
+    <t>['14', '35']</t>
+  </si>
+  <si>
+    <t>['1', '59']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -491,6 +500,18 @@
   </si>
   <si>
     <t>['37', '52', '65']</t>
+  </si>
+  <si>
+    <t>['8', '65']</t>
+  </si>
+  <si>
+    <t>['3', '71']</t>
+  </si>
+  <si>
+    <t>['11', '52']</t>
+  </si>
+  <si>
+    <t>['74']</t>
   </si>
 </sst>
 </file>
@@ -852,7 +873,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP61"/>
+  <dimension ref="A1:BP65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1111,7 +1132,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q2">
         <v>1.53</v>
@@ -1192,7 +1213,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ2">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1523,7 +1544,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -1601,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -1729,7 +1750,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -1935,7 +1956,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2141,7 +2162,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2840,7 +2861,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ10">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR10">
         <v>0.98</v>
@@ -2965,7 +2986,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q11">
         <v>2.85</v>
@@ -3171,7 +3192,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3583,7 +3604,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -3661,7 +3682,7 @@
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -3867,7 +3888,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -4407,7 +4428,7 @@
         <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q18">
         <v>5.4</v>
@@ -4485,7 +4506,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ18">
         <v>2.33</v>
@@ -4694,7 +4715,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ19">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR19">
         <v>1.9</v>
@@ -4900,7 +4921,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ20">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR20">
         <v>1</v>
@@ -5309,7 +5330,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ22">
         <v>0</v>
@@ -5437,7 +5458,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q23">
         <v>2.6</v>
@@ -5515,10 +5536,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ23">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR23">
         <v>1.33</v>
@@ -5643,7 +5664,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5849,7 +5870,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q25">
         <v>1.06</v>
@@ -6055,7 +6076,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q26">
         <v>3.2</v>
@@ -6261,7 +6282,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q27">
         <v>6.23</v>
@@ -6957,7 +6978,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ30">
         <v>0</v>
@@ -7578,7 +7599,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ33">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR33">
         <v>1.08</v>
@@ -7703,7 +7724,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q34">
         <v>1.45</v>
@@ -7909,7 +7930,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q35">
         <v>2.84</v>
@@ -7990,7 +8011,7 @@
         <v>1</v>
       </c>
       <c r="AQ35">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR35">
         <v>1.93</v>
@@ -8115,7 +8136,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q36">
         <v>5.63</v>
@@ -8321,7 +8342,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q37">
         <v>2.58</v>
@@ -8399,7 +8420,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ37">
         <v>0.75</v>
@@ -8605,10 +8626,10 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ38">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR38">
         <v>1.34</v>
@@ -8733,7 +8754,7 @@
         <v>88</v>
       </c>
       <c r="P39" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q39">
         <v>4.75</v>
@@ -8811,7 +8832,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ39">
         <v>1.6</v>
@@ -9145,7 +9166,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9351,7 +9372,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q42">
         <v>2.61</v>
@@ -9557,7 +9578,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q43">
         <v>1.69</v>
@@ -10665,10 +10686,10 @@
         <v>1.33</v>
       </c>
       <c r="AP48">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ48">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR48">
         <v>1.34</v>
@@ -10999,7 +11020,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q50">
         <v>5.1</v>
@@ -11205,7 +11226,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -11283,7 +11304,7 @@
         <v>0.33</v>
       </c>
       <c r="AP51">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ51">
         <v>1</v>
@@ -11492,7 +11513,7 @@
         <v>1</v>
       </c>
       <c r="AQ52">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR52">
         <v>1.76</v>
@@ -11698,7 +11719,7 @@
         <v>3</v>
       </c>
       <c r="AQ53">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR53">
         <v>2.35</v>
@@ -11823,7 +11844,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12029,7 +12050,7 @@
         <v>93</v>
       </c>
       <c r="P55" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q55">
         <v>3.85</v>
@@ -12107,7 +12128,7 @@
         <v>2.33</v>
       </c>
       <c r="AP55">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ55">
         <v>1.6</v>
@@ -12235,7 +12256,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q56">
         <v>1.85</v>
@@ -12441,7 +12462,7 @@
         <v>88</v>
       </c>
       <c r="P57" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q57">
         <v>5.88</v>
@@ -12519,7 +12540,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ57">
         <v>2.33</v>
@@ -13059,7 +13080,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q60">
         <v>3.86</v>
@@ -13422,6 +13443,830 @@
       </c>
       <c r="BP61">
         <v>1.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7468148</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45556.875</v>
+      </c>
+      <c r="F62">
+        <v>9</v>
+      </c>
+      <c r="G62" t="s">
+        <v>82</v>
+      </c>
+      <c r="H62" t="s">
+        <v>78</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>2</v>
+      </c>
+      <c r="L62">
+        <v>2</v>
+      </c>
+      <c r="M62">
+        <v>2</v>
+      </c>
+      <c r="N62">
+        <v>4</v>
+      </c>
+      <c r="O62" t="s">
+        <v>130</v>
+      </c>
+      <c r="P62" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q62">
+        <v>1.83</v>
+      </c>
+      <c r="R62">
+        <v>2.4</v>
+      </c>
+      <c r="S62">
+        <v>6</v>
+      </c>
+      <c r="T62">
+        <v>1.29</v>
+      </c>
+      <c r="U62">
+        <v>3.35</v>
+      </c>
+      <c r="V62">
+        <v>2.34</v>
+      </c>
+      <c r="W62">
+        <v>1.54</v>
+      </c>
+      <c r="X62">
+        <v>5.45</v>
+      </c>
+      <c r="Y62">
+        <v>1.12</v>
+      </c>
+      <c r="Z62">
+        <v>1.5</v>
+      </c>
+      <c r="AA62">
+        <v>4.4</v>
+      </c>
+      <c r="AB62">
+        <v>5.75</v>
+      </c>
+      <c r="AC62">
+        <v>1.01</v>
+      </c>
+      <c r="AD62">
+        <v>13</v>
+      </c>
+      <c r="AE62">
+        <v>1.14</v>
+      </c>
+      <c r="AF62">
+        <v>4.8</v>
+      </c>
+      <c r="AG62">
+        <v>1.63</v>
+      </c>
+      <c r="AH62">
+        <v>2.29</v>
+      </c>
+      <c r="AI62">
+        <v>1.75</v>
+      </c>
+      <c r="AJ62">
+        <v>2.05</v>
+      </c>
+      <c r="AK62">
+        <v>1.06</v>
+      </c>
+      <c r="AL62">
+        <v>1.15</v>
+      </c>
+      <c r="AM62">
+        <v>2.85</v>
+      </c>
+      <c r="AN62">
+        <v>2</v>
+      </c>
+      <c r="AO62">
+        <v>0.75</v>
+      </c>
+      <c r="AP62">
+        <v>1.75</v>
+      </c>
+      <c r="AQ62">
+        <v>0.8</v>
+      </c>
+      <c r="AR62">
+        <v>1.42</v>
+      </c>
+      <c r="AS62">
+        <v>1.06</v>
+      </c>
+      <c r="AT62">
+        <v>2.48</v>
+      </c>
+      <c r="AU62">
+        <v>4</v>
+      </c>
+      <c r="AV62">
+        <v>4</v>
+      </c>
+      <c r="AW62">
+        <v>4</v>
+      </c>
+      <c r="AX62">
+        <v>0</v>
+      </c>
+      <c r="AY62">
+        <v>8</v>
+      </c>
+      <c r="AZ62">
+        <v>4</v>
+      </c>
+      <c r="BA62">
+        <v>6</v>
+      </c>
+      <c r="BB62">
+        <v>5</v>
+      </c>
+      <c r="BC62">
+        <v>11</v>
+      </c>
+      <c r="BD62">
+        <v>1.3</v>
+      </c>
+      <c r="BE62">
+        <v>10</v>
+      </c>
+      <c r="BF62">
+        <v>4.42</v>
+      </c>
+      <c r="BG62">
+        <v>0</v>
+      </c>
+      <c r="BH62">
+        <v>0</v>
+      </c>
+      <c r="BI62">
+        <v>1.23</v>
+      </c>
+      <c r="BJ62">
+        <v>3.8</v>
+      </c>
+      <c r="BK62">
+        <v>1.35</v>
+      </c>
+      <c r="BL62">
+        <v>2.65</v>
+      </c>
+      <c r="BM62">
+        <v>1.82</v>
+      </c>
+      <c r="BN62">
+        <v>1.98</v>
+      </c>
+      <c r="BO62">
+        <v>2.09</v>
+      </c>
+      <c r="BP62">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7468144</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45556.875</v>
+      </c>
+      <c r="F63">
+        <v>9</v>
+      </c>
+      <c r="G63" t="s">
+        <v>81</v>
+      </c>
+      <c r="H63" t="s">
+        <v>73</v>
+      </c>
+      <c r="I63">
+        <v>2</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>3</v>
+      </c>
+      <c r="L63">
+        <v>2</v>
+      </c>
+      <c r="M63">
+        <v>2</v>
+      </c>
+      <c r="N63">
+        <v>4</v>
+      </c>
+      <c r="O63" t="s">
+        <v>131</v>
+      </c>
+      <c r="P63" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q63">
+        <v>2.4</v>
+      </c>
+      <c r="R63">
+        <v>2.2</v>
+      </c>
+      <c r="S63">
+        <v>4.75</v>
+      </c>
+      <c r="T63">
+        <v>1.36</v>
+      </c>
+      <c r="U63">
+        <v>3</v>
+      </c>
+      <c r="V63">
+        <v>2.75</v>
+      </c>
+      <c r="W63">
+        <v>1.4</v>
+      </c>
+      <c r="X63">
+        <v>7</v>
+      </c>
+      <c r="Y63">
+        <v>1.1</v>
+      </c>
+      <c r="Z63">
+        <v>1.75</v>
+      </c>
+      <c r="AA63">
+        <v>3.7</v>
+      </c>
+      <c r="AB63">
+        <v>4.1</v>
+      </c>
+      <c r="AC63">
+        <v>1.01</v>
+      </c>
+      <c r="AD63">
+        <v>14.5</v>
+      </c>
+      <c r="AE63">
+        <v>1.2</v>
+      </c>
+      <c r="AF63">
+        <v>4.23</v>
+      </c>
+      <c r="AG63">
+        <v>1.68</v>
+      </c>
+      <c r="AH63">
+        <v>2.1</v>
+      </c>
+      <c r="AI63">
+        <v>1.8</v>
+      </c>
+      <c r="AJ63">
+        <v>1.95</v>
+      </c>
+      <c r="AK63">
+        <v>1.21</v>
+      </c>
+      <c r="AL63">
+        <v>1.27</v>
+      </c>
+      <c r="AM63">
+        <v>2.02</v>
+      </c>
+      <c r="AN63">
+        <v>1.25</v>
+      </c>
+      <c r="AO63">
+        <v>1.25</v>
+      </c>
+      <c r="AP63">
+        <v>1.2</v>
+      </c>
+      <c r="AQ63">
+        <v>1.2</v>
+      </c>
+      <c r="AR63">
+        <v>1.42</v>
+      </c>
+      <c r="AS63">
+        <v>1.5</v>
+      </c>
+      <c r="AT63">
+        <v>2.92</v>
+      </c>
+      <c r="AU63">
+        <v>5</v>
+      </c>
+      <c r="AV63">
+        <v>3</v>
+      </c>
+      <c r="AW63">
+        <v>5</v>
+      </c>
+      <c r="AX63">
+        <v>2</v>
+      </c>
+      <c r="AY63">
+        <v>10</v>
+      </c>
+      <c r="AZ63">
+        <v>5</v>
+      </c>
+      <c r="BA63">
+        <v>4</v>
+      </c>
+      <c r="BB63">
+        <v>5</v>
+      </c>
+      <c r="BC63">
+        <v>9</v>
+      </c>
+      <c r="BD63">
+        <v>1.5</v>
+      </c>
+      <c r="BE63">
+        <v>9.5</v>
+      </c>
+      <c r="BF63">
+        <v>2.88</v>
+      </c>
+      <c r="BG63">
+        <v>1.12</v>
+      </c>
+      <c r="BH63">
+        <v>5.6</v>
+      </c>
+      <c r="BI63">
+        <v>1.19</v>
+      </c>
+      <c r="BJ63">
+        <v>3.6</v>
+      </c>
+      <c r="BK63">
+        <v>1.39</v>
+      </c>
+      <c r="BL63">
+        <v>2.59</v>
+      </c>
+      <c r="BM63">
+        <v>1.77</v>
+      </c>
+      <c r="BN63">
+        <v>1.95</v>
+      </c>
+      <c r="BO63">
+        <v>2.08</v>
+      </c>
+      <c r="BP63">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7468150</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45557.4375</v>
+      </c>
+      <c r="F64">
+        <v>9</v>
+      </c>
+      <c r="G64" t="s">
+        <v>72</v>
+      </c>
+      <c r="H64" t="s">
+        <v>70</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>2</v>
+      </c>
+      <c r="N64">
+        <v>2</v>
+      </c>
+      <c r="O64" t="s">
+        <v>88</v>
+      </c>
+      <c r="P64" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q64">
+        <v>8.77</v>
+      </c>
+      <c r="R64">
+        <v>3.02</v>
+      </c>
+      <c r="S64">
+        <v>1.59</v>
+      </c>
+      <c r="T64">
+        <v>1.22</v>
+      </c>
+      <c r="U64">
+        <v>3.8</v>
+      </c>
+      <c r="V64">
+        <v>2.12</v>
+      </c>
+      <c r="W64">
+        <v>1.7</v>
+      </c>
+      <c r="X64">
+        <v>4.33</v>
+      </c>
+      <c r="Y64">
+        <v>1.18</v>
+      </c>
+      <c r="Z64">
+        <v>11</v>
+      </c>
+      <c r="AA64">
+        <v>6.25</v>
+      </c>
+      <c r="AB64">
+        <v>1.24</v>
+      </c>
+      <c r="AC64">
+        <v>1.02</v>
+      </c>
+      <c r="AD64">
+        <v>25</v>
+      </c>
+      <c r="AE64">
+        <v>1.11</v>
+      </c>
+      <c r="AF64">
+        <v>5.5</v>
+      </c>
+      <c r="AG64">
+        <v>1.39</v>
+      </c>
+      <c r="AH64">
+        <v>2.77</v>
+      </c>
+      <c r="AI64">
+        <v>1.91</v>
+      </c>
+      <c r="AJ64">
+        <v>1.8</v>
+      </c>
+      <c r="AK64">
+        <v>4.2</v>
+      </c>
+      <c r="AL64">
+        <v>1.11</v>
+      </c>
+      <c r="AM64">
+        <v>1.04</v>
+      </c>
+      <c r="AN64">
+        <v>0.25</v>
+      </c>
+      <c r="AO64">
+        <v>3</v>
+      </c>
+      <c r="AP64">
+        <v>0.2</v>
+      </c>
+      <c r="AQ64">
+        <v>3</v>
+      </c>
+      <c r="AR64">
+        <v>1.37</v>
+      </c>
+      <c r="AS64">
+        <v>1.88</v>
+      </c>
+      <c r="AT64">
+        <v>3.25</v>
+      </c>
+      <c r="AU64">
+        <v>4</v>
+      </c>
+      <c r="AV64">
+        <v>8</v>
+      </c>
+      <c r="AW64">
+        <v>4</v>
+      </c>
+      <c r="AX64">
+        <v>9</v>
+      </c>
+      <c r="AY64">
+        <v>8</v>
+      </c>
+      <c r="AZ64">
+        <v>17</v>
+      </c>
+      <c r="BA64">
+        <v>4</v>
+      </c>
+      <c r="BB64">
+        <v>8</v>
+      </c>
+      <c r="BC64">
+        <v>12</v>
+      </c>
+      <c r="BD64">
+        <v>5.6</v>
+      </c>
+      <c r="BE64">
+        <v>11</v>
+      </c>
+      <c r="BF64">
+        <v>1.21</v>
+      </c>
+      <c r="BG64">
+        <v>1.11</v>
+      </c>
+      <c r="BH64">
+        <v>5.9</v>
+      </c>
+      <c r="BI64">
+        <v>1.2</v>
+      </c>
+      <c r="BJ64">
+        <v>3.55</v>
+      </c>
+      <c r="BK64">
+        <v>1.4</v>
+      </c>
+      <c r="BL64">
+        <v>2.56</v>
+      </c>
+      <c r="BM64">
+        <v>1.92</v>
+      </c>
+      <c r="BN64">
+        <v>1.88</v>
+      </c>
+      <c r="BO64">
+        <v>2.1</v>
+      </c>
+      <c r="BP64">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7468145</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45557.4375</v>
+      </c>
+      <c r="F65">
+        <v>9</v>
+      </c>
+      <c r="G65" t="s">
+        <v>85</v>
+      </c>
+      <c r="H65" t="s">
+        <v>74</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>2</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>3</v>
+      </c>
+      <c r="O65" t="s">
+        <v>132</v>
+      </c>
+      <c r="P65" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q65">
+        <v>2.1</v>
+      </c>
+      <c r="R65">
+        <v>2.25</v>
+      </c>
+      <c r="S65">
+        <v>5.5</v>
+      </c>
+      <c r="T65">
+        <v>1.34</v>
+      </c>
+      <c r="U65">
+        <v>3.2</v>
+      </c>
+      <c r="V65">
+        <v>2.72</v>
+      </c>
+      <c r="W65">
+        <v>1.45</v>
+      </c>
+      <c r="X65">
+        <v>6.45</v>
+      </c>
+      <c r="Y65">
+        <v>1.09</v>
+      </c>
+      <c r="Z65">
+        <v>1.58</v>
+      </c>
+      <c r="AA65">
+        <v>4</v>
+      </c>
+      <c r="AB65">
+        <v>5.25</v>
+      </c>
+      <c r="AC65">
+        <v>1.01</v>
+      </c>
+      <c r="AD65">
+        <v>11</v>
+      </c>
+      <c r="AE65">
+        <v>1.22</v>
+      </c>
+      <c r="AF65">
+        <v>3.8</v>
+      </c>
+      <c r="AG65">
+        <v>1.81</v>
+      </c>
+      <c r="AH65">
+        <v>2</v>
+      </c>
+      <c r="AI65">
+        <v>1.87</v>
+      </c>
+      <c r="AJ65">
+        <v>1.9</v>
+      </c>
+      <c r="AK65">
+        <v>1.12</v>
+      </c>
+      <c r="AL65">
+        <v>1.22</v>
+      </c>
+      <c r="AM65">
+        <v>2.3</v>
+      </c>
+      <c r="AN65">
+        <v>2.33</v>
+      </c>
+      <c r="AO65">
+        <v>0.33</v>
+      </c>
+      <c r="AP65">
+        <v>2.5</v>
+      </c>
+      <c r="AQ65">
+        <v>0.25</v>
+      </c>
+      <c r="AR65">
+        <v>1.75</v>
+      </c>
+      <c r="AS65">
+        <v>0.87</v>
+      </c>
+      <c r="AT65">
+        <v>2.62</v>
+      </c>
+      <c r="AU65">
+        <v>6</v>
+      </c>
+      <c r="AV65">
+        <v>4</v>
+      </c>
+      <c r="AW65">
+        <v>2</v>
+      </c>
+      <c r="AX65">
+        <v>0</v>
+      </c>
+      <c r="AY65">
+        <v>8</v>
+      </c>
+      <c r="AZ65">
+        <v>4</v>
+      </c>
+      <c r="BA65">
+        <v>6</v>
+      </c>
+      <c r="BB65">
+        <v>8</v>
+      </c>
+      <c r="BC65">
+        <v>14</v>
+      </c>
+      <c r="BD65">
+        <v>1.55</v>
+      </c>
+      <c r="BE65">
+        <v>8.5</v>
+      </c>
+      <c r="BF65">
+        <v>2.91</v>
+      </c>
+      <c r="BG65">
+        <v>1.17</v>
+      </c>
+      <c r="BH65">
+        <v>4.7</v>
+      </c>
+      <c r="BI65">
+        <v>1.26</v>
+      </c>
+      <c r="BJ65">
+        <v>3.08</v>
+      </c>
+      <c r="BK65">
+        <v>1.5</v>
+      </c>
+      <c r="BL65">
+        <v>2.28</v>
+      </c>
+      <c r="BM65">
+        <v>1.95</v>
+      </c>
+      <c r="BN65">
+        <v>1.85</v>
+      </c>
+      <c r="BO65">
+        <v>2.38</v>
+      </c>
+      <c r="BP65">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="168">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -415,6 +415,9 @@
     <t>['1', '59']</t>
   </si>
   <si>
+    <t>['12', '90+1']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -512,6 +515,9 @@
   </si>
   <si>
     <t>['74']</t>
+  </si>
+  <si>
+    <t>['67', '78', '86']</t>
   </si>
 </sst>
 </file>
@@ -873,7 +879,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP65"/>
+  <dimension ref="A1:BP66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1132,7 +1138,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q2">
         <v>1.53</v>
@@ -1210,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ2">
         <v>0.8</v>
@@ -1544,7 +1550,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -1625,7 +1631,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1750,7 +1756,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -1956,7 +1962,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2162,7 +2168,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2986,7 +2992,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q11">
         <v>2.85</v>
@@ -3192,7 +3198,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3604,7 +3610,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -3685,7 +3691,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4428,7 +4434,7 @@
         <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q18">
         <v>5.4</v>
@@ -4712,7 +4718,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ19">
         <v>0.25</v>
@@ -5458,7 +5464,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q23">
         <v>2.6</v>
@@ -5664,7 +5670,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5870,7 +5876,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q25">
         <v>1.06</v>
@@ -6076,7 +6082,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q26">
         <v>3.2</v>
@@ -6282,7 +6288,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q27">
         <v>6.23</v>
@@ -6569,7 +6575,7 @@
         <v>3</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR28">
         <v>2.4</v>
@@ -7724,7 +7730,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q34">
         <v>1.45</v>
@@ -7930,7 +7936,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q35">
         <v>2.84</v>
@@ -8136,7 +8142,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q36">
         <v>5.63</v>
@@ -8342,7 +8348,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q37">
         <v>2.58</v>
@@ -8754,7 +8760,7 @@
         <v>88</v>
       </c>
       <c r="P39" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q39">
         <v>4.75</v>
@@ -9166,7 +9172,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9372,7 +9378,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q42">
         <v>2.61</v>
@@ -9578,7 +9584,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q43">
         <v>1.69</v>
@@ -9656,7 +9662,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ43">
         <v>1</v>
@@ -11020,7 +11026,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q50">
         <v>5.1</v>
@@ -11226,7 +11232,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -11844,7 +11850,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12050,7 +12056,7 @@
         <v>93</v>
       </c>
       <c r="P55" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q55">
         <v>3.85</v>
@@ -12256,7 +12262,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q56">
         <v>1.85</v>
@@ -12337,7 +12343,7 @@
         <v>3</v>
       </c>
       <c r="AQ56">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR56">
         <v>1.85</v>
@@ -12462,7 +12468,7 @@
         <v>88</v>
       </c>
       <c r="P57" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q57">
         <v>5.88</v>
@@ -13080,7 +13086,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q60">
         <v>3.86</v>
@@ -13492,7 +13498,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q62">
         <v>1.83</v>
@@ -13698,7 +13704,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q63">
         <v>2.4</v>
@@ -13904,7 +13910,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q64">
         <v>8.77</v>
@@ -14110,7 +14116,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q65">
         <v>2.1</v>
@@ -14267,6 +14273,212 @@
       </c>
       <c r="BP65">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7468157</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45562.60416666666</v>
+      </c>
+      <c r="F66">
+        <v>10</v>
+      </c>
+      <c r="G66" t="s">
+        <v>70</v>
+      </c>
+      <c r="H66" t="s">
+        <v>85</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>2</v>
+      </c>
+      <c r="M66">
+        <v>3</v>
+      </c>
+      <c r="N66">
+        <v>5</v>
+      </c>
+      <c r="O66" t="s">
+        <v>133</v>
+      </c>
+      <c r="P66" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q66">
+        <v>1.55</v>
+      </c>
+      <c r="R66">
+        <v>2.88</v>
+      </c>
+      <c r="S66">
+        <v>8.9</v>
+      </c>
+      <c r="T66">
+        <v>1.22</v>
+      </c>
+      <c r="U66">
+        <v>3.8</v>
+      </c>
+      <c r="V66">
+        <v>2.11</v>
+      </c>
+      <c r="W66">
+        <v>1.68</v>
+      </c>
+      <c r="X66">
+        <v>4.55</v>
+      </c>
+      <c r="Y66">
+        <v>1.18</v>
+      </c>
+      <c r="Z66">
+        <v>1.22</v>
+      </c>
+      <c r="AA66">
+        <v>6.35</v>
+      </c>
+      <c r="AB66">
+        <v>11.5</v>
+      </c>
+      <c r="AC66">
+        <v>1.02</v>
+      </c>
+      <c r="AD66">
+        <v>26</v>
+      </c>
+      <c r="AE66">
+        <v>1.08</v>
+      </c>
+      <c r="AF66">
+        <v>5.1</v>
+      </c>
+      <c r="AG66">
+        <v>1.41</v>
+      </c>
+      <c r="AH66">
+        <v>2.69</v>
+      </c>
+      <c r="AI66">
+        <v>1.98</v>
+      </c>
+      <c r="AJ66">
+        <v>1.74</v>
+      </c>
+      <c r="AK66">
+        <v>1.01</v>
+      </c>
+      <c r="AL66">
+        <v>1.09</v>
+      </c>
+      <c r="AM66">
+        <v>4.4</v>
+      </c>
+      <c r="AN66">
+        <v>2.33</v>
+      </c>
+      <c r="AO66">
+        <v>1</v>
+      </c>
+      <c r="AP66">
+        <v>1.75</v>
+      </c>
+      <c r="AQ66">
+        <v>1.4</v>
+      </c>
+      <c r="AR66">
+        <v>2.05</v>
+      </c>
+      <c r="AS66">
+        <v>1.28</v>
+      </c>
+      <c r="AT66">
+        <v>3.33</v>
+      </c>
+      <c r="AU66">
+        <v>6</v>
+      </c>
+      <c r="AV66">
+        <v>5</v>
+      </c>
+      <c r="AW66">
+        <v>8</v>
+      </c>
+      <c r="AX66">
+        <v>1</v>
+      </c>
+      <c r="AY66">
+        <v>14</v>
+      </c>
+      <c r="AZ66">
+        <v>6</v>
+      </c>
+      <c r="BA66">
+        <v>10</v>
+      </c>
+      <c r="BB66">
+        <v>1</v>
+      </c>
+      <c r="BC66">
+        <v>11</v>
+      </c>
+      <c r="BD66">
+        <v>1.12</v>
+      </c>
+      <c r="BE66">
+        <v>13</v>
+      </c>
+      <c r="BF66">
+        <v>7.55</v>
+      </c>
+      <c r="BG66">
+        <v>1.12</v>
+      </c>
+      <c r="BH66">
+        <v>5.4</v>
+      </c>
+      <c r="BI66">
+        <v>1.24</v>
+      </c>
+      <c r="BJ66">
+        <v>3.6</v>
+      </c>
+      <c r="BK66">
+        <v>1.45</v>
+      </c>
+      <c r="BL66">
+        <v>2.34</v>
+      </c>
+      <c r="BM66">
+        <v>1.9</v>
+      </c>
+      <c r="BN66">
+        <v>1.9</v>
+      </c>
+      <c r="BO66">
+        <v>2.34</v>
+      </c>
+      <c r="BP66">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="177">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -418,6 +418,18 @@
     <t>['12', '90+1']</t>
   </si>
   <si>
+    <t>['2']</t>
+  </si>
+  <si>
+    <t>['8', '75']</t>
+  </si>
+  <si>
+    <t>['64', '78']</t>
+  </si>
+  <si>
+    <t>['32', '72']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -518,6 +530,21 @@
   </si>
   <si>
     <t>['67', '78', '86']</t>
+  </si>
+  <si>
+    <t>['48', '53', '55', '90+1']</t>
+  </si>
+  <si>
+    <t>['86']</t>
+  </si>
+  <si>
+    <t>['87']</t>
+  </si>
+  <si>
+    <t>['43']</t>
+  </si>
+  <si>
+    <t>['14', '16', '34', '50']</t>
   </si>
 </sst>
 </file>
@@ -879,7 +906,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP66"/>
+  <dimension ref="A1:BP73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1138,7 +1165,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q2">
         <v>1.53</v>
@@ -1422,10 +1449,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ3">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1550,7 +1577,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -1756,7 +1783,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -1834,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -1962,7 +1989,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2040,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ6">
         <v>1.6</v>
@@ -2168,7 +2195,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2249,7 +2276,7 @@
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2452,10 +2479,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ8">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2661,7 +2688,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ9">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2864,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ10">
         <v>1.2</v>
@@ -2992,7 +3019,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q11">
         <v>2.85</v>
@@ -3070,10 +3097,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ11">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3198,7 +3225,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3610,7 +3637,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4306,7 +4333,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ17">
         <v>0</v>
@@ -4434,7 +4461,7 @@
         <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q18">
         <v>5.4</v>
@@ -4515,7 +4542,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ18">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR18">
         <v>1.26</v>
@@ -4924,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ20">
         <v>1.2</v>
@@ -5130,7 +5157,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ21">
         <v>1.6</v>
@@ -5339,7 +5366,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ22">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5464,7 +5491,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q23">
         <v>2.6</v>
@@ -5670,7 +5697,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5751,7 +5778,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ24">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR24">
         <v>1.19</v>
@@ -5876,7 +5903,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q25">
         <v>1.06</v>
@@ -5954,7 +5981,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ25">
         <v>1.4</v>
@@ -6082,7 +6109,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q26">
         <v>3.2</v>
@@ -6163,7 +6190,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR26">
         <v>1.06</v>
@@ -6288,7 +6315,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q27">
         <v>6.23</v>
@@ -6366,7 +6393,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ27">
         <v>3</v>
@@ -6778,7 +6805,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ29">
         <v>1</v>
@@ -7396,10 +7423,10 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ32">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR32">
         <v>1.64</v>
@@ -7730,7 +7757,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q34">
         <v>1.45</v>
@@ -7811,7 +7838,7 @@
         <v>3</v>
       </c>
       <c r="AQ34">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR34">
         <v>2.27</v>
@@ -7936,7 +7963,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q35">
         <v>2.84</v>
@@ -8142,7 +8169,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q36">
         <v>5.63</v>
@@ -8220,7 +8247,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ36">
         <v>3</v>
@@ -8348,7 +8375,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q37">
         <v>2.58</v>
@@ -8429,7 +8456,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ37">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR37">
         <v>1.25</v>
@@ -8760,7 +8787,7 @@
         <v>88</v>
       </c>
       <c r="P39" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q39">
         <v>4.75</v>
@@ -9044,7 +9071,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ40">
         <v>1</v>
@@ -9172,7 +9199,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9250,7 +9277,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ41">
         <v>1.4</v>
@@ -9378,7 +9405,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q42">
         <v>2.61</v>
@@ -9459,7 +9486,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ42">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR42">
         <v>1.41</v>
@@ -9584,7 +9611,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q43">
         <v>1.69</v>
@@ -9868,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ44">
         <v>0</v>
@@ -10077,7 +10104,7 @@
         <v>3</v>
       </c>
       <c r="AQ45">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR45">
         <v>1.87</v>
@@ -10280,7 +10307,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ46">
         <v>0</v>
@@ -10898,7 +10925,7 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ49">
         <v>1.4</v>
@@ -11026,7 +11053,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q50">
         <v>5.1</v>
@@ -11232,7 +11259,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -11850,7 +11877,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11931,7 +11958,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ54">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR54">
         <v>1.4</v>
@@ -12056,7 +12083,7 @@
         <v>93</v>
       </c>
       <c r="P55" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q55">
         <v>3.85</v>
@@ -12262,7 +12289,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q56">
         <v>1.85</v>
@@ -12340,7 +12367,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ56">
         <v>1.4</v>
@@ -12468,7 +12495,7 @@
         <v>88</v>
       </c>
       <c r="P57" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q57">
         <v>5.88</v>
@@ -12549,7 +12576,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ57">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR57">
         <v>1.7</v>
@@ -13086,7 +13113,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q60">
         <v>3.86</v>
@@ -13498,7 +13525,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q62">
         <v>1.83</v>
@@ -13704,7 +13731,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q63">
         <v>2.4</v>
@@ -13910,7 +13937,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q64">
         <v>8.77</v>
@@ -14116,7 +14143,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q65">
         <v>2.1</v>
@@ -14322,7 +14349,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q66">
         <v>1.55</v>
@@ -14479,6 +14506,1448 @@
       </c>
       <c r="BP66">
         <v>1.53</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7468155</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45563.35416666666</v>
+      </c>
+      <c r="F67">
+        <v>10</v>
+      </c>
+      <c r="G67" t="s">
+        <v>74</v>
+      </c>
+      <c r="H67" t="s">
+        <v>81</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>4</v>
+      </c>
+      <c r="N67">
+        <v>5</v>
+      </c>
+      <c r="O67" t="s">
+        <v>134</v>
+      </c>
+      <c r="P67" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q67">
+        <v>4</v>
+      </c>
+      <c r="R67">
+        <v>2.25</v>
+      </c>
+      <c r="S67">
+        <v>2.4</v>
+      </c>
+      <c r="T67">
+        <v>1.32</v>
+      </c>
+      <c r="U67">
+        <v>3.15</v>
+      </c>
+      <c r="V67">
+        <v>2.45</v>
+      </c>
+      <c r="W67">
+        <v>1.48</v>
+      </c>
+      <c r="X67">
+        <v>5.5</v>
+      </c>
+      <c r="Y67">
+        <v>1.12</v>
+      </c>
+      <c r="Z67">
+        <v>3.92</v>
+      </c>
+      <c r="AA67">
+        <v>3.82</v>
+      </c>
+      <c r="AB67">
+        <v>1.81</v>
+      </c>
+      <c r="AC67">
+        <v>1.04</v>
+      </c>
+      <c r="AD67">
+        <v>14.75</v>
+      </c>
+      <c r="AE67">
+        <v>1.22</v>
+      </c>
+      <c r="AF67">
+        <v>4.3</v>
+      </c>
+      <c r="AG67">
+        <v>1.81</v>
+      </c>
+      <c r="AH67">
+        <v>1.89</v>
+      </c>
+      <c r="AI67">
+        <v>1.62</v>
+      </c>
+      <c r="AJ67">
+        <v>2.15</v>
+      </c>
+      <c r="AK67">
+        <v>1.85</v>
+      </c>
+      <c r="AL67">
+        <v>1.28</v>
+      </c>
+      <c r="AM67">
+        <v>1.27</v>
+      </c>
+      <c r="AN67">
+        <v>1.5</v>
+      </c>
+      <c r="AO67">
+        <v>1</v>
+      </c>
+      <c r="AP67">
+        <v>1.2</v>
+      </c>
+      <c r="AQ67">
+        <v>1.5</v>
+      </c>
+      <c r="AR67">
+        <v>1.08</v>
+      </c>
+      <c r="AS67">
+        <v>1.55</v>
+      </c>
+      <c r="AT67">
+        <v>2.63</v>
+      </c>
+      <c r="AU67">
+        <v>4</v>
+      </c>
+      <c r="AV67">
+        <v>11</v>
+      </c>
+      <c r="AW67">
+        <v>7</v>
+      </c>
+      <c r="AX67">
+        <v>8</v>
+      </c>
+      <c r="AY67">
+        <v>11</v>
+      </c>
+      <c r="AZ67">
+        <v>19</v>
+      </c>
+      <c r="BA67">
+        <v>5</v>
+      </c>
+      <c r="BB67">
+        <v>10</v>
+      </c>
+      <c r="BC67">
+        <v>15</v>
+      </c>
+      <c r="BD67">
+        <v>2.41</v>
+      </c>
+      <c r="BE67">
+        <v>8.5</v>
+      </c>
+      <c r="BF67">
+        <v>1.75</v>
+      </c>
+      <c r="BG67">
+        <v>1.18</v>
+      </c>
+      <c r="BH67">
+        <v>4.6</v>
+      </c>
+      <c r="BI67">
+        <v>1.28</v>
+      </c>
+      <c r="BJ67">
+        <v>2.97</v>
+      </c>
+      <c r="BK67">
+        <v>1.52</v>
+      </c>
+      <c r="BL67">
+        <v>2.24</v>
+      </c>
+      <c r="BM67">
+        <v>1.98</v>
+      </c>
+      <c r="BN67">
+        <v>1.82</v>
+      </c>
+      <c r="BO67">
+        <v>2.43</v>
+      </c>
+      <c r="BP67">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7468152</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45563.45833333334</v>
+      </c>
+      <c r="F68">
+        <v>10</v>
+      </c>
+      <c r="G68" t="s">
+        <v>78</v>
+      </c>
+      <c r="H68" t="s">
+        <v>79</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68" t="s">
+        <v>88</v>
+      </c>
+      <c r="P68" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q68">
+        <v>3.1</v>
+      </c>
+      <c r="R68">
+        <v>2.1</v>
+      </c>
+      <c r="S68">
+        <v>3.3</v>
+      </c>
+      <c r="T68">
+        <v>1.37</v>
+      </c>
+      <c r="U68">
+        <v>3.05</v>
+      </c>
+      <c r="V68">
+        <v>2.86</v>
+      </c>
+      <c r="W68">
+        <v>1.41</v>
+      </c>
+      <c r="X68">
+        <v>7.1</v>
+      </c>
+      <c r="Y68">
+        <v>1.08</v>
+      </c>
+      <c r="Z68">
+        <v>2.54</v>
+      </c>
+      <c r="AA68">
+        <v>3.42</v>
+      </c>
+      <c r="AB68">
+        <v>2.61</v>
+      </c>
+      <c r="AC68">
+        <v>1.03</v>
+      </c>
+      <c r="AD68">
+        <v>9</v>
+      </c>
+      <c r="AE68">
+        <v>1.25</v>
+      </c>
+      <c r="AF68">
+        <v>3.6</v>
+      </c>
+      <c r="AG68">
+        <v>1.88</v>
+      </c>
+      <c r="AH68">
+        <v>1.82</v>
+      </c>
+      <c r="AI68">
+        <v>1.73</v>
+      </c>
+      <c r="AJ68">
+        <v>2.1</v>
+      </c>
+      <c r="AK68">
+        <v>1.47</v>
+      </c>
+      <c r="AL68">
+        <v>1.3</v>
+      </c>
+      <c r="AM68">
+        <v>1.48</v>
+      </c>
+      <c r="AN68">
+        <v>1</v>
+      </c>
+      <c r="AO68">
+        <v>0</v>
+      </c>
+      <c r="AP68">
+        <v>0.75</v>
+      </c>
+      <c r="AQ68">
+        <v>0.75</v>
+      </c>
+      <c r="AR68">
+        <v>1.23</v>
+      </c>
+      <c r="AS68">
+        <v>1.24</v>
+      </c>
+      <c r="AT68">
+        <v>2.47</v>
+      </c>
+      <c r="AU68">
+        <v>3</v>
+      </c>
+      <c r="AV68">
+        <v>5</v>
+      </c>
+      <c r="AW68">
+        <v>3</v>
+      </c>
+      <c r="AX68">
+        <v>6</v>
+      </c>
+      <c r="AY68">
+        <v>6</v>
+      </c>
+      <c r="AZ68">
+        <v>11</v>
+      </c>
+      <c r="BA68">
+        <v>0</v>
+      </c>
+      <c r="BB68">
+        <v>12</v>
+      </c>
+      <c r="BC68">
+        <v>12</v>
+      </c>
+      <c r="BD68">
+        <v>2.1</v>
+      </c>
+      <c r="BE68">
+        <v>8.5</v>
+      </c>
+      <c r="BF68">
+        <v>1.91</v>
+      </c>
+      <c r="BG68">
+        <v>1.16</v>
+      </c>
+      <c r="BH68">
+        <v>4.9</v>
+      </c>
+      <c r="BI68">
+        <v>1.25</v>
+      </c>
+      <c r="BJ68">
+        <v>3.14</v>
+      </c>
+      <c r="BK68">
+        <v>1.56</v>
+      </c>
+      <c r="BL68">
+        <v>2.35</v>
+      </c>
+      <c r="BM68">
+        <v>1.9</v>
+      </c>
+      <c r="BN68">
+        <v>1.9</v>
+      </c>
+      <c r="BO68">
+        <v>2.4</v>
+      </c>
+      <c r="BP68">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7468159</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45563.45833333334</v>
+      </c>
+      <c r="F69">
+        <v>10</v>
+      </c>
+      <c r="G69" t="s">
+        <v>76</v>
+      </c>
+      <c r="H69" t="s">
+        <v>75</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>2</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>3</v>
+      </c>
+      <c r="O69" t="s">
+        <v>135</v>
+      </c>
+      <c r="P69" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q69">
+        <v>2.35</v>
+      </c>
+      <c r="R69">
+        <v>2.1</v>
+      </c>
+      <c r="S69">
+        <v>4.7</v>
+      </c>
+      <c r="T69">
+        <v>1.42</v>
+      </c>
+      <c r="U69">
+        <v>2.65</v>
+      </c>
+      <c r="V69">
+        <v>2.95</v>
+      </c>
+      <c r="W69">
+        <v>1.35</v>
+      </c>
+      <c r="X69">
+        <v>7.4</v>
+      </c>
+      <c r="Y69">
+        <v>1.06</v>
+      </c>
+      <c r="Z69">
+        <v>1.79</v>
+      </c>
+      <c r="AA69">
+        <v>3.55</v>
+      </c>
+      <c r="AB69">
+        <v>4.35</v>
+      </c>
+      <c r="AC69">
+        <v>1.06</v>
+      </c>
+      <c r="AD69">
+        <v>10</v>
+      </c>
+      <c r="AE69">
+        <v>1.33</v>
+      </c>
+      <c r="AF69">
+        <v>3.2</v>
+      </c>
+      <c r="AG69">
+        <v>2.04</v>
+      </c>
+      <c r="AH69">
+        <v>1.7</v>
+      </c>
+      <c r="AI69">
+        <v>1.9</v>
+      </c>
+      <c r="AJ69">
+        <v>1.87</v>
+      </c>
+      <c r="AK69">
+        <v>1.16</v>
+      </c>
+      <c r="AL69">
+        <v>1.22</v>
+      </c>
+      <c r="AM69">
+        <v>1.95</v>
+      </c>
+      <c r="AN69">
+        <v>1.5</v>
+      </c>
+      <c r="AO69">
+        <v>2</v>
+      </c>
+      <c r="AP69">
+        <v>1.8</v>
+      </c>
+      <c r="AQ69">
+        <v>1.5</v>
+      </c>
+      <c r="AR69">
+        <v>1.16</v>
+      </c>
+      <c r="AS69">
+        <v>1.61</v>
+      </c>
+      <c r="AT69">
+        <v>2.77</v>
+      </c>
+      <c r="AU69">
+        <v>3</v>
+      </c>
+      <c r="AV69">
+        <v>7</v>
+      </c>
+      <c r="AW69">
+        <v>4</v>
+      </c>
+      <c r="AX69">
+        <v>7</v>
+      </c>
+      <c r="AY69">
+        <v>7</v>
+      </c>
+      <c r="AZ69">
+        <v>14</v>
+      </c>
+      <c r="BA69">
+        <v>3</v>
+      </c>
+      <c r="BB69">
+        <v>4</v>
+      </c>
+      <c r="BC69">
+        <v>7</v>
+      </c>
+      <c r="BD69">
+        <v>1.64</v>
+      </c>
+      <c r="BE69">
+        <v>8.5</v>
+      </c>
+      <c r="BF69">
+        <v>2.66</v>
+      </c>
+      <c r="BG69">
+        <v>1.15</v>
+      </c>
+      <c r="BH69">
+        <v>4.8</v>
+      </c>
+      <c r="BI69">
+        <v>1.25</v>
+      </c>
+      <c r="BJ69">
+        <v>3.14</v>
+      </c>
+      <c r="BK69">
+        <v>1.53</v>
+      </c>
+      <c r="BL69">
+        <v>2.46</v>
+      </c>
+      <c r="BM69">
+        <v>1.9</v>
+      </c>
+      <c r="BN69">
+        <v>1.9</v>
+      </c>
+      <c r="BO69">
+        <v>2.33</v>
+      </c>
+      <c r="BP69">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7468158</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45563.58333333334</v>
+      </c>
+      <c r="F70">
+        <v>10</v>
+      </c>
+      <c r="G70" t="s">
+        <v>71</v>
+      </c>
+      <c r="H70" t="s">
+        <v>77</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>2</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>2</v>
+      </c>
+      <c r="O70" t="s">
+        <v>136</v>
+      </c>
+      <c r="P70" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q70">
+        <v>2.88</v>
+      </c>
+      <c r="R70">
+        <v>2</v>
+      </c>
+      <c r="S70">
+        <v>3.6</v>
+      </c>
+      <c r="T70">
+        <v>1.45</v>
+      </c>
+      <c r="U70">
+        <v>2.6</v>
+      </c>
+      <c r="V70">
+        <v>2.95</v>
+      </c>
+      <c r="W70">
+        <v>1.36</v>
+      </c>
+      <c r="X70">
+        <v>7</v>
+      </c>
+      <c r="Y70">
+        <v>1.07</v>
+      </c>
+      <c r="Z70">
+        <v>2.35</v>
+      </c>
+      <c r="AA70">
+        <v>3.05</v>
+      </c>
+      <c r="AB70">
+        <v>3.05</v>
+      </c>
+      <c r="AC70">
+        <v>1.05</v>
+      </c>
+      <c r="AD70">
+        <v>8</v>
+      </c>
+      <c r="AE70">
+        <v>1.29</v>
+      </c>
+      <c r="AF70">
+        <v>3.3</v>
+      </c>
+      <c r="AG70">
+        <v>1.98</v>
+      </c>
+      <c r="AH70">
+        <v>1.77</v>
+      </c>
+      <c r="AI70">
+        <v>1.8</v>
+      </c>
+      <c r="AJ70">
+        <v>2</v>
+      </c>
+      <c r="AK70">
+        <v>1.38</v>
+      </c>
+      <c r="AL70">
+        <v>1.28</v>
+      </c>
+      <c r="AM70">
+        <v>1.55</v>
+      </c>
+      <c r="AN70">
+        <v>1.33</v>
+      </c>
+      <c r="AO70">
+        <v>0</v>
+      </c>
+      <c r="AP70">
+        <v>1.75</v>
+      </c>
+      <c r="AQ70">
+        <v>0</v>
+      </c>
+      <c r="AR70">
+        <v>1.53</v>
+      </c>
+      <c r="AS70">
+        <v>0.89</v>
+      </c>
+      <c r="AT70">
+        <v>2.42</v>
+      </c>
+      <c r="AU70">
+        <v>8</v>
+      </c>
+      <c r="AV70">
+        <v>5</v>
+      </c>
+      <c r="AW70">
+        <v>13</v>
+      </c>
+      <c r="AX70">
+        <v>6</v>
+      </c>
+      <c r="AY70">
+        <v>21</v>
+      </c>
+      <c r="AZ70">
+        <v>11</v>
+      </c>
+      <c r="BA70">
+        <v>7</v>
+      </c>
+      <c r="BB70">
+        <v>2</v>
+      </c>
+      <c r="BC70">
+        <v>9</v>
+      </c>
+      <c r="BD70">
+        <v>1.82</v>
+      </c>
+      <c r="BE70">
+        <v>8</v>
+      </c>
+      <c r="BF70">
+        <v>2.33</v>
+      </c>
+      <c r="BG70">
+        <v>1.16</v>
+      </c>
+      <c r="BH70">
+        <v>4.9</v>
+      </c>
+      <c r="BI70">
+        <v>1.27</v>
+      </c>
+      <c r="BJ70">
+        <v>3.04</v>
+      </c>
+      <c r="BK70">
+        <v>1.52</v>
+      </c>
+      <c r="BL70">
+        <v>2.44</v>
+      </c>
+      <c r="BM70">
+        <v>1.87</v>
+      </c>
+      <c r="BN70">
+        <v>1.93</v>
+      </c>
+      <c r="BO70">
+        <v>2.33</v>
+      </c>
+      <c r="BP70">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7468154</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45564.33333333334</v>
+      </c>
+      <c r="F71">
+        <v>10</v>
+      </c>
+      <c r="G71" t="s">
+        <v>83</v>
+      </c>
+      <c r="H71" t="s">
+        <v>72</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>2</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>3</v>
+      </c>
+      <c r="O71" t="s">
+        <v>137</v>
+      </c>
+      <c r="P71" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q71">
+        <v>1.72</v>
+      </c>
+      <c r="R71">
+        <v>2.65</v>
+      </c>
+      <c r="S71">
+        <v>6.5</v>
+      </c>
+      <c r="T71">
+        <v>1.24</v>
+      </c>
+      <c r="U71">
+        <v>3.7</v>
+      </c>
+      <c r="V71">
+        <v>2.14</v>
+      </c>
+      <c r="W71">
+        <v>1.64</v>
+      </c>
+      <c r="X71">
+        <v>4.7</v>
+      </c>
+      <c r="Y71">
+        <v>1.16</v>
+      </c>
+      <c r="Z71">
+        <v>1.3</v>
+      </c>
+      <c r="AA71">
+        <v>5</v>
+      </c>
+      <c r="AB71">
+        <v>7</v>
+      </c>
+      <c r="AC71">
+        <v>1.02</v>
+      </c>
+      <c r="AD71">
+        <v>24</v>
+      </c>
+      <c r="AE71">
+        <v>1.09</v>
+      </c>
+      <c r="AF71">
+        <v>4.95</v>
+      </c>
+      <c r="AG71">
+        <v>1.45</v>
+      </c>
+      <c r="AH71">
+        <v>2.55</v>
+      </c>
+      <c r="AI71">
+        <v>1.75</v>
+      </c>
+      <c r="AJ71">
+        <v>2</v>
+      </c>
+      <c r="AK71">
+        <v>1.03</v>
+      </c>
+      <c r="AL71">
+        <v>1.1</v>
+      </c>
+      <c r="AM71">
+        <v>3.3</v>
+      </c>
+      <c r="AN71">
+        <v>3</v>
+      </c>
+      <c r="AO71">
+        <v>0</v>
+      </c>
+      <c r="AP71">
+        <v>3</v>
+      </c>
+      <c r="AQ71">
+        <v>0</v>
+      </c>
+      <c r="AR71">
+        <v>1.82</v>
+      </c>
+      <c r="AS71">
+        <v>1</v>
+      </c>
+      <c r="AT71">
+        <v>2.82</v>
+      </c>
+      <c r="AU71">
+        <v>7</v>
+      </c>
+      <c r="AV71">
+        <v>3</v>
+      </c>
+      <c r="AW71">
+        <v>5</v>
+      </c>
+      <c r="AX71">
+        <v>7</v>
+      </c>
+      <c r="AY71">
+        <v>12</v>
+      </c>
+      <c r="AZ71">
+        <v>10</v>
+      </c>
+      <c r="BA71">
+        <v>7</v>
+      </c>
+      <c r="BB71">
+        <v>4</v>
+      </c>
+      <c r="BC71">
+        <v>11</v>
+      </c>
+      <c r="BD71">
+        <v>1.23</v>
+      </c>
+      <c r="BE71">
+        <v>11</v>
+      </c>
+      <c r="BF71">
+        <v>4.89</v>
+      </c>
+      <c r="BG71">
+        <v>0</v>
+      </c>
+      <c r="BH71">
+        <v>0</v>
+      </c>
+      <c r="BI71">
+        <v>1.16</v>
+      </c>
+      <c r="BJ71">
+        <v>4.5</v>
+      </c>
+      <c r="BK71">
+        <v>1.25</v>
+      </c>
+      <c r="BL71">
+        <v>3.14</v>
+      </c>
+      <c r="BM71">
+        <v>1.53</v>
+      </c>
+      <c r="BN71">
+        <v>2.42</v>
+      </c>
+      <c r="BO71">
+        <v>1.9</v>
+      </c>
+      <c r="BP71">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7468153</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45564.4375</v>
+      </c>
+      <c r="F72">
+        <v>10</v>
+      </c>
+      <c r="G72" t="s">
+        <v>84</v>
+      </c>
+      <c r="H72" t="s">
+        <v>82</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>2</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>2</v>
+      </c>
+      <c r="O72" t="s">
+        <v>124</v>
+      </c>
+      <c r="P72" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q72">
+        <v>1.88</v>
+      </c>
+      <c r="R72">
+        <v>2.65</v>
+      </c>
+      <c r="S72">
+        <v>5.3</v>
+      </c>
+      <c r="T72">
+        <v>1.22</v>
+      </c>
+      <c r="U72">
+        <v>3.9</v>
+      </c>
+      <c r="V72">
+        <v>2.23</v>
+      </c>
+      <c r="W72">
+        <v>1.58</v>
+      </c>
+      <c r="X72">
+        <v>5.1</v>
+      </c>
+      <c r="Y72">
+        <v>1.14</v>
+      </c>
+      <c r="Z72">
+        <v>1.44</v>
+      </c>
+      <c r="AA72">
+        <v>4.4</v>
+      </c>
+      <c r="AB72">
+        <v>5.25</v>
+      </c>
+      <c r="AC72">
+        <v>1.03</v>
+      </c>
+      <c r="AD72">
+        <v>19.25</v>
+      </c>
+      <c r="AE72">
+        <v>1.12</v>
+      </c>
+      <c r="AF72">
+        <v>4.45</v>
+      </c>
+      <c r="AG72">
+        <v>1.53</v>
+      </c>
+      <c r="AH72">
+        <v>2.35</v>
+      </c>
+      <c r="AI72">
+        <v>1.67</v>
+      </c>
+      <c r="AJ72">
+        <v>2.1</v>
+      </c>
+      <c r="AK72">
+        <v>1.09</v>
+      </c>
+      <c r="AL72">
+        <v>1.16</v>
+      </c>
+      <c r="AM72">
+        <v>2.7</v>
+      </c>
+      <c r="AN72">
+        <v>3</v>
+      </c>
+      <c r="AO72">
+        <v>0.75</v>
+      </c>
+      <c r="AP72">
+        <v>2.5</v>
+      </c>
+      <c r="AQ72">
+        <v>0.8</v>
+      </c>
+      <c r="AR72">
+        <v>1.84</v>
+      </c>
+      <c r="AS72">
+        <v>1.5</v>
+      </c>
+      <c r="AT72">
+        <v>3.34</v>
+      </c>
+      <c r="AU72">
+        <v>7</v>
+      </c>
+      <c r="AV72">
+        <v>0</v>
+      </c>
+      <c r="AW72">
+        <v>5</v>
+      </c>
+      <c r="AX72">
+        <v>3</v>
+      </c>
+      <c r="AY72">
+        <v>12</v>
+      </c>
+      <c r="AZ72">
+        <v>3</v>
+      </c>
+      <c r="BA72">
+        <v>9</v>
+      </c>
+      <c r="BB72">
+        <v>1</v>
+      </c>
+      <c r="BC72">
+        <v>10</v>
+      </c>
+      <c r="BD72">
+        <v>1.45</v>
+      </c>
+      <c r="BE72">
+        <v>9</v>
+      </c>
+      <c r="BF72">
+        <v>3.28</v>
+      </c>
+      <c r="BG72">
+        <v>1.1</v>
+      </c>
+      <c r="BH72">
+        <v>5.8</v>
+      </c>
+      <c r="BI72">
+        <v>1.21</v>
+      </c>
+      <c r="BJ72">
+        <v>3.9</v>
+      </c>
+      <c r="BK72">
+        <v>1.33</v>
+      </c>
+      <c r="BL72">
+        <v>2.73</v>
+      </c>
+      <c r="BM72">
+        <v>1.92</v>
+      </c>
+      <c r="BN72">
+        <v>1.88</v>
+      </c>
+      <c r="BO72">
+        <v>2.04</v>
+      </c>
+      <c r="BP72">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7468156</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45564.5625</v>
+      </c>
+      <c r="F73">
+        <v>10</v>
+      </c>
+      <c r="G73" t="s">
+        <v>73</v>
+      </c>
+      <c r="H73" t="s">
+        <v>80</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>3</v>
+      </c>
+      <c r="K73">
+        <v>3</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>4</v>
+      </c>
+      <c r="N73">
+        <v>4</v>
+      </c>
+      <c r="O73" t="s">
+        <v>88</v>
+      </c>
+      <c r="P73" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q73">
+        <v>7</v>
+      </c>
+      <c r="R73">
+        <v>2.5</v>
+      </c>
+      <c r="S73">
+        <v>1.83</v>
+      </c>
+      <c r="T73">
+        <v>1.29</v>
+      </c>
+      <c r="U73">
+        <v>3.5</v>
+      </c>
+      <c r="V73">
+        <v>2.38</v>
+      </c>
+      <c r="W73">
+        <v>1.53</v>
+      </c>
+      <c r="X73">
+        <v>5.5</v>
+      </c>
+      <c r="Y73">
+        <v>1.14</v>
+      </c>
+      <c r="Z73">
+        <v>7.5</v>
+      </c>
+      <c r="AA73">
+        <v>5</v>
+      </c>
+      <c r="AB73">
+        <v>1.35</v>
+      </c>
+      <c r="AC73">
+        <v>1.01</v>
+      </c>
+      <c r="AD73">
+        <v>15</v>
+      </c>
+      <c r="AE73">
+        <v>1.2</v>
+      </c>
+      <c r="AF73">
+        <v>4.5</v>
+      </c>
+      <c r="AG73">
+        <v>1.58</v>
+      </c>
+      <c r="AH73">
+        <v>2.3</v>
+      </c>
+      <c r="AI73">
+        <v>1.95</v>
+      </c>
+      <c r="AJ73">
+        <v>1.8</v>
+      </c>
+      <c r="AK73">
+        <v>3.3</v>
+      </c>
+      <c r="AL73">
+        <v>1.1</v>
+      </c>
+      <c r="AM73">
+        <v>1.03</v>
+      </c>
+      <c r="AN73">
+        <v>1</v>
+      </c>
+      <c r="AO73">
+        <v>2.33</v>
+      </c>
+      <c r="AP73">
+        <v>0.75</v>
+      </c>
+      <c r="AQ73">
+        <v>2.5</v>
+      </c>
+      <c r="AR73">
+        <v>1.68</v>
+      </c>
+      <c r="AS73">
+        <v>1.51</v>
+      </c>
+      <c r="AT73">
+        <v>3.19</v>
+      </c>
+      <c r="AU73">
+        <v>0</v>
+      </c>
+      <c r="AV73">
+        <v>7</v>
+      </c>
+      <c r="AW73">
+        <v>3</v>
+      </c>
+      <c r="AX73">
+        <v>10</v>
+      </c>
+      <c r="AY73">
+        <v>3</v>
+      </c>
+      <c r="AZ73">
+        <v>17</v>
+      </c>
+      <c r="BA73">
+        <v>5</v>
+      </c>
+      <c r="BB73">
+        <v>10</v>
+      </c>
+      <c r="BC73">
+        <v>15</v>
+      </c>
+      <c r="BD73">
+        <v>3.84</v>
+      </c>
+      <c r="BE73">
+        <v>10</v>
+      </c>
+      <c r="BF73">
+        <v>1.34</v>
+      </c>
+      <c r="BG73">
+        <v>1.15</v>
+      </c>
+      <c r="BH73">
+        <v>4.8</v>
+      </c>
+      <c r="BI73">
+        <v>1.24</v>
+      </c>
+      <c r="BJ73">
+        <v>3.22</v>
+      </c>
+      <c r="BK73">
+        <v>1.46</v>
+      </c>
+      <c r="BL73">
+        <v>2.38</v>
+      </c>
+      <c r="BM73">
+        <v>1.85</v>
+      </c>
+      <c r="BN73">
+        <v>1.95</v>
+      </c>
+      <c r="BO73">
+        <v>2.26</v>
+      </c>
+      <c r="BP73">
+        <v>1.51</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -394,6 +394,9 @@
     <t>['42', '55']</t>
   </si>
   <si>
+    <t>['10', '45+1', '45+5']</t>
+  </si>
+  <si>
     <t>['34', '67', '89']</t>
   </si>
   <si>
@@ -403,9 +406,6 @@
     <t>['34', '90+3']</t>
   </si>
   <si>
-    <t>['10', '45+1', '45+5']</t>
-  </si>
-  <si>
     <t>['35', '48']</t>
   </si>
   <si>
@@ -517,25 +517,25 @@
     <t>['37', '52', '65']</t>
   </si>
   <si>
+    <t>['11', '52']</t>
+  </si>
+  <si>
     <t>['8', '65']</t>
   </si>
   <si>
     <t>['3', '71']</t>
   </si>
   <si>
-    <t>['11', '52']</t>
-  </si>
-  <si>
     <t>['74']</t>
   </si>
   <si>
     <t>['67', '78', '86']</t>
   </si>
   <si>
+    <t>['86']</t>
+  </si>
+  <si>
     <t>['48', '53', '55', '90+1']</t>
-  </si>
-  <si>
-    <t>['86']</t>
   </si>
   <si>
     <t>['87']</t>
@@ -12659,7 +12659,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>7468149</v>
+        <v>7468146</v>
       </c>
       <c r="C58" t="s">
         <v>68</v>
@@ -12668,25 +12668,25 @@
         <v>69</v>
       </c>
       <c r="E58" s="2">
-        <v>45556.35416666666</v>
+        <v>45555.875</v>
       </c>
       <c r="F58">
         <v>9</v>
       </c>
       <c r="G58" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H58" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J58">
         <v>0</v>
       </c>
       <c r="K58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L58">
         <v>3</v>
@@ -12704,160 +12704,160 @@
         <v>88</v>
       </c>
       <c r="Q58">
-        <v>3</v>
+        <v>1.91</v>
       </c>
       <c r="R58">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="S58">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="T58">
-        <v>1.51</v>
+        <v>1.31</v>
       </c>
       <c r="U58">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="V58">
-        <v>3.25</v>
+        <v>2.45</v>
       </c>
       <c r="W58">
-        <v>1.3</v>
+        <v>1.49</v>
       </c>
       <c r="X58">
-        <v>8.949999999999999</v>
+        <v>5.45</v>
       </c>
       <c r="Y58">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="Z58">
-        <v>2.4</v>
+        <v>1.45</v>
       </c>
       <c r="AA58">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="AB58">
-        <v>3.1</v>
+        <v>5.95</v>
       </c>
       <c r="AC58">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="AD58">
-        <v>7.1</v>
+        <v>11</v>
       </c>
       <c r="AE58">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="AF58">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="AG58">
-        <v>2.3</v>
+        <v>1.82</v>
       </c>
       <c r="AH58">
-        <v>1.53</v>
+        <v>1.88</v>
       </c>
       <c r="AI58">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="AJ58">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="AK58">
-        <v>1.36</v>
+        <v>1.08</v>
       </c>
       <c r="AL58">
-        <v>1.28</v>
+        <v>1.16</v>
       </c>
       <c r="AM58">
-        <v>1.57</v>
+        <v>2.55</v>
       </c>
       <c r="AN58">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AO58">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AP58">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="AQ58">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AR58">
-        <v>1.32</v>
+        <v>2.33</v>
       </c>
       <c r="AS58">
-        <v>1.12</v>
+        <v>1.35</v>
       </c>
       <c r="AT58">
-        <v>2.44</v>
+        <v>3.68</v>
       </c>
       <c r="AU58">
+        <v>7</v>
+      </c>
+      <c r="AV58">
         <v>4</v>
       </c>
-      <c r="AV58">
-        <v>0</v>
-      </c>
       <c r="AW58">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX58">
         <v>4</v>
       </c>
       <c r="AY58">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ58">
+        <v>8</v>
+      </c>
+      <c r="BA58">
+        <v>14</v>
+      </c>
+      <c r="BB58">
         <v>4</v>
       </c>
-      <c r="BA58">
-        <v>8</v>
-      </c>
-      <c r="BB58">
-        <v>5</v>
-      </c>
       <c r="BC58">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BD58">
-        <v>1.69</v>
+        <v>1.19</v>
       </c>
       <c r="BE58">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="BF58">
-        <v>2.53</v>
+        <v>5.67</v>
       </c>
       <c r="BG58">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="BH58">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="BI58">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="BJ58">
-        <v>2.97</v>
+        <v>3.28</v>
       </c>
       <c r="BK58">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="BL58">
-        <v>2.24</v>
+        <v>2.54</v>
       </c>
       <c r="BM58">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="BN58">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="BO58">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="BP58">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="59" spans="1:68">
@@ -12865,7 +12865,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>7468151</v>
+        <v>7468149</v>
       </c>
       <c r="C59" t="s">
         <v>68</v>
@@ -12874,16 +12874,16 @@
         <v>69</v>
       </c>
       <c r="E59" s="2">
-        <v>45556.45833333334</v>
+        <v>45556.35416666666</v>
       </c>
       <c r="F59">
         <v>9</v>
       </c>
       <c r="G59" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H59" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -12895,13 +12895,13 @@
         <v>1</v>
       </c>
       <c r="L59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M59">
         <v>0</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O59" t="s">
         <v>127</v>
@@ -12910,136 +12910,136 @@
         <v>88</v>
       </c>
       <c r="Q59">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="R59">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S59">
+        <v>3.75</v>
+      </c>
+      <c r="T59">
+        <v>1.51</v>
+      </c>
+      <c r="U59">
+        <v>2.4</v>
+      </c>
+      <c r="V59">
+        <v>3.25</v>
+      </c>
+      <c r="W59">
+        <v>1.3</v>
+      </c>
+      <c r="X59">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="Y59">
+        <v>1.04</v>
+      </c>
+      <c r="Z59">
+        <v>2.4</v>
+      </c>
+      <c r="AA59">
+        <v>3</v>
+      </c>
+      <c r="AB59">
         <v>3.1</v>
       </c>
-      <c r="T59">
+      <c r="AC59">
+        <v>1.05</v>
+      </c>
+      <c r="AD59">
+        <v>7.1</v>
+      </c>
+      <c r="AE59">
+        <v>1.42</v>
+      </c>
+      <c r="AF59">
+        <v>2.7</v>
+      </c>
+      <c r="AG59">
+        <v>2.3</v>
+      </c>
+      <c r="AH59">
+        <v>1.53</v>
+      </c>
+      <c r="AI59">
+        <v>1.95</v>
+      </c>
+      <c r="AJ59">
+        <v>1.8</v>
+      </c>
+      <c r="AK59">
         <v>1.36</v>
-      </c>
-      <c r="U59">
-        <v>2.99</v>
-      </c>
-      <c r="V59">
-        <v>2.7</v>
-      </c>
-      <c r="W59">
-        <v>1.43</v>
-      </c>
-      <c r="X59">
-        <v>6.6</v>
-      </c>
-      <c r="Y59">
-        <v>1.09</v>
-      </c>
-      <c r="Z59">
-        <v>2.62</v>
-      </c>
-      <c r="AA59">
-        <v>3.3</v>
-      </c>
-      <c r="AB59">
-        <v>2.62</v>
-      </c>
-      <c r="AC59">
-        <v>1.02</v>
-      </c>
-      <c r="AD59">
-        <v>10</v>
-      </c>
-      <c r="AE59">
-        <v>1.22</v>
-      </c>
-      <c r="AF59">
-        <v>3.8</v>
-      </c>
-      <c r="AG59">
-        <v>2</v>
-      </c>
-      <c r="AH59">
-        <v>1.73</v>
-      </c>
-      <c r="AI59">
-        <v>1.65</v>
-      </c>
-      <c r="AJ59">
-        <v>2.2</v>
-      </c>
-      <c r="AK59">
-        <v>1.47</v>
       </c>
       <c r="AL59">
         <v>1.28</v>
       </c>
       <c r="AM59">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="AN59">
-        <v>0.5</v>
+        <v>2.25</v>
       </c>
       <c r="AO59">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="AQ59">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR59">
-        <v>1.83</v>
+        <v>1.32</v>
       </c>
       <c r="AS59">
-        <v>1.29</v>
+        <v>1.12</v>
       </c>
       <c r="AT59">
-        <v>3.12</v>
+        <v>2.44</v>
       </c>
       <c r="AU59">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV59">
+        <v>0</v>
+      </c>
+      <c r="AW59">
+        <v>5</v>
+      </c>
+      <c r="AX59">
+        <v>4</v>
+      </c>
+      <c r="AY59">
         <v>9</v>
       </c>
-      <c r="AW59">
-        <v>6</v>
-      </c>
-      <c r="AX59">
-        <v>6</v>
-      </c>
-      <c r="AY59">
+      <c r="AZ59">
+        <v>4</v>
+      </c>
+      <c r="BA59">
+        <v>8</v>
+      </c>
+      <c r="BB59">
+        <v>5</v>
+      </c>
+      <c r="BC59">
         <v>13</v>
       </c>
-      <c r="AZ59">
-        <v>15</v>
-      </c>
-      <c r="BA59">
-        <v>4</v>
-      </c>
-      <c r="BB59">
-        <v>6</v>
-      </c>
-      <c r="BC59">
-        <v>10</v>
-      </c>
       <c r="BD59">
-        <v>1.91</v>
+        <v>1.69</v>
       </c>
       <c r="BE59">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF59">
-        <v>2.1</v>
+        <v>2.53</v>
       </c>
       <c r="BG59">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="BH59">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="BI59">
         <v>1.28</v>
@@ -13071,7 +13071,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>7468147</v>
+        <v>7468151</v>
       </c>
       <c r="C60" t="s">
         <v>68</v>
@@ -13086,73 +13086,73 @@
         <v>9</v>
       </c>
       <c r="G60" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H60" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="I60">
         <v>1</v>
       </c>
       <c r="J60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M60">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O60" t="s">
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>166</v>
+        <v>88</v>
       </c>
       <c r="Q60">
-        <v>3.86</v>
+        <v>3.2</v>
       </c>
       <c r="R60">
-        <v>2.19</v>
+        <v>2.1</v>
       </c>
       <c r="S60">
-        <v>2.63</v>
+        <v>3.1</v>
       </c>
       <c r="T60">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="U60">
-        <v>3.04</v>
+        <v>2.99</v>
       </c>
       <c r="V60">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="W60">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="X60">
-        <v>6.35</v>
+        <v>6.6</v>
       </c>
       <c r="Y60">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="Z60">
-        <v>3.25</v>
+        <v>2.62</v>
       </c>
       <c r="AA60">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AB60">
-        <v>2.15</v>
+        <v>2.62</v>
       </c>
       <c r="AC60">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD60">
         <v>10</v>
@@ -13161,85 +13161,85 @@
         <v>1.22</v>
       </c>
       <c r="AF60">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="AG60">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AH60">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="AI60">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="AJ60">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="AK60">
-        <v>1.71</v>
+        <v>1.47</v>
       </c>
       <c r="AL60">
         <v>1.28</v>
       </c>
       <c r="AM60">
-        <v>1.32</v>
+        <v>1.49</v>
       </c>
       <c r="AN60">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AO60">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="AP60">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR60">
-        <v>1.44</v>
+        <v>1.83</v>
       </c>
       <c r="AS60">
-        <v>1.47</v>
+        <v>1.29</v>
       </c>
       <c r="AT60">
-        <v>2.91</v>
+        <v>3.12</v>
       </c>
       <c r="AU60">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV60">
+        <v>9</v>
+      </c>
+      <c r="AW60">
         <v>6</v>
       </c>
-      <c r="AW60">
-        <v>4</v>
-      </c>
       <c r="AX60">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY60">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ60">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA60">
         <v>4</v>
       </c>
       <c r="BB60">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC60">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD60">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="BE60">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF60">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="BG60">
         <v>0</v>
@@ -13248,28 +13248,28 @@
         <v>0</v>
       </c>
       <c r="BI60">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="BJ60">
-        <v>3.04</v>
+        <v>2.97</v>
       </c>
       <c r="BK60">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="BL60">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="BM60">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="BN60">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="BO60">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="BP60">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="61" spans="1:68">
@@ -13277,7 +13277,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>7468146</v>
+        <v>7468147</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -13286,166 +13286,166 @@
         <v>69</v>
       </c>
       <c r="E61" s="2">
-        <v>45556.58333333334</v>
+        <v>45556.45833333334</v>
       </c>
       <c r="F61">
         <v>9</v>
       </c>
       <c r="G61" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N61">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O61" t="s">
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>88</v>
+        <v>166</v>
       </c>
       <c r="Q61">
-        <v>1.91</v>
+        <v>3.86</v>
       </c>
       <c r="R61">
-        <v>2.3</v>
+        <v>2.19</v>
       </c>
       <c r="S61">
-        <v>5.5</v>
+        <v>2.63</v>
       </c>
       <c r="T61">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="U61">
-        <v>3.2</v>
+        <v>3.04</v>
       </c>
       <c r="V61">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="W61">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="X61">
-        <v>5.45</v>
+        <v>6.35</v>
       </c>
       <c r="Y61">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="Z61">
-        <v>1.45</v>
+        <v>3.25</v>
       </c>
       <c r="AA61">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="AB61">
-        <v>5.95</v>
+        <v>2.15</v>
       </c>
       <c r="AC61">
         <v>1.01</v>
       </c>
       <c r="AD61">
+        <v>10</v>
+      </c>
+      <c r="AE61">
+        <v>1.22</v>
+      </c>
+      <c r="AF61">
+        <v>3.65</v>
+      </c>
+      <c r="AG61">
+        <v>1.8</v>
+      </c>
+      <c r="AH61">
+        <v>1.91</v>
+      </c>
+      <c r="AI61">
+        <v>1.63</v>
+      </c>
+      <c r="AJ61">
+        <v>2.18</v>
+      </c>
+      <c r="AK61">
+        <v>1.71</v>
+      </c>
+      <c r="AL61">
+        <v>1.28</v>
+      </c>
+      <c r="AM61">
+        <v>1.32</v>
+      </c>
+      <c r="AN61">
+        <v>0.75</v>
+      </c>
+      <c r="AO61">
+        <v>0.5</v>
+      </c>
+      <c r="AP61">
+        <v>0.6</v>
+      </c>
+      <c r="AQ61">
+        <v>1</v>
+      </c>
+      <c r="AR61">
+        <v>1.44</v>
+      </c>
+      <c r="AS61">
+        <v>1.47</v>
+      </c>
+      <c r="AT61">
+        <v>2.91</v>
+      </c>
+      <c r="AU61">
+        <v>8</v>
+      </c>
+      <c r="AV61">
+        <v>6</v>
+      </c>
+      <c r="AW61">
+        <v>4</v>
+      </c>
+      <c r="AX61">
+        <v>5</v>
+      </c>
+      <c r="AY61">
+        <v>12</v>
+      </c>
+      <c r="AZ61">
         <v>11</v>
       </c>
-      <c r="AE61">
-        <v>1.17</v>
-      </c>
-      <c r="AF61">
-        <v>4.5</v>
-      </c>
-      <c r="AG61">
-        <v>1.82</v>
-      </c>
-      <c r="AH61">
-        <v>1.88</v>
-      </c>
-      <c r="AI61">
-        <v>1.75</v>
-      </c>
-      <c r="AJ61">
-        <v>2.05</v>
-      </c>
-      <c r="AK61">
-        <v>1.08</v>
-      </c>
-      <c r="AL61">
-        <v>1.16</v>
-      </c>
-      <c r="AM61">
-        <v>2.55</v>
-      </c>
-      <c r="AN61">
-        <v>3</v>
-      </c>
-      <c r="AO61">
-        <v>2</v>
-      </c>
-      <c r="AP61">
-        <v>3</v>
-      </c>
-      <c r="AQ61">
-        <v>1.6</v>
-      </c>
-      <c r="AR61">
-        <v>2.33</v>
-      </c>
-      <c r="AS61">
-        <v>1.35</v>
-      </c>
-      <c r="AT61">
-        <v>3.68</v>
-      </c>
-      <c r="AU61">
-        <v>12</v>
-      </c>
-      <c r="AV61">
+      <c r="BA61">
         <v>4</v>
       </c>
-      <c r="AW61">
+      <c r="BB61">
         <v>7</v>
       </c>
-      <c r="AX61">
-        <v>3</v>
-      </c>
-      <c r="AY61">
-        <v>19</v>
-      </c>
-      <c r="AZ61">
-        <v>7</v>
-      </c>
-      <c r="BA61">
-        <v>14</v>
-      </c>
-      <c r="BB61">
-        <v>4</v>
-      </c>
       <c r="BC61">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="BD61">
-        <v>1.19</v>
+        <v>2.2</v>
       </c>
       <c r="BE61">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="BF61">
-        <v>5.67</v>
+        <v>1.83</v>
       </c>
       <c r="BG61">
         <v>0</v>
@@ -13454,16 +13454,16 @@
         <v>0</v>
       </c>
       <c r="BI61">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="BJ61">
-        <v>3.28</v>
+        <v>3.04</v>
       </c>
       <c r="BK61">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="BL61">
-        <v>2.54</v>
+        <v>2.26</v>
       </c>
       <c r="BM61">
         <v>1.95</v>
@@ -13472,10 +13472,10 @@
         <v>1.85</v>
       </c>
       <c r="BO61">
-        <v>2.27</v>
+        <v>2.38</v>
       </c>
       <c r="BP61">
-        <v>1.6</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="62" spans="1:68">
@@ -13483,7 +13483,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>7468148</v>
+        <v>7468150</v>
       </c>
       <c r="C62" t="s">
         <v>68</v>
@@ -13498,190 +13498,190 @@
         <v>9</v>
       </c>
       <c r="G62" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H62" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62">
         <v>1</v>
       </c>
       <c r="K62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M62">
         <v>2</v>
       </c>
       <c r="N62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O62" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="P62" t="s">
         <v>167</v>
       </c>
       <c r="Q62">
-        <v>1.83</v>
+        <v>8.77</v>
       </c>
       <c r="R62">
-        <v>2.4</v>
+        <v>3.02</v>
       </c>
       <c r="S62">
-        <v>6</v>
+        <v>1.59</v>
       </c>
       <c r="T62">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="U62">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="V62">
-        <v>2.34</v>
+        <v>2.12</v>
       </c>
       <c r="W62">
-        <v>1.54</v>
+        <v>1.7</v>
       </c>
       <c r="X62">
-        <v>5.45</v>
+        <v>4.33</v>
       </c>
       <c r="Y62">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="Z62">
-        <v>1.5</v>
+        <v>11</v>
       </c>
       <c r="AA62">
-        <v>4.4</v>
+        <v>6.25</v>
       </c>
       <c r="AB62">
-        <v>5.75</v>
+        <v>1.24</v>
       </c>
       <c r="AC62">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD62">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="AE62">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AF62">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="AG62">
-        <v>1.63</v>
+        <v>1.39</v>
       </c>
       <c r="AH62">
-        <v>2.29</v>
+        <v>2.77</v>
       </c>
       <c r="AI62">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="AJ62">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="AK62">
-        <v>1.06</v>
+        <v>4.2</v>
       </c>
       <c r="AL62">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="AM62">
-        <v>2.85</v>
+        <v>1.04</v>
       </c>
       <c r="AN62">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="AO62">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="AP62">
-        <v>1.75</v>
+        <v>0.2</v>
       </c>
       <c r="AQ62">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="AR62">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="AS62">
-        <v>1.06</v>
+        <v>1.88</v>
       </c>
       <c r="AT62">
-        <v>2.48</v>
+        <v>3.25</v>
       </c>
       <c r="AU62">
         <v>4</v>
       </c>
       <c r="AV62">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW62">
         <v>4</v>
       </c>
       <c r="AX62">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AY62">
         <v>8</v>
       </c>
       <c r="AZ62">
+        <v>14</v>
+      </c>
+      <c r="BA62">
         <v>4</v>
       </c>
-      <c r="BA62">
-        <v>6</v>
-      </c>
       <c r="BB62">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BC62">
+        <v>12</v>
+      </c>
+      <c r="BD62">
+        <v>5.6</v>
+      </c>
+      <c r="BE62">
         <v>11</v>
       </c>
-      <c r="BD62">
-        <v>1.3</v>
-      </c>
-      <c r="BE62">
-        <v>10</v>
-      </c>
       <c r="BF62">
-        <v>4.42</v>
+        <v>1.21</v>
       </c>
       <c r="BG62">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="BH62">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="BI62">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="BJ62">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="BK62">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="BL62">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="BM62">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="BN62">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="BO62">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
       <c r="BP62">
-        <v>1.72</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="63" spans="1:68">
@@ -13689,7 +13689,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>7468144</v>
+        <v>7468148</v>
       </c>
       <c r="C63" t="s">
         <v>68</v>
@@ -13704,19 +13704,19 @@
         <v>9</v>
       </c>
       <c r="G63" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H63" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
         <v>2</v>
-      </c>
-      <c r="J63">
-        <v>1</v>
-      </c>
-      <c r="K63">
-        <v>3</v>
       </c>
       <c r="L63">
         <v>2</v>
@@ -13728,166 +13728,166 @@
         <v>4</v>
       </c>
       <c r="O63" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P63" t="s">
         <v>168</v>
       </c>
       <c r="Q63">
+        <v>1.83</v>
+      </c>
+      <c r="R63">
         <v>2.4</v>
       </c>
-      <c r="R63">
-        <v>2.2</v>
-      </c>
       <c r="S63">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="T63">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="U63">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="V63">
-        <v>2.75</v>
+        <v>2.34</v>
       </c>
       <c r="W63">
-        <v>1.4</v>
+        <v>1.54</v>
       </c>
       <c r="X63">
-        <v>7</v>
+        <v>5.45</v>
       </c>
       <c r="Y63">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="Z63">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AA63">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="AB63">
-        <v>4.1</v>
+        <v>5.75</v>
       </c>
       <c r="AC63">
         <v>1.01</v>
       </c>
       <c r="AD63">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AE63">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="AF63">
-        <v>4.23</v>
+        <v>4.8</v>
       </c>
       <c r="AG63">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="AH63">
-        <v>2.1</v>
+        <v>2.29</v>
       </c>
       <c r="AI63">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AJ63">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AK63">
-        <v>1.21</v>
+        <v>1.06</v>
       </c>
       <c r="AL63">
-        <v>1.27</v>
+        <v>1.15</v>
       </c>
       <c r="AM63">
-        <v>2.02</v>
+        <v>2.85</v>
       </c>
       <c r="AN63">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="AO63">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="AP63">
-        <v>1.2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ63">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="AR63">
         <v>1.42</v>
       </c>
       <c r="AS63">
-        <v>1.5</v>
+        <v>1.06</v>
       </c>
       <c r="AT63">
-        <v>2.92</v>
+        <v>2.48</v>
       </c>
       <c r="AU63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV63">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY63">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA63">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BB63">
         <v>5</v>
       </c>
       <c r="BC63">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD63">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="BE63">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="BF63">
-        <v>2.88</v>
+        <v>4.42</v>
       </c>
       <c r="BG63">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="BH63">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="BI63">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="BJ63">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="BK63">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="BL63">
-        <v>2.59</v>
+        <v>2.65</v>
       </c>
       <c r="BM63">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="BN63">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="BO63">
-        <v>2.08</v>
+        <v>2.09</v>
       </c>
       <c r="BP63">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="64" spans="1:68">
@@ -13895,7 +13895,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>7468150</v>
+        <v>7468144</v>
       </c>
       <c r="C64" t="s">
         <v>68</v>
@@ -13904,196 +13904,196 @@
         <v>69</v>
       </c>
       <c r="E64" s="2">
-        <v>45557.4375</v>
+        <v>45556.875</v>
       </c>
       <c r="F64">
         <v>9</v>
       </c>
       <c r="G64" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H64" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J64">
         <v>1</v>
       </c>
       <c r="K64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M64">
         <v>2</v>
       </c>
       <c r="N64">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O64" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="P64" t="s">
         <v>169</v>
       </c>
       <c r="Q64">
-        <v>8.77</v>
+        <v>2.4</v>
       </c>
       <c r="R64">
-        <v>3.02</v>
+        <v>2.2</v>
       </c>
       <c r="S64">
-        <v>1.59</v>
+        <v>4.75</v>
       </c>
       <c r="T64">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="U64">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="V64">
-        <v>2.12</v>
+        <v>2.75</v>
       </c>
       <c r="W64">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="X64">
-        <v>4.33</v>
+        <v>7</v>
       </c>
       <c r="Y64">
-        <v>1.18</v>
+        <v>1.1</v>
       </c>
       <c r="Z64">
-        <v>11</v>
+        <v>1.75</v>
       </c>
       <c r="AA64">
-        <v>6.25</v>
+        <v>3.7</v>
       </c>
       <c r="AB64">
-        <v>1.24</v>
+        <v>4.1</v>
       </c>
       <c r="AC64">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD64">
-        <v>25</v>
+        <v>14.5</v>
       </c>
       <c r="AE64">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AF64">
-        <v>5.5</v>
+        <v>4.23</v>
       </c>
       <c r="AG64">
-        <v>1.39</v>
+        <v>1.68</v>
       </c>
       <c r="AH64">
-        <v>2.77</v>
+        <v>2.1</v>
       </c>
       <c r="AI64">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AJ64">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AK64">
-        <v>4.2</v>
+        <v>1.21</v>
       </c>
       <c r="AL64">
-        <v>1.11</v>
+        <v>1.27</v>
       </c>
       <c r="AM64">
-        <v>1.04</v>
+        <v>2.02</v>
       </c>
       <c r="AN64">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="AO64">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="AP64">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="AQ64">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="AR64">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="AS64">
-        <v>1.88</v>
+        <v>1.5</v>
       </c>
       <c r="AT64">
-        <v>3.25</v>
+        <v>2.92</v>
       </c>
       <c r="AU64">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV64">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AW64">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX64">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AY64">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ64">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="BA64">
         <v>4</v>
       </c>
       <c r="BB64">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BC64">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD64">
+        <v>1.5</v>
+      </c>
+      <c r="BE64">
+        <v>9.5</v>
+      </c>
+      <c r="BF64">
+        <v>2.88</v>
+      </c>
+      <c r="BG64">
+        <v>1.12</v>
+      </c>
+      <c r="BH64">
         <v>5.6</v>
       </c>
-      <c r="BE64">
-        <v>11</v>
-      </c>
-      <c r="BF64">
-        <v>1.21</v>
-      </c>
-      <c r="BG64">
-        <v>1.11</v>
-      </c>
-      <c r="BH64">
-        <v>5.9</v>
-      </c>
       <c r="BI64">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="BJ64">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="BK64">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="BL64">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="BM64">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="BN64">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="BO64">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="BP64">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="65" spans="1:68">
@@ -14110,7 +14110,7 @@
         <v>69</v>
       </c>
       <c r="E65" s="2">
-        <v>45557.4375</v>
+        <v>45556.875</v>
       </c>
       <c r="F65">
         <v>9</v>
@@ -14236,19 +14236,19 @@
         <v>2.62</v>
       </c>
       <c r="AU65">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY65">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AZ65">
         <v>4</v>
@@ -14513,7 +14513,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>7468155</v>
+        <v>7468152</v>
       </c>
       <c r="C67" t="s">
         <v>68</v>
@@ -14522,196 +14522,196 @@
         <v>69</v>
       </c>
       <c r="E67" s="2">
-        <v>45563.35416666666</v>
+        <v>45562.875</v>
       </c>
       <c r="F67">
         <v>10</v>
       </c>
       <c r="G67" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H67" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67">
         <v>0</v>
       </c>
       <c r="K67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M67">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N67">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O67" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="P67" t="s">
         <v>172</v>
       </c>
       <c r="Q67">
+        <v>3.1</v>
+      </c>
+      <c r="R67">
+        <v>2.1</v>
+      </c>
+      <c r="S67">
+        <v>3.3</v>
+      </c>
+      <c r="T67">
+        <v>1.37</v>
+      </c>
+      <c r="U67">
+        <v>3.05</v>
+      </c>
+      <c r="V67">
+        <v>2.86</v>
+      </c>
+      <c r="W67">
+        <v>1.41</v>
+      </c>
+      <c r="X67">
+        <v>7.1</v>
+      </c>
+      <c r="Y67">
+        <v>1.08</v>
+      </c>
+      <c r="Z67">
+        <v>2.54</v>
+      </c>
+      <c r="AA67">
+        <v>3.42</v>
+      </c>
+      <c r="AB67">
+        <v>2.61</v>
+      </c>
+      <c r="AC67">
+        <v>1.03</v>
+      </c>
+      <c r="AD67">
+        <v>9</v>
+      </c>
+      <c r="AE67">
+        <v>1.25</v>
+      </c>
+      <c r="AF67">
+        <v>3.6</v>
+      </c>
+      <c r="AG67">
+        <v>1.88</v>
+      </c>
+      <c r="AH67">
+        <v>1.82</v>
+      </c>
+      <c r="AI67">
+        <v>1.73</v>
+      </c>
+      <c r="AJ67">
+        <v>2.1</v>
+      </c>
+      <c r="AK67">
+        <v>1.47</v>
+      </c>
+      <c r="AL67">
+        <v>1.3</v>
+      </c>
+      <c r="AM67">
+        <v>1.48</v>
+      </c>
+      <c r="AN67">
+        <v>1</v>
+      </c>
+      <c r="AO67">
+        <v>0</v>
+      </c>
+      <c r="AP67">
+        <v>0.75</v>
+      </c>
+      <c r="AQ67">
+        <v>0.75</v>
+      </c>
+      <c r="AR67">
+        <v>1.23</v>
+      </c>
+      <c r="AS67">
+        <v>1.24</v>
+      </c>
+      <c r="AT67">
+        <v>2.47</v>
+      </c>
+      <c r="AU67">
+        <v>2</v>
+      </c>
+      <c r="AV67">
         <v>4</v>
       </c>
-      <c r="R67">
-        <v>2.25</v>
-      </c>
-      <c r="S67">
-        <v>2.4</v>
-      </c>
-      <c r="T67">
-        <v>1.32</v>
-      </c>
-      <c r="U67">
-        <v>3.15</v>
-      </c>
-      <c r="V67">
-        <v>2.45</v>
-      </c>
-      <c r="W67">
-        <v>1.48</v>
-      </c>
-      <c r="X67">
-        <v>5.5</v>
-      </c>
-      <c r="Y67">
-        <v>1.12</v>
-      </c>
-      <c r="Z67">
-        <v>3.92</v>
-      </c>
-      <c r="AA67">
-        <v>3.82</v>
-      </c>
-      <c r="AB67">
-        <v>1.81</v>
-      </c>
-      <c r="AC67">
-        <v>1.04</v>
-      </c>
-      <c r="AD67">
-        <v>14.75</v>
-      </c>
-      <c r="AE67">
-        <v>1.22</v>
-      </c>
-      <c r="AF67">
-        <v>4.3</v>
-      </c>
-      <c r="AG67">
-        <v>1.81</v>
-      </c>
-      <c r="AH67">
-        <v>1.89</v>
-      </c>
-      <c r="AI67">
-        <v>1.62</v>
-      </c>
-      <c r="AJ67">
-        <v>2.15</v>
-      </c>
-      <c r="AK67">
-        <v>1.85</v>
-      </c>
-      <c r="AL67">
-        <v>1.28</v>
-      </c>
-      <c r="AM67">
-        <v>1.27</v>
-      </c>
-      <c r="AN67">
-        <v>1.5</v>
-      </c>
-      <c r="AO67">
-        <v>1</v>
-      </c>
-      <c r="AP67">
-        <v>1.2</v>
-      </c>
-      <c r="AQ67">
-        <v>1.5</v>
-      </c>
-      <c r="AR67">
-        <v>1.08</v>
-      </c>
-      <c r="AS67">
-        <v>1.55</v>
-      </c>
-      <c r="AT67">
-        <v>2.63</v>
-      </c>
-      <c r="AU67">
-        <v>4</v>
-      </c>
-      <c r="AV67">
-        <v>11</v>
-      </c>
       <c r="AW67">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AX67">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AY67">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AZ67">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="BA67">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BB67">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BC67">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BD67">
-        <v>2.41</v>
+        <v>2.1</v>
       </c>
       <c r="BE67">
         <v>8.5</v>
       </c>
       <c r="BF67">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="BG67">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="BH67">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="BI67">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="BJ67">
-        <v>2.97</v>
+        <v>3.14</v>
       </c>
       <c r="BK67">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="BL67">
-        <v>2.24</v>
+        <v>2.35</v>
       </c>
       <c r="BM67">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="BN67">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="BO67">
-        <v>2.43</v>
+        <v>2.4</v>
       </c>
       <c r="BP67">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="68" spans="1:68">
@@ -14719,7 +14719,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>7468152</v>
+        <v>7468155</v>
       </c>
       <c r="C68" t="s">
         <v>68</v>
@@ -14728,196 +14728,196 @@
         <v>69</v>
       </c>
       <c r="E68" s="2">
-        <v>45563.45833333334</v>
+        <v>45563.35416666666</v>
       </c>
       <c r="F68">
         <v>10</v>
       </c>
       <c r="G68" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H68" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M68">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O68" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="P68" t="s">
         <v>173</v>
       </c>
       <c r="Q68">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="R68">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S68">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="T68">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="U68">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="V68">
-        <v>2.86</v>
+        <v>2.45</v>
       </c>
       <c r="W68">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="X68">
-        <v>7.1</v>
+        <v>5.5</v>
       </c>
       <c r="Y68">
+        <v>1.12</v>
+      </c>
+      <c r="Z68">
+        <v>3.92</v>
+      </c>
+      <c r="AA68">
+        <v>3.82</v>
+      </c>
+      <c r="AB68">
+        <v>1.81</v>
+      </c>
+      <c r="AC68">
+        <v>1.04</v>
+      </c>
+      <c r="AD68">
+        <v>14.75</v>
+      </c>
+      <c r="AE68">
+        <v>1.22</v>
+      </c>
+      <c r="AF68">
+        <v>4.3</v>
+      </c>
+      <c r="AG68">
+        <v>1.81</v>
+      </c>
+      <c r="AH68">
+        <v>1.89</v>
+      </c>
+      <c r="AI68">
+        <v>1.62</v>
+      </c>
+      <c r="AJ68">
+        <v>2.15</v>
+      </c>
+      <c r="AK68">
+        <v>1.85</v>
+      </c>
+      <c r="AL68">
+        <v>1.28</v>
+      </c>
+      <c r="AM68">
+        <v>1.27</v>
+      </c>
+      <c r="AN68">
+        <v>1.5</v>
+      </c>
+      <c r="AO68">
+        <v>1</v>
+      </c>
+      <c r="AP68">
+        <v>1.2</v>
+      </c>
+      <c r="AQ68">
+        <v>1.5</v>
+      </c>
+      <c r="AR68">
         <v>1.08</v>
       </c>
-      <c r="Z68">
-        <v>2.54</v>
-      </c>
-      <c r="AA68">
-        <v>3.42</v>
-      </c>
-      <c r="AB68">
-        <v>2.61</v>
-      </c>
-      <c r="AC68">
-        <v>1.03</v>
-      </c>
-      <c r="AD68">
-        <v>9</v>
-      </c>
-      <c r="AE68">
-        <v>1.25</v>
-      </c>
-      <c r="AF68">
-        <v>3.6</v>
-      </c>
-      <c r="AG68">
-        <v>1.88</v>
-      </c>
-      <c r="AH68">
-        <v>1.82</v>
-      </c>
-      <c r="AI68">
-        <v>1.73</v>
-      </c>
-      <c r="AJ68">
-        <v>2.1</v>
-      </c>
-      <c r="AK68">
-        <v>1.47</v>
-      </c>
-      <c r="AL68">
-        <v>1.3</v>
-      </c>
-      <c r="AM68">
-        <v>1.48</v>
-      </c>
-      <c r="AN68">
-        <v>1</v>
-      </c>
-      <c r="AO68">
-        <v>0</v>
-      </c>
-      <c r="AP68">
-        <v>0.75</v>
-      </c>
-      <c r="AQ68">
-        <v>0.75</v>
-      </c>
-      <c r="AR68">
-        <v>1.23</v>
-      </c>
       <c r="AS68">
-        <v>1.24</v>
+        <v>1.55</v>
       </c>
       <c r="AT68">
-        <v>2.47</v>
+        <v>2.63</v>
       </c>
       <c r="AU68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV68">
+        <v>11</v>
+      </c>
+      <c r="AW68">
+        <v>7</v>
+      </c>
+      <c r="AX68">
+        <v>8</v>
+      </c>
+      <c r="AY68">
+        <v>11</v>
+      </c>
+      <c r="AZ68">
+        <v>19</v>
+      </c>
+      <c r="BA68">
         <v>5</v>
       </c>
-      <c r="AW68">
-        <v>3</v>
-      </c>
-      <c r="AX68">
-        <v>6</v>
-      </c>
-      <c r="AY68">
-        <v>6</v>
-      </c>
-      <c r="AZ68">
-        <v>11</v>
-      </c>
-      <c r="BA68">
-        <v>0</v>
-      </c>
       <c r="BB68">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BC68">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BD68">
-        <v>2.1</v>
+        <v>2.41</v>
       </c>
       <c r="BE68">
         <v>8.5</v>
       </c>
       <c r="BF68">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="BG68">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="BH68">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="BI68">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="BJ68">
-        <v>3.14</v>
+        <v>2.97</v>
       </c>
       <c r="BK68">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="BL68">
-        <v>2.35</v>
+        <v>2.24</v>
       </c>
       <c r="BM68">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="BN68">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="BO68">
-        <v>2.4</v>
+        <v>2.43</v>
       </c>
       <c r="BP68">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="69" spans="1:68">
@@ -15337,7 +15337,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>7468154</v>
+        <v>7468153</v>
       </c>
       <c r="C71" t="s">
         <v>68</v>
@@ -15346,196 +15346,196 @@
         <v>69</v>
       </c>
       <c r="E71" s="2">
-        <v>45564.33333333334</v>
+        <v>45563.875</v>
       </c>
       <c r="F71">
         <v>10</v>
       </c>
       <c r="G71" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H71" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="I71">
         <v>1</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
         <v>2</v>
       </c>
-      <c r="M71">
-        <v>1</v>
-      </c>
-      <c r="N71">
-        <v>3</v>
-      </c>
       <c r="O71" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="P71" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q71">
-        <v>1.72</v>
+        <v>1.88</v>
       </c>
       <c r="R71">
         <v>2.65</v>
       </c>
       <c r="S71">
-        <v>6.5</v>
+        <v>5.3</v>
       </c>
       <c r="T71">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="U71">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="V71">
-        <v>2.14</v>
+        <v>2.23</v>
       </c>
       <c r="W71">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="X71">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="Y71">
+        <v>1.14</v>
+      </c>
+      <c r="Z71">
+        <v>1.44</v>
+      </c>
+      <c r="AA71">
+        <v>4.4</v>
+      </c>
+      <c r="AB71">
+        <v>5.25</v>
+      </c>
+      <c r="AC71">
+        <v>1.03</v>
+      </c>
+      <c r="AD71">
+        <v>19.25</v>
+      </c>
+      <c r="AE71">
+        <v>1.12</v>
+      </c>
+      <c r="AF71">
+        <v>4.45</v>
+      </c>
+      <c r="AG71">
+        <v>1.53</v>
+      </c>
+      <c r="AH71">
+        <v>2.35</v>
+      </c>
+      <c r="AI71">
+        <v>1.67</v>
+      </c>
+      <c r="AJ71">
+        <v>2.1</v>
+      </c>
+      <c r="AK71">
+        <v>1.09</v>
+      </c>
+      <c r="AL71">
         <v>1.16</v>
       </c>
-      <c r="Z71">
-        <v>1.3</v>
-      </c>
-      <c r="AA71">
-        <v>5</v>
-      </c>
-      <c r="AB71">
-        <v>7</v>
-      </c>
-      <c r="AC71">
-        <v>1.02</v>
-      </c>
-      <c r="AD71">
-        <v>24</v>
-      </c>
-      <c r="AE71">
-        <v>1.09</v>
-      </c>
-      <c r="AF71">
-        <v>4.95</v>
-      </c>
-      <c r="AG71">
-        <v>1.45</v>
-      </c>
-      <c r="AH71">
-        <v>2.55</v>
-      </c>
-      <c r="AI71">
-        <v>1.75</v>
-      </c>
-      <c r="AJ71">
-        <v>2</v>
-      </c>
-      <c r="AK71">
-        <v>1.03</v>
-      </c>
-      <c r="AL71">
-        <v>1.1</v>
-      </c>
       <c r="AM71">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="AN71">
         <v>3</v>
       </c>
       <c r="AO71">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AP71">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ71">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AR71">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="AS71">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT71">
-        <v>2.82</v>
+        <v>3.34</v>
       </c>
       <c r="AU71">
         <v>7</v>
       </c>
       <c r="AV71">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AW71">
         <v>5</v>
       </c>
       <c r="AX71">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AY71">
         <v>12</v>
       </c>
       <c r="AZ71">
+        <v>3</v>
+      </c>
+      <c r="BA71">
+        <v>9</v>
+      </c>
+      <c r="BB71">
+        <v>1</v>
+      </c>
+      <c r="BC71">
         <v>10</v>
       </c>
-      <c r="BA71">
-        <v>7</v>
-      </c>
-      <c r="BB71">
-        <v>4</v>
-      </c>
-      <c r="BC71">
-        <v>11</v>
-      </c>
       <c r="BD71">
-        <v>1.23</v>
+        <v>1.45</v>
       </c>
       <c r="BE71">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BF71">
-        <v>4.89</v>
+        <v>3.28</v>
       </c>
       <c r="BG71">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="BH71">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="BI71">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="BJ71">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="BK71">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="BL71">
-        <v>3.14</v>
+        <v>2.73</v>
       </c>
       <c r="BM71">
-        <v>1.53</v>
+        <v>1.92</v>
       </c>
       <c r="BN71">
-        <v>2.42</v>
+        <v>1.88</v>
       </c>
       <c r="BO71">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="BP71">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="72" spans="1:68">
@@ -15543,7 +15543,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>7468153</v>
+        <v>7468154</v>
       </c>
       <c r="C72" t="s">
         <v>68</v>
@@ -15552,196 +15552,196 @@
         <v>69</v>
       </c>
       <c r="E72" s="2">
-        <v>45564.4375</v>
+        <v>45564.33333333334</v>
       </c>
       <c r="F72">
         <v>10</v>
       </c>
       <c r="G72" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H72" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I72">
         <v>1</v>
       </c>
       <c r="J72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
         <v>2</v>
       </c>
-      <c r="L72">
-        <v>1</v>
-      </c>
       <c r="M72">
         <v>1</v>
       </c>
       <c r="N72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O72" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q72">
-        <v>1.88</v>
+        <v>1.72</v>
       </c>
       <c r="R72">
         <v>2.65</v>
       </c>
       <c r="S72">
-        <v>5.3</v>
+        <v>6.5</v>
       </c>
       <c r="T72">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="U72">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="V72">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="W72">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="X72">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="Y72">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="Z72">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AA72">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="AB72">
-        <v>5.25</v>
+        <v>7</v>
       </c>
       <c r="AC72">
+        <v>1.02</v>
+      </c>
+      <c r="AD72">
+        <v>24</v>
+      </c>
+      <c r="AE72">
+        <v>1.09</v>
+      </c>
+      <c r="AF72">
+        <v>4.95</v>
+      </c>
+      <c r="AG72">
+        <v>1.45</v>
+      </c>
+      <c r="AH72">
+        <v>2.55</v>
+      </c>
+      <c r="AI72">
+        <v>1.75</v>
+      </c>
+      <c r="AJ72">
+        <v>2</v>
+      </c>
+      <c r="AK72">
         <v>1.03</v>
       </c>
-      <c r="AD72">
-        <v>19.25</v>
-      </c>
-      <c r="AE72">
-        <v>1.12</v>
-      </c>
-      <c r="AF72">
-        <v>4.45</v>
-      </c>
-      <c r="AG72">
-        <v>1.53</v>
-      </c>
-      <c r="AH72">
-        <v>2.35</v>
-      </c>
-      <c r="AI72">
-        <v>1.67</v>
-      </c>
-      <c r="AJ72">
-        <v>2.1</v>
-      </c>
-      <c r="AK72">
-        <v>1.09</v>
-      </c>
       <c r="AL72">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="AM72">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="AN72">
         <v>3</v>
       </c>
       <c r="AO72">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AP72">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AQ72">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AR72">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="AS72">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT72">
-        <v>3.34</v>
+        <v>2.82</v>
       </c>
       <c r="AU72">
         <v>7</v>
       </c>
       <c r="AV72">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW72">
         <v>5</v>
       </c>
       <c r="AX72">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AY72">
         <v>12</v>
       </c>
       <c r="AZ72">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BA72">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BB72">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BC72">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD72">
-        <v>1.45</v>
+        <v>1.23</v>
       </c>
       <c r="BE72">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BF72">
-        <v>3.28</v>
+        <v>4.89</v>
       </c>
       <c r="BG72">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="BH72">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="BI72">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="BJ72">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="BK72">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="BL72">
-        <v>2.73</v>
+        <v>3.14</v>
       </c>
       <c r="BM72">
-        <v>1.92</v>
+        <v>1.53</v>
       </c>
       <c r="BN72">
-        <v>1.88</v>
+        <v>2.42</v>
       </c>
       <c r="BO72">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="BP72">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="73" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="158">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -394,9 +394,6 @@
     <t>['42', '55']</t>
   </si>
   <si>
-    <t>['10', '45+1', '45+5']</t>
-  </si>
-  <si>
     <t>['34', '67', '89']</t>
   </si>
   <si>
@@ -406,30 +403,6 @@
     <t>['34', '90+3']</t>
   </si>
   <si>
-    <t>['35', '48']</t>
-  </si>
-  <si>
-    <t>['14', '35']</t>
-  </si>
-  <si>
-    <t>['1', '59']</t>
-  </si>
-  <si>
-    <t>['12', '90+1']</t>
-  </si>
-  <si>
-    <t>['2']</t>
-  </si>
-  <si>
-    <t>['8', '75']</t>
-  </si>
-  <si>
-    <t>['64', '78']</t>
-  </si>
-  <si>
-    <t>['32', '72']</t>
-  </si>
-  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -515,36 +488,6 @@
   </si>
   <si>
     <t>['37', '52', '65']</t>
-  </si>
-  <si>
-    <t>['11', '52']</t>
-  </si>
-  <si>
-    <t>['8', '65']</t>
-  </si>
-  <si>
-    <t>['3', '71']</t>
-  </si>
-  <si>
-    <t>['74']</t>
-  </si>
-  <si>
-    <t>['67', '78', '86']</t>
-  </si>
-  <si>
-    <t>['86']</t>
-  </si>
-  <si>
-    <t>['48', '53', '55', '90+1']</t>
-  </si>
-  <si>
-    <t>['87']</t>
-  </si>
-  <si>
-    <t>['43']</t>
-  </si>
-  <si>
-    <t>['14', '16', '34', '50']</t>
   </si>
 </sst>
 </file>
@@ -906,7 +849,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP73"/>
+  <dimension ref="A1:BP60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1165,7 +1108,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="Q2">
         <v>1.53</v>
@@ -1243,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.75</v>
+        <v>2.33</v>
       </c>
       <c r="AQ2">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1449,10 +1392,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AQ3">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1577,7 +1520,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -1655,10 +1598,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="AQ4">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1783,7 +1726,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -1861,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -1989,7 +1932,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2067,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ6">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2195,7 +2138,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2276,7 +2219,7 @@
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2479,10 +2422,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ8">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2688,7 +2631,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ9">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2891,10 +2834,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ10">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AR10">
         <v>0.98</v>
@@ -3019,7 +2962,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="Q11">
         <v>2.85</v>
@@ -3097,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3225,7 +3168,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3637,7 +3580,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -3715,10 +3658,10 @@
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AQ14">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3921,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -4333,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AQ17">
         <v>0</v>
@@ -4461,7 +4404,7 @@
         <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="Q18">
         <v>5.4</v>
@@ -4539,10 +4482,10 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AQ18">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AR18">
         <v>1.26</v>
@@ -4745,10 +4688,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.75</v>
+        <v>2.33</v>
       </c>
       <c r="AQ19">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR19">
         <v>1.9</v>
@@ -4951,10 +4894,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ20">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AR20">
         <v>1</v>
@@ -5157,10 +5100,10 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AQ21">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AR21">
         <v>1.81</v>
@@ -5363,10 +5306,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ22">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5491,7 +5434,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="Q23">
         <v>2.6</v>
@@ -5569,10 +5512,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="AQ23">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR23">
         <v>1.33</v>
@@ -5697,7 +5640,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5778,7 +5721,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ24">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR24">
         <v>1.19</v>
@@ -5903,7 +5846,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="Q25">
         <v>1.06</v>
@@ -5981,7 +5924,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25">
         <v>1.4</v>
@@ -6109,7 +6052,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="Q26">
         <v>3.2</v>
@@ -6190,7 +6133,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ26">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR26">
         <v>1.06</v>
@@ -6315,7 +6258,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="Q27">
         <v>6.23</v>
@@ -6393,7 +6336,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ27">
         <v>3</v>
@@ -6602,7 +6545,7 @@
         <v>3</v>
       </c>
       <c r="AQ28">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>2.4</v>
@@ -6805,7 +6748,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ29">
         <v>1</v>
@@ -7011,7 +6954,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ30">
         <v>0</v>
@@ -7423,10 +7366,10 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AQ32">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR32">
         <v>1.64</v>
@@ -7632,7 +7575,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ33">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR33">
         <v>1.08</v>
@@ -7757,7 +7700,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="Q34">
         <v>1.45</v>
@@ -7838,7 +7781,7 @@
         <v>3</v>
       </c>
       <c r="AQ34">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AR34">
         <v>2.27</v>
@@ -7963,7 +7906,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="Q35">
         <v>2.84</v>
@@ -8044,7 +7987,7 @@
         <v>1</v>
       </c>
       <c r="AQ35">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AR35">
         <v>1.93</v>
@@ -8169,7 +8112,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="Q36">
         <v>5.63</v>
@@ -8247,7 +8190,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AQ36">
         <v>3</v>
@@ -8375,7 +8318,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="Q37">
         <v>2.58</v>
@@ -8453,10 +8396,10 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ37">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR37">
         <v>1.25</v>
@@ -8659,10 +8602,10 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AQ38">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR38">
         <v>1.34</v>
@@ -8787,7 +8730,7 @@
         <v>88</v>
       </c>
       <c r="P39" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="Q39">
         <v>4.75</v>
@@ -8865,10 +8808,10 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="AQ39">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AR39">
         <v>1.46</v>
@@ -9071,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ40">
         <v>1</v>
@@ -9199,7 +9142,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9277,7 +9220,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ41">
         <v>1.4</v>
@@ -9405,7 +9348,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="Q42">
         <v>2.61</v>
@@ -9486,7 +9429,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ42">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR42">
         <v>1.41</v>
@@ -9611,7 +9554,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="Q43">
         <v>1.69</v>
@@ -9689,7 +9632,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.75</v>
+        <v>2.33</v>
       </c>
       <c r="AQ43">
         <v>1</v>
@@ -9895,7 +9838,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
         <v>0</v>
@@ -10104,7 +10047,7 @@
         <v>3</v>
       </c>
       <c r="AQ45">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR45">
         <v>1.87</v>
@@ -10307,7 +10250,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ46">
         <v>0</v>
@@ -10719,10 +10662,10 @@
         <v>1.33</v>
       </c>
       <c r="AP48">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="AQ48">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AR48">
         <v>1.34</v>
@@ -10925,7 +10868,7 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ49">
         <v>1.4</v>
@@ -11053,7 +10996,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="Q50">
         <v>5.1</v>
@@ -11259,7 +11202,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -11337,7 +11280,7 @@
         <v>0.33</v>
       </c>
       <c r="AP51">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ51">
         <v>1</v>
@@ -11546,7 +11489,7 @@
         <v>1</v>
       </c>
       <c r="AQ52">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR52">
         <v>1.76</v>
@@ -11752,7 +11695,7 @@
         <v>3</v>
       </c>
       <c r="AQ53">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR53">
         <v>2.35</v>
@@ -11877,7 +11820,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11958,7 +11901,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ54">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR54">
         <v>1.4</v>
@@ -12083,7 +12026,7 @@
         <v>93</v>
       </c>
       <c r="P55" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="Q55">
         <v>3.85</v>
@@ -12161,10 +12104,10 @@
         <v>2.33</v>
       </c>
       <c r="AP55">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AQ55">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AR55">
         <v>1.32</v>
@@ -12289,7 +12232,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="Q56">
         <v>1.85</v>
@@ -12367,10 +12310,10 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AQ56">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR56">
         <v>1.85</v>
@@ -12495,7 +12438,7 @@
         <v>88</v>
       </c>
       <c r="P57" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="Q57">
         <v>5.88</v>
@@ -12573,10 +12516,10 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ57">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AR57">
         <v>1.7</v>
@@ -12659,7 +12602,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>7468146</v>
+        <v>7468149</v>
       </c>
       <c r="C58" t="s">
         <v>68</v>
@@ -12668,25 +12611,25 @@
         <v>69</v>
       </c>
       <c r="E58" s="2">
-        <v>45555.875</v>
+        <v>45556.35416666666</v>
       </c>
       <c r="F58">
         <v>9</v>
       </c>
       <c r="G58" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H58" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J58">
         <v>0</v>
       </c>
       <c r="K58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L58">
         <v>3</v>
@@ -12704,160 +12647,160 @@
         <v>88</v>
       </c>
       <c r="Q58">
-        <v>1.91</v>
+        <v>3</v>
       </c>
       <c r="R58">
+        <v>1.95</v>
+      </c>
+      <c r="S58">
+        <v>3.75</v>
+      </c>
+      <c r="T58">
+        <v>1.51</v>
+      </c>
+      <c r="U58">
+        <v>2.4</v>
+      </c>
+      <c r="V58">
+        <v>3.25</v>
+      </c>
+      <c r="W58">
+        <v>1.3</v>
+      </c>
+      <c r="X58">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="Y58">
+        <v>1.04</v>
+      </c>
+      <c r="Z58">
+        <v>2.4</v>
+      </c>
+      <c r="AA58">
+        <v>3</v>
+      </c>
+      <c r="AB58">
+        <v>3.1</v>
+      </c>
+      <c r="AC58">
+        <v>1.05</v>
+      </c>
+      <c r="AD58">
+        <v>7.1</v>
+      </c>
+      <c r="AE58">
+        <v>1.42</v>
+      </c>
+      <c r="AF58">
+        <v>2.7</v>
+      </c>
+      <c r="AG58">
         <v>2.3</v>
       </c>
-      <c r="S58">
-        <v>5.5</v>
-      </c>
-      <c r="T58">
-        <v>1.31</v>
-      </c>
-      <c r="U58">
-        <v>3.2</v>
-      </c>
-      <c r="V58">
-        <v>2.45</v>
-      </c>
-      <c r="W58">
-        <v>1.49</v>
-      </c>
-      <c r="X58">
-        <v>5.45</v>
-      </c>
-      <c r="Y58">
+      <c r="AH58">
+        <v>1.53</v>
+      </c>
+      <c r="AI58">
+        <v>1.95</v>
+      </c>
+      <c r="AJ58">
+        <v>1.8</v>
+      </c>
+      <c r="AK58">
+        <v>1.36</v>
+      </c>
+      <c r="AL58">
+        <v>1.28</v>
+      </c>
+      <c r="AM58">
+        <v>1.57</v>
+      </c>
+      <c r="AN58">
+        <v>2.25</v>
+      </c>
+      <c r="AO58">
+        <v>1.33</v>
+      </c>
+      <c r="AP58">
+        <v>2.4</v>
+      </c>
+      <c r="AQ58">
+        <v>1</v>
+      </c>
+      <c r="AR58">
+        <v>1.32</v>
+      </c>
+      <c r="AS58">
         <v>1.12</v>
       </c>
-      <c r="Z58">
-        <v>1.45</v>
-      </c>
-      <c r="AA58">
-        <v>4.4</v>
-      </c>
-      <c r="AB58">
-        <v>5.95</v>
-      </c>
-      <c r="AC58">
-        <v>1.01</v>
-      </c>
-      <c r="AD58">
-        <v>11</v>
-      </c>
-      <c r="AE58">
-        <v>1.17</v>
-      </c>
-      <c r="AF58">
-        <v>4.5</v>
-      </c>
-      <c r="AG58">
-        <v>1.82</v>
-      </c>
-      <c r="AH58">
-        <v>1.88</v>
-      </c>
-      <c r="AI58">
-        <v>1.75</v>
-      </c>
-      <c r="AJ58">
-        <v>2.05</v>
-      </c>
-      <c r="AK58">
-        <v>1.08</v>
-      </c>
-      <c r="AL58">
-        <v>1.16</v>
-      </c>
-      <c r="AM58">
-        <v>2.55</v>
-      </c>
-      <c r="AN58">
-        <v>3</v>
-      </c>
-      <c r="AO58">
-        <v>2</v>
-      </c>
-      <c r="AP58">
-        <v>3</v>
-      </c>
-      <c r="AQ58">
-        <v>1.6</v>
-      </c>
-      <c r="AR58">
-        <v>2.33</v>
-      </c>
-      <c r="AS58">
-        <v>1.35</v>
-      </c>
       <c r="AT58">
-        <v>3.68</v>
+        <v>2.44</v>
       </c>
       <c r="AU58">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV58">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AW58">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX58">
         <v>4</v>
       </c>
       <c r="AY58">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AZ58">
+        <v>4</v>
+      </c>
+      <c r="BA58">
         <v>8</v>
       </c>
-      <c r="BA58">
-        <v>14</v>
-      </c>
       <c r="BB58">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC58">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="BD58">
-        <v>1.19</v>
+        <v>1.69</v>
       </c>
       <c r="BE58">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="BF58">
-        <v>5.67</v>
+        <v>2.53</v>
       </c>
       <c r="BG58">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="BH58">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="BI58">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="BJ58">
-        <v>3.28</v>
+        <v>2.97</v>
       </c>
       <c r="BK58">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="BL58">
-        <v>2.54</v>
+        <v>2.24</v>
       </c>
       <c r="BM58">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="BN58">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="BO58">
-        <v>2.27</v>
+        <v>2.43</v>
       </c>
       <c r="BP58">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="59" spans="1:68">
@@ -12865,7 +12808,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>7468149</v>
+        <v>7468151</v>
       </c>
       <c r="C59" t="s">
         <v>68</v>
@@ -12874,16 +12817,16 @@
         <v>69</v>
       </c>
       <c r="E59" s="2">
-        <v>45556.35416666666</v>
+        <v>45556.45833333334</v>
       </c>
       <c r="F59">
         <v>9</v>
       </c>
       <c r="G59" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H59" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -12895,13 +12838,13 @@
         <v>1</v>
       </c>
       <c r="L59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M59">
         <v>0</v>
       </c>
       <c r="N59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O59" t="s">
         <v>127</v>
@@ -12910,136 +12853,136 @@
         <v>88</v>
       </c>
       <c r="Q59">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="R59">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S59">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="T59">
-        <v>1.51</v>
+        <v>1.36</v>
       </c>
       <c r="U59">
-        <v>2.4</v>
+        <v>2.99</v>
       </c>
       <c r="V59">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="W59">
-        <v>1.3</v>
+        <v>1.43</v>
       </c>
       <c r="X59">
-        <v>8.949999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="Y59">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="Z59">
-        <v>2.4</v>
+        <v>2.62</v>
       </c>
       <c r="AA59">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="AB59">
-        <v>3.1</v>
+        <v>2.62</v>
       </c>
       <c r="AC59">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="AD59">
-        <v>7.1</v>
+        <v>10</v>
       </c>
       <c r="AE59">
-        <v>1.42</v>
+        <v>1.22</v>
       </c>
       <c r="AF59">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="AG59">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="AH59">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="AI59">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="AJ59">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="AK59">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AL59">
         <v>1.28</v>
       </c>
       <c r="AM59">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="AN59">
-        <v>2.25</v>
+        <v>0.5</v>
       </c>
       <c r="AO59">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AP59">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="AQ59">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR59">
-        <v>1.32</v>
+        <v>1.83</v>
       </c>
       <c r="AS59">
-        <v>1.12</v>
+        <v>1.29</v>
       </c>
       <c r="AT59">
-        <v>2.44</v>
+        <v>3.12</v>
       </c>
       <c r="AU59">
+        <v>7</v>
+      </c>
+      <c r="AV59">
+        <v>9</v>
+      </c>
+      <c r="AW59">
+        <v>6</v>
+      </c>
+      <c r="AX59">
+        <v>6</v>
+      </c>
+      <c r="AY59">
+        <v>13</v>
+      </c>
+      <c r="AZ59">
+        <v>15</v>
+      </c>
+      <c r="BA59">
         <v>4</v>
       </c>
-      <c r="AV59">
-        <v>0</v>
-      </c>
-      <c r="AW59">
-        <v>5</v>
-      </c>
-      <c r="AX59">
-        <v>4</v>
-      </c>
-      <c r="AY59">
-        <v>9</v>
-      </c>
-      <c r="AZ59">
-        <v>4</v>
-      </c>
-      <c r="BA59">
+      <c r="BB59">
+        <v>6</v>
+      </c>
+      <c r="BC59">
+        <v>10</v>
+      </c>
+      <c r="BD59">
+        <v>1.91</v>
+      </c>
+      <c r="BE59">
         <v>8</v>
       </c>
-      <c r="BB59">
-        <v>5</v>
-      </c>
-      <c r="BC59">
-        <v>13</v>
-      </c>
-      <c r="BD59">
-        <v>1.69</v>
-      </c>
-      <c r="BE59">
-        <v>8.5</v>
-      </c>
       <c r="BF59">
-        <v>2.53</v>
+        <v>2.1</v>
       </c>
       <c r="BG59">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="BH59">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="BI59">
         <v>1.28</v>
@@ -13071,7 +13014,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>7468151</v>
+        <v>7468147</v>
       </c>
       <c r="C60" t="s">
         <v>68</v>
@@ -13086,73 +13029,73 @@
         <v>9</v>
       </c>
       <c r="G60" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="I60">
         <v>1</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M60">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O60" t="s">
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="Q60">
-        <v>3.2</v>
+        <v>3.86</v>
       </c>
       <c r="R60">
-        <v>2.1</v>
+        <v>2.19</v>
       </c>
       <c r="S60">
-        <v>3.1</v>
+        <v>2.63</v>
       </c>
       <c r="T60">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="U60">
-        <v>2.99</v>
+        <v>3.04</v>
       </c>
       <c r="V60">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="W60">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="X60">
-        <v>6.6</v>
+        <v>6.35</v>
       </c>
       <c r="Y60">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="Z60">
-        <v>2.62</v>
+        <v>3.25</v>
       </c>
       <c r="AA60">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AB60">
-        <v>2.62</v>
+        <v>2.15</v>
       </c>
       <c r="AC60">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD60">
         <v>10</v>
@@ -13161,85 +13104,85 @@
         <v>1.22</v>
       </c>
       <c r="AF60">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="AG60">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AH60">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="AI60">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="AJ60">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="AK60">
-        <v>1.47</v>
+        <v>1.71</v>
       </c>
       <c r="AL60">
         <v>1.28</v>
       </c>
       <c r="AM60">
-        <v>1.49</v>
+        <v>1.32</v>
       </c>
       <c r="AN60">
+        <v>0.75</v>
+      </c>
+      <c r="AO60">
         <v>0.5</v>
       </c>
-      <c r="AO60">
-        <v>1.75</v>
-      </c>
       <c r="AP60">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AQ60">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR60">
-        <v>1.83</v>
+        <v>1.44</v>
       </c>
       <c r="AS60">
-        <v>1.29</v>
+        <v>1.47</v>
       </c>
       <c r="AT60">
-        <v>3.12</v>
+        <v>2.91</v>
       </c>
       <c r="AU60">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV60">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AW60">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX60">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY60">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ60">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BA60">
         <v>4</v>
       </c>
       <c r="BB60">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC60">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD60">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="BE60">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF60">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="BG60">
         <v>0</v>
@@ -13248,2706 +13191,28 @@
         <v>0</v>
       </c>
       <c r="BI60">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="BJ60">
-        <v>2.97</v>
+        <v>3.04</v>
       </c>
       <c r="BK60">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="BL60">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="BM60">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="BN60">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="BO60">
-        <v>2.43</v>
+        <v>2.38</v>
       </c>
       <c r="BP60">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="61" spans="1:68">
-      <c r="A61" s="1">
-        <v>60</v>
-      </c>
-      <c r="B61">
-        <v>7468147</v>
-      </c>
-      <c r="C61" t="s">
-        <v>68</v>
-      </c>
-      <c r="D61" t="s">
-        <v>69</v>
-      </c>
-      <c r="E61" s="2">
-        <v>45556.45833333334</v>
-      </c>
-      <c r="F61">
-        <v>9</v>
-      </c>
-      <c r="G61" t="s">
-        <v>79</v>
-      </c>
-      <c r="H61" t="s">
-        <v>83</v>
-      </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-      <c r="J61">
-        <v>1</v>
-      </c>
-      <c r="K61">
-        <v>2</v>
-      </c>
-      <c r="L61">
-        <v>2</v>
-      </c>
-      <c r="M61">
-        <v>3</v>
-      </c>
-      <c r="N61">
-        <v>5</v>
-      </c>
-      <c r="O61" t="s">
-        <v>129</v>
-      </c>
-      <c r="P61" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q61">
-        <v>3.86</v>
-      </c>
-      <c r="R61">
-        <v>2.19</v>
-      </c>
-      <c r="S61">
-        <v>2.63</v>
-      </c>
-      <c r="T61">
-        <v>1.35</v>
-      </c>
-      <c r="U61">
-        <v>3.04</v>
-      </c>
-      <c r="V61">
-        <v>2.6</v>
-      </c>
-      <c r="W61">
         <v>1.46</v>
-      </c>
-      <c r="X61">
-        <v>6.35</v>
-      </c>
-      <c r="Y61">
-        <v>1.1</v>
-      </c>
-      <c r="Z61">
-        <v>3.25</v>
-      </c>
-      <c r="AA61">
-        <v>3.4</v>
-      </c>
-      <c r="AB61">
-        <v>2.15</v>
-      </c>
-      <c r="AC61">
-        <v>1.01</v>
-      </c>
-      <c r="AD61">
-        <v>10</v>
-      </c>
-      <c r="AE61">
-        <v>1.22</v>
-      </c>
-      <c r="AF61">
-        <v>3.65</v>
-      </c>
-      <c r="AG61">
-        <v>1.8</v>
-      </c>
-      <c r="AH61">
-        <v>1.91</v>
-      </c>
-      <c r="AI61">
-        <v>1.63</v>
-      </c>
-      <c r="AJ61">
-        <v>2.18</v>
-      </c>
-      <c r="AK61">
-        <v>1.71</v>
-      </c>
-      <c r="AL61">
-        <v>1.28</v>
-      </c>
-      <c r="AM61">
-        <v>1.32</v>
-      </c>
-      <c r="AN61">
-        <v>0.75</v>
-      </c>
-      <c r="AO61">
-        <v>0.5</v>
-      </c>
-      <c r="AP61">
-        <v>0.6</v>
-      </c>
-      <c r="AQ61">
-        <v>1</v>
-      </c>
-      <c r="AR61">
-        <v>1.44</v>
-      </c>
-      <c r="AS61">
-        <v>1.47</v>
-      </c>
-      <c r="AT61">
-        <v>2.91</v>
-      </c>
-      <c r="AU61">
-        <v>8</v>
-      </c>
-      <c r="AV61">
-        <v>6</v>
-      </c>
-      <c r="AW61">
-        <v>4</v>
-      </c>
-      <c r="AX61">
-        <v>5</v>
-      </c>
-      <c r="AY61">
-        <v>12</v>
-      </c>
-      <c r="AZ61">
-        <v>11</v>
-      </c>
-      <c r="BA61">
-        <v>4</v>
-      </c>
-      <c r="BB61">
-        <v>7</v>
-      </c>
-      <c r="BC61">
-        <v>11</v>
-      </c>
-      <c r="BD61">
-        <v>2.2</v>
-      </c>
-      <c r="BE61">
-        <v>8.5</v>
-      </c>
-      <c r="BF61">
-        <v>1.83</v>
-      </c>
-      <c r="BG61">
-        <v>0</v>
-      </c>
-      <c r="BH61">
-        <v>0</v>
-      </c>
-      <c r="BI61">
-        <v>1.27</v>
-      </c>
-      <c r="BJ61">
-        <v>3.04</v>
-      </c>
-      <c r="BK61">
-        <v>1.51</v>
-      </c>
-      <c r="BL61">
-        <v>2.26</v>
-      </c>
-      <c r="BM61">
-        <v>1.95</v>
-      </c>
-      <c r="BN61">
-        <v>1.85</v>
-      </c>
-      <c r="BO61">
-        <v>2.38</v>
-      </c>
-      <c r="BP61">
-        <v>1.46</v>
-      </c>
-    </row>
-    <row r="62" spans="1:68">
-      <c r="A62" s="1">
-        <v>61</v>
-      </c>
-      <c r="B62">
-        <v>7468150</v>
-      </c>
-      <c r="C62" t="s">
-        <v>68</v>
-      </c>
-      <c r="D62" t="s">
-        <v>69</v>
-      </c>
-      <c r="E62" s="2">
-        <v>45556.875</v>
-      </c>
-      <c r="F62">
-        <v>9</v>
-      </c>
-      <c r="G62" t="s">
-        <v>72</v>
-      </c>
-      <c r="H62" t="s">
-        <v>70</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>1</v>
-      </c>
-      <c r="K62">
-        <v>1</v>
-      </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="M62">
-        <v>2</v>
-      </c>
-      <c r="N62">
-        <v>2</v>
-      </c>
-      <c r="O62" t="s">
-        <v>88</v>
-      </c>
-      <c r="P62" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q62">
-        <v>8.77</v>
-      </c>
-      <c r="R62">
-        <v>3.02</v>
-      </c>
-      <c r="S62">
-        <v>1.59</v>
-      </c>
-      <c r="T62">
-        <v>1.22</v>
-      </c>
-      <c r="U62">
-        <v>3.8</v>
-      </c>
-      <c r="V62">
-        <v>2.12</v>
-      </c>
-      <c r="W62">
-        <v>1.7</v>
-      </c>
-      <c r="X62">
-        <v>4.33</v>
-      </c>
-      <c r="Y62">
-        <v>1.18</v>
-      </c>
-      <c r="Z62">
-        <v>11</v>
-      </c>
-      <c r="AA62">
-        <v>6.25</v>
-      </c>
-      <c r="AB62">
-        <v>1.24</v>
-      </c>
-      <c r="AC62">
-        <v>1.02</v>
-      </c>
-      <c r="AD62">
-        <v>25</v>
-      </c>
-      <c r="AE62">
-        <v>1.11</v>
-      </c>
-      <c r="AF62">
-        <v>5.5</v>
-      </c>
-      <c r="AG62">
-        <v>1.39</v>
-      </c>
-      <c r="AH62">
-        <v>2.77</v>
-      </c>
-      <c r="AI62">
-        <v>1.91</v>
-      </c>
-      <c r="AJ62">
-        <v>1.8</v>
-      </c>
-      <c r="AK62">
-        <v>4.2</v>
-      </c>
-      <c r="AL62">
-        <v>1.11</v>
-      </c>
-      <c r="AM62">
-        <v>1.04</v>
-      </c>
-      <c r="AN62">
-        <v>0.25</v>
-      </c>
-      <c r="AO62">
-        <v>3</v>
-      </c>
-      <c r="AP62">
-        <v>0.2</v>
-      </c>
-      <c r="AQ62">
-        <v>3</v>
-      </c>
-      <c r="AR62">
-        <v>1.37</v>
-      </c>
-      <c r="AS62">
-        <v>1.88</v>
-      </c>
-      <c r="AT62">
-        <v>3.25</v>
-      </c>
-      <c r="AU62">
-        <v>4</v>
-      </c>
-      <c r="AV62">
-        <v>6</v>
-      </c>
-      <c r="AW62">
-        <v>4</v>
-      </c>
-      <c r="AX62">
-        <v>8</v>
-      </c>
-      <c r="AY62">
-        <v>8</v>
-      </c>
-      <c r="AZ62">
-        <v>14</v>
-      </c>
-      <c r="BA62">
-        <v>4</v>
-      </c>
-      <c r="BB62">
-        <v>8</v>
-      </c>
-      <c r="BC62">
-        <v>12</v>
-      </c>
-      <c r="BD62">
-        <v>5.6</v>
-      </c>
-      <c r="BE62">
-        <v>11</v>
-      </c>
-      <c r="BF62">
-        <v>1.21</v>
-      </c>
-      <c r="BG62">
-        <v>1.11</v>
-      </c>
-      <c r="BH62">
-        <v>5.9</v>
-      </c>
-      <c r="BI62">
-        <v>1.2</v>
-      </c>
-      <c r="BJ62">
-        <v>3.55</v>
-      </c>
-      <c r="BK62">
-        <v>1.4</v>
-      </c>
-      <c r="BL62">
-        <v>2.56</v>
-      </c>
-      <c r="BM62">
-        <v>1.92</v>
-      </c>
-      <c r="BN62">
-        <v>1.88</v>
-      </c>
-      <c r="BO62">
-        <v>2.1</v>
-      </c>
-      <c r="BP62">
-        <v>1.59</v>
-      </c>
-    </row>
-    <row r="63" spans="1:68">
-      <c r="A63" s="1">
-        <v>62</v>
-      </c>
-      <c r="B63">
-        <v>7468148</v>
-      </c>
-      <c r="C63" t="s">
-        <v>68</v>
-      </c>
-      <c r="D63" t="s">
-        <v>69</v>
-      </c>
-      <c r="E63" s="2">
-        <v>45556.875</v>
-      </c>
-      <c r="F63">
-        <v>9</v>
-      </c>
-      <c r="G63" t="s">
-        <v>82</v>
-      </c>
-      <c r="H63" t="s">
-        <v>78</v>
-      </c>
-      <c r="I63">
-        <v>1</v>
-      </c>
-      <c r="J63">
-        <v>1</v>
-      </c>
-      <c r="K63">
-        <v>2</v>
-      </c>
-      <c r="L63">
-        <v>2</v>
-      </c>
-      <c r="M63">
-        <v>2</v>
-      </c>
-      <c r="N63">
-        <v>4</v>
-      </c>
-      <c r="O63" t="s">
-        <v>130</v>
-      </c>
-      <c r="P63" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q63">
-        <v>1.83</v>
-      </c>
-      <c r="R63">
-        <v>2.4</v>
-      </c>
-      <c r="S63">
-        <v>6</v>
-      </c>
-      <c r="T63">
-        <v>1.29</v>
-      </c>
-      <c r="U63">
-        <v>3.35</v>
-      </c>
-      <c r="V63">
-        <v>2.34</v>
-      </c>
-      <c r="W63">
-        <v>1.54</v>
-      </c>
-      <c r="X63">
-        <v>5.45</v>
-      </c>
-      <c r="Y63">
-        <v>1.12</v>
-      </c>
-      <c r="Z63">
-        <v>1.5</v>
-      </c>
-      <c r="AA63">
-        <v>4.4</v>
-      </c>
-      <c r="AB63">
-        <v>5.75</v>
-      </c>
-      <c r="AC63">
-        <v>1.01</v>
-      </c>
-      <c r="AD63">
-        <v>13</v>
-      </c>
-      <c r="AE63">
-        <v>1.14</v>
-      </c>
-      <c r="AF63">
-        <v>4.8</v>
-      </c>
-      <c r="AG63">
-        <v>1.63</v>
-      </c>
-      <c r="AH63">
-        <v>2.29</v>
-      </c>
-      <c r="AI63">
-        <v>1.75</v>
-      </c>
-      <c r="AJ63">
-        <v>2.05</v>
-      </c>
-      <c r="AK63">
-        <v>1.06</v>
-      </c>
-      <c r="AL63">
-        <v>1.15</v>
-      </c>
-      <c r="AM63">
-        <v>2.85</v>
-      </c>
-      <c r="AN63">
-        <v>2</v>
-      </c>
-      <c r="AO63">
-        <v>0.75</v>
-      </c>
-      <c r="AP63">
-        <v>1.75</v>
-      </c>
-      <c r="AQ63">
-        <v>0.8</v>
-      </c>
-      <c r="AR63">
-        <v>1.42</v>
-      </c>
-      <c r="AS63">
-        <v>1.06</v>
-      </c>
-      <c r="AT63">
-        <v>2.48</v>
-      </c>
-      <c r="AU63">
-        <v>4</v>
-      </c>
-      <c r="AV63">
-        <v>4</v>
-      </c>
-      <c r="AW63">
-        <v>4</v>
-      </c>
-      <c r="AX63">
-        <v>0</v>
-      </c>
-      <c r="AY63">
-        <v>8</v>
-      </c>
-      <c r="AZ63">
-        <v>4</v>
-      </c>
-      <c r="BA63">
-        <v>6</v>
-      </c>
-      <c r="BB63">
-        <v>5</v>
-      </c>
-      <c r="BC63">
-        <v>11</v>
-      </c>
-      <c r="BD63">
-        <v>1.3</v>
-      </c>
-      <c r="BE63">
-        <v>10</v>
-      </c>
-      <c r="BF63">
-        <v>4.42</v>
-      </c>
-      <c r="BG63">
-        <v>0</v>
-      </c>
-      <c r="BH63">
-        <v>0</v>
-      </c>
-      <c r="BI63">
-        <v>1.23</v>
-      </c>
-      <c r="BJ63">
-        <v>3.8</v>
-      </c>
-      <c r="BK63">
-        <v>1.35</v>
-      </c>
-      <c r="BL63">
-        <v>2.65</v>
-      </c>
-      <c r="BM63">
-        <v>1.82</v>
-      </c>
-      <c r="BN63">
-        <v>1.98</v>
-      </c>
-      <c r="BO63">
-        <v>2.09</v>
-      </c>
-      <c r="BP63">
-        <v>1.72</v>
-      </c>
-    </row>
-    <row r="64" spans="1:68">
-      <c r="A64" s="1">
-        <v>63</v>
-      </c>
-      <c r="B64">
-        <v>7468144</v>
-      </c>
-      <c r="C64" t="s">
-        <v>68</v>
-      </c>
-      <c r="D64" t="s">
-        <v>69</v>
-      </c>
-      <c r="E64" s="2">
-        <v>45556.875</v>
-      </c>
-      <c r="F64">
-        <v>9</v>
-      </c>
-      <c r="G64" t="s">
-        <v>81</v>
-      </c>
-      <c r="H64" t="s">
-        <v>73</v>
-      </c>
-      <c r="I64">
-        <v>2</v>
-      </c>
-      <c r="J64">
-        <v>1</v>
-      </c>
-      <c r="K64">
-        <v>3</v>
-      </c>
-      <c r="L64">
-        <v>2</v>
-      </c>
-      <c r="M64">
-        <v>2</v>
-      </c>
-      <c r="N64">
-        <v>4</v>
-      </c>
-      <c r="O64" t="s">
-        <v>131</v>
-      </c>
-      <c r="P64" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q64">
-        <v>2.4</v>
-      </c>
-      <c r="R64">
-        <v>2.2</v>
-      </c>
-      <c r="S64">
-        <v>4.75</v>
-      </c>
-      <c r="T64">
-        <v>1.36</v>
-      </c>
-      <c r="U64">
-        <v>3</v>
-      </c>
-      <c r="V64">
-        <v>2.75</v>
-      </c>
-      <c r="W64">
-        <v>1.4</v>
-      </c>
-      <c r="X64">
-        <v>7</v>
-      </c>
-      <c r="Y64">
-        <v>1.1</v>
-      </c>
-      <c r="Z64">
-        <v>1.75</v>
-      </c>
-      <c r="AA64">
-        <v>3.7</v>
-      </c>
-      <c r="AB64">
-        <v>4.1</v>
-      </c>
-      <c r="AC64">
-        <v>1.01</v>
-      </c>
-      <c r="AD64">
-        <v>14.5</v>
-      </c>
-      <c r="AE64">
-        <v>1.2</v>
-      </c>
-      <c r="AF64">
-        <v>4.23</v>
-      </c>
-      <c r="AG64">
-        <v>1.68</v>
-      </c>
-      <c r="AH64">
-        <v>2.1</v>
-      </c>
-      <c r="AI64">
-        <v>1.8</v>
-      </c>
-      <c r="AJ64">
-        <v>1.95</v>
-      </c>
-      <c r="AK64">
-        <v>1.21</v>
-      </c>
-      <c r="AL64">
-        <v>1.27</v>
-      </c>
-      <c r="AM64">
-        <v>2.02</v>
-      </c>
-      <c r="AN64">
-        <v>1.25</v>
-      </c>
-      <c r="AO64">
-        <v>1.25</v>
-      </c>
-      <c r="AP64">
-        <v>1.2</v>
-      </c>
-      <c r="AQ64">
-        <v>1.2</v>
-      </c>
-      <c r="AR64">
-        <v>1.42</v>
-      </c>
-      <c r="AS64">
-        <v>1.5</v>
-      </c>
-      <c r="AT64">
-        <v>2.92</v>
-      </c>
-      <c r="AU64">
-        <v>5</v>
-      </c>
-      <c r="AV64">
-        <v>3</v>
-      </c>
-      <c r="AW64">
-        <v>5</v>
-      </c>
-      <c r="AX64">
-        <v>2</v>
-      </c>
-      <c r="AY64">
-        <v>10</v>
-      </c>
-      <c r="AZ64">
-        <v>5</v>
-      </c>
-      <c r="BA64">
-        <v>4</v>
-      </c>
-      <c r="BB64">
-        <v>5</v>
-      </c>
-      <c r="BC64">
-        <v>9</v>
-      </c>
-      <c r="BD64">
-        <v>1.5</v>
-      </c>
-      <c r="BE64">
-        <v>9.5</v>
-      </c>
-      <c r="BF64">
-        <v>2.88</v>
-      </c>
-      <c r="BG64">
-        <v>1.12</v>
-      </c>
-      <c r="BH64">
-        <v>5.6</v>
-      </c>
-      <c r="BI64">
-        <v>1.19</v>
-      </c>
-      <c r="BJ64">
-        <v>3.6</v>
-      </c>
-      <c r="BK64">
-        <v>1.39</v>
-      </c>
-      <c r="BL64">
-        <v>2.59</v>
-      </c>
-      <c r="BM64">
-        <v>1.77</v>
-      </c>
-      <c r="BN64">
-        <v>1.95</v>
-      </c>
-      <c r="BO64">
-        <v>2.08</v>
-      </c>
-      <c r="BP64">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:68">
-      <c r="A65" s="1">
-        <v>64</v>
-      </c>
-      <c r="B65">
-        <v>7468145</v>
-      </c>
-      <c r="C65" t="s">
-        <v>68</v>
-      </c>
-      <c r="D65" t="s">
-        <v>69</v>
-      </c>
-      <c r="E65" s="2">
-        <v>45556.875</v>
-      </c>
-      <c r="F65">
-        <v>9</v>
-      </c>
-      <c r="G65" t="s">
-        <v>85</v>
-      </c>
-      <c r="H65" t="s">
-        <v>74</v>
-      </c>
-      <c r="I65">
-        <v>1</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>1</v>
-      </c>
-      <c r="L65">
-        <v>2</v>
-      </c>
-      <c r="M65">
-        <v>1</v>
-      </c>
-      <c r="N65">
-        <v>3</v>
-      </c>
-      <c r="O65" t="s">
-        <v>132</v>
-      </c>
-      <c r="P65" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q65">
-        <v>2.1</v>
-      </c>
-      <c r="R65">
-        <v>2.25</v>
-      </c>
-      <c r="S65">
-        <v>5.5</v>
-      </c>
-      <c r="T65">
-        <v>1.34</v>
-      </c>
-      <c r="U65">
-        <v>3.2</v>
-      </c>
-      <c r="V65">
-        <v>2.72</v>
-      </c>
-      <c r="W65">
-        <v>1.45</v>
-      </c>
-      <c r="X65">
-        <v>6.45</v>
-      </c>
-      <c r="Y65">
-        <v>1.09</v>
-      </c>
-      <c r="Z65">
-        <v>1.58</v>
-      </c>
-      <c r="AA65">
-        <v>4</v>
-      </c>
-      <c r="AB65">
-        <v>5.25</v>
-      </c>
-      <c r="AC65">
-        <v>1.01</v>
-      </c>
-      <c r="AD65">
-        <v>11</v>
-      </c>
-      <c r="AE65">
-        <v>1.22</v>
-      </c>
-      <c r="AF65">
-        <v>3.8</v>
-      </c>
-      <c r="AG65">
-        <v>1.81</v>
-      </c>
-      <c r="AH65">
-        <v>2</v>
-      </c>
-      <c r="AI65">
-        <v>1.87</v>
-      </c>
-      <c r="AJ65">
-        <v>1.9</v>
-      </c>
-      <c r="AK65">
-        <v>1.12</v>
-      </c>
-      <c r="AL65">
-        <v>1.22</v>
-      </c>
-      <c r="AM65">
-        <v>2.3</v>
-      </c>
-      <c r="AN65">
-        <v>2.33</v>
-      </c>
-      <c r="AO65">
-        <v>0.33</v>
-      </c>
-      <c r="AP65">
-        <v>2.5</v>
-      </c>
-      <c r="AQ65">
-        <v>0.25</v>
-      </c>
-      <c r="AR65">
-        <v>1.75</v>
-      </c>
-      <c r="AS65">
-        <v>0.87</v>
-      </c>
-      <c r="AT65">
-        <v>2.62</v>
-      </c>
-      <c r="AU65">
-        <v>4</v>
-      </c>
-      <c r="AV65">
-        <v>3</v>
-      </c>
-      <c r="AW65">
-        <v>1</v>
-      </c>
-      <c r="AX65">
-        <v>1</v>
-      </c>
-      <c r="AY65">
-        <v>5</v>
-      </c>
-      <c r="AZ65">
-        <v>4</v>
-      </c>
-      <c r="BA65">
-        <v>6</v>
-      </c>
-      <c r="BB65">
-        <v>8</v>
-      </c>
-      <c r="BC65">
-        <v>14</v>
-      </c>
-      <c r="BD65">
-        <v>1.55</v>
-      </c>
-      <c r="BE65">
-        <v>8.5</v>
-      </c>
-      <c r="BF65">
-        <v>2.91</v>
-      </c>
-      <c r="BG65">
-        <v>1.17</v>
-      </c>
-      <c r="BH65">
-        <v>4.7</v>
-      </c>
-      <c r="BI65">
-        <v>1.26</v>
-      </c>
-      <c r="BJ65">
-        <v>3.08</v>
-      </c>
-      <c r="BK65">
-        <v>1.5</v>
-      </c>
-      <c r="BL65">
-        <v>2.28</v>
-      </c>
-      <c r="BM65">
-        <v>1.95</v>
-      </c>
-      <c r="BN65">
-        <v>1.85</v>
-      </c>
-      <c r="BO65">
-        <v>2.38</v>
-      </c>
-      <c r="BP65">
-        <v>1.46</v>
-      </c>
-    </row>
-    <row r="66" spans="1:68">
-      <c r="A66" s="1">
-        <v>65</v>
-      </c>
-      <c r="B66">
-        <v>7468157</v>
-      </c>
-      <c r="C66" t="s">
-        <v>68</v>
-      </c>
-      <c r="D66" t="s">
-        <v>69</v>
-      </c>
-      <c r="E66" s="2">
-        <v>45562.60416666666</v>
-      </c>
-      <c r="F66">
-        <v>10</v>
-      </c>
-      <c r="G66" t="s">
-        <v>70</v>
-      </c>
-      <c r="H66" t="s">
-        <v>85</v>
-      </c>
-      <c r="I66">
-        <v>1</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <v>1</v>
-      </c>
-      <c r="L66">
-        <v>2</v>
-      </c>
-      <c r="M66">
-        <v>3</v>
-      </c>
-      <c r="N66">
-        <v>5</v>
-      </c>
-      <c r="O66" t="s">
-        <v>133</v>
-      </c>
-      <c r="P66" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q66">
-        <v>1.55</v>
-      </c>
-      <c r="R66">
-        <v>2.88</v>
-      </c>
-      <c r="S66">
-        <v>8.9</v>
-      </c>
-      <c r="T66">
-        <v>1.22</v>
-      </c>
-      <c r="U66">
-        <v>3.8</v>
-      </c>
-      <c r="V66">
-        <v>2.11</v>
-      </c>
-      <c r="W66">
-        <v>1.68</v>
-      </c>
-      <c r="X66">
-        <v>4.55</v>
-      </c>
-      <c r="Y66">
-        <v>1.18</v>
-      </c>
-      <c r="Z66">
-        <v>1.22</v>
-      </c>
-      <c r="AA66">
-        <v>6.35</v>
-      </c>
-      <c r="AB66">
-        <v>11.5</v>
-      </c>
-      <c r="AC66">
-        <v>1.02</v>
-      </c>
-      <c r="AD66">
-        <v>26</v>
-      </c>
-      <c r="AE66">
-        <v>1.08</v>
-      </c>
-      <c r="AF66">
-        <v>5.1</v>
-      </c>
-      <c r="AG66">
-        <v>1.41</v>
-      </c>
-      <c r="AH66">
-        <v>2.69</v>
-      </c>
-      <c r="AI66">
-        <v>1.98</v>
-      </c>
-      <c r="AJ66">
-        <v>1.74</v>
-      </c>
-      <c r="AK66">
-        <v>1.01</v>
-      </c>
-      <c r="AL66">
-        <v>1.09</v>
-      </c>
-      <c r="AM66">
-        <v>4.4</v>
-      </c>
-      <c r="AN66">
-        <v>2.33</v>
-      </c>
-      <c r="AO66">
-        <v>1</v>
-      </c>
-      <c r="AP66">
-        <v>1.75</v>
-      </c>
-      <c r="AQ66">
-        <v>1.4</v>
-      </c>
-      <c r="AR66">
-        <v>2.05</v>
-      </c>
-      <c r="AS66">
-        <v>1.28</v>
-      </c>
-      <c r="AT66">
-        <v>3.33</v>
-      </c>
-      <c r="AU66">
-        <v>6</v>
-      </c>
-      <c r="AV66">
-        <v>5</v>
-      </c>
-      <c r="AW66">
-        <v>8</v>
-      </c>
-      <c r="AX66">
-        <v>1</v>
-      </c>
-      <c r="AY66">
-        <v>14</v>
-      </c>
-      <c r="AZ66">
-        <v>6</v>
-      </c>
-      <c r="BA66">
-        <v>10</v>
-      </c>
-      <c r="BB66">
-        <v>1</v>
-      </c>
-      <c r="BC66">
-        <v>11</v>
-      </c>
-      <c r="BD66">
-        <v>1.12</v>
-      </c>
-      <c r="BE66">
-        <v>13</v>
-      </c>
-      <c r="BF66">
-        <v>7.55</v>
-      </c>
-      <c r="BG66">
-        <v>1.12</v>
-      </c>
-      <c r="BH66">
-        <v>5.4</v>
-      </c>
-      <c r="BI66">
-        <v>1.24</v>
-      </c>
-      <c r="BJ66">
-        <v>3.6</v>
-      </c>
-      <c r="BK66">
-        <v>1.45</v>
-      </c>
-      <c r="BL66">
-        <v>2.34</v>
-      </c>
-      <c r="BM66">
-        <v>1.9</v>
-      </c>
-      <c r="BN66">
-        <v>1.9</v>
-      </c>
-      <c r="BO66">
-        <v>2.34</v>
-      </c>
-      <c r="BP66">
-        <v>1.53</v>
-      </c>
-    </row>
-    <row r="67" spans="1:68">
-      <c r="A67" s="1">
-        <v>66</v>
-      </c>
-      <c r="B67">
-        <v>7468152</v>
-      </c>
-      <c r="C67" t="s">
-        <v>68</v>
-      </c>
-      <c r="D67" t="s">
-        <v>69</v>
-      </c>
-      <c r="E67" s="2">
-        <v>45562.875</v>
-      </c>
-      <c r="F67">
-        <v>10</v>
-      </c>
-      <c r="G67" t="s">
-        <v>78</v>
-      </c>
-      <c r="H67" t="s">
-        <v>79</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="L67">
-        <v>0</v>
-      </c>
-      <c r="M67">
-        <v>1</v>
-      </c>
-      <c r="N67">
-        <v>1</v>
-      </c>
-      <c r="O67" t="s">
-        <v>88</v>
-      </c>
-      <c r="P67" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q67">
-        <v>3.1</v>
-      </c>
-      <c r="R67">
-        <v>2.1</v>
-      </c>
-      <c r="S67">
-        <v>3.3</v>
-      </c>
-      <c r="T67">
-        <v>1.37</v>
-      </c>
-      <c r="U67">
-        <v>3.05</v>
-      </c>
-      <c r="V67">
-        <v>2.86</v>
-      </c>
-      <c r="W67">
-        <v>1.41</v>
-      </c>
-      <c r="X67">
-        <v>7.1</v>
-      </c>
-      <c r="Y67">
-        <v>1.08</v>
-      </c>
-      <c r="Z67">
-        <v>2.54</v>
-      </c>
-      <c r="AA67">
-        <v>3.42</v>
-      </c>
-      <c r="AB67">
-        <v>2.61</v>
-      </c>
-      <c r="AC67">
-        <v>1.03</v>
-      </c>
-      <c r="AD67">
-        <v>9</v>
-      </c>
-      <c r="AE67">
-        <v>1.25</v>
-      </c>
-      <c r="AF67">
-        <v>3.6</v>
-      </c>
-      <c r="AG67">
-        <v>1.88</v>
-      </c>
-      <c r="AH67">
-        <v>1.82</v>
-      </c>
-      <c r="AI67">
-        <v>1.73</v>
-      </c>
-      <c r="AJ67">
-        <v>2.1</v>
-      </c>
-      <c r="AK67">
-        <v>1.47</v>
-      </c>
-      <c r="AL67">
-        <v>1.3</v>
-      </c>
-      <c r="AM67">
-        <v>1.48</v>
-      </c>
-      <c r="AN67">
-        <v>1</v>
-      </c>
-      <c r="AO67">
-        <v>0</v>
-      </c>
-      <c r="AP67">
-        <v>0.75</v>
-      </c>
-      <c r="AQ67">
-        <v>0.75</v>
-      </c>
-      <c r="AR67">
-        <v>1.23</v>
-      </c>
-      <c r="AS67">
-        <v>1.24</v>
-      </c>
-      <c r="AT67">
-        <v>2.47</v>
-      </c>
-      <c r="AU67">
-        <v>2</v>
-      </c>
-      <c r="AV67">
-        <v>4</v>
-      </c>
-      <c r="AW67">
-        <v>1</v>
-      </c>
-      <c r="AX67">
-        <v>5</v>
-      </c>
-      <c r="AY67">
-        <v>3</v>
-      </c>
-      <c r="AZ67">
-        <v>9</v>
-      </c>
-      <c r="BA67">
-        <v>0</v>
-      </c>
-      <c r="BB67">
-        <v>12</v>
-      </c>
-      <c r="BC67">
-        <v>12</v>
-      </c>
-      <c r="BD67">
-        <v>2.1</v>
-      </c>
-      <c r="BE67">
-        <v>8.5</v>
-      </c>
-      <c r="BF67">
-        <v>1.91</v>
-      </c>
-      <c r="BG67">
-        <v>1.16</v>
-      </c>
-      <c r="BH67">
-        <v>4.9</v>
-      </c>
-      <c r="BI67">
-        <v>1.25</v>
-      </c>
-      <c r="BJ67">
-        <v>3.14</v>
-      </c>
-      <c r="BK67">
-        <v>1.56</v>
-      </c>
-      <c r="BL67">
-        <v>2.35</v>
-      </c>
-      <c r="BM67">
-        <v>1.9</v>
-      </c>
-      <c r="BN67">
-        <v>1.9</v>
-      </c>
-      <c r="BO67">
-        <v>2.4</v>
-      </c>
-      <c r="BP67">
-        <v>1.54</v>
-      </c>
-    </row>
-    <row r="68" spans="1:68">
-      <c r="A68" s="1">
-        <v>67</v>
-      </c>
-      <c r="B68">
-        <v>7468155</v>
-      </c>
-      <c r="C68" t="s">
-        <v>68</v>
-      </c>
-      <c r="D68" t="s">
-        <v>69</v>
-      </c>
-      <c r="E68" s="2">
-        <v>45563.35416666666</v>
-      </c>
-      <c r="F68">
-        <v>10</v>
-      </c>
-      <c r="G68" t="s">
-        <v>74</v>
-      </c>
-      <c r="H68" t="s">
-        <v>81</v>
-      </c>
-      <c r="I68">
-        <v>1</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68">
-        <v>1</v>
-      </c>
-      <c r="L68">
-        <v>1</v>
-      </c>
-      <c r="M68">
-        <v>4</v>
-      </c>
-      <c r="N68">
-        <v>5</v>
-      </c>
-      <c r="O68" t="s">
-        <v>134</v>
-      </c>
-      <c r="P68" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q68">
-        <v>4</v>
-      </c>
-      <c r="R68">
-        <v>2.25</v>
-      </c>
-      <c r="S68">
-        <v>2.4</v>
-      </c>
-      <c r="T68">
-        <v>1.32</v>
-      </c>
-      <c r="U68">
-        <v>3.15</v>
-      </c>
-      <c r="V68">
-        <v>2.45</v>
-      </c>
-      <c r="W68">
-        <v>1.48</v>
-      </c>
-      <c r="X68">
-        <v>5.5</v>
-      </c>
-      <c r="Y68">
-        <v>1.12</v>
-      </c>
-      <c r="Z68">
-        <v>3.92</v>
-      </c>
-      <c r="AA68">
-        <v>3.82</v>
-      </c>
-      <c r="AB68">
-        <v>1.81</v>
-      </c>
-      <c r="AC68">
-        <v>1.04</v>
-      </c>
-      <c r="AD68">
-        <v>14.75</v>
-      </c>
-      <c r="AE68">
-        <v>1.22</v>
-      </c>
-      <c r="AF68">
-        <v>4.3</v>
-      </c>
-      <c r="AG68">
-        <v>1.81</v>
-      </c>
-      <c r="AH68">
-        <v>1.89</v>
-      </c>
-      <c r="AI68">
-        <v>1.62</v>
-      </c>
-      <c r="AJ68">
-        <v>2.15</v>
-      </c>
-      <c r="AK68">
-        <v>1.85</v>
-      </c>
-      <c r="AL68">
-        <v>1.28</v>
-      </c>
-      <c r="AM68">
-        <v>1.27</v>
-      </c>
-      <c r="AN68">
-        <v>1.5</v>
-      </c>
-      <c r="AO68">
-        <v>1</v>
-      </c>
-      <c r="AP68">
-        <v>1.2</v>
-      </c>
-      <c r="AQ68">
-        <v>1.5</v>
-      </c>
-      <c r="AR68">
-        <v>1.08</v>
-      </c>
-      <c r="AS68">
-        <v>1.55</v>
-      </c>
-      <c r="AT68">
-        <v>2.63</v>
-      </c>
-      <c r="AU68">
-        <v>4</v>
-      </c>
-      <c r="AV68">
-        <v>11</v>
-      </c>
-      <c r="AW68">
-        <v>7</v>
-      </c>
-      <c r="AX68">
-        <v>8</v>
-      </c>
-      <c r="AY68">
-        <v>11</v>
-      </c>
-      <c r="AZ68">
-        <v>19</v>
-      </c>
-      <c r="BA68">
-        <v>5</v>
-      </c>
-      <c r="BB68">
-        <v>10</v>
-      </c>
-      <c r="BC68">
-        <v>15</v>
-      </c>
-      <c r="BD68">
-        <v>2.41</v>
-      </c>
-      <c r="BE68">
-        <v>8.5</v>
-      </c>
-      <c r="BF68">
-        <v>1.75</v>
-      </c>
-      <c r="BG68">
-        <v>1.18</v>
-      </c>
-      <c r="BH68">
-        <v>4.6</v>
-      </c>
-      <c r="BI68">
-        <v>1.28</v>
-      </c>
-      <c r="BJ68">
-        <v>2.97</v>
-      </c>
-      <c r="BK68">
-        <v>1.52</v>
-      </c>
-      <c r="BL68">
-        <v>2.24</v>
-      </c>
-      <c r="BM68">
-        <v>1.98</v>
-      </c>
-      <c r="BN68">
-        <v>1.82</v>
-      </c>
-      <c r="BO68">
-        <v>2.43</v>
-      </c>
-      <c r="BP68">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="69" spans="1:68">
-      <c r="A69" s="1">
-        <v>68</v>
-      </c>
-      <c r="B69">
-        <v>7468159</v>
-      </c>
-      <c r="C69" t="s">
-        <v>68</v>
-      </c>
-      <c r="D69" t="s">
-        <v>69</v>
-      </c>
-      <c r="E69" s="2">
-        <v>45563.45833333334</v>
-      </c>
-      <c r="F69">
-        <v>10</v>
-      </c>
-      <c r="G69" t="s">
-        <v>76</v>
-      </c>
-      <c r="H69" t="s">
-        <v>75</v>
-      </c>
-      <c r="I69">
-        <v>1</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69">
-        <v>1</v>
-      </c>
-      <c r="L69">
-        <v>2</v>
-      </c>
-      <c r="M69">
-        <v>1</v>
-      </c>
-      <c r="N69">
-        <v>3</v>
-      </c>
-      <c r="O69" t="s">
-        <v>135</v>
-      </c>
-      <c r="P69" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q69">
-        <v>2.35</v>
-      </c>
-      <c r="R69">
-        <v>2.1</v>
-      </c>
-      <c r="S69">
-        <v>4.7</v>
-      </c>
-      <c r="T69">
-        <v>1.42</v>
-      </c>
-      <c r="U69">
-        <v>2.65</v>
-      </c>
-      <c r="V69">
-        <v>2.95</v>
-      </c>
-      <c r="W69">
-        <v>1.35</v>
-      </c>
-      <c r="X69">
-        <v>7.4</v>
-      </c>
-      <c r="Y69">
-        <v>1.06</v>
-      </c>
-      <c r="Z69">
-        <v>1.79</v>
-      </c>
-      <c r="AA69">
-        <v>3.55</v>
-      </c>
-      <c r="AB69">
-        <v>4.35</v>
-      </c>
-      <c r="AC69">
-        <v>1.06</v>
-      </c>
-      <c r="AD69">
-        <v>10</v>
-      </c>
-      <c r="AE69">
-        <v>1.33</v>
-      </c>
-      <c r="AF69">
-        <v>3.2</v>
-      </c>
-      <c r="AG69">
-        <v>2.04</v>
-      </c>
-      <c r="AH69">
-        <v>1.7</v>
-      </c>
-      <c r="AI69">
-        <v>1.9</v>
-      </c>
-      <c r="AJ69">
-        <v>1.87</v>
-      </c>
-      <c r="AK69">
-        <v>1.16</v>
-      </c>
-      <c r="AL69">
-        <v>1.22</v>
-      </c>
-      <c r="AM69">
-        <v>1.95</v>
-      </c>
-      <c r="AN69">
-        <v>1.5</v>
-      </c>
-      <c r="AO69">
-        <v>2</v>
-      </c>
-      <c r="AP69">
-        <v>1.8</v>
-      </c>
-      <c r="AQ69">
-        <v>1.5</v>
-      </c>
-      <c r="AR69">
-        <v>1.16</v>
-      </c>
-      <c r="AS69">
-        <v>1.61</v>
-      </c>
-      <c r="AT69">
-        <v>2.77</v>
-      </c>
-      <c r="AU69">
-        <v>3</v>
-      </c>
-      <c r="AV69">
-        <v>7</v>
-      </c>
-      <c r="AW69">
-        <v>4</v>
-      </c>
-      <c r="AX69">
-        <v>7</v>
-      </c>
-      <c r="AY69">
-        <v>7</v>
-      </c>
-      <c r="AZ69">
-        <v>14</v>
-      </c>
-      <c r="BA69">
-        <v>3</v>
-      </c>
-      <c r="BB69">
-        <v>4</v>
-      </c>
-      <c r="BC69">
-        <v>7</v>
-      </c>
-      <c r="BD69">
-        <v>1.64</v>
-      </c>
-      <c r="BE69">
-        <v>8.5</v>
-      </c>
-      <c r="BF69">
-        <v>2.66</v>
-      </c>
-      <c r="BG69">
-        <v>1.15</v>
-      </c>
-      <c r="BH69">
-        <v>4.8</v>
-      </c>
-      <c r="BI69">
-        <v>1.25</v>
-      </c>
-      <c r="BJ69">
-        <v>3.14</v>
-      </c>
-      <c r="BK69">
-        <v>1.53</v>
-      </c>
-      <c r="BL69">
-        <v>2.46</v>
-      </c>
-      <c r="BM69">
-        <v>1.9</v>
-      </c>
-      <c r="BN69">
-        <v>1.9</v>
-      </c>
-      <c r="BO69">
-        <v>2.33</v>
-      </c>
-      <c r="BP69">
-        <v>1.58</v>
-      </c>
-    </row>
-    <row r="70" spans="1:68">
-      <c r="A70" s="1">
-        <v>69</v>
-      </c>
-      <c r="B70">
-        <v>7468158</v>
-      </c>
-      <c r="C70" t="s">
-        <v>68</v>
-      </c>
-      <c r="D70" t="s">
-        <v>69</v>
-      </c>
-      <c r="E70" s="2">
-        <v>45563.58333333334</v>
-      </c>
-      <c r="F70">
-        <v>10</v>
-      </c>
-      <c r="G70" t="s">
-        <v>71</v>
-      </c>
-      <c r="H70" t="s">
-        <v>77</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <v>2</v>
-      </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-      <c r="N70">
-        <v>2</v>
-      </c>
-      <c r="O70" t="s">
-        <v>136</v>
-      </c>
-      <c r="P70" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q70">
-        <v>2.88</v>
-      </c>
-      <c r="R70">
-        <v>2</v>
-      </c>
-      <c r="S70">
-        <v>3.6</v>
-      </c>
-      <c r="T70">
-        <v>1.45</v>
-      </c>
-      <c r="U70">
-        <v>2.6</v>
-      </c>
-      <c r="V70">
-        <v>2.95</v>
-      </c>
-      <c r="W70">
-        <v>1.36</v>
-      </c>
-      <c r="X70">
-        <v>7</v>
-      </c>
-      <c r="Y70">
-        <v>1.07</v>
-      </c>
-      <c r="Z70">
-        <v>2.35</v>
-      </c>
-      <c r="AA70">
-        <v>3.05</v>
-      </c>
-      <c r="AB70">
-        <v>3.05</v>
-      </c>
-      <c r="AC70">
-        <v>1.05</v>
-      </c>
-      <c r="AD70">
-        <v>8</v>
-      </c>
-      <c r="AE70">
-        <v>1.29</v>
-      </c>
-      <c r="AF70">
-        <v>3.3</v>
-      </c>
-      <c r="AG70">
-        <v>1.98</v>
-      </c>
-      <c r="AH70">
-        <v>1.77</v>
-      </c>
-      <c r="AI70">
-        <v>1.8</v>
-      </c>
-      <c r="AJ70">
-        <v>2</v>
-      </c>
-      <c r="AK70">
-        <v>1.38</v>
-      </c>
-      <c r="AL70">
-        <v>1.28</v>
-      </c>
-      <c r="AM70">
-        <v>1.55</v>
-      </c>
-      <c r="AN70">
-        <v>1.33</v>
-      </c>
-      <c r="AO70">
-        <v>0</v>
-      </c>
-      <c r="AP70">
-        <v>1.75</v>
-      </c>
-      <c r="AQ70">
-        <v>0</v>
-      </c>
-      <c r="AR70">
-        <v>1.53</v>
-      </c>
-      <c r="AS70">
-        <v>0.89</v>
-      </c>
-      <c r="AT70">
-        <v>2.42</v>
-      </c>
-      <c r="AU70">
-        <v>8</v>
-      </c>
-      <c r="AV70">
-        <v>5</v>
-      </c>
-      <c r="AW70">
-        <v>13</v>
-      </c>
-      <c r="AX70">
-        <v>6</v>
-      </c>
-      <c r="AY70">
-        <v>21</v>
-      </c>
-      <c r="AZ70">
-        <v>11</v>
-      </c>
-      <c r="BA70">
-        <v>7</v>
-      </c>
-      <c r="BB70">
-        <v>2</v>
-      </c>
-      <c r="BC70">
-        <v>9</v>
-      </c>
-      <c r="BD70">
-        <v>1.82</v>
-      </c>
-      <c r="BE70">
-        <v>8</v>
-      </c>
-      <c r="BF70">
-        <v>2.33</v>
-      </c>
-      <c r="BG70">
-        <v>1.16</v>
-      </c>
-      <c r="BH70">
-        <v>4.9</v>
-      </c>
-      <c r="BI70">
-        <v>1.27</v>
-      </c>
-      <c r="BJ70">
-        <v>3.04</v>
-      </c>
-      <c r="BK70">
-        <v>1.52</v>
-      </c>
-      <c r="BL70">
-        <v>2.44</v>
-      </c>
-      <c r="BM70">
-        <v>1.87</v>
-      </c>
-      <c r="BN70">
-        <v>1.93</v>
-      </c>
-      <c r="BO70">
-        <v>2.33</v>
-      </c>
-      <c r="BP70">
-        <v>1.57</v>
-      </c>
-    </row>
-    <row r="71" spans="1:68">
-      <c r="A71" s="1">
-        <v>70</v>
-      </c>
-      <c r="B71">
-        <v>7468153</v>
-      </c>
-      <c r="C71" t="s">
-        <v>68</v>
-      </c>
-      <c r="D71" t="s">
-        <v>69</v>
-      </c>
-      <c r="E71" s="2">
-        <v>45563.875</v>
-      </c>
-      <c r="F71">
-        <v>10</v>
-      </c>
-      <c r="G71" t="s">
-        <v>84</v>
-      </c>
-      <c r="H71" t="s">
-        <v>82</v>
-      </c>
-      <c r="I71">
-        <v>1</v>
-      </c>
-      <c r="J71">
-        <v>1</v>
-      </c>
-      <c r="K71">
-        <v>2</v>
-      </c>
-      <c r="L71">
-        <v>1</v>
-      </c>
-      <c r="M71">
-        <v>1</v>
-      </c>
-      <c r="N71">
-        <v>2</v>
-      </c>
-      <c r="O71" t="s">
-        <v>124</v>
-      </c>
-      <c r="P71" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q71">
-        <v>1.88</v>
-      </c>
-      <c r="R71">
-        <v>2.65</v>
-      </c>
-      <c r="S71">
-        <v>5.3</v>
-      </c>
-      <c r="T71">
-        <v>1.22</v>
-      </c>
-      <c r="U71">
-        <v>3.9</v>
-      </c>
-      <c r="V71">
-        <v>2.23</v>
-      </c>
-      <c r="W71">
-        <v>1.58</v>
-      </c>
-      <c r="X71">
-        <v>5.1</v>
-      </c>
-      <c r="Y71">
-        <v>1.14</v>
-      </c>
-      <c r="Z71">
-        <v>1.44</v>
-      </c>
-      <c r="AA71">
-        <v>4.4</v>
-      </c>
-      <c r="AB71">
-        <v>5.25</v>
-      </c>
-      <c r="AC71">
-        <v>1.03</v>
-      </c>
-      <c r="AD71">
-        <v>19.25</v>
-      </c>
-      <c r="AE71">
-        <v>1.12</v>
-      </c>
-      <c r="AF71">
-        <v>4.45</v>
-      </c>
-      <c r="AG71">
-        <v>1.53</v>
-      </c>
-      <c r="AH71">
-        <v>2.35</v>
-      </c>
-      <c r="AI71">
-        <v>1.67</v>
-      </c>
-      <c r="AJ71">
-        <v>2.1</v>
-      </c>
-      <c r="AK71">
-        <v>1.09</v>
-      </c>
-      <c r="AL71">
-        <v>1.16</v>
-      </c>
-      <c r="AM71">
-        <v>2.7</v>
-      </c>
-      <c r="AN71">
-        <v>3</v>
-      </c>
-      <c r="AO71">
-        <v>0.75</v>
-      </c>
-      <c r="AP71">
-        <v>2.5</v>
-      </c>
-      <c r="AQ71">
-        <v>0.8</v>
-      </c>
-      <c r="AR71">
-        <v>1.84</v>
-      </c>
-      <c r="AS71">
-        <v>1.5</v>
-      </c>
-      <c r="AT71">
-        <v>3.34</v>
-      </c>
-      <c r="AU71">
-        <v>7</v>
-      </c>
-      <c r="AV71">
-        <v>0</v>
-      </c>
-      <c r="AW71">
-        <v>5</v>
-      </c>
-      <c r="AX71">
-        <v>3</v>
-      </c>
-      <c r="AY71">
-        <v>12</v>
-      </c>
-      <c r="AZ71">
-        <v>3</v>
-      </c>
-      <c r="BA71">
-        <v>9</v>
-      </c>
-      <c r="BB71">
-        <v>1</v>
-      </c>
-      <c r="BC71">
-        <v>10</v>
-      </c>
-      <c r="BD71">
-        <v>1.45</v>
-      </c>
-      <c r="BE71">
-        <v>9</v>
-      </c>
-      <c r="BF71">
-        <v>3.28</v>
-      </c>
-      <c r="BG71">
-        <v>1.1</v>
-      </c>
-      <c r="BH71">
-        <v>5.8</v>
-      </c>
-      <c r="BI71">
-        <v>1.21</v>
-      </c>
-      <c r="BJ71">
-        <v>3.9</v>
-      </c>
-      <c r="BK71">
-        <v>1.33</v>
-      </c>
-      <c r="BL71">
-        <v>2.73</v>
-      </c>
-      <c r="BM71">
-        <v>1.92</v>
-      </c>
-      <c r="BN71">
-        <v>1.88</v>
-      </c>
-      <c r="BO71">
-        <v>2.04</v>
-      </c>
-      <c r="BP71">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="72" spans="1:68">
-      <c r="A72" s="1">
-        <v>71</v>
-      </c>
-      <c r="B72">
-        <v>7468154</v>
-      </c>
-      <c r="C72" t="s">
-        <v>68</v>
-      </c>
-      <c r="D72" t="s">
-        <v>69</v>
-      </c>
-      <c r="E72" s="2">
-        <v>45564.33333333334</v>
-      </c>
-      <c r="F72">
-        <v>10</v>
-      </c>
-      <c r="G72" t="s">
-        <v>83</v>
-      </c>
-      <c r="H72" t="s">
-        <v>72</v>
-      </c>
-      <c r="I72">
-        <v>1</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72">
-        <v>1</v>
-      </c>
-      <c r="L72">
-        <v>2</v>
-      </c>
-      <c r="M72">
-        <v>1</v>
-      </c>
-      <c r="N72">
-        <v>3</v>
-      </c>
-      <c r="O72" t="s">
-        <v>137</v>
-      </c>
-      <c r="P72" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q72">
-        <v>1.72</v>
-      </c>
-      <c r="R72">
-        <v>2.65</v>
-      </c>
-      <c r="S72">
-        <v>6.5</v>
-      </c>
-      <c r="T72">
-        <v>1.24</v>
-      </c>
-      <c r="U72">
-        <v>3.7</v>
-      </c>
-      <c r="V72">
-        <v>2.14</v>
-      </c>
-      <c r="W72">
-        <v>1.64</v>
-      </c>
-      <c r="X72">
-        <v>4.7</v>
-      </c>
-      <c r="Y72">
-        <v>1.16</v>
-      </c>
-      <c r="Z72">
-        <v>1.3</v>
-      </c>
-      <c r="AA72">
-        <v>5</v>
-      </c>
-      <c r="AB72">
-        <v>7</v>
-      </c>
-      <c r="AC72">
-        <v>1.02</v>
-      </c>
-      <c r="AD72">
-        <v>24</v>
-      </c>
-      <c r="AE72">
-        <v>1.09</v>
-      </c>
-      <c r="AF72">
-        <v>4.95</v>
-      </c>
-      <c r="AG72">
-        <v>1.45</v>
-      </c>
-      <c r="AH72">
-        <v>2.55</v>
-      </c>
-      <c r="AI72">
-        <v>1.75</v>
-      </c>
-      <c r="AJ72">
-        <v>2</v>
-      </c>
-      <c r="AK72">
-        <v>1.03</v>
-      </c>
-      <c r="AL72">
-        <v>1.1</v>
-      </c>
-      <c r="AM72">
-        <v>3.3</v>
-      </c>
-      <c r="AN72">
-        <v>3</v>
-      </c>
-      <c r="AO72">
-        <v>0</v>
-      </c>
-      <c r="AP72">
-        <v>3</v>
-      </c>
-      <c r="AQ72">
-        <v>0</v>
-      </c>
-      <c r="AR72">
-        <v>1.82</v>
-      </c>
-      <c r="AS72">
-        <v>1</v>
-      </c>
-      <c r="AT72">
-        <v>2.82</v>
-      </c>
-      <c r="AU72">
-        <v>7</v>
-      </c>
-      <c r="AV72">
-        <v>3</v>
-      </c>
-      <c r="AW72">
-        <v>5</v>
-      </c>
-      <c r="AX72">
-        <v>7</v>
-      </c>
-      <c r="AY72">
-        <v>12</v>
-      </c>
-      <c r="AZ72">
-        <v>10</v>
-      </c>
-      <c r="BA72">
-        <v>7</v>
-      </c>
-      <c r="BB72">
-        <v>4</v>
-      </c>
-      <c r="BC72">
-        <v>11</v>
-      </c>
-      <c r="BD72">
-        <v>1.23</v>
-      </c>
-      <c r="BE72">
-        <v>11</v>
-      </c>
-      <c r="BF72">
-        <v>4.89</v>
-      </c>
-      <c r="BG72">
-        <v>0</v>
-      </c>
-      <c r="BH72">
-        <v>0</v>
-      </c>
-      <c r="BI72">
-        <v>1.16</v>
-      </c>
-      <c r="BJ72">
-        <v>4.5</v>
-      </c>
-      <c r="BK72">
-        <v>1.25</v>
-      </c>
-      <c r="BL72">
-        <v>3.14</v>
-      </c>
-      <c r="BM72">
-        <v>1.53</v>
-      </c>
-      <c r="BN72">
-        <v>2.42</v>
-      </c>
-      <c r="BO72">
-        <v>1.9</v>
-      </c>
-      <c r="BP72">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:68">
-      <c r="A73" s="1">
-        <v>72</v>
-      </c>
-      <c r="B73">
-        <v>7468156</v>
-      </c>
-      <c r="C73" t="s">
-        <v>68</v>
-      </c>
-      <c r="D73" t="s">
-        <v>69</v>
-      </c>
-      <c r="E73" s="2">
-        <v>45564.5625</v>
-      </c>
-      <c r="F73">
-        <v>10</v>
-      </c>
-      <c r="G73" t="s">
-        <v>73</v>
-      </c>
-      <c r="H73" t="s">
-        <v>80</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <v>3</v>
-      </c>
-      <c r="K73">
-        <v>3</v>
-      </c>
-      <c r="L73">
-        <v>0</v>
-      </c>
-      <c r="M73">
-        <v>4</v>
-      </c>
-      <c r="N73">
-        <v>4</v>
-      </c>
-      <c r="O73" t="s">
-        <v>88</v>
-      </c>
-      <c r="P73" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q73">
-        <v>7</v>
-      </c>
-      <c r="R73">
-        <v>2.5</v>
-      </c>
-      <c r="S73">
-        <v>1.83</v>
-      </c>
-      <c r="T73">
-        <v>1.29</v>
-      </c>
-      <c r="U73">
-        <v>3.5</v>
-      </c>
-      <c r="V73">
-        <v>2.38</v>
-      </c>
-      <c r="W73">
-        <v>1.53</v>
-      </c>
-      <c r="X73">
-        <v>5.5</v>
-      </c>
-      <c r="Y73">
-        <v>1.14</v>
-      </c>
-      <c r="Z73">
-        <v>7.5</v>
-      </c>
-      <c r="AA73">
-        <v>5</v>
-      </c>
-      <c r="AB73">
-        <v>1.35</v>
-      </c>
-      <c r="AC73">
-        <v>1.01</v>
-      </c>
-      <c r="AD73">
-        <v>15</v>
-      </c>
-      <c r="AE73">
-        <v>1.2</v>
-      </c>
-      <c r="AF73">
-        <v>4.5</v>
-      </c>
-      <c r="AG73">
-        <v>1.58</v>
-      </c>
-      <c r="AH73">
-        <v>2.3</v>
-      </c>
-      <c r="AI73">
-        <v>1.95</v>
-      </c>
-      <c r="AJ73">
-        <v>1.8</v>
-      </c>
-      <c r="AK73">
-        <v>3.3</v>
-      </c>
-      <c r="AL73">
-        <v>1.1</v>
-      </c>
-      <c r="AM73">
-        <v>1.03</v>
-      </c>
-      <c r="AN73">
-        <v>1</v>
-      </c>
-      <c r="AO73">
-        <v>2.33</v>
-      </c>
-      <c r="AP73">
-        <v>0.75</v>
-      </c>
-      <c r="AQ73">
-        <v>2.5</v>
-      </c>
-      <c r="AR73">
-        <v>1.68</v>
-      </c>
-      <c r="AS73">
-        <v>1.51</v>
-      </c>
-      <c r="AT73">
-        <v>3.19</v>
-      </c>
-      <c r="AU73">
-        <v>0</v>
-      </c>
-      <c r="AV73">
-        <v>7</v>
-      </c>
-      <c r="AW73">
-        <v>3</v>
-      </c>
-      <c r="AX73">
-        <v>10</v>
-      </c>
-      <c r="AY73">
-        <v>3</v>
-      </c>
-      <c r="AZ73">
-        <v>17</v>
-      </c>
-      <c r="BA73">
-        <v>5</v>
-      </c>
-      <c r="BB73">
-        <v>10</v>
-      </c>
-      <c r="BC73">
-        <v>15</v>
-      </c>
-      <c r="BD73">
-        <v>3.84</v>
-      </c>
-      <c r="BE73">
-        <v>10</v>
-      </c>
-      <c r="BF73">
-        <v>1.34</v>
-      </c>
-      <c r="BG73">
-        <v>1.15</v>
-      </c>
-      <c r="BH73">
-        <v>4.8</v>
-      </c>
-      <c r="BI73">
-        <v>1.24</v>
-      </c>
-      <c r="BJ73">
-        <v>3.22</v>
-      </c>
-      <c r="BK73">
-        <v>1.46</v>
-      </c>
-      <c r="BL73">
-        <v>2.38</v>
-      </c>
-      <c r="BM73">
-        <v>1.85</v>
-      </c>
-      <c r="BN73">
-        <v>1.95</v>
-      </c>
-      <c r="BO73">
-        <v>2.26</v>
-      </c>
-      <c r="BP73">
-        <v>1.51</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="177">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -403,6 +403,33 @@
     <t>['34', '90+3']</t>
   </si>
   <si>
+    <t>['10', '45+1', '45+5']</t>
+  </si>
+  <si>
+    <t>['35', '48']</t>
+  </si>
+  <si>
+    <t>['1', '59']</t>
+  </si>
+  <si>
+    <t>['14', '35']</t>
+  </si>
+  <si>
+    <t>['12', '90+1']</t>
+  </si>
+  <si>
+    <t>['2']</t>
+  </si>
+  <si>
+    <t>['8', '75']</t>
+  </si>
+  <si>
+    <t>['64', '78']</t>
+  </si>
+  <si>
+    <t>['32', '72']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -488,6 +515,36 @@
   </si>
   <si>
     <t>['37', '52', '65']</t>
+  </si>
+  <si>
+    <t>['8', '65']</t>
+  </si>
+  <si>
+    <t>['11', '52']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
+    <t>['3', '71']</t>
+  </si>
+  <si>
+    <t>['67', '78', '86']</t>
+  </si>
+  <si>
+    <t>['48', '53', '55', '90+1']</t>
+  </si>
+  <si>
+    <t>['86']</t>
+  </si>
+  <si>
+    <t>['87']</t>
+  </si>
+  <si>
+    <t>['43']</t>
+  </si>
+  <si>
+    <t>['14', '16', '34', '50']</t>
   </si>
 </sst>
 </file>
@@ -849,7 +906,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP60"/>
+  <dimension ref="A1:BP73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1108,7 +1165,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="Q2">
         <v>1.53</v>
@@ -1186,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ2">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1213,10 +1270,10 @@
         <v>3</v>
       </c>
       <c r="AY2">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AZ2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA2">
         <v>5</v>
@@ -1392,10 +1449,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ3">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1419,10 +1476,10 @@
         <v>3</v>
       </c>
       <c r="AY3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BA3">
         <v>4</v>
@@ -1520,7 +1577,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -1598,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1625,10 +1682,10 @@
         <v>9</v>
       </c>
       <c r="AY4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA4">
         <v>6</v>
@@ -1726,7 +1783,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -1804,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -1831,10 +1888,10 @@
         <v>3</v>
       </c>
       <c r="AY5">
+        <v>19</v>
+      </c>
+      <c r="AZ5">
         <v>13</v>
-      </c>
-      <c r="AZ5">
-        <v>10</v>
       </c>
       <c r="BA5">
         <v>7</v>
@@ -1932,7 +1989,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2010,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ6">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2037,10 +2094,10 @@
         <v>5</v>
       </c>
       <c r="AY6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA6">
         <v>3</v>
@@ -2138,7 +2195,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2219,7 +2276,7 @@
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2243,10 +2300,10 @@
         <v>5</v>
       </c>
       <c r="AY7">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ7">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BA7">
         <v>8</v>
@@ -2422,10 +2479,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ8">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2449,10 +2506,10 @@
         <v>5</v>
       </c>
       <c r="AY8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA8">
         <v>1</v>
@@ -2631,7 +2688,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ9">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2655,10 +2712,10 @@
         <v>3</v>
       </c>
       <c r="AY9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ9">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA9">
         <v>7</v>
@@ -2834,10 +2891,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ10">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR10">
         <v>0.98</v>
@@ -2861,10 +2918,10 @@
         <v>9</v>
       </c>
       <c r="AY10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ10">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="BA10">
         <v>2</v>
@@ -2962,7 +3019,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="Q11">
         <v>2.85</v>
@@ -3040,10 +3097,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ11">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3067,10 +3124,10 @@
         <v>9</v>
       </c>
       <c r="AY11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ11">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BA11">
         <v>4</v>
@@ -3168,7 +3225,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3273,10 +3330,10 @@
         <v>8</v>
       </c>
       <c r="AY12">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AZ12">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BA12">
         <v>5</v>
@@ -3479,10 +3536,10 @@
         <v>0</v>
       </c>
       <c r="AY13">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AZ13">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BA13">
         <v>10</v>
@@ -3580,7 +3637,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -3658,10 +3715,10 @@
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3685,10 +3742,10 @@
         <v>1</v>
       </c>
       <c r="AY14">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AZ14">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA14">
         <v>7</v>
@@ -3864,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -3891,10 +3948,10 @@
         <v>5</v>
       </c>
       <c r="AY15">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ15">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="BA15">
         <v>4</v>
@@ -4097,10 +4154,10 @@
         <v>2</v>
       </c>
       <c r="AY16">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AZ16">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="BA16">
         <v>3</v>
@@ -4276,7 +4333,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ17">
         <v>0</v>
@@ -4404,7 +4461,7 @@
         <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="Q18">
         <v>5.4</v>
@@ -4482,10 +4539,10 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ18">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR18">
         <v>1.26</v>
@@ -4509,7 +4566,7 @@
         <v>3</v>
       </c>
       <c r="AY18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ18">
         <v>6</v>
@@ -4688,10 +4745,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ19">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR19">
         <v>1.9</v>
@@ -4715,10 +4772,10 @@
         <v>5</v>
       </c>
       <c r="AY19">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AZ19">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA19">
         <v>4</v>
@@ -4894,10 +4951,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ20">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR20">
         <v>1</v>
@@ -4921,10 +4978,10 @@
         <v>6</v>
       </c>
       <c r="AY20">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AZ20">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BA20">
         <v>6</v>
@@ -5100,10 +5157,10 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ21">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR21">
         <v>1.81</v>
@@ -5127,10 +5184,10 @@
         <v>4</v>
       </c>
       <c r="AY21">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ21">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA21">
         <v>8</v>
@@ -5306,10 +5363,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ22">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5333,10 +5390,10 @@
         <v>7</v>
       </c>
       <c r="AY22">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ22">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BA22">
         <v>6</v>
@@ -5434,7 +5491,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="Q23">
         <v>2.6</v>
@@ -5512,10 +5569,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ23">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR23">
         <v>1.33</v>
@@ -5539,10 +5596,10 @@
         <v>3</v>
       </c>
       <c r="AY23">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AZ23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA23">
         <v>11</v>
@@ -5640,7 +5697,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5721,7 +5778,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ24">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR24">
         <v>1.19</v>
@@ -5745,10 +5802,10 @@
         <v>8</v>
       </c>
       <c r="AY24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ24">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="BA24">
         <v>4</v>
@@ -5846,7 +5903,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="Q25">
         <v>1.06</v>
@@ -5924,7 +5981,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ25">
         <v>1.4</v>
@@ -5951,10 +6008,10 @@
         <v>4</v>
       </c>
       <c r="AY25">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ25">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="BA25">
         <v>4</v>
@@ -6052,7 +6109,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="Q26">
         <v>3.2</v>
@@ -6133,7 +6190,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR26">
         <v>1.06</v>
@@ -6157,10 +6214,10 @@
         <v>8</v>
       </c>
       <c r="AY26">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ26">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BA26">
         <v>5</v>
@@ -6258,7 +6315,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="Q27">
         <v>6.23</v>
@@ -6336,7 +6393,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ27">
         <v>3</v>
@@ -6363,10 +6420,10 @@
         <v>8</v>
       </c>
       <c r="AY27">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ27">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="BA27">
         <v>2</v>
@@ -6545,7 +6602,7 @@
         <v>3</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR28">
         <v>2.4</v>
@@ -6569,7 +6626,7 @@
         <v>4</v>
       </c>
       <c r="AY28">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AZ28">
         <v>4</v>
@@ -6748,7 +6805,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ29">
         <v>1</v>
@@ -6775,10 +6832,10 @@
         <v>2</v>
       </c>
       <c r="AY29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA29">
         <v>3</v>
@@ -6954,7 +7011,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ30">
         <v>0</v>
@@ -6981,10 +7038,10 @@
         <v>5</v>
       </c>
       <c r="AY30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ30">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="BA30">
         <v>2</v>
@@ -7187,10 +7244,10 @@
         <v>0</v>
       </c>
       <c r="AY31">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BA31">
         <v>13</v>
@@ -7366,10 +7423,10 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ32">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR32">
         <v>1.64</v>
@@ -7393,7 +7450,7 @@
         <v>6</v>
       </c>
       <c r="AY32">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AZ32">
         <v>9</v>
@@ -7575,7 +7632,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ33">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR33">
         <v>1.08</v>
@@ -7599,10 +7656,10 @@
         <v>5</v>
       </c>
       <c r="AY33">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ33">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA33">
         <v>6</v>
@@ -7700,7 +7757,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="Q34">
         <v>1.45</v>
@@ -7781,7 +7838,7 @@
         <v>3</v>
       </c>
       <c r="AQ34">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR34">
         <v>2.27</v>
@@ -7805,10 +7862,10 @@
         <v>5</v>
       </c>
       <c r="AY34">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AZ34">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA34">
         <v>8</v>
@@ -7906,7 +7963,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="Q35">
         <v>2.84</v>
@@ -7987,7 +8044,7 @@
         <v>1</v>
       </c>
       <c r="AQ35">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR35">
         <v>1.93</v>
@@ -8011,10 +8068,10 @@
         <v>3</v>
       </c>
       <c r="AY35">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AZ35">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA35">
         <v>8</v>
@@ -8112,7 +8169,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="Q36">
         <v>5.63</v>
@@ -8190,7 +8247,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ36">
         <v>3</v>
@@ -8217,10 +8274,10 @@
         <v>8</v>
       </c>
       <c r="AY36">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ36">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="BA36">
         <v>6</v>
@@ -8318,7 +8375,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="Q37">
         <v>2.58</v>
@@ -8396,10 +8453,10 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ37">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR37">
         <v>1.25</v>
@@ -8423,10 +8480,10 @@
         <v>6</v>
       </c>
       <c r="AY37">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ37">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA37">
         <v>10</v>
@@ -8602,10 +8659,10 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ38">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR38">
         <v>1.34</v>
@@ -8629,10 +8686,10 @@
         <v>6</v>
       </c>
       <c r="AY38">
+        <v>14</v>
+      </c>
+      <c r="AZ38">
         <v>10</v>
-      </c>
-      <c r="AZ38">
-        <v>8</v>
       </c>
       <c r="BA38">
         <v>3</v>
@@ -8730,7 +8787,7 @@
         <v>88</v>
       </c>
       <c r="P39" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="Q39">
         <v>4.75</v>
@@ -8808,10 +8865,10 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ39">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR39">
         <v>1.46</v>
@@ -8835,10 +8892,10 @@
         <v>7</v>
       </c>
       <c r="AY39">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ39">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="BA39">
         <v>8</v>
@@ -9014,7 +9071,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ40">
         <v>1</v>
@@ -9041,10 +9098,10 @@
         <v>5</v>
       </c>
       <c r="AY40">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ40">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA40">
         <v>4</v>
@@ -9142,7 +9199,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9220,7 +9277,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ41">
         <v>1.4</v>
@@ -9247,10 +9304,10 @@
         <v>4</v>
       </c>
       <c r="AY41">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AZ41">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA41">
         <v>6</v>
@@ -9348,7 +9405,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="Q42">
         <v>2.61</v>
@@ -9429,7 +9486,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ42">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR42">
         <v>1.41</v>
@@ -9453,10 +9510,10 @@
         <v>4</v>
       </c>
       <c r="AY42">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ42">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA42">
         <v>7</v>
@@ -9554,7 +9611,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="Q43">
         <v>1.69</v>
@@ -9632,7 +9689,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ43">
         <v>1</v>
@@ -9659,10 +9716,10 @@
         <v>2</v>
       </c>
       <c r="AY43">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ43">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA43">
         <v>9</v>
@@ -9838,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ44">
         <v>0</v>
@@ -9865,10 +9922,10 @@
         <v>4</v>
       </c>
       <c r="AY44">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ44">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA44">
         <v>5</v>
@@ -10047,7 +10104,7 @@
         <v>3</v>
       </c>
       <c r="AQ45">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR45">
         <v>1.87</v>
@@ -10071,10 +10128,10 @@
         <v>6</v>
       </c>
       <c r="AY45">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ45">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BA45">
         <v>9</v>
@@ -10250,7 +10307,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ46">
         <v>0</v>
@@ -10277,10 +10334,10 @@
         <v>4</v>
       </c>
       <c r="AY46">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ46">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA46">
         <v>3</v>
@@ -10483,10 +10540,10 @@
         <v>2</v>
       </c>
       <c r="AY47">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AZ47">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA47">
         <v>12</v>
@@ -10662,10 +10719,10 @@
         <v>1.33</v>
       </c>
       <c r="AP48">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ48">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR48">
         <v>1.34</v>
@@ -10689,10 +10746,10 @@
         <v>12</v>
       </c>
       <c r="AY48">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ48">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="BA48">
         <v>6</v>
@@ -10868,7 +10925,7 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ49">
         <v>1.4</v>
@@ -10895,10 +10952,10 @@
         <v>6</v>
       </c>
       <c r="AY49">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AZ49">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA49">
         <v>4</v>
@@ -10996,7 +11053,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="Q50">
         <v>5.1</v>
@@ -11101,10 +11158,10 @@
         <v>3</v>
       </c>
       <c r="AY50">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AZ50">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA50">
         <v>7</v>
@@ -11202,7 +11259,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -11280,7 +11337,7 @@
         <v>0.33</v>
       </c>
       <c r="AP51">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ51">
         <v>1</v>
@@ -11307,10 +11364,10 @@
         <v>5</v>
       </c>
       <c r="AY51">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ51">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA51">
         <v>6</v>
@@ -11489,7 +11546,7 @@
         <v>1</v>
       </c>
       <c r="AQ52">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR52">
         <v>1.76</v>
@@ -11513,10 +11570,10 @@
         <v>2</v>
       </c>
       <c r="AY52">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AZ52">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA52">
         <v>8</v>
@@ -11695,7 +11752,7 @@
         <v>3</v>
       </c>
       <c r="AQ53">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR53">
         <v>2.35</v>
@@ -11719,10 +11776,10 @@
         <v>4</v>
       </c>
       <c r="AY53">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AZ53">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA53">
         <v>6</v>
@@ -11820,7 +11877,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11901,7 +11958,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ54">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR54">
         <v>1.4</v>
@@ -11925,10 +11982,10 @@
         <v>4</v>
       </c>
       <c r="AY54">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AZ54">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA54">
         <v>7</v>
@@ -12026,7 +12083,7 @@
         <v>93</v>
       </c>
       <c r="P55" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="Q55">
         <v>3.85</v>
@@ -12104,10 +12161,10 @@
         <v>2.33</v>
       </c>
       <c r="AP55">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ55">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR55">
         <v>1.32</v>
@@ -12131,10 +12188,10 @@
         <v>2</v>
       </c>
       <c r="AY55">
+        <v>20</v>
+      </c>
+      <c r="AZ55">
         <v>12</v>
-      </c>
-      <c r="AZ55">
-        <v>9</v>
       </c>
       <c r="BA55">
         <v>8</v>
@@ -12232,7 +12289,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="Q56">
         <v>1.85</v>
@@ -12310,10 +12367,10 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ56">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR56">
         <v>1.85</v>
@@ -12337,10 +12394,10 @@
         <v>5</v>
       </c>
       <c r="AY56">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ56">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA56">
         <v>6</v>
@@ -12438,7 +12495,7 @@
         <v>88</v>
       </c>
       <c r="P57" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="Q57">
         <v>5.88</v>
@@ -12516,10 +12573,10 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ57">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR57">
         <v>1.7</v>
@@ -12543,10 +12600,10 @@
         <v>7</v>
       </c>
       <c r="AY57">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ57">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA57">
         <v>4</v>
@@ -12749,10 +12806,10 @@
         <v>4</v>
       </c>
       <c r="AY58">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ58">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BA58">
         <v>8</v>
@@ -12955,10 +13012,10 @@
         <v>6</v>
       </c>
       <c r="AY59">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ59">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BA59">
         <v>4</v>
@@ -13056,7 +13113,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="Q60">
         <v>3.86</v>
@@ -13164,7 +13221,7 @@
         <v>12</v>
       </c>
       <c r="AZ60">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA60">
         <v>4</v>
@@ -13213,6 +13270,2684 @@
       </c>
       <c r="BP60">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7468146</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45556.58333333334</v>
+      </c>
+      <c r="F61">
+        <v>9</v>
+      </c>
+      <c r="G61" t="s">
+        <v>80</v>
+      </c>
+      <c r="H61" t="s">
+        <v>84</v>
+      </c>
+      <c r="I61">
+        <v>3</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>3</v>
+      </c>
+      <c r="L61">
+        <v>3</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>3</v>
+      </c>
+      <c r="O61" t="s">
+        <v>129</v>
+      </c>
+      <c r="P61" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q61">
+        <v>1.91</v>
+      </c>
+      <c r="R61">
+        <v>2.3</v>
+      </c>
+      <c r="S61">
+        <v>5.5</v>
+      </c>
+      <c r="T61">
+        <v>1.31</v>
+      </c>
+      <c r="U61">
+        <v>3.2</v>
+      </c>
+      <c r="V61">
+        <v>2.45</v>
+      </c>
+      <c r="W61">
+        <v>1.49</v>
+      </c>
+      <c r="X61">
+        <v>5.45</v>
+      </c>
+      <c r="Y61">
+        <v>1.12</v>
+      </c>
+      <c r="Z61">
+        <v>1.45</v>
+      </c>
+      <c r="AA61">
+        <v>4.4</v>
+      </c>
+      <c r="AB61">
+        <v>5.95</v>
+      </c>
+      <c r="AC61">
+        <v>1.01</v>
+      </c>
+      <c r="AD61">
+        <v>11</v>
+      </c>
+      <c r="AE61">
+        <v>1.17</v>
+      </c>
+      <c r="AF61">
+        <v>4.5</v>
+      </c>
+      <c r="AG61">
+        <v>1.82</v>
+      </c>
+      <c r="AH61">
+        <v>1.88</v>
+      </c>
+      <c r="AI61">
+        <v>1.75</v>
+      </c>
+      <c r="AJ61">
+        <v>2.05</v>
+      </c>
+      <c r="AK61">
+        <v>1.08</v>
+      </c>
+      <c r="AL61">
+        <v>1.16</v>
+      </c>
+      <c r="AM61">
+        <v>2.55</v>
+      </c>
+      <c r="AN61">
+        <v>3</v>
+      </c>
+      <c r="AO61">
+        <v>2</v>
+      </c>
+      <c r="AP61">
+        <v>3</v>
+      </c>
+      <c r="AQ61">
+        <v>1.6</v>
+      </c>
+      <c r="AR61">
+        <v>2.33</v>
+      </c>
+      <c r="AS61">
+        <v>1.35</v>
+      </c>
+      <c r="AT61">
+        <v>3.68</v>
+      </c>
+      <c r="AU61">
+        <v>12</v>
+      </c>
+      <c r="AV61">
+        <v>4</v>
+      </c>
+      <c r="AW61">
+        <v>7</v>
+      </c>
+      <c r="AX61">
+        <v>3</v>
+      </c>
+      <c r="AY61">
+        <v>20</v>
+      </c>
+      <c r="AZ61">
+        <v>11</v>
+      </c>
+      <c r="BA61">
+        <v>14</v>
+      </c>
+      <c r="BB61">
+        <v>4</v>
+      </c>
+      <c r="BC61">
+        <v>18</v>
+      </c>
+      <c r="BD61">
+        <v>1.19</v>
+      </c>
+      <c r="BE61">
+        <v>11</v>
+      </c>
+      <c r="BF61">
+        <v>5.67</v>
+      </c>
+      <c r="BG61">
+        <v>0</v>
+      </c>
+      <c r="BH61">
+        <v>0</v>
+      </c>
+      <c r="BI61">
+        <v>1.23</v>
+      </c>
+      <c r="BJ61">
+        <v>3.28</v>
+      </c>
+      <c r="BK61">
+        <v>1.48</v>
+      </c>
+      <c r="BL61">
+        <v>2.54</v>
+      </c>
+      <c r="BM61">
+        <v>1.95</v>
+      </c>
+      <c r="BN61">
+        <v>1.85</v>
+      </c>
+      <c r="BO61">
+        <v>2.27</v>
+      </c>
+      <c r="BP61">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7468148</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45557.33333333334</v>
+      </c>
+      <c r="F62">
+        <v>9</v>
+      </c>
+      <c r="G62" t="s">
+        <v>82</v>
+      </c>
+      <c r="H62" t="s">
+        <v>78</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>2</v>
+      </c>
+      <c r="L62">
+        <v>2</v>
+      </c>
+      <c r="M62">
+        <v>2</v>
+      </c>
+      <c r="N62">
+        <v>4</v>
+      </c>
+      <c r="O62" t="s">
+        <v>130</v>
+      </c>
+      <c r="P62" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q62">
+        <v>1.83</v>
+      </c>
+      <c r="R62">
+        <v>2.4</v>
+      </c>
+      <c r="S62">
+        <v>6</v>
+      </c>
+      <c r="T62">
+        <v>1.29</v>
+      </c>
+      <c r="U62">
+        <v>3.35</v>
+      </c>
+      <c r="V62">
+        <v>2.34</v>
+      </c>
+      <c r="W62">
+        <v>1.54</v>
+      </c>
+      <c r="X62">
+        <v>5.45</v>
+      </c>
+      <c r="Y62">
+        <v>1.12</v>
+      </c>
+      <c r="Z62">
+        <v>1.5</v>
+      </c>
+      <c r="AA62">
+        <v>4.4</v>
+      </c>
+      <c r="AB62">
+        <v>5.75</v>
+      </c>
+      <c r="AC62">
+        <v>1.01</v>
+      </c>
+      <c r="AD62">
+        <v>13</v>
+      </c>
+      <c r="AE62">
+        <v>1.14</v>
+      </c>
+      <c r="AF62">
+        <v>4.8</v>
+      </c>
+      <c r="AG62">
+        <v>1.63</v>
+      </c>
+      <c r="AH62">
+        <v>2.29</v>
+      </c>
+      <c r="AI62">
+        <v>1.75</v>
+      </c>
+      <c r="AJ62">
+        <v>2.05</v>
+      </c>
+      <c r="AK62">
+        <v>1.06</v>
+      </c>
+      <c r="AL62">
+        <v>1.15</v>
+      </c>
+      <c r="AM62">
+        <v>2.85</v>
+      </c>
+      <c r="AN62">
+        <v>2</v>
+      </c>
+      <c r="AO62">
+        <v>0.75</v>
+      </c>
+      <c r="AP62">
+        <v>1.75</v>
+      </c>
+      <c r="AQ62">
+        <v>0.8</v>
+      </c>
+      <c r="AR62">
+        <v>1.42</v>
+      </c>
+      <c r="AS62">
+        <v>1.06</v>
+      </c>
+      <c r="AT62">
+        <v>2.48</v>
+      </c>
+      <c r="AU62">
+        <v>7</v>
+      </c>
+      <c r="AV62">
+        <v>4</v>
+      </c>
+      <c r="AW62">
+        <v>3</v>
+      </c>
+      <c r="AX62">
+        <v>1</v>
+      </c>
+      <c r="AY62">
+        <v>12</v>
+      </c>
+      <c r="AZ62">
+        <v>8</v>
+      </c>
+      <c r="BA62">
+        <v>6</v>
+      </c>
+      <c r="BB62">
+        <v>5</v>
+      </c>
+      <c r="BC62">
+        <v>11</v>
+      </c>
+      <c r="BD62">
+        <v>1.3</v>
+      </c>
+      <c r="BE62">
+        <v>10</v>
+      </c>
+      <c r="BF62">
+        <v>4.42</v>
+      </c>
+      <c r="BG62">
+        <v>0</v>
+      </c>
+      <c r="BH62">
+        <v>0</v>
+      </c>
+      <c r="BI62">
+        <v>1.23</v>
+      </c>
+      <c r="BJ62">
+        <v>3.8</v>
+      </c>
+      <c r="BK62">
+        <v>1.35</v>
+      </c>
+      <c r="BL62">
+        <v>2.65</v>
+      </c>
+      <c r="BM62">
+        <v>1.82</v>
+      </c>
+      <c r="BN62">
+        <v>1.98</v>
+      </c>
+      <c r="BO62">
+        <v>2.09</v>
+      </c>
+      <c r="BP62">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7468150</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45557.4375</v>
+      </c>
+      <c r="F63">
+        <v>9</v>
+      </c>
+      <c r="G63" t="s">
+        <v>72</v>
+      </c>
+      <c r="H63" t="s">
+        <v>70</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>2</v>
+      </c>
+      <c r="N63">
+        <v>2</v>
+      </c>
+      <c r="O63" t="s">
+        <v>88</v>
+      </c>
+      <c r="P63" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q63">
+        <v>8.77</v>
+      </c>
+      <c r="R63">
+        <v>3.02</v>
+      </c>
+      <c r="S63">
+        <v>1.59</v>
+      </c>
+      <c r="T63">
+        <v>1.22</v>
+      </c>
+      <c r="U63">
+        <v>3.8</v>
+      </c>
+      <c r="V63">
+        <v>2.12</v>
+      </c>
+      <c r="W63">
+        <v>1.7</v>
+      </c>
+      <c r="X63">
+        <v>4.33</v>
+      </c>
+      <c r="Y63">
+        <v>1.18</v>
+      </c>
+      <c r="Z63">
+        <v>11</v>
+      </c>
+      <c r="AA63">
+        <v>6.25</v>
+      </c>
+      <c r="AB63">
+        <v>1.24</v>
+      </c>
+      <c r="AC63">
+        <v>1.02</v>
+      </c>
+      <c r="AD63">
+        <v>25</v>
+      </c>
+      <c r="AE63">
+        <v>1.11</v>
+      </c>
+      <c r="AF63">
+        <v>5.5</v>
+      </c>
+      <c r="AG63">
+        <v>1.39</v>
+      </c>
+      <c r="AH63">
+        <v>2.77</v>
+      </c>
+      <c r="AI63">
+        <v>1.91</v>
+      </c>
+      <c r="AJ63">
+        <v>1.8</v>
+      </c>
+      <c r="AK63">
+        <v>4.2</v>
+      </c>
+      <c r="AL63">
+        <v>1.11</v>
+      </c>
+      <c r="AM63">
+        <v>1.04</v>
+      </c>
+      <c r="AN63">
+        <v>0.25</v>
+      </c>
+      <c r="AO63">
+        <v>3</v>
+      </c>
+      <c r="AP63">
+        <v>0.2</v>
+      </c>
+      <c r="AQ63">
+        <v>3</v>
+      </c>
+      <c r="AR63">
+        <v>1.37</v>
+      </c>
+      <c r="AS63">
+        <v>1.88</v>
+      </c>
+      <c r="AT63">
+        <v>3.25</v>
+      </c>
+      <c r="AU63">
+        <v>4</v>
+      </c>
+      <c r="AV63">
+        <v>8</v>
+      </c>
+      <c r="AW63">
+        <v>4</v>
+      </c>
+      <c r="AX63">
+        <v>9</v>
+      </c>
+      <c r="AY63">
+        <v>11</v>
+      </c>
+      <c r="AZ63">
+        <v>21</v>
+      </c>
+      <c r="BA63">
+        <v>4</v>
+      </c>
+      <c r="BB63">
+        <v>8</v>
+      </c>
+      <c r="BC63">
+        <v>12</v>
+      </c>
+      <c r="BD63">
+        <v>5.6</v>
+      </c>
+      <c r="BE63">
+        <v>11</v>
+      </c>
+      <c r="BF63">
+        <v>1.21</v>
+      </c>
+      <c r="BG63">
+        <v>1.11</v>
+      </c>
+      <c r="BH63">
+        <v>5.9</v>
+      </c>
+      <c r="BI63">
+        <v>1.2</v>
+      </c>
+      <c r="BJ63">
+        <v>3.55</v>
+      </c>
+      <c r="BK63">
+        <v>1.4</v>
+      </c>
+      <c r="BL63">
+        <v>2.56</v>
+      </c>
+      <c r="BM63">
+        <v>1.92</v>
+      </c>
+      <c r="BN63">
+        <v>1.88</v>
+      </c>
+      <c r="BO63">
+        <v>2.1</v>
+      </c>
+      <c r="BP63">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7468145</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45557.4375</v>
+      </c>
+      <c r="F64">
+        <v>9</v>
+      </c>
+      <c r="G64" t="s">
+        <v>85</v>
+      </c>
+      <c r="H64" t="s">
+        <v>74</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>2</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>3</v>
+      </c>
+      <c r="O64" t="s">
+        <v>131</v>
+      </c>
+      <c r="P64" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q64">
+        <v>2.1</v>
+      </c>
+      <c r="R64">
+        <v>2.25</v>
+      </c>
+      <c r="S64">
+        <v>5.5</v>
+      </c>
+      <c r="T64">
+        <v>1.34</v>
+      </c>
+      <c r="U64">
+        <v>3.2</v>
+      </c>
+      <c r="V64">
+        <v>2.72</v>
+      </c>
+      <c r="W64">
+        <v>1.45</v>
+      </c>
+      <c r="X64">
+        <v>6.45</v>
+      </c>
+      <c r="Y64">
+        <v>1.09</v>
+      </c>
+      <c r="Z64">
+        <v>1.58</v>
+      </c>
+      <c r="AA64">
+        <v>4</v>
+      </c>
+      <c r="AB64">
+        <v>5.25</v>
+      </c>
+      <c r="AC64">
+        <v>1.01</v>
+      </c>
+      <c r="AD64">
+        <v>11</v>
+      </c>
+      <c r="AE64">
+        <v>1.22</v>
+      </c>
+      <c r="AF64">
+        <v>3.8</v>
+      </c>
+      <c r="AG64">
+        <v>1.81</v>
+      </c>
+      <c r="AH64">
+        <v>2</v>
+      </c>
+      <c r="AI64">
+        <v>1.87</v>
+      </c>
+      <c r="AJ64">
+        <v>1.9</v>
+      </c>
+      <c r="AK64">
+        <v>1.12</v>
+      </c>
+      <c r="AL64">
+        <v>1.22</v>
+      </c>
+      <c r="AM64">
+        <v>2.3</v>
+      </c>
+      <c r="AN64">
+        <v>2.33</v>
+      </c>
+      <c r="AO64">
+        <v>0.33</v>
+      </c>
+      <c r="AP64">
+        <v>2.5</v>
+      </c>
+      <c r="AQ64">
+        <v>0.25</v>
+      </c>
+      <c r="AR64">
+        <v>1.75</v>
+      </c>
+      <c r="AS64">
+        <v>0.87</v>
+      </c>
+      <c r="AT64">
+        <v>2.62</v>
+      </c>
+      <c r="AU64">
+        <v>6</v>
+      </c>
+      <c r="AV64">
+        <v>4</v>
+      </c>
+      <c r="AW64">
+        <v>2</v>
+      </c>
+      <c r="AX64">
+        <v>0</v>
+      </c>
+      <c r="AY64">
+        <v>13</v>
+      </c>
+      <c r="AZ64">
+        <v>6</v>
+      </c>
+      <c r="BA64">
+        <v>6</v>
+      </c>
+      <c r="BB64">
+        <v>8</v>
+      </c>
+      <c r="BC64">
+        <v>14</v>
+      </c>
+      <c r="BD64">
+        <v>1.55</v>
+      </c>
+      <c r="BE64">
+        <v>8.5</v>
+      </c>
+      <c r="BF64">
+        <v>2.91</v>
+      </c>
+      <c r="BG64">
+        <v>1.17</v>
+      </c>
+      <c r="BH64">
+        <v>4.7</v>
+      </c>
+      <c r="BI64">
+        <v>1.26</v>
+      </c>
+      <c r="BJ64">
+        <v>3.08</v>
+      </c>
+      <c r="BK64">
+        <v>1.5</v>
+      </c>
+      <c r="BL64">
+        <v>2.28</v>
+      </c>
+      <c r="BM64">
+        <v>1.95</v>
+      </c>
+      <c r="BN64">
+        <v>1.85</v>
+      </c>
+      <c r="BO64">
+        <v>2.38</v>
+      </c>
+      <c r="BP64">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7468144</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45557.5625</v>
+      </c>
+      <c r="F65">
+        <v>9</v>
+      </c>
+      <c r="G65" t="s">
+        <v>81</v>
+      </c>
+      <c r="H65" t="s">
+        <v>73</v>
+      </c>
+      <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>3</v>
+      </c>
+      <c r="L65">
+        <v>2</v>
+      </c>
+      <c r="M65">
+        <v>2</v>
+      </c>
+      <c r="N65">
+        <v>4</v>
+      </c>
+      <c r="O65" t="s">
+        <v>132</v>
+      </c>
+      <c r="P65" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q65">
+        <v>2.4</v>
+      </c>
+      <c r="R65">
+        <v>2.2</v>
+      </c>
+      <c r="S65">
+        <v>4.75</v>
+      </c>
+      <c r="T65">
+        <v>1.36</v>
+      </c>
+      <c r="U65">
+        <v>3</v>
+      </c>
+      <c r="V65">
+        <v>2.75</v>
+      </c>
+      <c r="W65">
+        <v>1.4</v>
+      </c>
+      <c r="X65">
+        <v>7</v>
+      </c>
+      <c r="Y65">
+        <v>1.1</v>
+      </c>
+      <c r="Z65">
+        <v>1.75</v>
+      </c>
+      <c r="AA65">
+        <v>3.7</v>
+      </c>
+      <c r="AB65">
+        <v>4.1</v>
+      </c>
+      <c r="AC65">
+        <v>1.01</v>
+      </c>
+      <c r="AD65">
+        <v>14.5</v>
+      </c>
+      <c r="AE65">
+        <v>1.2</v>
+      </c>
+      <c r="AF65">
+        <v>4.23</v>
+      </c>
+      <c r="AG65">
+        <v>1.68</v>
+      </c>
+      <c r="AH65">
+        <v>2.1</v>
+      </c>
+      <c r="AI65">
+        <v>1.8</v>
+      </c>
+      <c r="AJ65">
+        <v>1.95</v>
+      </c>
+      <c r="AK65">
+        <v>1.21</v>
+      </c>
+      <c r="AL65">
+        <v>1.27</v>
+      </c>
+      <c r="AM65">
+        <v>2.02</v>
+      </c>
+      <c r="AN65">
+        <v>1.25</v>
+      </c>
+      <c r="AO65">
+        <v>1.25</v>
+      </c>
+      <c r="AP65">
+        <v>1.2</v>
+      </c>
+      <c r="AQ65">
+        <v>1.2</v>
+      </c>
+      <c r="AR65">
+        <v>1.42</v>
+      </c>
+      <c r="AS65">
+        <v>1.5</v>
+      </c>
+      <c r="AT65">
+        <v>2.92</v>
+      </c>
+      <c r="AU65">
+        <v>7</v>
+      </c>
+      <c r="AV65">
+        <v>5</v>
+      </c>
+      <c r="AW65">
+        <v>6</v>
+      </c>
+      <c r="AX65">
+        <v>4</v>
+      </c>
+      <c r="AY65">
+        <v>14</v>
+      </c>
+      <c r="AZ65">
+        <v>13</v>
+      </c>
+      <c r="BA65">
+        <v>4</v>
+      </c>
+      <c r="BB65">
+        <v>5</v>
+      </c>
+      <c r="BC65">
+        <v>9</v>
+      </c>
+      <c r="BD65">
+        <v>1.5</v>
+      </c>
+      <c r="BE65">
+        <v>9.5</v>
+      </c>
+      <c r="BF65">
+        <v>2.88</v>
+      </c>
+      <c r="BG65">
+        <v>1.12</v>
+      </c>
+      <c r="BH65">
+        <v>5.6</v>
+      </c>
+      <c r="BI65">
+        <v>1.19</v>
+      </c>
+      <c r="BJ65">
+        <v>3.6</v>
+      </c>
+      <c r="BK65">
+        <v>1.39</v>
+      </c>
+      <c r="BL65">
+        <v>2.59</v>
+      </c>
+      <c r="BM65">
+        <v>1.77</v>
+      </c>
+      <c r="BN65">
+        <v>1.95</v>
+      </c>
+      <c r="BO65">
+        <v>2.08</v>
+      </c>
+      <c r="BP65">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7468157</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45562.60416666666</v>
+      </c>
+      <c r="F66">
+        <v>10</v>
+      </c>
+      <c r="G66" t="s">
+        <v>70</v>
+      </c>
+      <c r="H66" t="s">
+        <v>85</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>2</v>
+      </c>
+      <c r="M66">
+        <v>3</v>
+      </c>
+      <c r="N66">
+        <v>5</v>
+      </c>
+      <c r="O66" t="s">
+        <v>133</v>
+      </c>
+      <c r="P66" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q66">
+        <v>1.55</v>
+      </c>
+      <c r="R66">
+        <v>2.88</v>
+      </c>
+      <c r="S66">
+        <v>8.9</v>
+      </c>
+      <c r="T66">
+        <v>1.22</v>
+      </c>
+      <c r="U66">
+        <v>3.8</v>
+      </c>
+      <c r="V66">
+        <v>2.11</v>
+      </c>
+      <c r="W66">
+        <v>1.68</v>
+      </c>
+      <c r="X66">
+        <v>4.55</v>
+      </c>
+      <c r="Y66">
+        <v>1.18</v>
+      </c>
+      <c r="Z66">
+        <v>1.22</v>
+      </c>
+      <c r="AA66">
+        <v>6.35</v>
+      </c>
+      <c r="AB66">
+        <v>11.5</v>
+      </c>
+      <c r="AC66">
+        <v>1.02</v>
+      </c>
+      <c r="AD66">
+        <v>26</v>
+      </c>
+      <c r="AE66">
+        <v>1.08</v>
+      </c>
+      <c r="AF66">
+        <v>5.1</v>
+      </c>
+      <c r="AG66">
+        <v>1.41</v>
+      </c>
+      <c r="AH66">
+        <v>2.69</v>
+      </c>
+      <c r="AI66">
+        <v>1.98</v>
+      </c>
+      <c r="AJ66">
+        <v>1.74</v>
+      </c>
+      <c r="AK66">
+        <v>1.01</v>
+      </c>
+      <c r="AL66">
+        <v>1.09</v>
+      </c>
+      <c r="AM66">
+        <v>4.4</v>
+      </c>
+      <c r="AN66">
+        <v>2.33</v>
+      </c>
+      <c r="AO66">
+        <v>1</v>
+      </c>
+      <c r="AP66">
+        <v>1.75</v>
+      </c>
+      <c r="AQ66">
+        <v>1.4</v>
+      </c>
+      <c r="AR66">
+        <v>2.05</v>
+      </c>
+      <c r="AS66">
+        <v>1.28</v>
+      </c>
+      <c r="AT66">
+        <v>3.33</v>
+      </c>
+      <c r="AU66">
+        <v>6</v>
+      </c>
+      <c r="AV66">
+        <v>5</v>
+      </c>
+      <c r="AW66">
+        <v>8</v>
+      </c>
+      <c r="AX66">
+        <v>1</v>
+      </c>
+      <c r="AY66">
+        <v>17</v>
+      </c>
+      <c r="AZ66">
+        <v>7</v>
+      </c>
+      <c r="BA66">
+        <v>10</v>
+      </c>
+      <c r="BB66">
+        <v>1</v>
+      </c>
+      <c r="BC66">
+        <v>11</v>
+      </c>
+      <c r="BD66">
+        <v>1.12</v>
+      </c>
+      <c r="BE66">
+        <v>13</v>
+      </c>
+      <c r="BF66">
+        <v>7.55</v>
+      </c>
+      <c r="BG66">
+        <v>1.12</v>
+      </c>
+      <c r="BH66">
+        <v>5.4</v>
+      </c>
+      <c r="BI66">
+        <v>1.24</v>
+      </c>
+      <c r="BJ66">
+        <v>3.6</v>
+      </c>
+      <c r="BK66">
+        <v>1.45</v>
+      </c>
+      <c r="BL66">
+        <v>2.34</v>
+      </c>
+      <c r="BM66">
+        <v>1.9</v>
+      </c>
+      <c r="BN66">
+        <v>1.9</v>
+      </c>
+      <c r="BO66">
+        <v>2.34</v>
+      </c>
+      <c r="BP66">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7468155</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45563.35416666666</v>
+      </c>
+      <c r="F67">
+        <v>10</v>
+      </c>
+      <c r="G67" t="s">
+        <v>74</v>
+      </c>
+      <c r="H67" t="s">
+        <v>81</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>4</v>
+      </c>
+      <c r="N67">
+        <v>5</v>
+      </c>
+      <c r="O67" t="s">
+        <v>134</v>
+      </c>
+      <c r="P67" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q67">
+        <v>4</v>
+      </c>
+      <c r="R67">
+        <v>2.25</v>
+      </c>
+      <c r="S67">
+        <v>2.4</v>
+      </c>
+      <c r="T67">
+        <v>1.32</v>
+      </c>
+      <c r="U67">
+        <v>3.15</v>
+      </c>
+      <c r="V67">
+        <v>2.45</v>
+      </c>
+      <c r="W67">
+        <v>1.48</v>
+      </c>
+      <c r="X67">
+        <v>5.5</v>
+      </c>
+      <c r="Y67">
+        <v>1.12</v>
+      </c>
+      <c r="Z67">
+        <v>3.92</v>
+      </c>
+      <c r="AA67">
+        <v>3.82</v>
+      </c>
+      <c r="AB67">
+        <v>1.81</v>
+      </c>
+      <c r="AC67">
+        <v>1.04</v>
+      </c>
+      <c r="AD67">
+        <v>14.75</v>
+      </c>
+      <c r="AE67">
+        <v>1.22</v>
+      </c>
+      <c r="AF67">
+        <v>4.3</v>
+      </c>
+      <c r="AG67">
+        <v>1.81</v>
+      </c>
+      <c r="AH67">
+        <v>1.89</v>
+      </c>
+      <c r="AI67">
+        <v>1.62</v>
+      </c>
+      <c r="AJ67">
+        <v>2.15</v>
+      </c>
+      <c r="AK67">
+        <v>1.85</v>
+      </c>
+      <c r="AL67">
+        <v>1.28</v>
+      </c>
+      <c r="AM67">
+        <v>1.27</v>
+      </c>
+      <c r="AN67">
+        <v>1.5</v>
+      </c>
+      <c r="AO67">
+        <v>1</v>
+      </c>
+      <c r="AP67">
+        <v>1.2</v>
+      </c>
+      <c r="AQ67">
+        <v>1.5</v>
+      </c>
+      <c r="AR67">
+        <v>1.08</v>
+      </c>
+      <c r="AS67">
+        <v>1.55</v>
+      </c>
+      <c r="AT67">
+        <v>2.63</v>
+      </c>
+      <c r="AU67">
+        <v>4</v>
+      </c>
+      <c r="AV67">
+        <v>11</v>
+      </c>
+      <c r="AW67">
+        <v>7</v>
+      </c>
+      <c r="AX67">
+        <v>8</v>
+      </c>
+      <c r="AY67">
+        <v>19</v>
+      </c>
+      <c r="AZ67">
+        <v>24</v>
+      </c>
+      <c r="BA67">
+        <v>5</v>
+      </c>
+      <c r="BB67">
+        <v>10</v>
+      </c>
+      <c r="BC67">
+        <v>15</v>
+      </c>
+      <c r="BD67">
+        <v>2.41</v>
+      </c>
+      <c r="BE67">
+        <v>8.5</v>
+      </c>
+      <c r="BF67">
+        <v>1.75</v>
+      </c>
+      <c r="BG67">
+        <v>1.18</v>
+      </c>
+      <c r="BH67">
+        <v>4.6</v>
+      </c>
+      <c r="BI67">
+        <v>1.28</v>
+      </c>
+      <c r="BJ67">
+        <v>2.97</v>
+      </c>
+      <c r="BK67">
+        <v>1.52</v>
+      </c>
+      <c r="BL67">
+        <v>2.24</v>
+      </c>
+      <c r="BM67">
+        <v>1.98</v>
+      </c>
+      <c r="BN67">
+        <v>1.82</v>
+      </c>
+      <c r="BO67">
+        <v>2.43</v>
+      </c>
+      <c r="BP67">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7468152</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45563.45833333334</v>
+      </c>
+      <c r="F68">
+        <v>10</v>
+      </c>
+      <c r="G68" t="s">
+        <v>78</v>
+      </c>
+      <c r="H68" t="s">
+        <v>79</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68" t="s">
+        <v>88</v>
+      </c>
+      <c r="P68" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q68">
+        <v>3.1</v>
+      </c>
+      <c r="R68">
+        <v>2.1</v>
+      </c>
+      <c r="S68">
+        <v>3.3</v>
+      </c>
+      <c r="T68">
+        <v>1.37</v>
+      </c>
+      <c r="U68">
+        <v>3.05</v>
+      </c>
+      <c r="V68">
+        <v>2.86</v>
+      </c>
+      <c r="W68">
+        <v>1.41</v>
+      </c>
+      <c r="X68">
+        <v>7.1</v>
+      </c>
+      <c r="Y68">
+        <v>1.08</v>
+      </c>
+      <c r="Z68">
+        <v>2.54</v>
+      </c>
+      <c r="AA68">
+        <v>3.42</v>
+      </c>
+      <c r="AB68">
+        <v>2.61</v>
+      </c>
+      <c r="AC68">
+        <v>1.03</v>
+      </c>
+      <c r="AD68">
+        <v>9</v>
+      </c>
+      <c r="AE68">
+        <v>1.25</v>
+      </c>
+      <c r="AF68">
+        <v>3.6</v>
+      </c>
+      <c r="AG68">
+        <v>1.88</v>
+      </c>
+      <c r="AH68">
+        <v>1.82</v>
+      </c>
+      <c r="AI68">
+        <v>1.73</v>
+      </c>
+      <c r="AJ68">
+        <v>2.1</v>
+      </c>
+      <c r="AK68">
+        <v>1.47</v>
+      </c>
+      <c r="AL68">
+        <v>1.3</v>
+      </c>
+      <c r="AM68">
+        <v>1.48</v>
+      </c>
+      <c r="AN68">
+        <v>1</v>
+      </c>
+      <c r="AO68">
+        <v>0</v>
+      </c>
+      <c r="AP68">
+        <v>0.75</v>
+      </c>
+      <c r="AQ68">
+        <v>0.75</v>
+      </c>
+      <c r="AR68">
+        <v>1.23</v>
+      </c>
+      <c r="AS68">
+        <v>1.24</v>
+      </c>
+      <c r="AT68">
+        <v>2.47</v>
+      </c>
+      <c r="AU68">
+        <v>3</v>
+      </c>
+      <c r="AV68">
+        <v>5</v>
+      </c>
+      <c r="AW68">
+        <v>3</v>
+      </c>
+      <c r="AX68">
+        <v>6</v>
+      </c>
+      <c r="AY68">
+        <v>6</v>
+      </c>
+      <c r="AZ68">
+        <v>21</v>
+      </c>
+      <c r="BA68">
+        <v>0</v>
+      </c>
+      <c r="BB68">
+        <v>12</v>
+      </c>
+      <c r="BC68">
+        <v>12</v>
+      </c>
+      <c r="BD68">
+        <v>2.1</v>
+      </c>
+      <c r="BE68">
+        <v>8.5</v>
+      </c>
+      <c r="BF68">
+        <v>1.91</v>
+      </c>
+      <c r="BG68">
+        <v>1.16</v>
+      </c>
+      <c r="BH68">
+        <v>4.9</v>
+      </c>
+      <c r="BI68">
+        <v>1.25</v>
+      </c>
+      <c r="BJ68">
+        <v>3.14</v>
+      </c>
+      <c r="BK68">
+        <v>1.56</v>
+      </c>
+      <c r="BL68">
+        <v>2.35</v>
+      </c>
+      <c r="BM68">
+        <v>1.9</v>
+      </c>
+      <c r="BN68">
+        <v>1.9</v>
+      </c>
+      <c r="BO68">
+        <v>2.4</v>
+      </c>
+      <c r="BP68">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7468159</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45563.45833333334</v>
+      </c>
+      <c r="F69">
+        <v>10</v>
+      </c>
+      <c r="G69" t="s">
+        <v>76</v>
+      </c>
+      <c r="H69" t="s">
+        <v>75</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>2</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>3</v>
+      </c>
+      <c r="O69" t="s">
+        <v>135</v>
+      </c>
+      <c r="P69" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q69">
+        <v>2.35</v>
+      </c>
+      <c r="R69">
+        <v>2.1</v>
+      </c>
+      <c r="S69">
+        <v>4.7</v>
+      </c>
+      <c r="T69">
+        <v>1.42</v>
+      </c>
+      <c r="U69">
+        <v>2.65</v>
+      </c>
+      <c r="V69">
+        <v>2.95</v>
+      </c>
+      <c r="W69">
+        <v>1.35</v>
+      </c>
+      <c r="X69">
+        <v>7.4</v>
+      </c>
+      <c r="Y69">
+        <v>1.06</v>
+      </c>
+      <c r="Z69">
+        <v>1.79</v>
+      </c>
+      <c r="AA69">
+        <v>3.55</v>
+      </c>
+      <c r="AB69">
+        <v>4.35</v>
+      </c>
+      <c r="AC69">
+        <v>1.06</v>
+      </c>
+      <c r="AD69">
+        <v>10</v>
+      </c>
+      <c r="AE69">
+        <v>1.33</v>
+      </c>
+      <c r="AF69">
+        <v>3.2</v>
+      </c>
+      <c r="AG69">
+        <v>2.04</v>
+      </c>
+      <c r="AH69">
+        <v>1.7</v>
+      </c>
+      <c r="AI69">
+        <v>1.9</v>
+      </c>
+      <c r="AJ69">
+        <v>1.87</v>
+      </c>
+      <c r="AK69">
+        <v>1.16</v>
+      </c>
+      <c r="AL69">
+        <v>1.22</v>
+      </c>
+      <c r="AM69">
+        <v>1.95</v>
+      </c>
+      <c r="AN69">
+        <v>1.5</v>
+      </c>
+      <c r="AO69">
+        <v>2</v>
+      </c>
+      <c r="AP69">
+        <v>1.8</v>
+      </c>
+      <c r="AQ69">
+        <v>1.5</v>
+      </c>
+      <c r="AR69">
+        <v>1.16</v>
+      </c>
+      <c r="AS69">
+        <v>1.61</v>
+      </c>
+      <c r="AT69">
+        <v>2.77</v>
+      </c>
+      <c r="AU69">
+        <v>3</v>
+      </c>
+      <c r="AV69">
+        <v>7</v>
+      </c>
+      <c r="AW69">
+        <v>4</v>
+      </c>
+      <c r="AX69">
+        <v>7</v>
+      </c>
+      <c r="AY69">
+        <v>7</v>
+      </c>
+      <c r="AZ69">
+        <v>21</v>
+      </c>
+      <c r="BA69">
+        <v>3</v>
+      </c>
+      <c r="BB69">
+        <v>4</v>
+      </c>
+      <c r="BC69">
+        <v>7</v>
+      </c>
+      <c r="BD69">
+        <v>1.64</v>
+      </c>
+      <c r="BE69">
+        <v>8.5</v>
+      </c>
+      <c r="BF69">
+        <v>2.66</v>
+      </c>
+      <c r="BG69">
+        <v>1.15</v>
+      </c>
+      <c r="BH69">
+        <v>4.8</v>
+      </c>
+      <c r="BI69">
+        <v>1.25</v>
+      </c>
+      <c r="BJ69">
+        <v>3.14</v>
+      </c>
+      <c r="BK69">
+        <v>1.53</v>
+      </c>
+      <c r="BL69">
+        <v>2.46</v>
+      </c>
+      <c r="BM69">
+        <v>1.9</v>
+      </c>
+      <c r="BN69">
+        <v>1.9</v>
+      </c>
+      <c r="BO69">
+        <v>2.33</v>
+      </c>
+      <c r="BP69">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7468158</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45563.58333333334</v>
+      </c>
+      <c r="F70">
+        <v>10</v>
+      </c>
+      <c r="G70" t="s">
+        <v>71</v>
+      </c>
+      <c r="H70" t="s">
+        <v>77</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>2</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>2</v>
+      </c>
+      <c r="O70" t="s">
+        <v>136</v>
+      </c>
+      <c r="P70" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q70">
+        <v>2.88</v>
+      </c>
+      <c r="R70">
+        <v>2</v>
+      </c>
+      <c r="S70">
+        <v>3.6</v>
+      </c>
+      <c r="T70">
+        <v>1.45</v>
+      </c>
+      <c r="U70">
+        <v>2.6</v>
+      </c>
+      <c r="V70">
+        <v>2.95</v>
+      </c>
+      <c r="W70">
+        <v>1.36</v>
+      </c>
+      <c r="X70">
+        <v>7</v>
+      </c>
+      <c r="Y70">
+        <v>1.07</v>
+      </c>
+      <c r="Z70">
+        <v>2.35</v>
+      </c>
+      <c r="AA70">
+        <v>3.05</v>
+      </c>
+      <c r="AB70">
+        <v>3.05</v>
+      </c>
+      <c r="AC70">
+        <v>1.05</v>
+      </c>
+      <c r="AD70">
+        <v>8</v>
+      </c>
+      <c r="AE70">
+        <v>1.29</v>
+      </c>
+      <c r="AF70">
+        <v>3.3</v>
+      </c>
+      <c r="AG70">
+        <v>1.98</v>
+      </c>
+      <c r="AH70">
+        <v>1.77</v>
+      </c>
+      <c r="AI70">
+        <v>1.8</v>
+      </c>
+      <c r="AJ70">
+        <v>2</v>
+      </c>
+      <c r="AK70">
+        <v>1.38</v>
+      </c>
+      <c r="AL70">
+        <v>1.28</v>
+      </c>
+      <c r="AM70">
+        <v>1.55</v>
+      </c>
+      <c r="AN70">
+        <v>1.33</v>
+      </c>
+      <c r="AO70">
+        <v>0</v>
+      </c>
+      <c r="AP70">
+        <v>1.75</v>
+      </c>
+      <c r="AQ70">
+        <v>0</v>
+      </c>
+      <c r="AR70">
+        <v>1.53</v>
+      </c>
+      <c r="AS70">
+        <v>0.89</v>
+      </c>
+      <c r="AT70">
+        <v>2.42</v>
+      </c>
+      <c r="AU70">
+        <v>8</v>
+      </c>
+      <c r="AV70">
+        <v>5</v>
+      </c>
+      <c r="AW70">
+        <v>13</v>
+      </c>
+      <c r="AX70">
+        <v>6</v>
+      </c>
+      <c r="AY70">
+        <v>26</v>
+      </c>
+      <c r="AZ70">
+        <v>12</v>
+      </c>
+      <c r="BA70">
+        <v>7</v>
+      </c>
+      <c r="BB70">
+        <v>2</v>
+      </c>
+      <c r="BC70">
+        <v>9</v>
+      </c>
+      <c r="BD70">
+        <v>1.82</v>
+      </c>
+      <c r="BE70">
+        <v>8</v>
+      </c>
+      <c r="BF70">
+        <v>2.33</v>
+      </c>
+      <c r="BG70">
+        <v>1.16</v>
+      </c>
+      <c r="BH70">
+        <v>4.9</v>
+      </c>
+      <c r="BI70">
+        <v>1.27</v>
+      </c>
+      <c r="BJ70">
+        <v>3.04</v>
+      </c>
+      <c r="BK70">
+        <v>1.52</v>
+      </c>
+      <c r="BL70">
+        <v>2.44</v>
+      </c>
+      <c r="BM70">
+        <v>1.87</v>
+      </c>
+      <c r="BN70">
+        <v>1.93</v>
+      </c>
+      <c r="BO70">
+        <v>2.33</v>
+      </c>
+      <c r="BP70">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7468154</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45564.33333333334</v>
+      </c>
+      <c r="F71">
+        <v>10</v>
+      </c>
+      <c r="G71" t="s">
+        <v>83</v>
+      </c>
+      <c r="H71" t="s">
+        <v>72</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>2</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>3</v>
+      </c>
+      <c r="O71" t="s">
+        <v>137</v>
+      </c>
+      <c r="P71" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q71">
+        <v>1.72</v>
+      </c>
+      <c r="R71">
+        <v>2.65</v>
+      </c>
+      <c r="S71">
+        <v>6.5</v>
+      </c>
+      <c r="T71">
+        <v>1.24</v>
+      </c>
+      <c r="U71">
+        <v>3.7</v>
+      </c>
+      <c r="V71">
+        <v>2.14</v>
+      </c>
+      <c r="W71">
+        <v>1.64</v>
+      </c>
+      <c r="X71">
+        <v>4.7</v>
+      </c>
+      <c r="Y71">
+        <v>1.16</v>
+      </c>
+      <c r="Z71">
+        <v>1.3</v>
+      </c>
+      <c r="AA71">
+        <v>5</v>
+      </c>
+      <c r="AB71">
+        <v>7</v>
+      </c>
+      <c r="AC71">
+        <v>1.02</v>
+      </c>
+      <c r="AD71">
+        <v>24</v>
+      </c>
+      <c r="AE71">
+        <v>1.09</v>
+      </c>
+      <c r="AF71">
+        <v>4.95</v>
+      </c>
+      <c r="AG71">
+        <v>1.45</v>
+      </c>
+      <c r="AH71">
+        <v>2.55</v>
+      </c>
+      <c r="AI71">
+        <v>1.75</v>
+      </c>
+      <c r="AJ71">
+        <v>2</v>
+      </c>
+      <c r="AK71">
+        <v>1.03</v>
+      </c>
+      <c r="AL71">
+        <v>1.1</v>
+      </c>
+      <c r="AM71">
+        <v>3.3</v>
+      </c>
+      <c r="AN71">
+        <v>3</v>
+      </c>
+      <c r="AO71">
+        <v>0</v>
+      </c>
+      <c r="AP71">
+        <v>3</v>
+      </c>
+      <c r="AQ71">
+        <v>0</v>
+      </c>
+      <c r="AR71">
+        <v>1.82</v>
+      </c>
+      <c r="AS71">
+        <v>1</v>
+      </c>
+      <c r="AT71">
+        <v>2.82</v>
+      </c>
+      <c r="AU71">
+        <v>7</v>
+      </c>
+      <c r="AV71">
+        <v>3</v>
+      </c>
+      <c r="AW71">
+        <v>5</v>
+      </c>
+      <c r="AX71">
+        <v>7</v>
+      </c>
+      <c r="AY71">
+        <v>14</v>
+      </c>
+      <c r="AZ71">
+        <v>12</v>
+      </c>
+      <c r="BA71">
+        <v>7</v>
+      </c>
+      <c r="BB71">
+        <v>4</v>
+      </c>
+      <c r="BC71">
+        <v>11</v>
+      </c>
+      <c r="BD71">
+        <v>1.23</v>
+      </c>
+      <c r="BE71">
+        <v>11</v>
+      </c>
+      <c r="BF71">
+        <v>4.89</v>
+      </c>
+      <c r="BG71">
+        <v>0</v>
+      </c>
+      <c r="BH71">
+        <v>0</v>
+      </c>
+      <c r="BI71">
+        <v>1.16</v>
+      </c>
+      <c r="BJ71">
+        <v>4.5</v>
+      </c>
+      <c r="BK71">
+        <v>1.25</v>
+      </c>
+      <c r="BL71">
+        <v>3.14</v>
+      </c>
+      <c r="BM71">
+        <v>1.53</v>
+      </c>
+      <c r="BN71">
+        <v>2.42</v>
+      </c>
+      <c r="BO71">
+        <v>1.9</v>
+      </c>
+      <c r="BP71">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7468153</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45564.4375</v>
+      </c>
+      <c r="F72">
+        <v>10</v>
+      </c>
+      <c r="G72" t="s">
+        <v>84</v>
+      </c>
+      <c r="H72" t="s">
+        <v>82</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>2</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>2</v>
+      </c>
+      <c r="O72" t="s">
+        <v>124</v>
+      </c>
+      <c r="P72" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q72">
+        <v>1.88</v>
+      </c>
+      <c r="R72">
+        <v>2.65</v>
+      </c>
+      <c r="S72">
+        <v>5.3</v>
+      </c>
+      <c r="T72">
+        <v>1.22</v>
+      </c>
+      <c r="U72">
+        <v>3.9</v>
+      </c>
+      <c r="V72">
+        <v>2.23</v>
+      </c>
+      <c r="W72">
+        <v>1.58</v>
+      </c>
+      <c r="X72">
+        <v>5.1</v>
+      </c>
+      <c r="Y72">
+        <v>1.14</v>
+      </c>
+      <c r="Z72">
+        <v>1.44</v>
+      </c>
+      <c r="AA72">
+        <v>4.4</v>
+      </c>
+      <c r="AB72">
+        <v>5.25</v>
+      </c>
+      <c r="AC72">
+        <v>1.03</v>
+      </c>
+      <c r="AD72">
+        <v>19.25</v>
+      </c>
+      <c r="AE72">
+        <v>1.12</v>
+      </c>
+      <c r="AF72">
+        <v>4.45</v>
+      </c>
+      <c r="AG72">
+        <v>1.53</v>
+      </c>
+      <c r="AH72">
+        <v>2.35</v>
+      </c>
+      <c r="AI72">
+        <v>1.67</v>
+      </c>
+      <c r="AJ72">
+        <v>2.1</v>
+      </c>
+      <c r="AK72">
+        <v>1.09</v>
+      </c>
+      <c r="AL72">
+        <v>1.16</v>
+      </c>
+      <c r="AM72">
+        <v>2.7</v>
+      </c>
+      <c r="AN72">
+        <v>3</v>
+      </c>
+      <c r="AO72">
+        <v>0.75</v>
+      </c>
+      <c r="AP72">
+        <v>2.5</v>
+      </c>
+      <c r="AQ72">
+        <v>0.8</v>
+      </c>
+      <c r="AR72">
+        <v>1.84</v>
+      </c>
+      <c r="AS72">
+        <v>1.5</v>
+      </c>
+      <c r="AT72">
+        <v>3.34</v>
+      </c>
+      <c r="AU72">
+        <v>7</v>
+      </c>
+      <c r="AV72">
+        <v>0</v>
+      </c>
+      <c r="AW72">
+        <v>5</v>
+      </c>
+      <c r="AX72">
+        <v>3</v>
+      </c>
+      <c r="AY72">
+        <v>12</v>
+      </c>
+      <c r="AZ72">
+        <v>3</v>
+      </c>
+      <c r="BA72">
+        <v>9</v>
+      </c>
+      <c r="BB72">
+        <v>1</v>
+      </c>
+      <c r="BC72">
+        <v>10</v>
+      </c>
+      <c r="BD72">
+        <v>1.45</v>
+      </c>
+      <c r="BE72">
+        <v>9</v>
+      </c>
+      <c r="BF72">
+        <v>3.28</v>
+      </c>
+      <c r="BG72">
+        <v>1.1</v>
+      </c>
+      <c r="BH72">
+        <v>5.8</v>
+      </c>
+      <c r="BI72">
+        <v>1.21</v>
+      </c>
+      <c r="BJ72">
+        <v>3.9</v>
+      </c>
+      <c r="BK72">
+        <v>1.33</v>
+      </c>
+      <c r="BL72">
+        <v>2.73</v>
+      </c>
+      <c r="BM72">
+        <v>1.92</v>
+      </c>
+      <c r="BN72">
+        <v>1.88</v>
+      </c>
+      <c r="BO72">
+        <v>2.04</v>
+      </c>
+      <c r="BP72">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7468156</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45564.5625</v>
+      </c>
+      <c r="F73">
+        <v>10</v>
+      </c>
+      <c r="G73" t="s">
+        <v>73</v>
+      </c>
+      <c r="H73" t="s">
+        <v>80</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>3</v>
+      </c>
+      <c r="K73">
+        <v>3</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>4</v>
+      </c>
+      <c r="N73">
+        <v>4</v>
+      </c>
+      <c r="O73" t="s">
+        <v>88</v>
+      </c>
+      <c r="P73" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q73">
+        <v>7</v>
+      </c>
+      <c r="R73">
+        <v>2.5</v>
+      </c>
+      <c r="S73">
+        <v>1.83</v>
+      </c>
+      <c r="T73">
+        <v>1.29</v>
+      </c>
+      <c r="U73">
+        <v>3.5</v>
+      </c>
+      <c r="V73">
+        <v>2.38</v>
+      </c>
+      <c r="W73">
+        <v>1.53</v>
+      </c>
+      <c r="X73">
+        <v>5.5</v>
+      </c>
+      <c r="Y73">
+        <v>1.14</v>
+      </c>
+      <c r="Z73">
+        <v>7.5</v>
+      </c>
+      <c r="AA73">
+        <v>5</v>
+      </c>
+      <c r="AB73">
+        <v>1.35</v>
+      </c>
+      <c r="AC73">
+        <v>1.01</v>
+      </c>
+      <c r="AD73">
+        <v>15</v>
+      </c>
+      <c r="AE73">
+        <v>1.2</v>
+      </c>
+      <c r="AF73">
+        <v>4.5</v>
+      </c>
+      <c r="AG73">
+        <v>1.58</v>
+      </c>
+      <c r="AH73">
+        <v>2.3</v>
+      </c>
+      <c r="AI73">
+        <v>1.95</v>
+      </c>
+      <c r="AJ73">
+        <v>1.8</v>
+      </c>
+      <c r="AK73">
+        <v>3.3</v>
+      </c>
+      <c r="AL73">
+        <v>1.1</v>
+      </c>
+      <c r="AM73">
+        <v>1.03</v>
+      </c>
+      <c r="AN73">
+        <v>1</v>
+      </c>
+      <c r="AO73">
+        <v>2.33</v>
+      </c>
+      <c r="AP73">
+        <v>0.75</v>
+      </c>
+      <c r="AQ73">
+        <v>2.5</v>
+      </c>
+      <c r="AR73">
+        <v>1.68</v>
+      </c>
+      <c r="AS73">
+        <v>1.51</v>
+      </c>
+      <c r="AT73">
+        <v>3.19</v>
+      </c>
+      <c r="AU73">
+        <v>0</v>
+      </c>
+      <c r="AV73">
+        <v>7</v>
+      </c>
+      <c r="AW73">
+        <v>3</v>
+      </c>
+      <c r="AX73">
+        <v>10</v>
+      </c>
+      <c r="AY73">
+        <v>5</v>
+      </c>
+      <c r="AZ73">
+        <v>20</v>
+      </c>
+      <c r="BA73">
+        <v>5</v>
+      </c>
+      <c r="BB73">
+        <v>10</v>
+      </c>
+      <c r="BC73">
+        <v>15</v>
+      </c>
+      <c r="BD73">
+        <v>3.84</v>
+      </c>
+      <c r="BE73">
+        <v>10</v>
+      </c>
+      <c r="BF73">
+        <v>1.34</v>
+      </c>
+      <c r="BG73">
+        <v>1.15</v>
+      </c>
+      <c r="BH73">
+        <v>4.8</v>
+      </c>
+      <c r="BI73">
+        <v>1.24</v>
+      </c>
+      <c r="BJ73">
+        <v>3.22</v>
+      </c>
+      <c r="BK73">
+        <v>1.46</v>
+      </c>
+      <c r="BL73">
+        <v>2.38</v>
+      </c>
+      <c r="BM73">
+        <v>1.85</v>
+      </c>
+      <c r="BN73">
+        <v>1.95</v>
+      </c>
+      <c r="BO73">
+        <v>2.26</v>
+      </c>
+      <c r="BP73">
+        <v>1.51</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="182">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -430,6 +430,12 @@
     <t>['32', '72']</t>
   </si>
   <si>
+    <t>['42']</t>
+  </si>
+  <si>
+    <t>['56', '90+2']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -545,6 +551,15 @@
   </si>
   <si>
     <t>['14', '16', '34', '50']</t>
+  </si>
+  <si>
+    <t>['68']</t>
+  </si>
+  <si>
+    <t>['45+6', '80']</t>
+  </si>
+  <si>
+    <t>['17', '49', '58', '61', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -906,7 +921,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP73"/>
+  <dimension ref="A1:BP78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1165,7 +1180,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q2">
         <v>1.53</v>
@@ -1246,7 +1261,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ2">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1577,7 +1592,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -1655,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AQ4">
         <v>1.4</v>
@@ -1783,7 +1798,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -1989,7 +2004,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2195,7 +2210,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -3019,7 +3034,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q11">
         <v>2.85</v>
@@ -3225,7 +3240,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3303,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ12">
         <v>3</v>
@@ -3637,7 +3652,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -3715,7 +3730,7 @@
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ14">
         <v>1.4</v>
@@ -3924,7 +3939,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4130,7 +4145,7 @@
         <v>3</v>
       </c>
       <c r="AQ16">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4333,10 +4348,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ17">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4461,7 +4476,7 @@
         <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q18">
         <v>5.4</v>
@@ -4539,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ18">
         <v>2.5</v>
@@ -4748,7 +4763,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ19">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR19">
         <v>1.9</v>
@@ -5491,7 +5506,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q23">
         <v>2.6</v>
@@ -5569,10 +5584,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AQ23">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR23">
         <v>1.33</v>
@@ -5697,7 +5712,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5903,7 +5918,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q25">
         <v>1.06</v>
@@ -5984,7 +5999,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ25">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR25">
         <v>0.93</v>
@@ -6109,7 +6124,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q26">
         <v>3.2</v>
@@ -6187,7 +6202,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ26">
         <v>1.5</v>
@@ -6315,7 +6330,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q27">
         <v>6.23</v>
@@ -6808,7 +6823,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR29">
         <v>1.22</v>
@@ -7220,7 +7235,7 @@
         <v>3</v>
       </c>
       <c r="AQ31">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR31">
         <v>1.24</v>
@@ -7423,7 +7438,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ32">
         <v>1.5</v>
@@ -7632,7 +7647,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ33">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR33">
         <v>1.08</v>
@@ -7757,7 +7772,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q34">
         <v>1.45</v>
@@ -7963,7 +7978,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q35">
         <v>2.84</v>
@@ -8169,7 +8184,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q36">
         <v>5.63</v>
@@ -8375,7 +8390,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q37">
         <v>2.58</v>
@@ -8659,10 +8674,10 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ38">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR38">
         <v>1.34</v>
@@ -8787,7 +8802,7 @@
         <v>88</v>
       </c>
       <c r="P39" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q39">
         <v>4.75</v>
@@ -8865,7 +8880,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AQ39">
         <v>1.6</v>
@@ -9199,7 +9214,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9280,7 +9295,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ41">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR41">
         <v>1.49</v>
@@ -9405,7 +9420,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q42">
         <v>2.61</v>
@@ -9483,7 +9498,7 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ42">
         <v>1.5</v>
@@ -9611,7 +9626,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q43">
         <v>1.69</v>
@@ -9692,7 +9707,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ43">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR43">
         <v>2.07</v>
@@ -9898,7 +9913,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ44">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR44">
         <v>1.16</v>
@@ -10719,7 +10734,7 @@
         <v>1.33</v>
       </c>
       <c r="AP48">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AQ48">
         <v>1.2</v>
@@ -10928,7 +10943,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ49">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR49">
         <v>1.24</v>
@@ -11053,7 +11068,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q50">
         <v>5.1</v>
@@ -11259,7 +11274,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -11546,7 +11561,7 @@
         <v>1</v>
       </c>
       <c r="AQ52">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR52">
         <v>1.76</v>
@@ -11752,7 +11767,7 @@
         <v>3</v>
       </c>
       <c r="AQ53">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR53">
         <v>2.35</v>
@@ -11877,7 +11892,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11955,7 +11970,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ54">
         <v>0.8</v>
@@ -12083,7 +12098,7 @@
         <v>93</v>
       </c>
       <c r="P55" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q55">
         <v>3.85</v>
@@ -12161,7 +12176,7 @@
         <v>2.33</v>
       </c>
       <c r="AP55">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ55">
         <v>1.6</v>
@@ -12289,7 +12304,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q56">
         <v>1.85</v>
@@ -12367,7 +12382,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ56">
         <v>1.4</v>
@@ -12495,7 +12510,7 @@
         <v>88</v>
       </c>
       <c r="P57" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q57">
         <v>5.88</v>
@@ -12782,7 +12797,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ58">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR58">
         <v>1.32</v>
@@ -12988,7 +13003,7 @@
         <v>1</v>
       </c>
       <c r="AQ59">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR59">
         <v>1.83</v>
@@ -13113,7 +13128,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q60">
         <v>3.86</v>
@@ -13191,7 +13206,7 @@
         <v>0.5</v>
       </c>
       <c r="AP60">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ60">
         <v>1</v>
@@ -13525,7 +13540,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q62">
         <v>1.83</v>
@@ -13606,7 +13621,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ62">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR62">
         <v>1.42</v>
@@ -13731,7 +13746,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q63">
         <v>8.77</v>
@@ -13809,7 +13824,7 @@
         <v>3</v>
       </c>
       <c r="AP63">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AQ63">
         <v>3</v>
@@ -13937,7 +13952,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -14018,7 +14033,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ64">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR64">
         <v>1.75</v>
@@ -14143,7 +14158,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14221,7 +14236,7 @@
         <v>1.25</v>
       </c>
       <c r="AP65">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ65">
         <v>1.2</v>
@@ -14349,7 +14364,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q66">
         <v>1.55</v>
@@ -14555,7 +14570,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -14761,7 +14776,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -14967,7 +14982,7 @@
         <v>135</v>
       </c>
       <c r="P69" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q69">
         <v>2.35</v>
@@ -15254,7 +15269,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ70">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR70">
         <v>1.53</v>
@@ -15379,7 +15394,7 @@
         <v>137</v>
       </c>
       <c r="P71" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q71">
         <v>1.72</v>
@@ -15585,7 +15600,7 @@
         <v>124</v>
       </c>
       <c r="P72" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q72">
         <v>1.88</v>
@@ -15663,7 +15678,7 @@
         <v>0.75</v>
       </c>
       <c r="AP72">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ72">
         <v>0.8</v>
@@ -15791,7 +15806,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -15948,6 +15963,1036 @@
       </c>
       <c r="BP73">
         <v>1.51</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7468166</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45569.875</v>
+      </c>
+      <c r="F74">
+        <v>11</v>
+      </c>
+      <c r="G74" t="s">
+        <v>75</v>
+      </c>
+      <c r="H74" t="s">
+        <v>77</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74" t="s">
+        <v>88</v>
+      </c>
+      <c r="P74" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q74">
+        <v>3.1</v>
+      </c>
+      <c r="R74">
+        <v>2</v>
+      </c>
+      <c r="S74">
+        <v>3.4</v>
+      </c>
+      <c r="T74">
+        <v>1.41</v>
+      </c>
+      <c r="U74">
+        <v>2.89</v>
+      </c>
+      <c r="V74">
+        <v>3.04</v>
+      </c>
+      <c r="W74">
+        <v>1.37</v>
+      </c>
+      <c r="X74">
+        <v>7.7</v>
+      </c>
+      <c r="Y74">
+        <v>1.06</v>
+      </c>
+      <c r="Z74">
+        <v>2.38</v>
+      </c>
+      <c r="AA74">
+        <v>3.25</v>
+      </c>
+      <c r="AB74">
+        <v>2.7</v>
+      </c>
+      <c r="AC74">
+        <v>1.05</v>
+      </c>
+      <c r="AD74">
+        <v>8</v>
+      </c>
+      <c r="AE74">
+        <v>1.29</v>
+      </c>
+      <c r="AF74">
+        <v>3.3</v>
+      </c>
+      <c r="AG74">
+        <v>2.04</v>
+      </c>
+      <c r="AH74">
+        <v>1.73</v>
+      </c>
+      <c r="AI74">
+        <v>1.8</v>
+      </c>
+      <c r="AJ74">
+        <v>2</v>
+      </c>
+      <c r="AK74">
+        <v>1.41</v>
+      </c>
+      <c r="AL74">
+        <v>1.31</v>
+      </c>
+      <c r="AM74">
+        <v>1.51</v>
+      </c>
+      <c r="AN74">
+        <v>1</v>
+      </c>
+      <c r="AO74">
+        <v>0</v>
+      </c>
+      <c r="AP74">
+        <v>1</v>
+      </c>
+      <c r="AQ74">
+        <v>0.2</v>
+      </c>
+      <c r="AR74">
+        <v>1.81</v>
+      </c>
+      <c r="AS74">
+        <v>1</v>
+      </c>
+      <c r="AT74">
+        <v>2.81</v>
+      </c>
+      <c r="AU74">
+        <v>2</v>
+      </c>
+      <c r="AV74">
+        <v>5</v>
+      </c>
+      <c r="AW74">
+        <v>1</v>
+      </c>
+      <c r="AX74">
+        <v>3</v>
+      </c>
+      <c r="AY74">
+        <v>3</v>
+      </c>
+      <c r="AZ74">
+        <v>8</v>
+      </c>
+      <c r="BA74">
+        <v>11</v>
+      </c>
+      <c r="BB74">
+        <v>3</v>
+      </c>
+      <c r="BC74">
+        <v>14</v>
+      </c>
+      <c r="BD74">
+        <v>1.82</v>
+      </c>
+      <c r="BE74">
+        <v>8.5</v>
+      </c>
+      <c r="BF74">
+        <v>2.32</v>
+      </c>
+      <c r="BG74">
+        <v>1.14</v>
+      </c>
+      <c r="BH74">
+        <v>4.9</v>
+      </c>
+      <c r="BI74">
+        <v>1.23</v>
+      </c>
+      <c r="BJ74">
+        <v>3.28</v>
+      </c>
+      <c r="BK74">
+        <v>1.44</v>
+      </c>
+      <c r="BL74">
+        <v>2.42</v>
+      </c>
+      <c r="BM74">
+        <v>1.88</v>
+      </c>
+      <c r="BN74">
+        <v>1.92</v>
+      </c>
+      <c r="BO74">
+        <v>2.24</v>
+      </c>
+      <c r="BP74">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7468163</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45570.45833333334</v>
+      </c>
+      <c r="F75">
+        <v>11</v>
+      </c>
+      <c r="G75" t="s">
+        <v>79</v>
+      </c>
+      <c r="H75" t="s">
+        <v>74</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>2</v>
+      </c>
+      <c r="O75" t="s">
+        <v>138</v>
+      </c>
+      <c r="P75" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q75">
+        <v>2.3</v>
+      </c>
+      <c r="R75">
+        <v>2.1</v>
+      </c>
+      <c r="S75">
+        <v>4.5</v>
+      </c>
+      <c r="T75">
+        <v>1.36</v>
+      </c>
+      <c r="U75">
+        <v>3.11</v>
+      </c>
+      <c r="V75">
+        <v>2.81</v>
+      </c>
+      <c r="W75">
+        <v>1.43</v>
+      </c>
+      <c r="X75">
+        <v>6.8</v>
+      </c>
+      <c r="Y75">
+        <v>1.08</v>
+      </c>
+      <c r="Z75">
+        <v>1.8</v>
+      </c>
+      <c r="AA75">
+        <v>3.5</v>
+      </c>
+      <c r="AB75">
+        <v>3.8</v>
+      </c>
+      <c r="AC75">
+        <v>1.02</v>
+      </c>
+      <c r="AD75">
+        <v>10</v>
+      </c>
+      <c r="AE75">
+        <v>1.25</v>
+      </c>
+      <c r="AF75">
+        <v>3.6</v>
+      </c>
+      <c r="AG75">
+        <v>1.86</v>
+      </c>
+      <c r="AH75">
+        <v>1.91</v>
+      </c>
+      <c r="AI75">
+        <v>1.75</v>
+      </c>
+      <c r="AJ75">
+        <v>2.05</v>
+      </c>
+      <c r="AK75">
+        <v>1.2</v>
+      </c>
+      <c r="AL75">
+        <v>1.26</v>
+      </c>
+      <c r="AM75">
+        <v>1.98</v>
+      </c>
+      <c r="AN75">
+        <v>0.6</v>
+      </c>
+      <c r="AO75">
+        <v>0.25</v>
+      </c>
+      <c r="AP75">
+        <v>0.67</v>
+      </c>
+      <c r="AQ75">
+        <v>0.4</v>
+      </c>
+      <c r="AR75">
+        <v>1.49</v>
+      </c>
+      <c r="AS75">
+        <v>0.9</v>
+      </c>
+      <c r="AT75">
+        <v>2.39</v>
+      </c>
+      <c r="AU75">
+        <v>5</v>
+      </c>
+      <c r="AV75">
+        <v>2</v>
+      </c>
+      <c r="AW75">
+        <v>9</v>
+      </c>
+      <c r="AX75">
+        <v>2</v>
+      </c>
+      <c r="AY75">
+        <v>17</v>
+      </c>
+      <c r="AZ75">
+        <v>8</v>
+      </c>
+      <c r="BA75">
+        <v>5</v>
+      </c>
+      <c r="BB75">
+        <v>6</v>
+      </c>
+      <c r="BC75">
+        <v>11</v>
+      </c>
+      <c r="BD75">
+        <v>1.59</v>
+      </c>
+      <c r="BE75">
+        <v>8.5</v>
+      </c>
+      <c r="BF75">
+        <v>2.78</v>
+      </c>
+      <c r="BG75">
+        <v>0</v>
+      </c>
+      <c r="BH75">
+        <v>0</v>
+      </c>
+      <c r="BI75">
+        <v>1.33</v>
+      </c>
+      <c r="BJ75">
+        <v>2.73</v>
+      </c>
+      <c r="BK75">
+        <v>1.61</v>
+      </c>
+      <c r="BL75">
+        <v>2.07</v>
+      </c>
+      <c r="BM75">
+        <v>2.05</v>
+      </c>
+      <c r="BN75">
+        <v>1.7</v>
+      </c>
+      <c r="BO75">
+        <v>2.62</v>
+      </c>
+      <c r="BP75">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7468167</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45570.45833333334</v>
+      </c>
+      <c r="F76">
+        <v>11</v>
+      </c>
+      <c r="G76" t="s">
+        <v>72</v>
+      </c>
+      <c r="H76" t="s">
+        <v>76</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>2</v>
+      </c>
+      <c r="N76">
+        <v>2</v>
+      </c>
+      <c r="O76" t="s">
+        <v>88</v>
+      </c>
+      <c r="P76" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q76">
+        <v>3.7</v>
+      </c>
+      <c r="R76">
+        <v>2.1</v>
+      </c>
+      <c r="S76">
+        <v>2.79</v>
+      </c>
+      <c r="T76">
+        <v>1.4</v>
+      </c>
+      <c r="U76">
+        <v>2.82</v>
+      </c>
+      <c r="V76">
+        <v>2.86</v>
+      </c>
+      <c r="W76">
+        <v>1.39</v>
+      </c>
+      <c r="X76">
+        <v>7.3</v>
+      </c>
+      <c r="Y76">
+        <v>1.07</v>
+      </c>
+      <c r="Z76">
+        <v>3</v>
+      </c>
+      <c r="AA76">
+        <v>3.4</v>
+      </c>
+      <c r="AB76">
+        <v>2.1</v>
+      </c>
+      <c r="AC76">
+        <v>1.03</v>
+      </c>
+      <c r="AD76">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE76">
+        <v>1.26</v>
+      </c>
+      <c r="AF76">
+        <v>3.08</v>
+      </c>
+      <c r="AG76">
+        <v>1.84</v>
+      </c>
+      <c r="AH76">
+        <v>1.94</v>
+      </c>
+      <c r="AI76">
+        <v>1.75</v>
+      </c>
+      <c r="AJ76">
+        <v>1.96</v>
+      </c>
+      <c r="AK76">
+        <v>1.63</v>
+      </c>
+      <c r="AL76">
+        <v>1.29</v>
+      </c>
+      <c r="AM76">
+        <v>1.34</v>
+      </c>
+      <c r="AN76">
+        <v>0.2</v>
+      </c>
+      <c r="AO76">
+        <v>1</v>
+      </c>
+      <c r="AP76">
+        <v>0.17</v>
+      </c>
+      <c r="AQ76">
+        <v>1.4</v>
+      </c>
+      <c r="AR76">
+        <v>1.29</v>
+      </c>
+      <c r="AS76">
+        <v>0.99</v>
+      </c>
+      <c r="AT76">
+        <v>2.28</v>
+      </c>
+      <c r="AU76">
+        <v>3</v>
+      </c>
+      <c r="AV76">
+        <v>7</v>
+      </c>
+      <c r="AW76">
+        <v>9</v>
+      </c>
+      <c r="AX76">
+        <v>4</v>
+      </c>
+      <c r="AY76">
+        <v>13</v>
+      </c>
+      <c r="AZ76">
+        <v>13</v>
+      </c>
+      <c r="BA76">
+        <v>6</v>
+      </c>
+      <c r="BB76">
+        <v>0</v>
+      </c>
+      <c r="BC76">
+        <v>6</v>
+      </c>
+      <c r="BD76">
+        <v>1.83</v>
+      </c>
+      <c r="BE76">
+        <v>8.5</v>
+      </c>
+      <c r="BF76">
+        <v>2.2</v>
+      </c>
+      <c r="BG76">
+        <v>0</v>
+      </c>
+      <c r="BH76">
+        <v>0</v>
+      </c>
+      <c r="BI76">
+        <v>1.21</v>
+      </c>
+      <c r="BJ76">
+        <v>3.44</v>
+      </c>
+      <c r="BK76">
+        <v>1.42</v>
+      </c>
+      <c r="BL76">
+        <v>2.49</v>
+      </c>
+      <c r="BM76">
+        <v>1.85</v>
+      </c>
+      <c r="BN76">
+        <v>1.95</v>
+      </c>
+      <c r="BO76">
+        <v>2.15</v>
+      </c>
+      <c r="BP76">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7468160</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45570.58333333334</v>
+      </c>
+      <c r="F77">
+        <v>11</v>
+      </c>
+      <c r="G77" t="s">
+        <v>81</v>
+      </c>
+      <c r="H77" t="s">
+        <v>71</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>5</v>
+      </c>
+      <c r="N77">
+        <v>5</v>
+      </c>
+      <c r="O77" t="s">
+        <v>88</v>
+      </c>
+      <c r="P77" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q77">
+        <v>2.47</v>
+      </c>
+      <c r="R77">
+        <v>2.16</v>
+      </c>
+      <c r="S77">
+        <v>4.42</v>
+      </c>
+      <c r="T77">
+        <v>1.37</v>
+      </c>
+      <c r="U77">
+        <v>2.95</v>
+      </c>
+      <c r="V77">
+        <v>2.74</v>
+      </c>
+      <c r="W77">
+        <v>1.42</v>
+      </c>
+      <c r="X77">
+        <v>6.8</v>
+      </c>
+      <c r="Y77">
+        <v>1.08</v>
+      </c>
+      <c r="Z77">
+        <v>1.85</v>
+      </c>
+      <c r="AA77">
+        <v>3.5</v>
+      </c>
+      <c r="AB77">
+        <v>3.6</v>
+      </c>
+      <c r="AC77">
+        <v>1.03</v>
+      </c>
+      <c r="AD77">
+        <v>9</v>
+      </c>
+      <c r="AE77">
+        <v>1.23</v>
+      </c>
+      <c r="AF77">
+        <v>3.28</v>
+      </c>
+      <c r="AG77">
+        <v>1.86</v>
+      </c>
+      <c r="AH77">
+        <v>1.92</v>
+      </c>
+      <c r="AI77">
+        <v>1.73</v>
+      </c>
+      <c r="AJ77">
+        <v>2.05</v>
+      </c>
+      <c r="AK77">
+        <v>1.25</v>
+      </c>
+      <c r="AL77">
+        <v>1.27</v>
+      </c>
+      <c r="AM77">
+        <v>1.85</v>
+      </c>
+      <c r="AN77">
+        <v>1.2</v>
+      </c>
+      <c r="AO77">
+        <v>1.4</v>
+      </c>
+      <c r="AP77">
+        <v>1</v>
+      </c>
+      <c r="AQ77">
+        <v>1.67</v>
+      </c>
+      <c r="AR77">
+        <v>1.45</v>
+      </c>
+      <c r="AS77">
+        <v>1.44</v>
+      </c>
+      <c r="AT77">
+        <v>2.89</v>
+      </c>
+      <c r="AU77">
+        <v>3</v>
+      </c>
+      <c r="AV77">
+        <v>10</v>
+      </c>
+      <c r="AW77">
+        <v>4</v>
+      </c>
+      <c r="AX77">
+        <v>3</v>
+      </c>
+      <c r="AY77">
+        <v>12</v>
+      </c>
+      <c r="AZ77">
+        <v>14</v>
+      </c>
+      <c r="BA77">
+        <v>2</v>
+      </c>
+      <c r="BB77">
+        <v>7</v>
+      </c>
+      <c r="BC77">
+        <v>9</v>
+      </c>
+      <c r="BD77">
+        <v>1.75</v>
+      </c>
+      <c r="BE77">
+        <v>8.5</v>
+      </c>
+      <c r="BF77">
+        <v>2.43</v>
+      </c>
+      <c r="BG77">
+        <v>0</v>
+      </c>
+      <c r="BH77">
+        <v>0</v>
+      </c>
+      <c r="BI77">
+        <v>1.25</v>
+      </c>
+      <c r="BJ77">
+        <v>3.14</v>
+      </c>
+      <c r="BK77">
+        <v>1.48</v>
+      </c>
+      <c r="BL77">
+        <v>2.33</v>
+      </c>
+      <c r="BM77">
+        <v>1.95</v>
+      </c>
+      <c r="BN77">
+        <v>1.77</v>
+      </c>
+      <c r="BO77">
+        <v>2.3</v>
+      </c>
+      <c r="BP77">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7468165</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45571.33333333334</v>
+      </c>
+      <c r="F78">
+        <v>11</v>
+      </c>
+      <c r="G78" t="s">
+        <v>84</v>
+      </c>
+      <c r="H78" t="s">
+        <v>78</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>2</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>2</v>
+      </c>
+      <c r="O78" t="s">
+        <v>139</v>
+      </c>
+      <c r="P78" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q78">
+        <v>1.52</v>
+      </c>
+      <c r="R78">
+        <v>3.17</v>
+      </c>
+      <c r="S78">
+        <v>10.02</v>
+      </c>
+      <c r="T78">
+        <v>1.22</v>
+      </c>
+      <c r="U78">
+        <v>4</v>
+      </c>
+      <c r="V78">
+        <v>2.07</v>
+      </c>
+      <c r="W78">
+        <v>1.73</v>
+      </c>
+      <c r="X78">
+        <v>4.33</v>
+      </c>
+      <c r="Y78">
+        <v>1.19</v>
+      </c>
+      <c r="Z78">
+        <v>1.17</v>
+      </c>
+      <c r="AA78">
+        <v>6.5</v>
+      </c>
+      <c r="AB78">
+        <v>13</v>
+      </c>
+      <c r="AC78">
+        <v>1.01</v>
+      </c>
+      <c r="AD78">
+        <v>11</v>
+      </c>
+      <c r="AE78">
+        <v>1.07</v>
+      </c>
+      <c r="AF78">
+        <v>5.35</v>
+      </c>
+      <c r="AG78">
+        <v>1.4</v>
+      </c>
+      <c r="AH78">
+        <v>2.75</v>
+      </c>
+      <c r="AI78">
+        <v>1.9</v>
+      </c>
+      <c r="AJ78">
+        <v>1.87</v>
+      </c>
+      <c r="AK78">
+        <v>1.01</v>
+      </c>
+      <c r="AL78">
+        <v>1.08</v>
+      </c>
+      <c r="AM78">
+        <v>4.5</v>
+      </c>
+      <c r="AN78">
+        <v>2.5</v>
+      </c>
+      <c r="AO78">
+        <v>0.8</v>
+      </c>
+      <c r="AP78">
+        <v>2.6</v>
+      </c>
+      <c r="AQ78">
+        <v>0.67</v>
+      </c>
+      <c r="AR78">
+        <v>1.78</v>
+      </c>
+      <c r="AS78">
+        <v>1.03</v>
+      </c>
+      <c r="AT78">
+        <v>2.81</v>
+      </c>
+      <c r="AU78">
+        <v>5</v>
+      </c>
+      <c r="AV78">
+        <v>4</v>
+      </c>
+      <c r="AW78">
+        <v>4</v>
+      </c>
+      <c r="AX78">
+        <v>10</v>
+      </c>
+      <c r="AY78">
+        <v>9</v>
+      </c>
+      <c r="AZ78">
+        <v>14</v>
+      </c>
+      <c r="BA78">
+        <v>9</v>
+      </c>
+      <c r="BB78">
+        <v>4</v>
+      </c>
+      <c r="BC78">
+        <v>13</v>
+      </c>
+      <c r="BD78">
+        <v>1.23</v>
+      </c>
+      <c r="BE78">
+        <v>11</v>
+      </c>
+      <c r="BF78">
+        <v>4.89</v>
+      </c>
+      <c r="BG78">
+        <v>1.11</v>
+      </c>
+      <c r="BH78">
+        <v>5.6</v>
+      </c>
+      <c r="BI78">
+        <v>1.23</v>
+      </c>
+      <c r="BJ78">
+        <v>3.8</v>
+      </c>
+      <c r="BK78">
+        <v>1.35</v>
+      </c>
+      <c r="BL78">
+        <v>2.65</v>
+      </c>
+      <c r="BM78">
+        <v>1.98</v>
+      </c>
+      <c r="BN78">
+        <v>1.82</v>
+      </c>
+      <c r="BO78">
+        <v>2.03</v>
+      </c>
+      <c r="BP78">
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="186">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -436,6 +436,12 @@
     <t>['56', '90+2']</t>
   </si>
   <si>
+    <t>['69']</t>
+  </si>
+  <si>
+    <t>['2', '22']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -560,6 +566,12 @@
   </si>
   <si>
     <t>['17', '49', '58', '61', '90+3']</t>
+  </si>
+  <si>
+    <t>['37', '42', '89']</t>
+  </si>
+  <si>
+    <t>['65']</t>
   </si>
 </sst>
 </file>
@@ -921,7 +933,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP78"/>
+  <dimension ref="A1:BP81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1180,7 +1192,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q2">
         <v>1.53</v>
@@ -1592,7 +1604,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -1798,7 +1810,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2004,7 +2016,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2210,7 +2222,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2909,7 +2921,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ10">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR10">
         <v>0.98</v>
@@ -3034,7 +3046,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q11">
         <v>2.85</v>
@@ -3240,7 +3252,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3321,7 +3333,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ12">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3652,7 +3664,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -3936,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ15">
         <v>1.4</v>
@@ -4476,7 +4488,7 @@
         <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q18">
         <v>5.4</v>
@@ -4969,7 +4981,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ20">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR20">
         <v>1</v>
@@ -5378,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
         <v>0.75</v>
@@ -5506,7 +5518,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q23">
         <v>2.6</v>
@@ -5712,7 +5724,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5918,7 +5930,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q25">
         <v>1.06</v>
@@ -6124,7 +6136,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q26">
         <v>3.2</v>
@@ -6330,7 +6342,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q27">
         <v>6.23</v>
@@ -6411,7 +6423,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ27">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AR27">
         <v>1.73</v>
@@ -7026,7 +7038,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ30">
         <v>0</v>
@@ -7772,7 +7784,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q34">
         <v>1.45</v>
@@ -7978,7 +7990,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q35">
         <v>2.84</v>
@@ -8059,7 +8071,7 @@
         <v>1</v>
       </c>
       <c r="AQ35">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR35">
         <v>1.93</v>
@@ -8184,7 +8196,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q36">
         <v>5.63</v>
@@ -8265,7 +8277,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ36">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AR36">
         <v>1.54</v>
@@ -8390,7 +8402,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q37">
         <v>2.58</v>
@@ -8468,7 +8480,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ37">
         <v>0.8</v>
@@ -8802,7 +8814,7 @@
         <v>88</v>
       </c>
       <c r="P39" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q39">
         <v>4.75</v>
@@ -9214,7 +9226,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9420,7 +9432,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q42">
         <v>2.61</v>
@@ -9626,7 +9638,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q43">
         <v>1.69</v>
@@ -10737,7 +10749,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ48">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR48">
         <v>1.34</v>
@@ -11068,7 +11080,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q50">
         <v>5.1</v>
@@ -11149,7 +11161,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ50">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AR50">
         <v>1.24</v>
@@ -11274,7 +11286,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -11352,7 +11364,7 @@
         <v>0.33</v>
       </c>
       <c r="AP51">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ51">
         <v>1</v>
@@ -11892,7 +11904,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12098,7 +12110,7 @@
         <v>93</v>
       </c>
       <c r="P55" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q55">
         <v>3.85</v>
@@ -12304,7 +12316,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q56">
         <v>1.85</v>
@@ -12510,7 +12522,7 @@
         <v>88</v>
       </c>
       <c r="P57" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q57">
         <v>5.88</v>
@@ -12588,7 +12600,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ57">
         <v>2.5</v>
@@ -13128,7 +13140,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q60">
         <v>3.86</v>
@@ -13540,7 +13552,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q62">
         <v>1.83</v>
@@ -13618,7 +13630,7 @@
         <v>0.75</v>
       </c>
       <c r="AP62">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ62">
         <v>0.67</v>
@@ -13746,7 +13758,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q63">
         <v>8.77</v>
@@ -13827,7 +13839,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ63">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AR63">
         <v>1.37</v>
@@ -13952,7 +13964,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -14030,7 +14042,7 @@
         <v>0.33</v>
       </c>
       <c r="AP64">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ64">
         <v>0.4</v>
@@ -14158,7 +14170,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14239,7 +14251,7 @@
         <v>1</v>
       </c>
       <c r="AQ65">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR65">
         <v>1.42</v>
@@ -14364,7 +14376,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q66">
         <v>1.55</v>
@@ -14570,7 +14582,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -14776,7 +14788,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -14982,7 +14994,7 @@
         <v>135</v>
       </c>
       <c r="P69" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q69">
         <v>2.35</v>
@@ -15394,7 +15406,7 @@
         <v>137</v>
       </c>
       <c r="P71" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q71">
         <v>1.72</v>
@@ -15600,7 +15612,7 @@
         <v>124</v>
       </c>
       <c r="P72" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q72">
         <v>1.88</v>
@@ -15806,7 +15818,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -15979,7 +15991,7 @@
         <v>69</v>
       </c>
       <c r="E74" s="2">
-        <v>45569.875</v>
+        <v>45570.35416666666</v>
       </c>
       <c r="F74">
         <v>11</v>
@@ -16105,22 +16117,22 @@
         <v>2.81</v>
       </c>
       <c r="AU74">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV74">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX74">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AY74">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AZ74">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BA74">
         <v>11</v>
@@ -16218,7 +16230,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -16424,7 +16436,7 @@
         <v>88</v>
       </c>
       <c r="P76" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q76">
         <v>3.7</v>
@@ -16630,7 +16642,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q77">
         <v>2.47</v>
@@ -16803,7 +16815,7 @@
         <v>69</v>
       </c>
       <c r="E78" s="2">
-        <v>45571.33333333334</v>
+        <v>45570.875</v>
       </c>
       <c r="F78">
         <v>11</v>
@@ -16929,22 +16941,22 @@
         <v>2.81</v>
       </c>
       <c r="AU78">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV78">
         <v>4</v>
       </c>
       <c r="AW78">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX78">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AY78">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AZ78">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA78">
         <v>9</v>
@@ -16993,6 +17005,624 @@
       </c>
       <c r="BP78">
         <v>1.7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7468164</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45571.4375</v>
+      </c>
+      <c r="F79">
+        <v>11</v>
+      </c>
+      <c r="G79" t="s">
+        <v>82</v>
+      </c>
+      <c r="H79" t="s">
+        <v>83</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79" t="s">
+        <v>88</v>
+      </c>
+      <c r="P79" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q79">
+        <v>3</v>
+      </c>
+      <c r="R79">
+        <v>2.25</v>
+      </c>
+      <c r="S79">
+        <v>3</v>
+      </c>
+      <c r="T79">
+        <v>1.3</v>
+      </c>
+      <c r="U79">
+        <v>3.34</v>
+      </c>
+      <c r="V79">
+        <v>2.4</v>
+      </c>
+      <c r="W79">
+        <v>1.53</v>
+      </c>
+      <c r="X79">
+        <v>5.55</v>
+      </c>
+      <c r="Y79">
+        <v>1.12</v>
+      </c>
+      <c r="Z79">
+        <v>2.75</v>
+      </c>
+      <c r="AA79">
+        <v>3.5</v>
+      </c>
+      <c r="AB79">
+        <v>2.4</v>
+      </c>
+      <c r="AC79">
+        <v>1.01</v>
+      </c>
+      <c r="AD79">
+        <v>11</v>
+      </c>
+      <c r="AE79">
+        <v>1.14</v>
+      </c>
+      <c r="AF79">
+        <v>4.8</v>
+      </c>
+      <c r="AG79">
+        <v>1.57</v>
+      </c>
+      <c r="AH79">
+        <v>2.25</v>
+      </c>
+      <c r="AI79">
+        <v>1.5</v>
+      </c>
+      <c r="AJ79">
+        <v>2.55</v>
+      </c>
+      <c r="AK79">
+        <v>1.51</v>
+      </c>
+      <c r="AL79">
+        <v>1.27</v>
+      </c>
+      <c r="AM79">
+        <v>1.48</v>
+      </c>
+      <c r="AN79">
+        <v>1.75</v>
+      </c>
+      <c r="AO79">
+        <v>1</v>
+      </c>
+      <c r="AP79">
+        <v>1.6</v>
+      </c>
+      <c r="AQ79">
+        <v>1</v>
+      </c>
+      <c r="AR79">
+        <v>1.49</v>
+      </c>
+      <c r="AS79">
+        <v>1.47</v>
+      </c>
+      <c r="AT79">
+        <v>2.96</v>
+      </c>
+      <c r="AU79">
+        <v>4</v>
+      </c>
+      <c r="AV79">
+        <v>6</v>
+      </c>
+      <c r="AW79">
+        <v>4</v>
+      </c>
+      <c r="AX79">
+        <v>12</v>
+      </c>
+      <c r="AY79">
+        <v>15</v>
+      </c>
+      <c r="AZ79">
+        <v>21</v>
+      </c>
+      <c r="BA79">
+        <v>5</v>
+      </c>
+      <c r="BB79">
+        <v>5</v>
+      </c>
+      <c r="BC79">
+        <v>10</v>
+      </c>
+      <c r="BD79">
+        <v>2</v>
+      </c>
+      <c r="BE79">
+        <v>8.5</v>
+      </c>
+      <c r="BF79">
+        <v>2</v>
+      </c>
+      <c r="BG79">
+        <v>1.07</v>
+      </c>
+      <c r="BH79">
+        <v>6.7</v>
+      </c>
+      <c r="BI79">
+        <v>1.17</v>
+      </c>
+      <c r="BJ79">
+        <v>4.4</v>
+      </c>
+      <c r="BK79">
+        <v>1.28</v>
+      </c>
+      <c r="BL79">
+        <v>2.97</v>
+      </c>
+      <c r="BM79">
+        <v>1.51</v>
+      </c>
+      <c r="BN79">
+        <v>2.26</v>
+      </c>
+      <c r="BO79">
+        <v>1.87</v>
+      </c>
+      <c r="BP79">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7468161</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45571.4375</v>
+      </c>
+      <c r="F80">
+        <v>11</v>
+      </c>
+      <c r="G80" t="s">
+        <v>85</v>
+      </c>
+      <c r="H80" t="s">
+        <v>73</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>2</v>
+      </c>
+      <c r="K80">
+        <v>2</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>3</v>
+      </c>
+      <c r="N80">
+        <v>4</v>
+      </c>
+      <c r="O80" t="s">
+        <v>140</v>
+      </c>
+      <c r="P80" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q80">
+        <v>2.5</v>
+      </c>
+      <c r="R80">
+        <v>2.3</v>
+      </c>
+      <c r="S80">
+        <v>4.33</v>
+      </c>
+      <c r="T80">
+        <v>1.33</v>
+      </c>
+      <c r="U80">
+        <v>3.25</v>
+      </c>
+      <c r="V80">
+        <v>2.63</v>
+      </c>
+      <c r="W80">
+        <v>1.44</v>
+      </c>
+      <c r="X80">
+        <v>6.5</v>
+      </c>
+      <c r="Y80">
+        <v>1.11</v>
+      </c>
+      <c r="Z80">
+        <v>1.95</v>
+      </c>
+      <c r="AA80">
+        <v>3.5</v>
+      </c>
+      <c r="AB80">
+        <v>3.6</v>
+      </c>
+      <c r="AC80">
+        <v>1.04</v>
+      </c>
+      <c r="AD80">
+        <v>9</v>
+      </c>
+      <c r="AE80">
+        <v>1.25</v>
+      </c>
+      <c r="AF80">
+        <v>3.75</v>
+      </c>
+      <c r="AG80">
+        <v>1.75</v>
+      </c>
+      <c r="AH80">
+        <v>1.95</v>
+      </c>
+      <c r="AI80">
+        <v>1.67</v>
+      </c>
+      <c r="AJ80">
+        <v>2.1</v>
+      </c>
+      <c r="AK80">
+        <v>1.2</v>
+      </c>
+      <c r="AL80">
+        <v>1.2</v>
+      </c>
+      <c r="AM80">
+        <v>1.9</v>
+      </c>
+      <c r="AN80">
+        <v>2.5</v>
+      </c>
+      <c r="AO80">
+        <v>1.2</v>
+      </c>
+      <c r="AP80">
+        <v>2</v>
+      </c>
+      <c r="AQ80">
+        <v>1.5</v>
+      </c>
+      <c r="AR80">
+        <v>1.66</v>
+      </c>
+      <c r="AS80">
+        <v>1.44</v>
+      </c>
+      <c r="AT80">
+        <v>3.1</v>
+      </c>
+      <c r="AU80">
+        <v>5</v>
+      </c>
+      <c r="AV80">
+        <v>6</v>
+      </c>
+      <c r="AW80">
+        <v>4</v>
+      </c>
+      <c r="AX80">
+        <v>7</v>
+      </c>
+      <c r="AY80">
+        <v>10</v>
+      </c>
+      <c r="AZ80">
+        <v>15</v>
+      </c>
+      <c r="BA80">
+        <v>8</v>
+      </c>
+      <c r="BB80">
+        <v>6</v>
+      </c>
+      <c r="BC80">
+        <v>14</v>
+      </c>
+      <c r="BD80">
+        <v>1.7</v>
+      </c>
+      <c r="BE80">
+        <v>8.5</v>
+      </c>
+      <c r="BF80">
+        <v>2.38</v>
+      </c>
+      <c r="BG80">
+        <v>1.11</v>
+      </c>
+      <c r="BH80">
+        <v>5.6</v>
+      </c>
+      <c r="BI80">
+        <v>1.23</v>
+      </c>
+      <c r="BJ80">
+        <v>3.7</v>
+      </c>
+      <c r="BK80">
+        <v>1.35</v>
+      </c>
+      <c r="BL80">
+        <v>2.65</v>
+      </c>
+      <c r="BM80">
+        <v>1.77</v>
+      </c>
+      <c r="BN80">
+        <v>1.95</v>
+      </c>
+      <c r="BO80">
+        <v>2.08</v>
+      </c>
+      <c r="BP80">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7468162</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45571.5625</v>
+      </c>
+      <c r="F81">
+        <v>11</v>
+      </c>
+      <c r="G81" t="s">
+        <v>80</v>
+      </c>
+      <c r="H81" t="s">
+        <v>70</v>
+      </c>
+      <c r="I81">
+        <v>2</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>2</v>
+      </c>
+      <c r="L81">
+        <v>2</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>3</v>
+      </c>
+      <c r="O81" t="s">
+        <v>141</v>
+      </c>
+      <c r="P81" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q81">
+        <v>2.38</v>
+      </c>
+      <c r="R81">
+        <v>2.2</v>
+      </c>
+      <c r="S81">
+        <v>4.33</v>
+      </c>
+      <c r="T81">
+        <v>1.36</v>
+      </c>
+      <c r="U81">
+        <v>3.13</v>
+      </c>
+      <c r="V81">
+        <v>2.78</v>
+      </c>
+      <c r="W81">
+        <v>1.43</v>
+      </c>
+      <c r="X81">
+        <v>6.6</v>
+      </c>
+      <c r="Y81">
+        <v>1.09</v>
+      </c>
+      <c r="Z81">
+        <v>1.85</v>
+      </c>
+      <c r="AA81">
+        <v>3.6</v>
+      </c>
+      <c r="AB81">
+        <v>3.9</v>
+      </c>
+      <c r="AC81">
+        <v>1.02</v>
+      </c>
+      <c r="AD81">
+        <v>10</v>
+      </c>
+      <c r="AE81">
+        <v>1.22</v>
+      </c>
+      <c r="AF81">
+        <v>3.8</v>
+      </c>
+      <c r="AG81">
+        <v>1.83</v>
+      </c>
+      <c r="AH81">
+        <v>1.93</v>
+      </c>
+      <c r="AI81">
+        <v>1.73</v>
+      </c>
+      <c r="AJ81">
+        <v>2.1</v>
+      </c>
+      <c r="AK81">
+        <v>1.25</v>
+      </c>
+      <c r="AL81">
+        <v>1.26</v>
+      </c>
+      <c r="AM81">
+        <v>1.89</v>
+      </c>
+      <c r="AN81">
+        <v>3</v>
+      </c>
+      <c r="AO81">
+        <v>3</v>
+      </c>
+      <c r="AP81">
+        <v>3</v>
+      </c>
+      <c r="AQ81">
+        <v>2.5</v>
+      </c>
+      <c r="AR81">
+        <v>2.43</v>
+      </c>
+      <c r="AS81">
+        <v>1.97</v>
+      </c>
+      <c r="AT81">
+        <v>4.4</v>
+      </c>
+      <c r="AU81">
+        <v>6</v>
+      </c>
+      <c r="AV81">
+        <v>4</v>
+      </c>
+      <c r="AW81">
+        <v>6</v>
+      </c>
+      <c r="AX81">
+        <v>3</v>
+      </c>
+      <c r="AY81">
+        <v>15</v>
+      </c>
+      <c r="AZ81">
+        <v>9</v>
+      </c>
+      <c r="BA81">
+        <v>5</v>
+      </c>
+      <c r="BB81">
+        <v>0</v>
+      </c>
+      <c r="BC81">
+        <v>5</v>
+      </c>
+      <c r="BD81">
+        <v>1.45</v>
+      </c>
+      <c r="BE81">
+        <v>9</v>
+      </c>
+      <c r="BF81">
+        <v>3.32</v>
+      </c>
+      <c r="BG81">
+        <v>1.17</v>
+      </c>
+      <c r="BH81">
+        <v>4.5</v>
+      </c>
+      <c r="BI81">
+        <v>1.32</v>
+      </c>
+      <c r="BJ81">
+        <v>3.1</v>
+      </c>
+      <c r="BK81">
+        <v>1.57</v>
+      </c>
+      <c r="BL81">
+        <v>2.34</v>
+      </c>
+      <c r="BM81">
+        <v>2</v>
+      </c>
+      <c r="BN81">
+        <v>1.8</v>
+      </c>
+      <c r="BO81">
+        <v>2.46</v>
+      </c>
+      <c r="BP81">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -16815,7 +16815,7 @@
         <v>69</v>
       </c>
       <c r="E78" s="2">
-        <v>45570.875</v>
+        <v>45571.33333333334</v>
       </c>
       <c r="F78">
         <v>11</v>
@@ -16941,22 +16941,22 @@
         <v>2.81</v>
       </c>
       <c r="AU78">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AV78">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW78">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX78">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY78">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="AZ78">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA78">
         <v>9</v>
@@ -17436,7 +17436,7 @@
         <v>45571.5625</v>
       </c>
       <c r="F81">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G81" t="s">
         <v>80</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -1270,10 +1270,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="AQ2">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1476,10 +1476,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AQ3">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1682,10 +1682,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="AQ4">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1888,10 +1888,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2094,10 +2094,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="AQ6">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2300,10 +2300,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ7">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2506,10 +2506,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AQ8">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="AQ9">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2915,22 +2915,22 @@
         <v>0</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP10">
+        <v>0.8</v>
+      </c>
+      <c r="AQ10">
         <v>1.2</v>
-      </c>
-      <c r="AQ10">
-        <v>1.5</v>
       </c>
       <c r="AR10">
         <v>0.98</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AT10">
-        <v>0.98</v>
+        <v>2.71</v>
       </c>
       <c r="AU10">
         <v>3</v>
@@ -3124,19 +3124,19 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="AQ11">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="AU11">
         <v>3</v>
@@ -3327,22 +3327,22 @@
         <v>0</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP12">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AQ12">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>3.11</v>
       </c>
       <c r="AU12">
         <v>4</v>
@@ -3530,25 +3530,25 @@
         <v>5.85</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO13">
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AQ13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="AU13">
         <v>9</v>
@@ -3736,25 +3736,25 @@
         <v>1.78</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO14">
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ14">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="AR14">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AS14">
         <v>2.08</v>
       </c>
       <c r="AT14">
-        <v>2.08</v>
+        <v>4.05</v>
       </c>
       <c r="AU14">
         <v>4</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="AO15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP15">
+        <v>1.2</v>
+      </c>
+      <c r="AQ15">
         <v>1.6</v>
       </c>
-      <c r="AQ15">
-        <v>1.4</v>
-      </c>
       <c r="AR15">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AS15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT15">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AU15">
         <v>7</v>
@@ -4151,22 +4151,22 @@
         <v>0</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP16">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="AQ16">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AR16">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AS16">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AT16">
-        <v>0</v>
+        <v>3.52</v>
       </c>
       <c r="AU16">
         <v>5</v>
@@ -4354,25 +4354,25 @@
         <v>2.7</v>
       </c>
       <c r="AN17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP17">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="AQ17">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="AR17">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AS17">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AT17">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AU17">
         <v>8</v>
@@ -4560,25 +4560,25 @@
         <v>1.12</v>
       </c>
       <c r="AN18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP18">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ18">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="AR18">
-        <v>1.26</v>
+        <v>1.61</v>
       </c>
       <c r="AS18">
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="AT18">
-        <v>2.91</v>
+        <v>3.63</v>
       </c>
       <c r="AU18">
         <v>4</v>
@@ -4769,22 +4769,22 @@
         <v>3</v>
       </c>
       <c r="AO19">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP19">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="AQ19">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AR19">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="AS19">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="AT19">
-        <v>1.9</v>
+        <v>2.89</v>
       </c>
       <c r="AU19">
         <v>9</v>
@@ -4972,25 +4972,25 @@
         <v>1.8</v>
       </c>
       <c r="AN20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO20">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP20">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AQ20">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR20">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AS20">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="AT20">
-        <v>2.88</v>
+        <v>3.06</v>
       </c>
       <c r="AU20">
         <v>4</v>
@@ -5178,25 +5178,25 @@
         <v>1.17</v>
       </c>
       <c r="AN21">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO21">
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AQ21">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="AR21">
-        <v>1.81</v>
+        <v>1.38</v>
       </c>
       <c r="AS21">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT21">
-        <v>3.24</v>
+        <v>2.91</v>
       </c>
       <c r="AU21">
         <v>5</v>
@@ -5384,25 +5384,25 @@
         <v>1.71</v>
       </c>
       <c r="AN22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO22">
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AQ22">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="AR22">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AS22">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT22">
-        <v>1.21</v>
+        <v>2.61</v>
       </c>
       <c r="AU22">
         <v>5</v>
@@ -5596,19 +5596,19 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="AQ23">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR23">
-        <v>1.33</v>
+        <v>0.92</v>
       </c>
       <c r="AS23">
-        <v>1.03</v>
+        <v>1.12</v>
       </c>
       <c r="AT23">
-        <v>2.36</v>
+        <v>2.04</v>
       </c>
       <c r="AU23">
         <v>5</v>
@@ -5796,25 +5796,25 @@
         <v>1.78</v>
       </c>
       <c r="AN24">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO24">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP24">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="AQ24">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="AR24">
-        <v>1.19</v>
+        <v>0.95</v>
       </c>
       <c r="AS24">
-        <v>0.9399999999999999</v>
+        <v>1.35</v>
       </c>
       <c r="AT24">
-        <v>2.13</v>
+        <v>2.3</v>
       </c>
       <c r="AU24">
         <v>4</v>
@@ -6002,25 +6002,25 @@
         <v>1.29</v>
       </c>
       <c r="AN25">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO25">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AP25">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="AQ25">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AR25">
-        <v>0.93</v>
+        <v>0.82</v>
       </c>
       <c r="AS25">
-        <v>0.95</v>
+        <v>1.35</v>
       </c>
       <c r="AT25">
-        <v>1.88</v>
+        <v>2.17</v>
       </c>
       <c r="AU25">
         <v>3</v>
@@ -6211,22 +6211,22 @@
         <v>0</v>
       </c>
       <c r="AO26">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AP26">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AQ26">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR26">
-        <v>1.06</v>
+        <v>1.28</v>
       </c>
       <c r="AS26">
-        <v>1.97</v>
+        <v>1.55</v>
       </c>
       <c r="AT26">
-        <v>3.03</v>
+        <v>2.83</v>
       </c>
       <c r="AU26">
         <v>6</v>
@@ -6414,25 +6414,25 @@
         <v>1.1</v>
       </c>
       <c r="AN27">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AO27">
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ27">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AR27">
-        <v>1.73</v>
+        <v>1.45</v>
       </c>
       <c r="AS27">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="AT27">
-        <v>3.75</v>
+        <v>3.51</v>
       </c>
       <c r="AU27">
         <v>6</v>
@@ -6620,25 +6620,25 @@
         <v>4.33</v>
       </c>
       <c r="AN28">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AO28">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AP28">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AQ28">
+        <v>1.7</v>
+      </c>
+      <c r="AR28">
+        <v>1.7</v>
+      </c>
+      <c r="AS28">
         <v>1.4</v>
       </c>
-      <c r="AR28">
-        <v>2.4</v>
-      </c>
-      <c r="AS28">
-        <v>1.48</v>
-      </c>
       <c r="AT28">
-        <v>3.88</v>
+        <v>3.1</v>
       </c>
       <c r="AU28">
         <v>9</v>
@@ -6826,25 +6826,25 @@
         <v>1.36</v>
       </c>
       <c r="AN29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO29">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AP29">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="AQ29">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AR29">
-        <v>1.22</v>
+        <v>1.07</v>
       </c>
       <c r="AS29">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT29">
-        <v>2.72</v>
+        <v>2.36</v>
       </c>
       <c r="AU29">
         <v>4</v>
@@ -7032,25 +7032,25 @@
         <v>2.38</v>
       </c>
       <c r="AN30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO30">
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="AQ30">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AR30">
-        <v>1.76</v>
+        <v>1.63</v>
       </c>
       <c r="AS30">
-        <v>0.5</v>
+        <v>1.14</v>
       </c>
       <c r="AT30">
-        <v>2.26</v>
+        <v>2.77</v>
       </c>
       <c r="AU30">
         <v>7</v>
@@ -7238,25 +7238,25 @@
         <v>2.2</v>
       </c>
       <c r="AN31">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP31">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="AQ31">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="AR31">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AS31">
-        <v>0.71</v>
+        <v>0.96</v>
       </c>
       <c r="AT31">
-        <v>1.95</v>
+        <v>2.43</v>
       </c>
       <c r="AU31">
         <v>6</v>
@@ -7444,25 +7444,25 @@
         <v>3.1</v>
       </c>
       <c r="AN32">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AO32">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AP32">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="AQ32">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR32">
-        <v>1.64</v>
+        <v>1.38</v>
       </c>
       <c r="AS32">
-        <v>2.37</v>
+        <v>2.15</v>
       </c>
       <c r="AT32">
-        <v>4.01</v>
+        <v>3.53</v>
       </c>
       <c r="AU32">
         <v>8</v>
@@ -7650,25 +7650,25 @@
         <v>2.35</v>
       </c>
       <c r="AN33">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO33">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AP33">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="AQ33">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AR33">
-        <v>1.08</v>
+        <v>0.84</v>
       </c>
       <c r="AS33">
-        <v>0.61</v>
+        <v>0.88</v>
       </c>
       <c r="AT33">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="AU33">
         <v>6</v>
@@ -7856,25 +7856,25 @@
         <v>5.5</v>
       </c>
       <c r="AN34">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AO34">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AP34">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AQ34">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="AR34">
-        <v>2.27</v>
+        <v>1.82</v>
       </c>
       <c r="AS34">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="AT34">
-        <v>3.66</v>
+        <v>3.22</v>
       </c>
       <c r="AU34">
         <v>7</v>
@@ -8062,25 +8062,25 @@
         <v>1.62</v>
       </c>
       <c r="AN35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO35">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP35">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ35">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR35">
-        <v>1.93</v>
+        <v>1.78</v>
       </c>
       <c r="AS35">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AT35">
-        <v>3.25</v>
+        <v>3.18</v>
       </c>
       <c r="AU35">
         <v>4</v>
@@ -8268,25 +8268,25 @@
         <v>1.15</v>
       </c>
       <c r="AN36">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AO36">
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AQ36">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AR36">
-        <v>1.54</v>
+        <v>1.38</v>
       </c>
       <c r="AS36">
         <v>2.07</v>
       </c>
       <c r="AT36">
-        <v>3.61</v>
+        <v>3.45</v>
       </c>
       <c r="AU36">
         <v>5</v>
@@ -8474,25 +8474,25 @@
         <v>1.71</v>
       </c>
       <c r="AN37">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="AO37">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AQ37">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="AR37">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AS37">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT37">
-        <v>2.81</v>
+        <v>2.86</v>
       </c>
       <c r="AU37">
         <v>5</v>
@@ -8680,25 +8680,25 @@
         <v>2.88</v>
       </c>
       <c r="AN38">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO38">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="AP38">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ38">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR38">
-        <v>1.34</v>
+        <v>1.51</v>
       </c>
       <c r="AS38">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AT38">
-        <v>2.34</v>
+        <v>2.59</v>
       </c>
       <c r="AU38">
         <v>6</v>
@@ -8889,19 +8889,19 @@
         <v>0</v>
       </c>
       <c r="AO39">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AP39">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="AQ39">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="AR39">
-        <v>1.46</v>
+        <v>1.16</v>
       </c>
       <c r="AS39">
-        <v>1.25</v>
+        <v>1.55</v>
       </c>
       <c r="AT39">
         <v>2.71</v>
@@ -9092,25 +9092,25 @@
         <v>1.53</v>
       </c>
       <c r="AN40">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AO40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP40">
+        <v>1.6</v>
+      </c>
+      <c r="AQ40">
         <v>1.8</v>
-      </c>
-      <c r="AQ40">
-        <v>1</v>
       </c>
       <c r="AR40">
         <v>1.19</v>
       </c>
       <c r="AS40">
-        <v>1.71</v>
+        <v>1.82</v>
       </c>
       <c r="AT40">
-        <v>2.9</v>
+        <v>3.01</v>
       </c>
       <c r="AU40">
         <v>6</v>
@@ -9298,25 +9298,25 @@
         <v>1.88</v>
       </c>
       <c r="AN41">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AO41">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AP41">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ41">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AR41">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="AS41">
-        <v>1.21</v>
+        <v>1.4</v>
       </c>
       <c r="AT41">
-        <v>2.7</v>
+        <v>2.85</v>
       </c>
       <c r="AU41">
         <v>6</v>
@@ -9504,25 +9504,25 @@
         <v>1.75</v>
       </c>
       <c r="AN42">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="AO42">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="AP42">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AQ42">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR42">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="AS42">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="AT42">
-        <v>3.11</v>
+        <v>3.04</v>
       </c>
       <c r="AU42">
         <v>3</v>
@@ -9713,22 +9713,22 @@
         <v>3</v>
       </c>
       <c r="AO43">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AP43">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="AQ43">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AR43">
         <v>2.07</v>
       </c>
       <c r="AS43">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AT43">
-        <v>3.27</v>
+        <v>3.29</v>
       </c>
       <c r="AU43">
         <v>8</v>
@@ -9916,25 +9916,25 @@
         <v>1.35</v>
       </c>
       <c r="AN44">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AO44">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AP44">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="AQ44">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="AR44">
-        <v>1.16</v>
+        <v>1.04</v>
       </c>
       <c r="AS44">
-        <v>0.6</v>
+        <v>0.98</v>
       </c>
       <c r="AT44">
-        <v>1.76</v>
+        <v>2.02</v>
       </c>
       <c r="AU44">
         <v>6</v>
@@ -10122,25 +10122,25 @@
         <v>1.84</v>
       </c>
       <c r="AN45">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO45">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AP45">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="AQ45">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR45">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AS45">
-        <v>1.68</v>
+        <v>1.47</v>
       </c>
       <c r="AT45">
-        <v>3.55</v>
+        <v>3.22</v>
       </c>
       <c r="AU45">
         <v>8</v>
@@ -10328,25 +10328,25 @@
         <v>1.67</v>
       </c>
       <c r="AN46">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AO46">
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="AQ46">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AR46">
         <v>0.97</v>
       </c>
       <c r="AS46">
-        <v>0.86</v>
+        <v>1.15</v>
       </c>
       <c r="AT46">
-        <v>1.83</v>
+        <v>2.12</v>
       </c>
       <c r="AU46">
         <v>6</v>
@@ -10534,25 +10534,25 @@
         <v>1.3</v>
       </c>
       <c r="AN47">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AO47">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AP47">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ47">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="AR47">
-        <v>1.77</v>
+        <v>1.67</v>
       </c>
       <c r="AS47">
-        <v>1.63</v>
+        <v>1.74</v>
       </c>
       <c r="AT47">
-        <v>3.4</v>
+        <v>3.41</v>
       </c>
       <c r="AU47">
         <v>3</v>
@@ -10743,22 +10743,22 @@
         <v>0</v>
       </c>
       <c r="AO48">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AP48">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="AQ48">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR48">
-        <v>1.34</v>
+        <v>1.17</v>
       </c>
       <c r="AS48">
-        <v>1.42</v>
+        <v>1.55</v>
       </c>
       <c r="AT48">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="AU48">
         <v>6</v>
@@ -10946,25 +10946,25 @@
         <v>1.73</v>
       </c>
       <c r="AN49">
+        <v>1.5</v>
+      </c>
+      <c r="AO49">
         <v>1.67</v>
       </c>
-      <c r="AO49">
-        <v>2</v>
-      </c>
       <c r="AP49">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AQ49">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AR49">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AS49">
-        <v>1.21</v>
+        <v>1.37</v>
       </c>
       <c r="AT49">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="AU49">
         <v>0</v>
@@ -11152,25 +11152,25 @@
         <v>1.15</v>
       </c>
       <c r="AN50">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO50">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AP50">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="AQ50">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AR50">
-        <v>1.24</v>
+        <v>1.07</v>
       </c>
       <c r="AS50">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="AT50">
-        <v>3.31</v>
+        <v>3.13</v>
       </c>
       <c r="AU50">
         <v>3</v>
@@ -11358,25 +11358,25 @@
         <v>1.52</v>
       </c>
       <c r="AN51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO51">
-        <v>0.33</v>
+        <v>1.67</v>
       </c>
       <c r="AP51">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AQ51">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="AR51">
-        <v>1.61</v>
+        <v>1.38</v>
       </c>
       <c r="AS51">
-        <v>1.34</v>
+        <v>1.58</v>
       </c>
       <c r="AT51">
-        <v>2.95</v>
+        <v>2.96</v>
       </c>
       <c r="AU51">
         <v>7</v>
@@ -11564,25 +11564,25 @@
         <v>1.82</v>
       </c>
       <c r="AN52">
-        <v>0.33</v>
+        <v>1.17</v>
       </c>
       <c r="AO52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP52">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ52">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AR52">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="AS52">
-        <v>0.97</v>
+        <v>1.04</v>
       </c>
       <c r="AT52">
-        <v>2.73</v>
+        <v>2.72</v>
       </c>
       <c r="AU52">
         <v>7</v>
@@ -11770,25 +11770,25 @@
         <v>7.5</v>
       </c>
       <c r="AN53">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AO53">
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AQ53">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR53">
-        <v>2.35</v>
+        <v>1.95</v>
       </c>
       <c r="AS53">
-        <v>0.96</v>
+        <v>1.1</v>
       </c>
       <c r="AT53">
-        <v>3.31</v>
+        <v>3.05</v>
       </c>
       <c r="AU53">
         <v>10</v>
@@ -11976,25 +11976,25 @@
         <v>1.56</v>
       </c>
       <c r="AN54">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO54">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AP54">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AQ54">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="AR54">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="AS54">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="AT54">
-        <v>2.84</v>
+        <v>2.87</v>
       </c>
       <c r="AU54">
         <v>3</v>
@@ -12182,25 +12182,25 @@
         <v>1.28</v>
       </c>
       <c r="AN55">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AO55">
-        <v>2.33</v>
+        <v>2.6</v>
       </c>
       <c r="AP55">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ55">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="AR55">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="AS55">
-        <v>1.32</v>
+        <v>1.53</v>
       </c>
       <c r="AT55">
-        <v>2.64</v>
+        <v>2.97</v>
       </c>
       <c r="AU55">
         <v>7</v>
@@ -12388,25 +12388,25 @@
         <v>2.75</v>
       </c>
       <c r="AN56">
+        <v>2.33</v>
+      </c>
+      <c r="AO56">
+        <v>1.83</v>
+      </c>
+      <c r="AP56">
+        <v>2.1</v>
+      </c>
+      <c r="AQ56">
+        <v>1.7</v>
+      </c>
+      <c r="AR56">
+        <v>1.52</v>
+      </c>
+      <c r="AS56">
+        <v>1.48</v>
+      </c>
+      <c r="AT56">
         <v>3</v>
-      </c>
-      <c r="AO56">
-        <v>1.33</v>
-      </c>
-      <c r="AP56">
-        <v>2.6</v>
-      </c>
-      <c r="AQ56">
-        <v>1.4</v>
-      </c>
-      <c r="AR56">
-        <v>1.85</v>
-      </c>
-      <c r="AS56">
-        <v>1.22</v>
-      </c>
-      <c r="AT56">
-        <v>3.07</v>
       </c>
       <c r="AU56">
         <v>7</v>
@@ -12594,25 +12594,25 @@
         <v>1.14</v>
       </c>
       <c r="AN57">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO57">
-        <v>2</v>
+        <v>2.67</v>
       </c>
       <c r="AP57">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="AQ57">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="AR57">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="AS57">
-        <v>1.36</v>
+        <v>2.01</v>
       </c>
       <c r="AT57">
-        <v>3.06</v>
+        <v>3.58</v>
       </c>
       <c r="AU57">
         <v>4</v>
@@ -12800,25 +12800,25 @@
         <v>1.57</v>
       </c>
       <c r="AN58">
-        <v>2.25</v>
+        <v>1.29</v>
       </c>
       <c r="AO58">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="AP58">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="AQ58">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AR58">
-        <v>1.32</v>
+        <v>1.14</v>
       </c>
       <c r="AS58">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="AT58">
-        <v>2.44</v>
+        <v>2.28</v>
       </c>
       <c r="AU58">
         <v>4</v>
@@ -13006,22 +13006,22 @@
         <v>1.49</v>
       </c>
       <c r="AN59">
-        <v>0.5</v>
+        <v>1.14</v>
       </c>
       <c r="AO59">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="AP59">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ59">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AR59">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AS59">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT59">
         <v>3.12</v>
@@ -13212,25 +13212,25 @@
         <v>1.32</v>
       </c>
       <c r="AN60">
-        <v>0.75</v>
+        <v>0.43</v>
       </c>
       <c r="AO60">
-        <v>0.5</v>
+        <v>1.57</v>
       </c>
       <c r="AP60">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="AR60">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AS60">
-        <v>1.47</v>
+        <v>1.62</v>
       </c>
       <c r="AT60">
-        <v>2.91</v>
+        <v>2.97</v>
       </c>
       <c r="AU60">
         <v>8</v>
@@ -13418,25 +13418,25 @@
         <v>2.55</v>
       </c>
       <c r="AN61">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AO61">
-        <v>2</v>
+        <v>2.43</v>
       </c>
       <c r="AP61">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AQ61">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="AR61">
-        <v>2.33</v>
+        <v>1.98</v>
       </c>
       <c r="AS61">
-        <v>1.35</v>
+        <v>1.56</v>
       </c>
       <c r="AT61">
-        <v>3.68</v>
+        <v>3.54</v>
       </c>
       <c r="AU61">
         <v>12</v>
@@ -13624,25 +13624,25 @@
         <v>2.85</v>
       </c>
       <c r="AN62">
-        <v>2</v>
+        <v>1.29</v>
       </c>
       <c r="AO62">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="AP62">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="AQ62">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR62">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="AS62">
-        <v>1.06</v>
+        <v>1.13</v>
       </c>
       <c r="AT62">
-        <v>2.48</v>
+        <v>2.6</v>
       </c>
       <c r="AU62">
         <v>7</v>
@@ -13830,25 +13830,25 @@
         <v>1.04</v>
       </c>
       <c r="AN63">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="AO63">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AP63">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="AQ63">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AR63">
-        <v>1.37</v>
+        <v>1.21</v>
       </c>
       <c r="AS63">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="AT63">
-        <v>3.25</v>
+        <v>3.16</v>
       </c>
       <c r="AU63">
         <v>4</v>
@@ -14036,25 +14036,25 @@
         <v>2.3</v>
       </c>
       <c r="AN64">
-        <v>2.33</v>
+        <v>1.57</v>
       </c>
       <c r="AO64">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AP64">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AQ64">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AR64">
-        <v>1.75</v>
+        <v>1.48</v>
       </c>
       <c r="AS64">
-        <v>0.87</v>
+        <v>0.99</v>
       </c>
       <c r="AT64">
-        <v>2.62</v>
+        <v>2.47</v>
       </c>
       <c r="AU64">
         <v>6</v>
@@ -14242,25 +14242,25 @@
         <v>2.02</v>
       </c>
       <c r="AN65">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="AO65">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="AP65">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ65">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR65">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="AS65">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT65">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="AU65">
         <v>7</v>
@@ -14448,25 +14448,25 @@
         <v>4.4</v>
       </c>
       <c r="AN66">
-        <v>2.33</v>
+        <v>2.75</v>
       </c>
       <c r="AO66">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AP66">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="AQ66">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="AR66">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AS66">
-        <v>1.28</v>
+        <v>1.47</v>
       </c>
       <c r="AT66">
-        <v>3.33</v>
+        <v>3.47</v>
       </c>
       <c r="AU66">
         <v>6</v>
@@ -14654,25 +14654,25 @@
         <v>1.27</v>
       </c>
       <c r="AN67">
-        <v>1.5</v>
+        <v>0.88</v>
       </c>
       <c r="AO67">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AP67">
+        <v>0.8</v>
+      </c>
+      <c r="AQ67">
         <v>1.2</v>
       </c>
-      <c r="AQ67">
-        <v>1.5</v>
-      </c>
       <c r="AR67">
-        <v>1.08</v>
+        <v>0.99</v>
       </c>
       <c r="AS67">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="AT67">
-        <v>2.63</v>
+        <v>2.48</v>
       </c>
       <c r="AU67">
         <v>4</v>
@@ -14860,25 +14860,25 @@
         <v>1.48</v>
       </c>
       <c r="AN68">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AO68">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AP68">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="AQ68">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="AR68">
-        <v>1.23</v>
+        <v>1.11</v>
       </c>
       <c r="AS68">
-        <v>1.24</v>
+        <v>1.39</v>
       </c>
       <c r="AT68">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AU68">
         <v>3</v>
@@ -15066,25 +15066,25 @@
         <v>1.95</v>
       </c>
       <c r="AN69">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AO69">
-        <v>2</v>
+        <v>1.38</v>
       </c>
       <c r="AP69">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AQ69">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR69">
-        <v>1.16</v>
+        <v>1.07</v>
       </c>
       <c r="AS69">
-        <v>1.61</v>
+        <v>1.74</v>
       </c>
       <c r="AT69">
-        <v>2.77</v>
+        <v>2.81</v>
       </c>
       <c r="AU69">
         <v>3</v>
@@ -15272,25 +15272,25 @@
         <v>1.55</v>
       </c>
       <c r="AN70">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AO70">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AQ70">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="AR70">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="AS70">
-        <v>0.89</v>
+        <v>1.15</v>
       </c>
       <c r="AT70">
-        <v>2.42</v>
+        <v>2.62</v>
       </c>
       <c r="AU70">
         <v>8</v>
@@ -15478,25 +15478,25 @@
         <v>3.3</v>
       </c>
       <c r="AN71">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="AO71">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AP71">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="AQ71">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AR71">
-        <v>1.82</v>
+        <v>1.6</v>
       </c>
       <c r="AS71">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT71">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="AU71">
         <v>7</v>
@@ -15684,25 +15684,25 @@
         <v>2.7</v>
       </c>
       <c r="AN72">
-        <v>3</v>
+        <v>2.13</v>
       </c>
       <c r="AO72">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="AP72">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="AQ72">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="AR72">
-        <v>1.84</v>
+        <v>1.5</v>
       </c>
       <c r="AS72">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AT72">
-        <v>3.34</v>
+        <v>2.99</v>
       </c>
       <c r="AU72">
         <v>7</v>
@@ -15890,25 +15890,25 @@
         <v>1.03</v>
       </c>
       <c r="AN73">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AO73">
-        <v>2.33</v>
+        <v>2.75</v>
       </c>
       <c r="AP73">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ73">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="AR73">
-        <v>1.68</v>
+        <v>1.53</v>
       </c>
       <c r="AS73">
-        <v>1.51</v>
+        <v>2.08</v>
       </c>
       <c r="AT73">
-        <v>3.19</v>
+        <v>3.61</v>
       </c>
       <c r="AU73">
         <v>0</v>
@@ -16096,25 +16096,25 @@
         <v>1.51</v>
       </c>
       <c r="AN74">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AO74">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AP74">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ74">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="AR74">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AS74">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT74">
-        <v>2.81</v>
+        <v>2.93</v>
       </c>
       <c r="AU74">
         <v>6</v>
@@ -16302,25 +16302,25 @@
         <v>1.98</v>
       </c>
       <c r="AN75">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AO75">
-        <v>0.25</v>
+        <v>0.78</v>
       </c>
       <c r="AP75">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AQ75">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AR75">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="AS75">
-        <v>0.9</v>
+        <v>1.03</v>
       </c>
       <c r="AT75">
-        <v>2.39</v>
+        <v>2.46</v>
       </c>
       <c r="AU75">
         <v>5</v>
@@ -16508,25 +16508,25 @@
         <v>1.34</v>
       </c>
       <c r="AN76">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="AO76">
-        <v>1</v>
+        <v>1.44</v>
       </c>
       <c r="AP76">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="AQ76">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AR76">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="AS76">
-        <v>0.99</v>
+        <v>1.06</v>
       </c>
       <c r="AT76">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="AU76">
         <v>3</v>
@@ -16714,25 +16714,25 @@
         <v>1.85</v>
       </c>
       <c r="AN77">
+        <v>1.33</v>
+      </c>
+      <c r="AO77">
+        <v>1.56</v>
+      </c>
+      <c r="AP77">
         <v>1.2</v>
       </c>
-      <c r="AO77">
-        <v>1.4</v>
-      </c>
-      <c r="AP77">
-        <v>1</v>
-      </c>
       <c r="AQ77">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AR77">
-        <v>1.45</v>
+        <v>1.59</v>
       </c>
       <c r="AS77">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AT77">
-        <v>2.89</v>
+        <v>3.16</v>
       </c>
       <c r="AU77">
         <v>3</v>
@@ -16920,25 +16920,25 @@
         <v>4.5</v>
       </c>
       <c r="AN78">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AO78">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="AP78">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="AQ78">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR78">
-        <v>1.78</v>
+        <v>1.52</v>
       </c>
       <c r="AS78">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="AT78">
-        <v>2.81</v>
+        <v>2.59</v>
       </c>
       <c r="AU78">
         <v>8</v>
@@ -17126,25 +17126,25 @@
         <v>1.48</v>
       </c>
       <c r="AN79">
-        <v>1.75</v>
+        <v>1.22</v>
       </c>
       <c r="AO79">
-        <v>1</v>
+        <v>1.89</v>
       </c>
       <c r="AP79">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="AQ79">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="AR79">
-        <v>1.49</v>
+        <v>1.37</v>
       </c>
       <c r="AS79">
-        <v>1.47</v>
+        <v>1.62</v>
       </c>
       <c r="AT79">
-        <v>2.96</v>
+        <v>2.99</v>
       </c>
       <c r="AU79">
         <v>4</v>
@@ -17332,25 +17332,25 @@
         <v>1.9</v>
       </c>
       <c r="AN80">
-        <v>2.5</v>
+        <v>1.89</v>
       </c>
       <c r="AO80">
+        <v>1</v>
+      </c>
+      <c r="AP80">
+        <v>1.7</v>
+      </c>
+      <c r="AQ80">
         <v>1.2</v>
       </c>
-      <c r="AP80">
-        <v>2</v>
-      </c>
-      <c r="AQ80">
-        <v>1.5</v>
-      </c>
       <c r="AR80">
-        <v>1.66</v>
+        <v>1.41</v>
       </c>
       <c r="AS80">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="AT80">
-        <v>3.1</v>
+        <v>2.84</v>
       </c>
       <c r="AU80">
         <v>5</v>
@@ -17538,25 +17538,25 @@
         <v>1.89</v>
       </c>
       <c r="AN81">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="AO81">
-        <v>3</v>
+        <v>2.44</v>
       </c>
       <c r="AP81">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AQ81">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AR81">
-        <v>2.43</v>
+        <v>2.1</v>
       </c>
       <c r="AS81">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="AT81">
-        <v>4.4</v>
+        <v>4.09</v>
       </c>
       <c r="AU81">
         <v>6</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -1270,10 +1270,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ2">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1476,10 +1476,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AQ3">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1682,10 +1682,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="AQ4">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1888,10 +1888,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="AQ5">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2094,10 +2094,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="AQ6">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2300,10 +2300,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2506,10 +2506,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AQ8">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ9">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2915,22 +2915,22 @@
         <v>0</v>
       </c>
       <c r="AO10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="AQ10">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR10">
         <v>0.98</v>
       </c>
       <c r="AS10">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>2.71</v>
+        <v>0.98</v>
       </c>
       <c r="AU10">
         <v>3</v>
@@ -3124,19 +3124,19 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="AQ11">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR11">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>2.96</v>
+        <v>0</v>
       </c>
       <c r="AU11">
         <v>3</v>
@@ -3327,22 +3327,22 @@
         <v>0</v>
       </c>
       <c r="AO12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="AQ12">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AR12">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>3.11</v>
+        <v>0</v>
       </c>
       <c r="AU12">
         <v>4</v>
@@ -3530,25 +3530,25 @@
         <v>5.85</v>
       </c>
       <c r="AN13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO13">
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AQ13">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AR13">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>2.98</v>
+        <v>0</v>
       </c>
       <c r="AU13">
         <v>9</v>
@@ -3736,25 +3736,25 @@
         <v>1.78</v>
       </c>
       <c r="AN14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO14">
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ14">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="AR14">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="AS14">
         <v>2.08</v>
       </c>
       <c r="AT14">
-        <v>4.05</v>
+        <v>2.08</v>
       </c>
       <c r="AU14">
         <v>4</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="AO15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ15">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AR15">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="AS15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT15">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="AU15">
         <v>7</v>
@@ -4151,22 +4151,22 @@
         <v>0</v>
       </c>
       <c r="AO16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="AQ16">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AR16">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="AT16">
-        <v>3.52</v>
+        <v>0</v>
       </c>
       <c r="AU16">
         <v>5</v>
@@ -4354,25 +4354,25 @@
         <v>2.7</v>
       </c>
       <c r="AN17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="AQ17">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="AR17">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="AT17">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="AU17">
         <v>8</v>
@@ -4560,25 +4560,25 @@
         <v>1.12</v>
       </c>
       <c r="AN18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ18">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="AR18">
-        <v>1.61</v>
+        <v>1.26</v>
       </c>
       <c r="AS18">
-        <v>2.02</v>
+        <v>1.65</v>
       </c>
       <c r="AT18">
-        <v>3.63</v>
+        <v>2.91</v>
       </c>
       <c r="AU18">
         <v>4</v>
@@ -4769,22 +4769,22 @@
         <v>3</v>
       </c>
       <c r="AO19">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ19">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AR19">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="AS19">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="AT19">
-        <v>2.89</v>
+        <v>1.9</v>
       </c>
       <c r="AU19">
         <v>9</v>
@@ -4972,25 +4972,25 @@
         <v>1.8</v>
       </c>
       <c r="AN20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>1.8</v>
+      </c>
+      <c r="AQ20">
         <v>1.5</v>
       </c>
-      <c r="AP20">
-        <v>1.6</v>
-      </c>
-      <c r="AQ20">
-        <v>1.2</v>
-      </c>
       <c r="AR20">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AS20">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AT20">
-        <v>3.06</v>
+        <v>2.88</v>
       </c>
       <c r="AU20">
         <v>4</v>
@@ -5178,25 +5178,25 @@
         <v>1.17</v>
       </c>
       <c r="AN21">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO21">
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AQ21">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="AR21">
-        <v>1.38</v>
+        <v>1.81</v>
       </c>
       <c r="AS21">
-        <v>1.53</v>
+        <v>1.43</v>
       </c>
       <c r="AT21">
-        <v>2.91</v>
+        <v>3.24</v>
       </c>
       <c r="AU21">
         <v>5</v>
@@ -5384,25 +5384,25 @@
         <v>1.71</v>
       </c>
       <c r="AN22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO22">
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="AR22">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AT22">
-        <v>2.61</v>
+        <v>1.21</v>
       </c>
       <c r="AU22">
         <v>5</v>
@@ -5596,19 +5596,19 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="AQ23">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="AR23">
-        <v>0.92</v>
+        <v>1.33</v>
       </c>
       <c r="AS23">
-        <v>1.12</v>
+        <v>1.03</v>
       </c>
       <c r="AT23">
-        <v>2.04</v>
+        <v>2.36</v>
       </c>
       <c r="AU23">
         <v>5</v>
@@ -5796,25 +5796,25 @@
         <v>1.78</v>
       </c>
       <c r="AN24">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO24">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ24">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="AR24">
-        <v>0.95</v>
+        <v>1.19</v>
       </c>
       <c r="AS24">
-        <v>1.35</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT24">
-        <v>2.3</v>
+        <v>2.13</v>
       </c>
       <c r="AU24">
         <v>4</v>
@@ -6002,25 +6002,25 @@
         <v>1.29</v>
       </c>
       <c r="AN25">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO25">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="AQ25">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AR25">
-        <v>0.82</v>
+        <v>0.93</v>
       </c>
       <c r="AS25">
-        <v>1.35</v>
+        <v>0.95</v>
       </c>
       <c r="AT25">
-        <v>2.17</v>
+        <v>1.88</v>
       </c>
       <c r="AU25">
         <v>3</v>
@@ -6211,22 +6211,22 @@
         <v>0</v>
       </c>
       <c r="AO26">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AP26">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="AQ26">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR26">
-        <v>1.28</v>
+        <v>1.06</v>
       </c>
       <c r="AS26">
-        <v>1.55</v>
+        <v>1.97</v>
       </c>
       <c r="AT26">
-        <v>2.83</v>
+        <v>3.03</v>
       </c>
       <c r="AU26">
         <v>6</v>
@@ -6414,25 +6414,25 @@
         <v>1.1</v>
       </c>
       <c r="AN27">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AO27">
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="AQ27">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AR27">
-        <v>1.45</v>
+        <v>1.73</v>
       </c>
       <c r="AS27">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="AT27">
-        <v>3.51</v>
+        <v>3.75</v>
       </c>
       <c r="AU27">
         <v>6</v>
@@ -6620,25 +6620,25 @@
         <v>4.33</v>
       </c>
       <c r="AN28">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AO28">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AP28">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AQ28">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="AR28">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="AS28">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="AT28">
-        <v>3.1</v>
+        <v>3.88</v>
       </c>
       <c r="AU28">
         <v>9</v>
@@ -6826,25 +6826,25 @@
         <v>1.36</v>
       </c>
       <c r="AN29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO29">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AP29">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="AQ29">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AR29">
-        <v>1.07</v>
+        <v>1.22</v>
       </c>
       <c r="AS29">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT29">
-        <v>2.36</v>
+        <v>2.72</v>
       </c>
       <c r="AU29">
         <v>4</v>
@@ -7032,25 +7032,25 @@
         <v>2.38</v>
       </c>
       <c r="AN30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO30">
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ30">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AR30">
-        <v>1.63</v>
+        <v>1.76</v>
       </c>
       <c r="AS30">
-        <v>1.14</v>
+        <v>0.5</v>
       </c>
       <c r="AT30">
-        <v>2.77</v>
+        <v>2.26</v>
       </c>
       <c r="AU30">
         <v>7</v>
@@ -7238,25 +7238,25 @@
         <v>2.2</v>
       </c>
       <c r="AN31">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="AQ31">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="AR31">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AS31">
-        <v>0.96</v>
+        <v>0.71</v>
       </c>
       <c r="AT31">
-        <v>2.43</v>
+        <v>1.95</v>
       </c>
       <c r="AU31">
         <v>6</v>
@@ -7444,25 +7444,25 @@
         <v>3.1</v>
       </c>
       <c r="AN32">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AO32">
+        <v>3</v>
+      </c>
+      <c r="AP32">
+        <v>2.6</v>
+      </c>
+      <c r="AQ32">
         <v>1.5</v>
       </c>
-      <c r="AP32">
-        <v>2.1</v>
-      </c>
-      <c r="AQ32">
-        <v>1.2</v>
-      </c>
       <c r="AR32">
-        <v>1.38</v>
+        <v>1.64</v>
       </c>
       <c r="AS32">
-        <v>2.15</v>
+        <v>2.37</v>
       </c>
       <c r="AT32">
-        <v>3.53</v>
+        <v>4.01</v>
       </c>
       <c r="AU32">
         <v>8</v>
@@ -7650,25 +7650,25 @@
         <v>2.35</v>
       </c>
       <c r="AN33">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO33">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ33">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AR33">
-        <v>0.84</v>
+        <v>1.08</v>
       </c>
       <c r="AS33">
-        <v>0.88</v>
+        <v>0.61</v>
       </c>
       <c r="AT33">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="AU33">
         <v>6</v>
@@ -7856,25 +7856,25 @@
         <v>5.5</v>
       </c>
       <c r="AN34">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>3</v>
+      </c>
+      <c r="AQ34">
         <v>0.75</v>
       </c>
-      <c r="AP34">
-        <v>2.8</v>
-      </c>
-      <c r="AQ34">
-        <v>0.7</v>
-      </c>
       <c r="AR34">
-        <v>1.82</v>
+        <v>2.27</v>
       </c>
       <c r="AS34">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="AT34">
-        <v>3.22</v>
+        <v>3.66</v>
       </c>
       <c r="AU34">
         <v>7</v>
@@ -8062,25 +8062,25 @@
         <v>1.62</v>
       </c>
       <c r="AN35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO35">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ35">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR35">
-        <v>1.78</v>
+        <v>1.93</v>
       </c>
       <c r="AS35">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="AT35">
-        <v>3.18</v>
+        <v>3.25</v>
       </c>
       <c r="AU35">
         <v>4</v>
@@ -8268,25 +8268,25 @@
         <v>1.15</v>
       </c>
       <c r="AN36">
+        <v>2</v>
+      </c>
+      <c r="AO36">
+        <v>3</v>
+      </c>
+      <c r="AP36">
         <v>1.75</v>
       </c>
-      <c r="AO36">
-        <v>3</v>
-      </c>
-      <c r="AP36">
-        <v>1.7</v>
-      </c>
       <c r="AQ36">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AR36">
-        <v>1.38</v>
+        <v>1.54</v>
       </c>
       <c r="AS36">
         <v>2.07</v>
       </c>
       <c r="AT36">
-        <v>3.45</v>
+        <v>3.61</v>
       </c>
       <c r="AU36">
         <v>5</v>
@@ -8474,25 +8474,25 @@
         <v>1.71</v>
       </c>
       <c r="AN37">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="AO37">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AQ37">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="AR37">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="AS37">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT37">
-        <v>2.86</v>
+        <v>2.81</v>
       </c>
       <c r="AU37">
         <v>5</v>
@@ -8680,25 +8680,25 @@
         <v>2.88</v>
       </c>
       <c r="AN38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO38">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ38">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="AR38">
-        <v>1.51</v>
+        <v>1.34</v>
       </c>
       <c r="AS38">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT38">
-        <v>2.59</v>
+        <v>2.34</v>
       </c>
       <c r="AU38">
         <v>6</v>
@@ -8889,19 +8889,19 @@
         <v>0</v>
       </c>
       <c r="AO39">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AP39">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="AQ39">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="AR39">
-        <v>1.16</v>
+        <v>1.46</v>
       </c>
       <c r="AS39">
-        <v>1.55</v>
+        <v>1.25</v>
       </c>
       <c r="AT39">
         <v>2.71</v>
@@ -9092,25 +9092,25 @@
         <v>1.53</v>
       </c>
       <c r="AN40">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AO40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AQ40">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AR40">
         <v>1.19</v>
       </c>
       <c r="AS40">
-        <v>1.82</v>
+        <v>1.71</v>
       </c>
       <c r="AT40">
-        <v>3.01</v>
+        <v>2.9</v>
       </c>
       <c r="AU40">
         <v>6</v>
@@ -9298,25 +9298,25 @@
         <v>1.88</v>
       </c>
       <c r="AN41">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AO41">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="AQ41">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AR41">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="AS41">
-        <v>1.4</v>
+        <v>1.21</v>
       </c>
       <c r="AT41">
-        <v>2.85</v>
+        <v>2.7</v>
       </c>
       <c r="AU41">
         <v>6</v>
@@ -9504,25 +9504,25 @@
         <v>1.75</v>
       </c>
       <c r="AN42">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="AO42">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="AQ42">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR42">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="AS42">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AT42">
-        <v>3.04</v>
+        <v>3.11</v>
       </c>
       <c r="AU42">
         <v>3</v>
@@ -9713,22 +9713,22 @@
         <v>3</v>
       </c>
       <c r="AO43">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ43">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AR43">
         <v>2.07</v>
       </c>
       <c r="AS43">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT43">
-        <v>3.29</v>
+        <v>3.27</v>
       </c>
       <c r="AU43">
         <v>8</v>
@@ -9916,25 +9916,25 @@
         <v>1.35</v>
       </c>
       <c r="AN44">
+        <v>0</v>
+      </c>
+      <c r="AO44">
+        <v>0</v>
+      </c>
+      <c r="AP44">
+        <v>0.75</v>
+      </c>
+      <c r="AQ44">
+        <v>0.2</v>
+      </c>
+      <c r="AR44">
+        <v>1.16</v>
+      </c>
+      <c r="AS44">
         <v>0.6</v>
       </c>
-      <c r="AO44">
-        <v>1.8</v>
-      </c>
-      <c r="AP44">
-        <v>0.7</v>
-      </c>
-      <c r="AQ44">
-        <v>1.3</v>
-      </c>
-      <c r="AR44">
-        <v>1.04</v>
-      </c>
-      <c r="AS44">
-        <v>0.98</v>
-      </c>
       <c r="AT44">
-        <v>2.02</v>
+        <v>1.76</v>
       </c>
       <c r="AU44">
         <v>6</v>
@@ -10122,25 +10122,25 @@
         <v>1.84</v>
       </c>
       <c r="AN45">
+        <v>3</v>
+      </c>
+      <c r="AO45">
         <v>1.5</v>
       </c>
-      <c r="AO45">
-        <v>1.4</v>
-      </c>
       <c r="AP45">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="AQ45">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR45">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="AS45">
-        <v>1.47</v>
+        <v>1.68</v>
       </c>
       <c r="AT45">
-        <v>3.22</v>
+        <v>3.55</v>
       </c>
       <c r="AU45">
         <v>8</v>
@@ -10328,25 +10328,25 @@
         <v>1.67</v>
       </c>
       <c r="AN46">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AO46">
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="AQ46">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AR46">
         <v>0.97</v>
       </c>
       <c r="AS46">
-        <v>1.15</v>
+        <v>0.86</v>
       </c>
       <c r="AT46">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="AU46">
         <v>6</v>
@@ -10534,25 +10534,25 @@
         <v>1.3</v>
       </c>
       <c r="AN47">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AO47">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ47">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AR47">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AS47">
-        <v>1.74</v>
+        <v>1.63</v>
       </c>
       <c r="AT47">
-        <v>3.41</v>
+        <v>3.4</v>
       </c>
       <c r="AU47">
         <v>3</v>
@@ -10743,22 +10743,22 @@
         <v>0</v>
       </c>
       <c r="AO48">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="AP48">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="AQ48">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR48">
-        <v>1.17</v>
+        <v>1.34</v>
       </c>
       <c r="AS48">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT48">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="AU48">
         <v>6</v>
@@ -10946,25 +10946,25 @@
         <v>1.73</v>
       </c>
       <c r="AN49">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AO49">
+        <v>2</v>
+      </c>
+      <c r="AP49">
+        <v>1.8</v>
+      </c>
+      <c r="AQ49">
         <v>1.67</v>
       </c>
-      <c r="AP49">
-        <v>1.6</v>
-      </c>
-      <c r="AQ49">
-        <v>1.7</v>
-      </c>
       <c r="AR49">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="AS49">
-        <v>1.37</v>
+        <v>1.21</v>
       </c>
       <c r="AT49">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="AU49">
         <v>0</v>
@@ -11152,25 +11152,25 @@
         <v>1.15</v>
       </c>
       <c r="AN50">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO50">
-        <v>2.67</v>
+        <v>3</v>
       </c>
       <c r="AP50">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ50">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AR50">
-        <v>1.07</v>
+        <v>1.24</v>
       </c>
       <c r="AS50">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="AT50">
-        <v>3.13</v>
+        <v>3.31</v>
       </c>
       <c r="AU50">
         <v>3</v>
@@ -11358,25 +11358,25 @@
         <v>1.52</v>
       </c>
       <c r="AN51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO51">
-        <v>1.67</v>
+        <v>0.33</v>
       </c>
       <c r="AP51">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AQ51">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AR51">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="AS51">
-        <v>1.58</v>
+        <v>1.34</v>
       </c>
       <c r="AT51">
-        <v>2.96</v>
+        <v>2.95</v>
       </c>
       <c r="AU51">
         <v>7</v>
@@ -11564,25 +11564,25 @@
         <v>1.82</v>
       </c>
       <c r="AN52">
-        <v>1.17</v>
+        <v>0.33</v>
       </c>
       <c r="AO52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP52">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ52">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AR52">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="AS52">
-        <v>1.04</v>
+        <v>0.97</v>
       </c>
       <c r="AT52">
-        <v>2.72</v>
+        <v>2.73</v>
       </c>
       <c r="AU52">
         <v>7</v>
@@ -11770,25 +11770,25 @@
         <v>7.5</v>
       </c>
       <c r="AN53">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="AO53">
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AQ53">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="AR53">
-        <v>1.95</v>
+        <v>2.35</v>
       </c>
       <c r="AS53">
-        <v>1.1</v>
+        <v>0.96</v>
       </c>
       <c r="AT53">
-        <v>3.05</v>
+        <v>3.31</v>
       </c>
       <c r="AU53">
         <v>10</v>
@@ -11976,25 +11976,25 @@
         <v>1.56</v>
       </c>
       <c r="AN54">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO54">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AP54">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="AQ54">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="AR54">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AS54">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="AT54">
-        <v>2.87</v>
+        <v>2.84</v>
       </c>
       <c r="AU54">
         <v>3</v>
@@ -12182,25 +12182,25 @@
         <v>1.28</v>
       </c>
       <c r="AN55">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="AO55">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AP55">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ55">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="AR55">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
       <c r="AS55">
-        <v>1.53</v>
+        <v>1.32</v>
       </c>
       <c r="AT55">
-        <v>2.97</v>
+        <v>2.64</v>
       </c>
       <c r="AU55">
         <v>7</v>
@@ -12388,25 +12388,25 @@
         <v>2.75</v>
       </c>
       <c r="AN56">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AO56">
-        <v>1.83</v>
+        <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="AQ56">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="AR56">
-        <v>1.52</v>
+        <v>1.85</v>
       </c>
       <c r="AS56">
-        <v>1.48</v>
+        <v>1.22</v>
       </c>
       <c r="AT56">
-        <v>3</v>
+        <v>3.07</v>
       </c>
       <c r="AU56">
         <v>7</v>
@@ -12594,25 +12594,25 @@
         <v>1.14</v>
       </c>
       <c r="AN57">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO57">
-        <v>2.67</v>
+        <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ57">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="AR57">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="AS57">
-        <v>2.01</v>
+        <v>1.36</v>
       </c>
       <c r="AT57">
-        <v>3.58</v>
+        <v>3.06</v>
       </c>
       <c r="AU57">
         <v>4</v>
@@ -12800,25 +12800,25 @@
         <v>1.57</v>
       </c>
       <c r="AN58">
-        <v>1.29</v>
+        <v>2.25</v>
       </c>
       <c r="AO58">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AP58">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ58">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AR58">
-        <v>1.14</v>
+        <v>1.32</v>
       </c>
       <c r="AS58">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="AT58">
-        <v>2.28</v>
+        <v>2.44</v>
       </c>
       <c r="AU58">
         <v>4</v>
@@ -13006,22 +13006,22 @@
         <v>1.49</v>
       </c>
       <c r="AN59">
-        <v>1.14</v>
+        <v>0.5</v>
       </c>
       <c r="AO59">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AP59">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ59">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AR59">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AS59">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="AT59">
         <v>3.12</v>
@@ -13212,25 +13212,25 @@
         <v>1.32</v>
       </c>
       <c r="AN60">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AO60">
-        <v>1.57</v>
+        <v>0.5</v>
       </c>
       <c r="AP60">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="AQ60">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AR60">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AS60">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="AT60">
-        <v>2.97</v>
+        <v>2.91</v>
       </c>
       <c r="AU60">
         <v>8</v>
@@ -13418,25 +13418,25 @@
         <v>2.55</v>
       </c>
       <c r="AN61">
-        <v>2.71</v>
+        <v>3</v>
       </c>
       <c r="AO61">
-        <v>2.43</v>
+        <v>2</v>
       </c>
       <c r="AP61">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AQ61">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="AR61">
-        <v>1.98</v>
+        <v>2.33</v>
       </c>
       <c r="AS61">
-        <v>1.56</v>
+        <v>1.35</v>
       </c>
       <c r="AT61">
-        <v>3.54</v>
+        <v>3.68</v>
       </c>
       <c r="AU61">
         <v>12</v>
@@ -13624,25 +13624,25 @@
         <v>2.85</v>
       </c>
       <c r="AN62">
-        <v>1.29</v>
+        <v>2</v>
       </c>
       <c r="AO62">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AP62">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ62">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="AR62">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AS62">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT62">
-        <v>2.6</v>
+        <v>2.48</v>
       </c>
       <c r="AU62">
         <v>7</v>
@@ -13830,25 +13830,25 @@
         <v>1.04</v>
       </c>
       <c r="AN63">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AO63">
-        <v>2.71</v>
+        <v>3</v>
       </c>
       <c r="AP63">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="AQ63">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AR63">
-        <v>1.21</v>
+        <v>1.37</v>
       </c>
       <c r="AS63">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="AT63">
-        <v>3.16</v>
+        <v>3.25</v>
       </c>
       <c r="AU63">
         <v>4</v>
@@ -14036,25 +14036,25 @@
         <v>2.3</v>
       </c>
       <c r="AN64">
-        <v>1.57</v>
+        <v>2.33</v>
       </c>
       <c r="AO64">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AP64">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AQ64">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AR64">
-        <v>1.48</v>
+        <v>1.75</v>
       </c>
       <c r="AS64">
-        <v>0.99</v>
+        <v>0.87</v>
       </c>
       <c r="AT64">
-        <v>2.47</v>
+        <v>2.62</v>
       </c>
       <c r="AU64">
         <v>6</v>
@@ -14242,25 +14242,25 @@
         <v>2.02</v>
       </c>
       <c r="AN65">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="AO65">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="AP65">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ65">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR65">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AS65">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AT65">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="AU65">
         <v>7</v>
@@ -14448,25 +14448,25 @@
         <v>4.4</v>
       </c>
       <c r="AN66">
-        <v>2.75</v>
+        <v>2.33</v>
       </c>
       <c r="AO66">
+        <v>1</v>
+      </c>
+      <c r="AP66">
         <v>1.75</v>
       </c>
-      <c r="AP66">
-        <v>2.2</v>
-      </c>
       <c r="AQ66">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="AR66">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AS66">
-        <v>1.47</v>
+        <v>1.28</v>
       </c>
       <c r="AT66">
-        <v>3.47</v>
+        <v>3.33</v>
       </c>
       <c r="AU66">
         <v>6</v>
@@ -14654,25 +14654,25 @@
         <v>1.27</v>
       </c>
       <c r="AN67">
-        <v>0.88</v>
+        <v>1.5</v>
       </c>
       <c r="AO67">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AP67">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="AQ67">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR67">
-        <v>0.99</v>
+        <v>1.08</v>
       </c>
       <c r="AS67">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="AT67">
-        <v>2.48</v>
+        <v>2.63</v>
       </c>
       <c r="AU67">
         <v>4</v>
@@ -14860,25 +14860,25 @@
         <v>1.48</v>
       </c>
       <c r="AN68">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AO68">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="AP68">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="AQ68">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="AR68">
-        <v>1.11</v>
+        <v>1.23</v>
       </c>
       <c r="AS68">
-        <v>1.39</v>
+        <v>1.24</v>
       </c>
       <c r="AT68">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="AU68">
         <v>3</v>
@@ -15066,25 +15066,25 @@
         <v>1.95</v>
       </c>
       <c r="AN69">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AO69">
-        <v>1.38</v>
+        <v>2</v>
       </c>
       <c r="AP69">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AQ69">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR69">
-        <v>1.07</v>
+        <v>1.16</v>
       </c>
       <c r="AS69">
-        <v>1.74</v>
+        <v>1.61</v>
       </c>
       <c r="AT69">
-        <v>2.81</v>
+        <v>2.77</v>
       </c>
       <c r="AU69">
         <v>3</v>
@@ -15272,25 +15272,25 @@
         <v>1.55</v>
       </c>
       <c r="AN70">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AO70">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP70">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AQ70">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="AR70">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="AS70">
-        <v>1.15</v>
+        <v>0.89</v>
       </c>
       <c r="AT70">
-        <v>2.62</v>
+        <v>2.42</v>
       </c>
       <c r="AU70">
         <v>8</v>
@@ -15478,25 +15478,25 @@
         <v>3.3</v>
       </c>
       <c r="AN71">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="AO71">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AP71">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="AQ71">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AR71">
-        <v>1.6</v>
+        <v>1.82</v>
       </c>
       <c r="AS71">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AT71">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="AU71">
         <v>7</v>
@@ -15684,25 +15684,25 @@
         <v>2.7</v>
       </c>
       <c r="AN72">
-        <v>2.13</v>
+        <v>3</v>
       </c>
       <c r="AO72">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="AP72">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="AQ72">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="AR72">
+        <v>1.84</v>
+      </c>
+      <c r="AS72">
         <v>1.5</v>
       </c>
-      <c r="AS72">
-        <v>1.49</v>
-      </c>
       <c r="AT72">
-        <v>2.99</v>
+        <v>3.34</v>
       </c>
       <c r="AU72">
         <v>7</v>
@@ -15890,25 +15890,25 @@
         <v>1.03</v>
       </c>
       <c r="AN73">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AO73">
-        <v>2.75</v>
+        <v>2.33</v>
       </c>
       <c r="AP73">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="AQ73">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="AR73">
-        <v>1.53</v>
+        <v>1.68</v>
       </c>
       <c r="AS73">
-        <v>2.08</v>
+        <v>1.51</v>
       </c>
       <c r="AT73">
-        <v>3.61</v>
+        <v>3.19</v>
       </c>
       <c r="AU73">
         <v>0</v>
@@ -16096,25 +16096,25 @@
         <v>1.51</v>
       </c>
       <c r="AN74">
-        <v>1.22</v>
+        <v>1</v>
       </c>
       <c r="AO74">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AP74">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ74">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="AR74">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="AS74">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT74">
-        <v>2.93</v>
+        <v>2.81</v>
       </c>
       <c r="AU74">
         <v>6</v>
@@ -16302,25 +16302,25 @@
         <v>1.98</v>
       </c>
       <c r="AN75">
+        <v>0.6</v>
+      </c>
+      <c r="AO75">
+        <v>0.25</v>
+      </c>
+      <c r="AP75">
         <v>0.67</v>
       </c>
-      <c r="AO75">
-        <v>0.78</v>
-      </c>
-      <c r="AP75">
-        <v>0.7</v>
-      </c>
       <c r="AQ75">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AR75">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="AS75">
-        <v>1.03</v>
+        <v>0.9</v>
       </c>
       <c r="AT75">
-        <v>2.46</v>
+        <v>2.39</v>
       </c>
       <c r="AU75">
         <v>5</v>
@@ -16508,25 +16508,25 @@
         <v>1.34</v>
       </c>
       <c r="AN76">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AO76">
-        <v>1.44</v>
+        <v>1</v>
       </c>
       <c r="AP76">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="AQ76">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AR76">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="AS76">
-        <v>1.06</v>
+        <v>0.99</v>
       </c>
       <c r="AT76">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AU76">
         <v>3</v>
@@ -16714,25 +16714,25 @@
         <v>1.85</v>
       </c>
       <c r="AN77">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AO77">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AP77">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ77">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AR77">
-        <v>1.59</v>
+        <v>1.45</v>
       </c>
       <c r="AS77">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AT77">
-        <v>3.16</v>
+        <v>2.89</v>
       </c>
       <c r="AU77">
         <v>3</v>
@@ -16920,25 +16920,25 @@
         <v>4.5</v>
       </c>
       <c r="AN78">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AO78">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AP78">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="AQ78">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="AR78">
-        <v>1.52</v>
+        <v>1.78</v>
       </c>
       <c r="AS78">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AT78">
-        <v>2.59</v>
+        <v>2.81</v>
       </c>
       <c r="AU78">
         <v>8</v>
@@ -17126,25 +17126,25 @@
         <v>1.48</v>
       </c>
       <c r="AN79">
-        <v>1.22</v>
+        <v>1.75</v>
       </c>
       <c r="AO79">
-        <v>1.89</v>
+        <v>1</v>
       </c>
       <c r="AP79">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ79">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AR79">
-        <v>1.37</v>
+        <v>1.49</v>
       </c>
       <c r="AS79">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="AT79">
-        <v>2.99</v>
+        <v>2.96</v>
       </c>
       <c r="AU79">
         <v>4</v>
@@ -17332,25 +17332,25 @@
         <v>1.9</v>
       </c>
       <c r="AN80">
-        <v>1.89</v>
+        <v>2.5</v>
       </c>
       <c r="AO80">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AP80">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AQ80">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR80">
-        <v>1.41</v>
+        <v>1.66</v>
       </c>
       <c r="AS80">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="AT80">
-        <v>2.84</v>
+        <v>3.1</v>
       </c>
       <c r="AU80">
         <v>5</v>
@@ -17538,25 +17538,25 @@
         <v>1.89</v>
       </c>
       <c r="AN81">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="AO81">
-        <v>2.44</v>
+        <v>3</v>
       </c>
       <c r="AP81">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AQ81">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AR81">
-        <v>2.1</v>
+        <v>2.43</v>
       </c>
       <c r="AS81">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="AT81">
-        <v>4.09</v>
+        <v>4.4</v>
       </c>
       <c r="AU81">
         <v>6</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="190">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -442,15 +442,21 @@
     <t>['2', '22']</t>
   </si>
   <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['87']</t>
+  </si>
+  <si>
+    <t>['64', '67']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
     <t>['56', '71']</t>
   </si>
   <si>
-    <t>['90+3']</t>
-  </si>
-  <si>
     <t>['19', '30', '68']</t>
   </si>
   <si>
@@ -550,9 +556,6 @@
     <t>['86']</t>
   </si>
   <si>
-    <t>['87']</t>
-  </si>
-  <si>
     <t>['43']</t>
   </si>
   <si>
@@ -572,6 +575,15 @@
   </si>
   <si>
     <t>['65']</t>
+  </si>
+  <si>
+    <t>['13']</t>
+  </si>
+  <si>
+    <t>['5', '43', '89']</t>
+  </si>
+  <si>
+    <t>['38']</t>
   </si>
 </sst>
 </file>
@@ -933,7 +945,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP81"/>
+  <dimension ref="A1:BP84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1192,7 +1204,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q2">
         <v>1.53</v>
@@ -1270,10 +1282,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="AQ2">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1476,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AQ3">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1604,7 +1616,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -1682,10 +1694,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="AQ4">
-        <v>1.4</v>
+        <v>1.64</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1810,7 +1822,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -1888,10 +1900,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>1.64</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2016,7 +2028,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2094,10 +2106,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
-        <v>1.6</v>
+        <v>2.18</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2222,7 +2234,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2300,10 +2312,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ7">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2506,10 +2518,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AQ8">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2712,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ9">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2915,22 +2927,22 @@
         <v>0</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP10">
+        <v>1</v>
+      </c>
+      <c r="AQ10">
         <v>1.2</v>
-      </c>
-      <c r="AQ10">
-        <v>1.5</v>
       </c>
       <c r="AR10">
         <v>0.98</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AT10">
-        <v>0.98</v>
+        <v>2.71</v>
       </c>
       <c r="AU10">
         <v>3</v>
@@ -3046,7 +3058,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q11">
         <v>2.85</v>
@@ -3124,19 +3136,19 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.75</v>
+        <v>0.64</v>
       </c>
       <c r="AQ11">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="AU11">
         <v>3</v>
@@ -3252,7 +3264,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3327,22 +3339,22 @@
         <v>0</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP12">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AQ12">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>3.11</v>
       </c>
       <c r="AU12">
         <v>4</v>
@@ -3530,25 +3542,25 @@
         <v>5.85</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO13">
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AQ13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="AU13">
         <v>9</v>
@@ -3664,7 +3676,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -3736,25 +3748,25 @@
         <v>1.78</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO14">
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ14">
-        <v>1.4</v>
+        <v>1.64</v>
       </c>
       <c r="AR14">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AS14">
         <v>2.08</v>
       </c>
       <c r="AT14">
-        <v>2.08</v>
+        <v>4.05</v>
       </c>
       <c r="AU14">
         <v>4</v>
@@ -3945,22 +3957,22 @@
         <v>0</v>
       </c>
       <c r="AO15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP15">
+        <v>1.2</v>
+      </c>
+      <c r="AQ15">
         <v>1.6</v>
       </c>
-      <c r="AQ15">
-        <v>1.4</v>
-      </c>
       <c r="AR15">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AS15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT15">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AU15">
         <v>7</v>
@@ -4151,22 +4163,22 @@
         <v>0</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP16">
-        <v>3</v>
+        <v>1.64</v>
       </c>
       <c r="AQ16">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AR16">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AS16">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AT16">
-        <v>0</v>
+        <v>3.52</v>
       </c>
       <c r="AU16">
         <v>5</v>
@@ -4354,25 +4366,25 @@
         <v>2.7</v>
       </c>
       <c r="AN17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP17">
-        <v>2.6</v>
+        <v>2.18</v>
       </c>
       <c r="AQ17">
-        <v>0.2</v>
+        <v>1.27</v>
       </c>
       <c r="AR17">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AS17">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AT17">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AU17">
         <v>8</v>
@@ -4488,7 +4500,7 @@
         <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q18">
         <v>5.4</v>
@@ -4560,25 +4572,25 @@
         <v>1.12</v>
       </c>
       <c r="AN18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP18">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ18">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="AR18">
-        <v>1.26</v>
+        <v>1.61</v>
       </c>
       <c r="AS18">
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="AT18">
-        <v>2.91</v>
+        <v>3.63</v>
       </c>
       <c r="AU18">
         <v>4</v>
@@ -4769,22 +4781,22 @@
         <v>3</v>
       </c>
       <c r="AO19">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP19">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="AQ19">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AR19">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="AS19">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="AT19">
-        <v>1.9</v>
+        <v>2.89</v>
       </c>
       <c r="AU19">
         <v>9</v>
@@ -4972,25 +4984,25 @@
         <v>1.8</v>
       </c>
       <c r="AN20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO20">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP20">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AQ20">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR20">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AS20">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="AT20">
-        <v>2.88</v>
+        <v>3.06</v>
       </c>
       <c r="AU20">
         <v>4</v>
@@ -5178,25 +5190,25 @@
         <v>1.17</v>
       </c>
       <c r="AN21">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO21">
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AQ21">
-        <v>1.6</v>
+        <v>2.18</v>
       </c>
       <c r="AR21">
-        <v>1.81</v>
+        <v>1.38</v>
       </c>
       <c r="AS21">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT21">
-        <v>3.24</v>
+        <v>2.91</v>
       </c>
       <c r="AU21">
         <v>5</v>
@@ -5384,25 +5396,25 @@
         <v>1.71</v>
       </c>
       <c r="AN22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO22">
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="AQ22">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="AR22">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AS22">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT22">
-        <v>1.21</v>
+        <v>2.61</v>
       </c>
       <c r="AU22">
         <v>5</v>
@@ -5518,7 +5530,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q23">
         <v>2.6</v>
@@ -5596,19 +5608,19 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="AQ23">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="AR23">
-        <v>1.33</v>
+        <v>0.92</v>
       </c>
       <c r="AS23">
-        <v>1.03</v>
+        <v>1.12</v>
       </c>
       <c r="AT23">
-        <v>2.36</v>
+        <v>2.04</v>
       </c>
       <c r="AU23">
         <v>5</v>
@@ -5724,7 +5736,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5796,25 +5808,25 @@
         <v>1.78</v>
       </c>
       <c r="AN24">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO24">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP24">
-        <v>2.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ24">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="AR24">
-        <v>1.19</v>
+        <v>0.95</v>
       </c>
       <c r="AS24">
-        <v>0.9399999999999999</v>
+        <v>1.35</v>
       </c>
       <c r="AT24">
-        <v>2.13</v>
+        <v>2.3</v>
       </c>
       <c r="AU24">
         <v>4</v>
@@ -5930,7 +5942,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q25">
         <v>1.06</v>
@@ -6002,25 +6014,25 @@
         <v>1.29</v>
       </c>
       <c r="AN25">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO25">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AP25">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ25">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AR25">
-        <v>0.93</v>
+        <v>0.82</v>
       </c>
       <c r="AS25">
-        <v>0.95</v>
+        <v>1.35</v>
       </c>
       <c r="AT25">
-        <v>1.88</v>
+        <v>2.17</v>
       </c>
       <c r="AU25">
         <v>3</v>
@@ -6136,7 +6148,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q26">
         <v>3.2</v>
@@ -6211,22 +6223,22 @@
         <v>0</v>
       </c>
       <c r="AO26">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AP26">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AQ26">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR26">
-        <v>1.06</v>
+        <v>1.28</v>
       </c>
       <c r="AS26">
-        <v>1.97</v>
+        <v>1.55</v>
       </c>
       <c r="AT26">
-        <v>3.03</v>
+        <v>2.83</v>
       </c>
       <c r="AU26">
         <v>6</v>
@@ -6342,7 +6354,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q27">
         <v>6.23</v>
@@ -6414,25 +6426,25 @@
         <v>1.1</v>
       </c>
       <c r="AN27">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AO27">
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ27">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AR27">
-        <v>1.73</v>
+        <v>1.45</v>
       </c>
       <c r="AS27">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="AT27">
-        <v>3.75</v>
+        <v>3.51</v>
       </c>
       <c r="AU27">
         <v>6</v>
@@ -6620,25 +6632,25 @@
         <v>4.33</v>
       </c>
       <c r="AN28">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AO28">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AP28">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AQ28">
+        <v>1.64</v>
+      </c>
+      <c r="AR28">
+        <v>1.7</v>
+      </c>
+      <c r="AS28">
         <v>1.4</v>
       </c>
-      <c r="AR28">
-        <v>2.4</v>
-      </c>
-      <c r="AS28">
-        <v>1.48</v>
-      </c>
       <c r="AT28">
-        <v>3.88</v>
+        <v>3.1</v>
       </c>
       <c r="AU28">
         <v>9</v>
@@ -6826,25 +6838,25 @@
         <v>1.36</v>
       </c>
       <c r="AN29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO29">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AP29">
-        <v>0.75</v>
+        <v>0.64</v>
       </c>
       <c r="AQ29">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AR29">
-        <v>1.22</v>
+        <v>1.07</v>
       </c>
       <c r="AS29">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT29">
-        <v>2.72</v>
+        <v>2.36</v>
       </c>
       <c r="AU29">
         <v>4</v>
@@ -7032,25 +7044,25 @@
         <v>2.38</v>
       </c>
       <c r="AN30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO30">
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="AQ30">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AR30">
-        <v>1.76</v>
+        <v>1.63</v>
       </c>
       <c r="AS30">
-        <v>0.5</v>
+        <v>1.14</v>
       </c>
       <c r="AT30">
-        <v>2.26</v>
+        <v>2.77</v>
       </c>
       <c r="AU30">
         <v>7</v>
@@ -7238,25 +7250,25 @@
         <v>2.2</v>
       </c>
       <c r="AN31">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP31">
-        <v>3</v>
+        <v>1.64</v>
       </c>
       <c r="AQ31">
-        <v>0.2</v>
+        <v>1.27</v>
       </c>
       <c r="AR31">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="AS31">
-        <v>0.71</v>
+        <v>0.96</v>
       </c>
       <c r="AT31">
-        <v>1.95</v>
+        <v>2.43</v>
       </c>
       <c r="AU31">
         <v>6</v>
@@ -7444,25 +7456,25 @@
         <v>3.1</v>
       </c>
       <c r="AN32">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AO32">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AP32">
-        <v>2.6</v>
+        <v>2.18</v>
       </c>
       <c r="AQ32">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR32">
-        <v>1.64</v>
+        <v>1.38</v>
       </c>
       <c r="AS32">
-        <v>2.37</v>
+        <v>2.15</v>
       </c>
       <c r="AT32">
-        <v>4.01</v>
+        <v>3.53</v>
       </c>
       <c r="AU32">
         <v>8</v>
@@ -7650,25 +7662,25 @@
         <v>2.35</v>
       </c>
       <c r="AN33">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO33">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AP33">
-        <v>2.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ33">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AR33">
-        <v>1.08</v>
+        <v>0.84</v>
       </c>
       <c r="AS33">
-        <v>0.61</v>
+        <v>0.88</v>
       </c>
       <c r="AT33">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="AU33">
         <v>6</v>
@@ -7784,7 +7796,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q34">
         <v>1.45</v>
@@ -7856,25 +7868,25 @@
         <v>5.5</v>
       </c>
       <c r="AN34">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AO34">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AP34">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AQ34">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="AR34">
-        <v>2.27</v>
+        <v>1.82</v>
       </c>
       <c r="AS34">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="AT34">
-        <v>3.66</v>
+        <v>3.22</v>
       </c>
       <c r="AU34">
         <v>7</v>
@@ -7990,7 +8002,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q35">
         <v>2.84</v>
@@ -8062,25 +8074,25 @@
         <v>1.62</v>
       </c>
       <c r="AN35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO35">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP35">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ35">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR35">
-        <v>1.93</v>
+        <v>1.78</v>
       </c>
       <c r="AS35">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AT35">
-        <v>3.25</v>
+        <v>3.18</v>
       </c>
       <c r="AU35">
         <v>4</v>
@@ -8196,7 +8208,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q36">
         <v>5.63</v>
@@ -8268,25 +8280,25 @@
         <v>1.15</v>
       </c>
       <c r="AN36">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AO36">
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AQ36">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AR36">
-        <v>1.54</v>
+        <v>1.38</v>
       </c>
       <c r="AS36">
         <v>2.07</v>
       </c>
       <c r="AT36">
-        <v>3.61</v>
+        <v>3.45</v>
       </c>
       <c r="AU36">
         <v>5</v>
@@ -8402,7 +8414,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q37">
         <v>2.58</v>
@@ -8474,25 +8486,25 @@
         <v>1.71</v>
       </c>
       <c r="AN37">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="AO37">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="AQ37">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="AR37">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AS37">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT37">
-        <v>2.81</v>
+        <v>2.86</v>
       </c>
       <c r="AU37">
         <v>5</v>
@@ -8680,25 +8692,25 @@
         <v>2.88</v>
       </c>
       <c r="AN38">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO38">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="AP38">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ38">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="AR38">
-        <v>1.34</v>
+        <v>1.51</v>
       </c>
       <c r="AS38">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AT38">
-        <v>2.34</v>
+        <v>2.59</v>
       </c>
       <c r="AU38">
         <v>6</v>
@@ -8814,7 +8826,7 @@
         <v>88</v>
       </c>
       <c r="P39" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q39">
         <v>4.75</v>
@@ -8889,19 +8901,19 @@
         <v>0</v>
       </c>
       <c r="AO39">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AP39">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="AQ39">
-        <v>1.6</v>
+        <v>2.18</v>
       </c>
       <c r="AR39">
-        <v>1.46</v>
+        <v>1.16</v>
       </c>
       <c r="AS39">
-        <v>1.25</v>
+        <v>1.55</v>
       </c>
       <c r="AT39">
         <v>2.71</v>
@@ -9092,25 +9104,25 @@
         <v>1.53</v>
       </c>
       <c r="AN40">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AO40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP40">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>1.64</v>
       </c>
       <c r="AR40">
         <v>1.19</v>
       </c>
       <c r="AS40">
-        <v>1.71</v>
+        <v>1.82</v>
       </c>
       <c r="AT40">
-        <v>2.9</v>
+        <v>3.01</v>
       </c>
       <c r="AU40">
         <v>6</v>
@@ -9226,7 +9238,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9298,25 +9310,25 @@
         <v>1.88</v>
       </c>
       <c r="AN41">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AO41">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AP41">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ41">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AR41">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="AS41">
-        <v>1.21</v>
+        <v>1.4</v>
       </c>
       <c r="AT41">
-        <v>2.7</v>
+        <v>2.85</v>
       </c>
       <c r="AU41">
         <v>6</v>
@@ -9432,7 +9444,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q42">
         <v>2.61</v>
@@ -9504,25 +9516,25 @@
         <v>1.75</v>
       </c>
       <c r="AN42">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="AO42">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="AP42">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AQ42">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR42">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="AS42">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="AT42">
-        <v>3.11</v>
+        <v>3.04</v>
       </c>
       <c r="AU42">
         <v>3</v>
@@ -9638,7 +9650,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q43">
         <v>1.69</v>
@@ -9713,22 +9725,22 @@
         <v>3</v>
       </c>
       <c r="AO43">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AP43">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="AQ43">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AR43">
         <v>2.07</v>
       </c>
       <c r="AS43">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AT43">
-        <v>3.27</v>
+        <v>3.29</v>
       </c>
       <c r="AU43">
         <v>8</v>
@@ -9916,25 +9928,25 @@
         <v>1.35</v>
       </c>
       <c r="AN44">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AO44">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AP44">
-        <v>0.75</v>
+        <v>0.64</v>
       </c>
       <c r="AQ44">
-        <v>0.2</v>
+        <v>1.27</v>
       </c>
       <c r="AR44">
-        <v>1.16</v>
+        <v>1.04</v>
       </c>
       <c r="AS44">
-        <v>0.6</v>
+        <v>0.98</v>
       </c>
       <c r="AT44">
-        <v>1.76</v>
+        <v>2.02</v>
       </c>
       <c r="AU44">
         <v>6</v>
@@ -10122,25 +10134,25 @@
         <v>1.84</v>
       </c>
       <c r="AN45">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO45">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AP45">
-        <v>3</v>
+        <v>1.64</v>
       </c>
       <c r="AQ45">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR45">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AS45">
-        <v>1.68</v>
+        <v>1.47</v>
       </c>
       <c r="AT45">
-        <v>3.55</v>
+        <v>3.22</v>
       </c>
       <c r="AU45">
         <v>8</v>
@@ -10328,25 +10340,25 @@
         <v>1.67</v>
       </c>
       <c r="AN46">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AO46">
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ46">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AR46">
         <v>0.97</v>
       </c>
       <c r="AS46">
-        <v>0.86</v>
+        <v>1.15</v>
       </c>
       <c r="AT46">
-        <v>1.83</v>
+        <v>2.12</v>
       </c>
       <c r="AU46">
         <v>6</v>
@@ -10534,25 +10546,25 @@
         <v>1.3</v>
       </c>
       <c r="AN47">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AO47">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AP47">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ47">
-        <v>1</v>
+        <v>1.64</v>
       </c>
       <c r="AR47">
-        <v>1.77</v>
+        <v>1.67</v>
       </c>
       <c r="AS47">
-        <v>1.63</v>
+        <v>1.74</v>
       </c>
       <c r="AT47">
-        <v>3.4</v>
+        <v>3.41</v>
       </c>
       <c r="AU47">
         <v>3</v>
@@ -10743,22 +10755,22 @@
         <v>0</v>
       </c>
       <c r="AO48">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AP48">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="AQ48">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR48">
-        <v>1.34</v>
+        <v>1.17</v>
       </c>
       <c r="AS48">
-        <v>1.42</v>
+        <v>1.55</v>
       </c>
       <c r="AT48">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="AU48">
         <v>6</v>
@@ -10946,25 +10958,25 @@
         <v>1.73</v>
       </c>
       <c r="AN49">
+        <v>1.5</v>
+      </c>
+      <c r="AO49">
         <v>1.67</v>
       </c>
-      <c r="AO49">
-        <v>2</v>
-      </c>
       <c r="AP49">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AQ49">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AR49">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AS49">
-        <v>1.21</v>
+        <v>1.37</v>
       </c>
       <c r="AT49">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="AU49">
         <v>0</v>
@@ -11080,7 +11092,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q50">
         <v>5.1</v>
@@ -11152,25 +11164,25 @@
         <v>1.15</v>
       </c>
       <c r="AN50">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO50">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AP50">
-        <v>2.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ50">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AR50">
-        <v>1.24</v>
+        <v>1.07</v>
       </c>
       <c r="AS50">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="AT50">
-        <v>3.31</v>
+        <v>3.13</v>
       </c>
       <c r="AU50">
         <v>3</v>
@@ -11286,7 +11298,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -11358,25 +11370,25 @@
         <v>1.52</v>
       </c>
       <c r="AN51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO51">
-        <v>0.33</v>
+        <v>1.67</v>
       </c>
       <c r="AP51">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="AQ51">
-        <v>1</v>
+        <v>1.64</v>
       </c>
       <c r="AR51">
-        <v>1.61</v>
+        <v>1.38</v>
       </c>
       <c r="AS51">
-        <v>1.34</v>
+        <v>1.58</v>
       </c>
       <c r="AT51">
-        <v>2.95</v>
+        <v>2.96</v>
       </c>
       <c r="AU51">
         <v>7</v>
@@ -11564,25 +11576,25 @@
         <v>1.82</v>
       </c>
       <c r="AN52">
-        <v>0.33</v>
+        <v>1.17</v>
       </c>
       <c r="AO52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP52">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ52">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AR52">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="AS52">
-        <v>0.97</v>
+        <v>1.04</v>
       </c>
       <c r="AT52">
-        <v>2.73</v>
+        <v>2.72</v>
       </c>
       <c r="AU52">
         <v>7</v>
@@ -11770,25 +11782,25 @@
         <v>7.5</v>
       </c>
       <c r="AN53">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AO53">
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AQ53">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="AR53">
-        <v>2.35</v>
+        <v>1.95</v>
       </c>
       <c r="AS53">
-        <v>0.96</v>
+        <v>1.1</v>
       </c>
       <c r="AT53">
-        <v>3.31</v>
+        <v>3.05</v>
       </c>
       <c r="AU53">
         <v>10</v>
@@ -11904,7 +11916,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11976,25 +11988,25 @@
         <v>1.56</v>
       </c>
       <c r="AN54">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO54">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AP54">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AQ54">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="AR54">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="AS54">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="AT54">
-        <v>2.84</v>
+        <v>2.87</v>
       </c>
       <c r="AU54">
         <v>3</v>
@@ -12110,7 +12122,7 @@
         <v>93</v>
       </c>
       <c r="P55" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q55">
         <v>3.85</v>
@@ -12182,25 +12194,25 @@
         <v>1.28</v>
       </c>
       <c r="AN55">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AO55">
-        <v>2.33</v>
+        <v>2.6</v>
       </c>
       <c r="AP55">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ55">
-        <v>1.6</v>
+        <v>2.18</v>
       </c>
       <c r="AR55">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="AS55">
-        <v>1.32</v>
+        <v>1.53</v>
       </c>
       <c r="AT55">
-        <v>2.64</v>
+        <v>2.97</v>
       </c>
       <c r="AU55">
         <v>7</v>
@@ -12316,7 +12328,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q56">
         <v>1.85</v>
@@ -12388,25 +12400,25 @@
         <v>2.75</v>
       </c>
       <c r="AN56">
+        <v>2.33</v>
+      </c>
+      <c r="AO56">
+        <v>1.83</v>
+      </c>
+      <c r="AP56">
+        <v>2.18</v>
+      </c>
+      <c r="AQ56">
+        <v>1.64</v>
+      </c>
+      <c r="AR56">
+        <v>1.52</v>
+      </c>
+      <c r="AS56">
+        <v>1.48</v>
+      </c>
+      <c r="AT56">
         <v>3</v>
-      </c>
-      <c r="AO56">
-        <v>1.33</v>
-      </c>
-      <c r="AP56">
-        <v>2.6</v>
-      </c>
-      <c r="AQ56">
-        <v>1.4</v>
-      </c>
-      <c r="AR56">
-        <v>1.85</v>
-      </c>
-      <c r="AS56">
-        <v>1.22</v>
-      </c>
-      <c r="AT56">
-        <v>3.07</v>
       </c>
       <c r="AU56">
         <v>7</v>
@@ -12522,7 +12534,7 @@
         <v>88</v>
       </c>
       <c r="P57" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q57">
         <v>5.88</v>
@@ -12594,25 +12606,25 @@
         <v>1.14</v>
       </c>
       <c r="AN57">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO57">
-        <v>2</v>
+        <v>2.67</v>
       </c>
       <c r="AP57">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="AQ57">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="AR57">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="AS57">
-        <v>1.36</v>
+        <v>2.01</v>
       </c>
       <c r="AT57">
-        <v>3.06</v>
+        <v>3.58</v>
       </c>
       <c r="AU57">
         <v>4</v>
@@ -12800,25 +12812,25 @@
         <v>1.57</v>
       </c>
       <c r="AN58">
-        <v>2.25</v>
+        <v>1.29</v>
       </c>
       <c r="AO58">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="AP58">
-        <v>2.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ58">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AR58">
-        <v>1.32</v>
+        <v>1.14</v>
       </c>
       <c r="AS58">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="AT58">
-        <v>2.44</v>
+        <v>2.28</v>
       </c>
       <c r="AU58">
         <v>4</v>
@@ -13006,22 +13018,22 @@
         <v>1.49</v>
       </c>
       <c r="AN59">
-        <v>0.5</v>
+        <v>1.14</v>
       </c>
       <c r="AO59">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="AP59">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ59">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AR59">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AS59">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT59">
         <v>3.12</v>
@@ -13140,7 +13152,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q60">
         <v>3.86</v>
@@ -13212,25 +13224,25 @@
         <v>1.32</v>
       </c>
       <c r="AN60">
-        <v>0.75</v>
+        <v>0.43</v>
       </c>
       <c r="AO60">
-        <v>0.5</v>
+        <v>1.57</v>
       </c>
       <c r="AP60">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>1.64</v>
       </c>
       <c r="AR60">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AS60">
-        <v>1.47</v>
+        <v>1.62</v>
       </c>
       <c r="AT60">
-        <v>2.91</v>
+        <v>2.97</v>
       </c>
       <c r="AU60">
         <v>8</v>
@@ -13418,25 +13430,25 @@
         <v>2.55</v>
       </c>
       <c r="AN61">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AO61">
-        <v>2</v>
+        <v>2.43</v>
       </c>
       <c r="AP61">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AQ61">
-        <v>1.6</v>
+        <v>2.18</v>
       </c>
       <c r="AR61">
-        <v>2.33</v>
+        <v>1.98</v>
       </c>
       <c r="AS61">
-        <v>1.35</v>
+        <v>1.56</v>
       </c>
       <c r="AT61">
-        <v>3.68</v>
+        <v>3.54</v>
       </c>
       <c r="AU61">
         <v>12</v>
@@ -13552,7 +13564,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q62">
         <v>1.83</v>
@@ -13624,25 +13636,25 @@
         <v>2.85</v>
       </c>
       <c r="AN62">
-        <v>2</v>
+        <v>1.29</v>
       </c>
       <c r="AO62">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="AP62">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="AQ62">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="AR62">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="AS62">
-        <v>1.06</v>
+        <v>1.13</v>
       </c>
       <c r="AT62">
-        <v>2.48</v>
+        <v>2.6</v>
       </c>
       <c r="AU62">
         <v>7</v>
@@ -13758,7 +13770,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q63">
         <v>8.77</v>
@@ -13830,25 +13842,25 @@
         <v>1.04</v>
       </c>
       <c r="AN63">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="AO63">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AP63">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="AQ63">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AR63">
-        <v>1.37</v>
+        <v>1.21</v>
       </c>
       <c r="AS63">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="AT63">
-        <v>3.25</v>
+        <v>3.16</v>
       </c>
       <c r="AU63">
         <v>4</v>
@@ -13964,7 +13976,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -14036,25 +14048,25 @@
         <v>2.3</v>
       </c>
       <c r="AN64">
-        <v>2.33</v>
+        <v>1.57</v>
       </c>
       <c r="AO64">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AP64">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="AQ64">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AR64">
-        <v>1.75</v>
+        <v>1.48</v>
       </c>
       <c r="AS64">
-        <v>0.87</v>
+        <v>0.99</v>
       </c>
       <c r="AT64">
-        <v>2.62</v>
+        <v>2.47</v>
       </c>
       <c r="AU64">
         <v>6</v>
@@ -14170,7 +14182,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14242,25 +14254,25 @@
         <v>2.02</v>
       </c>
       <c r="AN65">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="AO65">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="AP65">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ65">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR65">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="AS65">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT65">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="AU65">
         <v>7</v>
@@ -14376,7 +14388,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q66">
         <v>1.55</v>
@@ -14448,25 +14460,25 @@
         <v>4.4</v>
       </c>
       <c r="AN66">
-        <v>2.33</v>
+        <v>2.75</v>
       </c>
       <c r="AO66">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AP66">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="AQ66">
-        <v>1.4</v>
+        <v>1.64</v>
       </c>
       <c r="AR66">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AS66">
-        <v>1.28</v>
+        <v>1.47</v>
       </c>
       <c r="AT66">
-        <v>3.33</v>
+        <v>3.47</v>
       </c>
       <c r="AU66">
         <v>6</v>
@@ -14582,7 +14594,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -14654,25 +14666,25 @@
         <v>1.27</v>
       </c>
       <c r="AN67">
-        <v>1.5</v>
+        <v>0.88</v>
       </c>
       <c r="AO67">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AP67">
+        <v>1</v>
+      </c>
+      <c r="AQ67">
         <v>1.2</v>
       </c>
-      <c r="AQ67">
-        <v>1.5</v>
-      </c>
       <c r="AR67">
-        <v>1.08</v>
+        <v>0.99</v>
       </c>
       <c r="AS67">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="AT67">
-        <v>2.63</v>
+        <v>2.48</v>
       </c>
       <c r="AU67">
         <v>4</v>
@@ -14788,7 +14800,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -14860,25 +14872,25 @@
         <v>1.48</v>
       </c>
       <c r="AN68">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AO68">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AP68">
-        <v>0.75</v>
+        <v>0.64</v>
       </c>
       <c r="AQ68">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="AR68">
-        <v>1.23</v>
+        <v>1.11</v>
       </c>
       <c r="AS68">
-        <v>1.24</v>
+        <v>1.39</v>
       </c>
       <c r="AT68">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AU68">
         <v>3</v>
@@ -14994,7 +15006,7 @@
         <v>135</v>
       </c>
       <c r="P69" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="Q69">
         <v>2.35</v>
@@ -15066,25 +15078,25 @@
         <v>1.95</v>
       </c>
       <c r="AN69">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AO69">
-        <v>2</v>
+        <v>1.38</v>
       </c>
       <c r="AP69">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AQ69">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR69">
-        <v>1.16</v>
+        <v>1.07</v>
       </c>
       <c r="AS69">
-        <v>1.61</v>
+        <v>1.74</v>
       </c>
       <c r="AT69">
-        <v>2.77</v>
+        <v>2.81</v>
       </c>
       <c r="AU69">
         <v>3</v>
@@ -15272,25 +15284,25 @@
         <v>1.55</v>
       </c>
       <c r="AN70">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AO70">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AQ70">
-        <v>0.2</v>
+        <v>1.27</v>
       </c>
       <c r="AR70">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="AS70">
-        <v>0.89</v>
+        <v>1.15</v>
       </c>
       <c r="AT70">
-        <v>2.42</v>
+        <v>2.62</v>
       </c>
       <c r="AU70">
         <v>8</v>
@@ -15406,7 +15418,7 @@
         <v>137</v>
       </c>
       <c r="P71" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="Q71">
         <v>1.72</v>
@@ -15478,25 +15490,25 @@
         <v>3.3</v>
       </c>
       <c r="AN71">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="AO71">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AP71">
-        <v>3</v>
+        <v>1.64</v>
       </c>
       <c r="AQ71">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AR71">
-        <v>1.82</v>
+        <v>1.6</v>
       </c>
       <c r="AS71">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT71">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="AU71">
         <v>7</v>
@@ -15612,7 +15624,7 @@
         <v>124</v>
       </c>
       <c r="P72" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q72">
         <v>1.88</v>
@@ -15684,25 +15696,25 @@
         <v>2.7</v>
       </c>
       <c r="AN72">
-        <v>3</v>
+        <v>2.13</v>
       </c>
       <c r="AO72">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="AP72">
-        <v>2.6</v>
+        <v>2.18</v>
       </c>
       <c r="AQ72">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="AR72">
-        <v>1.84</v>
+        <v>1.5</v>
       </c>
       <c r="AS72">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AT72">
-        <v>3.34</v>
+        <v>2.99</v>
       </c>
       <c r="AU72">
         <v>7</v>
@@ -15818,7 +15830,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -15890,25 +15902,25 @@
         <v>1.03</v>
       </c>
       <c r="AN73">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AO73">
-        <v>2.33</v>
+        <v>2.75</v>
       </c>
       <c r="AP73">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ73">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="AR73">
-        <v>1.68</v>
+        <v>1.53</v>
       </c>
       <c r="AS73">
-        <v>1.51</v>
+        <v>2.08</v>
       </c>
       <c r="AT73">
-        <v>3.19</v>
+        <v>3.61</v>
       </c>
       <c r="AU73">
         <v>0</v>
@@ -16096,25 +16108,25 @@
         <v>1.51</v>
       </c>
       <c r="AN74">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AO74">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AP74">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ74">
-        <v>0.2</v>
+        <v>1.27</v>
       </c>
       <c r="AR74">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AS74">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT74">
-        <v>2.81</v>
+        <v>2.93</v>
       </c>
       <c r="AU74">
         <v>6</v>
@@ -16230,7 +16242,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -16302,25 +16314,25 @@
         <v>1.98</v>
       </c>
       <c r="AN75">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AO75">
-        <v>0.25</v>
+        <v>0.78</v>
       </c>
       <c r="AP75">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AQ75">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AR75">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="AS75">
-        <v>0.9</v>
+        <v>1.03</v>
       </c>
       <c r="AT75">
-        <v>2.39</v>
+        <v>2.46</v>
       </c>
       <c r="AU75">
         <v>5</v>
@@ -16436,7 +16448,7 @@
         <v>88</v>
       </c>
       <c r="P76" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q76">
         <v>3.7</v>
@@ -16508,25 +16520,25 @@
         <v>1.34</v>
       </c>
       <c r="AN76">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="AO76">
-        <v>1</v>
+        <v>1.44</v>
       </c>
       <c r="AP76">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="AQ76">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AR76">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="AS76">
-        <v>0.99</v>
+        <v>1.06</v>
       </c>
       <c r="AT76">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="AU76">
         <v>3</v>
@@ -16642,7 +16654,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q77">
         <v>2.47</v>
@@ -16714,25 +16726,25 @@
         <v>1.85</v>
       </c>
       <c r="AN77">
+        <v>1.33</v>
+      </c>
+      <c r="AO77">
+        <v>1.56</v>
+      </c>
+      <c r="AP77">
         <v>1.2</v>
       </c>
-      <c r="AO77">
-        <v>1.4</v>
-      </c>
-      <c r="AP77">
-        <v>1</v>
-      </c>
       <c r="AQ77">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AR77">
-        <v>1.45</v>
+        <v>1.59</v>
       </c>
       <c r="AS77">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AT77">
-        <v>2.89</v>
+        <v>3.16</v>
       </c>
       <c r="AU77">
         <v>3</v>
@@ -16920,25 +16932,25 @@
         <v>4.5</v>
       </c>
       <c r="AN78">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AO78">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="AP78">
-        <v>2.6</v>
+        <v>2.18</v>
       </c>
       <c r="AQ78">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="AR78">
-        <v>1.78</v>
+        <v>1.52</v>
       </c>
       <c r="AS78">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="AT78">
-        <v>2.81</v>
+        <v>2.59</v>
       </c>
       <c r="AU78">
         <v>8</v>
@@ -17126,25 +17138,25 @@
         <v>1.48</v>
       </c>
       <c r="AN79">
-        <v>1.75</v>
+        <v>1.22</v>
       </c>
       <c r="AO79">
-        <v>1</v>
+        <v>1.89</v>
       </c>
       <c r="AP79">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="AQ79">
-        <v>1</v>
+        <v>1.64</v>
       </c>
       <c r="AR79">
-        <v>1.49</v>
+        <v>1.37</v>
       </c>
       <c r="AS79">
-        <v>1.47</v>
+        <v>1.62</v>
       </c>
       <c r="AT79">
-        <v>2.96</v>
+        <v>2.99</v>
       </c>
       <c r="AU79">
         <v>4</v>
@@ -17260,7 +17272,7 @@
         <v>140</v>
       </c>
       <c r="P80" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q80">
         <v>2.5</v>
@@ -17332,25 +17344,25 @@
         <v>1.9</v>
       </c>
       <c r="AN80">
-        <v>2.5</v>
+        <v>1.89</v>
       </c>
       <c r="AO80">
+        <v>1</v>
+      </c>
+      <c r="AP80">
+        <v>1.64</v>
+      </c>
+      <c r="AQ80">
         <v>1.2</v>
       </c>
-      <c r="AP80">
-        <v>2</v>
-      </c>
-      <c r="AQ80">
-        <v>1.5</v>
-      </c>
       <c r="AR80">
-        <v>1.66</v>
+        <v>1.41</v>
       </c>
       <c r="AS80">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="AT80">
-        <v>3.1</v>
+        <v>2.84</v>
       </c>
       <c r="AU80">
         <v>5</v>
@@ -17466,7 +17478,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17538,25 +17550,25 @@
         <v>1.89</v>
       </c>
       <c r="AN81">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="AO81">
-        <v>3</v>
+        <v>2.44</v>
       </c>
       <c r="AP81">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AQ81">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AR81">
-        <v>2.43</v>
+        <v>2.1</v>
       </c>
       <c r="AS81">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="AT81">
-        <v>4.4</v>
+        <v>4.09</v>
       </c>
       <c r="AU81">
         <v>6</v>
@@ -17623,6 +17635,624 @@
       </c>
       <c r="BP81">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7468174</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45584.35416666666</v>
+      </c>
+      <c r="F82">
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>77</v>
+      </c>
+      <c r="H82" t="s">
+        <v>85</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>2</v>
+      </c>
+      <c r="O82" t="s">
+        <v>142</v>
+      </c>
+      <c r="P82" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q82">
+        <v>2.8</v>
+      </c>
+      <c r="R82">
+        <v>2.05</v>
+      </c>
+      <c r="S82">
+        <v>3.75</v>
+      </c>
+      <c r="T82">
+        <v>1.45</v>
+      </c>
+      <c r="U82">
+        <v>2.6</v>
+      </c>
+      <c r="V82">
+        <v>2.95</v>
+      </c>
+      <c r="W82">
+        <v>1.36</v>
+      </c>
+      <c r="X82">
+        <v>7.5</v>
+      </c>
+      <c r="Y82">
+        <v>1.06</v>
+      </c>
+      <c r="Z82">
+        <v>2.1</v>
+      </c>
+      <c r="AA82">
+        <v>3</v>
+      </c>
+      <c r="AB82">
+        <v>2.92</v>
+      </c>
+      <c r="AC82">
+        <v>1.01</v>
+      </c>
+      <c r="AD82">
+        <v>7.7</v>
+      </c>
+      <c r="AE82">
+        <v>1.33</v>
+      </c>
+      <c r="AF82">
+        <v>3.1</v>
+      </c>
+      <c r="AG82">
+        <v>2</v>
+      </c>
+      <c r="AH82">
+        <v>1.73</v>
+      </c>
+      <c r="AI82">
+        <v>1.8</v>
+      </c>
+      <c r="AJ82">
+        <v>1.95</v>
+      </c>
+      <c r="AK82">
+        <v>1.33</v>
+      </c>
+      <c r="AL82">
+        <v>1.25</v>
+      </c>
+      <c r="AM82">
+        <v>1.66</v>
+      </c>
+      <c r="AN82">
+        <v>1.3</v>
+      </c>
+      <c r="AO82">
+        <v>1.7</v>
+      </c>
+      <c r="AP82">
+        <v>1.27</v>
+      </c>
+      <c r="AQ82">
+        <v>1.64</v>
+      </c>
+      <c r="AR82">
+        <v>1.21</v>
+      </c>
+      <c r="AS82">
+        <v>1.41</v>
+      </c>
+      <c r="AT82">
+        <v>2.62</v>
+      </c>
+      <c r="AU82">
+        <v>5</v>
+      </c>
+      <c r="AV82">
+        <v>2</v>
+      </c>
+      <c r="AW82">
+        <v>13</v>
+      </c>
+      <c r="AX82">
+        <v>2</v>
+      </c>
+      <c r="AY82">
+        <v>22</v>
+      </c>
+      <c r="AZ82">
+        <v>5</v>
+      </c>
+      <c r="BA82">
+        <v>8</v>
+      </c>
+      <c r="BB82">
+        <v>3</v>
+      </c>
+      <c r="BC82">
+        <v>11</v>
+      </c>
+      <c r="BD82">
+        <v>0</v>
+      </c>
+      <c r="BE82">
+        <v>0</v>
+      </c>
+      <c r="BF82">
+        <v>0</v>
+      </c>
+      <c r="BG82">
+        <v>0</v>
+      </c>
+      <c r="BH82">
+        <v>0</v>
+      </c>
+      <c r="BI82">
+        <v>0</v>
+      </c>
+      <c r="BJ82">
+        <v>0</v>
+      </c>
+      <c r="BK82">
+        <v>0</v>
+      </c>
+      <c r="BL82">
+        <v>0</v>
+      </c>
+      <c r="BM82">
+        <v>0</v>
+      </c>
+      <c r="BN82">
+        <v>0</v>
+      </c>
+      <c r="BO82">
+        <v>0</v>
+      </c>
+      <c r="BP82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7468168</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45584.45833333334</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83" t="s">
+        <v>83</v>
+      </c>
+      <c r="H83" t="s">
+        <v>84</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>2</v>
+      </c>
+      <c r="K83">
+        <v>2</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>3</v>
+      </c>
+      <c r="N83">
+        <v>4</v>
+      </c>
+      <c r="O83" t="s">
+        <v>143</v>
+      </c>
+      <c r="P83" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q83">
+        <v>3.4</v>
+      </c>
+      <c r="R83">
+        <v>2.1</v>
+      </c>
+      <c r="S83">
+        <v>2.95</v>
+      </c>
+      <c r="T83">
+        <v>1.37</v>
+      </c>
+      <c r="U83">
+        <v>2.9</v>
+      </c>
+      <c r="V83">
+        <v>2.6</v>
+      </c>
+      <c r="W83">
+        <v>1.45</v>
+      </c>
+      <c r="X83">
+        <v>6</v>
+      </c>
+      <c r="Y83">
+        <v>1.1</v>
+      </c>
+      <c r="Z83">
+        <v>2.53</v>
+      </c>
+      <c r="AA83">
+        <v>3.1</v>
+      </c>
+      <c r="AB83">
+        <v>2.32</v>
+      </c>
+      <c r="AC83">
+        <v>1.01</v>
+      </c>
+      <c r="AD83">
+        <v>11</v>
+      </c>
+      <c r="AE83">
+        <v>1.25</v>
+      </c>
+      <c r="AF83">
+        <v>3.75</v>
+      </c>
+      <c r="AG83">
+        <v>1.73</v>
+      </c>
+      <c r="AH83">
+        <v>2</v>
+      </c>
+      <c r="AI83">
+        <v>1.6</v>
+      </c>
+      <c r="AJ83">
+        <v>2.25</v>
+      </c>
+      <c r="AK83">
+        <v>1.57</v>
+      </c>
+      <c r="AL83">
+        <v>1.25</v>
+      </c>
+      <c r="AM83">
+        <v>1.4</v>
+      </c>
+      <c r="AN83">
+        <v>1.8</v>
+      </c>
+      <c r="AO83">
+        <v>2.1</v>
+      </c>
+      <c r="AP83">
+        <v>1.64</v>
+      </c>
+      <c r="AQ83">
+        <v>2.18</v>
+      </c>
+      <c r="AR83">
+        <v>1.66</v>
+      </c>
+      <c r="AS83">
+        <v>1.56</v>
+      </c>
+      <c r="AT83">
+        <v>3.22</v>
+      </c>
+      <c r="AU83">
+        <v>7</v>
+      </c>
+      <c r="AV83">
+        <v>5</v>
+      </c>
+      <c r="AW83">
+        <v>11</v>
+      </c>
+      <c r="AX83">
+        <v>3</v>
+      </c>
+      <c r="AY83">
+        <v>22</v>
+      </c>
+      <c r="AZ83">
+        <v>11</v>
+      </c>
+      <c r="BA83">
+        <v>4</v>
+      </c>
+      <c r="BB83">
+        <v>5</v>
+      </c>
+      <c r="BC83">
+        <v>9</v>
+      </c>
+      <c r="BD83">
+        <v>0</v>
+      </c>
+      <c r="BE83">
+        <v>0</v>
+      </c>
+      <c r="BF83">
+        <v>0</v>
+      </c>
+      <c r="BG83">
+        <v>0</v>
+      </c>
+      <c r="BH83">
+        <v>0</v>
+      </c>
+      <c r="BI83">
+        <v>0</v>
+      </c>
+      <c r="BJ83">
+        <v>0</v>
+      </c>
+      <c r="BK83">
+        <v>0</v>
+      </c>
+      <c r="BL83">
+        <v>0</v>
+      </c>
+      <c r="BM83">
+        <v>0</v>
+      </c>
+      <c r="BN83">
+        <v>0</v>
+      </c>
+      <c r="BO83">
+        <v>0</v>
+      </c>
+      <c r="BP83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7468169</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45584.45833333334</v>
+      </c>
+      <c r="F84">
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>74</v>
+      </c>
+      <c r="H84" t="s">
+        <v>78</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>2</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>3</v>
+      </c>
+      <c r="O84" t="s">
+        <v>144</v>
+      </c>
+      <c r="P84" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q84">
+        <v>2.6</v>
+      </c>
+      <c r="R84">
+        <v>2.1</v>
+      </c>
+      <c r="S84">
+        <v>4</v>
+      </c>
+      <c r="T84">
+        <v>1.39</v>
+      </c>
+      <c r="U84">
+        <v>2.8</v>
+      </c>
+      <c r="V84">
+        <v>2.75</v>
+      </c>
+      <c r="W84">
+        <v>1.4</v>
+      </c>
+      <c r="X84">
+        <v>6.5</v>
+      </c>
+      <c r="Y84">
+        <v>1.08</v>
+      </c>
+      <c r="Z84">
+        <v>1.98</v>
+      </c>
+      <c r="AA84">
+        <v>3.16</v>
+      </c>
+      <c r="AB84">
+        <v>3.34</v>
+      </c>
+      <c r="AC84">
+        <v>1.03</v>
+      </c>
+      <c r="AD84">
+        <v>9</v>
+      </c>
+      <c r="AE84">
+        <v>1.28</v>
+      </c>
+      <c r="AF84">
+        <v>3.5</v>
+      </c>
+      <c r="AG84">
+        <v>1.89</v>
+      </c>
+      <c r="AH84">
+        <v>1.93</v>
+      </c>
+      <c r="AI84">
+        <v>1.75</v>
+      </c>
+      <c r="AJ84">
+        <v>2</v>
+      </c>
+      <c r="AK84">
+        <v>1.28</v>
+      </c>
+      <c r="AL84">
+        <v>1.25</v>
+      </c>
+      <c r="AM84">
+        <v>1.78</v>
+      </c>
+      <c r="AN84">
+        <v>0.8</v>
+      </c>
+      <c r="AO84">
+        <v>0.7</v>
+      </c>
+      <c r="AP84">
+        <v>1</v>
+      </c>
+      <c r="AQ84">
+        <v>0.64</v>
+      </c>
+      <c r="AR84">
+        <v>1.01</v>
+      </c>
+      <c r="AS84">
+        <v>1.08</v>
+      </c>
+      <c r="AT84">
+        <v>2.09</v>
+      </c>
+      <c r="AU84">
+        <v>7</v>
+      </c>
+      <c r="AV84">
+        <v>5</v>
+      </c>
+      <c r="AW84">
+        <v>3</v>
+      </c>
+      <c r="AX84">
+        <v>3</v>
+      </c>
+      <c r="AY84">
+        <v>12</v>
+      </c>
+      <c r="AZ84">
+        <v>11</v>
+      </c>
+      <c r="BA84">
+        <v>4</v>
+      </c>
+      <c r="BB84">
+        <v>3</v>
+      </c>
+      <c r="BC84">
+        <v>7</v>
+      </c>
+      <c r="BD84">
+        <v>0</v>
+      </c>
+      <c r="BE84">
+        <v>0</v>
+      </c>
+      <c r="BF84">
+        <v>0</v>
+      </c>
+      <c r="BG84">
+        <v>0</v>
+      </c>
+      <c r="BH84">
+        <v>0</v>
+      </c>
+      <c r="BI84">
+        <v>0</v>
+      </c>
+      <c r="BJ84">
+        <v>0</v>
+      </c>
+      <c r="BK84">
+        <v>1.83</v>
+      </c>
+      <c r="BL84">
+        <v>0</v>
+      </c>
+      <c r="BM84">
+        <v>0</v>
+      </c>
+      <c r="BN84">
+        <v>0</v>
+      </c>
+      <c r="BO84">
+        <v>0</v>
+      </c>
+      <c r="BP84">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="191">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -442,120 +442,123 @@
     <t>['2', '22']</t>
   </si>
   <si>
+    <t>['65', '90+5']</t>
+  </si>
+  <si>
+    <t>['6', '29', '46', '63']</t>
+  </si>
+  <si>
+    <t>['25']</t>
+  </si>
+  <si>
+    <t>['56', '71']</t>
+  </si>
+  <si>
     <t>['90+3']</t>
   </si>
   <si>
+    <t>['19', '30', '68']</t>
+  </si>
+  <si>
+    <t>['26', '34', '87']</t>
+  </si>
+  <si>
+    <t>['15']</t>
+  </si>
+  <si>
+    <t>['47', '61', '90+1', '90+5']</t>
+  </si>
+  <si>
+    <t>['62']</t>
+  </si>
+  <si>
+    <t>['39']</t>
+  </si>
+  <si>
+    <t>['10', '18', '23']</t>
+  </si>
+  <si>
+    <t>['1']</t>
+  </si>
+  <si>
+    <t>['45', '89']</t>
+  </si>
+  <si>
+    <t>['46']</t>
+  </si>
+  <si>
+    <t>['45+4', '62']</t>
+  </si>
+  <si>
+    <t>['57']</t>
+  </si>
+  <si>
+    <t>['1', '38']</t>
+  </si>
+  <si>
+    <t>['38', '68']</t>
+  </si>
+  <si>
+    <t>['34', '48']</t>
+  </si>
+  <si>
+    <t>['31', '50', '81']</t>
+  </si>
+  <si>
+    <t>['35', '58']</t>
+  </si>
+  <si>
+    <t>['4', '53', '74']</t>
+  </si>
+  <si>
+    <t>['17', '24']</t>
+  </si>
+  <si>
+    <t>['8', '45']</t>
+  </si>
+  <si>
+    <t>['42', '50']</t>
+  </si>
+  <si>
+    <t>['26', '85']</t>
+  </si>
+  <si>
+    <t>['75']</t>
+  </si>
+  <si>
+    <t>['89']</t>
+  </si>
+  <si>
+    <t>['23', '42']</t>
+  </si>
+  <si>
+    <t>['37', '52', '65']</t>
+  </si>
+  <si>
+    <t>['8', '65']</t>
+  </si>
+  <si>
+    <t>['11', '52']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
+    <t>['3', '71']</t>
+  </si>
+  <si>
+    <t>['67', '78', '86']</t>
+  </si>
+  <si>
+    <t>['48', '53', '55', '90+1']</t>
+  </si>
+  <si>
+    <t>['86']</t>
+  </si>
+  <si>
     <t>['87']</t>
   </si>
   <si>
-    <t>['64', '67']</t>
-  </si>
-  <si>
-    <t>['25']</t>
-  </si>
-  <si>
-    <t>['56', '71']</t>
-  </si>
-  <si>
-    <t>['19', '30', '68']</t>
-  </si>
-  <si>
-    <t>['26', '34', '87']</t>
-  </si>
-  <si>
-    <t>['15']</t>
-  </si>
-  <si>
-    <t>['47', '61', '90+1', '90+5']</t>
-  </si>
-  <si>
-    <t>['62']</t>
-  </si>
-  <si>
-    <t>['39']</t>
-  </si>
-  <si>
-    <t>['10', '18', '23']</t>
-  </si>
-  <si>
-    <t>['1']</t>
-  </si>
-  <si>
-    <t>['45', '89']</t>
-  </si>
-  <si>
-    <t>['46']</t>
-  </si>
-  <si>
-    <t>['45+4', '62']</t>
-  </si>
-  <si>
-    <t>['57']</t>
-  </si>
-  <si>
-    <t>['1', '38']</t>
-  </si>
-  <si>
-    <t>['38', '68']</t>
-  </si>
-  <si>
-    <t>['34', '48']</t>
-  </si>
-  <si>
-    <t>['31', '50', '81']</t>
-  </si>
-  <si>
-    <t>['35', '58']</t>
-  </si>
-  <si>
-    <t>['4', '53', '74']</t>
-  </si>
-  <si>
-    <t>['17', '24']</t>
-  </si>
-  <si>
-    <t>['8', '45']</t>
-  </si>
-  <si>
-    <t>['42', '50']</t>
-  </si>
-  <si>
-    <t>['26', '85']</t>
-  </si>
-  <si>
-    <t>['75']</t>
-  </si>
-  <si>
-    <t>['89']</t>
-  </si>
-  <si>
-    <t>['23', '42']</t>
-  </si>
-  <si>
-    <t>['37', '52', '65']</t>
-  </si>
-  <si>
-    <t>['8', '65']</t>
-  </si>
-  <si>
-    <t>['11', '52']</t>
-  </si>
-  <si>
-    <t>['74']</t>
-  </si>
-  <si>
-    <t>['3', '71']</t>
-  </si>
-  <si>
-    <t>['67', '78', '86']</t>
-  </si>
-  <si>
-    <t>['48', '53', '55', '90+1']</t>
-  </si>
-  <si>
-    <t>['86']</t>
-  </si>
-  <si>
     <t>['43']</t>
   </si>
   <si>
@@ -577,13 +580,13 @@
     <t>['65']</t>
   </si>
   <si>
-    <t>['13']</t>
-  </si>
-  <si>
-    <t>['5', '43', '89']</t>
-  </si>
-  <si>
-    <t>['38']</t>
+    <t>['38', '83']</t>
+  </si>
+  <si>
+    <t>['42', '82']</t>
+  </si>
+  <si>
+    <t>['18', '61']</t>
   </si>
 </sst>
 </file>
@@ -945,7 +948,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP84"/>
+  <dimension ref="A1:BP85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1204,7 +1207,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q2">
         <v>1.53</v>
@@ -1282,10 +1285,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ2">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1488,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="AQ3">
-        <v>1.2</v>
+        <v>0.83</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1616,7 +1619,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -1694,10 +1697,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="AQ4">
-        <v>1.64</v>
+        <v>1.4</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1822,7 +1825,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -1900,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="AQ5">
-        <v>1.64</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2106,10 +2109,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ6">
-        <v>2.18</v>
+        <v>1.6</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2312,10 +2315,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="AQ7">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2518,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ8">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2724,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.27</v>
+        <v>2.4</v>
       </c>
       <c r="AQ9">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2927,22 +2930,22 @@
         <v>0</v>
       </c>
       <c r="AO10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ10">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR10">
         <v>0.98</v>
       </c>
       <c r="AS10">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>2.71</v>
+        <v>0.98</v>
       </c>
       <c r="AU10">
         <v>3</v>
@@ -3136,19 +3139,19 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.64</v>
+        <v>0.75</v>
       </c>
       <c r="AQ11">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR11">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>2.96</v>
+        <v>0</v>
       </c>
       <c r="AU11">
         <v>3</v>
@@ -3339,22 +3342,22 @@
         <v>0</v>
       </c>
       <c r="AO12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="AQ12">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AR12">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>3.11</v>
+        <v>0</v>
       </c>
       <c r="AU12">
         <v>4</v>
@@ -3542,25 +3545,25 @@
         <v>5.85</v>
       </c>
       <c r="AN13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO13">
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AQ13">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AR13">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>2.98</v>
+        <v>0</v>
       </c>
       <c r="AU13">
         <v>9</v>
@@ -3748,25 +3751,25 @@
         <v>1.78</v>
       </c>
       <c r="AN14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO14">
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ14">
-        <v>1.64</v>
+        <v>1.4</v>
       </c>
       <c r="AR14">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="AS14">
         <v>2.08</v>
       </c>
       <c r="AT14">
-        <v>4.05</v>
+        <v>2.08</v>
       </c>
       <c r="AU14">
         <v>4</v>
@@ -3957,22 +3960,22 @@
         <v>0</v>
       </c>
       <c r="AO15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ15">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AR15">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="AS15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT15">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="AU15">
         <v>7</v>
@@ -4163,22 +4166,22 @@
         <v>0</v>
       </c>
       <c r="AO16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.64</v>
+        <v>3</v>
       </c>
       <c r="AQ16">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AR16">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="AT16">
-        <v>3.52</v>
+        <v>0</v>
       </c>
       <c r="AU16">
         <v>5</v>
@@ -4366,25 +4369,25 @@
         <v>2.7</v>
       </c>
       <c r="AN17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.18</v>
+        <v>2.6</v>
       </c>
       <c r="AQ17">
-        <v>1.27</v>
+        <v>0.2</v>
       </c>
       <c r="AR17">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="AT17">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="AU17">
         <v>8</v>
@@ -4572,25 +4575,25 @@
         <v>1.12</v>
       </c>
       <c r="AN18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ18">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="AR18">
-        <v>1.61</v>
+        <v>1.26</v>
       </c>
       <c r="AS18">
-        <v>2.02</v>
+        <v>1.65</v>
       </c>
       <c r="AT18">
-        <v>3.63</v>
+        <v>2.91</v>
       </c>
       <c r="AU18">
         <v>4</v>
@@ -4781,22 +4784,22 @@
         <v>3</v>
       </c>
       <c r="AO19">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AR19">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="AS19">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="AT19">
-        <v>2.89</v>
+        <v>1.9</v>
       </c>
       <c r="AU19">
         <v>9</v>
@@ -4984,25 +4987,25 @@
         <v>1.8</v>
       </c>
       <c r="AN20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
         <v>1.5</v>
       </c>
-      <c r="AP20">
-        <v>1.6</v>
-      </c>
       <c r="AQ20">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR20">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AS20">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AT20">
-        <v>3.06</v>
+        <v>2.88</v>
       </c>
       <c r="AU20">
         <v>4</v>
@@ -5190,25 +5193,25 @@
         <v>1.17</v>
       </c>
       <c r="AN21">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO21">
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="AQ21">
-        <v>2.18</v>
+        <v>1.6</v>
       </c>
       <c r="AR21">
-        <v>1.38</v>
+        <v>1.81</v>
       </c>
       <c r="AS21">
-        <v>1.53</v>
+        <v>1.43</v>
       </c>
       <c r="AT21">
-        <v>2.91</v>
+        <v>3.24</v>
       </c>
       <c r="AU21">
         <v>5</v>
@@ -5396,25 +5399,25 @@
         <v>1.71</v>
       </c>
       <c r="AN22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO22">
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="AR22">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AT22">
-        <v>2.61</v>
+        <v>1.21</v>
       </c>
       <c r="AU22">
         <v>5</v>
@@ -5608,19 +5611,19 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="AQ23">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR23">
-        <v>0.92</v>
+        <v>1.33</v>
       </c>
       <c r="AS23">
-        <v>1.12</v>
+        <v>1.03</v>
       </c>
       <c r="AT23">
-        <v>2.04</v>
+        <v>2.36</v>
       </c>
       <c r="AU23">
         <v>5</v>
@@ -5808,25 +5811,25 @@
         <v>1.78</v>
       </c>
       <c r="AN24">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO24">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.27</v>
+        <v>2.4</v>
       </c>
       <c r="AQ24">
-        <v>1.2</v>
+        <v>0.83</v>
       </c>
       <c r="AR24">
-        <v>0.95</v>
+        <v>1.19</v>
       </c>
       <c r="AS24">
-        <v>1.35</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT24">
-        <v>2.3</v>
+        <v>2.13</v>
       </c>
       <c r="AU24">
         <v>4</v>
@@ -6014,25 +6017,25 @@
         <v>1.29</v>
       </c>
       <c r="AN25">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO25">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AP25">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ25">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AR25">
-        <v>0.82</v>
+        <v>0.93</v>
       </c>
       <c r="AS25">
-        <v>1.35</v>
+        <v>0.95</v>
       </c>
       <c r="AT25">
-        <v>2.17</v>
+        <v>1.88</v>
       </c>
       <c r="AU25">
         <v>3</v>
@@ -6223,22 +6226,22 @@
         <v>0</v>
       </c>
       <c r="AO26">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AP26">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="AQ26">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR26">
-        <v>1.28</v>
+        <v>1.06</v>
       </c>
       <c r="AS26">
-        <v>1.55</v>
+        <v>1.97</v>
       </c>
       <c r="AT26">
-        <v>2.83</v>
+        <v>3.03</v>
       </c>
       <c r="AU26">
         <v>6</v>
@@ -6426,25 +6429,25 @@
         <v>1.1</v>
       </c>
       <c r="AN27">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AO27">
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="AQ27">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AR27">
-        <v>1.45</v>
+        <v>1.73</v>
       </c>
       <c r="AS27">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="AT27">
-        <v>3.51</v>
+        <v>3.75</v>
       </c>
       <c r="AU27">
         <v>6</v>
@@ -6632,25 +6635,25 @@
         <v>4.33</v>
       </c>
       <c r="AN28">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AO28">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AP28">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AQ28">
-        <v>1.64</v>
+        <v>1.4</v>
       </c>
       <c r="AR28">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="AS28">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="AT28">
-        <v>3.1</v>
+        <v>3.88</v>
       </c>
       <c r="AU28">
         <v>9</v>
@@ -6838,25 +6841,25 @@
         <v>1.36</v>
       </c>
       <c r="AN29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO29">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AP29">
-        <v>0.64</v>
+        <v>0.75</v>
       </c>
       <c r="AQ29">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AR29">
-        <v>1.07</v>
+        <v>1.22</v>
       </c>
       <c r="AS29">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT29">
-        <v>2.36</v>
+        <v>2.72</v>
       </c>
       <c r="AU29">
         <v>4</v>
@@ -7044,25 +7047,25 @@
         <v>2.38</v>
       </c>
       <c r="AN30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO30">
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ30">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AR30">
-        <v>1.63</v>
+        <v>1.76</v>
       </c>
       <c r="AS30">
-        <v>1.14</v>
+        <v>0.5</v>
       </c>
       <c r="AT30">
-        <v>2.77</v>
+        <v>2.26</v>
       </c>
       <c r="AU30">
         <v>7</v>
@@ -7250,25 +7253,25 @@
         <v>2.2</v>
       </c>
       <c r="AN31">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.64</v>
+        <v>3</v>
       </c>
       <c r="AQ31">
-        <v>1.27</v>
+        <v>0.2</v>
       </c>
       <c r="AR31">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="AS31">
-        <v>0.96</v>
+        <v>0.71</v>
       </c>
       <c r="AT31">
-        <v>2.43</v>
+        <v>1.95</v>
       </c>
       <c r="AU31">
         <v>6</v>
@@ -7456,25 +7459,25 @@
         <v>3.1</v>
       </c>
       <c r="AN32">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AO32">
+        <v>3</v>
+      </c>
+      <c r="AP32">
+        <v>2.6</v>
+      </c>
+      <c r="AQ32">
         <v>1.5</v>
       </c>
-      <c r="AP32">
-        <v>2.18</v>
-      </c>
-      <c r="AQ32">
-        <v>1.2</v>
-      </c>
       <c r="AR32">
-        <v>1.38</v>
+        <v>1.64</v>
       </c>
       <c r="AS32">
-        <v>2.15</v>
+        <v>2.37</v>
       </c>
       <c r="AT32">
-        <v>3.53</v>
+        <v>4.01</v>
       </c>
       <c r="AU32">
         <v>8</v>
@@ -7662,25 +7665,25 @@
         <v>2.35</v>
       </c>
       <c r="AN33">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO33">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.27</v>
+        <v>2.4</v>
       </c>
       <c r="AQ33">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AR33">
-        <v>0.84</v>
+        <v>1.08</v>
       </c>
       <c r="AS33">
-        <v>0.88</v>
+        <v>0.61</v>
       </c>
       <c r="AT33">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="AU33">
         <v>6</v>
@@ -7868,25 +7871,25 @@
         <v>5.5</v>
       </c>
       <c r="AN34">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AO34">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AP34">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AQ34">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="AR34">
-        <v>1.82</v>
+        <v>2.27</v>
       </c>
       <c r="AS34">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="AT34">
-        <v>3.22</v>
+        <v>3.66</v>
       </c>
       <c r="AU34">
         <v>7</v>
@@ -8074,25 +8077,25 @@
         <v>1.62</v>
       </c>
       <c r="AN35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO35">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="AQ35">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR35">
-        <v>1.78</v>
+        <v>1.93</v>
       </c>
       <c r="AS35">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="AT35">
-        <v>3.18</v>
+        <v>3.25</v>
       </c>
       <c r="AU35">
         <v>4</v>
@@ -8280,25 +8283,25 @@
         <v>1.15</v>
       </c>
       <c r="AN36">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AO36">
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="AQ36">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AR36">
-        <v>1.38</v>
+        <v>1.54</v>
       </c>
       <c r="AS36">
         <v>2.07</v>
       </c>
       <c r="AT36">
-        <v>3.45</v>
+        <v>3.61</v>
       </c>
       <c r="AU36">
         <v>5</v>
@@ -8486,25 +8489,25 @@
         <v>1.71</v>
       </c>
       <c r="AN37">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="AO37">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="AQ37">
-        <v>1.2</v>
+        <v>0.83</v>
       </c>
       <c r="AR37">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="AS37">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT37">
-        <v>2.86</v>
+        <v>2.81</v>
       </c>
       <c r="AU37">
         <v>5</v>
@@ -8692,25 +8695,25 @@
         <v>2.88</v>
       </c>
       <c r="AN38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO38">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ38">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR38">
-        <v>1.51</v>
+        <v>1.34</v>
       </c>
       <c r="AS38">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT38">
-        <v>2.59</v>
+        <v>2.34</v>
       </c>
       <c r="AU38">
         <v>6</v>
@@ -8901,19 +8904,19 @@
         <v>0</v>
       </c>
       <c r="AO39">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AP39">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="AQ39">
-        <v>2.18</v>
+        <v>1.6</v>
       </c>
       <c r="AR39">
-        <v>1.16</v>
+        <v>1.46</v>
       </c>
       <c r="AS39">
-        <v>1.55</v>
+        <v>1.25</v>
       </c>
       <c r="AT39">
         <v>2.71</v>
@@ -9104,25 +9107,25 @@
         <v>1.53</v>
       </c>
       <c r="AN40">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AO40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ40">
-        <v>1.64</v>
+        <v>1</v>
       </c>
       <c r="AR40">
         <v>1.19</v>
       </c>
       <c r="AS40">
-        <v>1.82</v>
+        <v>1.71</v>
       </c>
       <c r="AT40">
-        <v>3.01</v>
+        <v>2.9</v>
       </c>
       <c r="AU40">
         <v>6</v>
@@ -9310,25 +9313,25 @@
         <v>1.88</v>
       </c>
       <c r="AN41">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AO41">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="AQ41">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AR41">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="AS41">
-        <v>1.4</v>
+        <v>1.21</v>
       </c>
       <c r="AT41">
-        <v>2.85</v>
+        <v>2.7</v>
       </c>
       <c r="AU41">
         <v>6</v>
@@ -9516,25 +9519,25 @@
         <v>1.75</v>
       </c>
       <c r="AN42">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="AO42">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="AQ42">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR42">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="AS42">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AT42">
-        <v>3.04</v>
+        <v>3.11</v>
       </c>
       <c r="AU42">
         <v>3</v>
@@ -9725,22 +9728,22 @@
         <v>3</v>
       </c>
       <c r="AO43">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ43">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AR43">
         <v>2.07</v>
       </c>
       <c r="AS43">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT43">
-        <v>3.29</v>
+        <v>3.27</v>
       </c>
       <c r="AU43">
         <v>8</v>
@@ -9928,25 +9931,25 @@
         <v>1.35</v>
       </c>
       <c r="AN44">
+        <v>0</v>
+      </c>
+      <c r="AO44">
+        <v>0</v>
+      </c>
+      <c r="AP44">
+        <v>0.75</v>
+      </c>
+      <c r="AQ44">
+        <v>0.2</v>
+      </c>
+      <c r="AR44">
+        <v>1.16</v>
+      </c>
+      <c r="AS44">
         <v>0.6</v>
       </c>
-      <c r="AO44">
-        <v>1.8</v>
-      </c>
-      <c r="AP44">
-        <v>0.64</v>
-      </c>
-      <c r="AQ44">
-        <v>1.27</v>
-      </c>
-      <c r="AR44">
-        <v>1.04</v>
-      </c>
-      <c r="AS44">
-        <v>0.98</v>
-      </c>
       <c r="AT44">
-        <v>2.02</v>
+        <v>1.76</v>
       </c>
       <c r="AU44">
         <v>6</v>
@@ -10134,25 +10137,25 @@
         <v>1.84</v>
       </c>
       <c r="AN45">
+        <v>3</v>
+      </c>
+      <c r="AO45">
         <v>1.5</v>
       </c>
-      <c r="AO45">
-        <v>1.4</v>
-      </c>
       <c r="AP45">
-        <v>1.64</v>
+        <v>3</v>
       </c>
       <c r="AQ45">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR45">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="AS45">
-        <v>1.47</v>
+        <v>1.68</v>
       </c>
       <c r="AT45">
-        <v>3.22</v>
+        <v>3.55</v>
       </c>
       <c r="AU45">
         <v>8</v>
@@ -10340,25 +10343,25 @@
         <v>1.67</v>
       </c>
       <c r="AN46">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AO46">
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ46">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AR46">
         <v>0.97</v>
       </c>
       <c r="AS46">
-        <v>1.15</v>
+        <v>0.86</v>
       </c>
       <c r="AT46">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="AU46">
         <v>6</v>
@@ -10546,25 +10549,25 @@
         <v>1.3</v>
       </c>
       <c r="AN47">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AO47">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="AQ47">
-        <v>1.64</v>
+        <v>1</v>
       </c>
       <c r="AR47">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AS47">
-        <v>1.74</v>
+        <v>1.63</v>
       </c>
       <c r="AT47">
-        <v>3.41</v>
+        <v>3.4</v>
       </c>
       <c r="AU47">
         <v>3</v>
@@ -10755,22 +10758,22 @@
         <v>0</v>
       </c>
       <c r="AO48">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="AP48">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="AQ48">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR48">
-        <v>1.17</v>
+        <v>1.34</v>
       </c>
       <c r="AS48">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT48">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="AU48">
         <v>6</v>
@@ -10958,25 +10961,25 @@
         <v>1.73</v>
       </c>
       <c r="AN49">
+        <v>1.67</v>
+      </c>
+      <c r="AO49">
+        <v>2</v>
+      </c>
+      <c r="AP49">
         <v>1.5</v>
       </c>
-      <c r="AO49">
+      <c r="AQ49">
         <v>1.67</v>
       </c>
-      <c r="AP49">
-        <v>1.6</v>
-      </c>
-      <c r="AQ49">
-        <v>1.7</v>
-      </c>
       <c r="AR49">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="AS49">
-        <v>1.37</v>
+        <v>1.21</v>
       </c>
       <c r="AT49">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="AU49">
         <v>0</v>
@@ -11164,25 +11167,25 @@
         <v>1.15</v>
       </c>
       <c r="AN50">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO50">
-        <v>2.67</v>
+        <v>3</v>
       </c>
       <c r="AP50">
-        <v>1.27</v>
+        <v>2.4</v>
       </c>
       <c r="AQ50">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AR50">
-        <v>1.07</v>
+        <v>1.24</v>
       </c>
       <c r="AS50">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="AT50">
-        <v>3.13</v>
+        <v>3.31</v>
       </c>
       <c r="AU50">
         <v>3</v>
@@ -11370,25 +11373,25 @@
         <v>1.52</v>
       </c>
       <c r="AN51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO51">
-        <v>1.67</v>
+        <v>0.33</v>
       </c>
       <c r="AP51">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="AQ51">
-        <v>1.64</v>
+        <v>1</v>
       </c>
       <c r="AR51">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="AS51">
-        <v>1.58</v>
+        <v>1.34</v>
       </c>
       <c r="AT51">
-        <v>2.96</v>
+        <v>2.95</v>
       </c>
       <c r="AU51">
         <v>7</v>
@@ -11576,25 +11579,25 @@
         <v>1.82</v>
       </c>
       <c r="AN52">
-        <v>1.17</v>
+        <v>0.33</v>
       </c>
       <c r="AO52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP52">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="AQ52">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AR52">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="AS52">
-        <v>1.04</v>
+        <v>0.97</v>
       </c>
       <c r="AT52">
-        <v>2.72</v>
+        <v>2.73</v>
       </c>
       <c r="AU52">
         <v>7</v>
@@ -11782,25 +11785,25 @@
         <v>7.5</v>
       </c>
       <c r="AN53">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="AO53">
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AQ53">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR53">
-        <v>1.95</v>
+        <v>2.35</v>
       </c>
       <c r="AS53">
-        <v>1.1</v>
+        <v>0.96</v>
       </c>
       <c r="AT53">
-        <v>3.05</v>
+        <v>3.31</v>
       </c>
       <c r="AU53">
         <v>10</v>
@@ -11988,25 +11991,25 @@
         <v>1.56</v>
       </c>
       <c r="AN54">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO54">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AP54">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="AQ54">
-        <v>1.2</v>
+        <v>0.83</v>
       </c>
       <c r="AR54">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AS54">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="AT54">
-        <v>2.87</v>
+        <v>2.84</v>
       </c>
       <c r="AU54">
         <v>3</v>
@@ -12194,25 +12197,25 @@
         <v>1.28</v>
       </c>
       <c r="AN55">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="AO55">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AP55">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ55">
-        <v>2.18</v>
+        <v>1.6</v>
       </c>
       <c r="AR55">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
       <c r="AS55">
-        <v>1.53</v>
+        <v>1.32</v>
       </c>
       <c r="AT55">
-        <v>2.97</v>
+        <v>2.64</v>
       </c>
       <c r="AU55">
         <v>7</v>
@@ -12400,25 +12403,25 @@
         <v>2.75</v>
       </c>
       <c r="AN56">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AO56">
-        <v>1.83</v>
+        <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>2.18</v>
+        <v>2.6</v>
       </c>
       <c r="AQ56">
-        <v>1.64</v>
+        <v>1.4</v>
       </c>
       <c r="AR56">
-        <v>1.52</v>
+        <v>1.85</v>
       </c>
       <c r="AS56">
-        <v>1.48</v>
+        <v>1.22</v>
       </c>
       <c r="AT56">
-        <v>3</v>
+        <v>3.07</v>
       </c>
       <c r="AU56">
         <v>7</v>
@@ -12606,25 +12609,25 @@
         <v>1.14</v>
       </c>
       <c r="AN57">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO57">
-        <v>2.67</v>
+        <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ57">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="AR57">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="AS57">
-        <v>2.01</v>
+        <v>1.36</v>
       </c>
       <c r="AT57">
-        <v>3.58</v>
+        <v>3.06</v>
       </c>
       <c r="AU57">
         <v>4</v>
@@ -12812,25 +12815,25 @@
         <v>1.57</v>
       </c>
       <c r="AN58">
-        <v>1.29</v>
+        <v>2.25</v>
       </c>
       <c r="AO58">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AP58">
-        <v>1.27</v>
+        <v>2.4</v>
       </c>
       <c r="AQ58">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AR58">
-        <v>1.14</v>
+        <v>1.32</v>
       </c>
       <c r="AS58">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="AT58">
-        <v>2.28</v>
+        <v>2.44</v>
       </c>
       <c r="AU58">
         <v>4</v>
@@ -13018,22 +13021,22 @@
         <v>1.49</v>
       </c>
       <c r="AN59">
-        <v>1.14</v>
+        <v>0.5</v>
       </c>
       <c r="AO59">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AP59">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="AQ59">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AR59">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AS59">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="AT59">
         <v>3.12</v>
@@ -13224,25 +13227,25 @@
         <v>1.32</v>
       </c>
       <c r="AN60">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AO60">
-        <v>1.57</v>
+        <v>0.5</v>
       </c>
       <c r="AP60">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="AQ60">
-        <v>1.64</v>
+        <v>1</v>
       </c>
       <c r="AR60">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AS60">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="AT60">
-        <v>2.97</v>
+        <v>2.91</v>
       </c>
       <c r="AU60">
         <v>8</v>
@@ -13430,25 +13433,25 @@
         <v>2.55</v>
       </c>
       <c r="AN61">
-        <v>2.71</v>
+        <v>3</v>
       </c>
       <c r="AO61">
-        <v>2.43</v>
+        <v>2</v>
       </c>
       <c r="AP61">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AQ61">
-        <v>2.18</v>
+        <v>1.6</v>
       </c>
       <c r="AR61">
-        <v>1.98</v>
+        <v>2.33</v>
       </c>
       <c r="AS61">
-        <v>1.56</v>
+        <v>1.35</v>
       </c>
       <c r="AT61">
-        <v>3.54</v>
+        <v>3.68</v>
       </c>
       <c r="AU61">
         <v>12</v>
@@ -13636,25 +13639,25 @@
         <v>2.85</v>
       </c>
       <c r="AN62">
-        <v>1.29</v>
+        <v>2</v>
       </c>
       <c r="AO62">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AP62">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ62">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR62">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AS62">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT62">
-        <v>2.6</v>
+        <v>2.48</v>
       </c>
       <c r="AU62">
         <v>7</v>
@@ -13842,25 +13845,25 @@
         <v>1.04</v>
       </c>
       <c r="AN63">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AO63">
-        <v>2.71</v>
+        <v>3</v>
       </c>
       <c r="AP63">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="AQ63">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AR63">
-        <v>1.21</v>
+        <v>1.37</v>
       </c>
       <c r="AS63">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="AT63">
-        <v>3.16</v>
+        <v>3.25</v>
       </c>
       <c r="AU63">
         <v>4</v>
@@ -14048,25 +14051,25 @@
         <v>2.3</v>
       </c>
       <c r="AN64">
-        <v>1.57</v>
+        <v>2.33</v>
       </c>
       <c r="AO64">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AP64">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="AQ64">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AR64">
-        <v>1.48</v>
+        <v>1.75</v>
       </c>
       <c r="AS64">
-        <v>0.99</v>
+        <v>0.87</v>
       </c>
       <c r="AT64">
-        <v>2.47</v>
+        <v>2.62</v>
       </c>
       <c r="AU64">
         <v>6</v>
@@ -14254,25 +14257,25 @@
         <v>2.02</v>
       </c>
       <c r="AN65">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="AO65">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="AP65">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ65">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR65">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AS65">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AT65">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="AU65">
         <v>7</v>
@@ -14460,25 +14463,25 @@
         <v>4.4</v>
       </c>
       <c r="AN66">
-        <v>2.75</v>
+        <v>2.33</v>
       </c>
       <c r="AO66">
+        <v>1</v>
+      </c>
+      <c r="AP66">
         <v>1.75</v>
       </c>
-      <c r="AP66">
-        <v>2.2</v>
-      </c>
       <c r="AQ66">
-        <v>1.64</v>
+        <v>1.4</v>
       </c>
       <c r="AR66">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AS66">
-        <v>1.47</v>
+        <v>1.28</v>
       </c>
       <c r="AT66">
-        <v>3.47</v>
+        <v>3.33</v>
       </c>
       <c r="AU66">
         <v>6</v>
@@ -14666,25 +14669,25 @@
         <v>1.27</v>
       </c>
       <c r="AN67">
-        <v>0.88</v>
+        <v>1.5</v>
       </c>
       <c r="AO67">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AP67">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ67">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR67">
-        <v>0.99</v>
+        <v>1.08</v>
       </c>
       <c r="AS67">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="AT67">
-        <v>2.48</v>
+        <v>2.63</v>
       </c>
       <c r="AU67">
         <v>4</v>
@@ -14872,25 +14875,25 @@
         <v>1.48</v>
       </c>
       <c r="AN68">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AO68">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="AP68">
-        <v>0.64</v>
+        <v>0.75</v>
       </c>
       <c r="AQ68">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="AR68">
-        <v>1.11</v>
+        <v>1.23</v>
       </c>
       <c r="AS68">
-        <v>1.39</v>
+        <v>1.24</v>
       </c>
       <c r="AT68">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="AU68">
         <v>3</v>
@@ -15006,7 +15009,7 @@
         <v>135</v>
       </c>
       <c r="P69" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="Q69">
         <v>2.35</v>
@@ -15078,25 +15081,25 @@
         <v>1.95</v>
       </c>
       <c r="AN69">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AO69">
-        <v>1.38</v>
+        <v>2</v>
       </c>
       <c r="AP69">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ69">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR69">
-        <v>1.07</v>
+        <v>1.16</v>
       </c>
       <c r="AS69">
-        <v>1.74</v>
+        <v>1.61</v>
       </c>
       <c r="AT69">
-        <v>2.81</v>
+        <v>2.77</v>
       </c>
       <c r="AU69">
         <v>3</v>
@@ -15284,25 +15287,25 @@
         <v>1.55</v>
       </c>
       <c r="AN70">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AO70">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP70">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="AQ70">
-        <v>1.27</v>
+        <v>0.2</v>
       </c>
       <c r="AR70">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="AS70">
-        <v>1.15</v>
+        <v>0.89</v>
       </c>
       <c r="AT70">
-        <v>2.62</v>
+        <v>2.42</v>
       </c>
       <c r="AU70">
         <v>8</v>
@@ -15418,7 +15421,7 @@
         <v>137</v>
       </c>
       <c r="P71" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="Q71">
         <v>1.72</v>
@@ -15490,25 +15493,25 @@
         <v>3.3</v>
       </c>
       <c r="AN71">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="AO71">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AP71">
-        <v>1.64</v>
+        <v>3</v>
       </c>
       <c r="AQ71">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AR71">
-        <v>1.6</v>
+        <v>1.82</v>
       </c>
       <c r="AS71">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AT71">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="AU71">
         <v>7</v>
@@ -15624,7 +15627,7 @@
         <v>124</v>
       </c>
       <c r="P72" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q72">
         <v>1.88</v>
@@ -15696,25 +15699,25 @@
         <v>2.7</v>
       </c>
       <c r="AN72">
-        <v>2.13</v>
+        <v>3</v>
       </c>
       <c r="AO72">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="AP72">
-        <v>2.18</v>
+        <v>2.6</v>
       </c>
       <c r="AQ72">
-        <v>1.2</v>
+        <v>0.83</v>
       </c>
       <c r="AR72">
+        <v>1.84</v>
+      </c>
+      <c r="AS72">
         <v>1.5</v>
       </c>
-      <c r="AS72">
-        <v>1.49</v>
-      </c>
       <c r="AT72">
-        <v>2.99</v>
+        <v>3.34</v>
       </c>
       <c r="AU72">
         <v>7</v>
@@ -15830,7 +15833,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -15902,25 +15905,25 @@
         <v>1.03</v>
       </c>
       <c r="AN73">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AO73">
-        <v>2.75</v>
+        <v>2.33</v>
       </c>
       <c r="AP73">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="AQ73">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="AR73">
-        <v>1.53</v>
+        <v>1.68</v>
       </c>
       <c r="AS73">
-        <v>2.08</v>
+        <v>1.51</v>
       </c>
       <c r="AT73">
-        <v>3.61</v>
+        <v>3.19</v>
       </c>
       <c r="AU73">
         <v>0</v>
@@ -16108,25 +16111,25 @@
         <v>1.51</v>
       </c>
       <c r="AN74">
-        <v>1.22</v>
+        <v>1</v>
       </c>
       <c r="AO74">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AP74">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="AQ74">
-        <v>1.27</v>
+        <v>0.2</v>
       </c>
       <c r="AR74">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="AS74">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT74">
-        <v>2.93</v>
+        <v>2.81</v>
       </c>
       <c r="AU74">
         <v>6</v>
@@ -16242,7 +16245,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -16314,25 +16317,25 @@
         <v>1.98</v>
       </c>
       <c r="AN75">
+        <v>0.6</v>
+      </c>
+      <c r="AO75">
+        <v>0.25</v>
+      </c>
+      <c r="AP75">
         <v>0.67</v>
       </c>
-      <c r="AO75">
-        <v>0.78</v>
-      </c>
-      <c r="AP75">
-        <v>0.7</v>
-      </c>
       <c r="AQ75">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AR75">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="AS75">
-        <v>1.03</v>
+        <v>0.9</v>
       </c>
       <c r="AT75">
-        <v>2.46</v>
+        <v>2.39</v>
       </c>
       <c r="AU75">
         <v>5</v>
@@ -16448,7 +16451,7 @@
         <v>88</v>
       </c>
       <c r="P76" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q76">
         <v>3.7</v>
@@ -16520,25 +16523,25 @@
         <v>1.34</v>
       </c>
       <c r="AN76">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AO76">
-        <v>1.44</v>
+        <v>1</v>
       </c>
       <c r="AP76">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="AQ76">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AR76">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="AS76">
-        <v>1.06</v>
+        <v>0.99</v>
       </c>
       <c r="AT76">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AU76">
         <v>3</v>
@@ -16654,7 +16657,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q77">
         <v>2.47</v>
@@ -16726,25 +16729,25 @@
         <v>1.85</v>
       </c>
       <c r="AN77">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AO77">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AP77">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ77">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AR77">
-        <v>1.59</v>
+        <v>1.45</v>
       </c>
       <c r="AS77">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AT77">
-        <v>3.16</v>
+        <v>2.89</v>
       </c>
       <c r="AU77">
         <v>3</v>
@@ -16932,25 +16935,25 @@
         <v>4.5</v>
       </c>
       <c r="AN78">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AO78">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AP78">
-        <v>2.18</v>
+        <v>2.6</v>
       </c>
       <c r="AQ78">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR78">
-        <v>1.52</v>
+        <v>1.78</v>
       </c>
       <c r="AS78">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AT78">
-        <v>2.59</v>
+        <v>2.81</v>
       </c>
       <c r="AU78">
         <v>8</v>
@@ -17138,25 +17141,25 @@
         <v>1.48</v>
       </c>
       <c r="AN79">
-        <v>1.22</v>
+        <v>1.75</v>
       </c>
       <c r="AO79">
-        <v>1.89</v>
+        <v>1</v>
       </c>
       <c r="AP79">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ79">
-        <v>1.64</v>
+        <v>1</v>
       </c>
       <c r="AR79">
-        <v>1.37</v>
+        <v>1.49</v>
       </c>
       <c r="AS79">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="AT79">
-        <v>2.99</v>
+        <v>2.96</v>
       </c>
       <c r="AU79">
         <v>4</v>
@@ -17272,7 +17275,7 @@
         <v>140</v>
       </c>
       <c r="P80" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q80">
         <v>2.5</v>
@@ -17344,25 +17347,25 @@
         <v>1.9</v>
       </c>
       <c r="AN80">
-        <v>1.89</v>
+        <v>2.5</v>
       </c>
       <c r="AO80">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AP80">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="AQ80">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR80">
-        <v>1.41</v>
+        <v>1.66</v>
       </c>
       <c r="AS80">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="AT80">
-        <v>2.84</v>
+        <v>3.1</v>
       </c>
       <c r="AU80">
         <v>5</v>
@@ -17478,7 +17481,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17550,25 +17553,25 @@
         <v>1.89</v>
       </c>
       <c r="AN81">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="AO81">
-        <v>2.44</v>
+        <v>3</v>
       </c>
       <c r="AP81">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AQ81">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AR81">
-        <v>2.1</v>
+        <v>2.43</v>
       </c>
       <c r="AS81">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="AT81">
-        <v>4.09</v>
+        <v>4.4</v>
       </c>
       <c r="AU81">
         <v>6</v>
@@ -17642,7 +17645,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>7468174</v>
+        <v>7468170</v>
       </c>
       <c r="C82" t="s">
         <v>68</v>
@@ -17651,16 +17654,16 @@
         <v>69</v>
       </c>
       <c r="E82" s="2">
-        <v>45584.35416666666</v>
+        <v>45585.33333333334</v>
       </c>
       <c r="F82">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H82" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -17672,145 +17675,145 @@
         <v>1</v>
       </c>
       <c r="L82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N82">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O82" t="s">
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q82">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="R82">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="S82">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="T82">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="U82">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="V82">
-        <v>2.95</v>
+        <v>2.63</v>
       </c>
       <c r="W82">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="X82">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y82">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="Z82">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="AA82">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="AB82">
-        <v>2.92</v>
+        <v>2.65</v>
       </c>
       <c r="AC82">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AD82">
-        <v>7.7</v>
+        <v>9</v>
       </c>
       <c r="AE82">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="AF82">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="AG82">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="AH82">
-        <v>1.73</v>
+        <v>2.12</v>
       </c>
       <c r="AI82">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="AJ82">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="AK82">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AL82">
         <v>1.25</v>
       </c>
       <c r="AM82">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="AN82">
-        <v>1.3</v>
+        <v>0.75</v>
       </c>
       <c r="AO82">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="AP82">
-        <v>1.27</v>
+        <v>0.8</v>
       </c>
       <c r="AQ82">
-        <v>1.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR82">
-        <v>1.21</v>
+        <v>1.41</v>
       </c>
       <c r="AS82">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="AT82">
-        <v>2.62</v>
+        <v>2.69</v>
       </c>
       <c r="AU82">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AV82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW82">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AX82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY82">
         <v>22</v>
       </c>
       <c r="AZ82">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA82">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BB82">
         <v>3</v>
       </c>
       <c r="BC82">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BD82">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="BE82">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BF82">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="BG82">
         <v>0</v>
@@ -17819,28 +17822,28 @@
         <v>0</v>
       </c>
       <c r="BI82">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="BJ82">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="BK82">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="BL82">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="BM82">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="BN82">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="BO82">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="BP82">
-        <v>0</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="83" spans="1:68">
@@ -17848,7 +17851,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>7468168</v>
+        <v>7468173</v>
       </c>
       <c r="C83" t="s">
         <v>68</v>
@@ -17857,166 +17860,166 @@
         <v>69</v>
       </c>
       <c r="E83" s="2">
-        <v>45584.45833333334</v>
+        <v>45585.4375</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G83" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H83" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O83" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="P83" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q83">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="R83">
         <v>2.1</v>
       </c>
       <c r="S83">
-        <v>2.95</v>
+        <v>4.75</v>
       </c>
       <c r="T83">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="U83">
-        <v>2.9</v>
+        <v>2.63</v>
       </c>
       <c r="V83">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="W83">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="X83">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Y83">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="Z83">
-        <v>2.53</v>
+        <v>1.86</v>
       </c>
       <c r="AA83">
-        <v>3.1</v>
+        <v>3.58</v>
       </c>
       <c r="AB83">
-        <v>2.32</v>
+        <v>4.22</v>
       </c>
       <c r="AC83">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="AD83">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE83">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="AF83">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="AG83">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="AH83">
-        <v>2</v>
+        <v>1.74</v>
       </c>
       <c r="AI83">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="AJ83">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AK83">
-        <v>1.57</v>
+        <v>1.2</v>
       </c>
       <c r="AL83">
         <v>1.25</v>
       </c>
       <c r="AM83">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="AN83">
         <v>1.8</v>
       </c>
       <c r="AO83">
-        <v>2.1</v>
+        <v>0.75</v>
       </c>
       <c r="AP83">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ83">
-        <v>2.18</v>
+        <v>1.2</v>
       </c>
       <c r="AR83">
-        <v>1.66</v>
+        <v>1.12</v>
       </c>
       <c r="AS83">
-        <v>1.56</v>
+        <v>1.36</v>
       </c>
       <c r="AT83">
-        <v>3.22</v>
+        <v>2.48</v>
       </c>
       <c r="AU83">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AV83">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW83">
         <v>11</v>
       </c>
       <c r="AX83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY83">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AZ83">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA83">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB83">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC83">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD83">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="BE83">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="BF83">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="BG83">
         <v>0</v>
@@ -18025,28 +18028,28 @@
         <v>0</v>
       </c>
       <c r="BI83">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="BJ83">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="BK83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL83">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="BM83">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="BN83">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="BO83">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="BP83">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="84" spans="1:68">
@@ -18054,7 +18057,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>7468169</v>
+        <v>7468175</v>
       </c>
       <c r="C84" t="s">
         <v>68</v>
@@ -18063,196 +18066,402 @@
         <v>69</v>
       </c>
       <c r="E84" s="2">
-        <v>45584.45833333334</v>
+        <v>45585.4375</v>
       </c>
       <c r="F84">
         <v>12</v>
       </c>
       <c r="G84" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H84" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L84">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M84">
         <v>1</v>
       </c>
       <c r="N84">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O84" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P84" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="Q84">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="R84">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="S84">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="T84">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="U84">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="V84">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W84">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X84">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y84">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z84">
-        <v>1.98</v>
+        <v>1.57</v>
       </c>
       <c r="AA84">
-        <v>3.16</v>
+        <v>4.2</v>
       </c>
       <c r="AB84">
-        <v>3.34</v>
+        <v>5.55</v>
       </c>
       <c r="AC84">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AD84">
         <v>9</v>
       </c>
       <c r="AE84">
+        <v>1.25</v>
+      </c>
+      <c r="AF84">
+        <v>3.6</v>
+      </c>
+      <c r="AG84">
+        <v>1.74</v>
+      </c>
+      <c r="AH84">
+        <v>2.1</v>
+      </c>
+      <c r="AI84">
+        <v>1.91</v>
+      </c>
+      <c r="AJ84">
+        <v>1.91</v>
+      </c>
+      <c r="AK84">
+        <v>1.11</v>
+      </c>
+      <c r="AL84">
+        <v>1.18</v>
+      </c>
+      <c r="AM84">
+        <v>2.3</v>
+      </c>
+      <c r="AN84">
+        <v>1</v>
+      </c>
+      <c r="AO84">
+        <v>0</v>
+      </c>
+      <c r="AP84">
+        <v>1.29</v>
+      </c>
+      <c r="AQ84">
+        <v>0</v>
+      </c>
+      <c r="AR84">
+        <v>1.73</v>
+      </c>
+      <c r="AS84">
+        <v>1.04</v>
+      </c>
+      <c r="AT84">
+        <v>2.77</v>
+      </c>
+      <c r="AU84">
+        <v>8</v>
+      </c>
+      <c r="AV84">
+        <v>7</v>
+      </c>
+      <c r="AW84">
+        <v>7</v>
+      </c>
+      <c r="AX84">
+        <v>3</v>
+      </c>
+      <c r="AY84">
+        <v>22</v>
+      </c>
+      <c r="AZ84">
+        <v>14</v>
+      </c>
+      <c r="BA84">
+        <v>7</v>
+      </c>
+      <c r="BB84">
+        <v>8</v>
+      </c>
+      <c r="BC84">
+        <v>15</v>
+      </c>
+      <c r="BD84">
+        <v>1.44</v>
+      </c>
+      <c r="BE84">
+        <v>9.5</v>
+      </c>
+      <c r="BF84">
+        <v>3</v>
+      </c>
+      <c r="BG84">
+        <v>0</v>
+      </c>
+      <c r="BH84">
+        <v>0</v>
+      </c>
+      <c r="BI84">
+        <v>1.19</v>
+      </c>
+      <c r="BJ84">
+        <v>3.62</v>
+      </c>
+      <c r="BK84">
+        <v>1.38</v>
+      </c>
+      <c r="BL84">
+        <v>2.62</v>
+      </c>
+      <c r="BM84">
+        <v>1.77</v>
+      </c>
+      <c r="BN84">
+        <v>1.95</v>
+      </c>
+      <c r="BO84">
+        <v>2.07</v>
+      </c>
+      <c r="BP84">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7468171</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45585.5625</v>
+      </c>
+      <c r="F85">
+        <v>12</v>
+      </c>
+      <c r="G85" t="s">
+        <v>71</v>
+      </c>
+      <c r="H85" t="s">
+        <v>80</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>2</v>
+      </c>
+      <c r="N85">
+        <v>3</v>
+      </c>
+      <c r="O85" t="s">
+        <v>93</v>
+      </c>
+      <c r="P85" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q85">
+        <v>6.5</v>
+      </c>
+      <c r="R85">
+        <v>2.4</v>
+      </c>
+      <c r="S85">
+        <v>1.95</v>
+      </c>
+      <c r="T85">
+        <v>1.33</v>
+      </c>
+      <c r="U85">
+        <v>3.25</v>
+      </c>
+      <c r="V85">
+        <v>2.63</v>
+      </c>
+      <c r="W85">
+        <v>1.44</v>
+      </c>
+      <c r="X85">
+        <v>6.5</v>
+      </c>
+      <c r="Y85">
+        <v>1.11</v>
+      </c>
+      <c r="Z85">
+        <v>6</v>
+      </c>
+      <c r="AA85">
+        <v>4</v>
+      </c>
+      <c r="AB85">
+        <v>1.4</v>
+      </c>
+      <c r="AC85">
+        <v>1.04</v>
+      </c>
+      <c r="AD85">
+        <v>9</v>
+      </c>
+      <c r="AE85">
+        <v>1.22</v>
+      </c>
+      <c r="AF85">
+        <v>4</v>
+      </c>
+      <c r="AG85">
+        <v>1.73</v>
+      </c>
+      <c r="AH85">
+        <v>2</v>
+      </c>
+      <c r="AI85">
+        <v>1.95</v>
+      </c>
+      <c r="AJ85">
+        <v>1.8</v>
+      </c>
+      <c r="AK85">
+        <v>2.75</v>
+      </c>
+      <c r="AL85">
+        <v>1.15</v>
+      </c>
+      <c r="AM85">
+        <v>1.06</v>
+      </c>
+      <c r="AN85">
+        <v>1.75</v>
+      </c>
+      <c r="AO85">
+        <v>2.5</v>
+      </c>
+      <c r="AP85">
+        <v>1.4</v>
+      </c>
+      <c r="AQ85">
+        <v>2.6</v>
+      </c>
+      <c r="AR85">
+        <v>1.74</v>
+      </c>
+      <c r="AS85">
+        <v>1.69</v>
+      </c>
+      <c r="AT85">
+        <v>3.43</v>
+      </c>
+      <c r="AU85">
+        <v>5</v>
+      </c>
+      <c r="AV85">
+        <v>6</v>
+      </c>
+      <c r="AW85">
+        <v>4</v>
+      </c>
+      <c r="AX85">
+        <v>8</v>
+      </c>
+      <c r="AY85">
+        <v>13</v>
+      </c>
+      <c r="AZ85">
+        <v>15</v>
+      </c>
+      <c r="BA85">
+        <v>7</v>
+      </c>
+      <c r="BB85">
+        <v>5</v>
+      </c>
+      <c r="BC85">
+        <v>12</v>
+      </c>
+      <c r="BD85">
+        <v>3.4</v>
+      </c>
+      <c r="BE85">
+        <v>10</v>
+      </c>
+      <c r="BF85">
+        <v>1.36</v>
+      </c>
+      <c r="BG85">
+        <v>1.17</v>
+      </c>
+      <c r="BH85">
+        <v>4.8</v>
+      </c>
+      <c r="BI85">
         <v>1.28</v>
       </c>
-      <c r="AF84">
-        <v>3.5</v>
-      </c>
-      <c r="AG84">
-        <v>1.89</v>
-      </c>
-      <c r="AH84">
-        <v>1.93</v>
-      </c>
-      <c r="AI84">
-        <v>1.75</v>
-      </c>
-      <c r="AJ84">
-        <v>2</v>
-      </c>
-      <c r="AK84">
-        <v>1.28</v>
-      </c>
-      <c r="AL84">
-        <v>1.25</v>
-      </c>
-      <c r="AM84">
-        <v>1.78</v>
-      </c>
-      <c r="AN84">
-        <v>0.8</v>
-      </c>
-      <c r="AO84">
-        <v>0.7</v>
-      </c>
-      <c r="AP84">
-        <v>1</v>
-      </c>
-      <c r="AQ84">
-        <v>0.64</v>
-      </c>
-      <c r="AR84">
-        <v>1.01</v>
-      </c>
-      <c r="AS84">
-        <v>1.08</v>
-      </c>
-      <c r="AT84">
-        <v>2.09</v>
-      </c>
-      <c r="AU84">
-        <v>7</v>
-      </c>
-      <c r="AV84">
-        <v>5</v>
-      </c>
-      <c r="AW84">
-        <v>3</v>
-      </c>
-      <c r="AX84">
-        <v>3</v>
-      </c>
-      <c r="AY84">
-        <v>12</v>
-      </c>
-      <c r="AZ84">
-        <v>11</v>
-      </c>
-      <c r="BA84">
-        <v>4</v>
-      </c>
-      <c r="BB84">
-        <v>3</v>
-      </c>
-      <c r="BC84">
-        <v>7</v>
-      </c>
-      <c r="BD84">
-        <v>0</v>
-      </c>
-      <c r="BE84">
-        <v>0</v>
-      </c>
-      <c r="BF84">
-        <v>0</v>
-      </c>
-      <c r="BG84">
-        <v>0</v>
-      </c>
-      <c r="BH84">
-        <v>0</v>
-      </c>
-      <c r="BI84">
-        <v>0</v>
-      </c>
-      <c r="BJ84">
-        <v>0</v>
-      </c>
-      <c r="BK84">
-        <v>1.83</v>
-      </c>
-      <c r="BL84">
-        <v>0</v>
-      </c>
-      <c r="BM84">
-        <v>0</v>
-      </c>
-      <c r="BN84">
-        <v>0</v>
-      </c>
-      <c r="BO84">
-        <v>0</v>
-      </c>
-      <c r="BP84">
-        <v>0</v>
+      <c r="BJ85">
+        <v>2.94</v>
+      </c>
+      <c r="BK85">
+        <v>2.1</v>
+      </c>
+      <c r="BL85">
+        <v>2.19</v>
+      </c>
+      <c r="BM85">
+        <v>1.95</v>
+      </c>
+      <c r="BN85">
+        <v>1.77</v>
+      </c>
+      <c r="BO85">
+        <v>2.46</v>
+      </c>
+      <c r="BP85">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="197">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -442,6 +442,18 @@
     <t>['2', '22']</t>
   </si>
   <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['87']</t>
+  </si>
+  <si>
+    <t>['64', '67']</t>
+  </si>
+  <si>
+    <t>['8', '79']</t>
+  </si>
+  <si>
     <t>['65', '90+5']</t>
   </si>
   <si>
@@ -454,9 +466,6 @@
     <t>['56', '71']</t>
   </si>
   <si>
-    <t>['90+3']</t>
-  </si>
-  <si>
     <t>['19', '30', '68']</t>
   </si>
   <si>
@@ -556,9 +565,6 @@
     <t>['86']</t>
   </si>
   <si>
-    <t>['87']</t>
-  </si>
-  <si>
     <t>['43']</t>
   </si>
   <si>
@@ -580,13 +586,25 @@
     <t>['65']</t>
   </si>
   <si>
+    <t>['13']</t>
+  </si>
+  <si>
+    <t>['5', '43', '89']</t>
+  </si>
+  <si>
+    <t>['38']</t>
+  </si>
+  <si>
+    <t>['63']</t>
+  </si>
+  <si>
     <t>['38', '83']</t>
   </si>
   <si>
+    <t>['18', '61']</t>
+  </si>
+  <si>
     <t>['42', '82']</t>
-  </si>
-  <si>
-    <t>['18', '61']</t>
   </si>
 </sst>
 </file>
@@ -948,7 +966,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP85"/>
+  <dimension ref="A1:BP89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1207,7 +1225,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q2">
         <v>1.53</v>
@@ -1285,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ2">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1619,7 +1637,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -1700,7 +1718,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ4">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1825,7 +1843,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2031,7 +2049,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2109,10 +2127,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ6">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2237,7 +2255,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2318,7 +2336,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ7">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2727,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ9">
         <v>1.2</v>
@@ -2933,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ10">
         <v>1.5</v>
@@ -3061,7 +3079,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q11">
         <v>2.85</v>
@@ -3267,7 +3285,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3679,7 +3697,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -3760,7 +3778,7 @@
         <v>1</v>
       </c>
       <c r="AQ14">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4169,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ16">
         <v>1.67</v>
@@ -4503,7 +4521,7 @@
         <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q18">
         <v>5.4</v>
@@ -4787,7 +4805,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ19">
         <v>0.4</v>
@@ -5202,7 +5220,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ21">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR21">
         <v>1.81</v>
@@ -5533,7 +5551,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q23">
         <v>2.6</v>
@@ -5614,7 +5632,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ23">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR23">
         <v>1.33</v>
@@ -5739,7 +5757,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5817,7 +5835,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ24">
         <v>0.83</v>
@@ -5945,7 +5963,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q25">
         <v>1.06</v>
@@ -6023,7 +6041,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25">
         <v>1.67</v>
@@ -6151,7 +6169,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q26">
         <v>3.2</v>
@@ -6232,7 +6250,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ26">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR26">
         <v>1.06</v>
@@ -6357,7 +6375,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q27">
         <v>6.23</v>
@@ -6644,7 +6662,7 @@
         <v>3</v>
       </c>
       <c r="AQ28">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR28">
         <v>2.4</v>
@@ -7259,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ31">
         <v>0.2</v>
@@ -7671,7 +7689,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ33">
         <v>0.4</v>
@@ -7799,7 +7817,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q34">
         <v>1.45</v>
@@ -8005,7 +8023,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q35">
         <v>2.84</v>
@@ -8211,7 +8229,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q36">
         <v>5.63</v>
@@ -8417,7 +8435,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q37">
         <v>2.58</v>
@@ -8704,7 +8722,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR38">
         <v>1.34</v>
@@ -8829,7 +8847,7 @@
         <v>88</v>
       </c>
       <c r="P39" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q39">
         <v>4.75</v>
@@ -8910,7 +8928,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ39">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR39">
         <v>1.46</v>
@@ -9241,7 +9259,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9447,7 +9465,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q42">
         <v>2.61</v>
@@ -9653,7 +9671,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q43">
         <v>1.69</v>
@@ -9731,7 +9749,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ43">
         <v>1.4</v>
@@ -10143,10 +10161,10 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ45">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR45">
         <v>1.87</v>
@@ -10349,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ46">
         <v>0</v>
@@ -11095,7 +11113,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q50">
         <v>5.1</v>
@@ -11173,7 +11191,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ50">
         <v>2.5</v>
@@ -11301,7 +11319,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -11794,7 +11812,7 @@
         <v>3</v>
       </c>
       <c r="AQ53">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR53">
         <v>2.35</v>
@@ -11919,7 +11937,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12125,7 +12143,7 @@
         <v>93</v>
       </c>
       <c r="P55" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q55">
         <v>3.85</v>
@@ -12206,7 +12224,7 @@
         <v>1</v>
       </c>
       <c r="AQ55">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR55">
         <v>1.32</v>
@@ -12331,7 +12349,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q56">
         <v>1.85</v>
@@ -12412,7 +12430,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ56">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR56">
         <v>1.85</v>
@@ -12537,7 +12555,7 @@
         <v>88</v>
       </c>
       <c r="P57" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q57">
         <v>5.88</v>
@@ -12821,7 +12839,7 @@
         <v>1.33</v>
       </c>
       <c r="AP58">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ58">
         <v>1.4</v>
@@ -13155,7 +13173,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q60">
         <v>3.86</v>
@@ -13442,7 +13460,7 @@
         <v>3</v>
       </c>
       <c r="AQ61">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR61">
         <v>2.33</v>
@@ -13567,7 +13585,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q62">
         <v>1.83</v>
@@ -13648,7 +13666,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ62">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR62">
         <v>1.42</v>
@@ -13773,7 +13791,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q63">
         <v>8.77</v>
@@ -13979,7 +13997,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -14185,7 +14203,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14391,7 +14409,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q66">
         <v>1.55</v>
@@ -14469,10 +14487,10 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ66">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR66">
         <v>2.05</v>
@@ -14597,7 +14615,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -14675,10 +14693,10 @@
         <v>1</v>
       </c>
       <c r="AP67">
+        <v>1.5</v>
+      </c>
+      <c r="AQ67">
         <v>1.2</v>
-      </c>
-      <c r="AQ67">
-        <v>1.5</v>
       </c>
       <c r="AR67">
         <v>1.08</v>
@@ -14803,7 +14821,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -15009,7 +15027,7 @@
         <v>135</v>
       </c>
       <c r="P69" t="s">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="Q69">
         <v>2.35</v>
@@ -15421,7 +15439,7 @@
         <v>137</v>
       </c>
       <c r="P71" t="s">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="Q71">
         <v>1.72</v>
@@ -15499,7 +15517,7 @@
         <v>0</v>
       </c>
       <c r="AP71">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ71">
         <v>0</v>
@@ -15627,7 +15645,7 @@
         <v>124</v>
       </c>
       <c r="P72" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q72">
         <v>1.88</v>
@@ -15833,7 +15851,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -16245,7 +16263,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -16451,7 +16469,7 @@
         <v>88</v>
       </c>
       <c r="P76" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q76">
         <v>3.7</v>
@@ -16657,7 +16675,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q77">
         <v>2.47</v>
@@ -16944,7 +16962,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ78">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR78">
         <v>1.78</v>
@@ -17275,7 +17293,7 @@
         <v>140</v>
       </c>
       <c r="P80" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q80">
         <v>2.5</v>
@@ -17481,7 +17499,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17645,7 +17663,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>7468170</v>
+        <v>7468174</v>
       </c>
       <c r="C82" t="s">
         <v>68</v>
@@ -17654,16 +17672,16 @@
         <v>69</v>
       </c>
       <c r="E82" s="2">
-        <v>45585.33333333334</v>
+        <v>45584.35416666666</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G82" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H82" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -17675,145 +17693,145 @@
         <v>1</v>
       </c>
       <c r="L82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O82" t="s">
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q82">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="R82">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="S82">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="T82">
+        <v>1.45</v>
+      </c>
+      <c r="U82">
+        <v>2.6</v>
+      </c>
+      <c r="V82">
+        <v>2.95</v>
+      </c>
+      <c r="W82">
+        <v>1.36</v>
+      </c>
+      <c r="X82">
+        <v>7.5</v>
+      </c>
+      <c r="Y82">
+        <v>1.06</v>
+      </c>
+      <c r="Z82">
+        <v>2.1</v>
+      </c>
+      <c r="AA82">
+        <v>3</v>
+      </c>
+      <c r="AB82">
+        <v>2.92</v>
+      </c>
+      <c r="AC82">
+        <v>1.01</v>
+      </c>
+      <c r="AD82">
+        <v>7.7</v>
+      </c>
+      <c r="AE82">
         <v>1.33</v>
       </c>
-      <c r="U82">
-        <v>3.25</v>
-      </c>
-      <c r="V82">
-        <v>2.63</v>
-      </c>
-      <c r="W82">
-        <v>1.44</v>
-      </c>
-      <c r="X82">
-        <v>6.5</v>
-      </c>
-      <c r="Y82">
-        <v>1.11</v>
-      </c>
-      <c r="Z82">
-        <v>2.35</v>
-      </c>
-      <c r="AA82">
-        <v>3.35</v>
-      </c>
-      <c r="AB82">
-        <v>2.65</v>
-      </c>
-      <c r="AC82">
-        <v>1.04</v>
-      </c>
-      <c r="AD82">
-        <v>9</v>
-      </c>
-      <c r="AE82">
-        <v>1.22</v>
-      </c>
       <c r="AF82">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="AG82">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="AH82">
-        <v>2.12</v>
+        <v>1.73</v>
       </c>
       <c r="AI82">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="AJ82">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="AK82">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AL82">
         <v>1.25</v>
       </c>
       <c r="AM82">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="AN82">
-        <v>0.75</v>
+        <v>2.4</v>
       </c>
       <c r="AO82">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="AP82">
-        <v>0.8</v>
+        <v>2.17</v>
       </c>
       <c r="AQ82">
-        <v>0.83</v>
+        <v>1.33</v>
       </c>
       <c r="AR82">
-        <v>1.41</v>
+        <v>1.31</v>
       </c>
       <c r="AS82">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AT82">
-        <v>2.69</v>
+        <v>2.52</v>
       </c>
       <c r="AU82">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AV82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW82">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AX82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY82">
         <v>22</v>
       </c>
       <c r="AZ82">
+        <v>5</v>
+      </c>
+      <c r="BA82">
         <v>8</v>
       </c>
-      <c r="BA82">
+      <c r="BB82">
+        <v>3</v>
+      </c>
+      <c r="BC82">
         <v>11</v>
       </c>
-      <c r="BB82">
-        <v>3</v>
-      </c>
-      <c r="BC82">
-        <v>14</v>
-      </c>
       <c r="BD82">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="BE82">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BF82">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="BG82">
         <v>0</v>
@@ -17822,28 +17840,28 @@
         <v>0</v>
       </c>
       <c r="BI82">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="BJ82">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="BK82">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="BL82">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="BM82">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="BN82">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="BO82">
-        <v>2.11</v>
+        <v>0</v>
       </c>
       <c r="BP82">
-        <v>1.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:68">
@@ -17851,7 +17869,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>7468173</v>
+        <v>7468168</v>
       </c>
       <c r="C83" t="s">
         <v>68</v>
@@ -17860,166 +17878,166 @@
         <v>69</v>
       </c>
       <c r="E83" s="2">
-        <v>45585.4375</v>
+        <v>45584.45833333334</v>
       </c>
       <c r="F83">
         <v>12</v>
       </c>
       <c r="G83" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H83" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N83">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O83" t="s">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="P83" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q83">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="R83">
         <v>2.1</v>
       </c>
       <c r="S83">
-        <v>4.75</v>
+        <v>2.95</v>
       </c>
       <c r="T83">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="U83">
-        <v>2.63</v>
+        <v>2.9</v>
       </c>
       <c r="V83">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="W83">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="X83">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Y83">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="Z83">
-        <v>1.86</v>
+        <v>2.53</v>
       </c>
       <c r="AA83">
-        <v>3.58</v>
+        <v>3.1</v>
       </c>
       <c r="AB83">
-        <v>4.22</v>
+        <v>2.32</v>
       </c>
       <c r="AC83">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="AD83">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AE83">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AF83">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="AG83">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="AH83">
-        <v>1.74</v>
+        <v>2</v>
       </c>
       <c r="AI83">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="AJ83">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="AK83">
-        <v>1.2</v>
+        <v>1.57</v>
       </c>
       <c r="AL83">
         <v>1.25</v>
       </c>
       <c r="AM83">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="AN83">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="AO83">
-        <v>0.75</v>
+        <v>1.6</v>
       </c>
       <c r="AP83">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="AQ83">
-        <v>1.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR83">
-        <v>1.12</v>
+        <v>1.81</v>
       </c>
       <c r="AS83">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AT83">
-        <v>2.48</v>
+        <v>3.11</v>
       </c>
       <c r="AU83">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AV83">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW83">
         <v>11</v>
       </c>
       <c r="AX83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY83">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AZ83">
+        <v>11</v>
+      </c>
+      <c r="BA83">
+        <v>4</v>
+      </c>
+      <c r="BB83">
+        <v>5</v>
+      </c>
+      <c r="BC83">
         <v>9</v>
       </c>
-      <c r="BA83">
-        <v>5</v>
-      </c>
-      <c r="BB83">
-        <v>3</v>
-      </c>
-      <c r="BC83">
-        <v>8</v>
-      </c>
       <c r="BD83">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="BE83">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="BF83">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="BG83">
         <v>0</v>
@@ -18028,28 +18046,28 @@
         <v>0</v>
       </c>
       <c r="BI83">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="BJ83">
-        <v>3.04</v>
+        <v>0</v>
       </c>
       <c r="BK83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BL83">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="BM83">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="BN83">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="BO83">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="BP83">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:68">
@@ -18057,7 +18075,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>7468175</v>
+        <v>7468169</v>
       </c>
       <c r="C84" t="s">
         <v>68</v>
@@ -18066,166 +18084,166 @@
         <v>69</v>
       </c>
       <c r="E84" s="2">
-        <v>45585.4375</v>
+        <v>45584.45833333334</v>
       </c>
       <c r="F84">
         <v>12</v>
       </c>
       <c r="G84" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H84" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L84">
+        <v>2</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>3</v>
+      </c>
+      <c r="O84" t="s">
+        <v>144</v>
+      </c>
+      <c r="P84" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q84">
+        <v>2.6</v>
+      </c>
+      <c r="R84">
+        <v>2.1</v>
+      </c>
+      <c r="S84">
         <v>4</v>
       </c>
-      <c r="M84">
-        <v>1</v>
-      </c>
-      <c r="N84">
-        <v>5</v>
-      </c>
-      <c r="O84" t="s">
-        <v>143</v>
-      </c>
-      <c r="P84" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q84">
-        <v>2.2</v>
-      </c>
-      <c r="R84">
-        <v>2.3</v>
-      </c>
-      <c r="S84">
-        <v>5.5</v>
-      </c>
       <c r="T84">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="U84">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="V84">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W84">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X84">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y84">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z84">
-        <v>1.57</v>
+        <v>1.98</v>
       </c>
       <c r="AA84">
-        <v>4.2</v>
+        <v>3.16</v>
       </c>
       <c r="AB84">
-        <v>5.55</v>
+        <v>3.34</v>
       </c>
       <c r="AC84">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AD84">
         <v>9</v>
       </c>
       <c r="AE84">
+        <v>1.28</v>
+      </c>
+      <c r="AF84">
+        <v>3.5</v>
+      </c>
+      <c r="AG84">
+        <v>1.89</v>
+      </c>
+      <c r="AH84">
+        <v>1.93</v>
+      </c>
+      <c r="AI84">
+        <v>1.75</v>
+      </c>
+      <c r="AJ84">
+        <v>2</v>
+      </c>
+      <c r="AK84">
+        <v>1.28</v>
+      </c>
+      <c r="AL84">
         <v>1.25</v>
       </c>
-      <c r="AF84">
-        <v>3.6</v>
-      </c>
-      <c r="AG84">
-        <v>1.74</v>
-      </c>
-      <c r="AH84">
-        <v>2.1</v>
-      </c>
-      <c r="AI84">
-        <v>1.91</v>
-      </c>
-      <c r="AJ84">
-        <v>1.91</v>
-      </c>
-      <c r="AK84">
-        <v>1.11</v>
-      </c>
-      <c r="AL84">
-        <v>1.18</v>
-      </c>
       <c r="AM84">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="AN84">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AO84">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AP84">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ84">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="AR84">
-        <v>1.73</v>
+        <v>1.14</v>
       </c>
       <c r="AS84">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="AT84">
-        <v>2.77</v>
+        <v>2.2</v>
       </c>
       <c r="AU84">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV84">
+        <v>5</v>
+      </c>
+      <c r="AW84">
+        <v>3</v>
+      </c>
+      <c r="AX84">
+        <v>3</v>
+      </c>
+      <c r="AY84">
+        <v>12</v>
+      </c>
+      <c r="AZ84">
+        <v>11</v>
+      </c>
+      <c r="BA84">
+        <v>4</v>
+      </c>
+      <c r="BB84">
+        <v>3</v>
+      </c>
+      <c r="BC84">
         <v>7</v>
       </c>
-      <c r="AW84">
-        <v>7</v>
-      </c>
-      <c r="AX84">
-        <v>3</v>
-      </c>
-      <c r="AY84">
-        <v>22</v>
-      </c>
-      <c r="AZ84">
-        <v>14</v>
-      </c>
-      <c r="BA84">
-        <v>7</v>
-      </c>
-      <c r="BB84">
-        <v>8</v>
-      </c>
-      <c r="BC84">
-        <v>15</v>
-      </c>
       <c r="BD84">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="BE84">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="BF84">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BG84">
         <v>0</v>
@@ -18234,28 +18252,28 @@
         <v>0</v>
       </c>
       <c r="BI84">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="BJ84">
-        <v>3.62</v>
+        <v>0</v>
       </c>
       <c r="BK84">
-        <v>1.38</v>
+        <v>1.83</v>
       </c>
       <c r="BL84">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="BM84">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="BN84">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="BO84">
-        <v>2.07</v>
+        <v>0</v>
       </c>
       <c r="BP84">
-        <v>1.61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:68">
@@ -18263,7 +18281,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>7468171</v>
+        <v>7468172</v>
       </c>
       <c r="C85" t="s">
         <v>68</v>
@@ -18272,196 +18290,1020 @@
         <v>69</v>
       </c>
       <c r="E85" s="2">
-        <v>45585.5625</v>
+        <v>45584.58333333334</v>
       </c>
       <c r="F85">
         <v>12</v>
       </c>
       <c r="G85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H85" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K85">
         <v>1</v>
       </c>
       <c r="L85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N85">
         <v>3</v>
       </c>
       <c r="O85" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q85">
+        <v>1.65</v>
+      </c>
+      <c r="R85">
+        <v>2.85</v>
+      </c>
+      <c r="S85">
         <v>6.5</v>
       </c>
-      <c r="R85">
-        <v>2.4</v>
-      </c>
-      <c r="S85">
+      <c r="T85">
+        <v>1.21</v>
+      </c>
+      <c r="U85">
+        <v>4</v>
+      </c>
+      <c r="V85">
+        <v>2.06</v>
+      </c>
+      <c r="W85">
+        <v>1.69</v>
+      </c>
+      <c r="X85">
+        <v>4.5</v>
+      </c>
+      <c r="Y85">
+        <v>1.17</v>
+      </c>
+      <c r="Z85">
+        <v>1.25</v>
+      </c>
+      <c r="AA85">
+        <v>5.5</v>
+      </c>
+      <c r="AB85">
+        <v>9.5</v>
+      </c>
+      <c r="AC85">
+        <v>1.01</v>
+      </c>
+      <c r="AD85">
+        <v>17</v>
+      </c>
+      <c r="AE85">
+        <v>1.09</v>
+      </c>
+      <c r="AF85">
+        <v>4.95</v>
+      </c>
+      <c r="AG85">
+        <v>1.41</v>
+      </c>
+      <c r="AH85">
+        <v>2.69</v>
+      </c>
+      <c r="AI85">
+        <v>1.8</v>
+      </c>
+      <c r="AJ85">
         <v>1.95</v>
       </c>
-      <c r="T85">
-        <v>1.33</v>
-      </c>
-      <c r="U85">
-        <v>3.25</v>
-      </c>
-      <c r="V85">
-        <v>2.63</v>
-      </c>
-      <c r="W85">
-        <v>1.44</v>
-      </c>
-      <c r="X85">
-        <v>6.5</v>
-      </c>
-      <c r="Y85">
-        <v>1.11</v>
-      </c>
-      <c r="Z85">
-        <v>6</v>
-      </c>
-      <c r="AA85">
-        <v>4</v>
-      </c>
-      <c r="AB85">
-        <v>1.4</v>
-      </c>
-      <c r="AC85">
-        <v>1.04</v>
-      </c>
-      <c r="AD85">
-        <v>9</v>
-      </c>
-      <c r="AE85">
-        <v>1.22</v>
-      </c>
-      <c r="AF85">
-        <v>4</v>
-      </c>
-      <c r="AG85">
-        <v>1.73</v>
-      </c>
-      <c r="AH85">
-        <v>2</v>
-      </c>
-      <c r="AI85">
-        <v>1.95</v>
-      </c>
-      <c r="AJ85">
-        <v>1.8</v>
-      </c>
       <c r="AK85">
-        <v>2.75</v>
+        <v>1.02</v>
       </c>
       <c r="AL85">
-        <v>1.15</v>
+        <v>1.08</v>
       </c>
       <c r="AM85">
-        <v>1.06</v>
+        <v>3.75</v>
       </c>
       <c r="AN85">
         <v>1.75</v>
       </c>
       <c r="AO85">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="AP85">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AQ85">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="AR85">
-        <v>1.74</v>
+        <v>2.02</v>
       </c>
       <c r="AS85">
-        <v>1.69</v>
+        <v>1.77</v>
       </c>
       <c r="AT85">
-        <v>3.43</v>
+        <v>3.79</v>
       </c>
       <c r="AU85">
         <v>5</v>
       </c>
       <c r="AV85">
+        <v>4</v>
+      </c>
+      <c r="AW85">
         <v>6</v>
       </c>
-      <c r="AW85">
+      <c r="AX85">
+        <v>2</v>
+      </c>
+      <c r="AY85">
+        <v>12</v>
+      </c>
+      <c r="AZ85">
+        <v>11</v>
+      </c>
+      <c r="BA85">
         <v>4</v>
       </c>
-      <c r="AX85">
+      <c r="BB85">
+        <v>4</v>
+      </c>
+      <c r="BC85">
         <v>8</v>
       </c>
-      <c r="AY85">
-        <v>13</v>
-      </c>
-      <c r="AZ85">
-        <v>15</v>
-      </c>
-      <c r="BA85">
-        <v>7</v>
-      </c>
-      <c r="BB85">
-        <v>5</v>
-      </c>
-      <c r="BC85">
-        <v>12</v>
-      </c>
       <c r="BD85">
-        <v>3.4</v>
+        <v>1.33</v>
       </c>
       <c r="BE85">
         <v>10</v>
       </c>
       <c r="BF85">
+        <v>3.6</v>
+      </c>
+      <c r="BG85">
+        <v>0</v>
+      </c>
+      <c r="BH85">
+        <v>0</v>
+      </c>
+      <c r="BI85">
+        <v>1.19</v>
+      </c>
+      <c r="BJ85">
+        <v>3.6</v>
+      </c>
+      <c r="BK85">
+        <v>1.39</v>
+      </c>
+      <c r="BL85">
+        <v>2.59</v>
+      </c>
+      <c r="BM85">
+        <v>1.77</v>
+      </c>
+      <c r="BN85">
+        <v>1.95</v>
+      </c>
+      <c r="BO85">
+        <v>2.08</v>
+      </c>
+      <c r="BP85">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7468170</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45584.875</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86" t="s">
+        <v>73</v>
+      </c>
+      <c r="H86" t="s">
+        <v>82</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>2</v>
+      </c>
+      <c r="M86">
+        <v>2</v>
+      </c>
+      <c r="N86">
+        <v>4</v>
+      </c>
+      <c r="O86" t="s">
+        <v>146</v>
+      </c>
+      <c r="P86" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q86">
+        <v>2.88</v>
+      </c>
+      <c r="R86">
+        <v>2.3</v>
+      </c>
+      <c r="S86">
+        <v>3.4</v>
+      </c>
+      <c r="T86">
+        <v>1.33</v>
+      </c>
+      <c r="U86">
+        <v>3.25</v>
+      </c>
+      <c r="V86">
+        <v>2.63</v>
+      </c>
+      <c r="W86">
+        <v>1.44</v>
+      </c>
+      <c r="X86">
+        <v>6.5</v>
+      </c>
+      <c r="Y86">
+        <v>1.11</v>
+      </c>
+      <c r="Z86">
+        <v>2.35</v>
+      </c>
+      <c r="AA86">
+        <v>3.35</v>
+      </c>
+      <c r="AB86">
+        <v>2.65</v>
+      </c>
+      <c r="AC86">
+        <v>1.04</v>
+      </c>
+      <c r="AD86">
+        <v>9</v>
+      </c>
+      <c r="AE86">
+        <v>1.22</v>
+      </c>
+      <c r="AF86">
+        <v>4</v>
+      </c>
+      <c r="AG86">
+        <v>1.72</v>
+      </c>
+      <c r="AH86">
+        <v>2.12</v>
+      </c>
+      <c r="AI86">
+        <v>1.57</v>
+      </c>
+      <c r="AJ86">
+        <v>2.25</v>
+      </c>
+      <c r="AK86">
+        <v>1.4</v>
+      </c>
+      <c r="AL86">
+        <v>1.25</v>
+      </c>
+      <c r="AM86">
+        <v>1.57</v>
+      </c>
+      <c r="AN86">
+        <v>0.75</v>
+      </c>
+      <c r="AO86">
+        <v>0.8</v>
+      </c>
+      <c r="AP86">
+        <v>0.8</v>
+      </c>
+      <c r="AQ86">
+        <v>0.83</v>
+      </c>
+      <c r="AR86">
+        <v>1.41</v>
+      </c>
+      <c r="AS86">
+        <v>1.28</v>
+      </c>
+      <c r="AT86">
+        <v>2.69</v>
+      </c>
+      <c r="AU86">
+        <v>9</v>
+      </c>
+      <c r="AV86">
+        <v>3</v>
+      </c>
+      <c r="AW86">
+        <v>7</v>
+      </c>
+      <c r="AX86">
+        <v>3</v>
+      </c>
+      <c r="AY86">
+        <v>22</v>
+      </c>
+      <c r="AZ86">
+        <v>8</v>
+      </c>
+      <c r="BA86">
+        <v>11</v>
+      </c>
+      <c r="BB86">
+        <v>3</v>
+      </c>
+      <c r="BC86">
+        <v>14</v>
+      </c>
+      <c r="BD86">
+        <v>1.6</v>
+      </c>
+      <c r="BE86">
+        <v>9</v>
+      </c>
+      <c r="BF86">
+        <v>2.6</v>
+      </c>
+      <c r="BG86">
+        <v>0</v>
+      </c>
+      <c r="BH86">
+        <v>0</v>
+      </c>
+      <c r="BI86">
+        <v>1.21</v>
+      </c>
+      <c r="BJ86">
+        <v>4.1</v>
+      </c>
+      <c r="BK86">
         <v>1.36</v>
       </c>
-      <c r="BG85">
+      <c r="BL86">
+        <v>2.6</v>
+      </c>
+      <c r="BM86">
+        <v>1.77</v>
+      </c>
+      <c r="BN86">
+        <v>1.95</v>
+      </c>
+      <c r="BO86">
+        <v>2.11</v>
+      </c>
+      <c r="BP86">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7468171</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45584.875</v>
+      </c>
+      <c r="F87">
+        <v>12</v>
+      </c>
+      <c r="G87" t="s">
+        <v>71</v>
+      </c>
+      <c r="H87" t="s">
+        <v>80</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>2</v>
+      </c>
+      <c r="N87">
+        <v>3</v>
+      </c>
+      <c r="O87" t="s">
+        <v>93</v>
+      </c>
+      <c r="P87" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q87">
+        <v>6.5</v>
+      </c>
+      <c r="R87">
+        <v>2.4</v>
+      </c>
+      <c r="S87">
+        <v>1.95</v>
+      </c>
+      <c r="T87">
+        <v>1.33</v>
+      </c>
+      <c r="U87">
+        <v>3.25</v>
+      </c>
+      <c r="V87">
+        <v>2.63</v>
+      </c>
+      <c r="W87">
+        <v>1.44</v>
+      </c>
+      <c r="X87">
+        <v>6.5</v>
+      </c>
+      <c r="Y87">
+        <v>1.11</v>
+      </c>
+      <c r="Z87">
+        <v>6</v>
+      </c>
+      <c r="AA87">
+        <v>4</v>
+      </c>
+      <c r="AB87">
+        <v>1.4</v>
+      </c>
+      <c r="AC87">
+        <v>1.04</v>
+      </c>
+      <c r="AD87">
+        <v>9</v>
+      </c>
+      <c r="AE87">
+        <v>1.22</v>
+      </c>
+      <c r="AF87">
+        <v>4</v>
+      </c>
+      <c r="AG87">
+        <v>1.73</v>
+      </c>
+      <c r="AH87">
+        <v>2</v>
+      </c>
+      <c r="AI87">
+        <v>1.95</v>
+      </c>
+      <c r="AJ87">
+        <v>1.8</v>
+      </c>
+      <c r="AK87">
+        <v>2.75</v>
+      </c>
+      <c r="AL87">
+        <v>1.15</v>
+      </c>
+      <c r="AM87">
+        <v>1.06</v>
+      </c>
+      <c r="AN87">
+        <v>1.75</v>
+      </c>
+      <c r="AO87">
+        <v>2.5</v>
+      </c>
+      <c r="AP87">
+        <v>1.4</v>
+      </c>
+      <c r="AQ87">
+        <v>2.6</v>
+      </c>
+      <c r="AR87">
+        <v>1.74</v>
+      </c>
+      <c r="AS87">
+        <v>1.69</v>
+      </c>
+      <c r="AT87">
+        <v>3.43</v>
+      </c>
+      <c r="AU87">
+        <v>5</v>
+      </c>
+      <c r="AV87">
+        <v>6</v>
+      </c>
+      <c r="AW87">
+        <v>4</v>
+      </c>
+      <c r="AX87">
+        <v>8</v>
+      </c>
+      <c r="AY87">
+        <v>13</v>
+      </c>
+      <c r="AZ87">
+        <v>15</v>
+      </c>
+      <c r="BA87">
+        <v>7</v>
+      </c>
+      <c r="BB87">
+        <v>5</v>
+      </c>
+      <c r="BC87">
+        <v>12</v>
+      </c>
+      <c r="BD87">
+        <v>3.4</v>
+      </c>
+      <c r="BE87">
+        <v>10</v>
+      </c>
+      <c r="BF87">
+        <v>1.36</v>
+      </c>
+      <c r="BG87">
         <v>1.17</v>
       </c>
-      <c r="BH85">
+      <c r="BH87">
         <v>4.8</v>
       </c>
-      <c r="BI85">
+      <c r="BI87">
         <v>1.28</v>
       </c>
-      <c r="BJ85">
+      <c r="BJ87">
         <v>2.94</v>
       </c>
-      <c r="BK85">
+      <c r="BK87">
         <v>2.1</v>
       </c>
-      <c r="BL85">
+      <c r="BL87">
         <v>2.19</v>
       </c>
-      <c r="BM85">
+      <c r="BM87">
         <v>1.95</v>
       </c>
-      <c r="BN85">
+      <c r="BN87">
         <v>1.77</v>
       </c>
-      <c r="BO85">
+      <c r="BO87">
         <v>2.46</v>
       </c>
-      <c r="BP85">
+      <c r="BP87">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7468173</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45584.875</v>
+      </c>
+      <c r="F88">
+        <v>12</v>
+      </c>
+      <c r="G88" t="s">
+        <v>76</v>
+      </c>
+      <c r="H88" t="s">
+        <v>79</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>2</v>
+      </c>
+      <c r="N88">
+        <v>2</v>
+      </c>
+      <c r="O88" t="s">
+        <v>88</v>
+      </c>
+      <c r="P88" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q88">
+        <v>2.6</v>
+      </c>
+      <c r="R88">
+        <v>2.1</v>
+      </c>
+      <c r="S88">
+        <v>4.75</v>
+      </c>
+      <c r="T88">
+        <v>1.44</v>
+      </c>
+      <c r="U88">
+        <v>2.63</v>
+      </c>
+      <c r="V88">
+        <v>3.25</v>
+      </c>
+      <c r="W88">
+        <v>1.33</v>
+      </c>
+      <c r="X88">
+        <v>9</v>
+      </c>
+      <c r="Y88">
+        <v>1.07</v>
+      </c>
+      <c r="Z88">
+        <v>1.86</v>
+      </c>
+      <c r="AA88">
+        <v>3.58</v>
+      </c>
+      <c r="AB88">
+        <v>4.22</v>
+      </c>
+      <c r="AC88">
+        <v>1.06</v>
+      </c>
+      <c r="AD88">
+        <v>8</v>
+      </c>
+      <c r="AE88">
+        <v>1.36</v>
+      </c>
+      <c r="AF88">
+        <v>3</v>
+      </c>
+      <c r="AG88">
+        <v>2.1</v>
+      </c>
+      <c r="AH88">
+        <v>1.74</v>
+      </c>
+      <c r="AI88">
+        <v>1.95</v>
+      </c>
+      <c r="AJ88">
+        <v>1.8</v>
+      </c>
+      <c r="AK88">
+        <v>1.2</v>
+      </c>
+      <c r="AL88">
+        <v>1.25</v>
+      </c>
+      <c r="AM88">
+        <v>1.85</v>
+      </c>
+      <c r="AN88">
+        <v>1.8</v>
+      </c>
+      <c r="AO88">
+        <v>0.75</v>
+      </c>
+      <c r="AP88">
+        <v>1.5</v>
+      </c>
+      <c r="AQ88">
+        <v>1.2</v>
+      </c>
+      <c r="AR88">
+        <v>1.12</v>
+      </c>
+      <c r="AS88">
+        <v>1.36</v>
+      </c>
+      <c r="AT88">
+        <v>2.48</v>
+      </c>
+      <c r="AU88">
+        <v>3</v>
+      </c>
+      <c r="AV88">
+        <v>6</v>
+      </c>
+      <c r="AW88">
+        <v>11</v>
+      </c>
+      <c r="AX88">
+        <v>2</v>
+      </c>
+      <c r="AY88">
+        <v>18</v>
+      </c>
+      <c r="AZ88">
+        <v>9</v>
+      </c>
+      <c r="BA88">
+        <v>5</v>
+      </c>
+      <c r="BB88">
+        <v>3</v>
+      </c>
+      <c r="BC88">
+        <v>8</v>
+      </c>
+      <c r="BD88">
+        <v>1.67</v>
+      </c>
+      <c r="BE88">
+        <v>8.5</v>
+      </c>
+      <c r="BF88">
+        <v>2.45</v>
+      </c>
+      <c r="BG88">
+        <v>0</v>
+      </c>
+      <c r="BH88">
+        <v>0</v>
+      </c>
+      <c r="BI88">
+        <v>1.27</v>
+      </c>
+      <c r="BJ88">
+        <v>3.04</v>
+      </c>
+      <c r="BK88">
+        <v>2</v>
+      </c>
+      <c r="BL88">
+        <v>2.26</v>
+      </c>
+      <c r="BM88">
+        <v>1.91</v>
+      </c>
+      <c r="BN88">
+        <v>1.8</v>
+      </c>
+      <c r="BO88">
+        <v>2.38</v>
+      </c>
+      <c r="BP88">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7468175</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45584.875</v>
+      </c>
+      <c r="F89">
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>75</v>
+      </c>
+      <c r="H89" t="s">
+        <v>72</v>
+      </c>
+      <c r="I89">
+        <v>2</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>2</v>
+      </c>
+      <c r="L89">
+        <v>4</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>5</v>
+      </c>
+      <c r="O89" t="s">
+        <v>147</v>
+      </c>
+      <c r="P89" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q89">
+        <v>2.2</v>
+      </c>
+      <c r="R89">
+        <v>2.3</v>
+      </c>
+      <c r="S89">
+        <v>5.5</v>
+      </c>
+      <c r="T89">
+        <v>1.36</v>
+      </c>
+      <c r="U89">
+        <v>3</v>
+      </c>
+      <c r="V89">
+        <v>2.63</v>
+      </c>
+      <c r="W89">
+        <v>1.44</v>
+      </c>
+      <c r="X89">
+        <v>7</v>
+      </c>
+      <c r="Y89">
+        <v>1.1</v>
+      </c>
+      <c r="Z89">
+        <v>1.57</v>
+      </c>
+      <c r="AA89">
+        <v>4.2</v>
+      </c>
+      <c r="AB89">
+        <v>5.55</v>
+      </c>
+      <c r="AC89">
+        <v>1.04</v>
+      </c>
+      <c r="AD89">
+        <v>9</v>
+      </c>
+      <c r="AE89">
+        <v>1.25</v>
+      </c>
+      <c r="AF89">
+        <v>3.6</v>
+      </c>
+      <c r="AG89">
+        <v>1.74</v>
+      </c>
+      <c r="AH89">
+        <v>2.1</v>
+      </c>
+      <c r="AI89">
+        <v>1.91</v>
+      </c>
+      <c r="AJ89">
+        <v>1.91</v>
+      </c>
+      <c r="AK89">
+        <v>1.11</v>
+      </c>
+      <c r="AL89">
+        <v>1.18</v>
+      </c>
+      <c r="AM89">
+        <v>2.3</v>
+      </c>
+      <c r="AN89">
+        <v>1</v>
+      </c>
+      <c r="AO89">
+        <v>0</v>
+      </c>
+      <c r="AP89">
+        <v>1.29</v>
+      </c>
+      <c r="AQ89">
+        <v>0</v>
+      </c>
+      <c r="AR89">
+        <v>1.73</v>
+      </c>
+      <c r="AS89">
+        <v>1.04</v>
+      </c>
+      <c r="AT89">
+        <v>2.77</v>
+      </c>
+      <c r="AU89">
+        <v>8</v>
+      </c>
+      <c r="AV89">
+        <v>7</v>
+      </c>
+      <c r="AW89">
+        <v>7</v>
+      </c>
+      <c r="AX89">
+        <v>3</v>
+      </c>
+      <c r="AY89">
+        <v>22</v>
+      </c>
+      <c r="AZ89">
+        <v>14</v>
+      </c>
+      <c r="BA89">
+        <v>7</v>
+      </c>
+      <c r="BB89">
+        <v>8</v>
+      </c>
+      <c r="BC89">
+        <v>15</v>
+      </c>
+      <c r="BD89">
+        <v>1.44</v>
+      </c>
+      <c r="BE89">
+        <v>9.5</v>
+      </c>
+      <c r="BF89">
+        <v>3</v>
+      </c>
+      <c r="BG89">
+        <v>0</v>
+      </c>
+      <c r="BH89">
+        <v>0</v>
+      </c>
+      <c r="BI89">
+        <v>1.19</v>
+      </c>
+      <c r="BJ89">
+        <v>3.62</v>
+      </c>
+      <c r="BK89">
+        <v>1.38</v>
+      </c>
+      <c r="BL89">
+        <v>2.62</v>
+      </c>
+      <c r="BM89">
+        <v>1.77</v>
+      </c>
+      <c r="BN89">
+        <v>1.95</v>
+      </c>
+      <c r="BO89">
+        <v>2.07</v>
+      </c>
+      <c r="BP89">
+        <v>1.61</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -601,10 +601,10 @@
     <t>['38', '83']</t>
   </si>
   <si>
+    <t>['42', '82']</t>
+  </si>
+  <si>
     <t>['18', '61']</t>
-  </si>
-  <si>
-    <t>['42', '82']</t>
   </si>
 </sst>
 </file>
@@ -18496,10 +18496,10 @@
         <v>69</v>
       </c>
       <c r="E86" s="2">
-        <v>45584.875</v>
+        <v>45585.33333333334</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G86" t="s">
         <v>73</v>
@@ -18622,22 +18622,22 @@
         <v>2.69</v>
       </c>
       <c r="AU86">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV86">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AW86">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX86">
         <v>3</v>
       </c>
       <c r="AY86">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AZ86">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BA86">
         <v>11</v>
@@ -18693,7 +18693,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>7468171</v>
+        <v>7468173</v>
       </c>
       <c r="C87" t="s">
         <v>68</v>
@@ -18702,16 +18702,16 @@
         <v>69</v>
       </c>
       <c r="E87" s="2">
-        <v>45584.875</v>
+        <v>45585.4375</v>
       </c>
       <c r="F87">
         <v>12</v>
       </c>
       <c r="G87" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H87" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -18723,73 +18723,73 @@
         <v>1</v>
       </c>
       <c r="L87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M87">
         <v>2</v>
       </c>
       <c r="N87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O87" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="P87" t="s">
         <v>195</v>
       </c>
       <c r="Q87">
-        <v>6.5</v>
+        <v>2.6</v>
       </c>
       <c r="R87">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="S87">
-        <v>1.95</v>
+        <v>4.75</v>
       </c>
       <c r="T87">
+        <v>1.44</v>
+      </c>
+      <c r="U87">
+        <v>2.63</v>
+      </c>
+      <c r="V87">
+        <v>3.25</v>
+      </c>
+      <c r="W87">
         <v>1.33</v>
       </c>
-      <c r="U87">
-        <v>3.25</v>
-      </c>
-      <c r="V87">
-        <v>2.63</v>
-      </c>
-      <c r="W87">
-        <v>1.44</v>
-      </c>
       <c r="X87">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="Y87">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="Z87">
-        <v>6</v>
+        <v>1.86</v>
       </c>
       <c r="AA87">
-        <v>4</v>
+        <v>3.58</v>
       </c>
       <c r="AB87">
-        <v>1.4</v>
+        <v>4.22</v>
       </c>
       <c r="AC87">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="AD87">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE87">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="AF87">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG87">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="AH87">
-        <v>2</v>
+        <v>1.74</v>
       </c>
       <c r="AI87">
         <v>1.95</v>
@@ -18798,100 +18798,100 @@
         <v>1.8</v>
       </c>
       <c r="AK87">
-        <v>2.75</v>
+        <v>1.2</v>
       </c>
       <c r="AL87">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="AM87">
-        <v>1.06</v>
+        <v>1.85</v>
       </c>
       <c r="AN87">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AO87">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="AP87">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ87">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="AR87">
-        <v>1.74</v>
+        <v>1.12</v>
       </c>
       <c r="AS87">
-        <v>1.69</v>
+        <v>1.36</v>
       </c>
       <c r="AT87">
-        <v>3.43</v>
+        <v>2.48</v>
       </c>
       <c r="AU87">
+        <v>3</v>
+      </c>
+      <c r="AV87">
+        <v>3</v>
+      </c>
+      <c r="AW87">
+        <v>6</v>
+      </c>
+      <c r="AX87">
+        <v>2</v>
+      </c>
+      <c r="AY87">
+        <v>9</v>
+      </c>
+      <c r="AZ87">
         <v>5</v>
       </c>
-      <c r="AV87">
-        <v>6</v>
-      </c>
-      <c r="AW87">
-        <v>4</v>
-      </c>
-      <c r="AX87">
+      <c r="BA87">
+        <v>5</v>
+      </c>
+      <c r="BB87">
+        <v>3</v>
+      </c>
+      <c r="BC87">
         <v>8</v>
       </c>
-      <c r="AY87">
-        <v>13</v>
-      </c>
-      <c r="AZ87">
-        <v>15</v>
-      </c>
-      <c r="BA87">
-        <v>7</v>
-      </c>
-      <c r="BB87">
-        <v>5</v>
-      </c>
-      <c r="BC87">
-        <v>12</v>
-      </c>
       <c r="BD87">
-        <v>3.4</v>
+        <v>1.67</v>
       </c>
       <c r="BE87">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="BF87">
-        <v>1.36</v>
+        <v>2.45</v>
       </c>
       <c r="BG87">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="BH87">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="BI87">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="BJ87">
-        <v>2.94</v>
+        <v>3.04</v>
       </c>
       <c r="BK87">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="BL87">
-        <v>2.19</v>
+        <v>2.26</v>
       </c>
       <c r="BM87">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="BN87">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="BO87">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="BP87">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="88" spans="1:68">
@@ -18899,7 +18899,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>7468173</v>
+        <v>7468175</v>
       </c>
       <c r="C88" t="s">
         <v>68</v>
@@ -18908,196 +18908,196 @@
         <v>69</v>
       </c>
       <c r="E88" s="2">
-        <v>45584.875</v>
+        <v>45585.4375</v>
       </c>
       <c r="F88">
         <v>12</v>
       </c>
       <c r="G88" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H88" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L88">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N88">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O88" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="P88" t="s">
-        <v>196</v>
+        <v>90</v>
       </c>
       <c r="Q88">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="R88">
+        <v>2.3</v>
+      </c>
+      <c r="S88">
+        <v>5.5</v>
+      </c>
+      <c r="T88">
+        <v>1.36</v>
+      </c>
+      <c r="U88">
+        <v>3</v>
+      </c>
+      <c r="V88">
+        <v>2.63</v>
+      </c>
+      <c r="W88">
+        <v>1.44</v>
+      </c>
+      <c r="X88">
+        <v>7</v>
+      </c>
+      <c r="Y88">
+        <v>1.1</v>
+      </c>
+      <c r="Z88">
+        <v>1.57</v>
+      </c>
+      <c r="AA88">
+        <v>4.2</v>
+      </c>
+      <c r="AB88">
+        <v>5.55</v>
+      </c>
+      <c r="AC88">
+        <v>1.04</v>
+      </c>
+      <c r="AD88">
+        <v>9</v>
+      </c>
+      <c r="AE88">
+        <v>1.25</v>
+      </c>
+      <c r="AF88">
+        <v>3.6</v>
+      </c>
+      <c r="AG88">
+        <v>1.74</v>
+      </c>
+      <c r="AH88">
         <v>2.1</v>
       </c>
-      <c r="S88">
-        <v>4.75</v>
-      </c>
-      <c r="T88">
+      <c r="AI88">
+        <v>1.91</v>
+      </c>
+      <c r="AJ88">
+        <v>1.91</v>
+      </c>
+      <c r="AK88">
+        <v>1.11</v>
+      </c>
+      <c r="AL88">
+        <v>1.18</v>
+      </c>
+      <c r="AM88">
+        <v>2.3</v>
+      </c>
+      <c r="AN88">
+        <v>1</v>
+      </c>
+      <c r="AO88">
+        <v>0</v>
+      </c>
+      <c r="AP88">
+        <v>1.29</v>
+      </c>
+      <c r="AQ88">
+        <v>0</v>
+      </c>
+      <c r="AR88">
+        <v>1.73</v>
+      </c>
+      <c r="AS88">
+        <v>1.04</v>
+      </c>
+      <c r="AT88">
+        <v>2.77</v>
+      </c>
+      <c r="AU88">
+        <v>4</v>
+      </c>
+      <c r="AV88">
+        <v>2</v>
+      </c>
+      <c r="AW88">
+        <v>5</v>
+      </c>
+      <c r="AX88">
+        <v>4</v>
+      </c>
+      <c r="AY88">
+        <v>9</v>
+      </c>
+      <c r="AZ88">
+        <v>6</v>
+      </c>
+      <c r="BA88">
+        <v>7</v>
+      </c>
+      <c r="BB88">
+        <v>8</v>
+      </c>
+      <c r="BC88">
+        <v>15</v>
+      </c>
+      <c r="BD88">
         <v>1.44</v>
       </c>
-      <c r="U88">
-        <v>2.63</v>
-      </c>
-      <c r="V88">
-        <v>3.25</v>
-      </c>
-      <c r="W88">
-        <v>1.33</v>
-      </c>
-      <c r="X88">
-        <v>9</v>
-      </c>
-      <c r="Y88">
-        <v>1.07</v>
-      </c>
-      <c r="Z88">
-        <v>1.86</v>
-      </c>
-      <c r="AA88">
-        <v>3.58</v>
-      </c>
-      <c r="AB88">
-        <v>4.22</v>
-      </c>
-      <c r="AC88">
-        <v>1.06</v>
-      </c>
-      <c r="AD88">
-        <v>8</v>
-      </c>
-      <c r="AE88">
-        <v>1.36</v>
-      </c>
-      <c r="AF88">
-        <v>3</v>
-      </c>
-      <c r="AG88">
-        <v>2.1</v>
-      </c>
-      <c r="AH88">
-        <v>1.74</v>
-      </c>
-      <c r="AI88">
+      <c r="BE88">
+        <v>9.5</v>
+      </c>
+      <c r="BF88">
+        <v>3</v>
+      </c>
+      <c r="BG88">
+        <v>0</v>
+      </c>
+      <c r="BH88">
+        <v>0</v>
+      </c>
+      <c r="BI88">
+        <v>1.19</v>
+      </c>
+      <c r="BJ88">
+        <v>3.62</v>
+      </c>
+      <c r="BK88">
+        <v>1.38</v>
+      </c>
+      <c r="BL88">
+        <v>2.62</v>
+      </c>
+      <c r="BM88">
+        <v>1.77</v>
+      </c>
+      <c r="BN88">
         <v>1.95</v>
       </c>
-      <c r="AJ88">
-        <v>1.8</v>
-      </c>
-      <c r="AK88">
-        <v>1.2</v>
-      </c>
-      <c r="AL88">
-        <v>1.25</v>
-      </c>
-      <c r="AM88">
-        <v>1.85</v>
-      </c>
-      <c r="AN88">
-        <v>1.8</v>
-      </c>
-      <c r="AO88">
-        <v>0.75</v>
-      </c>
-      <c r="AP88">
-        <v>1.5</v>
-      </c>
-      <c r="AQ88">
-        <v>1.2</v>
-      </c>
-      <c r="AR88">
-        <v>1.12</v>
-      </c>
-      <c r="AS88">
-        <v>1.36</v>
-      </c>
-      <c r="AT88">
-        <v>2.48</v>
-      </c>
-      <c r="AU88">
-        <v>3</v>
-      </c>
-      <c r="AV88">
-        <v>6</v>
-      </c>
-      <c r="AW88">
-        <v>11</v>
-      </c>
-      <c r="AX88">
-        <v>2</v>
-      </c>
-      <c r="AY88">
-        <v>18</v>
-      </c>
-      <c r="AZ88">
-        <v>9</v>
-      </c>
-      <c r="BA88">
-        <v>5</v>
-      </c>
-      <c r="BB88">
-        <v>3</v>
-      </c>
-      <c r="BC88">
-        <v>8</v>
-      </c>
-      <c r="BD88">
-        <v>1.67</v>
-      </c>
-      <c r="BE88">
-        <v>8.5</v>
-      </c>
-      <c r="BF88">
-        <v>2.45</v>
-      </c>
-      <c r="BG88">
-        <v>0</v>
-      </c>
-      <c r="BH88">
-        <v>0</v>
-      </c>
-      <c r="BI88">
-        <v>1.27</v>
-      </c>
-      <c r="BJ88">
-        <v>3.04</v>
-      </c>
-      <c r="BK88">
-        <v>2</v>
-      </c>
-      <c r="BL88">
-        <v>2.26</v>
-      </c>
-      <c r="BM88">
-        <v>1.91</v>
-      </c>
-      <c r="BN88">
-        <v>1.8</v>
-      </c>
       <c r="BO88">
-        <v>2.38</v>
+        <v>2.07</v>
       </c>
       <c r="BP88">
-        <v>1.46</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="89" spans="1:68">
@@ -19105,7 +19105,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>7468175</v>
+        <v>7468171</v>
       </c>
       <c r="C89" t="s">
         <v>68</v>
@@ -19114,55 +19114,55 @@
         <v>69</v>
       </c>
       <c r="E89" s="2">
-        <v>45584.875</v>
+        <v>45585.5625</v>
       </c>
       <c r="F89">
         <v>12</v>
       </c>
       <c r="G89" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H89" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L89">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O89" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="P89" t="s">
-        <v>90</v>
+        <v>196</v>
       </c>
       <c r="Q89">
-        <v>2.2</v>
+        <v>6.5</v>
       </c>
       <c r="R89">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S89">
-        <v>5.5</v>
+        <v>1.95</v>
       </c>
       <c r="T89">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U89">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V89">
         <v>2.63</v>
@@ -19171,19 +19171,19 @@
         <v>1.44</v>
       </c>
       <c r="X89">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y89">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="Z89">
-        <v>1.57</v>
+        <v>6</v>
       </c>
       <c r="AA89">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="AB89">
-        <v>5.55</v>
+        <v>1.4</v>
       </c>
       <c r="AC89">
         <v>1.04</v>
@@ -19192,118 +19192,118 @@
         <v>9</v>
       </c>
       <c r="AE89">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AF89">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AG89">
+        <v>1.73</v>
+      </c>
+      <c r="AH89">
+        <v>2</v>
+      </c>
+      <c r="AI89">
+        <v>1.95</v>
+      </c>
+      <c r="AJ89">
+        <v>1.8</v>
+      </c>
+      <c r="AK89">
+        <v>2.75</v>
+      </c>
+      <c r="AL89">
+        <v>1.15</v>
+      </c>
+      <c r="AM89">
+        <v>1.06</v>
+      </c>
+      <c r="AN89">
+        <v>1.75</v>
+      </c>
+      <c r="AO89">
+        <v>2.5</v>
+      </c>
+      <c r="AP89">
+        <v>1.4</v>
+      </c>
+      <c r="AQ89">
+        <v>2.6</v>
+      </c>
+      <c r="AR89">
         <v>1.74</v>
       </c>
-      <c r="AH89">
-        <v>2.1</v>
-      </c>
-      <c r="AI89">
-        <v>1.91</v>
-      </c>
-      <c r="AJ89">
-        <v>1.91</v>
-      </c>
-      <c r="AK89">
-        <v>1.11</v>
-      </c>
-      <c r="AL89">
-        <v>1.18</v>
-      </c>
-      <c r="AM89">
-        <v>2.3</v>
-      </c>
-      <c r="AN89">
-        <v>1</v>
-      </c>
-      <c r="AO89">
-        <v>0</v>
-      </c>
-      <c r="AP89">
-        <v>1.29</v>
-      </c>
-      <c r="AQ89">
-        <v>0</v>
-      </c>
-      <c r="AR89">
-        <v>1.73</v>
-      </c>
       <c r="AS89">
-        <v>1.04</v>
+        <v>1.69</v>
       </c>
       <c r="AT89">
-        <v>2.77</v>
+        <v>3.43</v>
       </c>
       <c r="AU89">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AV89">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW89">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX89">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY89">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="AZ89">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BA89">
         <v>7</v>
       </c>
       <c r="BB89">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BC89">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BD89">
-        <v>1.44</v>
+        <v>3.4</v>
       </c>
       <c r="BE89">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="BF89">
-        <v>3</v>
+        <v>1.36</v>
       </c>
       <c r="BG89">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="BH89">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="BI89">
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
       <c r="BJ89">
-        <v>3.62</v>
+        <v>2.94</v>
       </c>
       <c r="BK89">
-        <v>1.38</v>
+        <v>2.1</v>
       </c>
       <c r="BL89">
-        <v>2.62</v>
+        <v>2.19</v>
       </c>
       <c r="BM89">
+        <v>1.95</v>
+      </c>
+      <c r="BN89">
         <v>1.77</v>
       </c>
-      <c r="BN89">
-        <v>1.95</v>
-      </c>
       <c r="BO89">
-        <v>2.07</v>
+        <v>2.46</v>
       </c>
       <c r="BP89">
-        <v>1.61</v>
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="201">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -460,6 +460,12 @@
     <t>['6', '29', '46', '63']</t>
   </si>
   <si>
+    <t>['15', '37', '44', '57']</t>
+  </si>
+  <si>
+    <t>['15', '75']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -605,6 +611,12 @@
   </si>
   <si>
     <t>['18', '61']</t>
+  </si>
+  <si>
+    <t>['62', '72', '90+9']</t>
+  </si>
+  <si>
+    <t>['45+1', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -966,7 +978,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP89"/>
+  <dimension ref="A1:BP92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1225,7 +1237,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q2">
         <v>1.53</v>
@@ -1637,7 +1649,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -1715,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AQ4">
         <v>1.33</v>
@@ -1924,7 +1936,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2049,7 +2061,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2255,7 +2267,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -3079,7 +3091,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q11">
         <v>2.85</v>
@@ -3157,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ11">
         <v>1.5</v>
@@ -3285,7 +3297,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3697,7 +3709,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -3775,7 +3787,7 @@
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ14">
         <v>1.33</v>
@@ -3984,7 +3996,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ15">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4396,7 +4408,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ17">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4521,7 +4533,7 @@
         <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q18">
         <v>5.4</v>
@@ -4599,7 +4611,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ18">
         <v>2.6</v>
@@ -5551,7 +5563,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q23">
         <v>2.6</v>
@@ -5629,7 +5641,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AQ23">
         <v>0.57</v>
@@ -5757,7 +5769,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5963,7 +5975,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q25">
         <v>1.06</v>
@@ -6169,7 +6181,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q26">
         <v>3.2</v>
@@ -6375,7 +6387,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q27">
         <v>6.23</v>
@@ -6865,10 +6877,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ29">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR29">
         <v>1.22</v>
@@ -7280,7 +7292,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ31">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR31">
         <v>1.24</v>
@@ -7817,7 +7829,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q34">
         <v>1.45</v>
@@ -8023,7 +8035,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q35">
         <v>2.84</v>
@@ -8229,7 +8241,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q36">
         <v>5.63</v>
@@ -8435,7 +8447,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q37">
         <v>2.58</v>
@@ -8719,7 +8731,7 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ38">
         <v>0.57</v>
@@ -8847,7 +8859,7 @@
         <v>88</v>
       </c>
       <c r="P39" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q39">
         <v>4.75</v>
@@ -8925,7 +8937,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AQ39">
         <v>1.83</v>
@@ -9134,7 +9146,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR40">
         <v>1.19</v>
@@ -9259,7 +9271,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9465,7 +9477,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q42">
         <v>2.61</v>
@@ -9671,7 +9683,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q43">
         <v>1.69</v>
@@ -9752,7 +9764,7 @@
         <v>2</v>
       </c>
       <c r="AQ43">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR43">
         <v>2.07</v>
@@ -9955,10 +9967,10 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ44">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR44">
         <v>1.16</v>
@@ -10576,7 +10588,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ47">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR47">
         <v>1.77</v>
@@ -10779,7 +10791,7 @@
         <v>1.33</v>
       </c>
       <c r="AP48">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AQ48">
         <v>1.5</v>
@@ -11113,7 +11125,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q50">
         <v>5.1</v>
@@ -11319,7 +11331,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -11400,7 +11412,7 @@
         <v>2</v>
       </c>
       <c r="AQ51">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR51">
         <v>1.61</v>
@@ -11937,7 +11949,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12143,7 +12155,7 @@
         <v>93</v>
       </c>
       <c r="P55" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q55">
         <v>3.85</v>
@@ -12221,7 +12233,7 @@
         <v>2.33</v>
       </c>
       <c r="AP55">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ55">
         <v>1.83</v>
@@ -12349,7 +12361,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q56">
         <v>1.85</v>
@@ -12555,7 +12567,7 @@
         <v>88</v>
       </c>
       <c r="P57" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q57">
         <v>5.88</v>
@@ -12842,7 +12854,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ58">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR58">
         <v>1.32</v>
@@ -13173,7 +13185,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q60">
         <v>3.86</v>
@@ -13254,7 +13266,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR60">
         <v>1.44</v>
@@ -13585,7 +13597,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q62">
         <v>1.83</v>
@@ -13791,7 +13803,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q63">
         <v>8.77</v>
@@ -13869,7 +13881,7 @@
         <v>3</v>
       </c>
       <c r="AP63">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AQ63">
         <v>2.5</v>
@@ -13997,7 +14009,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -14203,7 +14215,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14281,7 +14293,7 @@
         <v>1.25</v>
       </c>
       <c r="AP65">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ65">
         <v>1.5</v>
@@ -14409,7 +14421,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q66">
         <v>1.55</v>
@@ -14615,7 +14627,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -14821,7 +14833,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -14899,7 +14911,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ68">
         <v>1.2</v>
@@ -15314,7 +15326,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ70">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR70">
         <v>1.53</v>
@@ -15645,7 +15657,7 @@
         <v>124</v>
       </c>
       <c r="P72" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q72">
         <v>1.88</v>
@@ -15851,7 +15863,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -16138,7 +16150,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ74">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR74">
         <v>1.81</v>
@@ -16263,7 +16275,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -16469,7 +16481,7 @@
         <v>88</v>
       </c>
       <c r="P76" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q76">
         <v>3.7</v>
@@ -16547,10 +16559,10 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AQ76">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR76">
         <v>1.29</v>
@@ -16675,7 +16687,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q77">
         <v>2.47</v>
@@ -16753,7 +16765,7 @@
         <v>1.4</v>
       </c>
       <c r="AP77">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ77">
         <v>1.67</v>
@@ -17168,7 +17180,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ79">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR79">
         <v>1.49</v>
@@ -17293,7 +17305,7 @@
         <v>140</v>
       </c>
       <c r="P80" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q80">
         <v>2.5</v>
@@ -17499,7 +17511,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17705,7 +17717,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q82">
         <v>2.8</v>
@@ -17911,7 +17923,7 @@
         <v>143</v>
       </c>
       <c r="P83" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q83">
         <v>3.4</v>
@@ -18117,7 +18129,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q84">
         <v>2.6</v>
@@ -18323,7 +18335,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q85">
         <v>1.65</v>
@@ -18529,7 +18541,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18735,7 +18747,7 @@
         <v>88</v>
       </c>
       <c r="P87" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q87">
         <v>2.6</v>
@@ -19147,7 +19159,7 @@
         <v>93</v>
       </c>
       <c r="P89" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q89">
         <v>6.5</v>
@@ -19304,6 +19316,624 @@
       </c>
       <c r="BP89">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7468176</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45591.35416666666</v>
+      </c>
+      <c r="F90">
+        <v>13</v>
+      </c>
+      <c r="G90" t="s">
+        <v>81</v>
+      </c>
+      <c r="H90" t="s">
+        <v>76</v>
+      </c>
+      <c r="I90">
+        <v>3</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>3</v>
+      </c>
+      <c r="L90">
+        <v>4</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>4</v>
+      </c>
+      <c r="O90" t="s">
+        <v>148</v>
+      </c>
+      <c r="P90" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q90">
+        <v>2.34</v>
+      </c>
+      <c r="R90">
+        <v>2.14</v>
+      </c>
+      <c r="S90">
+        <v>4.75</v>
+      </c>
+      <c r="T90">
+        <v>1.4</v>
+      </c>
+      <c r="U90">
+        <v>2.82</v>
+      </c>
+      <c r="V90">
+        <v>2.82</v>
+      </c>
+      <c r="W90">
+        <v>1.4</v>
+      </c>
+      <c r="X90">
+        <v>7.2</v>
+      </c>
+      <c r="Y90">
+        <v>1.08</v>
+      </c>
+      <c r="Z90">
+        <v>1.8</v>
+      </c>
+      <c r="AA90">
+        <v>3.5</v>
+      </c>
+      <c r="AB90">
+        <v>4.2</v>
+      </c>
+      <c r="AC90">
+        <v>1</v>
+      </c>
+      <c r="AD90">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE90">
+        <v>1.25</v>
+      </c>
+      <c r="AF90">
+        <v>3.14</v>
+      </c>
+      <c r="AG90">
+        <v>1.85</v>
+      </c>
+      <c r="AH90">
+        <v>1.83</v>
+      </c>
+      <c r="AI90">
+        <v>1.82</v>
+      </c>
+      <c r="AJ90">
+        <v>1.88</v>
+      </c>
+      <c r="AK90">
+        <v>1.2</v>
+      </c>
+      <c r="AL90">
+        <v>1.26</v>
+      </c>
+      <c r="AM90">
+        <v>1.96</v>
+      </c>
+      <c r="AN90">
+        <v>1</v>
+      </c>
+      <c r="AO90">
+        <v>1.4</v>
+      </c>
+      <c r="AP90">
+        <v>1.29</v>
+      </c>
+      <c r="AQ90">
+        <v>1.17</v>
+      </c>
+      <c r="AR90">
+        <v>1.39</v>
+      </c>
+      <c r="AS90">
+        <v>1.08</v>
+      </c>
+      <c r="AT90">
+        <v>2.47</v>
+      </c>
+      <c r="AU90">
+        <v>8</v>
+      </c>
+      <c r="AV90">
+        <v>3</v>
+      </c>
+      <c r="AW90">
+        <v>9</v>
+      </c>
+      <c r="AX90">
+        <v>4</v>
+      </c>
+      <c r="AY90">
+        <v>25</v>
+      </c>
+      <c r="AZ90">
+        <v>8</v>
+      </c>
+      <c r="BA90">
+        <v>11</v>
+      </c>
+      <c r="BB90">
+        <v>2</v>
+      </c>
+      <c r="BC90">
+        <v>13</v>
+      </c>
+      <c r="BD90">
+        <v>0</v>
+      </c>
+      <c r="BE90">
+        <v>0</v>
+      </c>
+      <c r="BF90">
+        <v>0</v>
+      </c>
+      <c r="BG90">
+        <v>0</v>
+      </c>
+      <c r="BH90">
+        <v>0</v>
+      </c>
+      <c r="BI90">
+        <v>0</v>
+      </c>
+      <c r="BJ90">
+        <v>0</v>
+      </c>
+      <c r="BK90">
+        <v>0</v>
+      </c>
+      <c r="BL90">
+        <v>0</v>
+      </c>
+      <c r="BM90">
+        <v>2</v>
+      </c>
+      <c r="BN90">
+        <v>1.8</v>
+      </c>
+      <c r="BO90">
+        <v>0</v>
+      </c>
+      <c r="BP90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7468181</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45591.45833333334</v>
+      </c>
+      <c r="F91">
+        <v>13</v>
+      </c>
+      <c r="G91" t="s">
+        <v>78</v>
+      </c>
+      <c r="H91" t="s">
+        <v>83</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>2</v>
+      </c>
+      <c r="M91">
+        <v>3</v>
+      </c>
+      <c r="N91">
+        <v>5</v>
+      </c>
+      <c r="O91" t="s">
+        <v>149</v>
+      </c>
+      <c r="P91" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q91">
+        <v>4.7</v>
+      </c>
+      <c r="R91">
+        <v>2.2</v>
+      </c>
+      <c r="S91">
+        <v>2.29</v>
+      </c>
+      <c r="T91">
+        <v>1.36</v>
+      </c>
+      <c r="U91">
+        <v>2.98</v>
+      </c>
+      <c r="V91">
+        <v>2.7</v>
+      </c>
+      <c r="W91">
+        <v>1.43</v>
+      </c>
+      <c r="X91">
+        <v>6.65</v>
+      </c>
+      <c r="Y91">
+        <v>1.09</v>
+      </c>
+      <c r="Z91">
+        <v>4.4</v>
+      </c>
+      <c r="AA91">
+        <v>3.7</v>
+      </c>
+      <c r="AB91">
+        <v>1.75</v>
+      </c>
+      <c r="AC91">
+        <v>1.02</v>
+      </c>
+      <c r="AD91">
+        <v>10</v>
+      </c>
+      <c r="AE91">
+        <v>1.22</v>
+      </c>
+      <c r="AF91">
+        <v>3.35</v>
+      </c>
+      <c r="AG91">
+        <v>1.78</v>
+      </c>
+      <c r="AH91">
+        <v>1.9</v>
+      </c>
+      <c r="AI91">
+        <v>1.76</v>
+      </c>
+      <c r="AJ91">
+        <v>1.95</v>
+      </c>
+      <c r="AK91">
+        <v>1.99</v>
+      </c>
+      <c r="AL91">
+        <v>1.25</v>
+      </c>
+      <c r="AM91">
+        <v>1.2</v>
+      </c>
+      <c r="AN91">
+        <v>0.75</v>
+      </c>
+      <c r="AO91">
+        <v>1</v>
+      </c>
+      <c r="AP91">
+        <v>0.6</v>
+      </c>
+      <c r="AQ91">
+        <v>1.29</v>
+      </c>
+      <c r="AR91">
+        <v>1.11</v>
+      </c>
+      <c r="AS91">
+        <v>1.55</v>
+      </c>
+      <c r="AT91">
+        <v>2.66</v>
+      </c>
+      <c r="AU91">
+        <v>4</v>
+      </c>
+      <c r="AV91">
+        <v>5</v>
+      </c>
+      <c r="AW91">
+        <v>7</v>
+      </c>
+      <c r="AX91">
+        <v>12</v>
+      </c>
+      <c r="AY91">
+        <v>11</v>
+      </c>
+      <c r="AZ91">
+        <v>17</v>
+      </c>
+      <c r="BA91">
+        <v>1</v>
+      </c>
+      <c r="BB91">
+        <v>13</v>
+      </c>
+      <c r="BC91">
+        <v>14</v>
+      </c>
+      <c r="BD91">
+        <v>0</v>
+      </c>
+      <c r="BE91">
+        <v>0</v>
+      </c>
+      <c r="BF91">
+        <v>0</v>
+      </c>
+      <c r="BG91">
+        <v>0</v>
+      </c>
+      <c r="BH91">
+        <v>0</v>
+      </c>
+      <c r="BI91">
+        <v>0</v>
+      </c>
+      <c r="BJ91">
+        <v>0</v>
+      </c>
+      <c r="BK91">
+        <v>0</v>
+      </c>
+      <c r="BL91">
+        <v>0</v>
+      </c>
+      <c r="BM91">
+        <v>0</v>
+      </c>
+      <c r="BN91">
+        <v>0</v>
+      </c>
+      <c r="BO91">
+        <v>0</v>
+      </c>
+      <c r="BP91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7468183</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45591.45833333334</v>
+      </c>
+      <c r="F92">
+        <v>13</v>
+      </c>
+      <c r="G92" t="s">
+        <v>72</v>
+      </c>
+      <c r="H92" t="s">
+        <v>77</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>2</v>
+      </c>
+      <c r="N92">
+        <v>2</v>
+      </c>
+      <c r="O92" t="s">
+        <v>88</v>
+      </c>
+      <c r="P92" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q92">
+        <v>3.8</v>
+      </c>
+      <c r="R92">
+        <v>2.15</v>
+      </c>
+      <c r="S92">
+        <v>2.65</v>
+      </c>
+      <c r="T92">
+        <v>1.37</v>
+      </c>
+      <c r="U92">
+        <v>2.95</v>
+      </c>
+      <c r="V92">
+        <v>2.74</v>
+      </c>
+      <c r="W92">
+        <v>1.42</v>
+      </c>
+      <c r="X92">
+        <v>6.75</v>
+      </c>
+      <c r="Y92">
+        <v>1.08</v>
+      </c>
+      <c r="Z92">
+        <v>3.5</v>
+      </c>
+      <c r="AA92">
+        <v>3.5</v>
+      </c>
+      <c r="AB92">
+        <v>2</v>
+      </c>
+      <c r="AC92">
+        <v>1.03</v>
+      </c>
+      <c r="AD92">
+        <v>9</v>
+      </c>
+      <c r="AE92">
+        <v>1.23</v>
+      </c>
+      <c r="AF92">
+        <v>3.28</v>
+      </c>
+      <c r="AG92">
+        <v>1.83</v>
+      </c>
+      <c r="AH92">
+        <v>1.85</v>
+      </c>
+      <c r="AI92">
+        <v>1.69</v>
+      </c>
+      <c r="AJ92">
+        <v>2.04</v>
+      </c>
+      <c r="AK92">
+        <v>1.68</v>
+      </c>
+      <c r="AL92">
+        <v>1.28</v>
+      </c>
+      <c r="AM92">
+        <v>1.32</v>
+      </c>
+      <c r="AN92">
+        <v>0.17</v>
+      </c>
+      <c r="AO92">
+        <v>0.2</v>
+      </c>
+      <c r="AP92">
+        <v>0.14</v>
+      </c>
+      <c r="AQ92">
+        <v>0.67</v>
+      </c>
+      <c r="AR92">
+        <v>1.33</v>
+      </c>
+      <c r="AS92">
+        <v>1.11</v>
+      </c>
+      <c r="AT92">
+        <v>2.44</v>
+      </c>
+      <c r="AU92">
+        <v>7</v>
+      </c>
+      <c r="AV92">
+        <v>5</v>
+      </c>
+      <c r="AW92">
+        <v>9</v>
+      </c>
+      <c r="AX92">
+        <v>4</v>
+      </c>
+      <c r="AY92">
+        <v>21</v>
+      </c>
+      <c r="AZ92">
+        <v>12</v>
+      </c>
+      <c r="BA92">
+        <v>3</v>
+      </c>
+      <c r="BB92">
+        <v>6</v>
+      </c>
+      <c r="BC92">
+        <v>9</v>
+      </c>
+      <c r="BD92">
+        <v>0</v>
+      </c>
+      <c r="BE92">
+        <v>0</v>
+      </c>
+      <c r="BF92">
+        <v>0</v>
+      </c>
+      <c r="BG92">
+        <v>0</v>
+      </c>
+      <c r="BH92">
+        <v>0</v>
+      </c>
+      <c r="BI92">
+        <v>0</v>
+      </c>
+      <c r="BJ92">
+        <v>0</v>
+      </c>
+      <c r="BK92">
+        <v>0</v>
+      </c>
+      <c r="BL92">
+        <v>0</v>
+      </c>
+      <c r="BM92">
+        <v>0</v>
+      </c>
+      <c r="BN92">
+        <v>0</v>
+      </c>
+      <c r="BO92">
+        <v>0</v>
+      </c>
+      <c r="BP92">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="201">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -978,7 +978,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP92"/>
+  <dimension ref="A1:BP93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4202,7 +4202,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ16">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5435,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ22">
         <v>1.2</v>
@@ -6056,7 +6056,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ25">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR25">
         <v>0.93</v>
@@ -8525,7 +8525,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ37">
         <v>0.83</v>
@@ -9352,7 +9352,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ41">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR41">
         <v>1.49</v>
@@ -11000,7 +11000,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ49">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR49">
         <v>1.24</v>
@@ -11409,7 +11409,7 @@
         <v>0.33</v>
       </c>
       <c r="AP51">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ51">
         <v>1.29</v>
@@ -13060,7 +13060,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ59">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR59">
         <v>1.83</v>
@@ -14087,7 +14087,7 @@
         <v>0.33</v>
       </c>
       <c r="AP64">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ64">
         <v>0.4</v>
@@ -16768,7 +16768,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ77">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR77">
         <v>1.45</v>
@@ -17383,7 +17383,7 @@
         <v>1.2</v>
       </c>
       <c r="AP80">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ80">
         <v>1.5</v>
@@ -19332,7 +19332,7 @@
         <v>69</v>
       </c>
       <c r="E90" s="2">
-        <v>45591.35416666666</v>
+        <v>45590.875</v>
       </c>
       <c r="F90">
         <v>13</v>
@@ -19934,6 +19934,212 @@
       </c>
       <c r="BP92">
         <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7468177</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45591.58333333334</v>
+      </c>
+      <c r="F93">
+        <v>13</v>
+      </c>
+      <c r="G93" t="s">
+        <v>85</v>
+      </c>
+      <c r="H93" t="s">
+        <v>71</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93" t="s">
+        <v>88</v>
+      </c>
+      <c r="P93" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q93">
+        <v>2.7</v>
+      </c>
+      <c r="R93">
+        <v>2.1</v>
+      </c>
+      <c r="S93">
+        <v>3.5</v>
+      </c>
+      <c r="T93">
+        <v>1.36</v>
+      </c>
+      <c r="U93">
+        <v>3</v>
+      </c>
+      <c r="V93">
+        <v>2.62</v>
+      </c>
+      <c r="W93">
+        <v>1.44</v>
+      </c>
+      <c r="X93">
+        <v>6.5</v>
+      </c>
+      <c r="Y93">
+        <v>1.1</v>
+      </c>
+      <c r="Z93">
+        <v>2.15</v>
+      </c>
+      <c r="AA93">
+        <v>3.35</v>
+      </c>
+      <c r="AB93">
+        <v>3.2</v>
+      </c>
+      <c r="AC93">
+        <v>1.03</v>
+      </c>
+      <c r="AD93">
+        <v>9</v>
+      </c>
+      <c r="AE93">
+        <v>1.24</v>
+      </c>
+      <c r="AF93">
+        <v>3.22</v>
+      </c>
+      <c r="AG93">
+        <v>1.88</v>
+      </c>
+      <c r="AH93">
+        <v>1.88</v>
+      </c>
+      <c r="AI93">
+        <v>1.73</v>
+      </c>
+      <c r="AJ93">
+        <v>2</v>
+      </c>
+      <c r="AK93">
+        <v>1.36</v>
+      </c>
+      <c r="AL93">
+        <v>1.3</v>
+      </c>
+      <c r="AM93">
+        <v>1.6</v>
+      </c>
+      <c r="AN93">
+        <v>2</v>
+      </c>
+      <c r="AO93">
+        <v>1.67</v>
+      </c>
+      <c r="AP93">
+        <v>1.83</v>
+      </c>
+      <c r="AQ93">
+        <v>1.57</v>
+      </c>
+      <c r="AR93">
+        <v>1.61</v>
+      </c>
+      <c r="AS93">
+        <v>1.53</v>
+      </c>
+      <c r="AT93">
+        <v>3.14</v>
+      </c>
+      <c r="AU93">
+        <v>5</v>
+      </c>
+      <c r="AV93">
+        <v>4</v>
+      </c>
+      <c r="AW93">
+        <v>5</v>
+      </c>
+      <c r="AX93">
+        <v>2</v>
+      </c>
+      <c r="AY93">
+        <v>15</v>
+      </c>
+      <c r="AZ93">
+        <v>10</v>
+      </c>
+      <c r="BA93">
+        <v>12</v>
+      </c>
+      <c r="BB93">
+        <v>6</v>
+      </c>
+      <c r="BC93">
+        <v>18</v>
+      </c>
+      <c r="BD93">
+        <v>1.85</v>
+      </c>
+      <c r="BE93">
+        <v>8.5</v>
+      </c>
+      <c r="BF93">
+        <v>2.15</v>
+      </c>
+      <c r="BG93">
+        <v>0</v>
+      </c>
+      <c r="BH93">
+        <v>0</v>
+      </c>
+      <c r="BI93">
+        <v>1.3</v>
+      </c>
+      <c r="BJ93">
+        <v>3.22</v>
+      </c>
+      <c r="BK93">
+        <v>1.51</v>
+      </c>
+      <c r="BL93">
+        <v>2.38</v>
+      </c>
+      <c r="BM93">
+        <v>1.9</v>
+      </c>
+      <c r="BN93">
+        <v>1.9</v>
+      </c>
+      <c r="BO93">
+        <v>2.31</v>
+      </c>
+      <c r="BP93">
+        <v>1.54</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="206">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -463,7 +463,19 @@
     <t>['15', '37', '44', '57']</t>
   </si>
   <si>
-    <t>['15', '75']</t>
+    <t>['15', '74']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
+    <t>['45+3']</t>
+  </si>
+  <si>
+    <t>['33', '57', '89']</t>
+  </si>
+  <si>
+    <t>['30']</t>
   </si>
   <si>
     <t>['25']</t>
@@ -617,6 +629,9 @@
   </si>
   <si>
     <t>['45+1', '90+3']</t>
+  </si>
+  <si>
+    <t>['6', '39']</t>
   </si>
 </sst>
 </file>
@@ -978,7 +993,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP93"/>
+  <dimension ref="A1:BP97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1237,7 +1252,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q2">
         <v>1.53</v>
@@ -1649,7 +1664,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -2061,7 +2076,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2267,7 +2282,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2966,7 +2981,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ10">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR10">
         <v>0.98</v>
@@ -3091,7 +3106,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q11">
         <v>2.85</v>
@@ -3172,7 +3187,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ11">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3297,7 +3312,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3375,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ12">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3709,7 +3724,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -3993,7 +4008,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ15">
         <v>1.17</v>
@@ -4405,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ17">
         <v>0.67</v>
@@ -4533,7 +4548,7 @@
         <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q18">
         <v>5.4</v>
@@ -4820,7 +4835,7 @@
         <v>2</v>
       </c>
       <c r="AQ19">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR19">
         <v>1.9</v>
@@ -5026,7 +5041,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ20">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR20">
         <v>1</v>
@@ -5563,7 +5578,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q23">
         <v>2.6</v>
@@ -5769,7 +5784,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5975,7 +5990,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q25">
         <v>1.06</v>
@@ -6181,7 +6196,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q26">
         <v>3.2</v>
@@ -6259,7 +6274,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ26">
         <v>1.2</v>
@@ -6387,7 +6402,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q27">
         <v>6.23</v>
@@ -6468,7 +6483,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ27">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AR27">
         <v>1.73</v>
@@ -7083,7 +7098,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ30">
         <v>0</v>
@@ -7495,10 +7510,10 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ32">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR32">
         <v>1.64</v>
@@ -7704,7 +7719,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ33">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR33">
         <v>1.08</v>
@@ -7829,7 +7844,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q34">
         <v>1.45</v>
@@ -8035,7 +8050,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q35">
         <v>2.84</v>
@@ -8116,7 +8131,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ35">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR35">
         <v>1.93</v>
@@ -8241,7 +8256,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q36">
         <v>5.63</v>
@@ -8322,7 +8337,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ36">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AR36">
         <v>1.54</v>
@@ -8447,7 +8462,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q37">
         <v>2.58</v>
@@ -8859,7 +8874,7 @@
         <v>88</v>
       </c>
       <c r="P39" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q39">
         <v>4.75</v>
@@ -9271,7 +9286,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9477,7 +9492,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q42">
         <v>2.61</v>
@@ -9555,10 +9570,10 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ42">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR42">
         <v>1.41</v>
@@ -9683,7 +9698,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q43">
         <v>1.69</v>
@@ -10794,7 +10809,7 @@
         <v>0.14</v>
       </c>
       <c r="AQ48">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR48">
         <v>1.34</v>
@@ -11125,7 +11140,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q50">
         <v>5.1</v>
@@ -11206,7 +11221,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ50">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AR50">
         <v>1.24</v>
@@ -11331,7 +11346,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -11618,7 +11633,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ52">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR52">
         <v>1.76</v>
@@ -11949,7 +11964,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12027,7 +12042,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ54">
         <v>0.83</v>
@@ -12155,7 +12170,7 @@
         <v>93</v>
       </c>
       <c r="P55" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q55">
         <v>3.85</v>
@@ -12361,7 +12376,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q56">
         <v>1.85</v>
@@ -12439,7 +12454,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ56">
         <v>1.33</v>
@@ -12567,7 +12582,7 @@
         <v>88</v>
       </c>
       <c r="P57" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q57">
         <v>5.88</v>
@@ -12645,7 +12660,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ57">
         <v>2.6</v>
@@ -13185,7 +13200,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q60">
         <v>3.86</v>
@@ -13263,7 +13278,7 @@
         <v>0.5</v>
       </c>
       <c r="AP60">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ60">
         <v>1.29</v>
@@ -13597,7 +13612,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q62">
         <v>1.83</v>
@@ -13675,7 +13690,7 @@
         <v>0.75</v>
       </c>
       <c r="AP62">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ62">
         <v>0.57</v>
@@ -13803,7 +13818,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q63">
         <v>8.77</v>
@@ -13884,7 +13899,7 @@
         <v>0.14</v>
       </c>
       <c r="AQ63">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AR63">
         <v>1.37</v>
@@ -14009,7 +14024,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -14090,7 +14105,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ64">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR64">
         <v>1.75</v>
@@ -14215,7 +14230,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14296,7 +14311,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ65">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR65">
         <v>1.42</v>
@@ -14421,7 +14436,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q66">
         <v>1.55</v>
@@ -14627,7 +14642,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -14833,7 +14848,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -15120,7 +15135,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ69">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR69">
         <v>1.16</v>
@@ -15657,7 +15672,7 @@
         <v>124</v>
       </c>
       <c r="P72" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q72">
         <v>1.88</v>
@@ -15735,7 +15750,7 @@
         <v>0.75</v>
       </c>
       <c r="AP72">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ72">
         <v>0.83</v>
@@ -15863,7 +15878,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -16275,7 +16290,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -16353,10 +16368,10 @@
         <v>0.25</v>
       </c>
       <c r="AP75">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ75">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR75">
         <v>1.49</v>
@@ -16481,7 +16496,7 @@
         <v>88</v>
       </c>
       <c r="P76" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q76">
         <v>3.7</v>
@@ -16687,7 +16702,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q77">
         <v>2.47</v>
@@ -16971,7 +16986,7 @@
         <v>0.8</v>
       </c>
       <c r="AP78">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ78">
         <v>0.57</v>
@@ -17177,7 +17192,7 @@
         <v>1</v>
       </c>
       <c r="AP79">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ79">
         <v>1.29</v>
@@ -17305,7 +17320,7 @@
         <v>140</v>
       </c>
       <c r="P80" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q80">
         <v>2.5</v>
@@ -17386,7 +17401,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ80">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR80">
         <v>1.66</v>
@@ -17511,7 +17526,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17592,7 +17607,7 @@
         <v>3</v>
       </c>
       <c r="AQ81">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AR81">
         <v>2.43</v>
@@ -17717,7 +17732,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q82">
         <v>2.8</v>
@@ -17923,7 +17938,7 @@
         <v>143</v>
       </c>
       <c r="P83" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q83">
         <v>3.4</v>
@@ -18129,7 +18144,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q84">
         <v>2.6</v>
@@ -18335,7 +18350,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q85">
         <v>1.65</v>
@@ -18541,7 +18556,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18747,7 +18762,7 @@
         <v>88</v>
       </c>
       <c r="P87" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q87">
         <v>2.6</v>
@@ -19159,7 +19174,7 @@
         <v>93</v>
       </c>
       <c r="P89" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q89">
         <v>6.5</v>
@@ -19332,10 +19347,10 @@
         <v>69</v>
       </c>
       <c r="E90" s="2">
-        <v>45590.875</v>
+        <v>45591.35416666666</v>
       </c>
       <c r="F90">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G90" t="s">
         <v>81</v>
@@ -19541,7 +19556,7 @@
         <v>45591.45833333334</v>
       </c>
       <c r="F91">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G91" t="s">
         <v>78</v>
@@ -19571,7 +19586,7 @@
         <v>149</v>
       </c>
       <c r="P91" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q91">
         <v>4.7</v>
@@ -19777,7 +19792,7 @@
         <v>88</v>
       </c>
       <c r="P92" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q92">
         <v>3.8</v>
@@ -20140,6 +20155,830 @@
       </c>
       <c r="BP93">
         <v>1.54</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7468179</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45591.875</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94" t="s">
+        <v>79</v>
+      </c>
+      <c r="H94" t="s">
+        <v>73</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>2</v>
+      </c>
+      <c r="K94">
+        <v>2</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>2</v>
+      </c>
+      <c r="N94">
+        <v>3</v>
+      </c>
+      <c r="O94" t="s">
+        <v>150</v>
+      </c>
+      <c r="P94" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q94">
+        <v>3</v>
+      </c>
+      <c r="R94">
+        <v>2.2</v>
+      </c>
+      <c r="S94">
+        <v>3.5</v>
+      </c>
+      <c r="T94">
+        <v>1.36</v>
+      </c>
+      <c r="U94">
+        <v>3</v>
+      </c>
+      <c r="V94">
+        <v>2.75</v>
+      </c>
+      <c r="W94">
+        <v>1.4</v>
+      </c>
+      <c r="X94">
+        <v>7</v>
+      </c>
+      <c r="Y94">
+        <v>1.1</v>
+      </c>
+      <c r="Z94">
+        <v>2.3</v>
+      </c>
+      <c r="AA94">
+        <v>3.1</v>
+      </c>
+      <c r="AB94">
+        <v>2.7</v>
+      </c>
+      <c r="AC94">
+        <v>1.05</v>
+      </c>
+      <c r="AD94">
+        <v>8.5</v>
+      </c>
+      <c r="AE94">
+        <v>1.25</v>
+      </c>
+      <c r="AF94">
+        <v>3.75</v>
+      </c>
+      <c r="AG94">
+        <v>1.88</v>
+      </c>
+      <c r="AH94">
+        <v>1.91</v>
+      </c>
+      <c r="AI94">
+        <v>1.7</v>
+      </c>
+      <c r="AJ94">
+        <v>2.05</v>
+      </c>
+      <c r="AK94">
+        <v>1.42</v>
+      </c>
+      <c r="AL94">
+        <v>1.25</v>
+      </c>
+      <c r="AM94">
+        <v>1.55</v>
+      </c>
+      <c r="AN94">
+        <v>0.67</v>
+      </c>
+      <c r="AO94">
+        <v>1.5</v>
+      </c>
+      <c r="AP94">
+        <v>0.57</v>
+      </c>
+      <c r="AQ94">
+        <v>1.71</v>
+      </c>
+      <c r="AR94">
+        <v>1.52</v>
+      </c>
+      <c r="AS94">
+        <v>1.47</v>
+      </c>
+      <c r="AT94">
+        <v>2.99</v>
+      </c>
+      <c r="AU94">
+        <v>6</v>
+      </c>
+      <c r="AV94">
+        <v>4</v>
+      </c>
+      <c r="AW94">
+        <v>6</v>
+      </c>
+      <c r="AX94">
+        <v>4</v>
+      </c>
+      <c r="AY94">
+        <v>21</v>
+      </c>
+      <c r="AZ94">
+        <v>9</v>
+      </c>
+      <c r="BA94">
+        <v>7</v>
+      </c>
+      <c r="BB94">
+        <v>3</v>
+      </c>
+      <c r="BC94">
+        <v>10</v>
+      </c>
+      <c r="BD94">
+        <v>1.83</v>
+      </c>
+      <c r="BE94">
+        <v>8.5</v>
+      </c>
+      <c r="BF94">
+        <v>2.15</v>
+      </c>
+      <c r="BG94">
+        <v>0</v>
+      </c>
+      <c r="BH94">
+        <v>0</v>
+      </c>
+      <c r="BI94">
+        <v>1.22</v>
+      </c>
+      <c r="BJ94">
+        <v>3.35</v>
+      </c>
+      <c r="BK94">
+        <v>1.42</v>
+      </c>
+      <c r="BL94">
+        <v>2.49</v>
+      </c>
+      <c r="BM94">
+        <v>1.8</v>
+      </c>
+      <c r="BN94">
+        <v>1.91</v>
+      </c>
+      <c r="BO94">
+        <v>2.17</v>
+      </c>
+      <c r="BP94">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7468180</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45592.47916666666</v>
+      </c>
+      <c r="F95">
+        <v>13</v>
+      </c>
+      <c r="G95" t="s">
+        <v>82</v>
+      </c>
+      <c r="H95" t="s">
+        <v>75</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95">
+        <v>2</v>
+      </c>
+      <c r="O95" t="s">
+        <v>151</v>
+      </c>
+      <c r="P95" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q95">
+        <v>2.3</v>
+      </c>
+      <c r="R95">
+        <v>2.38</v>
+      </c>
+      <c r="S95">
+        <v>4.5</v>
+      </c>
+      <c r="T95">
+        <v>1.33</v>
+      </c>
+      <c r="U95">
+        <v>3.25</v>
+      </c>
+      <c r="V95">
+        <v>2.5</v>
+      </c>
+      <c r="W95">
+        <v>1.5</v>
+      </c>
+      <c r="X95">
+        <v>6</v>
+      </c>
+      <c r="Y95">
+        <v>1.13</v>
+      </c>
+      <c r="Z95">
+        <v>1.78</v>
+      </c>
+      <c r="AA95">
+        <v>3.91</v>
+      </c>
+      <c r="AB95">
+        <v>3.94</v>
+      </c>
+      <c r="AC95">
+        <v>1.04</v>
+      </c>
+      <c r="AD95">
+        <v>9</v>
+      </c>
+      <c r="AE95">
+        <v>1.22</v>
+      </c>
+      <c r="AF95">
+        <v>4</v>
+      </c>
+      <c r="AG95">
+        <v>1.68</v>
+      </c>
+      <c r="AH95">
+        <v>2.12</v>
+      </c>
+      <c r="AI95">
+        <v>1.67</v>
+      </c>
+      <c r="AJ95">
+        <v>2.1</v>
+      </c>
+      <c r="AK95">
+        <v>1.18</v>
+      </c>
+      <c r="AL95">
+        <v>1.18</v>
+      </c>
+      <c r="AM95">
+        <v>2.05</v>
+      </c>
+      <c r="AN95">
+        <v>1.6</v>
+      </c>
+      <c r="AO95">
+        <v>1.5</v>
+      </c>
+      <c r="AP95">
+        <v>1.5</v>
+      </c>
+      <c r="AQ95">
+        <v>1.4</v>
+      </c>
+      <c r="AR95">
+        <v>1.43</v>
+      </c>
+      <c r="AS95">
+        <v>1.69</v>
+      </c>
+      <c r="AT95">
+        <v>3.12</v>
+      </c>
+      <c r="AU95">
+        <v>8</v>
+      </c>
+      <c r="AV95">
+        <v>8</v>
+      </c>
+      <c r="AW95">
+        <v>7</v>
+      </c>
+      <c r="AX95">
+        <v>12</v>
+      </c>
+      <c r="AY95">
+        <v>17</v>
+      </c>
+      <c r="AZ95">
+        <v>22</v>
+      </c>
+      <c r="BA95">
+        <v>4</v>
+      </c>
+      <c r="BB95">
+        <v>5</v>
+      </c>
+      <c r="BC95">
+        <v>9</v>
+      </c>
+      <c r="BD95">
+        <v>1.53</v>
+      </c>
+      <c r="BE95">
+        <v>9</v>
+      </c>
+      <c r="BF95">
+        <v>2.75</v>
+      </c>
+      <c r="BG95">
+        <v>0</v>
+      </c>
+      <c r="BH95">
+        <v>0</v>
+      </c>
+      <c r="BI95">
+        <v>1.25</v>
+      </c>
+      <c r="BJ95">
+        <v>3.52</v>
+      </c>
+      <c r="BK95">
+        <v>1.44</v>
+      </c>
+      <c r="BL95">
+        <v>2.57</v>
+      </c>
+      <c r="BM95">
+        <v>1.95</v>
+      </c>
+      <c r="BN95">
+        <v>1.85</v>
+      </c>
+      <c r="BO95">
+        <v>2.15</v>
+      </c>
+      <c r="BP95">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7468178</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45592.47916666666</v>
+      </c>
+      <c r="F96">
+        <v>13</v>
+      </c>
+      <c r="G96" t="s">
+        <v>80</v>
+      </c>
+      <c r="H96" t="s">
+        <v>74</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>3</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>3</v>
+      </c>
+      <c r="O96" t="s">
+        <v>152</v>
+      </c>
+      <c r="P96" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q96">
+        <v>1.36</v>
+      </c>
+      <c r="R96">
+        <v>3.75</v>
+      </c>
+      <c r="S96">
+        <v>15</v>
+      </c>
+      <c r="T96">
+        <v>1.17</v>
+      </c>
+      <c r="U96">
+        <v>5</v>
+      </c>
+      <c r="V96">
+        <v>1.8</v>
+      </c>
+      <c r="W96">
+        <v>1.91</v>
+      </c>
+      <c r="X96">
+        <v>3.5</v>
+      </c>
+      <c r="Y96">
+        <v>1.29</v>
+      </c>
+      <c r="Z96">
+        <v>1.07</v>
+      </c>
+      <c r="AA96">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB96">
+        <v>17</v>
+      </c>
+      <c r="AC96">
+        <v>1.01</v>
+      </c>
+      <c r="AD96">
+        <v>11</v>
+      </c>
+      <c r="AE96">
+        <v>1.09</v>
+      </c>
+      <c r="AF96">
+        <v>6.5</v>
+      </c>
+      <c r="AG96">
+        <v>1.33</v>
+      </c>
+      <c r="AH96">
+        <v>3</v>
+      </c>
+      <c r="AI96">
+        <v>2.2</v>
+      </c>
+      <c r="AJ96">
+        <v>1.62</v>
+      </c>
+      <c r="AK96">
+        <v>1.01</v>
+      </c>
+      <c r="AL96">
+        <v>1.04</v>
+      </c>
+      <c r="AM96">
+        <v>7.5</v>
+      </c>
+      <c r="AN96">
+        <v>3</v>
+      </c>
+      <c r="AO96">
+        <v>0.4</v>
+      </c>
+      <c r="AP96">
+        <v>3</v>
+      </c>
+      <c r="AQ96">
+        <v>0.33</v>
+      </c>
+      <c r="AR96">
+        <v>2.31</v>
+      </c>
+      <c r="AS96">
+        <v>0.89</v>
+      </c>
+      <c r="AT96">
+        <v>3.2</v>
+      </c>
+      <c r="AU96">
+        <v>7</v>
+      </c>
+      <c r="AV96">
+        <v>2</v>
+      </c>
+      <c r="AW96">
+        <v>7</v>
+      </c>
+      <c r="AX96">
+        <v>3</v>
+      </c>
+      <c r="AY96">
+        <v>20</v>
+      </c>
+      <c r="AZ96">
+        <v>6</v>
+      </c>
+      <c r="BA96">
+        <v>9</v>
+      </c>
+      <c r="BB96">
+        <v>3</v>
+      </c>
+      <c r="BC96">
+        <v>12</v>
+      </c>
+      <c r="BD96">
+        <v>1.05</v>
+      </c>
+      <c r="BE96">
+        <v>23</v>
+      </c>
+      <c r="BF96">
+        <v>8</v>
+      </c>
+      <c r="BG96">
+        <v>1.09</v>
+      </c>
+      <c r="BH96">
+        <v>6</v>
+      </c>
+      <c r="BI96">
+        <v>1.2</v>
+      </c>
+      <c r="BJ96">
+        <v>4</v>
+      </c>
+      <c r="BK96">
+        <v>1.38</v>
+      </c>
+      <c r="BL96">
+        <v>2.8</v>
+      </c>
+      <c r="BM96">
+        <v>1.95</v>
+      </c>
+      <c r="BN96">
+        <v>1.85</v>
+      </c>
+      <c r="BO96">
+        <v>1.96</v>
+      </c>
+      <c r="BP96">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7468182</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45592.60416666666</v>
+      </c>
+      <c r="F97">
+        <v>13</v>
+      </c>
+      <c r="G97" t="s">
+        <v>84</v>
+      </c>
+      <c r="H97" t="s">
+        <v>70</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97" t="s">
+        <v>153</v>
+      </c>
+      <c r="P97" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q97">
+        <v>3.1</v>
+      </c>
+      <c r="R97">
+        <v>2.25</v>
+      </c>
+      <c r="S97">
+        <v>3.2</v>
+      </c>
+      <c r="T97">
+        <v>1.33</v>
+      </c>
+      <c r="U97">
+        <v>3.25</v>
+      </c>
+      <c r="V97">
+        <v>2.63</v>
+      </c>
+      <c r="W97">
+        <v>1.44</v>
+      </c>
+      <c r="X97">
+        <v>6.5</v>
+      </c>
+      <c r="Y97">
+        <v>1.11</v>
+      </c>
+      <c r="Z97">
+        <v>2.37</v>
+      </c>
+      <c r="AA97">
+        <v>4.37</v>
+      </c>
+      <c r="AB97">
+        <v>2.18</v>
+      </c>
+      <c r="AC97">
+        <v>1.04</v>
+      </c>
+      <c r="AD97">
+        <v>9</v>
+      </c>
+      <c r="AE97">
+        <v>1.25</v>
+      </c>
+      <c r="AF97">
+        <v>3.75</v>
+      </c>
+      <c r="AG97">
+        <v>1.77</v>
+      </c>
+      <c r="AH97">
+        <v>1.98</v>
+      </c>
+      <c r="AI97">
+        <v>1.62</v>
+      </c>
+      <c r="AJ97">
+        <v>2.2</v>
+      </c>
+      <c r="AK97">
+        <v>1.45</v>
+      </c>
+      <c r="AL97">
+        <v>1.25</v>
+      </c>
+      <c r="AM97">
+        <v>1.55</v>
+      </c>
+      <c r="AN97">
+        <v>2.6</v>
+      </c>
+      <c r="AO97">
+        <v>2.5</v>
+      </c>
+      <c r="AP97">
+        <v>2.67</v>
+      </c>
+      <c r="AQ97">
+        <v>2.14</v>
+      </c>
+      <c r="AR97">
+        <v>1.81</v>
+      </c>
+      <c r="AS97">
+        <v>1.84</v>
+      </c>
+      <c r="AT97">
+        <v>3.65</v>
+      </c>
+      <c r="AU97">
+        <v>6</v>
+      </c>
+      <c r="AV97">
+        <v>2</v>
+      </c>
+      <c r="AW97">
+        <v>3</v>
+      </c>
+      <c r="AX97">
+        <v>6</v>
+      </c>
+      <c r="AY97">
+        <v>14</v>
+      </c>
+      <c r="AZ97">
+        <v>11</v>
+      </c>
+      <c r="BA97">
+        <v>3</v>
+      </c>
+      <c r="BB97">
+        <v>3</v>
+      </c>
+      <c r="BC97">
+        <v>6</v>
+      </c>
+      <c r="BD97">
+        <v>2.05</v>
+      </c>
+      <c r="BE97">
+        <v>8.5</v>
+      </c>
+      <c r="BF97">
+        <v>1.91</v>
+      </c>
+      <c r="BG97">
+        <v>0</v>
+      </c>
+      <c r="BH97">
+        <v>0</v>
+      </c>
+      <c r="BI97">
+        <v>1.28</v>
+      </c>
+      <c r="BJ97">
+        <v>3.32</v>
+      </c>
+      <c r="BK97">
+        <v>1.49</v>
+      </c>
+      <c r="BL97">
+        <v>2.44</v>
+      </c>
+      <c r="BM97">
+        <v>1.8</v>
+      </c>
+      <c r="BN97">
+        <v>1.9</v>
+      </c>
+      <c r="BO97">
+        <v>2.26</v>
+      </c>
+      <c r="BP97">
+        <v>1.57</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -466,16 +466,16 @@
     <t>['15', '74']</t>
   </si>
   <si>
-    <t>['67']</t>
+    <t>['45+2']</t>
   </si>
   <si>
-    <t>['45+3']</t>
+    <t>['30']</t>
   </si>
   <si>
     <t>['33', '57', '89']</t>
   </si>
   <si>
-    <t>['30']</t>
+    <t>['67']</t>
   </si>
   <si>
     <t>['25']</t>
@@ -20162,7 +20162,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>7468179</v>
+        <v>7468180</v>
       </c>
       <c r="C94" t="s">
         <v>68</v>
@@ -20174,193 +20174,193 @@
         <v>45591.875</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G94" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H94" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L94">
         <v>1</v>
       </c>
       <c r="M94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O94" t="s">
         <v>150</v>
       </c>
       <c r="P94" t="s">
-        <v>205</v>
+        <v>99</v>
       </c>
       <c r="Q94">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="R94">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="S94">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="T94">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U94">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V94">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="W94">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="X94">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y94">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="Z94">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="AA94">
-        <v>3.1</v>
+        <v>3.91</v>
       </c>
       <c r="AB94">
-        <v>2.7</v>
+        <v>3.94</v>
       </c>
       <c r="AC94">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AD94">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE94">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AF94">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AG94">
-        <v>1.88</v>
+        <v>1.68</v>
       </c>
       <c r="AH94">
-        <v>1.91</v>
+        <v>2.12</v>
       </c>
       <c r="AI94">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AJ94">
+        <v>2.1</v>
+      </c>
+      <c r="AK94">
+        <v>1.18</v>
+      </c>
+      <c r="AL94">
+        <v>1.18</v>
+      </c>
+      <c r="AM94">
         <v>2.05</v>
       </c>
-      <c r="AK94">
-        <v>1.42</v>
-      </c>
-      <c r="AL94">
-        <v>1.25</v>
-      </c>
-      <c r="AM94">
-        <v>1.55</v>
-      </c>
       <c r="AN94">
-        <v>0.67</v>
+        <v>1.6</v>
       </c>
       <c r="AO94">
         <v>1.5</v>
       </c>
       <c r="AP94">
-        <v>0.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ94">
-        <v>1.71</v>
+        <v>1.4</v>
       </c>
       <c r="AR94">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
       <c r="AS94">
-        <v>1.47</v>
+        <v>1.69</v>
       </c>
       <c r="AT94">
-        <v>2.99</v>
+        <v>3.12</v>
       </c>
       <c r="AU94">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV94">
+        <v>8</v>
+      </c>
+      <c r="AW94">
+        <v>7</v>
+      </c>
+      <c r="AX94">
+        <v>12</v>
+      </c>
+      <c r="AY94">
+        <v>17</v>
+      </c>
+      <c r="AZ94">
+        <v>22</v>
+      </c>
+      <c r="BA94">
         <v>4</v>
       </c>
-      <c r="AW94">
-        <v>6</v>
-      </c>
-      <c r="AX94">
-        <v>4</v>
-      </c>
-      <c r="AY94">
-        <v>21</v>
-      </c>
-      <c r="AZ94">
+      <c r="BB94">
+        <v>5</v>
+      </c>
+      <c r="BC94">
         <v>9</v>
       </c>
-      <c r="BA94">
-        <v>7</v>
-      </c>
-      <c r="BB94">
-        <v>3</v>
-      </c>
-      <c r="BC94">
-        <v>10</v>
-      </c>
       <c r="BD94">
-        <v>1.83</v>
+        <v>1.53</v>
       </c>
       <c r="BE94">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="BF94">
+        <v>2.75</v>
+      </c>
+      <c r="BG94">
+        <v>0</v>
+      </c>
+      <c r="BH94">
+        <v>0</v>
+      </c>
+      <c r="BI94">
+        <v>1.25</v>
+      </c>
+      <c r="BJ94">
+        <v>3.52</v>
+      </c>
+      <c r="BK94">
+        <v>1.44</v>
+      </c>
+      <c r="BL94">
+        <v>2.57</v>
+      </c>
+      <c r="BM94">
+        <v>1.95</v>
+      </c>
+      <c r="BN94">
+        <v>1.85</v>
+      </c>
+      <c r="BO94">
         <v>2.15</v>
       </c>
-      <c r="BG94">
-        <v>0</v>
-      </c>
-      <c r="BH94">
-        <v>0</v>
-      </c>
-      <c r="BI94">
-        <v>1.22</v>
-      </c>
-      <c r="BJ94">
-        <v>3.35</v>
-      </c>
-      <c r="BK94">
-        <v>1.42</v>
-      </c>
-      <c r="BL94">
-        <v>2.49</v>
-      </c>
-      <c r="BM94">
-        <v>1.8</v>
-      </c>
-      <c r="BN94">
-        <v>1.91</v>
-      </c>
-      <c r="BO94">
-        <v>2.17</v>
-      </c>
       <c r="BP94">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="95" spans="1:68">
@@ -20368,7 +20368,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>7468180</v>
+        <v>7468182</v>
       </c>
       <c r="C95" t="s">
         <v>68</v>
@@ -20377,16 +20377,16 @@
         <v>69</v>
       </c>
       <c r="E95" s="2">
-        <v>45592.47916666666</v>
+        <v>45591.875</v>
       </c>
       <c r="F95">
         <v>13</v>
       </c>
       <c r="G95" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H95" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I95">
         <v>1</v>
@@ -20401,25 +20401,25 @@
         <v>1</v>
       </c>
       <c r="M95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O95" t="s">
         <v>151</v>
       </c>
       <c r="P95" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="Q95">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="R95">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S95">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="T95">
         <v>1.33</v>
@@ -20428,25 +20428,25 @@
         <v>3.25</v>
       </c>
       <c r="V95">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W95">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X95">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y95">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="Z95">
-        <v>1.78</v>
+        <v>2.37</v>
       </c>
       <c r="AA95">
-        <v>3.91</v>
+        <v>4.37</v>
       </c>
       <c r="AB95">
-        <v>3.94</v>
+        <v>2.18</v>
       </c>
       <c r="AC95">
         <v>1.04</v>
@@ -20455,88 +20455,88 @@
         <v>9</v>
       </c>
       <c r="AE95">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AF95">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AG95">
-        <v>1.68</v>
+        <v>1.77</v>
       </c>
       <c r="AH95">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="AI95">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AJ95">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AK95">
-        <v>1.18</v>
+        <v>1.45</v>
       </c>
       <c r="AL95">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AM95">
+        <v>1.55</v>
+      </c>
+      <c r="AN95">
+        <v>2.6</v>
+      </c>
+      <c r="AO95">
+        <v>2.5</v>
+      </c>
+      <c r="AP95">
+        <v>2.67</v>
+      </c>
+      <c r="AQ95">
+        <v>2.14</v>
+      </c>
+      <c r="AR95">
+        <v>1.81</v>
+      </c>
+      <c r="AS95">
+        <v>1.84</v>
+      </c>
+      <c r="AT95">
+        <v>3.65</v>
+      </c>
+      <c r="AU95">
+        <v>6</v>
+      </c>
+      <c r="AV95">
+        <v>2</v>
+      </c>
+      <c r="AW95">
+        <v>3</v>
+      </c>
+      <c r="AX95">
+        <v>6</v>
+      </c>
+      <c r="AY95">
+        <v>14</v>
+      </c>
+      <c r="AZ95">
+        <v>11</v>
+      </c>
+      <c r="BA95">
+        <v>3</v>
+      </c>
+      <c r="BB95">
+        <v>3</v>
+      </c>
+      <c r="BC95">
+        <v>6</v>
+      </c>
+      <c r="BD95">
         <v>2.05</v>
       </c>
-      <c r="AN95">
-        <v>1.6</v>
-      </c>
-      <c r="AO95">
-        <v>1.5</v>
-      </c>
-      <c r="AP95">
-        <v>1.5</v>
-      </c>
-      <c r="AQ95">
-        <v>1.4</v>
-      </c>
-      <c r="AR95">
-        <v>1.43</v>
-      </c>
-      <c r="AS95">
-        <v>1.69</v>
-      </c>
-      <c r="AT95">
-        <v>3.12</v>
-      </c>
-      <c r="AU95">
-        <v>8</v>
-      </c>
-      <c r="AV95">
-        <v>8</v>
-      </c>
-      <c r="AW95">
-        <v>7</v>
-      </c>
-      <c r="AX95">
-        <v>12</v>
-      </c>
-      <c r="AY95">
-        <v>17</v>
-      </c>
-      <c r="AZ95">
-        <v>22</v>
-      </c>
-      <c r="BA95">
-        <v>4</v>
-      </c>
-      <c r="BB95">
-        <v>5</v>
-      </c>
-      <c r="BC95">
-        <v>9</v>
-      </c>
-      <c r="BD95">
-        <v>1.53</v>
-      </c>
       <c r="BE95">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="BF95">
-        <v>2.75</v>
+        <v>1.91</v>
       </c>
       <c r="BG95">
         <v>0</v>
@@ -20545,28 +20545,28 @@
         <v>0</v>
       </c>
       <c r="BI95">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="BJ95">
-        <v>3.52</v>
+        <v>3.32</v>
       </c>
       <c r="BK95">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="BL95">
-        <v>2.57</v>
+        <v>2.44</v>
       </c>
       <c r="BM95">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="BN95">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="BO95">
-        <v>2.15</v>
+        <v>2.26</v>
       </c>
       <c r="BP95">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="96" spans="1:68">
@@ -20583,7 +20583,7 @@
         <v>69</v>
       </c>
       <c r="E96" s="2">
-        <v>45592.47916666666</v>
+        <v>45591.875</v>
       </c>
       <c r="F96">
         <v>13</v>
@@ -20780,7 +20780,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>7468182</v>
+        <v>7468179</v>
       </c>
       <c r="C97" t="s">
         <v>68</v>
@@ -20789,82 +20789,82 @@
         <v>69</v>
       </c>
       <c r="E97" s="2">
-        <v>45592.60416666666</v>
+        <v>45591.875</v>
       </c>
       <c r="F97">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H97" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L97">
         <v>1</v>
       </c>
       <c r="M97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O97" t="s">
         <v>153</v>
       </c>
       <c r="P97" t="s">
-        <v>88</v>
+        <v>205</v>
       </c>
       <c r="Q97">
+        <v>3</v>
+      </c>
+      <c r="R97">
+        <v>2.2</v>
+      </c>
+      <c r="S97">
+        <v>3.5</v>
+      </c>
+      <c r="T97">
+        <v>1.36</v>
+      </c>
+      <c r="U97">
+        <v>3</v>
+      </c>
+      <c r="V97">
+        <v>2.75</v>
+      </c>
+      <c r="W97">
+        <v>1.4</v>
+      </c>
+      <c r="X97">
+        <v>7</v>
+      </c>
+      <c r="Y97">
+        <v>1.1</v>
+      </c>
+      <c r="Z97">
+        <v>2.3</v>
+      </c>
+      <c r="AA97">
         <v>3.1</v>
       </c>
-      <c r="R97">
-        <v>2.25</v>
-      </c>
-      <c r="S97">
-        <v>3.2</v>
-      </c>
-      <c r="T97">
-        <v>1.33</v>
-      </c>
-      <c r="U97">
-        <v>3.25</v>
-      </c>
-      <c r="V97">
-        <v>2.63</v>
-      </c>
-      <c r="W97">
-        <v>1.44</v>
-      </c>
-      <c r="X97">
-        <v>6.5</v>
-      </c>
-      <c r="Y97">
-        <v>1.11</v>
-      </c>
-      <c r="Z97">
-        <v>2.37</v>
-      </c>
-      <c r="AA97">
-        <v>4.37</v>
-      </c>
       <c r="AB97">
-        <v>2.18</v>
+        <v>2.7</v>
       </c>
       <c r="AC97">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD97">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE97">
         <v>1.25</v>
@@ -20873,19 +20873,19 @@
         <v>3.75</v>
       </c>
       <c r="AG97">
-        <v>1.77</v>
+        <v>1.88</v>
       </c>
       <c r="AH97">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="AI97">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="AJ97">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="AK97">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AL97">
         <v>1.25</v>
@@ -20894,61 +20894,61 @@
         <v>1.55</v>
       </c>
       <c r="AN97">
-        <v>2.6</v>
+        <v>0.67</v>
       </c>
       <c r="AO97">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="AP97">
-        <v>2.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ97">
-        <v>2.14</v>
+        <v>1.71</v>
       </c>
       <c r="AR97">
-        <v>1.81</v>
+        <v>1.52</v>
       </c>
       <c r="AS97">
-        <v>1.84</v>
+        <v>1.47</v>
       </c>
       <c r="AT97">
-        <v>3.65</v>
+        <v>2.99</v>
       </c>
       <c r="AU97">
         <v>6</v>
       </c>
       <c r="AV97">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW97">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX97">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY97">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AZ97">
+        <v>9</v>
+      </c>
+      <c r="BA97">
+        <v>8</v>
+      </c>
+      <c r="BB97">
+        <v>3</v>
+      </c>
+      <c r="BC97">
         <v>11</v>
       </c>
-      <c r="BA97">
-        <v>3</v>
-      </c>
-      <c r="BB97">
-        <v>3</v>
-      </c>
-      <c r="BC97">
-        <v>6</v>
-      </c>
       <c r="BD97">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="BE97">
         <v>8.5</v>
       </c>
       <c r="BF97">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="BG97">
         <v>0</v>
@@ -20957,28 +20957,28 @@
         <v>0</v>
       </c>
       <c r="BI97">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="BJ97">
-        <v>3.32</v>
+        <v>3.35</v>
       </c>
       <c r="BK97">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="BL97">
-        <v>2.44</v>
+        <v>2.49</v>
       </c>
       <c r="BM97">
         <v>1.8</v>
       </c>
       <c r="BN97">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="BO97">
-        <v>2.26</v>
+        <v>2.17</v>
       </c>
       <c r="BP97">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -466,16 +466,16 @@
     <t>['15', '74']</t>
   </si>
   <si>
-    <t>['45+2']</t>
+    <t>['67']</t>
   </si>
   <si>
-    <t>['30']</t>
+    <t>['45+2']</t>
   </si>
   <si>
     <t>['33', '57', '89']</t>
   </si>
   <si>
-    <t>['67']</t>
+    <t>['30']</t>
   </si>
   <si>
     <t>['25']</t>
@@ -20162,7 +20162,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>7468180</v>
+        <v>7468179</v>
       </c>
       <c r="C94" t="s">
         <v>68</v>
@@ -20171,166 +20171,166 @@
         <v>69</v>
       </c>
       <c r="E94" s="2">
-        <v>45591.875</v>
+        <v>45592.375</v>
       </c>
       <c r="F94">
         <v>13</v>
       </c>
       <c r="G94" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H94" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L94">
         <v>1</v>
       </c>
       <c r="M94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O94" t="s">
         <v>150</v>
       </c>
       <c r="P94" t="s">
-        <v>99</v>
+        <v>205</v>
       </c>
       <c r="Q94">
+        <v>3</v>
+      </c>
+      <c r="R94">
+        <v>2.2</v>
+      </c>
+      <c r="S94">
+        <v>3.5</v>
+      </c>
+      <c r="T94">
+        <v>1.36</v>
+      </c>
+      <c r="U94">
+        <v>3</v>
+      </c>
+      <c r="V94">
+        <v>2.75</v>
+      </c>
+      <c r="W94">
+        <v>1.4</v>
+      </c>
+      <c r="X94">
+        <v>7</v>
+      </c>
+      <c r="Y94">
+        <v>1.1</v>
+      </c>
+      <c r="Z94">
         <v>2.3</v>
       </c>
-      <c r="R94">
-        <v>2.38</v>
-      </c>
-      <c r="S94">
-        <v>4.5</v>
-      </c>
-      <c r="T94">
-        <v>1.33</v>
-      </c>
-      <c r="U94">
-        <v>3.25</v>
-      </c>
-      <c r="V94">
-        <v>2.5</v>
-      </c>
-      <c r="W94">
-        <v>1.5</v>
-      </c>
-      <c r="X94">
-        <v>6</v>
-      </c>
-      <c r="Y94">
-        <v>1.13</v>
-      </c>
-      <c r="Z94">
-        <v>1.78</v>
-      </c>
       <c r="AA94">
-        <v>3.91</v>
+        <v>3.1</v>
       </c>
       <c r="AB94">
-        <v>3.94</v>
+        <v>2.7</v>
       </c>
       <c r="AC94">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD94">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE94">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AF94">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AG94">
-        <v>1.68</v>
+        <v>1.88</v>
       </c>
       <c r="AH94">
-        <v>2.12</v>
+        <v>1.91</v>
       </c>
       <c r="AI94">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AJ94">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AK94">
-        <v>1.18</v>
+        <v>1.42</v>
       </c>
       <c r="AL94">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AM94">
-        <v>2.05</v>
+        <v>1.55</v>
       </c>
       <c r="AN94">
-        <v>1.6</v>
+        <v>0.67</v>
       </c>
       <c r="AO94">
         <v>1.5</v>
       </c>
       <c r="AP94">
-        <v>1.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ94">
-        <v>1.4</v>
+        <v>1.71</v>
       </c>
       <c r="AR94">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="AS94">
-        <v>1.69</v>
+        <v>1.47</v>
       </c>
       <c r="AT94">
-        <v>3.12</v>
+        <v>2.99</v>
       </c>
       <c r="AU94">
+        <v>6</v>
+      </c>
+      <c r="AV94">
+        <v>4</v>
+      </c>
+      <c r="AW94">
+        <v>6</v>
+      </c>
+      <c r="AX94">
+        <v>4</v>
+      </c>
+      <c r="AY94">
+        <v>21</v>
+      </c>
+      <c r="AZ94">
+        <v>9</v>
+      </c>
+      <c r="BA94">
         <v>8</v>
       </c>
-      <c r="AV94">
-        <v>8</v>
-      </c>
-      <c r="AW94">
-        <v>7</v>
-      </c>
-      <c r="AX94">
-        <v>12</v>
-      </c>
-      <c r="AY94">
-        <v>17</v>
-      </c>
-      <c r="AZ94">
-        <v>22</v>
-      </c>
-      <c r="BA94">
-        <v>4</v>
-      </c>
       <c r="BB94">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC94">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD94">
-        <v>1.53</v>
+        <v>1.83</v>
       </c>
       <c r="BE94">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="BF94">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="BG94">
         <v>0</v>
@@ -20339,28 +20339,28 @@
         <v>0</v>
       </c>
       <c r="BI94">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="BJ94">
-        <v>3.52</v>
+        <v>3.35</v>
       </c>
       <c r="BK94">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="BL94">
-        <v>2.57</v>
+        <v>2.49</v>
       </c>
       <c r="BM94">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="BN94">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="BO94">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
       <c r="BP94">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="95" spans="1:68">
@@ -20368,7 +20368,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>7468182</v>
+        <v>7468180</v>
       </c>
       <c r="C95" t="s">
         <v>68</v>
@@ -20377,16 +20377,16 @@
         <v>69</v>
       </c>
       <c r="E95" s="2">
-        <v>45591.875</v>
+        <v>45592.47916666666</v>
       </c>
       <c r="F95">
         <v>13</v>
       </c>
       <c r="G95" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H95" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I95">
         <v>1</v>
@@ -20401,25 +20401,25 @@
         <v>1</v>
       </c>
       <c r="M95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O95" t="s">
         <v>151</v>
       </c>
       <c r="P95" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="Q95">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="R95">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S95">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="T95">
         <v>1.33</v>
@@ -20428,25 +20428,25 @@
         <v>3.25</v>
       </c>
       <c r="V95">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W95">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X95">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y95">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="Z95">
-        <v>2.37</v>
+        <v>1.78</v>
       </c>
       <c r="AA95">
-        <v>4.37</v>
+        <v>3.91</v>
       </c>
       <c r="AB95">
-        <v>2.18</v>
+        <v>3.94</v>
       </c>
       <c r="AC95">
         <v>1.04</v>
@@ -20455,118 +20455,118 @@
         <v>9</v>
       </c>
       <c r="AE95">
+        <v>1.22</v>
+      </c>
+      <c r="AF95">
+        <v>4</v>
+      </c>
+      <c r="AG95">
+        <v>1.68</v>
+      </c>
+      <c r="AH95">
+        <v>2.12</v>
+      </c>
+      <c r="AI95">
+        <v>1.67</v>
+      </c>
+      <c r="AJ95">
+        <v>2.1</v>
+      </c>
+      <c r="AK95">
+        <v>1.18</v>
+      </c>
+      <c r="AL95">
+        <v>1.18</v>
+      </c>
+      <c r="AM95">
+        <v>2.05</v>
+      </c>
+      <c r="AN95">
+        <v>1.6</v>
+      </c>
+      <c r="AO95">
+        <v>1.5</v>
+      </c>
+      <c r="AP95">
+        <v>1.5</v>
+      </c>
+      <c r="AQ95">
+        <v>1.4</v>
+      </c>
+      <c r="AR95">
+        <v>1.43</v>
+      </c>
+      <c r="AS95">
+        <v>1.69</v>
+      </c>
+      <c r="AT95">
+        <v>3.12</v>
+      </c>
+      <c r="AU95">
+        <v>8</v>
+      </c>
+      <c r="AV95">
+        <v>8</v>
+      </c>
+      <c r="AW95">
+        <v>7</v>
+      </c>
+      <c r="AX95">
+        <v>12</v>
+      </c>
+      <c r="AY95">
+        <v>17</v>
+      </c>
+      <c r="AZ95">
+        <v>22</v>
+      </c>
+      <c r="BA95">
+        <v>4</v>
+      </c>
+      <c r="BB95">
+        <v>5</v>
+      </c>
+      <c r="BC95">
+        <v>9</v>
+      </c>
+      <c r="BD95">
+        <v>1.53</v>
+      </c>
+      <c r="BE95">
+        <v>9</v>
+      </c>
+      <c r="BF95">
+        <v>2.75</v>
+      </c>
+      <c r="BG95">
+        <v>0</v>
+      </c>
+      <c r="BH95">
+        <v>0</v>
+      </c>
+      <c r="BI95">
         <v>1.25</v>
       </c>
-      <c r="AF95">
-        <v>3.75</v>
-      </c>
-      <c r="AG95">
-        <v>1.77</v>
-      </c>
-      <c r="AH95">
-        <v>1.98</v>
-      </c>
-      <c r="AI95">
-        <v>1.62</v>
-      </c>
-      <c r="AJ95">
-        <v>2.2</v>
-      </c>
-      <c r="AK95">
-        <v>1.45</v>
-      </c>
-      <c r="AL95">
-        <v>1.25</v>
-      </c>
-      <c r="AM95">
-        <v>1.55</v>
-      </c>
-      <c r="AN95">
-        <v>2.6</v>
-      </c>
-      <c r="AO95">
-        <v>2.5</v>
-      </c>
-      <c r="AP95">
-        <v>2.67</v>
-      </c>
-      <c r="AQ95">
-        <v>2.14</v>
-      </c>
-      <c r="AR95">
-        <v>1.81</v>
-      </c>
-      <c r="AS95">
-        <v>1.84</v>
-      </c>
-      <c r="AT95">
-        <v>3.65</v>
-      </c>
-      <c r="AU95">
-        <v>6</v>
-      </c>
-      <c r="AV95">
-        <v>2</v>
-      </c>
-      <c r="AW95">
-        <v>3</v>
-      </c>
-      <c r="AX95">
-        <v>6</v>
-      </c>
-      <c r="AY95">
-        <v>14</v>
-      </c>
-      <c r="AZ95">
-        <v>11</v>
-      </c>
-      <c r="BA95">
-        <v>3</v>
-      </c>
-      <c r="BB95">
-        <v>3</v>
-      </c>
-      <c r="BC95">
-        <v>6</v>
-      </c>
-      <c r="BD95">
-        <v>2.05</v>
-      </c>
-      <c r="BE95">
-        <v>8.5</v>
-      </c>
-      <c r="BF95">
-        <v>1.91</v>
-      </c>
-      <c r="BG95">
-        <v>0</v>
-      </c>
-      <c r="BH95">
-        <v>0</v>
-      </c>
-      <c r="BI95">
-        <v>1.28</v>
-      </c>
       <c r="BJ95">
-        <v>3.32</v>
+        <v>3.52</v>
       </c>
       <c r="BK95">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="BL95">
-        <v>2.44</v>
+        <v>2.57</v>
       </c>
       <c r="BM95">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="BN95">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="BO95">
-        <v>2.26</v>
+        <v>2.15</v>
       </c>
       <c r="BP95">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="96" spans="1:68">
@@ -20583,7 +20583,7 @@
         <v>69</v>
       </c>
       <c r="E96" s="2">
-        <v>45591.875</v>
+        <v>45592.47916666666</v>
       </c>
       <c r="F96">
         <v>13</v>
@@ -20780,7 +20780,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>7468179</v>
+        <v>7468182</v>
       </c>
       <c r="C97" t="s">
         <v>68</v>
@@ -20789,82 +20789,82 @@
         <v>69</v>
       </c>
       <c r="E97" s="2">
-        <v>45591.875</v>
+        <v>45592.60416666666</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G97" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H97" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L97">
         <v>1</v>
       </c>
       <c r="M97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O97" t="s">
         <v>153</v>
       </c>
       <c r="P97" t="s">
-        <v>205</v>
+        <v>88</v>
       </c>
       <c r="Q97">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="R97">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S97">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="T97">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U97">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V97">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W97">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X97">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y97">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="Z97">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="AA97">
-        <v>3.1</v>
+        <v>4.37</v>
       </c>
       <c r="AB97">
-        <v>2.7</v>
+        <v>2.18</v>
       </c>
       <c r="AC97">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AD97">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE97">
         <v>1.25</v>
@@ -20873,19 +20873,19 @@
         <v>3.75</v>
       </c>
       <c r="AG97">
-        <v>1.88</v>
+        <v>1.77</v>
       </c>
       <c r="AH97">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="AI97">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AJ97">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="AK97">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="AL97">
         <v>1.25</v>
@@ -20894,61 +20894,61 @@
         <v>1.55</v>
       </c>
       <c r="AN97">
-        <v>0.67</v>
+        <v>2.6</v>
       </c>
       <c r="AO97">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="AP97">
-        <v>0.57</v>
+        <v>2.67</v>
       </c>
       <c r="AQ97">
-        <v>1.71</v>
+        <v>2.14</v>
       </c>
       <c r="AR97">
-        <v>1.52</v>
+        <v>1.81</v>
       </c>
       <c r="AS97">
-        <v>1.47</v>
+        <v>1.84</v>
       </c>
       <c r="AT97">
-        <v>2.99</v>
+        <v>3.65</v>
       </c>
       <c r="AU97">
         <v>6</v>
       </c>
       <c r="AV97">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW97">
+        <v>3</v>
+      </c>
+      <c r="AX97">
         <v>6</v>
       </c>
-      <c r="AX97">
-        <v>4</v>
-      </c>
       <c r="AY97">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AZ97">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA97">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BB97">
         <v>3</v>
       </c>
       <c r="BC97">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BD97">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="BE97">
         <v>8.5</v>
       </c>
       <c r="BF97">
-        <v>2.15</v>
+        <v>1.91</v>
       </c>
       <c r="BG97">
         <v>0</v>
@@ -20957,28 +20957,28 @@
         <v>0</v>
       </c>
       <c r="BI97">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="BJ97">
-        <v>3.35</v>
+        <v>3.32</v>
       </c>
       <c r="BK97">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="BL97">
-        <v>2.49</v>
+        <v>2.44</v>
       </c>
       <c r="BM97">
         <v>1.8</v>
       </c>
       <c r="BN97">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="BO97">
-        <v>2.17</v>
+        <v>2.26</v>
       </c>
       <c r="BP97">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -20727,13 +20727,13 @@
         <v>6</v>
       </c>
       <c r="BA96">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB96">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC96">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BD96">
         <v>1.05</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="213">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -478,6 +478,21 @@
     <t>['30']</t>
   </si>
   <si>
+    <t>['10', '37', '48']</t>
+  </si>
+  <si>
+    <t>['52', '67']</t>
+  </si>
+  <si>
+    <t>['12']</t>
+  </si>
+  <si>
+    <t>['64']</t>
+  </si>
+  <si>
+    <t>['79']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -632,6 +647,12 @@
   </si>
   <si>
     <t>['6', '39']</t>
+  </si>
+  <si>
+    <t>['52']</t>
+  </si>
+  <si>
+    <t>['22', '45+1', '86']</t>
   </si>
 </sst>
 </file>
@@ -993,7 +1014,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP97"/>
+  <dimension ref="A1:BP105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1252,7 +1273,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q2">
         <v>1.53</v>
@@ -1330,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ2">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1536,10 +1557,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ3">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1664,7 +1685,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -1742,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AQ4">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1948,10 +1969,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ5">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2076,7 +2097,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2154,10 +2175,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ6">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2282,7 +2303,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2360,10 +2381,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ7">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2566,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ8">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2772,10 +2793,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2978,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ10">
         <v>1.71</v>
@@ -3106,7 +3127,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q11">
         <v>2.85</v>
@@ -3312,7 +3333,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3724,7 +3745,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -3805,7 +3826,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ14">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4548,7 +4569,7 @@
         <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q18">
         <v>5.4</v>
@@ -4629,7 +4650,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ18">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AR18">
         <v>1.26</v>
@@ -4832,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ19">
         <v>0.33</v>
@@ -5038,7 +5059,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ20">
         <v>1.71</v>
@@ -5244,10 +5265,10 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ21">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR21">
         <v>1.81</v>
@@ -5453,7 +5474,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ22">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5578,7 +5599,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q23">
         <v>2.6</v>
@@ -5656,10 +5677,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AQ23">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR23">
         <v>1.33</v>
@@ -5784,7 +5805,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5862,10 +5883,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ24">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR24">
         <v>1.19</v>
@@ -5990,7 +6011,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q25">
         <v>1.06</v>
@@ -6068,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ25">
         <v>1.57</v>
@@ -6196,7 +6217,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q26">
         <v>3.2</v>
@@ -6277,7 +6298,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ26">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR26">
         <v>1.06</v>
@@ -6402,7 +6423,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q27">
         <v>6.23</v>
@@ -6480,7 +6501,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ27">
         <v>2.14</v>
@@ -6689,7 +6710,7 @@
         <v>3</v>
       </c>
       <c r="AQ28">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR28">
         <v>2.4</v>
@@ -7716,7 +7737,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ33">
         <v>0.33</v>
@@ -7844,7 +7865,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q34">
         <v>1.45</v>
@@ -7925,7 +7946,7 @@
         <v>3</v>
       </c>
       <c r="AQ34">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR34">
         <v>2.27</v>
@@ -8050,7 +8071,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q35">
         <v>2.84</v>
@@ -8128,7 +8149,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ35">
         <v>1.71</v>
@@ -8256,7 +8277,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q36">
         <v>5.63</v>
@@ -8334,7 +8355,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ36">
         <v>2.14</v>
@@ -8462,7 +8483,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q37">
         <v>2.58</v>
@@ -8543,7 +8564,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ37">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR37">
         <v>1.25</v>
@@ -8749,7 +8770,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ38">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR38">
         <v>1.34</v>
@@ -8874,7 +8895,7 @@
         <v>88</v>
       </c>
       <c r="P39" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q39">
         <v>4.75</v>
@@ -8952,10 +8973,10 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AQ39">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR39">
         <v>1.46</v>
@@ -9158,10 +9179,10 @@
         <v>0</v>
       </c>
       <c r="AP40">
+        <v>1.71</v>
+      </c>
+      <c r="AQ40">
         <v>1.5</v>
-      </c>
-      <c r="AQ40">
-        <v>1.29</v>
       </c>
       <c r="AR40">
         <v>1.19</v>
@@ -9286,7 +9307,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9364,7 +9385,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ41">
         <v>1.57</v>
@@ -9492,7 +9513,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q42">
         <v>2.61</v>
@@ -9698,7 +9719,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q43">
         <v>1.69</v>
@@ -9776,7 +9797,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ43">
         <v>1.17</v>
@@ -10191,7 +10212,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ45">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR45">
         <v>1.87</v>
@@ -10394,7 +10415,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ46">
         <v>0</v>
@@ -10600,10 +10621,10 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ47">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR47">
         <v>1.77</v>
@@ -10806,7 +10827,7 @@
         <v>1.33</v>
       </c>
       <c r="AP48">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AQ48">
         <v>1.71</v>
@@ -11012,7 +11033,7 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ49">
         <v>1.57</v>
@@ -11140,7 +11161,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q50">
         <v>5.1</v>
@@ -11218,7 +11239,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ50">
         <v>2.14</v>
@@ -11346,7 +11367,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -11427,7 +11448,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ51">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR51">
         <v>1.61</v>
@@ -11630,7 +11651,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ52">
         <v>0.33</v>
@@ -11839,7 +11860,7 @@
         <v>3</v>
       </c>
       <c r="AQ53">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR53">
         <v>2.35</v>
@@ -11964,7 +11985,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12045,7 +12066,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ54">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR54">
         <v>1.4</v>
@@ -12170,7 +12191,7 @@
         <v>93</v>
       </c>
       <c r="P55" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q55">
         <v>3.85</v>
@@ -12251,7 +12272,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ55">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR55">
         <v>1.32</v>
@@ -12376,7 +12397,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q56">
         <v>1.85</v>
@@ -12457,7 +12478,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ56">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR56">
         <v>1.85</v>
@@ -12582,7 +12603,7 @@
         <v>88</v>
       </c>
       <c r="P57" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q57">
         <v>5.88</v>
@@ -12663,7 +12684,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ57">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AR57">
         <v>1.7</v>
@@ -12866,7 +12887,7 @@
         <v>1.33</v>
       </c>
       <c r="AP58">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ58">
         <v>1.17</v>
@@ -13072,7 +13093,7 @@
         <v>1.75</v>
       </c>
       <c r="AP59">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ59">
         <v>1.57</v>
@@ -13200,7 +13221,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q60">
         <v>3.86</v>
@@ -13281,7 +13302,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ60">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR60">
         <v>1.44</v>
@@ -13487,7 +13508,7 @@
         <v>3</v>
       </c>
       <c r="AQ61">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR61">
         <v>2.33</v>
@@ -13612,7 +13633,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q62">
         <v>1.83</v>
@@ -13693,7 +13714,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ62">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR62">
         <v>1.42</v>
@@ -13818,7 +13839,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q63">
         <v>8.77</v>
@@ -13896,7 +13917,7 @@
         <v>3</v>
       </c>
       <c r="AP63">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AQ63">
         <v>2.14</v>
@@ -14024,7 +14045,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -14230,7 +14251,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14436,7 +14457,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q66">
         <v>1.55</v>
@@ -14514,10 +14535,10 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ66">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR66">
         <v>2.05</v>
@@ -14642,7 +14663,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -14720,10 +14741,10 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ67">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR67">
         <v>1.08</v>
@@ -14848,7 +14869,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -14929,7 +14950,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ68">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR68">
         <v>1.23</v>
@@ -15132,7 +15153,7 @@
         <v>2</v>
       </c>
       <c r="AP69">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ69">
         <v>1.4</v>
@@ -15338,7 +15359,7 @@
         <v>0</v>
       </c>
       <c r="AP70">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ70">
         <v>0.67</v>
@@ -15672,7 +15693,7 @@
         <v>124</v>
       </c>
       <c r="P72" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q72">
         <v>1.88</v>
@@ -15753,7 +15774,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ72">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR72">
         <v>1.84</v>
@@ -15878,7 +15899,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -15956,10 +15977,10 @@
         <v>2.33</v>
       </c>
       <c r="AP73">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ73">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AR73">
         <v>1.68</v>
@@ -16162,7 +16183,7 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ74">
         <v>0.67</v>
@@ -16290,7 +16311,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -16496,7 +16517,7 @@
         <v>88</v>
       </c>
       <c r="P76" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q76">
         <v>3.7</v>
@@ -16574,7 +16595,7 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AQ76">
         <v>1.17</v>
@@ -16702,7 +16723,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q77">
         <v>2.47</v>
@@ -16989,7 +17010,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ78">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR78">
         <v>1.78</v>
@@ -17195,7 +17216,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ79">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR79">
         <v>1.49</v>
@@ -17320,7 +17341,7 @@
         <v>140</v>
       </c>
       <c r="P80" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q80">
         <v>2.5</v>
@@ -17526,7 +17547,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17732,7 +17753,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q82">
         <v>2.8</v>
@@ -17810,10 +17831,10 @@
         <v>1.4</v>
       </c>
       <c r="AP82">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ82">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR82">
         <v>1.31</v>
@@ -17938,7 +17959,7 @@
         <v>143</v>
       </c>
       <c r="P83" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q83">
         <v>3.4</v>
@@ -18019,7 +18040,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ83">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR83">
         <v>1.81</v>
@@ -18144,7 +18165,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q84">
         <v>2.6</v>
@@ -18222,10 +18243,10 @@
         <v>0.67</v>
       </c>
       <c r="AP84">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ84">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR84">
         <v>1.14</v>
@@ -18350,7 +18371,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q85">
         <v>1.65</v>
@@ -18428,10 +18449,10 @@
         <v>1.5</v>
       </c>
       <c r="AP85">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ85">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR85">
         <v>2.02</v>
@@ -18556,7 +18577,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18634,10 +18655,10 @@
         <v>0.8</v>
       </c>
       <c r="AP86">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ86">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR86">
         <v>1.41</v>
@@ -18762,7 +18783,7 @@
         <v>88</v>
       </c>
       <c r="P87" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q87">
         <v>2.6</v>
@@ -18840,10 +18861,10 @@
         <v>0.75</v>
       </c>
       <c r="AP87">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ87">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR87">
         <v>1.12</v>
@@ -19046,7 +19067,7 @@
         <v>0</v>
       </c>
       <c r="AP88">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ88">
         <v>0</v>
@@ -19174,7 +19195,7 @@
         <v>93</v>
       </c>
       <c r="P89" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q89">
         <v>6.5</v>
@@ -19252,10 +19273,10 @@
         <v>2.5</v>
       </c>
       <c r="AP89">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ89">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AR89">
         <v>1.74</v>
@@ -19586,7 +19607,7 @@
         <v>149</v>
       </c>
       <c r="P91" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q91">
         <v>4.7</v>
@@ -19667,7 +19688,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ91">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR91">
         <v>1.11</v>
@@ -19792,7 +19813,7 @@
         <v>88</v>
       </c>
       <c r="P92" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q92">
         <v>3.8</v>
@@ -19870,7 +19891,7 @@
         <v>0.2</v>
       </c>
       <c r="AP92">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AQ92">
         <v>0.67</v>
@@ -20204,7 +20225,7 @@
         <v>150</v>
       </c>
       <c r="P94" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20979,6 +21000,1654 @@
       </c>
       <c r="BP97">
         <v>1.57</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7468184</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45598.39583333334</v>
+      </c>
+      <c r="F98">
+        <v>14</v>
+      </c>
+      <c r="G98" t="s">
+        <v>74</v>
+      </c>
+      <c r="H98" t="s">
+        <v>82</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>1</v>
+      </c>
+      <c r="O98" t="s">
+        <v>88</v>
+      </c>
+      <c r="P98" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q98">
+        <v>3.7</v>
+      </c>
+      <c r="R98">
+        <v>2.23</v>
+      </c>
+      <c r="S98">
+        <v>2.59</v>
+      </c>
+      <c r="T98">
+        <v>1.33</v>
+      </c>
+      <c r="U98">
+        <v>3.15</v>
+      </c>
+      <c r="V98">
+        <v>2.51</v>
+      </c>
+      <c r="W98">
+        <v>1.49</v>
+      </c>
+      <c r="X98">
+        <v>6</v>
+      </c>
+      <c r="Y98">
+        <v>1.11</v>
+      </c>
+      <c r="Z98">
+        <v>3.1</v>
+      </c>
+      <c r="AA98">
+        <v>3.57</v>
+      </c>
+      <c r="AB98">
+        <v>2.09</v>
+      </c>
+      <c r="AC98">
+        <v>1.01</v>
+      </c>
+      <c r="AD98">
+        <v>11</v>
+      </c>
+      <c r="AE98">
+        <v>1.17</v>
+      </c>
+      <c r="AF98">
+        <v>3.75</v>
+      </c>
+      <c r="AG98">
+        <v>1.68</v>
+      </c>
+      <c r="AH98">
+        <v>2.06</v>
+      </c>
+      <c r="AI98">
+        <v>1.59</v>
+      </c>
+      <c r="AJ98">
+        <v>2.21</v>
+      </c>
+      <c r="AK98">
+        <v>1.7</v>
+      </c>
+      <c r="AL98">
+        <v>1.27</v>
+      </c>
+      <c r="AM98">
+        <v>1.33</v>
+      </c>
+      <c r="AN98">
+        <v>1.5</v>
+      </c>
+      <c r="AO98">
+        <v>0.83</v>
+      </c>
+      <c r="AP98">
+        <v>1.29</v>
+      </c>
+      <c r="AQ98">
+        <v>1.14</v>
+      </c>
+      <c r="AR98">
+        <v>1.15</v>
+      </c>
+      <c r="AS98">
+        <v>1.28</v>
+      </c>
+      <c r="AT98">
+        <v>2.43</v>
+      </c>
+      <c r="AU98">
+        <v>4</v>
+      </c>
+      <c r="AV98">
+        <v>3</v>
+      </c>
+      <c r="AW98">
+        <v>7</v>
+      </c>
+      <c r="AX98">
+        <v>7</v>
+      </c>
+      <c r="AY98">
+        <v>17</v>
+      </c>
+      <c r="AZ98">
+        <v>13</v>
+      </c>
+      <c r="BA98">
+        <v>8</v>
+      </c>
+      <c r="BB98">
+        <v>1</v>
+      </c>
+      <c r="BC98">
+        <v>9</v>
+      </c>
+      <c r="BD98">
+        <v>1.91</v>
+      </c>
+      <c r="BE98">
+        <v>8.5</v>
+      </c>
+      <c r="BF98">
+        <v>2.1</v>
+      </c>
+      <c r="BG98">
+        <v>0</v>
+      </c>
+      <c r="BH98">
+        <v>0</v>
+      </c>
+      <c r="BI98">
+        <v>1.21</v>
+      </c>
+      <c r="BJ98">
+        <v>3.44</v>
+      </c>
+      <c r="BK98">
+        <v>1.41</v>
+      </c>
+      <c r="BL98">
+        <v>2.52</v>
+      </c>
+      <c r="BM98">
+        <v>1.77</v>
+      </c>
+      <c r="BN98">
+        <v>1.95</v>
+      </c>
+      <c r="BO98">
+        <v>2.14</v>
+      </c>
+      <c r="BP98">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7468187</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45598.5</v>
+      </c>
+      <c r="F99">
+        <v>14</v>
+      </c>
+      <c r="G99" t="s">
+        <v>71</v>
+      </c>
+      <c r="H99" t="s">
+        <v>79</v>
+      </c>
+      <c r="I99">
+        <v>2</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>2</v>
+      </c>
+      <c r="L99">
+        <v>3</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>3</v>
+      </c>
+      <c r="O99" t="s">
+        <v>154</v>
+      </c>
+      <c r="P99" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q99">
+        <v>2.45</v>
+      </c>
+      <c r="R99">
+        <v>2.12</v>
+      </c>
+      <c r="S99">
+        <v>4.45</v>
+      </c>
+      <c r="T99">
+        <v>1.4</v>
+      </c>
+      <c r="U99">
+        <v>2.82</v>
+      </c>
+      <c r="V99">
+        <v>2.86</v>
+      </c>
+      <c r="W99">
+        <v>1.39</v>
+      </c>
+      <c r="X99">
+        <v>7.3</v>
+      </c>
+      <c r="Y99">
+        <v>1.07</v>
+      </c>
+      <c r="Z99">
+        <v>1.8</v>
+      </c>
+      <c r="AA99">
+        <v>3.42</v>
+      </c>
+      <c r="AB99">
+        <v>3.95</v>
+      </c>
+      <c r="AC99">
+        <v>1</v>
+      </c>
+      <c r="AD99">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE99">
+        <v>1.26</v>
+      </c>
+      <c r="AF99">
+        <v>3.08</v>
+      </c>
+      <c r="AG99">
+        <v>1.87</v>
+      </c>
+      <c r="AH99">
+        <v>1.77</v>
+      </c>
+      <c r="AI99">
+        <v>1.81</v>
+      </c>
+      <c r="AJ99">
+        <v>1.89</v>
+      </c>
+      <c r="AK99">
+        <v>1.22</v>
+      </c>
+      <c r="AL99">
+        <v>1.28</v>
+      </c>
+      <c r="AM99">
+        <v>1.86</v>
+      </c>
+      <c r="AN99">
+        <v>1.4</v>
+      </c>
+      <c r="AO99">
+        <v>1.2</v>
+      </c>
+      <c r="AP99">
+        <v>1.67</v>
+      </c>
+      <c r="AQ99">
+        <v>1</v>
+      </c>
+      <c r="AR99">
+        <v>1.65</v>
+      </c>
+      <c r="AS99">
+        <v>1.25</v>
+      </c>
+      <c r="AT99">
+        <v>2.9</v>
+      </c>
+      <c r="AU99">
+        <v>8</v>
+      </c>
+      <c r="AV99">
+        <v>3</v>
+      </c>
+      <c r="AW99">
+        <v>3</v>
+      </c>
+      <c r="AX99">
+        <v>9</v>
+      </c>
+      <c r="AY99">
+        <v>12</v>
+      </c>
+      <c r="AZ99">
+        <v>15</v>
+      </c>
+      <c r="BA99">
+        <v>4</v>
+      </c>
+      <c r="BB99">
+        <v>7</v>
+      </c>
+      <c r="BC99">
+        <v>11</v>
+      </c>
+      <c r="BD99">
+        <v>1.55</v>
+      </c>
+      <c r="BE99">
+        <v>8.5</v>
+      </c>
+      <c r="BF99">
+        <v>2.75</v>
+      </c>
+      <c r="BG99">
+        <v>0</v>
+      </c>
+      <c r="BH99">
+        <v>0</v>
+      </c>
+      <c r="BI99">
+        <v>1.35</v>
+      </c>
+      <c r="BJ99">
+        <v>2.65</v>
+      </c>
+      <c r="BK99">
+        <v>1.7</v>
+      </c>
+      <c r="BL99">
+        <v>2.05</v>
+      </c>
+      <c r="BM99">
+        <v>2.12</v>
+      </c>
+      <c r="BN99">
+        <v>1.64</v>
+      </c>
+      <c r="BO99">
+        <v>2.7</v>
+      </c>
+      <c r="BP99">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7468190</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45598.5</v>
+      </c>
+      <c r="F100">
+        <v>14</v>
+      </c>
+      <c r="G100" t="s">
+        <v>75</v>
+      </c>
+      <c r="H100" t="s">
+        <v>85</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>2</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>3</v>
+      </c>
+      <c r="O100" t="s">
+        <v>155</v>
+      </c>
+      <c r="P100" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q100">
+        <v>2.68</v>
+      </c>
+      <c r="R100">
+        <v>2.16</v>
+      </c>
+      <c r="S100">
+        <v>3.72</v>
+      </c>
+      <c r="T100">
+        <v>1.36</v>
+      </c>
+      <c r="U100">
+        <v>2.98</v>
+      </c>
+      <c r="V100">
+        <v>2.7</v>
+      </c>
+      <c r="W100">
+        <v>1.43</v>
+      </c>
+      <c r="X100">
+        <v>6.65</v>
+      </c>
+      <c r="Y100">
+        <v>1.09</v>
+      </c>
+      <c r="Z100">
+        <v>2.2</v>
+      </c>
+      <c r="AA100">
+        <v>3.3</v>
+      </c>
+      <c r="AB100">
+        <v>2.93</v>
+      </c>
+      <c r="AC100">
+        <v>1.02</v>
+      </c>
+      <c r="AD100">
+        <v>10</v>
+      </c>
+      <c r="AE100">
+        <v>1.22</v>
+      </c>
+      <c r="AF100">
+        <v>3.35</v>
+      </c>
+      <c r="AG100">
+        <v>1.78</v>
+      </c>
+      <c r="AH100">
+        <v>1.86</v>
+      </c>
+      <c r="AI100">
+        <v>1.67</v>
+      </c>
+      <c r="AJ100">
+        <v>2.07</v>
+      </c>
+      <c r="AK100">
+        <v>1.33</v>
+      </c>
+      <c r="AL100">
+        <v>1.28</v>
+      </c>
+      <c r="AM100">
+        <v>1.67</v>
+      </c>
+      <c r="AN100">
+        <v>1.29</v>
+      </c>
+      <c r="AO100">
+        <v>1.33</v>
+      </c>
+      <c r="AP100">
+        <v>1.5</v>
+      </c>
+      <c r="AQ100">
+        <v>1.14</v>
+      </c>
+      <c r="AR100">
+        <v>1.67</v>
+      </c>
+      <c r="AS100">
+        <v>1.11</v>
+      </c>
+      <c r="AT100">
+        <v>2.78</v>
+      </c>
+      <c r="AU100">
+        <v>5</v>
+      </c>
+      <c r="AV100">
+        <v>6</v>
+      </c>
+      <c r="AW100">
+        <v>7</v>
+      </c>
+      <c r="AX100">
+        <v>8</v>
+      </c>
+      <c r="AY100">
+        <v>14</v>
+      </c>
+      <c r="AZ100">
+        <v>15</v>
+      </c>
+      <c r="BA100">
+        <v>3</v>
+      </c>
+      <c r="BB100">
+        <v>7</v>
+      </c>
+      <c r="BC100">
+        <v>10</v>
+      </c>
+      <c r="BD100">
+        <v>1.62</v>
+      </c>
+      <c r="BE100">
+        <v>9</v>
+      </c>
+      <c r="BF100">
+        <v>2.6</v>
+      </c>
+      <c r="BG100">
+        <v>1.1</v>
+      </c>
+      <c r="BH100">
+        <v>5.9</v>
+      </c>
+      <c r="BI100">
+        <v>1.21</v>
+      </c>
+      <c r="BJ100">
+        <v>3.9</v>
+      </c>
+      <c r="BK100">
+        <v>1.33</v>
+      </c>
+      <c r="BL100">
+        <v>2.73</v>
+      </c>
+      <c r="BM100">
+        <v>1.7</v>
+      </c>
+      <c r="BN100">
+        <v>2.05</v>
+      </c>
+      <c r="BO100">
+        <v>2.02</v>
+      </c>
+      <c r="BP100">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7468186</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45598.625</v>
+      </c>
+      <c r="F101">
+        <v>14</v>
+      </c>
+      <c r="G101" t="s">
+        <v>70</v>
+      </c>
+      <c r="H101" t="s">
+        <v>83</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>2</v>
+      </c>
+      <c r="K101">
+        <v>3</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>3</v>
+      </c>
+      <c r="N101">
+        <v>4</v>
+      </c>
+      <c r="O101" t="s">
+        <v>156</v>
+      </c>
+      <c r="P101" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q101">
+        <v>1.83</v>
+      </c>
+      <c r="R101">
+        <v>2.63</v>
+      </c>
+      <c r="S101">
+        <v>6.5</v>
+      </c>
+      <c r="T101">
+        <v>1.25</v>
+      </c>
+      <c r="U101">
+        <v>3.75</v>
+      </c>
+      <c r="V101">
+        <v>2.2</v>
+      </c>
+      <c r="W101">
+        <v>1.62</v>
+      </c>
+      <c r="X101">
+        <v>5</v>
+      </c>
+      <c r="Y101">
+        <v>1.17</v>
+      </c>
+      <c r="Z101">
+        <v>1.38</v>
+      </c>
+      <c r="AA101">
+        <v>4.69</v>
+      </c>
+      <c r="AB101">
+        <v>6.25</v>
+      </c>
+      <c r="AC101">
+        <v>1.01</v>
+      </c>
+      <c r="AD101">
+        <v>17</v>
+      </c>
+      <c r="AE101">
+        <v>1.16</v>
+      </c>
+      <c r="AF101">
+        <v>4.75</v>
+      </c>
+      <c r="AG101">
+        <v>1.5</v>
+      </c>
+      <c r="AH101">
+        <v>2.4</v>
+      </c>
+      <c r="AI101">
+        <v>1.8</v>
+      </c>
+      <c r="AJ101">
+        <v>1.95</v>
+      </c>
+      <c r="AK101">
+        <v>1.05</v>
+      </c>
+      <c r="AL101">
+        <v>1.12</v>
+      </c>
+      <c r="AM101">
+        <v>3</v>
+      </c>
+      <c r="AN101">
+        <v>2</v>
+      </c>
+      <c r="AO101">
+        <v>1.29</v>
+      </c>
+      <c r="AP101">
+        <v>1.67</v>
+      </c>
+      <c r="AQ101">
+        <v>1.5</v>
+      </c>
+      <c r="AR101">
+        <v>1.9</v>
+      </c>
+      <c r="AS101">
+        <v>1.63</v>
+      </c>
+      <c r="AT101">
+        <v>3.53</v>
+      </c>
+      <c r="AU101">
+        <v>5</v>
+      </c>
+      <c r="AV101">
+        <v>7</v>
+      </c>
+      <c r="AW101">
+        <v>6</v>
+      </c>
+      <c r="AX101">
+        <v>5</v>
+      </c>
+      <c r="AY101">
+        <v>17</v>
+      </c>
+      <c r="AZ101">
+        <v>15</v>
+      </c>
+      <c r="BA101">
+        <v>4</v>
+      </c>
+      <c r="BB101">
+        <v>5</v>
+      </c>
+      <c r="BC101">
+        <v>9</v>
+      </c>
+      <c r="BD101">
+        <v>1.36</v>
+      </c>
+      <c r="BE101">
+        <v>10</v>
+      </c>
+      <c r="BF101">
+        <v>3.4</v>
+      </c>
+      <c r="BG101">
+        <v>1.1</v>
+      </c>
+      <c r="BH101">
+        <v>5.7</v>
+      </c>
+      <c r="BI101">
+        <v>1.22</v>
+      </c>
+      <c r="BJ101">
+        <v>3.8</v>
+      </c>
+      <c r="BK101">
+        <v>1.34</v>
+      </c>
+      <c r="BL101">
+        <v>2.69</v>
+      </c>
+      <c r="BM101">
+        <v>1.62</v>
+      </c>
+      <c r="BN101">
+        <v>2.06</v>
+      </c>
+      <c r="BO101">
+        <v>2.05</v>
+      </c>
+      <c r="BP101">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>7468191</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45599.375</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102" t="s">
+        <v>72</v>
+      </c>
+      <c r="H102" t="s">
+        <v>81</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102" t="s">
+        <v>88</v>
+      </c>
+      <c r="P102" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q102">
+        <v>4.25</v>
+      </c>
+      <c r="R102">
+        <v>2.25</v>
+      </c>
+      <c r="S102">
+        <v>2.36</v>
+      </c>
+      <c r="T102">
+        <v>1.33</v>
+      </c>
+      <c r="U102">
+        <v>3.15</v>
+      </c>
+      <c r="V102">
+        <v>2.54</v>
+      </c>
+      <c r="W102">
+        <v>1.48</v>
+      </c>
+      <c r="X102">
+        <v>6.05</v>
+      </c>
+      <c r="Y102">
+        <v>1.11</v>
+      </c>
+      <c r="Z102">
+        <v>3.9</v>
+      </c>
+      <c r="AA102">
+        <v>3.6</v>
+      </c>
+      <c r="AB102">
+        <v>1.87</v>
+      </c>
+      <c r="AC102">
+        <v>1.01</v>
+      </c>
+      <c r="AD102">
+        <v>11</v>
+      </c>
+      <c r="AE102">
+        <v>1.18</v>
+      </c>
+      <c r="AF102">
+        <v>3.72</v>
+      </c>
+      <c r="AG102">
+        <v>1.7</v>
+      </c>
+      <c r="AH102">
+        <v>2</v>
+      </c>
+      <c r="AI102">
+        <v>1.64</v>
+      </c>
+      <c r="AJ102">
+        <v>2.12</v>
+      </c>
+      <c r="AK102">
+        <v>1.91</v>
+      </c>
+      <c r="AL102">
+        <v>1.25</v>
+      </c>
+      <c r="AM102">
+        <v>1.24</v>
+      </c>
+      <c r="AN102">
+        <v>0.14</v>
+      </c>
+      <c r="AO102">
+        <v>1.2</v>
+      </c>
+      <c r="AP102">
+        <v>0.25</v>
+      </c>
+      <c r="AQ102">
+        <v>1.17</v>
+      </c>
+      <c r="AR102">
+        <v>1.41</v>
+      </c>
+      <c r="AS102">
+        <v>1.6</v>
+      </c>
+      <c r="AT102">
+        <v>3.01</v>
+      </c>
+      <c r="AU102">
+        <v>5</v>
+      </c>
+      <c r="AV102">
+        <v>2</v>
+      </c>
+      <c r="AW102">
+        <v>3</v>
+      </c>
+      <c r="AX102">
+        <v>6</v>
+      </c>
+      <c r="AY102">
+        <v>10</v>
+      </c>
+      <c r="AZ102">
+        <v>9</v>
+      </c>
+      <c r="BA102">
+        <v>2</v>
+      </c>
+      <c r="BB102">
+        <v>5</v>
+      </c>
+      <c r="BC102">
+        <v>7</v>
+      </c>
+      <c r="BD102">
+        <v>2.45</v>
+      </c>
+      <c r="BE102">
+        <v>9</v>
+      </c>
+      <c r="BF102">
+        <v>1.65</v>
+      </c>
+      <c r="BG102">
+        <v>0</v>
+      </c>
+      <c r="BH102">
+        <v>0</v>
+      </c>
+      <c r="BI102">
+        <v>1.2</v>
+      </c>
+      <c r="BJ102">
+        <v>4.25</v>
+      </c>
+      <c r="BK102">
+        <v>1.32</v>
+      </c>
+      <c r="BL102">
+        <v>2.78</v>
+      </c>
+      <c r="BM102">
+        <v>1.58</v>
+      </c>
+      <c r="BN102">
+        <v>2.12</v>
+      </c>
+      <c r="BO102">
+        <v>1.95</v>
+      </c>
+      <c r="BP102">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7468185</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45599.47916666666</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103" t="s">
+        <v>73</v>
+      </c>
+      <c r="H103" t="s">
+        <v>78</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="O103" t="s">
+        <v>88</v>
+      </c>
+      <c r="P103" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q103">
+        <v>2.1</v>
+      </c>
+      <c r="R103">
+        <v>2.3</v>
+      </c>
+      <c r="S103">
+        <v>5.5</v>
+      </c>
+      <c r="T103">
+        <v>1.36</v>
+      </c>
+      <c r="U103">
+        <v>3</v>
+      </c>
+      <c r="V103">
+        <v>2.63</v>
+      </c>
+      <c r="W103">
+        <v>1.44</v>
+      </c>
+      <c r="X103">
+        <v>7</v>
+      </c>
+      <c r="Y103">
+        <v>1.1</v>
+      </c>
+      <c r="Z103">
+        <v>1.57</v>
+      </c>
+      <c r="AA103">
+        <v>4</v>
+      </c>
+      <c r="AB103">
+        <v>5.5</v>
+      </c>
+      <c r="AC103">
+        <v>1.04</v>
+      </c>
+      <c r="AD103">
+        <v>9</v>
+      </c>
+      <c r="AE103">
+        <v>1.22</v>
+      </c>
+      <c r="AF103">
+        <v>4</v>
+      </c>
+      <c r="AG103">
+        <v>1.77</v>
+      </c>
+      <c r="AH103">
+        <v>1.93</v>
+      </c>
+      <c r="AI103">
+        <v>1.91</v>
+      </c>
+      <c r="AJ103">
+        <v>1.91</v>
+      </c>
+      <c r="AK103">
+        <v>1.1</v>
+      </c>
+      <c r="AL103">
+        <v>1.17</v>
+      </c>
+      <c r="AM103">
+        <v>2.45</v>
+      </c>
+      <c r="AN103">
+        <v>0.8</v>
+      </c>
+      <c r="AO103">
+        <v>0.57</v>
+      </c>
+      <c r="AP103">
+        <v>0.83</v>
+      </c>
+      <c r="AQ103">
+        <v>0.63</v>
+      </c>
+      <c r="AR103">
+        <v>1.41</v>
+      </c>
+      <c r="AS103">
+        <v>1.04</v>
+      </c>
+      <c r="AT103">
+        <v>2.45</v>
+      </c>
+      <c r="AU103">
+        <v>5</v>
+      </c>
+      <c r="AV103">
+        <v>3</v>
+      </c>
+      <c r="AW103">
+        <v>4</v>
+      </c>
+      <c r="AX103">
+        <v>2</v>
+      </c>
+      <c r="AY103">
+        <v>14</v>
+      </c>
+      <c r="AZ103">
+        <v>7</v>
+      </c>
+      <c r="BA103">
+        <v>5</v>
+      </c>
+      <c r="BB103">
+        <v>1</v>
+      </c>
+      <c r="BC103">
+        <v>6</v>
+      </c>
+      <c r="BD103">
+        <v>1.3</v>
+      </c>
+      <c r="BE103">
+        <v>11</v>
+      </c>
+      <c r="BF103">
+        <v>3.8</v>
+      </c>
+      <c r="BG103">
+        <v>1.11</v>
+      </c>
+      <c r="BH103">
+        <v>5.6</v>
+      </c>
+      <c r="BI103">
+        <v>1.23</v>
+      </c>
+      <c r="BJ103">
+        <v>3.8</v>
+      </c>
+      <c r="BK103">
+        <v>1.34</v>
+      </c>
+      <c r="BL103">
+        <v>2.69</v>
+      </c>
+      <c r="BM103">
+        <v>1.7</v>
+      </c>
+      <c r="BN103">
+        <v>2.05</v>
+      </c>
+      <c r="BO103">
+        <v>2.03</v>
+      </c>
+      <c r="BP103">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:68">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7468188</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45599.47916666666</v>
+      </c>
+      <c r="F104">
+        <v>14</v>
+      </c>
+      <c r="G104" t="s">
+        <v>76</v>
+      </c>
+      <c r="H104" t="s">
+        <v>84</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>1</v>
+      </c>
+      <c r="O104" t="s">
+        <v>157</v>
+      </c>
+      <c r="P104" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q104">
+        <v>4.33</v>
+      </c>
+      <c r="R104">
+        <v>2.1</v>
+      </c>
+      <c r="S104">
+        <v>2.63</v>
+      </c>
+      <c r="T104">
+        <v>1.4</v>
+      </c>
+      <c r="U104">
+        <v>2.75</v>
+      </c>
+      <c r="V104">
+        <v>3</v>
+      </c>
+      <c r="W104">
+        <v>1.36</v>
+      </c>
+      <c r="X104">
+        <v>8</v>
+      </c>
+      <c r="Y104">
+        <v>1.08</v>
+      </c>
+      <c r="Z104">
+        <v>3.8</v>
+      </c>
+      <c r="AA104">
+        <v>3.3</v>
+      </c>
+      <c r="AB104">
+        <v>1.98</v>
+      </c>
+      <c r="AC104">
+        <v>1.06</v>
+      </c>
+      <c r="AD104">
+        <v>8</v>
+      </c>
+      <c r="AE104">
+        <v>1.33</v>
+      </c>
+      <c r="AF104">
+        <v>3.2</v>
+      </c>
+      <c r="AG104">
+        <v>1.95</v>
+      </c>
+      <c r="AH104">
+        <v>1.73</v>
+      </c>
+      <c r="AI104">
+        <v>1.8</v>
+      </c>
+      <c r="AJ104">
+        <v>1.95</v>
+      </c>
+      <c r="AK104">
+        <v>1.85</v>
+      </c>
+      <c r="AL104">
+        <v>1.25</v>
+      </c>
+      <c r="AM104">
+        <v>1.2</v>
+      </c>
+      <c r="AN104">
+        <v>1.5</v>
+      </c>
+      <c r="AO104">
+        <v>1.83</v>
+      </c>
+      <c r="AP104">
+        <v>1.71</v>
+      </c>
+      <c r="AQ104">
+        <v>1.57</v>
+      </c>
+      <c r="AR104">
+        <v>1.15</v>
+      </c>
+      <c r="AS104">
+        <v>1.29</v>
+      </c>
+      <c r="AT104">
+        <v>2.44</v>
+      </c>
+      <c r="AU104">
+        <v>3</v>
+      </c>
+      <c r="AV104">
+        <v>0</v>
+      </c>
+      <c r="AW104">
+        <v>5</v>
+      </c>
+      <c r="AX104">
+        <v>7</v>
+      </c>
+      <c r="AY104">
+        <v>9</v>
+      </c>
+      <c r="AZ104">
+        <v>11</v>
+      </c>
+      <c r="BA104">
+        <v>1</v>
+      </c>
+      <c r="BB104">
+        <v>6</v>
+      </c>
+      <c r="BC104">
+        <v>7</v>
+      </c>
+      <c r="BD104">
+        <v>2.38</v>
+      </c>
+      <c r="BE104">
+        <v>8.5</v>
+      </c>
+      <c r="BF104">
+        <v>1.7</v>
+      </c>
+      <c r="BG104">
+        <v>0</v>
+      </c>
+      <c r="BH104">
+        <v>0</v>
+      </c>
+      <c r="BI104">
+        <v>1.25</v>
+      </c>
+      <c r="BJ104">
+        <v>3.14</v>
+      </c>
+      <c r="BK104">
+        <v>1.48</v>
+      </c>
+      <c r="BL104">
+        <v>2.33</v>
+      </c>
+      <c r="BM104">
+        <v>1.91</v>
+      </c>
+      <c r="BN104">
+        <v>1.8</v>
+      </c>
+      <c r="BO104">
+        <v>2.3</v>
+      </c>
+      <c r="BP104">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="105" spans="1:68">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>7468189</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45599.60416666666</v>
+      </c>
+      <c r="F105">
+        <v>14</v>
+      </c>
+      <c r="G105" t="s">
+        <v>77</v>
+      </c>
+      <c r="H105" t="s">
+        <v>80</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+      <c r="N105">
+        <v>2</v>
+      </c>
+      <c r="O105" t="s">
+        <v>158</v>
+      </c>
+      <c r="P105" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q105">
+        <v>8</v>
+      </c>
+      <c r="R105">
+        <v>2.4</v>
+      </c>
+      <c r="S105">
+        <v>1.91</v>
+      </c>
+      <c r="T105">
+        <v>1.36</v>
+      </c>
+      <c r="U105">
+        <v>3</v>
+      </c>
+      <c r="V105">
+        <v>2.63</v>
+      </c>
+      <c r="W105">
+        <v>1.44</v>
+      </c>
+      <c r="X105">
+        <v>7</v>
+      </c>
+      <c r="Y105">
+        <v>1.1</v>
+      </c>
+      <c r="Z105">
+        <v>7.95</v>
+      </c>
+      <c r="AA105">
+        <v>4.65</v>
+      </c>
+      <c r="AB105">
+        <v>1.38</v>
+      </c>
+      <c r="AC105">
+        <v>1.04</v>
+      </c>
+      <c r="AD105">
+        <v>9</v>
+      </c>
+      <c r="AE105">
+        <v>1.25</v>
+      </c>
+      <c r="AF105">
+        <v>3.6</v>
+      </c>
+      <c r="AG105">
+        <v>1.81</v>
+      </c>
+      <c r="AH105">
+        <v>1.96</v>
+      </c>
+      <c r="AI105">
+        <v>2.1</v>
+      </c>
+      <c r="AJ105">
+        <v>1.67</v>
+      </c>
+      <c r="AK105">
+        <v>2.85</v>
+      </c>
+      <c r="AL105">
+        <v>1.15</v>
+      </c>
+      <c r="AM105">
+        <v>1.05</v>
+      </c>
+      <c r="AN105">
+        <v>2.17</v>
+      </c>
+      <c r="AO105">
+        <v>2.6</v>
+      </c>
+      <c r="AP105">
+        <v>2</v>
+      </c>
+      <c r="AQ105">
+        <v>2.33</v>
+      </c>
+      <c r="AR105">
+        <v>1.41</v>
+      </c>
+      <c r="AS105">
+        <v>1.63</v>
+      </c>
+      <c r="AT105">
+        <v>3.04</v>
+      </c>
+      <c r="AU105">
+        <v>2</v>
+      </c>
+      <c r="AV105">
+        <v>4</v>
+      </c>
+      <c r="AW105">
+        <v>4</v>
+      </c>
+      <c r="AX105">
+        <v>7</v>
+      </c>
+      <c r="AY105">
+        <v>8</v>
+      </c>
+      <c r="AZ105">
+        <v>17</v>
+      </c>
+      <c r="BA105">
+        <v>2</v>
+      </c>
+      <c r="BB105">
+        <v>3</v>
+      </c>
+      <c r="BC105">
+        <v>5</v>
+      </c>
+      <c r="BD105">
+        <v>3.9</v>
+      </c>
+      <c r="BE105">
+        <v>11</v>
+      </c>
+      <c r="BF105">
+        <v>1.29</v>
+      </c>
+      <c r="BG105">
+        <v>1.12</v>
+      </c>
+      <c r="BH105">
+        <v>5.4</v>
+      </c>
+      <c r="BI105">
+        <v>1.19</v>
+      </c>
+      <c r="BJ105">
+        <v>3.56</v>
+      </c>
+      <c r="BK105">
+        <v>1.39</v>
+      </c>
+      <c r="BL105">
+        <v>2.59</v>
+      </c>
+      <c r="BM105">
+        <v>1.77</v>
+      </c>
+      <c r="BN105">
+        <v>1.95</v>
+      </c>
+      <c r="BO105">
+        <v>2.08</v>
+      </c>
+      <c r="BP105">
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="215">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -491,6 +491,12 @@
   </si>
   <si>
     <t>['79']</t>
+  </si>
+  <si>
+    <t>['13', '16', '41', '51', '57', '63']</t>
+  </si>
+  <si>
+    <t>['53', '78']</t>
   </si>
   <si>
     <t>['25']</t>
@@ -1014,7 +1020,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP105"/>
+  <dimension ref="A1:BP108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1273,7 +1279,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q2">
         <v>1.53</v>
@@ -1685,7 +1691,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -2097,7 +2103,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2303,7 +2309,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -3127,7 +3133,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q11">
         <v>2.85</v>
@@ -3205,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
         <v>1.4</v>
@@ -3333,7 +3339,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3745,7 +3751,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -3823,7 +3829,7 @@
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ14">
         <v>1.14</v>
@@ -4235,10 +4241,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ16">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4444,7 +4450,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ17">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4569,7 +4575,7 @@
         <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q18">
         <v>5.4</v>
@@ -4647,7 +4653,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ18">
         <v>2.33</v>
@@ -4856,7 +4862,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ19">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR19">
         <v>1.9</v>
@@ -5599,7 +5605,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q23">
         <v>2.6</v>
@@ -5805,7 +5811,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6011,7 +6017,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q25">
         <v>1.06</v>
@@ -6092,7 +6098,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ25">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR25">
         <v>0.93</v>
@@ -6217,7 +6223,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q26">
         <v>3.2</v>
@@ -6423,7 +6429,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q27">
         <v>6.23</v>
@@ -6913,7 +6919,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ29">
         <v>1.17</v>
@@ -7325,10 +7331,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ31">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR31">
         <v>1.24</v>
@@ -7740,7 +7746,7 @@
         <v>2</v>
       </c>
       <c r="AQ33">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR33">
         <v>1.08</v>
@@ -7865,7 +7871,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q34">
         <v>1.45</v>
@@ -8071,7 +8077,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q35">
         <v>2.84</v>
@@ -8277,7 +8283,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q36">
         <v>5.63</v>
@@ -8483,7 +8489,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q37">
         <v>2.58</v>
@@ -8767,7 +8773,7 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ38">
         <v>0.63</v>
@@ -8895,7 +8901,7 @@
         <v>88</v>
       </c>
       <c r="P39" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q39">
         <v>4.75</v>
@@ -9307,7 +9313,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9388,7 +9394,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ41">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR41">
         <v>1.49</v>
@@ -9513,7 +9519,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q42">
         <v>2.61</v>
@@ -9719,7 +9725,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q43">
         <v>1.69</v>
@@ -10003,10 +10009,10 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR44">
         <v>1.16</v>
@@ -10209,7 +10215,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ45">
         <v>1.17</v>
@@ -11036,7 +11042,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ49">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR49">
         <v>1.24</v>
@@ -11161,7 +11167,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q50">
         <v>5.1</v>
@@ -11367,7 +11373,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -11654,7 +11660,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ52">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR52">
         <v>1.76</v>
@@ -11985,7 +11991,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12191,7 +12197,7 @@
         <v>93</v>
       </c>
       <c r="P55" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q55">
         <v>3.85</v>
@@ -12269,7 +12275,7 @@
         <v>2.33</v>
       </c>
       <c r="AP55">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ55">
         <v>1.57</v>
@@ -12397,7 +12403,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q56">
         <v>1.85</v>
@@ -12603,7 +12609,7 @@
         <v>88</v>
       </c>
       <c r="P57" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q57">
         <v>5.88</v>
@@ -13096,7 +13102,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ59">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR59">
         <v>1.83</v>
@@ -13221,7 +13227,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q60">
         <v>3.86</v>
@@ -13633,7 +13639,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q62">
         <v>1.83</v>
@@ -13839,7 +13845,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q63">
         <v>8.77</v>
@@ -14045,7 +14051,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -14126,7 +14132,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ64">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR64">
         <v>1.75</v>
@@ -14251,7 +14257,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14329,7 +14335,7 @@
         <v>1.25</v>
       </c>
       <c r="AP65">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ65">
         <v>1.71</v>
@@ -14457,7 +14463,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q66">
         <v>1.55</v>
@@ -14663,7 +14669,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -14869,7 +14875,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -14947,7 +14953,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ68">
         <v>1</v>
@@ -15362,7 +15368,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ70">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR70">
         <v>1.53</v>
@@ -15565,7 +15571,7 @@
         <v>0</v>
       </c>
       <c r="AP71">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ71">
         <v>0</v>
@@ -15693,7 +15699,7 @@
         <v>124</v>
       </c>
       <c r="P72" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q72">
         <v>1.88</v>
@@ -15899,7 +15905,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -16186,7 +16192,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ74">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR74">
         <v>1.81</v>
@@ -16311,7 +16317,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -16392,7 +16398,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ75">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR75">
         <v>1.49</v>
@@ -16517,7 +16523,7 @@
         <v>88</v>
       </c>
       <c r="P76" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q76">
         <v>3.7</v>
@@ -16723,7 +16729,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q77">
         <v>2.47</v>
@@ -16801,10 +16807,10 @@
         <v>1.4</v>
       </c>
       <c r="AP77">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ77">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR77">
         <v>1.45</v>
@@ -17341,7 +17347,7 @@
         <v>140</v>
       </c>
       <c r="P80" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q80">
         <v>2.5</v>
@@ -17547,7 +17553,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17753,7 +17759,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q82">
         <v>2.8</v>
@@ -17959,7 +17965,7 @@
         <v>143</v>
       </c>
       <c r="P83" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q83">
         <v>3.4</v>
@@ -18037,7 +18043,7 @@
         <v>1.6</v>
       </c>
       <c r="AP83">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ83">
         <v>1.57</v>
@@ -18165,7 +18171,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q84">
         <v>2.6</v>
@@ -18371,7 +18377,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q85">
         <v>1.65</v>
@@ -18577,7 +18583,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18783,7 +18789,7 @@
         <v>88</v>
       </c>
       <c r="P87" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q87">
         <v>2.6</v>
@@ -19195,7 +19201,7 @@
         <v>93</v>
       </c>
       <c r="P89" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q89">
         <v>6.5</v>
@@ -19479,7 +19485,7 @@
         <v>1.4</v>
       </c>
       <c r="AP90">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ90">
         <v>1.17</v>
@@ -19607,7 +19613,7 @@
         <v>149</v>
       </c>
       <c r="P91" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q91">
         <v>4.7</v>
@@ -19685,7 +19691,7 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ91">
         <v>1.5</v>
@@ -19813,7 +19819,7 @@
         <v>88</v>
       </c>
       <c r="P92" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q92">
         <v>3.8</v>
@@ -19894,7 +19900,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ92">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR92">
         <v>1.33</v>
@@ -20100,7 +20106,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ93">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR93">
         <v>1.61</v>
@@ -20225,7 +20231,7 @@
         <v>150</v>
       </c>
       <c r="P94" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20718,7 +20724,7 @@
         <v>3</v>
       </c>
       <c r="AQ96">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR96">
         <v>2.31</v>
@@ -21049,7 +21055,7 @@
         <v>88</v>
       </c>
       <c r="P98" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q98">
         <v>3.7</v>
@@ -21667,7 +21673,7 @@
         <v>156</v>
       </c>
       <c r="P101" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q101">
         <v>1.83</v>
@@ -22491,7 +22497,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q105">
         <v>8</v>
@@ -22648,6 +22654,624 @@
       </c>
       <c r="BP105">
         <v>1.6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:68">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>7468192</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45605.39583333334</v>
+      </c>
+      <c r="F106">
+        <v>15</v>
+      </c>
+      <c r="G106" t="s">
+        <v>83</v>
+      </c>
+      <c r="H106" t="s">
+        <v>74</v>
+      </c>
+      <c r="I106">
+        <v>3</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>3</v>
+      </c>
+      <c r="L106">
+        <v>6</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>6</v>
+      </c>
+      <c r="O106" t="s">
+        <v>159</v>
+      </c>
+      <c r="P106" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q106">
+        <v>1.65</v>
+      </c>
+      <c r="R106">
+        <v>2.66</v>
+      </c>
+      <c r="S106">
+        <v>8.1</v>
+      </c>
+      <c r="T106">
+        <v>1.25</v>
+      </c>
+      <c r="U106">
+        <v>3.72</v>
+      </c>
+      <c r="V106">
+        <v>2.25</v>
+      </c>
+      <c r="W106">
+        <v>1.6</v>
+      </c>
+      <c r="X106">
+        <v>5.25</v>
+      </c>
+      <c r="Y106">
+        <v>1.14</v>
+      </c>
+      <c r="Z106">
+        <v>1.29</v>
+      </c>
+      <c r="AA106">
+        <v>5.5</v>
+      </c>
+      <c r="AB106">
+        <v>9</v>
+      </c>
+      <c r="AC106">
+        <v>1.01</v>
+      </c>
+      <c r="AD106">
+        <v>17</v>
+      </c>
+      <c r="AE106">
+        <v>1.1</v>
+      </c>
+      <c r="AF106">
+        <v>4.85</v>
+      </c>
+      <c r="AG106">
+        <v>1.53</v>
+      </c>
+      <c r="AH106">
+        <v>2.35</v>
+      </c>
+      <c r="AI106">
+        <v>1.93</v>
+      </c>
+      <c r="AJ106">
+        <v>1.78</v>
+      </c>
+      <c r="AK106">
+        <v>1.03</v>
+      </c>
+      <c r="AL106">
+        <v>1.12</v>
+      </c>
+      <c r="AM106">
+        <v>3.72</v>
+      </c>
+      <c r="AN106">
+        <v>2.4</v>
+      </c>
+      <c r="AO106">
+        <v>0.33</v>
+      </c>
+      <c r="AP106">
+        <v>2.5</v>
+      </c>
+      <c r="AQ106">
+        <v>0.29</v>
+      </c>
+      <c r="AR106">
+        <v>1.87</v>
+      </c>
+      <c r="AS106">
+        <v>0.84</v>
+      </c>
+      <c r="AT106">
+        <v>2.71</v>
+      </c>
+      <c r="AU106">
+        <v>8</v>
+      </c>
+      <c r="AV106">
+        <v>2</v>
+      </c>
+      <c r="AW106">
+        <v>5</v>
+      </c>
+      <c r="AX106">
+        <v>1</v>
+      </c>
+      <c r="AY106">
+        <v>16</v>
+      </c>
+      <c r="AZ106">
+        <v>5</v>
+      </c>
+      <c r="BA106">
+        <v>5</v>
+      </c>
+      <c r="BB106">
+        <v>1</v>
+      </c>
+      <c r="BC106">
+        <v>6</v>
+      </c>
+      <c r="BD106">
+        <v>0</v>
+      </c>
+      <c r="BE106">
+        <v>0</v>
+      </c>
+      <c r="BF106">
+        <v>0</v>
+      </c>
+      <c r="BG106">
+        <v>0</v>
+      </c>
+      <c r="BH106">
+        <v>0</v>
+      </c>
+      <c r="BI106">
+        <v>0</v>
+      </c>
+      <c r="BJ106">
+        <v>0</v>
+      </c>
+      <c r="BK106">
+        <v>0</v>
+      </c>
+      <c r="BL106">
+        <v>0</v>
+      </c>
+      <c r="BM106">
+        <v>0</v>
+      </c>
+      <c r="BN106">
+        <v>0</v>
+      </c>
+      <c r="BO106">
+        <v>0</v>
+      </c>
+      <c r="BP106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:68">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>7468198</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45605.5</v>
+      </c>
+      <c r="F107">
+        <v>15</v>
+      </c>
+      <c r="G107" t="s">
+        <v>78</v>
+      </c>
+      <c r="H107" t="s">
+        <v>71</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>2</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>2</v>
+      </c>
+      <c r="O107" t="s">
+        <v>160</v>
+      </c>
+      <c r="P107" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q107">
+        <v>4</v>
+      </c>
+      <c r="R107">
+        <v>2.1</v>
+      </c>
+      <c r="S107">
+        <v>2.6</v>
+      </c>
+      <c r="T107">
+        <v>1.38</v>
+      </c>
+      <c r="U107">
+        <v>3.01</v>
+      </c>
+      <c r="V107">
+        <v>2.9</v>
+      </c>
+      <c r="W107">
+        <v>1.4</v>
+      </c>
+      <c r="X107">
+        <v>6.6</v>
+      </c>
+      <c r="Y107">
+        <v>1.09</v>
+      </c>
+      <c r="Z107">
+        <v>3.5</v>
+      </c>
+      <c r="AA107">
+        <v>3.3</v>
+      </c>
+      <c r="AB107">
+        <v>2.05</v>
+      </c>
+      <c r="AC107">
+        <v>1.03</v>
+      </c>
+      <c r="AD107">
+        <v>9</v>
+      </c>
+      <c r="AE107">
+        <v>1.25</v>
+      </c>
+      <c r="AF107">
+        <v>3.6</v>
+      </c>
+      <c r="AG107">
+        <v>1.9</v>
+      </c>
+      <c r="AH107">
+        <v>1.8</v>
+      </c>
+      <c r="AI107">
+        <v>1.75</v>
+      </c>
+      <c r="AJ107">
+        <v>2.05</v>
+      </c>
+      <c r="AK107">
+        <v>1.87</v>
+      </c>
+      <c r="AL107">
+        <v>1.27</v>
+      </c>
+      <c r="AM107">
+        <v>1.24</v>
+      </c>
+      <c r="AN107">
+        <v>0.6</v>
+      </c>
+      <c r="AO107">
+        <v>1.57</v>
+      </c>
+      <c r="AP107">
+        <v>1</v>
+      </c>
+      <c r="AQ107">
+        <v>1.38</v>
+      </c>
+      <c r="AR107">
+        <v>1.14</v>
+      </c>
+      <c r="AS107">
+        <v>1.46</v>
+      </c>
+      <c r="AT107">
+        <v>2.6</v>
+      </c>
+      <c r="AU107">
+        <v>3</v>
+      </c>
+      <c r="AV107">
+        <v>0</v>
+      </c>
+      <c r="AW107">
+        <v>5</v>
+      </c>
+      <c r="AX107">
+        <v>8</v>
+      </c>
+      <c r="AY107">
+        <v>10</v>
+      </c>
+      <c r="AZ107">
+        <v>13</v>
+      </c>
+      <c r="BA107">
+        <v>1</v>
+      </c>
+      <c r="BB107">
+        <v>12</v>
+      </c>
+      <c r="BC107">
+        <v>13</v>
+      </c>
+      <c r="BD107">
+        <v>2.75</v>
+      </c>
+      <c r="BE107">
+        <v>9</v>
+      </c>
+      <c r="BF107">
+        <v>1.53</v>
+      </c>
+      <c r="BG107">
+        <v>1.14</v>
+      </c>
+      <c r="BH107">
+        <v>4.8</v>
+      </c>
+      <c r="BI107">
+        <v>1.23</v>
+      </c>
+      <c r="BJ107">
+        <v>3.28</v>
+      </c>
+      <c r="BK107">
+        <v>1.45</v>
+      </c>
+      <c r="BL107">
+        <v>2.41</v>
+      </c>
+      <c r="BM107">
+        <v>1.85</v>
+      </c>
+      <c r="BN107">
+        <v>1.85</v>
+      </c>
+      <c r="BO107">
+        <v>2.24</v>
+      </c>
+      <c r="BP107">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="108" spans="1:68">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>7468197</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" t="s">
+        <v>69</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45605.5</v>
+      </c>
+      <c r="F108">
+        <v>15</v>
+      </c>
+      <c r="G108" t="s">
+        <v>81</v>
+      </c>
+      <c r="H108" t="s">
+        <v>77</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108" t="s">
+        <v>88</v>
+      </c>
+      <c r="P108" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q108">
+        <v>2.38</v>
+      </c>
+      <c r="R108">
+        <v>2.16</v>
+      </c>
+      <c r="S108">
+        <v>4.55</v>
+      </c>
+      <c r="T108">
+        <v>1.4</v>
+      </c>
+      <c r="U108">
+        <v>2.82</v>
+      </c>
+      <c r="V108">
+        <v>2.78</v>
+      </c>
+      <c r="W108">
+        <v>1.41</v>
+      </c>
+      <c r="X108">
+        <v>6.6</v>
+      </c>
+      <c r="Y108">
+        <v>1.09</v>
+      </c>
+      <c r="Z108">
+        <v>1.8</v>
+      </c>
+      <c r="AA108">
+        <v>3.5</v>
+      </c>
+      <c r="AB108">
+        <v>4.33</v>
+      </c>
+      <c r="AC108">
+        <v>1.02</v>
+      </c>
+      <c r="AD108">
+        <v>7.3</v>
+      </c>
+      <c r="AE108">
+        <v>1.26</v>
+      </c>
+      <c r="AF108">
+        <v>3.08</v>
+      </c>
+      <c r="AG108">
+        <v>1.85</v>
+      </c>
+      <c r="AH108">
+        <v>1.85</v>
+      </c>
+      <c r="AI108">
+        <v>1.8</v>
+      </c>
+      <c r="AJ108">
+        <v>1.9</v>
+      </c>
+      <c r="AK108">
+        <v>1.22</v>
+      </c>
+      <c r="AL108">
+        <v>1.27</v>
+      </c>
+      <c r="AM108">
+        <v>1.91</v>
+      </c>
+      <c r="AN108">
+        <v>1.29</v>
+      </c>
+      <c r="AO108">
+        <v>0.67</v>
+      </c>
+      <c r="AP108">
+        <v>1.25</v>
+      </c>
+      <c r="AQ108">
+        <v>0.71</v>
+      </c>
+      <c r="AR108">
+        <v>1.5</v>
+      </c>
+      <c r="AS108">
+        <v>1.16</v>
+      </c>
+      <c r="AT108">
+        <v>2.66</v>
+      </c>
+      <c r="AU108">
+        <v>7</v>
+      </c>
+      <c r="AV108">
+        <v>3</v>
+      </c>
+      <c r="AW108">
+        <v>5</v>
+      </c>
+      <c r="AX108">
+        <v>3</v>
+      </c>
+      <c r="AY108">
+        <v>16</v>
+      </c>
+      <c r="AZ108">
+        <v>10</v>
+      </c>
+      <c r="BA108">
+        <v>3</v>
+      </c>
+      <c r="BB108">
+        <v>6</v>
+      </c>
+      <c r="BC108">
+        <v>9</v>
+      </c>
+      <c r="BD108">
+        <v>1.55</v>
+      </c>
+      <c r="BE108">
+        <v>9</v>
+      </c>
+      <c r="BF108">
+        <v>2.7</v>
+      </c>
+      <c r="BG108">
+        <v>0</v>
+      </c>
+      <c r="BH108">
+        <v>0</v>
+      </c>
+      <c r="BI108">
+        <v>1.25</v>
+      </c>
+      <c r="BJ108">
+        <v>3.14</v>
+      </c>
+      <c r="BK108">
+        <v>1.48</v>
+      </c>
+      <c r="BL108">
+        <v>2.33</v>
+      </c>
+      <c r="BM108">
+        <v>1.85</v>
+      </c>
+      <c r="BN108">
+        <v>1.85</v>
+      </c>
+      <c r="BO108">
+        <v>2.3</v>
+      </c>
+      <c r="BP108">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="221">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -499,6 +499,18 @@
     <t>['53', '78']</t>
   </si>
   <si>
+    <t>['39', '82']</t>
+  </si>
+  <si>
+    <t>['13', '43', '51', '55', '90+1']</t>
+  </si>
+  <si>
+    <t>['9', '42']</t>
+  </si>
+  <si>
+    <t>['20', '69', '76', '78', '83']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -659,6 +671,12 @@
   </si>
   <si>
     <t>['22', '45+1', '86']</t>
+  </si>
+  <si>
+    <t>['9', '59']</t>
+  </si>
+  <si>
+    <t>['45+3', '46']</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1038,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP108"/>
+  <dimension ref="A1:BP112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1279,7 +1297,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q2">
         <v>1.53</v>
@@ -1691,7 +1709,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -2103,7 +2121,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2309,7 +2327,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -3008,7 +3026,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ10">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR10">
         <v>0.98</v>
@@ -3133,7 +3151,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q11">
         <v>2.85</v>
@@ -3214,7 +3232,7 @@
         <v>1</v>
       </c>
       <c r="AQ11">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3339,7 +3357,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3417,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ12">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3751,7 +3769,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4035,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ15">
         <v>1.17</v>
@@ -4447,7 +4465,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ17">
         <v>0.71</v>
@@ -4575,7 +4593,7 @@
         <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q18">
         <v>5.4</v>
@@ -5068,7 +5086,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ20">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR20">
         <v>1</v>
@@ -5605,7 +5623,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q23">
         <v>2.6</v>
@@ -5811,7 +5829,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6017,7 +6035,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q25">
         <v>1.06</v>
@@ -6223,7 +6241,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q26">
         <v>3.2</v>
@@ -6301,7 +6319,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ26">
         <v>1.17</v>
@@ -6429,7 +6447,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q27">
         <v>6.23</v>
@@ -6510,7 +6528,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ27">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR27">
         <v>1.73</v>
@@ -7125,7 +7143,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ30">
         <v>0</v>
@@ -7537,10 +7555,10 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ32">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR32">
         <v>1.64</v>
@@ -7871,7 +7889,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q34">
         <v>1.45</v>
@@ -8077,7 +8095,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q35">
         <v>2.84</v>
@@ -8158,7 +8176,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ35">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR35">
         <v>1.93</v>
@@ -8283,7 +8301,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q36">
         <v>5.63</v>
@@ -8364,7 +8382,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ36">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR36">
         <v>1.54</v>
@@ -8489,7 +8507,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q37">
         <v>2.58</v>
@@ -8901,7 +8919,7 @@
         <v>88</v>
       </c>
       <c r="P39" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q39">
         <v>4.75</v>
@@ -9313,7 +9331,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9519,7 +9537,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q42">
         <v>2.61</v>
@@ -9597,10 +9615,10 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ42">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR42">
         <v>1.41</v>
@@ -9725,7 +9743,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q43">
         <v>1.69</v>
@@ -10836,7 +10854,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ48">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR48">
         <v>1.34</v>
@@ -11167,7 +11185,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q50">
         <v>5.1</v>
@@ -11248,7 +11266,7 @@
         <v>2</v>
       </c>
       <c r="AQ50">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR50">
         <v>1.24</v>
@@ -11373,7 +11391,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -11991,7 +12009,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12069,7 +12087,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ54">
         <v>1.14</v>
@@ -12197,7 +12215,7 @@
         <v>93</v>
       </c>
       <c r="P55" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q55">
         <v>3.85</v>
@@ -12403,7 +12421,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q56">
         <v>1.85</v>
@@ -12481,7 +12499,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ56">
         <v>1.14</v>
@@ -12609,7 +12627,7 @@
         <v>88</v>
       </c>
       <c r="P57" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q57">
         <v>5.88</v>
@@ -12687,7 +12705,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ57">
         <v>2.33</v>
@@ -13227,7 +13245,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q60">
         <v>3.86</v>
@@ -13305,7 +13323,7 @@
         <v>0.5</v>
       </c>
       <c r="AP60">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ60">
         <v>1.5</v>
@@ -13639,7 +13657,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q62">
         <v>1.83</v>
@@ -13717,7 +13735,7 @@
         <v>0.75</v>
       </c>
       <c r="AP62">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ62">
         <v>0.63</v>
@@ -13845,7 +13863,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q63">
         <v>8.77</v>
@@ -13926,7 +13944,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ63">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR63">
         <v>1.37</v>
@@ -14051,7 +14069,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -14257,7 +14275,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14338,7 +14356,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ65">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR65">
         <v>1.42</v>
@@ -14463,7 +14481,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q66">
         <v>1.55</v>
@@ -14669,7 +14687,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -14875,7 +14893,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -15162,7 +15180,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ69">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR69">
         <v>1.16</v>
@@ -15699,7 +15717,7 @@
         <v>124</v>
       </c>
       <c r="P72" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q72">
         <v>1.88</v>
@@ -15777,7 +15795,7 @@
         <v>0.75</v>
       </c>
       <c r="AP72">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ72">
         <v>1.14</v>
@@ -15905,7 +15923,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -16317,7 +16335,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -16395,7 +16413,7 @@
         <v>0.25</v>
       </c>
       <c r="AP75">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ75">
         <v>0.29</v>
@@ -16523,7 +16541,7 @@
         <v>88</v>
       </c>
       <c r="P76" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q76">
         <v>3.7</v>
@@ -16729,7 +16747,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q77">
         <v>2.47</v>
@@ -17013,7 +17031,7 @@
         <v>0.8</v>
       </c>
       <c r="AP78">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ78">
         <v>0.63</v>
@@ -17219,7 +17237,7 @@
         <v>1</v>
       </c>
       <c r="AP79">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ79">
         <v>1.5</v>
@@ -17347,7 +17365,7 @@
         <v>140</v>
       </c>
       <c r="P80" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q80">
         <v>2.5</v>
@@ -17428,7 +17446,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ80">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR80">
         <v>1.66</v>
@@ -17553,7 +17571,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17634,7 +17652,7 @@
         <v>3</v>
       </c>
       <c r="AQ81">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR81">
         <v>2.43</v>
@@ -17759,7 +17777,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q82">
         <v>2.8</v>
@@ -17965,7 +17983,7 @@
         <v>143</v>
       </c>
       <c r="P83" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q83">
         <v>3.4</v>
@@ -18171,7 +18189,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q84">
         <v>2.6</v>
@@ -18377,7 +18395,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q85">
         <v>1.65</v>
@@ -18583,7 +18601,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18789,7 +18807,7 @@
         <v>88</v>
       </c>
       <c r="P87" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q87">
         <v>2.6</v>
@@ -19201,7 +19219,7 @@
         <v>93</v>
       </c>
       <c r="P89" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q89">
         <v>6.5</v>
@@ -19613,7 +19631,7 @@
         <v>149</v>
       </c>
       <c r="P91" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q91">
         <v>4.7</v>
@@ -19819,7 +19837,7 @@
         <v>88</v>
       </c>
       <c r="P92" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q92">
         <v>3.8</v>
@@ -20231,7 +20249,7 @@
         <v>150</v>
       </c>
       <c r="P94" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20309,10 +20327,10 @@
         <v>1.5</v>
       </c>
       <c r="AP94">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ94">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR94">
         <v>1.52</v>
@@ -20515,10 +20533,10 @@
         <v>1.5</v>
       </c>
       <c r="AP95">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ95">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR95">
         <v>1.43</v>
@@ -20927,10 +20945,10 @@
         <v>2.5</v>
       </c>
       <c r="AP97">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ97">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR97">
         <v>1.81</v>
@@ -21055,7 +21073,7 @@
         <v>88</v>
       </c>
       <c r="P98" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q98">
         <v>3.7</v>
@@ -21673,7 +21691,7 @@
         <v>156</v>
       </c>
       <c r="P101" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q101">
         <v>1.83</v>
@@ -22497,7 +22515,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q105">
         <v>8</v>
@@ -22673,7 +22691,7 @@
         <v>45605.39583333334</v>
       </c>
       <c r="F106">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G106" t="s">
         <v>83</v>
@@ -22879,7 +22897,7 @@
         <v>45605.5</v>
       </c>
       <c r="F107">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G107" t="s">
         <v>78</v>
@@ -23272,6 +23290,830 @@
       </c>
       <c r="BP108">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="109" spans="1:68">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>7468195</v>
+      </c>
+      <c r="C109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F109">
+        <v>15</v>
+      </c>
+      <c r="G109" t="s">
+        <v>82</v>
+      </c>
+      <c r="H109" t="s">
+        <v>70</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109">
+        <v>2</v>
+      </c>
+      <c r="L109">
+        <v>2</v>
+      </c>
+      <c r="M109">
+        <v>2</v>
+      </c>
+      <c r="N109">
+        <v>4</v>
+      </c>
+      <c r="O109" t="s">
+        <v>161</v>
+      </c>
+      <c r="P109" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q109">
+        <v>4.6</v>
+      </c>
+      <c r="R109">
+        <v>2.45</v>
+      </c>
+      <c r="S109">
+        <v>2</v>
+      </c>
+      <c r="T109">
+        <v>1.29</v>
+      </c>
+      <c r="U109">
+        <v>3.5</v>
+      </c>
+      <c r="V109">
+        <v>2.25</v>
+      </c>
+      <c r="W109">
+        <v>1.6</v>
+      </c>
+      <c r="X109">
+        <v>4.75</v>
+      </c>
+      <c r="Y109">
+        <v>1.15</v>
+      </c>
+      <c r="Z109">
+        <v>4.5</v>
+      </c>
+      <c r="AA109">
+        <v>3.7</v>
+      </c>
+      <c r="AB109">
+        <v>1.7</v>
+      </c>
+      <c r="AC109">
+        <v>1.01</v>
+      </c>
+      <c r="AD109">
+        <v>13</v>
+      </c>
+      <c r="AE109">
+        <v>1.13</v>
+      </c>
+      <c r="AF109">
+        <v>4.25</v>
+      </c>
+      <c r="AG109">
+        <v>1.62</v>
+      </c>
+      <c r="AH109">
+        <v>2.2</v>
+      </c>
+      <c r="AI109">
+        <v>1.62</v>
+      </c>
+      <c r="AJ109">
+        <v>2.2</v>
+      </c>
+      <c r="AK109">
+        <v>2.3</v>
+      </c>
+      <c r="AL109">
+        <v>1.22</v>
+      </c>
+      <c r="AM109">
+        <v>1.14</v>
+      </c>
+      <c r="AN109">
+        <v>1.5</v>
+      </c>
+      <c r="AO109">
+        <v>2.14</v>
+      </c>
+      <c r="AP109">
+        <v>1.43</v>
+      </c>
+      <c r="AQ109">
+        <v>2</v>
+      </c>
+      <c r="AR109">
+        <v>1.51</v>
+      </c>
+      <c r="AS109">
+        <v>1.71</v>
+      </c>
+      <c r="AT109">
+        <v>3.22</v>
+      </c>
+      <c r="AU109">
+        <v>4</v>
+      </c>
+      <c r="AV109">
+        <v>8</v>
+      </c>
+      <c r="AW109">
+        <v>5</v>
+      </c>
+      <c r="AX109">
+        <v>7</v>
+      </c>
+      <c r="AY109">
+        <v>18</v>
+      </c>
+      <c r="AZ109">
+        <v>19</v>
+      </c>
+      <c r="BA109">
+        <v>4</v>
+      </c>
+      <c r="BB109">
+        <v>4</v>
+      </c>
+      <c r="BC109">
+        <v>8</v>
+      </c>
+      <c r="BD109">
+        <v>2.88</v>
+      </c>
+      <c r="BE109">
+        <v>9</v>
+      </c>
+      <c r="BF109">
+        <v>1.5</v>
+      </c>
+      <c r="BG109">
+        <v>1.19</v>
+      </c>
+      <c r="BH109">
+        <v>3.58</v>
+      </c>
+      <c r="BI109">
+        <v>1.3</v>
+      </c>
+      <c r="BJ109">
+        <v>2.88</v>
+      </c>
+      <c r="BK109">
+        <v>1.56</v>
+      </c>
+      <c r="BL109">
+        <v>2.16</v>
+      </c>
+      <c r="BM109">
+        <v>1.95</v>
+      </c>
+      <c r="BN109">
+        <v>1.77</v>
+      </c>
+      <c r="BO109">
+        <v>2.52</v>
+      </c>
+      <c r="BP109">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="110" spans="1:68">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>7468194</v>
+      </c>
+      <c r="C110" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110" t="s">
+        <v>79</v>
+      </c>
+      <c r="H110" t="s">
+        <v>72</v>
+      </c>
+      <c r="I110">
+        <v>2</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>3</v>
+      </c>
+      <c r="L110">
+        <v>5</v>
+      </c>
+      <c r="M110">
+        <v>2</v>
+      </c>
+      <c r="N110">
+        <v>7</v>
+      </c>
+      <c r="O110" t="s">
+        <v>162</v>
+      </c>
+      <c r="P110" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q110">
+        <v>2.24</v>
+      </c>
+      <c r="R110">
+        <v>2.28</v>
+      </c>
+      <c r="S110">
+        <v>4.55</v>
+      </c>
+      <c r="T110">
+        <v>1.34</v>
+      </c>
+      <c r="U110">
+        <v>3.1</v>
+      </c>
+      <c r="V110">
+        <v>2.54</v>
+      </c>
+      <c r="W110">
+        <v>1.48</v>
+      </c>
+      <c r="X110">
+        <v>5.8</v>
+      </c>
+      <c r="Y110">
+        <v>1.12</v>
+      </c>
+      <c r="Z110">
+        <v>1.7</v>
+      </c>
+      <c r="AA110">
+        <v>3.6</v>
+      </c>
+      <c r="AB110">
+        <v>4.5</v>
+      </c>
+      <c r="AC110">
+        <v>1</v>
+      </c>
+      <c r="AD110">
+        <v>8.1</v>
+      </c>
+      <c r="AE110">
+        <v>1.21</v>
+      </c>
+      <c r="AF110">
+        <v>3.44</v>
+      </c>
+      <c r="AG110">
+        <v>1.8</v>
+      </c>
+      <c r="AH110">
+        <v>1.91</v>
+      </c>
+      <c r="AI110">
+        <v>1.71</v>
+      </c>
+      <c r="AJ110">
+        <v>2.02</v>
+      </c>
+      <c r="AK110">
+        <v>1.18</v>
+      </c>
+      <c r="AL110">
+        <v>1.24</v>
+      </c>
+      <c r="AM110">
+        <v>2.08</v>
+      </c>
+      <c r="AN110">
+        <v>0.57</v>
+      </c>
+      <c r="AO110">
+        <v>0</v>
+      </c>
+      <c r="AP110">
+        <v>0.88</v>
+      </c>
+      <c r="AQ110">
+        <v>0</v>
+      </c>
+      <c r="AR110">
+        <v>1.51</v>
+      </c>
+      <c r="AS110">
+        <v>1.01</v>
+      </c>
+      <c r="AT110">
+        <v>2.52</v>
+      </c>
+      <c r="AU110">
+        <v>10</v>
+      </c>
+      <c r="AV110">
+        <v>5</v>
+      </c>
+      <c r="AW110">
+        <v>3</v>
+      </c>
+      <c r="AX110">
+        <v>1</v>
+      </c>
+      <c r="AY110">
+        <v>17</v>
+      </c>
+      <c r="AZ110">
+        <v>6</v>
+      </c>
+      <c r="BA110">
+        <v>8</v>
+      </c>
+      <c r="BB110">
+        <v>3</v>
+      </c>
+      <c r="BC110">
+        <v>11</v>
+      </c>
+      <c r="BD110">
+        <v>1.35</v>
+      </c>
+      <c r="BE110">
+        <v>10</v>
+      </c>
+      <c r="BF110">
+        <v>3.5</v>
+      </c>
+      <c r="BG110">
+        <v>1.15</v>
+      </c>
+      <c r="BH110">
+        <v>5.42</v>
+      </c>
+      <c r="BI110">
+        <v>1.25</v>
+      </c>
+      <c r="BJ110">
+        <v>3.55</v>
+      </c>
+      <c r="BK110">
+        <v>1.38</v>
+      </c>
+      <c r="BL110">
+        <v>2.54</v>
+      </c>
+      <c r="BM110">
+        <v>1.77</v>
+      </c>
+      <c r="BN110">
+        <v>1.95</v>
+      </c>
+      <c r="BO110">
+        <v>2.16</v>
+      </c>
+      <c r="BP110">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="111" spans="1:68">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>7468193</v>
+      </c>
+      <c r="C111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" t="s">
+        <v>69</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F111">
+        <v>15</v>
+      </c>
+      <c r="G111" t="s">
+        <v>84</v>
+      </c>
+      <c r="H111" t="s">
+        <v>73</v>
+      </c>
+      <c r="I111">
+        <v>2</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>2</v>
+      </c>
+      <c r="L111">
+        <v>2</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>2</v>
+      </c>
+      <c r="O111" t="s">
+        <v>163</v>
+      </c>
+      <c r="P111" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q111">
+        <v>1.83</v>
+      </c>
+      <c r="R111">
+        <v>2.5</v>
+      </c>
+      <c r="S111">
+        <v>7</v>
+      </c>
+      <c r="T111">
+        <v>1.3</v>
+      </c>
+      <c r="U111">
+        <v>3.4</v>
+      </c>
+      <c r="V111">
+        <v>2.38</v>
+      </c>
+      <c r="W111">
+        <v>1.53</v>
+      </c>
+      <c r="X111">
+        <v>6</v>
+      </c>
+      <c r="Y111">
+        <v>1.13</v>
+      </c>
+      <c r="Z111">
+        <v>1.23</v>
+      </c>
+      <c r="AA111">
+        <v>8.25</v>
+      </c>
+      <c r="AB111">
+        <v>5.66</v>
+      </c>
+      <c r="AC111">
+        <v>0</v>
+      </c>
+      <c r="AD111">
+        <v>0</v>
+      </c>
+      <c r="AE111">
+        <v>0</v>
+      </c>
+      <c r="AF111">
+        <v>0</v>
+      </c>
+      <c r="AG111">
+        <v>1.62</v>
+      </c>
+      <c r="AH111">
+        <v>2.2</v>
+      </c>
+      <c r="AI111">
+        <v>1.91</v>
+      </c>
+      <c r="AJ111">
+        <v>1.91</v>
+      </c>
+      <c r="AK111">
+        <v>0</v>
+      </c>
+      <c r="AL111">
+        <v>0</v>
+      </c>
+      <c r="AM111">
+        <v>0</v>
+      </c>
+      <c r="AN111">
+        <v>2.67</v>
+      </c>
+      <c r="AO111">
+        <v>1.71</v>
+      </c>
+      <c r="AP111">
+        <v>2.71</v>
+      </c>
+      <c r="AQ111">
+        <v>1.5</v>
+      </c>
+      <c r="AR111">
+        <v>1.73</v>
+      </c>
+      <c r="AS111">
+        <v>1.4</v>
+      </c>
+      <c r="AT111">
+        <v>3.13</v>
+      </c>
+      <c r="AU111">
+        <v>6</v>
+      </c>
+      <c r="AV111">
+        <v>2</v>
+      </c>
+      <c r="AW111">
+        <v>5</v>
+      </c>
+      <c r="AX111">
+        <v>1</v>
+      </c>
+      <c r="AY111">
+        <v>17</v>
+      </c>
+      <c r="AZ111">
+        <v>4</v>
+      </c>
+      <c r="BA111">
+        <v>8</v>
+      </c>
+      <c r="BB111">
+        <v>7</v>
+      </c>
+      <c r="BC111">
+        <v>15</v>
+      </c>
+      <c r="BD111">
+        <v>0</v>
+      </c>
+      <c r="BE111">
+        <v>0</v>
+      </c>
+      <c r="BF111">
+        <v>0</v>
+      </c>
+      <c r="BG111">
+        <v>0</v>
+      </c>
+      <c r="BH111">
+        <v>0</v>
+      </c>
+      <c r="BI111">
+        <v>0</v>
+      </c>
+      <c r="BJ111">
+        <v>0</v>
+      </c>
+      <c r="BK111">
+        <v>0</v>
+      </c>
+      <c r="BL111">
+        <v>0</v>
+      </c>
+      <c r="BM111">
+        <v>0</v>
+      </c>
+      <c r="BN111">
+        <v>0</v>
+      </c>
+      <c r="BO111">
+        <v>0</v>
+      </c>
+      <c r="BP111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:68">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>7468199</v>
+      </c>
+      <c r="C112" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F112">
+        <v>15</v>
+      </c>
+      <c r="G112" t="s">
+        <v>80</v>
+      </c>
+      <c r="H112" t="s">
+        <v>75</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112">
+        <v>5</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+      <c r="N112">
+        <v>6</v>
+      </c>
+      <c r="O112" t="s">
+        <v>164</v>
+      </c>
+      <c r="P112" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q112">
+        <v>1.44</v>
+      </c>
+      <c r="R112">
+        <v>2.88</v>
+      </c>
+      <c r="S112">
+        <v>10</v>
+      </c>
+      <c r="T112">
+        <v>1.25</v>
+      </c>
+      <c r="U112">
+        <v>3.75</v>
+      </c>
+      <c r="V112">
+        <v>2</v>
+      </c>
+      <c r="W112">
+        <v>1.73</v>
+      </c>
+      <c r="X112">
+        <v>4.33</v>
+      </c>
+      <c r="Y112">
+        <v>1.2</v>
+      </c>
+      <c r="Z112">
+        <v>1.17</v>
+      </c>
+      <c r="AA112">
+        <v>7.5</v>
+      </c>
+      <c r="AB112">
+        <v>13</v>
+      </c>
+      <c r="AC112">
+        <v>1.02</v>
+      </c>
+      <c r="AD112">
+        <v>22</v>
+      </c>
+      <c r="AE112">
+        <v>1.08</v>
+      </c>
+      <c r="AF112">
+        <v>5.3</v>
+      </c>
+      <c r="AG112">
+        <v>1.45</v>
+      </c>
+      <c r="AH112">
+        <v>2.63</v>
+      </c>
+      <c r="AI112">
+        <v>1.91</v>
+      </c>
+      <c r="AJ112">
+        <v>1.8</v>
+      </c>
+      <c r="AK112">
+        <v>1.02</v>
+      </c>
+      <c r="AL112">
+        <v>1.08</v>
+      </c>
+      <c r="AM112">
+        <v>4.8</v>
+      </c>
+      <c r="AN112">
+        <v>3</v>
+      </c>
+      <c r="AO112">
+        <v>1.4</v>
+      </c>
+      <c r="AP112">
+        <v>3</v>
+      </c>
+      <c r="AQ112">
+        <v>1.17</v>
+      </c>
+      <c r="AR112">
+        <v>2.21</v>
+      </c>
+      <c r="AS112">
+        <v>1.8</v>
+      </c>
+      <c r="AT112">
+        <v>4.01</v>
+      </c>
+      <c r="AU112">
+        <v>16</v>
+      </c>
+      <c r="AV112">
+        <v>4</v>
+      </c>
+      <c r="AW112">
+        <v>11</v>
+      </c>
+      <c r="AX112">
+        <v>0</v>
+      </c>
+      <c r="AY112">
+        <v>33</v>
+      </c>
+      <c r="AZ112">
+        <v>6</v>
+      </c>
+      <c r="BA112">
+        <v>9</v>
+      </c>
+      <c r="BB112">
+        <v>3</v>
+      </c>
+      <c r="BC112">
+        <v>12</v>
+      </c>
+      <c r="BD112">
+        <v>1.08</v>
+      </c>
+      <c r="BE112">
+        <v>19</v>
+      </c>
+      <c r="BF112">
+        <v>6.5</v>
+      </c>
+      <c r="BG112">
+        <v>1.1</v>
+      </c>
+      <c r="BH112">
+        <v>5.7</v>
+      </c>
+      <c r="BI112">
+        <v>1.22</v>
+      </c>
+      <c r="BJ112">
+        <v>3.8</v>
+      </c>
+      <c r="BK112">
+        <v>1.33</v>
+      </c>
+      <c r="BL112">
+        <v>2.73</v>
+      </c>
+      <c r="BM112">
+        <v>1.7</v>
+      </c>
+      <c r="BN112">
+        <v>2.05</v>
+      </c>
+      <c r="BO112">
+        <v>1.91</v>
+      </c>
+      <c r="BP112">
+        <v>1.8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -250,10 +250,10 @@
     <t>Hradec Králové</t>
   </si>
   <si>
-    <t>Pardubice</t>
+    <t>Teplice</t>
   </si>
   <si>
-    <t>Teplice</t>
+    <t>Pardubice</t>
   </si>
   <si>
     <t>Slavia Praha</t>
@@ -328,19 +328,19 @@
     <t>['7', '51']</t>
   </si>
   <si>
-    <t>['17', '90+4']</t>
+    <t>['40']</t>
   </si>
   <si>
-    <t>['40']</t>
+    <t>['17', '90+4']</t>
   </si>
   <si>
     <t>['7', '88']</t>
   </si>
   <si>
-    <t>['17', '48', '64', '79']</t>
+    <t>['90']</t>
   </si>
   <si>
-    <t>['90']</t>
+    <t>['17', '48', '64', '79']</t>
   </si>
   <si>
     <t>['23', '30', '58', '63', '87']</t>
@@ -397,10 +397,10 @@
     <t>['34', '67', '89']</t>
   </si>
   <si>
-    <t>['21']</t>
+    <t>['34', '90+3']</t>
   </si>
   <si>
-    <t>['34', '90+3']</t>
+    <t>['21']</t>
   </si>
   <si>
     <t>['10', '45+1', '45+5']</t>
@@ -445,10 +445,10 @@
     <t>['90+3']</t>
   </si>
   <si>
-    <t>['87']</t>
+    <t>['64', '67']</t>
   </si>
   <si>
-    <t>['64', '67']</t>
+    <t>['87']</t>
   </si>
   <si>
     <t>['8', '79']</t>
@@ -499,10 +499,10 @@
     <t>['53', '78']</t>
   </si>
   <si>
-    <t>['39', '82']</t>
+    <t>['13', '43', '51', '55', '90+1']</t>
   </si>
   <si>
-    <t>['13', '43', '51', '55', '90+1']</t>
+    <t>['39', '82']</t>
   </si>
   <si>
     <t>['9', '42']</t>
@@ -523,10 +523,10 @@
     <t>['26', '34', '87']</t>
   </si>
   <si>
-    <t>['15']</t>
+    <t>['47', '61', '90+1', '90+5']</t>
   </si>
   <si>
-    <t>['47', '61', '90+1', '90+5']</t>
+    <t>['15']</t>
   </si>
   <si>
     <t>['62']</t>
@@ -544,10 +544,10 @@
     <t>['45', '89']</t>
   </si>
   <si>
-    <t>['46']</t>
+    <t>['45+4', '62']</t>
   </si>
   <si>
-    <t>['45+4', '62']</t>
+    <t>['46']</t>
   </si>
   <si>
     <t>['57']</t>
@@ -640,10 +640,10 @@
     <t>['13']</t>
   </si>
   <si>
-    <t>['5', '43', '89']</t>
+    <t>['38']</t>
   </si>
   <si>
-    <t>['38']</t>
+    <t>['5', '43', '89']</t>
   </si>
   <si>
     <t>['63']</t>
@@ -673,10 +673,10 @@
     <t>['22', '45+1', '86']</t>
   </si>
   <si>
-    <t>['9', '59']</t>
+    <t>['45+3', '46']</t>
   </si>
   <si>
-    <t>['45+3', '46']</t>
+    <t>['9', '59']</t>
   </si>
 </sst>
 </file>
@@ -1273,7 +1273,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -2715,7 +2715,7 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -3109,7 +3109,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>7468092</v>
+        <v>7468090</v>
       </c>
       <c r="C11" t="s">
         <v>68</v>
@@ -3127,187 +3127,187 @@
         <v>78</v>
       </c>
       <c r="H11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O11" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P11" t="s">
         <v>169</v>
       </c>
       <c r="Q11">
-        <v>2.85</v>
+        <v>6.5</v>
       </c>
       <c r="R11">
-        <v>2.24</v>
+        <v>2.5</v>
       </c>
       <c r="S11">
-        <v>3.78</v>
+        <v>1.91</v>
       </c>
       <c r="T11">
+        <v>1.3</v>
+      </c>
+      <c r="U11">
+        <v>3.4</v>
+      </c>
+      <c r="V11">
+        <v>2.38</v>
+      </c>
+      <c r="W11">
+        <v>1.53</v>
+      </c>
+      <c r="X11">
+        <v>6</v>
+      </c>
+      <c r="Y11">
+        <v>1.13</v>
+      </c>
+      <c r="Z11">
+        <v>6</v>
+      </c>
+      <c r="AA11">
+        <v>4.5</v>
+      </c>
+      <c r="AB11">
+        <v>1.47</v>
+      </c>
+      <c r="AC11">
+        <v>1.03</v>
+      </c>
+      <c r="AD11">
+        <v>17</v>
+      </c>
+      <c r="AE11">
+        <v>1.21</v>
+      </c>
+      <c r="AF11">
+        <v>4.43</v>
+      </c>
+      <c r="AG11">
+        <v>1.61</v>
+      </c>
+      <c r="AH11">
+        <v>2.15</v>
+      </c>
+      <c r="AI11">
+        <v>1.91</v>
+      </c>
+      <c r="AJ11">
+        <v>1.91</v>
+      </c>
+      <c r="AK11">
+        <v>2.75</v>
+      </c>
+      <c r="AL11">
+        <v>1.19</v>
+      </c>
+      <c r="AM11">
+        <v>1.13</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0.88</v>
+      </c>
+      <c r="AQ11">
+        <v>2</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>4</v>
+      </c>
+      <c r="AV11">
+        <v>8</v>
+      </c>
+      <c r="AW11">
+        <v>3</v>
+      </c>
+      <c r="AX11">
+        <v>8</v>
+      </c>
+      <c r="AY11">
+        <v>13</v>
+      </c>
+      <c r="AZ11">
+        <v>19</v>
+      </c>
+      <c r="BA11">
+        <v>5</v>
+      </c>
+      <c r="BB11">
+        <v>4</v>
+      </c>
+      <c r="BC11">
+        <v>9</v>
+      </c>
+      <c r="BD11">
+        <v>3.69</v>
+      </c>
+      <c r="BE11">
+        <v>9.5</v>
+      </c>
+      <c r="BF11">
         <v>1.37</v>
       </c>
-      <c r="U11">
-        <v>3.05</v>
-      </c>
-      <c r="V11">
-        <v>2.87</v>
-      </c>
-      <c r="W11">
-        <v>1.41</v>
-      </c>
-      <c r="X11">
-        <v>6.5</v>
-      </c>
-      <c r="Y11">
-        <v>1.08</v>
-      </c>
-      <c r="Z11">
-        <v>2.2</v>
-      </c>
-      <c r="AA11">
-        <v>3.4</v>
-      </c>
-      <c r="AB11">
-        <v>3</v>
-      </c>
-      <c r="AC11">
-        <v>1.06</v>
-      </c>
-      <c r="AD11">
-        <v>11.25</v>
-      </c>
-      <c r="AE11">
-        <v>1.31</v>
-      </c>
-      <c r="AF11">
-        <v>3.52</v>
-      </c>
-      <c r="AG11">
-        <v>1.9</v>
-      </c>
-      <c r="AH11">
-        <v>1.95</v>
-      </c>
-      <c r="AI11">
-        <v>1.72</v>
-      </c>
-      <c r="AJ11">
-        <v>2</v>
-      </c>
-      <c r="AK11">
-        <v>1.38</v>
-      </c>
-      <c r="AL11">
-        <v>1.32</v>
-      </c>
-      <c r="AM11">
-        <v>1.62</v>
-      </c>
-      <c r="AN11">
-        <v>0</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <v>1</v>
-      </c>
-      <c r="AQ11">
-        <v>1.17</v>
-      </c>
-      <c r="AR11">
-        <v>0</v>
-      </c>
-      <c r="AS11">
-        <v>0</v>
-      </c>
-      <c r="AT11">
-        <v>0</v>
-      </c>
-      <c r="AU11">
-        <v>3</v>
-      </c>
-      <c r="AV11">
-        <v>10</v>
-      </c>
-      <c r="AW11">
-        <v>5</v>
-      </c>
-      <c r="AX11">
-        <v>9</v>
-      </c>
-      <c r="AY11">
-        <v>9</v>
-      </c>
-      <c r="AZ11">
-        <v>22</v>
-      </c>
-      <c r="BA11">
-        <v>4</v>
-      </c>
-      <c r="BB11">
-        <v>3</v>
-      </c>
-      <c r="BC11">
-        <v>7</v>
-      </c>
-      <c r="BD11">
-        <v>1.95</v>
-      </c>
-      <c r="BE11">
-        <v>8.5</v>
-      </c>
-      <c r="BF11">
-        <v>2.1</v>
-      </c>
       <c r="BG11">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="BH11">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="BI11">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="BJ11">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="BK11">
-        <v>1.51</v>
+        <v>1.61</v>
       </c>
       <c r="BL11">
-        <v>2.32</v>
+        <v>2.12</v>
       </c>
       <c r="BM11">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="BN11">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="BO11">
-        <v>2.38</v>
+        <v>2.64</v>
       </c>
       <c r="BP11">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="12" spans="1:68">
@@ -3315,7 +3315,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>7468090</v>
+        <v>7468092</v>
       </c>
       <c r="C12" t="s">
         <v>68</v>
@@ -3333,187 +3333,187 @@
         <v>79</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O12" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="P12" t="s">
         <v>170</v>
       </c>
       <c r="Q12">
+        <v>2.85</v>
+      </c>
+      <c r="R12">
+        <v>2.24</v>
+      </c>
+      <c r="S12">
+        <v>3.78</v>
+      </c>
+      <c r="T12">
+        <v>1.37</v>
+      </c>
+      <c r="U12">
+        <v>3.05</v>
+      </c>
+      <c r="V12">
+        <v>2.87</v>
+      </c>
+      <c r="W12">
+        <v>1.41</v>
+      </c>
+      <c r="X12">
         <v>6.5</v>
       </c>
-      <c r="R12">
-        <v>2.5</v>
-      </c>
-      <c r="S12">
-        <v>1.91</v>
-      </c>
-      <c r="T12">
-        <v>1.3</v>
-      </c>
-      <c r="U12">
+      <c r="Y12">
+        <v>1.08</v>
+      </c>
+      <c r="Z12">
+        <v>2.2</v>
+      </c>
+      <c r="AA12">
         <v>3.4</v>
       </c>
-      <c r="V12">
+      <c r="AB12">
+        <v>3</v>
+      </c>
+      <c r="AC12">
+        <v>1.06</v>
+      </c>
+      <c r="AD12">
+        <v>11.25</v>
+      </c>
+      <c r="AE12">
+        <v>1.31</v>
+      </c>
+      <c r="AF12">
+        <v>3.52</v>
+      </c>
+      <c r="AG12">
+        <v>1.9</v>
+      </c>
+      <c r="AH12">
+        <v>1.95</v>
+      </c>
+      <c r="AI12">
+        <v>1.72</v>
+      </c>
+      <c r="AJ12">
+        <v>2</v>
+      </c>
+      <c r="AK12">
+        <v>1.38</v>
+      </c>
+      <c r="AL12">
+        <v>1.32</v>
+      </c>
+      <c r="AM12">
+        <v>1.62</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>1</v>
+      </c>
+      <c r="AQ12">
+        <v>1.17</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>3</v>
+      </c>
+      <c r="AV12">
+        <v>10</v>
+      </c>
+      <c r="AW12">
+        <v>5</v>
+      </c>
+      <c r="AX12">
+        <v>9</v>
+      </c>
+      <c r="AY12">
+        <v>9</v>
+      </c>
+      <c r="AZ12">
+        <v>22</v>
+      </c>
+      <c r="BA12">
+        <v>4</v>
+      </c>
+      <c r="BB12">
+        <v>3</v>
+      </c>
+      <c r="BC12">
+        <v>7</v>
+      </c>
+      <c r="BD12">
+        <v>1.95</v>
+      </c>
+      <c r="BE12">
+        <v>8.5</v>
+      </c>
+      <c r="BF12">
+        <v>2.1</v>
+      </c>
+      <c r="BG12">
+        <v>1.18</v>
+      </c>
+      <c r="BH12">
+        <v>4.33</v>
+      </c>
+      <c r="BI12">
+        <v>1.28</v>
+      </c>
+      <c r="BJ12">
+        <v>3.2</v>
+      </c>
+      <c r="BK12">
+        <v>1.51</v>
+      </c>
+      <c r="BL12">
+        <v>2.32</v>
+      </c>
+      <c r="BM12">
+        <v>1.85</v>
+      </c>
+      <c r="BN12">
+        <v>1.85</v>
+      </c>
+      <c r="BO12">
         <v>2.38</v>
       </c>
-      <c r="W12">
-        <v>1.53</v>
-      </c>
-      <c r="X12">
-        <v>6</v>
-      </c>
-      <c r="Y12">
-        <v>1.13</v>
-      </c>
-      <c r="Z12">
-        <v>6</v>
-      </c>
-      <c r="AA12">
-        <v>4.5</v>
-      </c>
-      <c r="AB12">
-        <v>1.47</v>
-      </c>
-      <c r="AC12">
-        <v>1.03</v>
-      </c>
-      <c r="AD12">
-        <v>17</v>
-      </c>
-      <c r="AE12">
-        <v>1.21</v>
-      </c>
-      <c r="AF12">
-        <v>4.43</v>
-      </c>
-      <c r="AG12">
-        <v>1.61</v>
-      </c>
-      <c r="AH12">
-        <v>2.15</v>
-      </c>
-      <c r="AI12">
-        <v>1.91</v>
-      </c>
-      <c r="AJ12">
-        <v>1.91</v>
-      </c>
-      <c r="AK12">
-        <v>2.75</v>
-      </c>
-      <c r="AL12">
-        <v>1.19</v>
-      </c>
-      <c r="AM12">
-        <v>1.13</v>
-      </c>
-      <c r="AN12">
-        <v>0</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>0.88</v>
-      </c>
-      <c r="AQ12">
-        <v>2</v>
-      </c>
-      <c r="AR12">
-        <v>0</v>
-      </c>
-      <c r="AS12">
-        <v>0</v>
-      </c>
-      <c r="AT12">
-        <v>0</v>
-      </c>
-      <c r="AU12">
-        <v>4</v>
-      </c>
-      <c r="AV12">
-        <v>8</v>
-      </c>
-      <c r="AW12">
-        <v>3</v>
-      </c>
-      <c r="AX12">
-        <v>8</v>
-      </c>
-      <c r="AY12">
-        <v>13</v>
-      </c>
-      <c r="AZ12">
-        <v>19</v>
-      </c>
-      <c r="BA12">
-        <v>5</v>
-      </c>
-      <c r="BB12">
-        <v>4</v>
-      </c>
-      <c r="BC12">
-        <v>9</v>
-      </c>
-      <c r="BD12">
-        <v>3.69</v>
-      </c>
-      <c r="BE12">
-        <v>9.5</v>
-      </c>
-      <c r="BF12">
-        <v>1.37</v>
-      </c>
-      <c r="BG12">
-        <v>1.25</v>
-      </c>
-      <c r="BH12">
-        <v>3.6</v>
-      </c>
-      <c r="BI12">
-        <v>1.34</v>
-      </c>
-      <c r="BJ12">
-        <v>2.88</v>
-      </c>
-      <c r="BK12">
-        <v>1.61</v>
-      </c>
-      <c r="BL12">
-        <v>2.12</v>
-      </c>
-      <c r="BM12">
-        <v>1.91</v>
-      </c>
-      <c r="BN12">
-        <v>1.8</v>
-      </c>
-      <c r="BO12">
-        <v>2.64</v>
-      </c>
       <c r="BP12">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="13" spans="1:68">
@@ -5393,7 +5393,7 @@
         <v>85</v>
       </c>
       <c r="H22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -5599,7 +5599,7 @@
         <v>72</v>
       </c>
       <c r="H23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -6199,7 +6199,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>7468105</v>
+        <v>7468111</v>
       </c>
       <c r="C26" t="s">
         <v>68</v>
@@ -6214,25 +6214,25 @@
         <v>4</v>
       </c>
       <c r="G26" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H26" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N26">
         <v>3</v>
@@ -6244,160 +6244,160 @@
         <v>176</v>
       </c>
       <c r="Q26">
-        <v>3.2</v>
+        <v>6.23</v>
       </c>
       <c r="R26">
-        <v>2.05</v>
+        <v>2.58</v>
       </c>
       <c r="S26">
-        <v>3.25</v>
+        <v>1.93</v>
       </c>
       <c r="T26">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="U26">
-        <v>2.7</v>
+        <v>3.44</v>
       </c>
       <c r="V26">
-        <v>2.85</v>
+        <v>2.35</v>
       </c>
       <c r="W26">
-        <v>1.37</v>
+        <v>1.52</v>
       </c>
       <c r="X26">
-        <v>6.95</v>
+        <v>5</v>
       </c>
       <c r="Y26">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="Z26">
-        <v>2.63</v>
+        <v>6.29</v>
       </c>
       <c r="AA26">
-        <v>3.25</v>
+        <v>4.55</v>
       </c>
       <c r="AB26">
-        <v>2.65</v>
+        <v>1.43</v>
       </c>
       <c r="AC26">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AD26">
-        <v>8.9</v>
+        <v>19.25</v>
       </c>
       <c r="AE26">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AF26">
-        <v>3.3</v>
+        <v>4.67</v>
       </c>
       <c r="AG26">
-        <v>1.95</v>
+        <v>1.55</v>
       </c>
       <c r="AH26">
-        <v>1.84</v>
+        <v>2.2</v>
       </c>
       <c r="AI26">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="AJ26">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AK26">
-        <v>1.47</v>
+        <v>2.68</v>
       </c>
       <c r="AL26">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="AM26">
-        <v>1.47</v>
+        <v>1.1</v>
       </c>
       <c r="AN26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO26">
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ26">
-        <v>1.17</v>
+        <v>2</v>
       </c>
       <c r="AR26">
-        <v>1.06</v>
+        <v>1.73</v>
       </c>
       <c r="AS26">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="AT26">
-        <v>3.03</v>
+        <v>3.75</v>
       </c>
       <c r="AU26">
         <v>6</v>
       </c>
       <c r="AV26">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW26">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AX26">
         <v>8</v>
       </c>
       <c r="AY26">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AZ26">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="BA26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BB26">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BC26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD26">
-        <v>1.97</v>
+        <v>3.64</v>
       </c>
       <c r="BE26">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="BF26">
-        <v>2.24</v>
+        <v>1.44</v>
       </c>
       <c r="BG26">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="BH26">
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="BI26">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="BJ26">
-        <v>3.18</v>
+        <v>2.78</v>
       </c>
       <c r="BK26">
-        <v>1.55</v>
+        <v>1.71</v>
       </c>
       <c r="BL26">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="BM26">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="BN26">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="BO26">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="BP26">
-        <v>1.55</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="27" spans="1:68">
@@ -6405,7 +6405,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>7468111</v>
+        <v>7468105</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -6420,25 +6420,25 @@
         <v>4</v>
       </c>
       <c r="G27" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N27">
         <v>3</v>
@@ -6450,160 +6450,160 @@
         <v>177</v>
       </c>
       <c r="Q27">
-        <v>6.23</v>
+        <v>3.2</v>
       </c>
       <c r="R27">
-        <v>2.58</v>
+        <v>2.05</v>
       </c>
       <c r="S27">
-        <v>1.93</v>
+        <v>3.25</v>
       </c>
       <c r="T27">
+        <v>1.41</v>
+      </c>
+      <c r="U27">
+        <v>2.7</v>
+      </c>
+      <c r="V27">
+        <v>2.85</v>
+      </c>
+      <c r="W27">
+        <v>1.37</v>
+      </c>
+      <c r="X27">
+        <v>6.95</v>
+      </c>
+      <c r="Y27">
+        <v>1.07</v>
+      </c>
+      <c r="Z27">
+        <v>2.63</v>
+      </c>
+      <c r="AA27">
+        <v>3.25</v>
+      </c>
+      <c r="AB27">
+        <v>2.65</v>
+      </c>
+      <c r="AC27">
+        <v>1.02</v>
+      </c>
+      <c r="AD27">
+        <v>8.9</v>
+      </c>
+      <c r="AE27">
         <v>1.3</v>
       </c>
-      <c r="U27">
-        <v>3.44</v>
-      </c>
-      <c r="V27">
-        <v>2.35</v>
-      </c>
-      <c r="W27">
-        <v>1.52</v>
-      </c>
-      <c r="X27">
-        <v>5</v>
-      </c>
-      <c r="Y27">
-        <v>1.13</v>
-      </c>
-      <c r="Z27">
-        <v>6.29</v>
-      </c>
-      <c r="AA27">
-        <v>4.55</v>
-      </c>
-      <c r="AB27">
-        <v>1.43</v>
-      </c>
-      <c r="AC27">
-        <v>1.03</v>
-      </c>
-      <c r="AD27">
-        <v>19.25</v>
-      </c>
-      <c r="AE27">
-        <v>1.2</v>
-      </c>
       <c r="AF27">
-        <v>4.67</v>
+        <v>3.3</v>
       </c>
       <c r="AG27">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="AH27">
-        <v>2.2</v>
+        <v>1.84</v>
       </c>
       <c r="AI27">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="AJ27">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AK27">
-        <v>2.68</v>
+        <v>1.47</v>
       </c>
       <c r="AL27">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AM27">
-        <v>1.1</v>
+        <v>1.47</v>
       </c>
       <c r="AN27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO27">
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="AQ27">
-        <v>2</v>
+        <v>1.17</v>
       </c>
       <c r="AR27">
-        <v>1.73</v>
+        <v>1.06</v>
       </c>
       <c r="AS27">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="AT27">
-        <v>3.75</v>
+        <v>3.03</v>
       </c>
       <c r="AU27">
         <v>6</v>
       </c>
       <c r="AV27">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW27">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AX27">
         <v>8</v>
       </c>
       <c r="AY27">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AZ27">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="BA27">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BB27">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BC27">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD27">
-        <v>3.64</v>
+        <v>1.97</v>
       </c>
       <c r="BE27">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="BF27">
-        <v>1.44</v>
+        <v>2.24</v>
       </c>
       <c r="BG27">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="BH27">
-        <v>4.05</v>
+        <v>0</v>
       </c>
       <c r="BI27">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="BJ27">
-        <v>2.78</v>
+        <v>3.18</v>
       </c>
       <c r="BK27">
-        <v>1.71</v>
+        <v>1.55</v>
       </c>
       <c r="BL27">
-        <v>2.11</v>
+        <v>2.38</v>
       </c>
       <c r="BM27">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="BN27">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="BO27">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="BP27">
-        <v>1.37</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="28" spans="1:68">
@@ -6832,7 +6832,7 @@
         <v>4</v>
       </c>
       <c r="G29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s">
         <v>76</v>
@@ -7023,7 +7023,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>7468106</v>
+        <v>7468109</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -7038,28 +7038,28 @@
         <v>4</v>
       </c>
       <c r="G30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H30" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M30">
         <v>0</v>
       </c>
       <c r="N30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O30" t="s">
         <v>107</v>
@@ -7068,58 +7068,58 @@
         <v>88</v>
       </c>
       <c r="Q30">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R30">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="S30">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="T30">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U30">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V30">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W30">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X30">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y30">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="Z30">
-        <v>1.51</v>
+        <v>1.84</v>
       </c>
       <c r="AA30">
-        <v>3.8</v>
+        <v>3.57</v>
       </c>
       <c r="AB30">
-        <v>7.6</v>
+        <v>4.25</v>
       </c>
       <c r="AC30">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD30">
         <v>10</v>
       </c>
       <c r="AE30">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AF30">
-        <v>3.96</v>
+        <v>3.64</v>
       </c>
       <c r="AG30">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="AH30">
-        <v>2.16</v>
+        <v>1.96</v>
       </c>
       <c r="AI30">
         <v>1.75</v>
@@ -7128,13 +7128,13 @@
         <v>2</v>
       </c>
       <c r="AK30">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="AL30">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AM30">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="AN30">
         <v>3</v>
@@ -7143,85 +7143,85 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ30">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="AR30">
-        <v>1.76</v>
+        <v>1.24</v>
       </c>
       <c r="AS30">
-        <v>0.5</v>
+        <v>0.71</v>
       </c>
       <c r="AT30">
-        <v>2.26</v>
+        <v>1.95</v>
       </c>
       <c r="AU30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV30">
         <v>3</v>
       </c>
       <c r="AW30">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="AX30">
+        <v>0</v>
+      </c>
+      <c r="AY30">
+        <v>29</v>
+      </c>
+      <c r="AZ30">
         <v>5</v>
       </c>
-      <c r="AY30">
-        <v>12</v>
-      </c>
-      <c r="AZ30">
-        <v>16</v>
-      </c>
       <c r="BA30">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="BB30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BC30">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BD30">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="BE30">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BF30">
-        <v>3.92</v>
+        <v>3.74</v>
       </c>
       <c r="BG30">
-        <v>1.09</v>
+        <v>1.15</v>
       </c>
       <c r="BH30">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="BI30">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="BJ30">
-        <v>4.3</v>
+        <v>3.34</v>
       </c>
       <c r="BK30">
-        <v>1.31</v>
+        <v>1.51</v>
       </c>
       <c r="BL30">
-        <v>3.04</v>
+        <v>2.49</v>
       </c>
       <c r="BM30">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="BN30">
-        <v>2.32</v>
+        <v>2</v>
       </c>
       <c r="BO30">
-        <v>1.94</v>
+        <v>2.29</v>
       </c>
       <c r="BP30">
-        <v>1.85</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="31" spans="1:68">
@@ -7229,7 +7229,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>7468109</v>
+        <v>7468106</v>
       </c>
       <c r="C31" t="s">
         <v>68</v>
@@ -7244,28 +7244,28 @@
         <v>4</v>
       </c>
       <c r="G31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H31" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O31" t="s">
         <v>108</v>
@@ -7274,58 +7274,58 @@
         <v>88</v>
       </c>
       <c r="Q31">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R31">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S31">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="T31">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U31">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V31">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W31">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X31">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y31">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="Z31">
-        <v>1.84</v>
+        <v>1.51</v>
       </c>
       <c r="AA31">
-        <v>3.57</v>
+        <v>3.8</v>
       </c>
       <c r="AB31">
-        <v>4.25</v>
+        <v>7.6</v>
       </c>
       <c r="AC31">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD31">
         <v>10</v>
       </c>
       <c r="AE31">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AF31">
-        <v>3.64</v>
+        <v>3.96</v>
       </c>
       <c r="AG31">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AH31">
-        <v>1.96</v>
+        <v>2.16</v>
       </c>
       <c r="AI31">
         <v>1.75</v>
@@ -7334,13 +7334,13 @@
         <v>2</v>
       </c>
       <c r="AK31">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="AL31">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AM31">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="AN31">
         <v>3</v>
@@ -7349,85 +7349,85 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ31">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="AR31">
-        <v>1.24</v>
+        <v>1.76</v>
       </c>
       <c r="AS31">
-        <v>0.71</v>
+        <v>0.5</v>
       </c>
       <c r="AT31">
-        <v>1.95</v>
+        <v>2.26</v>
       </c>
       <c r="AU31">
+        <v>7</v>
+      </c>
+      <c r="AV31">
+        <v>3</v>
+      </c>
+      <c r="AW31">
+        <v>4</v>
+      </c>
+      <c r="AX31">
+        <v>5</v>
+      </c>
+      <c r="AY31">
+        <v>12</v>
+      </c>
+      <c r="AZ31">
+        <v>16</v>
+      </c>
+      <c r="BA31">
+        <v>2</v>
+      </c>
+      <c r="BB31">
+        <v>4</v>
+      </c>
+      <c r="BC31">
         <v>6</v>
       </c>
-      <c r="AV31">
-        <v>3</v>
-      </c>
-      <c r="AW31">
-        <v>17</v>
-      </c>
-      <c r="AX31">
-        <v>0</v>
-      </c>
-      <c r="AY31">
-        <v>29</v>
-      </c>
-      <c r="AZ31">
-        <v>5</v>
-      </c>
-      <c r="BA31">
-        <v>13</v>
-      </c>
-      <c r="BB31">
-        <v>0</v>
-      </c>
-      <c r="BC31">
-        <v>13</v>
-      </c>
       <c r="BD31">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="BE31">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="BF31">
-        <v>3.74</v>
+        <v>3.92</v>
       </c>
       <c r="BG31">
-        <v>1.15</v>
+        <v>1.09</v>
       </c>
       <c r="BH31">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="BI31">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="BJ31">
-        <v>3.34</v>
+        <v>4.3</v>
       </c>
       <c r="BK31">
-        <v>1.51</v>
+        <v>1.31</v>
       </c>
       <c r="BL31">
-        <v>2.49</v>
+        <v>3.04</v>
       </c>
       <c r="BM31">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="BN31">
-        <v>2</v>
+        <v>2.32</v>
       </c>
       <c r="BO31">
-        <v>2.29</v>
+        <v>1.94</v>
       </c>
       <c r="BP31">
-        <v>1.59</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="32" spans="1:68">
@@ -7865,7 +7865,7 @@
         <v>80</v>
       </c>
       <c r="H34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>81</v>
       </c>
       <c r="H38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I38">
         <v>2</v>
@@ -9510,7 +9510,7 @@
         <v>6</v>
       </c>
       <c r="G42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s">
         <v>75</v>
@@ -9534,7 +9534,7 @@
         <v>4</v>
       </c>
       <c r="O42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P42" t="s">
         <v>184</v>
@@ -9922,7 +9922,7 @@
         <v>6</v>
       </c>
       <c r="G44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s">
         <v>77</v>
@@ -11349,7 +11349,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>7468129</v>
+        <v>7468134</v>
       </c>
       <c r="C51" t="s">
         <v>68</v>
@@ -11364,88 +11364,88 @@
         <v>7</v>
       </c>
       <c r="G51" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H51" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51" t="s">
+        <v>88</v>
+      </c>
+      <c r="P51" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q51">
+        <v>2.63</v>
+      </c>
+      <c r="R51">
+        <v>2.25</v>
+      </c>
+      <c r="S51">
         <v>4</v>
       </c>
-      <c r="O51" t="s">
-        <v>122</v>
-      </c>
-      <c r="P51" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q51">
-        <v>3</v>
-      </c>
-      <c r="R51">
-        <v>2.2</v>
-      </c>
-      <c r="S51">
+      <c r="T51">
+        <v>1.33</v>
+      </c>
+      <c r="U51">
+        <v>3.25</v>
+      </c>
+      <c r="V51">
+        <v>2.63</v>
+      </c>
+      <c r="W51">
+        <v>1.44</v>
+      </c>
+      <c r="X51">
+        <v>6.5</v>
+      </c>
+      <c r="Y51">
+        <v>1.11</v>
+      </c>
+      <c r="Z51">
+        <v>1.98</v>
+      </c>
+      <c r="AA51">
         <v>3.5</v>
       </c>
-      <c r="T51">
-        <v>1.36</v>
-      </c>
-      <c r="U51">
-        <v>3</v>
-      </c>
-      <c r="V51">
-        <v>2.75</v>
-      </c>
-      <c r="W51">
-        <v>1.4</v>
-      </c>
-      <c r="X51">
-        <v>7</v>
-      </c>
-      <c r="Y51">
-        <v>1.1</v>
-      </c>
-      <c r="Z51">
-        <v>2.5</v>
-      </c>
-      <c r="AA51">
-        <v>3.3</v>
-      </c>
       <c r="AB51">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="AC51">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD51">
-        <v>10</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AE51">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="AF51">
-        <v>4</v>
+        <v>3.48</v>
       </c>
       <c r="AG51">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AH51">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="AI51">
         <v>1.67</v>
@@ -11454,100 +11454,100 @@
         <v>2.1</v>
       </c>
       <c r="AK51">
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
       <c r="AL51">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="AM51">
-        <v>1.52</v>
+        <v>1.82</v>
       </c>
       <c r="AN51">
-        <v>3</v>
+        <v>0.33</v>
       </c>
       <c r="AO51">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AP51">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="AQ51">
-        <v>1.5</v>
+        <v>0.29</v>
       </c>
       <c r="AR51">
-        <v>1.61</v>
+        <v>1.76</v>
       </c>
       <c r="AS51">
-        <v>1.34</v>
+        <v>0.97</v>
       </c>
       <c r="AT51">
-        <v>2.95</v>
+        <v>2.73</v>
       </c>
       <c r="AU51">
         <v>7</v>
       </c>
       <c r="AV51">
+        <v>2</v>
+      </c>
+      <c r="AW51">
+        <v>9</v>
+      </c>
+      <c r="AX51">
+        <v>2</v>
+      </c>
+      <c r="AY51">
+        <v>21</v>
+      </c>
+      <c r="AZ51">
+        <v>5</v>
+      </c>
+      <c r="BA51">
         <v>8</v>
       </c>
-      <c r="AW51">
+      <c r="BB51">
+        <v>6</v>
+      </c>
+      <c r="BC51">
+        <v>14</v>
+      </c>
+      <c r="BD51">
+        <v>1.82</v>
+      </c>
+      <c r="BE51">
         <v>8</v>
       </c>
-      <c r="AX51">
-        <v>5</v>
-      </c>
-      <c r="AY51">
-        <v>18</v>
-      </c>
-      <c r="AZ51">
-        <v>16</v>
-      </c>
-      <c r="BA51">
-        <v>6</v>
-      </c>
-      <c r="BB51">
-        <v>5</v>
-      </c>
-      <c r="BC51">
-        <v>11</v>
-      </c>
-      <c r="BD51">
-        <v>2.05</v>
-      </c>
-      <c r="BE51">
-        <v>8.5</v>
-      </c>
       <c r="BF51">
-        <v>2</v>
+        <v>2.39</v>
       </c>
       <c r="BG51">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="BH51">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="BI51">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="BJ51">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="BK51">
-        <v>1.35</v>
+        <v>1.63</v>
       </c>
       <c r="BL51">
-        <v>2.84</v>
+        <v>2.2</v>
       </c>
       <c r="BM51">
-        <v>1.77</v>
+        <v>2.02</v>
       </c>
       <c r="BN51">
-        <v>1.95</v>
+        <v>1.74</v>
       </c>
       <c r="BO51">
-        <v>2.04</v>
+        <v>2.55</v>
       </c>
       <c r="BP51">
-        <v>1.76</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="52" spans="1:68">
@@ -11555,7 +11555,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>7468134</v>
+        <v>7468129</v>
       </c>
       <c r="C52" t="s">
         <v>68</v>
@@ -11570,88 +11570,88 @@
         <v>7</v>
       </c>
       <c r="G52" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H52" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O52" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c r="Q52">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="R52">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S52">
+        <v>3.5</v>
+      </c>
+      <c r="T52">
+        <v>1.36</v>
+      </c>
+      <c r="U52">
+        <v>3</v>
+      </c>
+      <c r="V52">
+        <v>2.75</v>
+      </c>
+      <c r="W52">
+        <v>1.4</v>
+      </c>
+      <c r="X52">
+        <v>7</v>
+      </c>
+      <c r="Y52">
+        <v>1.1</v>
+      </c>
+      <c r="Z52">
+        <v>2.5</v>
+      </c>
+      <c r="AA52">
+        <v>3.3</v>
+      </c>
+      <c r="AB52">
+        <v>2.7</v>
+      </c>
+      <c r="AC52">
+        <v>1.02</v>
+      </c>
+      <c r="AD52">
+        <v>10</v>
+      </c>
+      <c r="AE52">
+        <v>1.2</v>
+      </c>
+      <c r="AF52">
         <v>4</v>
       </c>
-      <c r="T52">
-        <v>1.33</v>
-      </c>
-      <c r="U52">
-        <v>3.25</v>
-      </c>
-      <c r="V52">
-        <v>2.63</v>
-      </c>
-      <c r="W52">
-        <v>1.44</v>
-      </c>
-      <c r="X52">
-        <v>6.5</v>
-      </c>
-      <c r="Y52">
-        <v>1.11</v>
-      </c>
-      <c r="Z52">
-        <v>1.98</v>
-      </c>
-      <c r="AA52">
-        <v>3.5</v>
-      </c>
-      <c r="AB52">
-        <v>3.5</v>
-      </c>
-      <c r="AC52">
-        <v>1.01</v>
-      </c>
-      <c r="AD52">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AE52">
-        <v>1.24</v>
-      </c>
-      <c r="AF52">
-        <v>3.48</v>
-      </c>
       <c r="AG52">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="AH52">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="AI52">
         <v>1.67</v>
@@ -11660,100 +11660,100 @@
         <v>2.1</v>
       </c>
       <c r="AK52">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AL52">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="AM52">
-        <v>1.82</v>
+        <v>1.52</v>
       </c>
       <c r="AN52">
+        <v>3</v>
+      </c>
+      <c r="AO52">
         <v>0.33</v>
       </c>
-      <c r="AO52">
-        <v>0</v>
-      </c>
       <c r="AP52">
+        <v>1.83</v>
+      </c>
+      <c r="AQ52">
         <v>1.5</v>
       </c>
-      <c r="AQ52">
-        <v>0.29</v>
-      </c>
       <c r="AR52">
-        <v>1.76</v>
+        <v>1.61</v>
       </c>
       <c r="AS52">
-        <v>0.97</v>
+        <v>1.34</v>
       </c>
       <c r="AT52">
-        <v>2.73</v>
+        <v>2.95</v>
       </c>
       <c r="AU52">
         <v>7</v>
       </c>
       <c r="AV52">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AW52">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX52">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY52">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AZ52">
+        <v>16</v>
+      </c>
+      <c r="BA52">
+        <v>6</v>
+      </c>
+      <c r="BB52">
         <v>5</v>
       </c>
-      <c r="BA52">
-        <v>8</v>
-      </c>
-      <c r="BB52">
+      <c r="BC52">
+        <v>11</v>
+      </c>
+      <c r="BD52">
+        <v>2.05</v>
+      </c>
+      <c r="BE52">
+        <v>8.5</v>
+      </c>
+      <c r="BF52">
+        <v>2</v>
+      </c>
+      <c r="BG52">
+        <v>1.11</v>
+      </c>
+      <c r="BH52">
         <v>6</v>
       </c>
-      <c r="BC52">
-        <v>14</v>
-      </c>
-      <c r="BD52">
-        <v>1.82</v>
-      </c>
-      <c r="BE52">
-        <v>8</v>
-      </c>
-      <c r="BF52">
-        <v>2.39</v>
-      </c>
-      <c r="BG52">
-        <v>1.2</v>
-      </c>
-      <c r="BH52">
-        <v>4.2</v>
-      </c>
       <c r="BI52">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="BJ52">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="BK52">
-        <v>1.63</v>
+        <v>1.35</v>
       </c>
       <c r="BL52">
-        <v>2.2</v>
+        <v>2.84</v>
       </c>
       <c r="BM52">
-        <v>2.02</v>
+        <v>1.77</v>
       </c>
       <c r="BN52">
-        <v>1.74</v>
+        <v>1.95</v>
       </c>
       <c r="BO52">
-        <v>2.55</v>
+        <v>2.04</v>
       </c>
       <c r="BP52">
-        <v>1.47</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="53" spans="1:68">
@@ -11779,7 +11779,7 @@
         <v>80</v>
       </c>
       <c r="H53" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -11982,7 +11982,7 @@
         <v>7</v>
       </c>
       <c r="G54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H54" t="s">
         <v>82</v>
@@ -12997,7 +12997,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>7468151</v>
+        <v>7468147</v>
       </c>
       <c r="C59" t="s">
         <v>68</v>
@@ -13012,73 +13012,73 @@
         <v>9</v>
       </c>
       <c r="G59" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H59" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="I59">
         <v>1</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O59" t="s">
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>88</v>
+        <v>192</v>
       </c>
       <c r="Q59">
-        <v>3.2</v>
+        <v>3.86</v>
       </c>
       <c r="R59">
-        <v>2.1</v>
+        <v>2.19</v>
       </c>
       <c r="S59">
-        <v>3.1</v>
+        <v>2.63</v>
       </c>
       <c r="T59">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="U59">
-        <v>2.99</v>
+        <v>3.04</v>
       </c>
       <c r="V59">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="W59">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="X59">
-        <v>6.6</v>
+        <v>6.35</v>
       </c>
       <c r="Y59">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="Z59">
-        <v>2.62</v>
+        <v>3.25</v>
       </c>
       <c r="AA59">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AB59">
-        <v>2.62</v>
+        <v>2.15</v>
       </c>
       <c r="AC59">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD59">
         <v>10</v>
@@ -13087,85 +13087,85 @@
         <v>1.22</v>
       </c>
       <c r="AF59">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="AG59">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AH59">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="AI59">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="AJ59">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="AK59">
-        <v>1.47</v>
+        <v>1.71</v>
       </c>
       <c r="AL59">
         <v>1.28</v>
       </c>
       <c r="AM59">
-        <v>1.49</v>
+        <v>1.32</v>
       </c>
       <c r="AN59">
+        <v>0.75</v>
+      </c>
+      <c r="AO59">
         <v>0.5</v>
       </c>
-      <c r="AO59">
-        <v>1.75</v>
-      </c>
       <c r="AP59">
+        <v>0.88</v>
+      </c>
+      <c r="AQ59">
         <v>1.5</v>
       </c>
-      <c r="AQ59">
-        <v>1.38</v>
-      </c>
       <c r="AR59">
-        <v>1.83</v>
+        <v>1.44</v>
       </c>
       <c r="AS59">
-        <v>1.29</v>
+        <v>1.47</v>
       </c>
       <c r="AT59">
-        <v>3.12</v>
+        <v>2.91</v>
       </c>
       <c r="AU59">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV59">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AW59">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX59">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY59">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AZ59">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BA59">
         <v>4</v>
       </c>
       <c r="BB59">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC59">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD59">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="BE59">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF59">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="BG59">
         <v>0</v>
@@ -13174,28 +13174,28 @@
         <v>0</v>
       </c>
       <c r="BI59">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="BJ59">
-        <v>2.97</v>
+        <v>3.04</v>
       </c>
       <c r="BK59">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="BL59">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="BM59">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="BN59">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="BO59">
-        <v>2.43</v>
+        <v>2.38</v>
       </c>
       <c r="BP59">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="60" spans="1:68">
@@ -13203,7 +13203,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>7468147</v>
+        <v>7468151</v>
       </c>
       <c r="C60" t="s">
         <v>68</v>
@@ -13218,73 +13218,73 @@
         <v>9</v>
       </c>
       <c r="G60" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H60" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="I60">
         <v>1</v>
       </c>
       <c r="J60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M60">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O60" t="s">
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>192</v>
+        <v>88</v>
       </c>
       <c r="Q60">
-        <v>3.86</v>
+        <v>3.2</v>
       </c>
       <c r="R60">
-        <v>2.19</v>
+        <v>2.1</v>
       </c>
       <c r="S60">
-        <v>2.63</v>
+        <v>3.1</v>
       </c>
       <c r="T60">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="U60">
-        <v>3.04</v>
+        <v>2.99</v>
       </c>
       <c r="V60">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="W60">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="X60">
-        <v>6.35</v>
+        <v>6.6</v>
       </c>
       <c r="Y60">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="Z60">
-        <v>3.25</v>
+        <v>2.62</v>
       </c>
       <c r="AA60">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AB60">
-        <v>2.15</v>
+        <v>2.62</v>
       </c>
       <c r="AC60">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD60">
         <v>10</v>
@@ -13293,85 +13293,85 @@
         <v>1.22</v>
       </c>
       <c r="AF60">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="AG60">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AH60">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="AI60">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="AJ60">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="AK60">
-        <v>1.71</v>
+        <v>1.47</v>
       </c>
       <c r="AL60">
         <v>1.28</v>
       </c>
       <c r="AM60">
-        <v>1.32</v>
+        <v>1.49</v>
       </c>
       <c r="AN60">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AO60">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="AP60">
-        <v>0.88</v>
+        <v>1.5</v>
       </c>
       <c r="AQ60">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR60">
-        <v>1.44</v>
+        <v>1.83</v>
       </c>
       <c r="AS60">
-        <v>1.47</v>
+        <v>1.29</v>
       </c>
       <c r="AT60">
-        <v>2.91</v>
+        <v>3.12</v>
       </c>
       <c r="AU60">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV60">
+        <v>9</v>
+      </c>
+      <c r="AW60">
         <v>6</v>
       </c>
-      <c r="AW60">
-        <v>4</v>
-      </c>
       <c r="AX60">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY60">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ60">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BA60">
         <v>4</v>
       </c>
       <c r="BB60">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC60">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD60">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="BE60">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF60">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="BG60">
         <v>0</v>
@@ -13380,28 +13380,28 @@
         <v>0</v>
       </c>
       <c r="BI60">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="BJ60">
-        <v>3.04</v>
+        <v>2.97</v>
       </c>
       <c r="BK60">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="BL60">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="BM60">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="BN60">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="BO60">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="BP60">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="61" spans="1:68">
@@ -13633,7 +13633,7 @@
         <v>82</v>
       </c>
       <c r="H62" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I62">
         <v>1</v>
@@ -14866,10 +14866,10 @@
         <v>10</v>
       </c>
       <c r="G68" t="s">
+        <v>79</v>
+      </c>
+      <c r="H68" t="s">
         <v>78</v>
-      </c>
-      <c r="H68" t="s">
-        <v>79</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -15099,7 +15099,7 @@
         <v>135</v>
       </c>
       <c r="P69" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q69">
         <v>2.35</v>
@@ -15511,7 +15511,7 @@
         <v>137</v>
       </c>
       <c r="P71" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q71">
         <v>1.72</v>
@@ -16308,7 +16308,7 @@
         <v>11</v>
       </c>
       <c r="G75" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H75" t="s">
         <v>74</v>
@@ -16929,7 +16929,7 @@
         <v>84</v>
       </c>
       <c r="H78" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -17941,7 +17941,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>7468168</v>
+        <v>7468169</v>
       </c>
       <c r="C83" t="s">
         <v>68</v>
@@ -17956,28 +17956,28 @@
         <v>12</v>
       </c>
       <c r="G83" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H83" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N83">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O83" t="s">
         <v>143</v>
@@ -17986,94 +17986,94 @@
         <v>208</v>
       </c>
       <c r="Q83">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="R83">
         <v>2.1</v>
       </c>
       <c r="S83">
-        <v>2.95</v>
+        <v>4</v>
       </c>
       <c r="T83">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="U83">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="V83">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="W83">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="X83">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y83">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z83">
-        <v>2.53</v>
+        <v>1.98</v>
       </c>
       <c r="AA83">
-        <v>3.1</v>
+        <v>3.16</v>
       </c>
       <c r="AB83">
-        <v>2.32</v>
+        <v>3.34</v>
       </c>
       <c r="AC83">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD83">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE83">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AF83">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AG83">
-        <v>1.73</v>
+        <v>1.89</v>
       </c>
       <c r="AH83">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AI83">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="AJ83">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AK83">
-        <v>1.57</v>
+        <v>1.28</v>
       </c>
       <c r="AL83">
         <v>1.25</v>
       </c>
       <c r="AM83">
-        <v>1.4</v>
+        <v>1.78</v>
       </c>
       <c r="AN83">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="AO83">
-        <v>1.6</v>
+        <v>0.67</v>
       </c>
       <c r="AP83">
-        <v>2.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ83">
-        <v>1.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR83">
-        <v>1.81</v>
+        <v>1.14</v>
       </c>
       <c r="AS83">
-        <v>1.3</v>
+        <v>1.06</v>
       </c>
       <c r="AT83">
-        <v>3.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU83">
         <v>7</v>
@@ -18082,13 +18082,13 @@
         <v>5</v>
       </c>
       <c r="AW83">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AX83">
         <v>3</v>
       </c>
       <c r="AY83">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="AZ83">
         <v>11</v>
@@ -18097,10 +18097,10 @@
         <v>4</v>
       </c>
       <c r="BB83">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC83">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD83">
         <v>0</v>
@@ -18124,7 +18124,7 @@
         <v>0</v>
       </c>
       <c r="BK83">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="BL83">
         <v>0</v>
@@ -18147,7 +18147,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>7468169</v>
+        <v>7468168</v>
       </c>
       <c r="C84" t="s">
         <v>68</v>
@@ -18162,28 +18162,28 @@
         <v>12</v>
       </c>
       <c r="G84" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H84" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N84">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O84" t="s">
         <v>144</v>
@@ -18192,94 +18192,94 @@
         <v>209</v>
       </c>
       <c r="Q84">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="R84">
         <v>2.1</v>
       </c>
       <c r="S84">
-        <v>4</v>
+        <v>2.95</v>
       </c>
       <c r="T84">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="U84">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="V84">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="W84">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="X84">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y84">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z84">
-        <v>1.98</v>
+        <v>2.53</v>
       </c>
       <c r="AA84">
-        <v>3.16</v>
+        <v>3.1</v>
       </c>
       <c r="AB84">
-        <v>3.34</v>
+        <v>2.32</v>
       </c>
       <c r="AC84">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD84">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE84">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AF84">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AG84">
-        <v>1.89</v>
+        <v>1.73</v>
       </c>
       <c r="AH84">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AI84">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AJ84">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AK84">
-        <v>1.28</v>
+        <v>1.57</v>
       </c>
       <c r="AL84">
         <v>1.25</v>
       </c>
       <c r="AM84">
-        <v>1.78</v>
+        <v>1.4</v>
       </c>
       <c r="AN84">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="AO84">
-        <v>0.67</v>
+        <v>1.6</v>
       </c>
       <c r="AP84">
-        <v>1.29</v>
+        <v>2.5</v>
       </c>
       <c r="AQ84">
-        <v>0.63</v>
+        <v>1.57</v>
       </c>
       <c r="AR84">
-        <v>1.14</v>
+        <v>1.81</v>
       </c>
       <c r="AS84">
-        <v>1.06</v>
+        <v>1.3</v>
       </c>
       <c r="AT84">
-        <v>2.2</v>
+        <v>3.11</v>
       </c>
       <c r="AU84">
         <v>7</v>
@@ -18288,13 +18288,13 @@
         <v>5</v>
       </c>
       <c r="AW84">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AX84">
         <v>3</v>
       </c>
       <c r="AY84">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AZ84">
         <v>11</v>
@@ -18303,10 +18303,10 @@
         <v>4</v>
       </c>
       <c r="BB84">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC84">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD84">
         <v>0</v>
@@ -18330,7 +18330,7 @@
         <v>0</v>
       </c>
       <c r="BK84">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="BL84">
         <v>0</v>
@@ -18765,7 +18765,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>7468173</v>
+        <v>7468175</v>
       </c>
       <c r="C87" t="s">
         <v>68</v>
@@ -18780,160 +18780,160 @@
         <v>12</v>
       </c>
       <c r="G87" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H87" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L87">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N87">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O87" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>212</v>
+        <v>90</v>
       </c>
       <c r="Q87">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="R87">
+        <v>2.3</v>
+      </c>
+      <c r="S87">
+        <v>5.5</v>
+      </c>
+      <c r="T87">
+        <v>1.36</v>
+      </c>
+      <c r="U87">
+        <v>3</v>
+      </c>
+      <c r="V87">
+        <v>2.63</v>
+      </c>
+      <c r="W87">
+        <v>1.44</v>
+      </c>
+      <c r="X87">
+        <v>7</v>
+      </c>
+      <c r="Y87">
+        <v>1.1</v>
+      </c>
+      <c r="Z87">
+        <v>1.57</v>
+      </c>
+      <c r="AA87">
+        <v>4.2</v>
+      </c>
+      <c r="AB87">
+        <v>5.55</v>
+      </c>
+      <c r="AC87">
+        <v>1.04</v>
+      </c>
+      <c r="AD87">
+        <v>9</v>
+      </c>
+      <c r="AE87">
+        <v>1.25</v>
+      </c>
+      <c r="AF87">
+        <v>3.6</v>
+      </c>
+      <c r="AG87">
+        <v>1.74</v>
+      </c>
+      <c r="AH87">
         <v>2.1</v>
       </c>
-      <c r="S87">
-        <v>4.75</v>
-      </c>
-      <c r="T87">
-        <v>1.44</v>
-      </c>
-      <c r="U87">
-        <v>2.63</v>
-      </c>
-      <c r="V87">
-        <v>3.25</v>
-      </c>
-      <c r="W87">
-        <v>1.33</v>
-      </c>
-      <c r="X87">
-        <v>9</v>
-      </c>
-      <c r="Y87">
-        <v>1.07</v>
-      </c>
-      <c r="Z87">
-        <v>1.86</v>
-      </c>
-      <c r="AA87">
-        <v>3.58</v>
-      </c>
-      <c r="AB87">
-        <v>4.22</v>
-      </c>
-      <c r="AC87">
-        <v>1.06</v>
-      </c>
-      <c r="AD87">
-        <v>8</v>
-      </c>
-      <c r="AE87">
-        <v>1.36</v>
-      </c>
-      <c r="AF87">
-        <v>3</v>
-      </c>
-      <c r="AG87">
-        <v>2.1</v>
-      </c>
-      <c r="AH87">
-        <v>1.74</v>
-      </c>
       <c r="AI87">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AJ87">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AK87">
-        <v>1.2</v>
+        <v>1.11</v>
       </c>
       <c r="AL87">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AM87">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="AN87">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AO87">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AP87">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR87">
-        <v>1.12</v>
+        <v>1.73</v>
       </c>
       <c r="AS87">
-        <v>1.36</v>
+        <v>1.04</v>
       </c>
       <c r="AT87">
-        <v>2.48</v>
+        <v>2.77</v>
       </c>
       <c r="AU87">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW87">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX87">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY87">
         <v>9</v>
       </c>
       <c r="AZ87">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA87">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB87">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BC87">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BD87">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="BE87">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="BF87">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="BG87">
         <v>0</v>
@@ -18942,28 +18942,28 @@
         <v>0</v>
       </c>
       <c r="BI87">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="BJ87">
-        <v>3.04</v>
+        <v>3.62</v>
       </c>
       <c r="BK87">
-        <v>2</v>
+        <v>1.38</v>
       </c>
       <c r="BL87">
-        <v>2.26</v>
+        <v>2.62</v>
       </c>
       <c r="BM87">
-        <v>1.91</v>
+        <v>1.77</v>
       </c>
       <c r="BN87">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="BO87">
-        <v>2.38</v>
+        <v>2.07</v>
       </c>
       <c r="BP87">
-        <v>1.46</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="88" spans="1:68">
@@ -18971,7 +18971,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>7468175</v>
+        <v>7468173</v>
       </c>
       <c r="C88" t="s">
         <v>68</v>
@@ -18986,160 +18986,160 @@
         <v>12</v>
       </c>
       <c r="G88" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H88" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L88">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N88">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O88" t="s">
-        <v>147</v>
+        <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>90</v>
+        <v>212</v>
       </c>
       <c r="Q88">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="R88">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="S88">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="T88">
+        <v>1.44</v>
+      </c>
+      <c r="U88">
+        <v>2.63</v>
+      </c>
+      <c r="V88">
+        <v>3.25</v>
+      </c>
+      <c r="W88">
+        <v>1.33</v>
+      </c>
+      <c r="X88">
+        <v>9</v>
+      </c>
+      <c r="Y88">
+        <v>1.07</v>
+      </c>
+      <c r="Z88">
+        <v>1.86</v>
+      </c>
+      <c r="AA88">
+        <v>3.58</v>
+      </c>
+      <c r="AB88">
+        <v>4.22</v>
+      </c>
+      <c r="AC88">
+        <v>1.06</v>
+      </c>
+      <c r="AD88">
+        <v>8</v>
+      </c>
+      <c r="AE88">
         <v>1.36</v>
       </c>
-      <c r="U88">
-        <v>3</v>
-      </c>
-      <c r="V88">
-        <v>2.63</v>
-      </c>
-      <c r="W88">
-        <v>1.44</v>
-      </c>
-      <c r="X88">
-        <v>7</v>
-      </c>
-      <c r="Y88">
-        <v>1.1</v>
-      </c>
-      <c r="Z88">
-        <v>1.57</v>
-      </c>
-      <c r="AA88">
-        <v>4.2</v>
-      </c>
-      <c r="AB88">
-        <v>5.55</v>
-      </c>
-      <c r="AC88">
-        <v>1.04</v>
-      </c>
-      <c r="AD88">
-        <v>9</v>
-      </c>
-      <c r="AE88">
+      <c r="AF88">
+        <v>3</v>
+      </c>
+      <c r="AG88">
+        <v>2.1</v>
+      </c>
+      <c r="AH88">
+        <v>1.74</v>
+      </c>
+      <c r="AI88">
+        <v>1.95</v>
+      </c>
+      <c r="AJ88">
+        <v>1.8</v>
+      </c>
+      <c r="AK88">
+        <v>1.2</v>
+      </c>
+      <c r="AL88">
         <v>1.25</v>
       </c>
-      <c r="AF88">
-        <v>3.6</v>
-      </c>
-      <c r="AG88">
-        <v>1.74</v>
-      </c>
-      <c r="AH88">
-        <v>2.1</v>
-      </c>
-      <c r="AI88">
-        <v>1.91</v>
-      </c>
-      <c r="AJ88">
-        <v>1.91</v>
-      </c>
-      <c r="AK88">
-        <v>1.11</v>
-      </c>
-      <c r="AL88">
-        <v>1.18</v>
-      </c>
       <c r="AM88">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="AN88">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="AO88">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AP88">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR88">
-        <v>1.73</v>
+        <v>1.12</v>
       </c>
       <c r="AS88">
-        <v>1.04</v>
+        <v>1.36</v>
       </c>
       <c r="AT88">
-        <v>2.77</v>
+        <v>2.48</v>
       </c>
       <c r="AU88">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW88">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY88">
         <v>9</v>
       </c>
       <c r="AZ88">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA88">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BB88">
+        <v>3</v>
+      </c>
+      <c r="BC88">
         <v>8</v>
       </c>
-      <c r="BC88">
-        <v>15</v>
-      </c>
       <c r="BD88">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="BE88">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="BF88">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="BG88">
         <v>0</v>
@@ -19148,28 +19148,28 @@
         <v>0</v>
       </c>
       <c r="BI88">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="BJ88">
-        <v>3.62</v>
+        <v>3.04</v>
       </c>
       <c r="BK88">
-        <v>1.38</v>
+        <v>2</v>
       </c>
       <c r="BL88">
-        <v>2.62</v>
+        <v>2.26</v>
       </c>
       <c r="BM88">
-        <v>1.77</v>
+        <v>1.91</v>
       </c>
       <c r="BN88">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="BO88">
-        <v>2.07</v>
+        <v>2.38</v>
       </c>
       <c r="BP88">
-        <v>1.61</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="89" spans="1:68">
@@ -19604,7 +19604,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H91" t="s">
         <v>83</v>
@@ -20222,7 +20222,7 @@
         <v>13</v>
       </c>
       <c r="G94" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H94" t="s">
         <v>73</v>
@@ -21255,7 +21255,7 @@
         <v>71</v>
       </c>
       <c r="H99" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I99">
         <v>2</v>
@@ -22079,7 +22079,7 @@
         <v>73</v>
       </c>
       <c r="H103" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -22900,7 +22900,7 @@
         <v>0</v>
       </c>
       <c r="G107" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H107" t="s">
         <v>71</v>
@@ -23297,7 +23297,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>7468195</v>
+        <v>7468194</v>
       </c>
       <c r="C109" t="s">
         <v>68</v>
@@ -23306,34 +23306,34 @@
         <v>69</v>
       </c>
       <c r="E109" s="2">
-        <v>45605.875</v>
+        <v>45606.375</v>
       </c>
       <c r="F109">
         <v>15</v>
       </c>
       <c r="G109" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H109" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J109">
         <v>1</v>
       </c>
       <c r="K109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L109">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M109">
         <v>2</v>
       </c>
       <c r="N109">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O109" t="s">
         <v>161</v>
@@ -23342,160 +23342,160 @@
         <v>219</v>
       </c>
       <c r="Q109">
-        <v>4.6</v>
+        <v>2.24</v>
       </c>
       <c r="R109">
-        <v>2.45</v>
+        <v>2.28</v>
       </c>
       <c r="S109">
-        <v>2</v>
+        <v>4.55</v>
       </c>
       <c r="T109">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="U109">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="V109">
-        <v>2.25</v>
+        <v>2.54</v>
       </c>
       <c r="W109">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="X109">
-        <v>4.75</v>
+        <v>5.8</v>
       </c>
       <c r="Y109">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="Z109">
+        <v>1.7</v>
+      </c>
+      <c r="AA109">
+        <v>3.6</v>
+      </c>
+      <c r="AB109">
         <v>4.5</v>
       </c>
-      <c r="AA109">
-        <v>3.7</v>
-      </c>
-      <c r="AB109">
-        <v>1.7</v>
-      </c>
       <c r="AC109">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="AD109">
-        <v>13</v>
+        <v>8.1</v>
       </c>
       <c r="AE109">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AF109">
-        <v>4.25</v>
+        <v>3.44</v>
       </c>
       <c r="AG109">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="AH109">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="AI109">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AJ109">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="AK109">
-        <v>2.3</v>
+        <v>1.18</v>
       </c>
       <c r="AL109">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="AM109">
-        <v>1.14</v>
+        <v>2.08</v>
       </c>
       <c r="AN109">
-        <v>1.5</v>
+        <v>0.57</v>
       </c>
       <c r="AO109">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="AP109">
-        <v>1.43</v>
+        <v>0.88</v>
       </c>
       <c r="AQ109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR109">
         <v>1.51</v>
       </c>
       <c r="AS109">
-        <v>1.71</v>
+        <v>1.01</v>
       </c>
       <c r="AT109">
-        <v>3.22</v>
+        <v>2.52</v>
       </c>
       <c r="AU109">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AV109">
+        <v>5</v>
+      </c>
+      <c r="AW109">
+        <v>3</v>
+      </c>
+      <c r="AX109">
+        <v>1</v>
+      </c>
+      <c r="AY109">
+        <v>17</v>
+      </c>
+      <c r="AZ109">
+        <v>6</v>
+      </c>
+      <c r="BA109">
         <v>8</v>
       </c>
-      <c r="AW109">
-        <v>5</v>
-      </c>
-      <c r="AX109">
-        <v>7</v>
-      </c>
-      <c r="AY109">
-        <v>18</v>
-      </c>
-      <c r="AZ109">
-        <v>19</v>
-      </c>
-      <c r="BA109">
-        <v>4</v>
-      </c>
       <c r="BB109">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC109">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BD109">
-        <v>2.88</v>
+        <v>1.35</v>
       </c>
       <c r="BE109">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BF109">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="BG109">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="BH109">
-        <v>3.58</v>
+        <v>5.42</v>
       </c>
       <c r="BI109">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="BJ109">
-        <v>2.88</v>
+        <v>3.55</v>
       </c>
       <c r="BK109">
-        <v>1.56</v>
+        <v>1.38</v>
       </c>
       <c r="BL109">
+        <v>2.54</v>
+      </c>
+      <c r="BM109">
+        <v>1.77</v>
+      </c>
+      <c r="BN109">
+        <v>1.95</v>
+      </c>
+      <c r="BO109">
         <v>2.16</v>
       </c>
-      <c r="BM109">
-        <v>1.95</v>
-      </c>
-      <c r="BN109">
-        <v>1.77</v>
-      </c>
-      <c r="BO109">
-        <v>2.52</v>
-      </c>
       <c r="BP109">
-        <v>1.41</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="110" spans="1:68">
@@ -23503,7 +23503,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>7468194</v>
+        <v>7468195</v>
       </c>
       <c r="C110" t="s">
         <v>68</v>
@@ -23512,34 +23512,34 @@
         <v>69</v>
       </c>
       <c r="E110" s="2">
-        <v>45605.875</v>
+        <v>45606.47916666666</v>
       </c>
       <c r="F110">
         <v>0</v>
       </c>
       <c r="G110" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H110" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J110">
         <v>1</v>
       </c>
       <c r="K110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L110">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M110">
         <v>2</v>
       </c>
       <c r="N110">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O110" t="s">
         <v>162</v>
@@ -23548,160 +23548,160 @@
         <v>220</v>
       </c>
       <c r="Q110">
-        <v>2.24</v>
+        <v>4.6</v>
       </c>
       <c r="R110">
-        <v>2.28</v>
+        <v>2.45</v>
       </c>
       <c r="S110">
-        <v>4.55</v>
+        <v>2</v>
       </c>
       <c r="T110">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="U110">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="V110">
-        <v>2.54</v>
+        <v>2.25</v>
       </c>
       <c r="W110">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="X110">
-        <v>5.8</v>
+        <v>4.75</v>
       </c>
       <c r="Y110">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="Z110">
+        <v>4.5</v>
+      </c>
+      <c r="AA110">
+        <v>3.7</v>
+      </c>
+      <c r="AB110">
         <v>1.7</v>
       </c>
-      <c r="AA110">
-        <v>3.6</v>
-      </c>
-      <c r="AB110">
-        <v>4.5</v>
-      </c>
       <c r="AC110">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="AD110">
-        <v>8.1</v>
+        <v>13</v>
       </c>
       <c r="AE110">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AF110">
-        <v>3.44</v>
+        <v>4.25</v>
       </c>
       <c r="AG110">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="AH110">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="AI110">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="AJ110">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="AK110">
-        <v>1.18</v>
+        <v>2.3</v>
       </c>
       <c r="AL110">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AM110">
-        <v>2.08</v>
+        <v>1.14</v>
       </c>
       <c r="AN110">
-        <v>0.57</v>
+        <v>1.5</v>
       </c>
       <c r="AO110">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AP110">
-        <v>0.88</v>
+        <v>1.43</v>
       </c>
       <c r="AQ110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR110">
         <v>1.51</v>
       </c>
       <c r="AS110">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="AT110">
+        <v>3.22</v>
+      </c>
+      <c r="AU110">
+        <v>4</v>
+      </c>
+      <c r="AV110">
+        <v>8</v>
+      </c>
+      <c r="AW110">
+        <v>5</v>
+      </c>
+      <c r="AX110">
+        <v>7</v>
+      </c>
+      <c r="AY110">
+        <v>18</v>
+      </c>
+      <c r="AZ110">
+        <v>19</v>
+      </c>
+      <c r="BA110">
+        <v>4</v>
+      </c>
+      <c r="BB110">
+        <v>4</v>
+      </c>
+      <c r="BC110">
+        <v>8</v>
+      </c>
+      <c r="BD110">
+        <v>2.88</v>
+      </c>
+      <c r="BE110">
+        <v>9</v>
+      </c>
+      <c r="BF110">
+        <v>1.5</v>
+      </c>
+      <c r="BG110">
+        <v>1.19</v>
+      </c>
+      <c r="BH110">
+        <v>3.58</v>
+      </c>
+      <c r="BI110">
+        <v>1.3</v>
+      </c>
+      <c r="BJ110">
+        <v>2.88</v>
+      </c>
+      <c r="BK110">
+        <v>1.56</v>
+      </c>
+      <c r="BL110">
+        <v>2.16</v>
+      </c>
+      <c r="BM110">
+        <v>1.95</v>
+      </c>
+      <c r="BN110">
+        <v>1.77</v>
+      </c>
+      <c r="BO110">
         <v>2.52</v>
       </c>
-      <c r="AU110">
-        <v>10</v>
-      </c>
-      <c r="AV110">
-        <v>5</v>
-      </c>
-      <c r="AW110">
-        <v>3</v>
-      </c>
-      <c r="AX110">
-        <v>1</v>
-      </c>
-      <c r="AY110">
-        <v>17</v>
-      </c>
-      <c r="AZ110">
-        <v>6</v>
-      </c>
-      <c r="BA110">
-        <v>8</v>
-      </c>
-      <c r="BB110">
-        <v>3</v>
-      </c>
-      <c r="BC110">
-        <v>11</v>
-      </c>
-      <c r="BD110">
-        <v>1.35</v>
-      </c>
-      <c r="BE110">
-        <v>10</v>
-      </c>
-      <c r="BF110">
-        <v>3.5</v>
-      </c>
-      <c r="BG110">
-        <v>1.15</v>
-      </c>
-      <c r="BH110">
-        <v>5.42</v>
-      </c>
-      <c r="BI110">
-        <v>1.25</v>
-      </c>
-      <c r="BJ110">
-        <v>3.55</v>
-      </c>
-      <c r="BK110">
-        <v>1.38</v>
-      </c>
-      <c r="BL110">
-        <v>2.54</v>
-      </c>
-      <c r="BM110">
-        <v>1.77</v>
-      </c>
-      <c r="BN110">
-        <v>1.95</v>
-      </c>
-      <c r="BO110">
-        <v>2.16</v>
-      </c>
       <c r="BP110">
-        <v>1.62</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="111" spans="1:68">
@@ -23718,7 +23718,7 @@
         <v>69</v>
       </c>
       <c r="E111" s="2">
-        <v>45605.875</v>
+        <v>45606.47916666666</v>
       </c>
       <c r="F111">
         <v>15</v>
@@ -23924,10 +23924,10 @@
         <v>69</v>
       </c>
       <c r="E112" s="2">
-        <v>45605.875</v>
+        <v>45606.60416666666</v>
       </c>
       <c r="F112">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G112" t="s">
         <v>80</v>
@@ -24068,13 +24068,13 @@
         <v>6</v>
       </c>
       <c r="BA112">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB112">
         <v>3</v>
       </c>
       <c r="BC112">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD112">
         <v>1.08</v>
